--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="1566">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5194,6 +5194,9 @@
   </si>
   <si>
     <t>console.log</t>
+  </si>
+  <si>
+    <t>ron2!</t>
   </si>
 </sst>
 </file>
@@ -6436,6 +6439,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6443,6 +6450,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6456,18 +6475,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6562,6 +6569,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6583,23 +6602,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6631,6 +6635,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6640,59 +6647,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6754,6 +6710,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6775,17 +6782,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6829,54 +6869,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13593,10 +13596,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="389" t="s">
+      <c r="L35" s="391" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="389"/>
+      <c r="M35" s="391"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -15526,10 +15529,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="390" t="s">
+      <c r="A155" s="392" t="s">
         <v>1009</v>
       </c>
-      <c r="B155" s="390"/>
+      <c r="B155" s="392"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="92" t="s">
@@ -17119,18 +17122,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="398" t="s">
+      <c r="E6" s="393" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="351"/>
-      <c r="G6" s="350" t="s">
+      <c r="F6" s="353"/>
+      <c r="G6" s="352" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="350"/>
-      <c r="I6" s="350"/>
-      <c r="J6" s="350"/>
-      <c r="K6" s="350"/>
-      <c r="L6" s="351"/>
+      <c r="H6" s="352"/>
+      <c r="I6" s="352"/>
+      <c r="J6" s="352"/>
+      <c r="K6" s="352"/>
+      <c r="L6" s="353"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="27" t="s">
@@ -17140,7 +17143,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="395">
+      <c r="D7" s="401">
         <v>80</v>
       </c>
       <c r="E7" s="65"/>
@@ -17158,7 +17161,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="395"/>
+      <c r="D8" s="401"/>
       <c r="E8" s="57" t="s">
         <v>408</v>
       </c>
@@ -17193,7 +17196,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="395"/>
+      <c r="D9" s="401"/>
       <c r="E9" s="236"/>
       <c r="F9" s="242"/>
       <c r="G9" s="236"/>
@@ -17217,7 +17220,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="395"/>
+      <c r="D10" s="401"/>
       <c r="E10" s="65"/>
       <c r="F10" s="241"/>
       <c r="G10" s="65"/>
@@ -17241,7 +17244,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="395"/>
+      <c r="D11" s="401"/>
       <c r="E11" s="57" t="s">
         <v>412</v>
       </c>
@@ -17270,7 +17273,7 @@
       <c r="B12" s="213" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="395"/>
+      <c r="D12" s="401"/>
       <c r="E12" s="236"/>
       <c r="F12" s="242"/>
       <c r="G12" s="236"/>
@@ -17288,7 +17291,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="395"/>
+      <c r="D13" s="401"/>
       <c r="E13" s="65"/>
       <c r="F13" s="241"/>
       <c r="G13" s="65"/>
@@ -17304,7 +17307,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="395"/>
+      <c r="D14" s="401"/>
       <c r="E14" s="57" t="s">
         <v>417</v>
       </c>
@@ -17328,7 +17331,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="395"/>
+      <c r="D15" s="401"/>
       <c r="E15" s="236"/>
       <c r="F15" s="242"/>
       <c r="G15" s="236"/>
@@ -17344,7 +17347,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="395"/>
+      <c r="D16" s="401"/>
       <c r="E16" s="65"/>
       <c r="F16" s="241"/>
       <c r="G16" s="58"/>
@@ -17360,7 +17363,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="395"/>
+      <c r="D17" s="401"/>
       <c r="E17" s="57" t="s">
         <v>421</v>
       </c>
@@ -17384,7 +17387,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="395"/>
+      <c r="D18" s="401"/>
       <c r="E18" s="236"/>
       <c r="F18" s="242"/>
       <c r="G18" s="325"/>
@@ -17401,20 +17404,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="399" t="s">
+      <c r="E19" s="394" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="400"/>
-      <c r="G19" s="399" t="s">
+      <c r="F19" s="395"/>
+      <c r="G19" s="394" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="400"/>
-      <c r="I19" s="399" t="s">
+      <c r="H19" s="395"/>
+      <c r="I19" s="394" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="401"/>
-      <c r="K19" s="401"/>
-      <c r="L19" s="400"/>
+      <c r="J19" s="396"/>
+      <c r="K19" s="396"/>
+      <c r="L19" s="395"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -17479,12 +17482,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="397"/>
-      <c r="H24" s="397"/>
-      <c r="I24" s="397"/>
-      <c r="J24" s="397"/>
-      <c r="K24" s="397"/>
-      <c r="L24" s="397"/>
+      <c r="G24" s="403"/>
+      <c r="H24" s="403"/>
+      <c r="I24" s="403"/>
+      <c r="J24" s="403"/>
+      <c r="K24" s="403"/>
+      <c r="L24" s="403"/>
       <c r="O24" s="39" t="s">
         <v>178</v>
       </c>
@@ -17857,11 +17860,11 @@
       <c r="G47" s="226" t="s">
         <v>899</v>
       </c>
-      <c r="H47" s="387" t="s">
+      <c r="H47" s="389" t="s">
         <v>1370</v>
       </c>
-      <c r="I47" s="396"/>
-      <c r="J47" s="388"/>
+      <c r="I47" s="402"/>
+      <c r="J47" s="390"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -18467,16 +18470,16 @@
         <v>1064</v>
       </c>
       <c r="F131" s="37"/>
-      <c r="G131" s="393" t="s">
+      <c r="G131" s="399" t="s">
         <v>1057</v>
       </c>
-      <c r="H131" s="393"/>
-      <c r="I131" s="393"/>
-      <c r="J131" s="393"/>
-      <c r="K131" s="393"/>
-      <c r="L131" s="393"/>
-      <c r="M131" s="393"/>
-      <c r="N131" s="393"/>
+      <c r="H131" s="399"/>
+      <c r="I131" s="399"/>
+      <c r="J131" s="399"/>
+      <c r="K131" s="399"/>
+      <c r="L131" s="399"/>
+      <c r="M131" s="399"/>
+      <c r="N131" s="399"/>
       <c r="O131" s="37"/>
     </row>
     <row r="132" spans="2:15">
@@ -18613,29 +18616,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="37"/>
-      <c r="G141" s="394"/>
-      <c r="H141" s="394"/>
-      <c r="I141" s="394"/>
-      <c r="J141" s="394"/>
-      <c r="K141" s="394"/>
-      <c r="L141" s="394"/>
-      <c r="M141" s="394"/>
-      <c r="N141" s="394"/>
-      <c r="O141" s="394"/>
+      <c r="G141" s="400"/>
+      <c r="H141" s="400"/>
+      <c r="I141" s="400"/>
+      <c r="J141" s="400"/>
+      <c r="K141" s="400"/>
+      <c r="L141" s="400"/>
+      <c r="M141" s="400"/>
+      <c r="N141" s="400"/>
+      <c r="O141" s="400"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="394"/>
-      <c r="H142" s="394"/>
-      <c r="I142" s="394"/>
-      <c r="J142" s="394"/>
-      <c r="K142" s="394"/>
-      <c r="L142" s="394"/>
-      <c r="M142" s="394"/>
-      <c r="N142" s="394"/>
-      <c r="O142" s="394"/>
+      <c r="G142" s="400"/>
+      <c r="H142" s="400"/>
+      <c r="I142" s="400"/>
+      <c r="J142" s="400"/>
+      <c r="K142" s="400"/>
+      <c r="L142" s="400"/>
+      <c r="M142" s="400"/>
+      <c r="N142" s="400"/>
+      <c r="O142" s="400"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -18679,7 +18682,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="391" t="s">
+      <c r="D158" s="397" t="s">
         <v>1336</v>
       </c>
       <c r="E158" s="65"/>
@@ -18692,7 +18695,7 @@
       <c r="L158" s="241"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="392"/>
+      <c r="D159" s="398"/>
       <c r="E159" s="317" t="s">
         <v>1334</v>
       </c>
@@ -18714,7 +18717,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="392"/>
+      <c r="D160" s="398"/>
       <c r="E160" s="236"/>
       <c r="F160" s="242"/>
       <c r="G160" s="236"/>
@@ -18725,7 +18728,7 @@
       <c r="L160" s="242"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="392"/>
+      <c r="D161" s="398"/>
       <c r="E161" s="319"/>
       <c r="F161" s="320"/>
       <c r="G161" s="319"/>
@@ -18736,7 +18739,7 @@
       <c r="L161" s="320"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="392"/>
+      <c r="D162" s="398"/>
       <c r="E162" s="321"/>
       <c r="F162" s="322"/>
       <c r="G162" s="321"/>
@@ -18750,7 +18753,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="392"/>
+      <c r="D163" s="398"/>
       <c r="E163" s="323"/>
       <c r="F163" s="324"/>
       <c r="G163" s="323"/>
@@ -18761,7 +18764,7 @@
       <c r="L163" s="324"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="392"/>
+      <c r="D164" s="398"/>
       <c r="E164" s="65"/>
       <c r="F164" s="241"/>
       <c r="G164" s="65"/>
@@ -18772,7 +18775,7 @@
       <c r="L164" s="241"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="392"/>
+      <c r="D165" s="398"/>
       <c r="E165" s="57"/>
       <c r="F165" s="316"/>
       <c r="G165" s="57"/>
@@ -18786,7 +18789,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="392"/>
+      <c r="D166" s="398"/>
       <c r="E166" s="236"/>
       <c r="F166" s="242"/>
       <c r="G166" s="236"/>
@@ -18797,7 +18800,7 @@
       <c r="L166" s="242"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="392"/>
+      <c r="D167" s="398"/>
       <c r="E167" s="65"/>
       <c r="F167" s="241"/>
       <c r="G167" s="58"/>
@@ -18808,7 +18811,7 @@
       <c r="L167" s="316"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="392"/>
+      <c r="D168" s="398"/>
       <c r="E168" s="57"/>
       <c r="F168" s="316"/>
       <c r="G168" s="58"/>
@@ -18822,7 +18825,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="392"/>
+      <c r="D169" s="398"/>
       <c r="E169" s="236"/>
       <c r="F169" s="242"/>
       <c r="G169" s="325"/>
@@ -19002,17 +19005,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -19257,13 +19260,13 @@
       <c r="C20" s="115">
         <v>43908</v>
       </c>
-      <c r="D20" s="402" t="s">
+      <c r="D20" s="404" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="402"/>
-      <c r="F20" s="402"/>
-      <c r="G20" s="402"/>
-      <c r="H20" s="402"/>
+      <c r="E20" s="404"/>
+      <c r="F20" s="404"/>
+      <c r="G20" s="404"/>
+      <c r="H20" s="404"/>
       <c r="I20" s="37" t="s">
         <v>457</v>
       </c>
@@ -19274,37 +19277,37 @@
       <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="403">
+      <c r="C21" s="415">
         <v>43909</v>
       </c>
-      <c r="D21" s="402"/>
-      <c r="E21" s="402"/>
-      <c r="F21" s="402"/>
-      <c r="G21" s="402"/>
-      <c r="H21" s="402"/>
+      <c r="D21" s="404"/>
+      <c r="E21" s="404"/>
+      <c r="F21" s="404"/>
+      <c r="G21" s="404"/>
+      <c r="H21" s="404"/>
       <c r="I21" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="402"/>
-      <c r="K21" s="402"/>
-      <c r="L21" s="402" t="s">
+      <c r="J21" s="404"/>
+      <c r="K21" s="404"/>
+      <c r="L21" s="404" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="402"/>
-      <c r="N21" s="402"/>
+      <c r="M21" s="404"/>
+      <c r="N21" s="404"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="403"/>
-      <c r="D22" s="402"/>
-      <c r="E22" s="402"/>
-      <c r="F22" s="402"/>
-      <c r="G22" s="402"/>
-      <c r="H22" s="402"/>
-      <c r="I22" s="355" t="s">
+      <c r="C22" s="415"/>
+      <c r="D22" s="404"/>
+      <c r="E22" s="404"/>
+      <c r="F22" s="404"/>
+      <c r="G22" s="404"/>
+      <c r="H22" s="404"/>
+      <c r="I22" s="361" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="402"/>
-      <c r="K22" s="402"/>
+      <c r="J22" s="404"/>
+      <c r="K22" s="404"/>
       <c r="L22" s="116" t="s">
         <v>461</v>
       </c>
@@ -19312,31 +19315,31 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="403"/>
-      <c r="D23" s="402"/>
-      <c r="E23" s="402"/>
-      <c r="F23" s="402"/>
-      <c r="G23" s="402"/>
-      <c r="H23" s="402"/>
-      <c r="I23" s="355"/>
-      <c r="J23" s="402"/>
-      <c r="K23" s="402"/>
-      <c r="L23" s="402" t="s">
+      <c r="C23" s="415"/>
+      <c r="D23" s="404"/>
+      <c r="E23" s="404"/>
+      <c r="F23" s="404"/>
+      <c r="G23" s="404"/>
+      <c r="H23" s="404"/>
+      <c r="I23" s="361"/>
+      <c r="J23" s="404"/>
+      <c r="K23" s="404"/>
+      <c r="L23" s="404" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="402"/>
-      <c r="N23" s="402"/>
+      <c r="M23" s="404"/>
+      <c r="N23" s="404"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="403"/>
-      <c r="D24" s="402"/>
-      <c r="E24" s="402"/>
-      <c r="F24" s="402"/>
-      <c r="G24" s="402"/>
-      <c r="H24" s="402"/>
-      <c r="I24" s="355"/>
-      <c r="J24" s="402"/>
-      <c r="K24" s="402"/>
+      <c r="C24" s="415"/>
+      <c r="D24" s="404"/>
+      <c r="E24" s="404"/>
+      <c r="F24" s="404"/>
+      <c r="G24" s="404"/>
+      <c r="H24" s="404"/>
+      <c r="I24" s="361"/>
+      <c r="J24" s="404"/>
+      <c r="K24" s="404"/>
       <c r="L24" s="117" t="s">
         <v>460</v>
       </c>
@@ -19347,13 +19350,13 @@
       <c r="C25" s="115">
         <v>43910</v>
       </c>
-      <c r="D25" s="402" t="s">
+      <c r="D25" s="404" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="402"/>
-      <c r="F25" s="402"/>
-      <c r="G25" s="402"/>
-      <c r="H25" s="402"/>
+      <c r="E25" s="404"/>
+      <c r="F25" s="404"/>
+      <c r="G25" s="404"/>
+      <c r="H25" s="404"/>
       <c r="I25" s="37" t="s">
         <v>464</v>
       </c>
@@ -19367,16 +19370,16 @@
       <c r="C26" s="115">
         <v>43911</v>
       </c>
-      <c r="D26" s="404"/>
-      <c r="E26" s="405"/>
-      <c r="F26" s="405"/>
-      <c r="G26" s="405"/>
-      <c r="H26" s="406"/>
-      <c r="I26" s="411" t="s">
+      <c r="D26" s="405"/>
+      <c r="E26" s="406"/>
+      <c r="F26" s="406"/>
+      <c r="G26" s="406"/>
+      <c r="H26" s="407"/>
+      <c r="I26" s="412" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="404"/>
-      <c r="K26" s="406"/>
+      <c r="J26" s="405"/>
+      <c r="K26" s="407"/>
       <c r="L26" s="116" t="s">
         <v>461</v>
       </c>
@@ -19385,30 +19388,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="37"/>
-      <c r="D27" s="407"/>
-      <c r="E27" s="397"/>
-      <c r="F27" s="397"/>
-      <c r="G27" s="397"/>
-      <c r="H27" s="408"/>
-      <c r="I27" s="412"/>
-      <c r="J27" s="407"/>
-      <c r="K27" s="408"/>
-      <c r="L27" s="402" t="s">
+      <c r="D27" s="408"/>
+      <c r="E27" s="403"/>
+      <c r="F27" s="403"/>
+      <c r="G27" s="403"/>
+      <c r="H27" s="409"/>
+      <c r="I27" s="413"/>
+      <c r="J27" s="408"/>
+      <c r="K27" s="409"/>
+      <c r="L27" s="404" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="402"/>
-      <c r="N27" s="402"/>
+      <c r="M27" s="404"/>
+      <c r="N27" s="404"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="37"/>
-      <c r="D28" s="407"/>
-      <c r="E28" s="397"/>
-      <c r="F28" s="397"/>
-      <c r="G28" s="397"/>
-      <c r="H28" s="408"/>
-      <c r="I28" s="412"/>
-      <c r="J28" s="407"/>
-      <c r="K28" s="408"/>
+      <c r="D28" s="408"/>
+      <c r="E28" s="403"/>
+      <c r="F28" s="403"/>
+      <c r="G28" s="403"/>
+      <c r="H28" s="409"/>
+      <c r="I28" s="413"/>
+      <c r="J28" s="408"/>
+      <c r="K28" s="409"/>
       <c r="L28" s="117" t="s">
         <v>460</v>
       </c>
@@ -19417,14 +19420,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="37"/>
-      <c r="D29" s="409"/>
-      <c r="E29" s="389"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="389"/>
-      <c r="H29" s="410"/>
-      <c r="I29" s="413"/>
-      <c r="J29" s="409"/>
-      <c r="K29" s="410"/>
+      <c r="D29" s="410"/>
+      <c r="E29" s="391"/>
+      <c r="F29" s="391"/>
+      <c r="G29" s="391"/>
+      <c r="H29" s="411"/>
+      <c r="I29" s="414"/>
+      <c r="J29" s="410"/>
+      <c r="K29" s="411"/>
       <c r="L29" s="118" t="s">
         <v>466</v>
       </c>
@@ -19472,13 +19475,13 @@
       <c r="C33" s="115">
         <v>43908</v>
       </c>
-      <c r="D33" s="402" t="s">
+      <c r="D33" s="404" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="402"/>
-      <c r="F33" s="402"/>
-      <c r="G33" s="402"/>
-      <c r="H33" s="402"/>
+      <c r="E33" s="404"/>
+      <c r="F33" s="404"/>
+      <c r="G33" s="404"/>
+      <c r="H33" s="404"/>
       <c r="I33" s="37" t="s">
         <v>457</v>
       </c>
@@ -19489,33 +19492,33 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="403">
+      <c r="C34" s="415">
         <v>43909</v>
       </c>
-      <c r="D34" s="402"/>
-      <c r="E34" s="402"/>
-      <c r="F34" s="402"/>
-      <c r="G34" s="402"/>
-      <c r="H34" s="402"/>
-      <c r="I34" s="414"/>
-      <c r="J34" s="402"/>
-      <c r="K34" s="402"/>
-      <c r="L34" s="402" t="s">
+      <c r="D34" s="404"/>
+      <c r="E34" s="404"/>
+      <c r="F34" s="404"/>
+      <c r="G34" s="404"/>
+      <c r="H34" s="404"/>
+      <c r="I34" s="416"/>
+      <c r="J34" s="404"/>
+      <c r="K34" s="404"/>
+      <c r="L34" s="404" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="402"/>
-      <c r="N34" s="402"/>
+      <c r="M34" s="404"/>
+      <c r="N34" s="404"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="403"/>
-      <c r="D35" s="402"/>
-      <c r="E35" s="402"/>
-      <c r="F35" s="402"/>
-      <c r="G35" s="402"/>
-      <c r="H35" s="402"/>
-      <c r="I35" s="415"/>
-      <c r="J35" s="402"/>
-      <c r="K35" s="402"/>
+      <c r="C35" s="415"/>
+      <c r="D35" s="404"/>
+      <c r="E35" s="404"/>
+      <c r="F35" s="404"/>
+      <c r="G35" s="404"/>
+      <c r="H35" s="404"/>
+      <c r="I35" s="417"/>
+      <c r="J35" s="404"/>
+      <c r="K35" s="404"/>
       <c r="L35" s="116" t="s">
         <v>461</v>
       </c>
@@ -19523,31 +19526,31 @@
       <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="403"/>
-      <c r="D36" s="402"/>
-      <c r="E36" s="402"/>
-      <c r="F36" s="402"/>
-      <c r="G36" s="402"/>
-      <c r="H36" s="402"/>
-      <c r="I36" s="415"/>
-      <c r="J36" s="402"/>
-      <c r="K36" s="402"/>
-      <c r="L36" s="402" t="s">
+      <c r="C36" s="415"/>
+      <c r="D36" s="404"/>
+      <c r="E36" s="404"/>
+      <c r="F36" s="404"/>
+      <c r="G36" s="404"/>
+      <c r="H36" s="404"/>
+      <c r="I36" s="417"/>
+      <c r="J36" s="404"/>
+      <c r="K36" s="404"/>
+      <c r="L36" s="404" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
+      <c r="M36" s="404"/>
+      <c r="N36" s="404"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="403"/>
-      <c r="D37" s="402"/>
-      <c r="E37" s="402"/>
-      <c r="F37" s="402"/>
-      <c r="G37" s="402"/>
-      <c r="H37" s="402"/>
-      <c r="I37" s="416"/>
-      <c r="J37" s="402"/>
-      <c r="K37" s="402"/>
+      <c r="C37" s="415"/>
+      <c r="D37" s="404"/>
+      <c r="E37" s="404"/>
+      <c r="F37" s="404"/>
+      <c r="G37" s="404"/>
+      <c r="H37" s="404"/>
+      <c r="I37" s="418"/>
+      <c r="J37" s="404"/>
+      <c r="K37" s="404"/>
       <c r="L37" s="117" t="s">
         <v>467</v>
       </c>
@@ -19558,13 +19561,13 @@
       <c r="C38" s="115">
         <v>43910</v>
       </c>
-      <c r="D38" s="402" t="s">
+      <c r="D38" s="404" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="402"/>
-      <c r="F38" s="402"/>
-      <c r="G38" s="402"/>
-      <c r="H38" s="402"/>
+      <c r="E38" s="404"/>
+      <c r="F38" s="404"/>
+      <c r="G38" s="404"/>
+      <c r="H38" s="404"/>
       <c r="I38" s="37" t="s">
         <v>464</v>
       </c>
@@ -19578,14 +19581,14 @@
       <c r="C39" s="115">
         <v>43911</v>
       </c>
-      <c r="D39" s="404"/>
-      <c r="E39" s="405"/>
-      <c r="F39" s="405"/>
-      <c r="G39" s="405"/>
-      <c r="H39" s="406"/>
-      <c r="I39" s="411"/>
-      <c r="J39" s="404"/>
-      <c r="K39" s="406"/>
+      <c r="D39" s="405"/>
+      <c r="E39" s="406"/>
+      <c r="F39" s="406"/>
+      <c r="G39" s="406"/>
+      <c r="H39" s="407"/>
+      <c r="I39" s="412"/>
+      <c r="J39" s="405"/>
+      <c r="K39" s="407"/>
       <c r="L39" s="116" t="s">
         <v>461</v>
       </c>
@@ -19594,30 +19597,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="37"/>
-      <c r="D40" s="407"/>
-      <c r="E40" s="397"/>
-      <c r="F40" s="397"/>
-      <c r="G40" s="397"/>
-      <c r="H40" s="408"/>
-      <c r="I40" s="412"/>
-      <c r="J40" s="407"/>
-      <c r="K40" s="408"/>
-      <c r="L40" s="402" t="s">
+      <c r="D40" s="408"/>
+      <c r="E40" s="403"/>
+      <c r="F40" s="403"/>
+      <c r="G40" s="403"/>
+      <c r="H40" s="409"/>
+      <c r="I40" s="413"/>
+      <c r="J40" s="408"/>
+      <c r="K40" s="409"/>
+      <c r="L40" s="404" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="402"/>
-      <c r="N40" s="402"/>
+      <c r="M40" s="404"/>
+      <c r="N40" s="404"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="37"/>
-      <c r="D41" s="407"/>
-      <c r="E41" s="397"/>
-      <c r="F41" s="397"/>
-      <c r="G41" s="397"/>
-      <c r="H41" s="408"/>
-      <c r="I41" s="413"/>
-      <c r="J41" s="407"/>
-      <c r="K41" s="408"/>
+      <c r="D41" s="408"/>
+      <c r="E41" s="403"/>
+      <c r="F41" s="403"/>
+      <c r="G41" s="403"/>
+      <c r="H41" s="409"/>
+      <c r="I41" s="414"/>
+      <c r="J41" s="408"/>
+      <c r="K41" s="409"/>
       <c r="L41" s="117" t="s">
         <v>467</v>
       </c>
@@ -19626,16 +19629,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="37"/>
-      <c r="D42" s="409"/>
-      <c r="E42" s="389"/>
-      <c r="F42" s="389"/>
-      <c r="G42" s="389"/>
-      <c r="H42" s="410"/>
+      <c r="D42" s="410"/>
+      <c r="E42" s="391"/>
+      <c r="F42" s="391"/>
+      <c r="G42" s="391"/>
+      <c r="H42" s="411"/>
       <c r="I42" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="409"/>
-      <c r="K42" s="410"/>
+      <c r="J42" s="410"/>
+      <c r="K42" s="411"/>
       <c r="L42" s="118" t="s">
         <v>466</v>
       </c>
@@ -19947,17 +19950,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -19965,12 +19963,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19992,29 +19995,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="427" t="s">
+      <c r="B2" s="440" t="s">
         <v>1092</v>
       </c>
-      <c r="C2" s="427"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="427"/>
-      <c r="F2" s="427"/>
-      <c r="G2" s="427"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="427"/>
-      <c r="K2" s="427"/>
-      <c r="L2" s="427"/>
-      <c r="M2" s="427"/>
-      <c r="N2" s="427"/>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="427"/>
-      <c r="S2" s="427"/>
-      <c r="T2" s="427"/>
-      <c r="U2" s="427"/>
-      <c r="V2" s="427"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
+      <c r="J2" s="440"/>
+      <c r="K2" s="440"/>
+      <c r="L2" s="440"/>
+      <c r="M2" s="440"/>
+      <c r="N2" s="440"/>
+      <c r="O2" s="440"/>
+      <c r="P2" s="440"/>
+      <c r="Q2" s="440"/>
+      <c r="R2" s="440"/>
+      <c r="S2" s="440"/>
+      <c r="T2" s="440"/>
+      <c r="U2" s="440"/>
+      <c r="V2" s="440"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -20047,22 +20050,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="430" t="s">
+      <c r="G5" s="419" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="430"/>
-      <c r="I5" s="430" t="s">
+      <c r="H5" s="419"/>
+      <c r="I5" s="419" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="430"/>
-      <c r="K5" s="430"/>
-      <c r="L5" s="430"/>
-      <c r="M5" s="430"/>
-      <c r="N5" s="430"/>
-      <c r="O5" s="430" t="s">
+      <c r="J5" s="419"/>
+      <c r="K5" s="419"/>
+      <c r="L5" s="419"/>
+      <c r="M5" s="419"/>
+      <c r="N5" s="419"/>
+      <c r="O5" s="419" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="430"/>
+      <c r="P5" s="419"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -20074,7 +20077,7 @@
       <c r="D6" s="134"/>
       <c r="E6" s="135"/>
       <c r="F6" s="137"/>
-      <c r="G6" s="435" t="s">
+      <c r="G6" s="420" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="110"/>
@@ -20103,26 +20106,26 @@
       </c>
       <c r="E7" s="137"/>
       <c r="F7" s="137"/>
-      <c r="G7" s="436"/>
-      <c r="H7" s="438" t="s">
+      <c r="G7" s="421"/>
+      <c r="H7" s="423" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="441" t="s">
+      <c r="I7" s="426" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="442"/>
-      <c r="K7" s="443" t="s">
+      <c r="J7" s="427"/>
+      <c r="K7" s="428" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="444"/>
-      <c r="M7" s="441" t="s">
+      <c r="L7" s="429"/>
+      <c r="M7" s="426" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="442"/>
-      <c r="O7" s="449" t="s">
+      <c r="N7" s="427"/>
+      <c r="O7" s="434" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="450"/>
+      <c r="P7" s="435"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -20134,16 +20137,16 @@
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
       <c r="F8" s="137"/>
-      <c r="G8" s="436"/>
-      <c r="H8" s="439"/>
-      <c r="I8" s="352"/>
-      <c r="J8" s="354"/>
-      <c r="K8" s="445"/>
-      <c r="L8" s="446"/>
-      <c r="M8" s="352"/>
-      <c r="N8" s="354"/>
-      <c r="O8" s="451"/>
-      <c r="P8" s="452"/>
+      <c r="G8" s="421"/>
+      <c r="H8" s="424"/>
+      <c r="I8" s="358"/>
+      <c r="J8" s="360"/>
+      <c r="K8" s="430"/>
+      <c r="L8" s="431"/>
+      <c r="M8" s="358"/>
+      <c r="N8" s="360"/>
+      <c r="O8" s="436"/>
+      <c r="P8" s="437"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="37" t="s">
         <v>181</v>
@@ -20161,16 +20164,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="436"/>
-      <c r="H9" s="439"/>
-      <c r="I9" s="352"/>
-      <c r="J9" s="354"/>
-      <c r="K9" s="445"/>
-      <c r="L9" s="446"/>
-      <c r="M9" s="352"/>
-      <c r="N9" s="354"/>
-      <c r="O9" s="451"/>
-      <c r="P9" s="452"/>
+      <c r="G9" s="421"/>
+      <c r="H9" s="424"/>
+      <c r="I9" s="358"/>
+      <c r="J9" s="360"/>
+      <c r="K9" s="430"/>
+      <c r="L9" s="431"/>
+      <c r="M9" s="358"/>
+      <c r="N9" s="360"/>
+      <c r="O9" s="436"/>
+      <c r="P9" s="437"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -20190,16 +20193,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="436"/>
-      <c r="H10" s="439"/>
-      <c r="I10" s="352"/>
-      <c r="J10" s="354"/>
-      <c r="K10" s="445"/>
-      <c r="L10" s="446"/>
-      <c r="M10" s="352"/>
-      <c r="N10" s="354"/>
-      <c r="O10" s="451"/>
-      <c r="P10" s="452"/>
+      <c r="G10" s="421"/>
+      <c r="H10" s="424"/>
+      <c r="I10" s="358"/>
+      <c r="J10" s="360"/>
+      <c r="K10" s="430"/>
+      <c r="L10" s="431"/>
+      <c r="M10" s="358"/>
+      <c r="N10" s="360"/>
+      <c r="O10" s="436"/>
+      <c r="P10" s="437"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -20215,16 +20218,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="436"/>
-      <c r="H11" s="439"/>
-      <c r="I11" s="352"/>
-      <c r="J11" s="354"/>
-      <c r="K11" s="445"/>
-      <c r="L11" s="446"/>
-      <c r="M11" s="352"/>
-      <c r="N11" s="354"/>
-      <c r="O11" s="451"/>
-      <c r="P11" s="452"/>
+      <c r="G11" s="421"/>
+      <c r="H11" s="424"/>
+      <c r="I11" s="358"/>
+      <c r="J11" s="360"/>
+      <c r="K11" s="430"/>
+      <c r="L11" s="431"/>
+      <c r="M11" s="358"/>
+      <c r="N11" s="360"/>
+      <c r="O11" s="436"/>
+      <c r="P11" s="437"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -20242,16 +20245,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="436"/>
-      <c r="H12" s="439"/>
-      <c r="I12" s="352"/>
-      <c r="J12" s="354"/>
-      <c r="K12" s="445"/>
-      <c r="L12" s="446"/>
-      <c r="M12" s="352"/>
-      <c r="N12" s="354"/>
-      <c r="O12" s="451"/>
-      <c r="P12" s="452"/>
+      <c r="G12" s="421"/>
+      <c r="H12" s="424"/>
+      <c r="I12" s="358"/>
+      <c r="J12" s="360"/>
+      <c r="K12" s="430"/>
+      <c r="L12" s="431"/>
+      <c r="M12" s="358"/>
+      <c r="N12" s="360"/>
+      <c r="O12" s="436"/>
+      <c r="P12" s="437"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -20265,16 +20268,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="436"/>
-      <c r="H13" s="439"/>
-      <c r="I13" s="352"/>
-      <c r="J13" s="354"/>
-      <c r="K13" s="445"/>
-      <c r="L13" s="446"/>
-      <c r="M13" s="352"/>
-      <c r="N13" s="354"/>
-      <c r="O13" s="451"/>
-      <c r="P13" s="452"/>
+      <c r="G13" s="421"/>
+      <c r="H13" s="424"/>
+      <c r="I13" s="358"/>
+      <c r="J13" s="360"/>
+      <c r="K13" s="430"/>
+      <c r="L13" s="431"/>
+      <c r="M13" s="358"/>
+      <c r="N13" s="360"/>
+      <c r="O13" s="436"/>
+      <c r="P13" s="437"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -20286,16 +20289,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="436"/>
-      <c r="H14" s="439"/>
-      <c r="I14" s="352"/>
-      <c r="J14" s="354"/>
-      <c r="K14" s="445"/>
-      <c r="L14" s="446"/>
-      <c r="M14" s="352"/>
-      <c r="N14" s="354"/>
-      <c r="O14" s="451"/>
-      <c r="P14" s="452"/>
+      <c r="G14" s="421"/>
+      <c r="H14" s="424"/>
+      <c r="I14" s="358"/>
+      <c r="J14" s="360"/>
+      <c r="K14" s="430"/>
+      <c r="L14" s="431"/>
+      <c r="M14" s="358"/>
+      <c r="N14" s="360"/>
+      <c r="O14" s="436"/>
+      <c r="P14" s="437"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -20309,16 +20312,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="436"/>
-      <c r="H15" s="439"/>
-      <c r="I15" s="352"/>
-      <c r="J15" s="354"/>
-      <c r="K15" s="445"/>
-      <c r="L15" s="446"/>
-      <c r="M15" s="352"/>
-      <c r="N15" s="354"/>
-      <c r="O15" s="451"/>
-      <c r="P15" s="452"/>
+      <c r="G15" s="421"/>
+      <c r="H15" s="424"/>
+      <c r="I15" s="358"/>
+      <c r="J15" s="360"/>
+      <c r="K15" s="430"/>
+      <c r="L15" s="431"/>
+      <c r="M15" s="358"/>
+      <c r="N15" s="360"/>
+      <c r="O15" s="436"/>
+      <c r="P15" s="437"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -20330,16 +20333,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="436"/>
-      <c r="H16" s="439"/>
-      <c r="I16" s="352"/>
-      <c r="J16" s="354"/>
-      <c r="K16" s="445"/>
-      <c r="L16" s="446"/>
-      <c r="M16" s="352"/>
-      <c r="N16" s="354"/>
-      <c r="O16" s="451"/>
-      <c r="P16" s="452"/>
+      <c r="G16" s="421"/>
+      <c r="H16" s="424"/>
+      <c r="I16" s="358"/>
+      <c r="J16" s="360"/>
+      <c r="K16" s="430"/>
+      <c r="L16" s="431"/>
+      <c r="M16" s="358"/>
+      <c r="N16" s="360"/>
+      <c r="O16" s="436"/>
+      <c r="P16" s="437"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -20351,16 +20354,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="436"/>
-      <c r="H17" s="439"/>
-      <c r="I17" s="352"/>
-      <c r="J17" s="354"/>
-      <c r="K17" s="445"/>
-      <c r="L17" s="446"/>
-      <c r="M17" s="352"/>
-      <c r="N17" s="354"/>
-      <c r="O17" s="451"/>
-      <c r="P17" s="452"/>
+      <c r="G17" s="421"/>
+      <c r="H17" s="424"/>
+      <c r="I17" s="358"/>
+      <c r="J17" s="360"/>
+      <c r="K17" s="430"/>
+      <c r="L17" s="431"/>
+      <c r="M17" s="358"/>
+      <c r="N17" s="360"/>
+      <c r="O17" s="436"/>
+      <c r="P17" s="437"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -20372,16 +20375,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="436"/>
-      <c r="H18" s="439"/>
-      <c r="I18" s="352"/>
-      <c r="J18" s="354"/>
-      <c r="K18" s="445"/>
-      <c r="L18" s="446"/>
-      <c r="M18" s="352"/>
-      <c r="N18" s="354"/>
-      <c r="O18" s="451"/>
-      <c r="P18" s="452"/>
+      <c r="G18" s="421"/>
+      <c r="H18" s="424"/>
+      <c r="I18" s="358"/>
+      <c r="J18" s="360"/>
+      <c r="K18" s="430"/>
+      <c r="L18" s="431"/>
+      <c r="M18" s="358"/>
+      <c r="N18" s="360"/>
+      <c r="O18" s="436"/>
+      <c r="P18" s="437"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -20395,16 +20398,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="436"/>
-      <c r="H19" s="439"/>
-      <c r="I19" s="352"/>
-      <c r="J19" s="354"/>
-      <c r="K19" s="445"/>
-      <c r="L19" s="446"/>
-      <c r="M19" s="352"/>
-      <c r="N19" s="354"/>
-      <c r="O19" s="451"/>
-      <c r="P19" s="452"/>
+      <c r="G19" s="421"/>
+      <c r="H19" s="424"/>
+      <c r="I19" s="358"/>
+      <c r="J19" s="360"/>
+      <c r="K19" s="430"/>
+      <c r="L19" s="431"/>
+      <c r="M19" s="358"/>
+      <c r="N19" s="360"/>
+      <c r="O19" s="436"/>
+      <c r="P19" s="437"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -20416,16 +20419,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="440"/>
-      <c r="I20" s="368"/>
-      <c r="J20" s="370"/>
-      <c r="K20" s="447"/>
-      <c r="L20" s="448"/>
-      <c r="M20" s="368"/>
-      <c r="N20" s="370"/>
-      <c r="O20" s="453"/>
-      <c r="P20" s="454"/>
+      <c r="G20" s="422"/>
+      <c r="H20" s="425"/>
+      <c r="I20" s="370"/>
+      <c r="J20" s="372"/>
+      <c r="K20" s="432"/>
+      <c r="L20" s="433"/>
+      <c r="M20" s="370"/>
+      <c r="N20" s="372"/>
+      <c r="O20" s="438"/>
+      <c r="P20" s="439"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -20455,27 +20458,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="371" t="s">
+      <c r="D22" s="373" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="372"/>
+      <c r="E22" s="374"/>
       <c r="F22" s="269"/>
       <c r="G22" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="371" t="s">
+      <c r="H22" s="373" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="373"/>
-      <c r="J22" s="373"/>
-      <c r="K22" s="373"/>
-      <c r="L22" s="373"/>
-      <c r="M22" s="373"/>
-      <c r="N22" s="372"/>
-      <c r="O22" s="371" t="s">
+      <c r="I22" s="375"/>
+      <c r="J22" s="375"/>
+      <c r="K22" s="375"/>
+      <c r="L22" s="375"/>
+      <c r="M22" s="375"/>
+      <c r="N22" s="374"/>
+      <c r="O22" s="373" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="372"/>
+      <c r="P22" s="374"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -20506,59 +20509,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="427" t="s">
+      <c r="B25" s="440" t="s">
         <v>1091</v>
       </c>
-      <c r="C25" s="427"/>
-      <c r="D25" s="427"/>
-      <c r="E25" s="427"/>
-      <c r="F25" s="427"/>
-      <c r="G25" s="427"/>
-      <c r="H25" s="427"/>
-      <c r="I25" s="427"/>
-      <c r="J25" s="427"/>
-      <c r="K25" s="427"/>
-      <c r="L25" s="427"/>
-      <c r="M25" s="427"/>
-      <c r="N25" s="427"/>
-      <c r="O25" s="427"/>
-      <c r="P25" s="427"/>
-      <c r="Q25" s="427"/>
-      <c r="R25" s="427"/>
-      <c r="S25" s="427"/>
-      <c r="T25" s="427"/>
-      <c r="U25" s="427"/>
-      <c r="V25" s="427"/>
+      <c r="C25" s="440"/>
+      <c r="D25" s="440"/>
+      <c r="E25" s="440"/>
+      <c r="F25" s="440"/>
+      <c r="G25" s="440"/>
+      <c r="H25" s="440"/>
+      <c r="I25" s="440"/>
+      <c r="J25" s="440"/>
+      <c r="K25" s="440"/>
+      <c r="L25" s="440"/>
+      <c r="M25" s="440"/>
+      <c r="N25" s="440"/>
+      <c r="O25" s="440"/>
+      <c r="P25" s="440"/>
+      <c r="Q25" s="440"/>
+      <c r="R25" s="440"/>
+      <c r="S25" s="440"/>
+      <c r="T25" s="440"/>
+      <c r="U25" s="440"/>
+      <c r="V25" s="440"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="428" t="s">
+      <c r="C26" s="441" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="428"/>
-      <c r="E26" s="428"/>
-      <c r="F26" s="428"/>
-      <c r="G26" s="428"/>
-      <c r="H26" s="428"/>
-      <c r="I26" s="428"/>
-      <c r="J26" s="428"/>
-      <c r="K26" s="428"/>
-      <c r="L26" s="428"/>
-      <c r="M26" s="428"/>
+      <c r="D26" s="441"/>
+      <c r="E26" s="441"/>
+      <c r="F26" s="441"/>
+      <c r="G26" s="441"/>
+      <c r="H26" s="441"/>
+      <c r="I26" s="441"/>
+      <c r="J26" s="441"/>
+      <c r="K26" s="441"/>
+      <c r="L26" s="441"/>
+      <c r="M26" s="441"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="398" t="s">
+      <c r="E27" s="393" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="350"/>
-      <c r="G27" s="350"/>
-      <c r="H27" s="361"/>
-      <c r="I27" s="361"/>
-      <c r="J27" s="361"/>
-      <c r="K27" s="361"/>
-      <c r="L27" s="361"/>
-      <c r="M27" s="362"/>
+      <c r="F27" s="352"/>
+      <c r="G27" s="352"/>
+      <c r="H27" s="363"/>
+      <c r="I27" s="363"/>
+      <c r="J27" s="363"/>
+      <c r="K27" s="363"/>
+      <c r="L27" s="363"/>
+      <c r="M27" s="364"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -20591,11 +20594,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="429" t="s">
+      <c r="O29" s="442" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="429"/>
-      <c r="Q29" s="429"/>
+      <c r="P29" s="442"/>
+      <c r="Q29" s="442"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -20640,21 +20643,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="424" t="s">
+      <c r="E32" s="446" t="s">
         <v>1095</v>
       </c>
-      <c r="F32" s="425"/>
-      <c r="G32" s="426"/>
-      <c r="H32" s="424" t="s">
+      <c r="F32" s="447"/>
+      <c r="G32" s="448"/>
+      <c r="H32" s="446" t="s">
         <v>1096</v>
       </c>
-      <c r="I32" s="425"/>
-      <c r="J32" s="426"/>
-      <c r="K32" s="424" t="s">
+      <c r="I32" s="447"/>
+      <c r="J32" s="448"/>
+      <c r="K32" s="446" t="s">
         <v>1097</v>
       </c>
-      <c r="L32" s="425"/>
-      <c r="M32" s="426"/>
+      <c r="L32" s="447"/>
+      <c r="M32" s="448"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -20671,15 +20674,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="424"/>
-      <c r="F33" s="425"/>
-      <c r="G33" s="426"/>
-      <c r="H33" s="424"/>
-      <c r="I33" s="425"/>
-      <c r="J33" s="426"/>
-      <c r="K33" s="424"/>
-      <c r="L33" s="425"/>
-      <c r="M33" s="426"/>
+      <c r="E33" s="446"/>
+      <c r="F33" s="447"/>
+      <c r="G33" s="448"/>
+      <c r="H33" s="446"/>
+      <c r="I33" s="447"/>
+      <c r="J33" s="448"/>
+      <c r="K33" s="446"/>
+      <c r="L33" s="447"/>
+      <c r="M33" s="448"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -20696,15 +20699,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="424"/>
-      <c r="F34" s="425"/>
-      <c r="G34" s="426"/>
-      <c r="H34" s="424"/>
-      <c r="I34" s="425"/>
-      <c r="J34" s="426"/>
-      <c r="K34" s="424"/>
-      <c r="L34" s="425"/>
-      <c r="M34" s="426"/>
+      <c r="E34" s="446"/>
+      <c r="F34" s="447"/>
+      <c r="G34" s="448"/>
+      <c r="H34" s="446"/>
+      <c r="I34" s="447"/>
+      <c r="J34" s="448"/>
+      <c r="K34" s="446"/>
+      <c r="L34" s="447"/>
+      <c r="M34" s="448"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -20715,15 +20718,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="424"/>
-      <c r="F35" s="425"/>
-      <c r="G35" s="426"/>
-      <c r="H35" s="424"/>
-      <c r="I35" s="425"/>
-      <c r="J35" s="426"/>
-      <c r="K35" s="424"/>
-      <c r="L35" s="425"/>
-      <c r="M35" s="426"/>
+      <c r="E35" s="446"/>
+      <c r="F35" s="447"/>
+      <c r="G35" s="448"/>
+      <c r="H35" s="446"/>
+      <c r="I35" s="447"/>
+      <c r="J35" s="448"/>
+      <c r="K35" s="446"/>
+      <c r="L35" s="447"/>
+      <c r="M35" s="448"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -20854,15 +20857,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="417"/>
-      <c r="F42" s="418"/>
-      <c r="G42" s="418"/>
-      <c r="H42" s="418"/>
-      <c r="I42" s="418"/>
-      <c r="J42" s="418"/>
-      <c r="K42" s="418"/>
-      <c r="L42" s="418"/>
-      <c r="M42" s="419"/>
+      <c r="E42" s="450"/>
+      <c r="F42" s="451"/>
+      <c r="G42" s="451"/>
+      <c r="H42" s="451"/>
+      <c r="I42" s="451"/>
+      <c r="J42" s="451"/>
+      <c r="K42" s="451"/>
+      <c r="L42" s="451"/>
+      <c r="M42" s="452"/>
       <c r="N42" s="39" t="s">
         <v>575</v>
       </c>
@@ -20881,83 +20884,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="371" t="s">
+      <c r="C44" s="373" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="372"/>
-      <c r="E44" s="371" t="s">
+      <c r="D44" s="374"/>
+      <c r="E44" s="373" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="373"/>
-      <c r="G44" s="372"/>
-      <c r="H44" s="371" t="s">
+      <c r="F44" s="375"/>
+      <c r="G44" s="374"/>
+      <c r="H44" s="373" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="373"/>
-      <c r="J44" s="373"/>
-      <c r="K44" s="373"/>
-      <c r="L44" s="373"/>
-      <c r="M44" s="372"/>
+      <c r="I44" s="375"/>
+      <c r="J44" s="375"/>
+      <c r="K44" s="375"/>
+      <c r="L44" s="375"/>
+      <c r="M44" s="374"/>
       <c r="Q44" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="427" t="s">
+      <c r="B47" s="440" t="s">
         <v>1093</v>
       </c>
-      <c r="C47" s="427"/>
-      <c r="D47" s="427"/>
-      <c r="E47" s="427"/>
-      <c r="F47" s="427"/>
-      <c r="G47" s="427"/>
-      <c r="H47" s="427"/>
-      <c r="I47" s="427"/>
-      <c r="J47" s="427"/>
-      <c r="K47" s="427"/>
-      <c r="L47" s="427"/>
-      <c r="M47" s="427"/>
-      <c r="N47" s="427"/>
-      <c r="O47" s="427"/>
-      <c r="P47" s="427"/>
-      <c r="Q47" s="427"/>
-      <c r="R47" s="427"/>
-      <c r="S47" s="427"/>
-      <c r="T47" s="427"/>
-      <c r="U47" s="427"/>
-      <c r="V47" s="427"/>
+      <c r="C47" s="440"/>
+      <c r="D47" s="440"/>
+      <c r="E47" s="440"/>
+      <c r="F47" s="440"/>
+      <c r="G47" s="440"/>
+      <c r="H47" s="440"/>
+      <c r="I47" s="440"/>
+      <c r="J47" s="440"/>
+      <c r="K47" s="440"/>
+      <c r="L47" s="440"/>
+      <c r="M47" s="440"/>
+      <c r="N47" s="440"/>
+      <c r="O47" s="440"/>
+      <c r="P47" s="440"/>
+      <c r="Q47" s="440"/>
+      <c r="R47" s="440"/>
+      <c r="S47" s="440"/>
+      <c r="T47" s="440"/>
+      <c r="U47" s="440"/>
+      <c r="V47" s="440"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="428" t="s">
+      <c r="C48" s="441" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="428"/>
-      <c r="E48" s="428"/>
-      <c r="F48" s="428"/>
-      <c r="G48" s="428"/>
-      <c r="H48" s="428"/>
-      <c r="I48" s="428"/>
-      <c r="J48" s="428"/>
-      <c r="K48" s="428"/>
-      <c r="L48" s="428"/>
-      <c r="M48" s="428"/>
+      <c r="D48" s="441"/>
+      <c r="E48" s="441"/>
+      <c r="F48" s="441"/>
+      <c r="G48" s="441"/>
+      <c r="H48" s="441"/>
+      <c r="I48" s="441"/>
+      <c r="J48" s="441"/>
+      <c r="K48" s="441"/>
+      <c r="L48" s="441"/>
+      <c r="M48" s="441"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="398" t="s">
+      <c r="E49" s="393" t="s">
         <v>177</v>
       </c>
-      <c r="F49" s="350"/>
-      <c r="G49" s="350"/>
-      <c r="H49" s="361"/>
-      <c r="I49" s="361"/>
-      <c r="J49" s="361"/>
-      <c r="K49" s="361"/>
-      <c r="L49" s="361"/>
-      <c r="M49" s="362"/>
+      <c r="F49" s="352"/>
+      <c r="G49" s="352"/>
+      <c r="H49" s="363"/>
+      <c r="I49" s="363"/>
+      <c r="J49" s="363"/>
+      <c r="K49" s="363"/>
+      <c r="L49" s="363"/>
+      <c r="M49" s="364"/>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="17"/>
@@ -20975,16 +20978,16 @@
       </c>
       <c r="F50" s="121"/>
       <c r="G50" s="249"/>
-      <c r="H50" s="431" t="s">
+      <c r="H50" s="443" t="s">
         <v>1096</v>
       </c>
-      <c r="I50" s="432"/>
-      <c r="J50" s="433"/>
-      <c r="K50" s="431" t="s">
+      <c r="I50" s="444"/>
+      <c r="J50" s="445"/>
+      <c r="K50" s="443" t="s">
         <v>1097</v>
       </c>
-      <c r="L50" s="432"/>
-      <c r="M50" s="433"/>
+      <c r="L50" s="444"/>
+      <c r="M50" s="445"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="W50" t="s">
@@ -20998,20 +21001,20 @@
         <v>1111</v>
       </c>
       <c r="F51" s="290"/>
-      <c r="G51" s="434" t="s">
+      <c r="G51" s="449" t="s">
         <v>1119</v>
       </c>
-      <c r="H51" s="424"/>
-      <c r="I51" s="425"/>
-      <c r="J51" s="426"/>
-      <c r="K51" s="424"/>
-      <c r="L51" s="425"/>
-      <c r="M51" s="426"/>
-      <c r="O51" s="429" t="s">
+      <c r="H51" s="446"/>
+      <c r="I51" s="447"/>
+      <c r="J51" s="448"/>
+      <c r="K51" s="446"/>
+      <c r="L51" s="447"/>
+      <c r="M51" s="448"/>
+      <c r="O51" s="442" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="429"/>
-      <c r="Q51" s="429"/>
+      <c r="P51" s="442"/>
+      <c r="Q51" s="442"/>
       <c r="S51" s="277"/>
       <c r="T51" s="277"/>
       <c r="W51" s="39" t="s">
@@ -21025,13 +21028,13 @@
         <v>1112</v>
       </c>
       <c r="F52" s="291"/>
-      <c r="G52" s="434"/>
-      <c r="H52" s="424"/>
-      <c r="I52" s="425"/>
-      <c r="J52" s="426"/>
-      <c r="K52" s="424"/>
-      <c r="L52" s="425"/>
-      <c r="M52" s="426"/>
+      <c r="G52" s="449"/>
+      <c r="H52" s="446"/>
+      <c r="I52" s="447"/>
+      <c r="J52" s="448"/>
+      <c r="K52" s="446"/>
+      <c r="L52" s="447"/>
+      <c r="M52" s="448"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
     </row>
@@ -21042,13 +21045,13 @@
         <v>1113</v>
       </c>
       <c r="F53" s="292"/>
-      <c r="G53" s="434"/>
-      <c r="H53" s="424"/>
-      <c r="I53" s="425"/>
-      <c r="J53" s="426"/>
-      <c r="K53" s="424"/>
-      <c r="L53" s="425"/>
-      <c r="M53" s="426"/>
+      <c r="G53" s="449"/>
+      <c r="H53" s="446"/>
+      <c r="I53" s="447"/>
+      <c r="J53" s="448"/>
+      <c r="K53" s="446"/>
+      <c r="L53" s="447"/>
+      <c r="M53" s="448"/>
       <c r="N53" s="5"/>
       <c r="O53" s="37" t="s">
         <v>181</v>
@@ -21087,7 +21090,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="278"/>
       <c r="F54" s="293"/>
-      <c r="G54" s="422" t="s">
+      <c r="G54" s="455" t="s">
         <v>1123</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -21134,11 +21137,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="420" t="s">
+      <c r="E55" s="453" t="s">
         <v>1124</v>
       </c>
-      <c r="F55" s="421"/>
-      <c r="G55" s="423"/>
+      <c r="F55" s="454"/>
+      <c r="G55" s="456"/>
       <c r="H55" s="140" t="s">
         <v>1115</v>
       </c>
@@ -21182,9 +21185,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="420"/>
-      <c r="F56" s="421"/>
-      <c r="G56" s="423"/>
+      <c r="E56" s="453"/>
+      <c r="F56" s="454"/>
+      <c r="G56" s="456"/>
       <c r="H56" s="140" t="s">
         <v>1116</v>
       </c>
@@ -21214,9 +21217,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="420"/>
-      <c r="F57" s="421"/>
-      <c r="G57" s="423"/>
+      <c r="E57" s="453"/>
+      <c r="F57" s="454"/>
+      <c r="G57" s="456"/>
       <c r="H57" s="4" t="s">
         <v>1128</v>
       </c>
@@ -21246,9 +21249,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="420"/>
-      <c r="F58" s="421"/>
-      <c r="G58" s="423"/>
+      <c r="E58" s="453"/>
+      <c r="F58" s="454"/>
+      <c r="G58" s="456"/>
       <c r="H58" s="282" t="s">
         <v>1114</v>
       </c>
@@ -21273,9 +21276,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="420"/>
-      <c r="F59" s="421"/>
-      <c r="G59" s="423"/>
+      <c r="E59" s="453"/>
+      <c r="F59" s="454"/>
+      <c r="G59" s="456"/>
       <c r="H59" s="282" t="s">
         <v>549</v>
       </c>
@@ -21300,9 +21303,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="420"/>
-      <c r="F60" s="421"/>
-      <c r="G60" s="423"/>
+      <c r="E60" s="453"/>
+      <c r="F60" s="454"/>
+      <c r="G60" s="456"/>
       <c r="H60" s="284"/>
       <c r="I60" s="285" t="s">
         <v>1130</v>
@@ -21322,9 +21325,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="420"/>
-      <c r="F61" s="421"/>
-      <c r="G61" s="423"/>
+      <c r="E61" s="453"/>
+      <c r="F61" s="454"/>
+      <c r="G61" s="456"/>
       <c r="H61" s="284"/>
       <c r="I61" s="285" t="s">
         <v>1131</v>
@@ -21344,7 +21347,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="273"/>
       <c r="F62" s="289"/>
-      <c r="G62" s="423"/>
+      <c r="G62" s="456"/>
       <c r="H62" s="286"/>
       <c r="I62" s="288" t="s">
         <v>1132</v>
@@ -21386,15 +21389,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="417"/>
-      <c r="F64" s="418"/>
-      <c r="G64" s="418"/>
-      <c r="H64" s="418"/>
-      <c r="I64" s="418"/>
-      <c r="J64" s="418"/>
-      <c r="K64" s="418"/>
-      <c r="L64" s="418"/>
-      <c r="M64" s="419"/>
+      <c r="E64" s="450"/>
+      <c r="F64" s="451"/>
+      <c r="G64" s="451"/>
+      <c r="H64" s="451"/>
+      <c r="I64" s="451"/>
+      <c r="J64" s="451"/>
+      <c r="K64" s="451"/>
+      <c r="L64" s="451"/>
+      <c r="M64" s="452"/>
       <c r="N64" s="39" t="s">
         <v>575</v>
       </c>
@@ -21423,23 +21426,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="371" t="s">
+      <c r="C66" s="373" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="372"/>
-      <c r="E66" s="371" t="s">
+      <c r="D66" s="374"/>
+      <c r="E66" s="373" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="373"/>
-      <c r="G66" s="372"/>
-      <c r="H66" s="371" t="s">
+      <c r="F66" s="375"/>
+      <c r="G66" s="374"/>
+      <c r="H66" s="373" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="373"/>
-      <c r="J66" s="373"/>
-      <c r="K66" s="373"/>
-      <c r="L66" s="373"/>
-      <c r="M66" s="372"/>
+      <c r="I66" s="375"/>
+      <c r="J66" s="375"/>
+      <c r="K66" s="375"/>
+      <c r="L66" s="375"/>
+      <c r="M66" s="374"/>
       <c r="Q66" t="s">
         <v>1094</v>
       </c>
@@ -21460,23 +21463,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="402" t="s">
+      <c r="C68" s="404" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="402"/>
-      <c r="E68" s="402" t="s">
+      <c r="D68" s="404"/>
+      <c r="E68" s="404" t="s">
         <v>1380</v>
       </c>
-      <c r="F68" s="402"/>
-      <c r="G68" s="402"/>
-      <c r="H68" s="402" t="s">
+      <c r="F68" s="404"/>
+      <c r="G68" s="404"/>
+      <c r="H68" s="404" t="s">
         <v>1396</v>
       </c>
-      <c r="I68" s="402"/>
-      <c r="J68" s="402"/>
-      <c r="K68" s="402"/>
-      <c r="L68" s="402"/>
-      <c r="M68" s="402"/>
+      <c r="I68" s="404"/>
+      <c r="J68" s="404"/>
+      <c r="K68" s="404"/>
+      <c r="L68" s="404"/>
+      <c r="M68" s="404"/>
       <c r="S68" s="23"/>
       <c r="T68" s="23"/>
       <c r="U68" s="2" t="s">
@@ -22273,6 +22276,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -22289,30 +22316,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -22346,12 +22349,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="455" t="s">
+      <c r="B1" s="457" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
       <c r="I1" s="39" t="s">
         <v>551</v>
       </c>
@@ -22468,12 +22471,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="397" t="s">
+      <c r="B8" s="403" t="s">
         <v>1418</v>
       </c>
-      <c r="C8" s="397"/>
-      <c r="D8" s="397"/>
-      <c r="E8" s="397"/>
+      <c r="C8" s="403"/>
+      <c r="D8" s="403"/>
+      <c r="E8" s="403"/>
       <c r="J8" s="31" t="s">
         <v>554</v>
       </c>
@@ -22646,32 +22649,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="428" t="s">
+      <c r="C2" s="441" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="428"/>
-      <c r="E2" s="428"/>
-      <c r="F2" s="428"/>
-      <c r="G2" s="428"/>
-      <c r="H2" s="428"/>
-      <c r="I2" s="428"/>
-      <c r="J2" s="428"/>
-      <c r="K2" s="428"/>
-      <c r="L2" s="428"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
+      <c r="G2" s="441"/>
+      <c r="H2" s="441"/>
+      <c r="I2" s="441"/>
+      <c r="J2" s="441"/>
+      <c r="K2" s="441"/>
+      <c r="L2" s="441"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="398" t="s">
+      <c r="E3" s="393" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="350"/>
-      <c r="G3" s="361"/>
-      <c r="H3" s="361"/>
-      <c r="I3" s="361"/>
-      <c r="J3" s="361"/>
-      <c r="K3" s="361"/>
-      <c r="L3" s="362"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="363"/>
+      <c r="I3" s="363"/>
+      <c r="J3" s="363"/>
+      <c r="K3" s="363"/>
+      <c r="L3" s="364"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -22702,11 +22705,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="429" t="s">
+      <c r="N5" s="442" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="429"/>
-      <c r="P5" s="429"/>
+      <c r="O5" s="442"/>
+      <c r="P5" s="442"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -22757,20 +22760,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="424" t="s">
+      <c r="E8" s="446" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="426"/>
-      <c r="G8" s="424" t="s">
+      <c r="F8" s="448"/>
+      <c r="G8" s="446" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="425"/>
-      <c r="I8" s="426"/>
-      <c r="J8" s="424" t="s">
+      <c r="H8" s="447"/>
+      <c r="I8" s="448"/>
+      <c r="J8" s="446" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="425"/>
-      <c r="L8" s="426"/>
+      <c r="K8" s="447"/>
+      <c r="L8" s="448"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -22793,14 +22796,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="424"/>
-      <c r="F9" s="426"/>
-      <c r="G9" s="424"/>
-      <c r="H9" s="425"/>
-      <c r="I9" s="426"/>
-      <c r="J9" s="424"/>
-      <c r="K9" s="425"/>
-      <c r="L9" s="426"/>
+      <c r="E9" s="446"/>
+      <c r="F9" s="448"/>
+      <c r="G9" s="446"/>
+      <c r="H9" s="447"/>
+      <c r="I9" s="448"/>
+      <c r="J9" s="446"/>
+      <c r="K9" s="447"/>
+      <c r="L9" s="448"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -22820,14 +22823,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="424"/>
-      <c r="F10" s="426"/>
-      <c r="G10" s="424"/>
-      <c r="H10" s="425"/>
-      <c r="I10" s="426"/>
-      <c r="J10" s="424"/>
-      <c r="K10" s="425"/>
-      <c r="L10" s="426"/>
+      <c r="E10" s="446"/>
+      <c r="F10" s="448"/>
+      <c r="G10" s="446"/>
+      <c r="H10" s="447"/>
+      <c r="I10" s="448"/>
+      <c r="J10" s="446"/>
+      <c r="K10" s="447"/>
+      <c r="L10" s="448"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -22841,14 +22844,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="424"/>
-      <c r="F11" s="426"/>
-      <c r="G11" s="424"/>
-      <c r="H11" s="425"/>
-      <c r="I11" s="426"/>
-      <c r="J11" s="424"/>
-      <c r="K11" s="425"/>
-      <c r="L11" s="426"/>
+      <c r="E11" s="446"/>
+      <c r="F11" s="448"/>
+      <c r="G11" s="446"/>
+      <c r="H11" s="447"/>
+      <c r="I11" s="448"/>
+      <c r="J11" s="446"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="448"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -22951,16 +22954,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="417" t="s">
+      <c r="E17" s="450" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="418"/>
-      <c r="G17" s="418"/>
-      <c r="H17" s="418"/>
-      <c r="I17" s="418"/>
-      <c r="J17" s="418"/>
-      <c r="K17" s="418"/>
-      <c r="L17" s="419"/>
+      <c r="F17" s="451"/>
+      <c r="G17" s="451"/>
+      <c r="H17" s="451"/>
+      <c r="I17" s="451"/>
+      <c r="J17" s="451"/>
+      <c r="K17" s="451"/>
+      <c r="L17" s="452"/>
       <c r="M17" s="39" t="s">
         <v>575</v>
       </c>
@@ -22978,40 +22981,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="371" t="s">
+      <c r="C19" s="373" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="372"/>
-      <c r="E19" s="371" t="s">
+      <c r="D19" s="374"/>
+      <c r="E19" s="373" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="372"/>
-      <c r="G19" s="371" t="s">
+      <c r="F19" s="374"/>
+      <c r="G19" s="373" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="373"/>
-      <c r="I19" s="373"/>
-      <c r="J19" s="373"/>
-      <c r="K19" s="373"/>
-      <c r="L19" s="372"/>
+      <c r="H19" s="375"/>
+      <c r="I19" s="375"/>
+      <c r="J19" s="375"/>
+      <c r="K19" s="375"/>
+      <c r="L19" s="374"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="456" t="s">
+      <c r="E21" s="458" t="s">
         <v>1409</v>
       </c>
-      <c r="F21" s="457"/>
+      <c r="F21" s="459"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="458"/>
-      <c r="F22" s="459"/>
+      <c r="E22" s="460"/>
+      <c r="F22" s="461"/>
       <c r="J22" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="458"/>
-      <c r="F23" s="459"/>
+      <c r="E23" s="460"/>
+      <c r="F23" s="461"/>
       <c r="H23" t="s">
         <v>1430</v>
       </c>
@@ -23023,8 +23026,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="460"/>
-      <c r="F24" s="461"/>
+      <c r="E24" s="462"/>
+      <c r="F24" s="463"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23479,22 +23482,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="430" t="s">
+      <c r="E3" s="419" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="430"/>
-      <c r="G3" s="430" t="s">
+      <c r="F3" s="419"/>
+      <c r="G3" s="419" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="430"/>
-      <c r="I3" s="430"/>
-      <c r="J3" s="430"/>
-      <c r="K3" s="430"/>
-      <c r="L3" s="430"/>
-      <c r="M3" s="430" t="s">
+      <c r="H3" s="419"/>
+      <c r="I3" s="419"/>
+      <c r="J3" s="419"/>
+      <c r="K3" s="419"/>
+      <c r="L3" s="419"/>
+      <c r="M3" s="419" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="430"/>
+      <c r="N3" s="419"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -23505,7 +23508,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="134"/>
       <c r="D4" s="135"/>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="420" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="130"/>
@@ -23533,22 +23536,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="137"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="376" t="s">
+      <c r="E5" s="421"/>
+      <c r="F5" s="378" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="377"/>
-      <c r="H5" s="378"/>
-      <c r="I5" s="462" t="s">
+      <c r="G5" s="379"/>
+      <c r="H5" s="380"/>
+      <c r="I5" s="493" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="463"/>
-      <c r="K5" s="463"/>
-      <c r="L5" s="444"/>
-      <c r="M5" s="462" t="s">
+      <c r="J5" s="494"/>
+      <c r="K5" s="494"/>
+      <c r="L5" s="429"/>
+      <c r="M5" s="493" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="444"/>
+      <c r="N5" s="429"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -23559,16 +23562,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="138"/>
       <c r="D6" s="139"/>
-      <c r="E6" s="436"/>
-      <c r="F6" s="379"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="381"/>
-      <c r="I6" s="445"/>
-      <c r="J6" s="464"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="446"/>
-      <c r="M6" s="445"/>
-      <c r="N6" s="446"/>
+      <c r="E6" s="421"/>
+      <c r="F6" s="381"/>
+      <c r="G6" s="382"/>
+      <c r="H6" s="383"/>
+      <c r="I6" s="430"/>
+      <c r="J6" s="495"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="431"/>
+      <c r="M6" s="430"/>
+      <c r="N6" s="431"/>
       <c r="O6" s="5"/>
       <c r="P6" s="37" t="s">
         <v>181</v>
@@ -23585,16 +23588,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="436"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="380"/>
-      <c r="H7" s="381"/>
-      <c r="I7" s="445"/>
-      <c r="J7" s="464"/>
-      <c r="K7" s="464"/>
-      <c r="L7" s="446"/>
-      <c r="M7" s="445"/>
-      <c r="N7" s="446"/>
+      <c r="E7" s="421"/>
+      <c r="F7" s="381"/>
+      <c r="G7" s="382"/>
+      <c r="H7" s="383"/>
+      <c r="I7" s="430"/>
+      <c r="J7" s="495"/>
+      <c r="K7" s="495"/>
+      <c r="L7" s="431"/>
+      <c r="M7" s="430"/>
+      <c r="N7" s="431"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -23613,16 +23616,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="436"/>
-      <c r="F8" s="379"/>
-      <c r="G8" s="380"/>
-      <c r="H8" s="381"/>
-      <c r="I8" s="445"/>
-      <c r="J8" s="464"/>
-      <c r="K8" s="464"/>
-      <c r="L8" s="446"/>
-      <c r="M8" s="445"/>
-      <c r="N8" s="446"/>
+      <c r="E8" s="421"/>
+      <c r="F8" s="381"/>
+      <c r="G8" s="382"/>
+      <c r="H8" s="383"/>
+      <c r="I8" s="430"/>
+      <c r="J8" s="495"/>
+      <c r="K8" s="495"/>
+      <c r="L8" s="431"/>
+      <c r="M8" s="430"/>
+      <c r="N8" s="431"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -23643,16 +23646,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="436"/>
-      <c r="F9" s="379"/>
-      <c r="G9" s="380"/>
-      <c r="H9" s="381"/>
-      <c r="I9" s="445"/>
-      <c r="J9" s="464"/>
-      <c r="K9" s="464"/>
-      <c r="L9" s="446"/>
-      <c r="M9" s="445"/>
-      <c r="N9" s="446"/>
+      <c r="E9" s="421"/>
+      <c r="F9" s="381"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="383"/>
+      <c r="I9" s="430"/>
+      <c r="J9" s="495"/>
+      <c r="K9" s="495"/>
+      <c r="L9" s="431"/>
+      <c r="M9" s="430"/>
+      <c r="N9" s="431"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -23669,16 +23672,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="436"/>
-      <c r="F10" s="379"/>
-      <c r="G10" s="380"/>
-      <c r="H10" s="381"/>
-      <c r="I10" s="445"/>
-      <c r="J10" s="464"/>
-      <c r="K10" s="464"/>
-      <c r="L10" s="446"/>
-      <c r="M10" s="445"/>
-      <c r="N10" s="446"/>
+      <c r="E10" s="421"/>
+      <c r="F10" s="381"/>
+      <c r="G10" s="382"/>
+      <c r="H10" s="383"/>
+      <c r="I10" s="430"/>
+      <c r="J10" s="495"/>
+      <c r="K10" s="495"/>
+      <c r="L10" s="431"/>
+      <c r="M10" s="430"/>
+      <c r="N10" s="431"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -23691,16 +23694,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="436"/>
-      <c r="F11" s="379"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="381"/>
-      <c r="I11" s="445"/>
-      <c r="J11" s="464"/>
-      <c r="K11" s="464"/>
-      <c r="L11" s="446"/>
-      <c r="M11" s="445"/>
-      <c r="N11" s="446"/>
+      <c r="E11" s="421"/>
+      <c r="F11" s="381"/>
+      <c r="G11" s="382"/>
+      <c r="H11" s="383"/>
+      <c r="I11" s="430"/>
+      <c r="J11" s="495"/>
+      <c r="K11" s="495"/>
+      <c r="L11" s="431"/>
+      <c r="M11" s="430"/>
+      <c r="N11" s="431"/>
       <c r="O11" s="5"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -23711,16 +23714,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="436"/>
-      <c r="F12" s="379"/>
-      <c r="G12" s="380"/>
-      <c r="H12" s="381"/>
-      <c r="I12" s="445"/>
-      <c r="J12" s="464"/>
-      <c r="K12" s="464"/>
-      <c r="L12" s="446"/>
-      <c r="M12" s="445"/>
-      <c r="N12" s="446"/>
+      <c r="E12" s="421"/>
+      <c r="F12" s="381"/>
+      <c r="G12" s="382"/>
+      <c r="H12" s="383"/>
+      <c r="I12" s="430"/>
+      <c r="J12" s="495"/>
+      <c r="K12" s="495"/>
+      <c r="L12" s="431"/>
+      <c r="M12" s="430"/>
+      <c r="N12" s="431"/>
       <c r="O12" s="5"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -23733,16 +23736,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="436"/>
-      <c r="F13" s="379"/>
-      <c r="G13" s="380"/>
-      <c r="H13" s="381"/>
-      <c r="I13" s="445"/>
-      <c r="J13" s="464"/>
-      <c r="K13" s="464"/>
-      <c r="L13" s="446"/>
-      <c r="M13" s="445"/>
-      <c r="N13" s="446"/>
+      <c r="E13" s="421"/>
+      <c r="F13" s="381"/>
+      <c r="G13" s="382"/>
+      <c r="H13" s="383"/>
+      <c r="I13" s="430"/>
+      <c r="J13" s="495"/>
+      <c r="K13" s="495"/>
+      <c r="L13" s="431"/>
+      <c r="M13" s="430"/>
+      <c r="N13" s="431"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -23753,16 +23756,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="436"/>
-      <c r="F14" s="379"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="381"/>
-      <c r="I14" s="445"/>
-      <c r="J14" s="464"/>
-      <c r="K14" s="464"/>
-      <c r="L14" s="446"/>
-      <c r="M14" s="445"/>
-      <c r="N14" s="446"/>
+      <c r="E14" s="421"/>
+      <c r="F14" s="381"/>
+      <c r="G14" s="382"/>
+      <c r="H14" s="383"/>
+      <c r="I14" s="430"/>
+      <c r="J14" s="495"/>
+      <c r="K14" s="495"/>
+      <c r="L14" s="431"/>
+      <c r="M14" s="430"/>
+      <c r="N14" s="431"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -23773,16 +23776,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="436"/>
-      <c r="F15" s="379"/>
-      <c r="G15" s="380"/>
-      <c r="H15" s="381"/>
-      <c r="I15" s="445"/>
-      <c r="J15" s="464"/>
-      <c r="K15" s="464"/>
-      <c r="L15" s="446"/>
-      <c r="M15" s="445"/>
-      <c r="N15" s="446"/>
+      <c r="E15" s="421"/>
+      <c r="F15" s="381"/>
+      <c r="G15" s="382"/>
+      <c r="H15" s="383"/>
+      <c r="I15" s="430"/>
+      <c r="J15" s="495"/>
+      <c r="K15" s="495"/>
+      <c r="L15" s="431"/>
+      <c r="M15" s="430"/>
+      <c r="N15" s="431"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -23793,16 +23796,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="436"/>
-      <c r="F16" s="379"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="381"/>
-      <c r="I16" s="445"/>
-      <c r="J16" s="464"/>
-      <c r="K16" s="464"/>
-      <c r="L16" s="446"/>
-      <c r="M16" s="445"/>
-      <c r="N16" s="446"/>
+      <c r="E16" s="421"/>
+      <c r="F16" s="381"/>
+      <c r="G16" s="382"/>
+      <c r="H16" s="383"/>
+      <c r="I16" s="430"/>
+      <c r="J16" s="495"/>
+      <c r="K16" s="495"/>
+      <c r="L16" s="431"/>
+      <c r="M16" s="430"/>
+      <c r="N16" s="431"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -23815,16 +23818,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="436"/>
-      <c r="F17" s="379"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="381"/>
-      <c r="I17" s="445"/>
-      <c r="J17" s="464"/>
-      <c r="K17" s="464"/>
-      <c r="L17" s="446"/>
-      <c r="M17" s="445"/>
-      <c r="N17" s="446"/>
+      <c r="E17" s="421"/>
+      <c r="F17" s="381"/>
+      <c r="G17" s="382"/>
+      <c r="H17" s="383"/>
+      <c r="I17" s="430"/>
+      <c r="J17" s="495"/>
+      <c r="K17" s="495"/>
+      <c r="L17" s="431"/>
+      <c r="M17" s="430"/>
+      <c r="N17" s="431"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -23835,16 +23838,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="437"/>
-      <c r="F18" s="382"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="447"/>
-      <c r="J18" s="465"/>
-      <c r="K18" s="465"/>
-      <c r="L18" s="448"/>
-      <c r="M18" s="447"/>
-      <c r="N18" s="448"/>
+      <c r="E18" s="422"/>
+      <c r="F18" s="384"/>
+      <c r="G18" s="385"/>
+      <c r="H18" s="386"/>
+      <c r="I18" s="432"/>
+      <c r="J18" s="496"/>
+      <c r="K18" s="496"/>
+      <c r="L18" s="433"/>
+      <c r="M18" s="432"/>
+      <c r="N18" s="433"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -23873,26 +23876,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="371" t="s">
+      <c r="C20" s="373" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="372"/>
+      <c r="D20" s="374"/>
       <c r="E20" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="371" t="s">
+      <c r="F20" s="373" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="373"/>
-      <c r="H20" s="373"/>
-      <c r="I20" s="373"/>
-      <c r="J20" s="373"/>
-      <c r="K20" s="373"/>
-      <c r="L20" s="372"/>
-      <c r="M20" s="371" t="s">
+      <c r="G20" s="375"/>
+      <c r="H20" s="375"/>
+      <c r="I20" s="375"/>
+      <c r="J20" s="375"/>
+      <c r="K20" s="375"/>
+      <c r="L20" s="374"/>
+      <c r="M20" s="373" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="372"/>
+      <c r="N20" s="374"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -23920,39 +23923,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="429" t="s">
+      <c r="B24" s="442" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="429"/>
-      <c r="D24" s="428"/>
-      <c r="E24" s="428"/>
-      <c r="F24" s="428"/>
-      <c r="G24" s="428"/>
-      <c r="H24" s="428"/>
-      <c r="I24" s="428"/>
-      <c r="J24" s="428"/>
-      <c r="K24" s="428"/>
-      <c r="M24" s="483" t="s">
+      <c r="C24" s="442"/>
+      <c r="D24" s="441"/>
+      <c r="E24" s="441"/>
+      <c r="F24" s="441"/>
+      <c r="G24" s="441"/>
+      <c r="H24" s="441"/>
+      <c r="I24" s="441"/>
+      <c r="J24" s="441"/>
+      <c r="K24" s="441"/>
+      <c r="M24" s="464" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="483"/>
-      <c r="O24" s="483"/>
+      <c r="N24" s="464"/>
+      <c r="O24" s="464"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="484" t="s">
+      <c r="B25" s="465" t="s">
         <v>930</v>
       </c>
-      <c r="C25" s="406"/>
-      <c r="D25" s="361" t="s">
+      <c r="C25" s="407"/>
+      <c r="D25" s="363" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="361"/>
-      <c r="F25" s="361"/>
-      <c r="G25" s="361"/>
-      <c r="H25" s="361"/>
-      <c r="I25" s="361"/>
-      <c r="J25" s="361"/>
-      <c r="K25" s="362"/>
+      <c r="E25" s="363"/>
+      <c r="F25" s="363"/>
+      <c r="G25" s="363"/>
+      <c r="H25" s="363"/>
+      <c r="I25" s="363"/>
+      <c r="J25" s="363"/>
+      <c r="K25" s="364"/>
       <c r="M25" s="37" t="s">
         <v>181</v>
       </c>
@@ -23964,22 +23967,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="407"/>
-      <c r="C26" s="408"/>
-      <c r="D26" s="405" t="s">
+      <c r="B26" s="408"/>
+      <c r="C26" s="409"/>
+      <c r="D26" s="406" t="s">
         <v>923</v>
       </c>
-      <c r="E26" s="406"/>
-      <c r="F26" s="478" t="s">
+      <c r="E26" s="407"/>
+      <c r="F26" s="491" t="s">
         <v>923</v>
       </c>
-      <c r="G26" s="361"/>
-      <c r="H26" s="362"/>
-      <c r="I26" s="360" t="s">
+      <c r="G26" s="363"/>
+      <c r="H26" s="364"/>
+      <c r="I26" s="362" t="s">
         <v>927</v>
       </c>
-      <c r="J26" s="361"/>
-      <c r="K26" s="362"/>
+      <c r="J26" s="363"/>
+      <c r="K26" s="364"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -23994,22 +23997,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="407"/>
-      <c r="C27" s="408"/>
-      <c r="D27" s="397" t="s">
+      <c r="B27" s="408"/>
+      <c r="C27" s="409"/>
+      <c r="D27" s="403" t="s">
         <v>928</v>
       </c>
-      <c r="E27" s="408"/>
-      <c r="F27" s="407" t="s">
+      <c r="E27" s="409"/>
+      <c r="F27" s="408" t="s">
         <v>924</v>
       </c>
-      <c r="G27" s="397"/>
-      <c r="H27" s="359"/>
-      <c r="I27" s="482" t="s">
+      <c r="G27" s="403"/>
+      <c r="H27" s="357"/>
+      <c r="I27" s="475" t="s">
         <v>928</v>
       </c>
-      <c r="J27" s="397"/>
-      <c r="K27" s="359"/>
+      <c r="J27" s="403"/>
+      <c r="K27" s="357"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -24024,22 +24027,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="407"/>
-      <c r="C28" s="408"/>
-      <c r="D28" s="397" t="s">
+      <c r="B28" s="408"/>
+      <c r="C28" s="409"/>
+      <c r="D28" s="403" t="s">
         <v>925</v>
       </c>
-      <c r="E28" s="408"/>
-      <c r="F28" s="407" t="s">
+      <c r="E28" s="409"/>
+      <c r="F28" s="408" t="s">
         <v>925</v>
       </c>
-      <c r="G28" s="397"/>
-      <c r="H28" s="359"/>
-      <c r="I28" s="482" t="s">
+      <c r="G28" s="403"/>
+      <c r="H28" s="357"/>
+      <c r="I28" s="475" t="s">
         <v>925</v>
       </c>
-      <c r="J28" s="397"/>
-      <c r="K28" s="359"/>
+      <c r="J28" s="403"/>
+      <c r="K28" s="357"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -24048,22 +24051,22 @@
       <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="409"/>
-      <c r="C29" s="410"/>
-      <c r="D29" s="397" t="s">
+      <c r="B29" s="410"/>
+      <c r="C29" s="411"/>
+      <c r="D29" s="403" t="s">
         <v>926</v>
       </c>
-      <c r="E29" s="408"/>
-      <c r="F29" s="479" t="s">
+      <c r="E29" s="409"/>
+      <c r="F29" s="492" t="s">
         <v>926</v>
       </c>
-      <c r="G29" s="480"/>
-      <c r="H29" s="481"/>
-      <c r="I29" s="494" t="s">
+      <c r="G29" s="477"/>
+      <c r="H29" s="478"/>
+      <c r="I29" s="476" t="s">
         <v>926</v>
       </c>
-      <c r="J29" s="480"/>
-      <c r="K29" s="481"/>
+      <c r="J29" s="477"/>
+      <c r="K29" s="478"/>
       <c r="L29" s="23" t="s">
         <v>2</v>
       </c>
@@ -24072,149 +24075,149 @@
       <c r="O29" s="37"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="363" t="s">
+      <c r="B30" s="365" t="s">
         <v>929</v>
       </c>
-      <c r="C30" s="365"/>
-      <c r="D30" s="466" t="s">
+      <c r="C30" s="367"/>
+      <c r="D30" s="479" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="467"/>
-      <c r="F30" s="471" t="s">
+      <c r="E30" s="480"/>
+      <c r="F30" s="484" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="472"/>
-      <c r="H30" s="467"/>
-      <c r="I30" s="471" t="s">
+      <c r="G30" s="485"/>
+      <c r="H30" s="480"/>
+      <c r="I30" s="484" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="472"/>
-      <c r="K30" s="475"/>
+      <c r="J30" s="485"/>
+      <c r="K30" s="488"/>
       <c r="L30" s="5"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="352"/>
-      <c r="C31" s="367"/>
-      <c r="D31" s="468"/>
-      <c r="E31" s="426"/>
-      <c r="F31" s="424"/>
-      <c r="G31" s="425"/>
-      <c r="H31" s="426"/>
-      <c r="I31" s="424"/>
-      <c r="J31" s="425"/>
-      <c r="K31" s="476"/>
+      <c r="B31" s="358"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="481"/>
+      <c r="E31" s="448"/>
+      <c r="F31" s="446"/>
+      <c r="G31" s="447"/>
+      <c r="H31" s="448"/>
+      <c r="I31" s="446"/>
+      <c r="J31" s="447"/>
+      <c r="K31" s="489"/>
       <c r="L31" s="5"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="352"/>
-      <c r="C32" s="367"/>
-      <c r="D32" s="468"/>
-      <c r="E32" s="426"/>
-      <c r="F32" s="424"/>
-      <c r="G32" s="425"/>
-      <c r="H32" s="426"/>
-      <c r="I32" s="424"/>
-      <c r="J32" s="425"/>
-      <c r="K32" s="476"/>
+      <c r="B32" s="358"/>
+      <c r="C32" s="369"/>
+      <c r="D32" s="481"/>
+      <c r="E32" s="448"/>
+      <c r="F32" s="446"/>
+      <c r="G32" s="447"/>
+      <c r="H32" s="448"/>
+      <c r="I32" s="446"/>
+      <c r="J32" s="447"/>
+      <c r="K32" s="489"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="352"/>
-      <c r="C33" s="367"/>
-      <c r="D33" s="469"/>
-      <c r="E33" s="470"/>
-      <c r="F33" s="473"/>
-      <c r="G33" s="474"/>
-      <c r="H33" s="470"/>
-      <c r="I33" s="473"/>
-      <c r="J33" s="474"/>
-      <c r="K33" s="477"/>
+      <c r="B33" s="358"/>
+      <c r="C33" s="369"/>
+      <c r="D33" s="482"/>
+      <c r="E33" s="483"/>
+      <c r="F33" s="486"/>
+      <c r="G33" s="487"/>
+      <c r="H33" s="483"/>
+      <c r="I33" s="486"/>
+      <c r="J33" s="487"/>
+      <c r="K33" s="490"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="352"/>
-      <c r="C34" s="354"/>
-      <c r="D34" s="485" t="s">
+      <c r="B34" s="358"/>
+      <c r="C34" s="360"/>
+      <c r="D34" s="466" t="s">
         <v>916</v>
       </c>
-      <c r="E34" s="486"/>
-      <c r="F34" s="485" t="s">
+      <c r="E34" s="467"/>
+      <c r="F34" s="466" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="491"/>
-      <c r="H34" s="486"/>
-      <c r="I34" s="485" t="s">
+      <c r="G34" s="472"/>
+      <c r="H34" s="467"/>
+      <c r="I34" s="466" t="s">
         <v>931</v>
       </c>
-      <c r="J34" s="491"/>
-      <c r="K34" s="486"/>
+      <c r="J34" s="472"/>
+      <c r="K34" s="467"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="352"/>
-      <c r="C35" s="354"/>
-      <c r="D35" s="487"/>
-      <c r="E35" s="488"/>
-      <c r="F35" s="487"/>
-      <c r="G35" s="492"/>
-      <c r="H35" s="488"/>
-      <c r="I35" s="487"/>
-      <c r="J35" s="492"/>
-      <c r="K35" s="488"/>
+      <c r="B35" s="358"/>
+      <c r="C35" s="360"/>
+      <c r="D35" s="468"/>
+      <c r="E35" s="469"/>
+      <c r="F35" s="468"/>
+      <c r="G35" s="473"/>
+      <c r="H35" s="469"/>
+      <c r="I35" s="468"/>
+      <c r="J35" s="473"/>
+      <c r="K35" s="469"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="352"/>
-      <c r="C36" s="354"/>
-      <c r="D36" s="487"/>
-      <c r="E36" s="488"/>
-      <c r="F36" s="487"/>
-      <c r="G36" s="492"/>
-      <c r="H36" s="488"/>
-      <c r="I36" s="487"/>
-      <c r="J36" s="492"/>
-      <c r="K36" s="488"/>
+      <c r="B36" s="358"/>
+      <c r="C36" s="360"/>
+      <c r="D36" s="468"/>
+      <c r="E36" s="469"/>
+      <c r="F36" s="468"/>
+      <c r="G36" s="473"/>
+      <c r="H36" s="469"/>
+      <c r="I36" s="468"/>
+      <c r="J36" s="473"/>
+      <c r="K36" s="469"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="352"/>
-      <c r="C37" s="354"/>
-      <c r="D37" s="487"/>
-      <c r="E37" s="488"/>
-      <c r="F37" s="487"/>
-      <c r="G37" s="492"/>
-      <c r="H37" s="488"/>
-      <c r="I37" s="487"/>
-      <c r="J37" s="492"/>
-      <c r="K37" s="488"/>
+      <c r="B37" s="358"/>
+      <c r="C37" s="360"/>
+      <c r="D37" s="468"/>
+      <c r="E37" s="469"/>
+      <c r="F37" s="468"/>
+      <c r="G37" s="473"/>
+      <c r="H37" s="469"/>
+      <c r="I37" s="468"/>
+      <c r="J37" s="473"/>
+      <c r="K37" s="469"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="352"/>
-      <c r="C38" s="354"/>
-      <c r="D38" s="489"/>
-      <c r="E38" s="490"/>
-      <c r="F38" s="489"/>
-      <c r="G38" s="493"/>
-      <c r="H38" s="490"/>
-      <c r="I38" s="489"/>
-      <c r="J38" s="493"/>
-      <c r="K38" s="490"/>
+      <c r="B38" s="358"/>
+      <c r="C38" s="360"/>
+      <c r="D38" s="470"/>
+      <c r="E38" s="471"/>
+      <c r="F38" s="470"/>
+      <c r="G38" s="474"/>
+      <c r="H38" s="471"/>
+      <c r="I38" s="470"/>
+      <c r="J38" s="474"/>
+      <c r="K38" s="471"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="368"/>
-      <c r="C39" s="370"/>
-      <c r="D39" s="417" t="s">
+      <c r="B39" s="370"/>
+      <c r="C39" s="372"/>
+      <c r="D39" s="450" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="418"/>
-      <c r="F39" s="418"/>
-      <c r="G39" s="418"/>
-      <c r="H39" s="418"/>
-      <c r="I39" s="418"/>
-      <c r="J39" s="418"/>
-      <c r="K39" s="419"/>
+      <c r="E39" s="451"/>
+      <c r="F39" s="451"/>
+      <c r="G39" s="451"/>
+      <c r="H39" s="451"/>
+      <c r="I39" s="451"/>
+      <c r="J39" s="451"/>
+      <c r="K39" s="452"/>
       <c r="L39" s="39" t="s">
         <v>575</v>
       </c>
@@ -24232,36 +24235,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="371" t="s">
+      <c r="B41" s="373" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="372"/>
-      <c r="D41" s="371" t="s">
+      <c r="C41" s="374"/>
+      <c r="D41" s="373" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="372"/>
-      <c r="F41" s="371" t="s">
+      <c r="E41" s="374"/>
+      <c r="F41" s="373" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="373"/>
-      <c r="H41" s="373"/>
-      <c r="I41" s="373"/>
-      <c r="J41" s="373"/>
-      <c r="K41" s="372"/>
+      <c r="G41" s="375"/>
+      <c r="H41" s="375"/>
+      <c r="I41" s="375"/>
+      <c r="J41" s="375"/>
+      <c r="K41" s="374"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -24278,16 +24280,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -24830,13 +24833,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="349" t="s">
+      <c r="A5" s="351" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="350"/>
-      <c r="C5" s="350"/>
-      <c r="D5" s="350"/>
-      <c r="E5" s="351"/>
+      <c r="B5" s="352"/>
+      <c r="C5" s="352"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="353"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>149</v>
@@ -25634,7 +25637,7 @@
       <c r="K4" s="230"/>
       <c r="L4" s="230"/>
       <c r="M4" s="239"/>
-      <c r="N4" s="352" t="s">
+      <c r="N4" s="358" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -25652,7 +25655,7 @@
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="352"/>
+      <c r="N5" s="358"/>
     </row>
     <row r="6" spans="3:16">
       <c r="C6" s="339">
@@ -25668,7 +25671,7 @@
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="352"/>
+      <c r="N6" s="358"/>
     </row>
     <row r="7" spans="3:16">
       <c r="C7" s="339">
@@ -25684,7 +25687,7 @@
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="352"/>
+      <c r="N7" s="358"/>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" s="339">
@@ -25700,7 +25703,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="352"/>
+      <c r="N8" s="358"/>
     </row>
     <row r="9" spans="3:16">
       <c r="C9" s="339">
@@ -25716,7 +25719,7 @@
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="352"/>
+      <c r="N9" s="358"/>
     </row>
     <row r="10" spans="3:16">
       <c r="C10" s="339">
@@ -25732,7 +25735,7 @@
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="352"/>
+      <c r="N10" s="358"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
       <c r="C11" s="339">
@@ -25748,7 +25751,7 @@
       <c r="K11" s="232"/>
       <c r="L11" s="232"/>
       <c r="M11" s="240"/>
-      <c r="N11" s="352"/>
+      <c r="N11" s="358"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1">
       <c r="C12" s="339">
@@ -26102,7 +26105,7 @@
       </c>
     </row>
     <row r="153" spans="3:14">
-      <c r="C153" s="355" t="s">
+      <c r="C153" s="361" t="s">
         <v>166</v>
       </c>
       <c r="D153">
@@ -26128,7 +26131,7 @@
       </c>
     </row>
     <row r="154" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C154" s="355"/>
+      <c r="C154" s="361"/>
       <c r="D154">
         <v>20</v>
       </c>
@@ -26156,7 +26159,7 @@
       <c r="N154" s="63"/>
     </row>
     <row r="155" spans="3:14">
-      <c r="C155" s="355" t="s">
+      <c r="C155" s="361" t="s">
         <v>167</v>
       </c>
       <c r="D155">
@@ -26174,7 +26177,7 @@
       <c r="N155" s="172"/>
     </row>
     <row r="156" spans="3:14">
-      <c r="C156" s="355"/>
+      <c r="C156" s="361"/>
       <c r="D156">
         <v>40</v>
       </c>
@@ -26190,7 +26193,7 @@
       <c r="N156" s="172"/>
     </row>
     <row r="157" spans="3:14">
-      <c r="C157" s="355"/>
+      <c r="C157" s="361"/>
       <c r="D157">
         <v>50</v>
       </c>
@@ -26206,7 +26209,7 @@
       <c r="N157" s="172"/>
     </row>
     <row r="158" spans="3:14">
-      <c r="C158" s="355"/>
+      <c r="C158" s="361"/>
       <c r="D158">
         <v>60</v>
       </c>
@@ -26224,7 +26227,7 @@
       <c r="N158" s="172"/>
     </row>
     <row r="159" spans="3:14">
-      <c r="C159" s="355"/>
+      <c r="C159" s="361"/>
       <c r="D159">
         <v>70</v>
       </c>
@@ -26240,7 +26243,7 @@
       <c r="N159" s="172"/>
     </row>
     <row r="160" spans="3:14">
-      <c r="C160" s="355"/>
+      <c r="C160" s="361"/>
       <c r="D160">
         <v>80</v>
       </c>
@@ -26256,7 +26259,7 @@
       <c r="N160" s="172"/>
     </row>
     <row r="161" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C161" s="355"/>
+      <c r="C161" s="361"/>
       <c r="D161">
         <v>90</v>
       </c>
@@ -26344,7 +26347,7 @@
       </c>
     </row>
     <row r="166" spans="3:14">
-      <c r="D166" s="353">
+      <c r="D166" s="359">
         <v>1</v>
       </c>
       <c r="E166" s="173"/>
@@ -26359,7 +26362,7 @@
       <c r="N166" s="178"/>
     </row>
     <row r="167" spans="3:14">
-      <c r="D167" s="354"/>
+      <c r="D167" s="360"/>
       <c r="E167" s="174"/>
       <c r="F167" s="170"/>
       <c r="G167" s="171"/>
@@ -26372,7 +26375,7 @@
       <c r="N167" s="172"/>
     </row>
     <row r="168" spans="3:14">
-      <c r="D168" s="354"/>
+      <c r="D168" s="360"/>
       <c r="E168" s="174"/>
       <c r="F168" s="170"/>
       <c r="G168" s="171"/>
@@ -26385,7 +26388,7 @@
       <c r="N168" s="172"/>
     </row>
     <row r="169" spans="3:14">
-      <c r="D169" s="354"/>
+      <c r="D169" s="360"/>
       <c r="E169" s="174" t="s">
         <v>679</v>
       </c>
@@ -26402,7 +26405,7 @@
       <c r="N169" s="172"/>
     </row>
     <row r="170" spans="3:14">
-      <c r="D170" s="354"/>
+      <c r="D170" s="360"/>
       <c r="E170" s="174"/>
       <c r="F170" s="170"/>
       <c r="G170" s="171"/>
@@ -26415,7 +26418,7 @@
       <c r="N170" s="172"/>
     </row>
     <row r="171" spans="3:14">
-      <c r="D171" s="354"/>
+      <c r="D171" s="360"/>
       <c r="E171" s="174"/>
       <c r="F171" s="170"/>
       <c r="G171" s="171"/>
@@ -26428,7 +26431,7 @@
       <c r="N171" s="172"/>
     </row>
     <row r="172" spans="3:14" ht="15.75" thickBot="1">
-      <c r="D172" s="354"/>
+      <c r="D172" s="360"/>
       <c r="E172" s="175"/>
       <c r="F172" s="179"/>
       <c r="G172" s="180"/>
@@ -26551,7 +26554,7 @@
       <c r="K201" s="177"/>
       <c r="L201" s="177"/>
       <c r="M201" s="177"/>
-      <c r="N201" s="356" t="s">
+      <c r="N201" s="355" t="s">
         <v>933</v>
       </c>
     </row>
@@ -26569,7 +26572,7 @@
       <c r="K202" s="180"/>
       <c r="L202" s="180"/>
       <c r="M202" s="180"/>
-      <c r="N202" s="356"/>
+      <c r="N202" s="355"/>
     </row>
     <row r="203" spans="3:14">
       <c r="C203">
@@ -26585,7 +26588,7 @@
       <c r="K203" s="233"/>
       <c r="L203" s="233"/>
       <c r="M203" s="297"/>
-      <c r="N203" s="357" t="s">
+      <c r="N203" s="354" t="s">
         <v>936</v>
       </c>
     </row>
@@ -26603,7 +26606,7 @@
       <c r="K204" s="234"/>
       <c r="L204" s="234"/>
       <c r="M204" s="299"/>
-      <c r="N204" s="357"/>
+      <c r="N204" s="354"/>
     </row>
     <row r="205" spans="3:14">
       <c r="C205">
@@ -26619,7 +26622,7 @@
       <c r="K205" s="234"/>
       <c r="L205" s="234"/>
       <c r="M205" s="299"/>
-      <c r="N205" s="357"/>
+      <c r="N205" s="354"/>
     </row>
     <row r="206" spans="3:14" ht="15.75" thickBot="1">
       <c r="C206">
@@ -26639,7 +26642,7 @@
       <c r="K206" s="235"/>
       <c r="L206" s="235"/>
       <c r="M206" s="301"/>
-      <c r="N206" s="357"/>
+      <c r="N206" s="354"/>
     </row>
     <row r="207" spans="3:14">
       <c r="C207">
@@ -26655,7 +26658,7 @@
       <c r="K207" s="234"/>
       <c r="L207" s="234"/>
       <c r="M207" s="234"/>
-      <c r="N207" s="356"/>
+      <c r="N207" s="355"/>
     </row>
     <row r="208" spans="3:14">
       <c r="C208">
@@ -26671,7 +26674,7 @@
       <c r="K208" s="234"/>
       <c r="L208" s="234"/>
       <c r="M208" s="234"/>
-      <c r="N208" s="356"/>
+      <c r="N208" s="355"/>
     </row>
     <row r="209" spans="3:14" ht="15.75" thickBot="1">
       <c r="C209">
@@ -26687,7 +26690,7 @@
       <c r="K209" s="235"/>
       <c r="L209" s="235"/>
       <c r="M209" s="235"/>
-      <c r="N209" s="356"/>
+      <c r="N209" s="355"/>
     </row>
     <row r="210" spans="3:14" ht="15.75" thickBot="1">
       <c r="C210">
@@ -26774,7 +26777,7 @@
       </c>
     </row>
     <row r="218" spans="3:14">
-      <c r="C218" s="358">
+      <c r="C218" s="356">
         <v>1</v>
       </c>
       <c r="D218" s="229"/>
@@ -26789,7 +26792,7 @@
       <c r="M218" s="239"/>
     </row>
     <row r="219" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C219" s="359"/>
+      <c r="C219" s="357"/>
       <c r="D219" s="231"/>
       <c r="E219" s="232"/>
       <c r="F219" s="232"/>
@@ -26994,7 +26997,7 @@
   <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:N13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27047,14 +27050,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="360" t="s">
+      <c r="K4" s="362" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="361"/>
-      <c r="M4" s="361"/>
-      <c r="N4" s="361"/>
-      <c r="O4" s="361"/>
-      <c r="P4" s="362"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="363"/>
+      <c r="O4" s="363"/>
+      <c r="P4" s="364"/>
       <c r="Q4" s="114" t="s">
         <v>281</v>
       </c>
@@ -27169,7 +27172,9 @@
       <c r="C8" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="69" t="s">
+        <v>1565</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" t="s">
         <v>202</v>
@@ -27181,10 +27186,10 @@
       <c r="L8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="374" t="s">
+      <c r="M8" s="376" t="s">
         <v>210</v>
       </c>
-      <c r="N8" s="375"/>
+      <c r="N8" s="377"/>
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
@@ -27226,8 +27231,8 @@
       <c r="L9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="375"/>
-      <c r="N9" s="375"/>
+      <c r="M9" s="377"/>
+      <c r="N9" s="377"/>
       <c r="O9" s="5" t="s">
         <v>186</v>
       </c>
@@ -27263,8 +27268,8 @@
       <c r="L10" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="M10" s="375"/>
-      <c r="N10" s="375"/>
+      <c r="M10" s="377"/>
+      <c r="N10" s="377"/>
       <c r="O10" s="5"/>
       <c r="P10" s="250" t="s">
         <v>399</v>
@@ -27281,13 +27286,13 @@
       <c r="T10" s="37"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="363" t="s">
+      <c r="A11" s="365" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="364"/>
-      <c r="C11" s="365"/>
-      <c r="D11" s="365"/>
-      <c r="E11" s="366"/>
+      <c r="B11" s="366"/>
+      <c r="C11" s="367"/>
+      <c r="D11" s="367"/>
+      <c r="E11" s="368"/>
       <c r="F11" t="s">
         <v>208</v>
       </c>
@@ -27296,8 +27301,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="375"/>
-      <c r="N11" s="375"/>
+      <c r="M11" s="377"/>
+      <c r="N11" s="377"/>
       <c r="O11" s="5"/>
       <c r="P11" s="250" t="s">
         <v>400</v>
@@ -27307,11 +27312,11 @@
       <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="352"/>
-      <c r="B12" s="367"/>
-      <c r="C12" s="367"/>
-      <c r="D12" s="367"/>
-      <c r="E12" s="354"/>
+      <c r="A12" s="358"/>
+      <c r="B12" s="369"/>
+      <c r="C12" s="369"/>
+      <c r="D12" s="369"/>
+      <c r="E12" s="360"/>
       <c r="F12" t="s">
         <v>960</v>
       </c>
@@ -27320,8 +27325,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="375"/>
-      <c r="N12" s="375"/>
+      <c r="M12" s="377"/>
+      <c r="N12" s="377"/>
       <c r="O12" s="5"/>
       <c r="P12" s="250" t="s">
         <v>1321</v>
@@ -27331,11 +27336,11 @@
       <c r="T12" s="37"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="352"/>
-      <c r="B13" s="367"/>
-      <c r="C13" s="367"/>
-      <c r="D13" s="367"/>
-      <c r="E13" s="354"/>
+      <c r="A13" s="358"/>
+      <c r="B13" s="369"/>
+      <c r="C13" s="369"/>
+      <c r="D13" s="369"/>
+      <c r="E13" s="360"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>191</v>
@@ -27343,8 +27348,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="375"/>
-      <c r="N13" s="375"/>
+      <c r="M13" s="377"/>
+      <c r="N13" s="377"/>
       <c r="O13" s="27"/>
       <c r="P13" s="251"/>
       <c r="S13" t="s">
@@ -27352,11 +27357,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="368"/>
-      <c r="B14" s="369"/>
-      <c r="C14" s="369"/>
-      <c r="D14" s="369"/>
-      <c r="E14" s="370"/>
+      <c r="A14" s="370"/>
+      <c r="B14" s="371"/>
+      <c r="C14" s="371"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="372"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -27492,20 +27497,20 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="371" t="s">
+      <c r="I20" s="373" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="372"/>
-      <c r="K20" s="371" t="s">
+      <c r="J20" s="374"/>
+      <c r="K20" s="373" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="372"/>
-      <c r="M20" s="371" t="s">
+      <c r="L20" s="374"/>
+      <c r="M20" s="373" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="373"/>
-      <c r="O20" s="373"/>
-      <c r="P20" s="372"/>
+      <c r="N20" s="375"/>
+      <c r="O20" s="375"/>
+      <c r="P20" s="374"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -28011,7 +28016,7 @@
       <c r="G84" s="23" t="s">
         <v>1547</v>
       </c>
-      <c r="H84" s="495"/>
+      <c r="H84" s="349"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" thickBot="1">
       <c r="A85" s="32" t="s">
@@ -28025,7 +28030,7 @@
       <c r="G85" s="23" t="s">
         <v>1548</v>
       </c>
-      <c r="H85" s="495"/>
+      <c r="H85" s="349"/>
       <c r="I85" s="32"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" thickBot="1">
@@ -28038,7 +28043,7 @@
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="495" t="s">
+      <c r="H86" s="349" t="s">
         <v>301</v>
       </c>
       <c r="I86" s="32"/>
@@ -28259,7 +28264,7 @@
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
-      <c r="H110" s="496">
+      <c r="H110" s="350">
         <v>80</v>
       </c>
       <c r="I110" s="4"/>
@@ -28811,13 +28816,13 @@
         <v>180</v>
       </c>
       <c r="J3" s="147"/>
-      <c r="K3" s="385"/>
-      <c r="L3" s="385"/>
-      <c r="M3" s="385"/>
-      <c r="N3" s="385"/>
-      <c r="O3" s="385"/>
-      <c r="P3" s="385"/>
-      <c r="Q3" s="386"/>
+      <c r="K3" s="387"/>
+      <c r="L3" s="387"/>
+      <c r="M3" s="387"/>
+      <c r="N3" s="387"/>
+      <c r="O3" s="387"/>
+      <c r="P3" s="387"/>
+      <c r="Q3" s="388"/>
       <c r="T3" s="39" t="s">
         <v>178</v>
       </c>
@@ -29085,13 +29090,13 @@
       <c r="U11" s="37"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="376" t="s">
+      <c r="A12" s="378" t="s">
         <v>683</v>
       </c>
-      <c r="B12" s="377"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="377"/>
-      <c r="E12" s="378"/>
+      <c r="B12" s="379"/>
+      <c r="C12" s="379"/>
+      <c r="D12" s="379"/>
+      <c r="E12" s="380"/>
       <c r="F12" t="s">
         <v>696</v>
       </c>
@@ -29114,11 +29119,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="379"/>
-      <c r="B13" s="380"/>
-      <c r="C13" s="380"/>
-      <c r="D13" s="380"/>
-      <c r="E13" s="381"/>
+      <c r="A13" s="381"/>
+      <c r="B13" s="382"/>
+      <c r="C13" s="382"/>
+      <c r="D13" s="382"/>
+      <c r="E13" s="383"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -29139,11 +29144,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="379"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="380"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="A14" s="381"/>
+      <c r="B14" s="382"/>
+      <c r="C14" s="382"/>
+      <c r="D14" s="382"/>
+      <c r="E14" s="383"/>
       <c r="F14" t="s">
         <v>693</v>
       </c>
@@ -29166,11 +29171,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="382"/>
-      <c r="B15" s="383"/>
-      <c r="C15" s="383"/>
-      <c r="D15" s="383"/>
-      <c r="E15" s="384"/>
+      <c r="A15" s="384"/>
+      <c r="B15" s="385"/>
+      <c r="C15" s="385"/>
+      <c r="D15" s="385"/>
+      <c r="E15" s="386"/>
       <c r="F15" s="23"/>
       <c r="H15" s="196"/>
       <c r="I15" s="4" t="s">
@@ -29228,17 +29233,17 @@
       <c r="F17" s="192"/>
       <c r="G17" s="128"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="361" t="s">
+      <c r="I17" s="363" t="s">
         <v>1193</v>
       </c>
-      <c r="J17" s="361"/>
-      <c r="K17" s="361"/>
-      <c r="L17" s="361"/>
-      <c r="M17" s="361"/>
-      <c r="N17" s="361"/>
-      <c r="O17" s="361"/>
-      <c r="P17" s="361"/>
-      <c r="Q17" s="361"/>
+      <c r="J17" s="363"/>
+      <c r="K17" s="363"/>
+      <c r="L17" s="363"/>
+      <c r="M17" s="363"/>
+      <c r="N17" s="363"/>
+      <c r="O17" s="363"/>
+      <c r="P17" s="363"/>
+      <c r="Q17" s="363"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -33524,10 +33529,10 @@
       <c r="K232" s="34"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="387" t="s">
+      <c r="O232" s="389" t="s">
         <v>1241</v>
       </c>
-      <c r="P232" s="388"/>
+      <c r="P232" s="390"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="1647">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5345,6 +5345,105 @@
   </si>
   <si>
     <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>http://shoppping.com</t>
+  </si>
+  <si>
+    <t>conversation</t>
+  </si>
+  <si>
+    <t>web server software</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>String prodName=req.getParameter("productName");</t>
+  </si>
+  <si>
+    <t>HttpSession sess=req.getSession();</t>
+  </si>
+  <si>
+    <t>if(sess.getAttribute("cart") == null)</t>
+  </si>
+  <si>
+    <t>sess.setAttribute("cart", new ArrayList&lt;String&gt; ());</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; cartList=(ArrayList&lt;String&gt; )sess.getAttribute("cart");</t>
+  </si>
+  <si>
+    <t>cartList.add(prodName);</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; [iphone]&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; [iphone,samsung&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>ANYTHING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HashMap&lt;String,Object&gt; </t>
+  </si>
+  <si>
+    <t>CLEAR BROWSER COOKIES</t>
+  </si>
+  <si>
+    <t>motorala</t>
+  </si>
+  <si>
+    <t>sessionid=1235545</t>
+  </si>
+  <si>
+    <t>Database = Persistent/Permanent storage system</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>colums1</t>
+  </si>
+  <si>
+    <t>colum2</t>
+  </si>
+  <si>
+    <t>column4</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt; record</t>
+  </si>
+  <si>
+    <t>recor2</t>
+  </si>
+  <si>
+    <t>recod3</t>
+  </si>
+  <si>
+    <t>MySQL= RDBMS… Relational DataBase Mangement System</t>
+  </si>
+  <si>
+    <t>productname</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>jane@g.c</t>
+  </si>
+  <si>
+    <t>lenovo</t>
   </si>
 </sst>
 </file>
@@ -5682,7 +5781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -6083,6 +6182,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6091,7 +6214,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="508">
+  <cellXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6594,6 +6717,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6628,6 +6761,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6649,9 +6818,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6720,6 +6886,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6740,24 +6918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6789,6 +6949,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6798,59 +6961,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6868,9 +6980,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6912,6 +7021,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6933,17 +7093,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6987,79 +7180,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13775,10 +13919,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="392" t="s">
+      <c r="L35" s="407" t="s">
         <v>373</v>
       </c>
-      <c r="M35" s="392"/>
+      <c r="M35" s="407"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -15708,10 +15852,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="393" t="s">
+      <c r="A155" s="408" t="s">
         <v>1008</v>
       </c>
-      <c r="B155" s="393"/>
+      <c r="B155" s="408"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="92" t="s">
@@ -16067,10 +16211,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:P142"/>
+  <dimension ref="A1:P241"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16080,23 +16224,45 @@
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:15" ht="15.75" thickBot="1"/>
-    <row r="3" spans="4:15">
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="4:15">
-      <c r="D4" s="4"/>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -16106,13 +16272,22 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="4:15">
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="4"/>
+      <c r="C5" s="12" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1638</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -16120,15 +16295,16 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="4:15">
-      <c r="D6" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -16136,33 +16312,33 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>390</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="4:15">
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>388</v>
-      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -16170,16 +16346,13 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="4:15">
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>389</v>
-      </c>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -16188,23 +16361,16 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>385</v>
-      </c>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -16212,17 +16378,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15">
-      <c r="D11" s="4" t="s">
-        <v>383</v>
-      </c>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -16232,97 +16393,160 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="4:15">
-      <c r="D12" s="4"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>1644</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="4"/>
+      <c r="C13" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>989</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>319</v>
+      </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="I13" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>325</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="5"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="4"/>
+      <c r="C14" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" s="37">
+        <v>123123123</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="J14" s="37">
+        <v>500</v>
+      </c>
+      <c r="K14" s="37">
+        <v>1000</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="4:15">
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="4"/>
+      <c r="C15" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F15" s="37">
+        <v>234234234</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="J15" s="37">
+        <v>125</v>
+      </c>
+      <c r="K15" s="37">
+        <v>500</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="4:15">
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="4"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="37" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J16" s="37">
+        <v>100</v>
+      </c>
+      <c r="K16" s="37">
+        <v>1500</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="3:16" ht="15.75" thickBot="1">
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="4"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="37"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="3:16">
-      <c r="D18" s="4"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -16332,11 +16556,14 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="3:16">
-      <c r="D19" s="4"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -16346,918 +16573,1270 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="3:16" ht="15.75" thickBot="1">
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="23" spans="3:16">
-      <c r="D23" t="s">
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="4"/>
+      <c r="C20" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="4"/>
+      <c r="C21" s="37">
+        <v>123123</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" s="37">
+        <v>4</v>
+      </c>
+      <c r="G21" s="37">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="4"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="101" spans="4:15" ht="15.75" thickBot="1"/>
+    <row r="102" spans="4:15">
+      <c r="D102" s="1"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="4:15">
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="4:15">
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="6"/>
+    </row>
+    <row r="105" spans="4:15">
+      <c r="D105" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="O105" s="6"/>
+    </row>
+    <row r="106" spans="4:15" ht="15.75" thickBot="1">
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="6"/>
+    </row>
+    <row r="107" spans="4:15">
+      <c r="D107" s="1"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108" spans="4:15">
+      <c r="D108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O108" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="4:15" ht="15.75" thickBot="1">
+      <c r="D109" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O109" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="4:15">
+      <c r="D110" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="4:15">
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="6"/>
+    </row>
+    <row r="112" spans="4:15" ht="15.75" thickBot="1">
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="6"/>
+    </row>
+    <row r="113" spans="3:16" ht="15.75" thickBot="1">
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="106"/>
+      <c r="J113" s="107"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="6"/>
+    </row>
+    <row r="114" spans="3:16">
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="6"/>
+    </row>
+    <row r="115" spans="3:16">
+      <c r="D115" s="4"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="6"/>
+    </row>
+    <row r="116" spans="3:16" ht="15.75" thickBot="1">
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="3:16">
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="3:16">
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="6"/>
+    </row>
+    <row r="119" spans="3:16" ht="15.75" thickBot="1">
+      <c r="D119" s="8"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="9"/>
+    </row>
+    <row r="122" spans="3:16">
+      <c r="D122" t="s">
         <v>392</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I122" t="s">
         <v>393</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M122" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:16">
-      <c r="D24" t="s">
+    <row r="123" spans="3:16">
+      <c r="D123" t="s">
         <v>181</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E123" t="s">
         <v>391</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F123" t="s">
         <v>324</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I123" t="s">
         <v>394</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J123" t="s">
         <v>324</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M123" t="s">
         <v>181</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N123" t="s">
         <v>323</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O123" t="s">
         <v>324</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P123" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="3:16">
-      <c r="D25" t="s">
+    <row r="124" spans="3:16">
+      <c r="D124" t="s">
         <v>396</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E124" t="s">
         <v>395</v>
       </c>
-      <c r="F25">
+      <c r="F124">
         <v>1</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H124" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I124" t="s">
         <v>395</v>
       </c>
-      <c r="J25">
+      <c r="J124">
         <v>7</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L124" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M124" t="s">
         <v>30</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N124" t="s">
         <v>395</v>
       </c>
-      <c r="O25">
+      <c r="O124">
         <v>3</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P124" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="26" spans="3:16">
-      <c r="C26" s="36" t="s">
+    <row r="125" spans="3:16">
+      <c r="C125" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D125" t="s">
         <v>397</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E125" t="s">
         <v>395</v>
       </c>
-      <c r="F26">
+      <c r="F125">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:16">
-      <c r="F29" t="s">
+    <row r="128" spans="3:16">
+      <c r="F128" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="33" spans="4:12">
-      <c r="H33" t="s">
+    <row r="132" spans="4:12">
+      <c r="H132" t="s">
         <v>403</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I132" t="s">
         <v>395</v>
       </c>
-      <c r="J33">
+      <c r="J132">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="4:12">
-      <c r="E35" t="s">
+    <row r="134" spans="4:12">
+      <c r="E134" t="s">
         <v>812</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J134" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="4:12">
-      <c r="D36" s="37" t="s">
+    <row r="135" spans="4:12">
+      <c r="D135" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E135" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F135" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I135" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J135" s="37" t="s">
         <v>810</v>
       </c>
-      <c r="K36" s="37" t="s">
+      <c r="K135" s="37" t="s">
         <v>781</v>
       </c>
-      <c r="L36" s="37" t="s">
+      <c r="L135" s="37" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="4:12">
-      <c r="D37" s="12" t="s">
+    <row r="136" spans="4:12">
+      <c r="D136" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E136" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F136" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I136" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J136" s="37">
         <v>1</v>
       </c>
-      <c r="K37" s="37" t="s">
+      <c r="K136" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L136" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:12">
-      <c r="D38" s="37" t="s">
+    <row r="137" spans="4:12">
+      <c r="D137" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E137" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F137" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I137" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J137" s="37">
         <v>1</v>
       </c>
-      <c r="K38" s="37" t="s">
+      <c r="K137" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L137" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:12">
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="I39" s="37" t="s">
+    <row r="138" spans="4:12">
+      <c r="D138" s="37"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="I138" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J138" s="37">
         <v>2</v>
       </c>
-      <c r="K39" s="37" t="s">
+      <c r="K138" s="37" t="s">
         <v>811</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L138" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="75" t="s">
+    <row r="149" spans="2:14">
+      <c r="B149" s="75" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="51" spans="2:14">
-      <c r="B51" t="s">
+    <row r="150" spans="2:14">
+      <c r="B150" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
-      <c r="K53" s="92" t="s">
+    <row r="152" spans="2:14">
+      <c r="K152" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="L53" s="201" t="s">
+      <c r="L152" s="201" t="s">
         <v>182</v>
       </c>
-      <c r="M53" s="201" t="s">
+      <c r="M152" s="201" t="s">
         <v>317</v>
       </c>
-      <c r="N53" s="201" t="s">
+      <c r="N152" s="201" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="2:14">
-      <c r="B54" t="s">
+    <row r="153" spans="2:14">
+      <c r="B153" t="s">
         <v>832</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D153" t="s">
         <v>834</v>
       </c>
-      <c r="K54" s="209" t="s">
+      <c r="K153" s="209" t="s">
         <v>326</v>
       </c>
-      <c r="L54" s="210" t="s">
+      <c r="L153" s="210" t="s">
         <v>207</v>
       </c>
-      <c r="M54" s="96" t="s">
+      <c r="M153" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="96" t="s">
+      <c r="N153" s="96" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="2:14">
-      <c r="B55" t="s">
+    <row r="154" spans="2:14">
+      <c r="B154" t="s">
         <v>833</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D154" t="s">
         <v>844</v>
       </c>
-      <c r="K55" s="201" t="s">
+      <c r="K154" s="201" t="s">
         <v>333</v>
       </c>
-      <c r="L55" s="96" t="s">
+      <c r="L154" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="M55" s="96" t="s">
+      <c r="M154" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="96" t="s">
+      <c r="N154" s="96" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="2:14">
-      <c r="B56" t="s">
+    <row r="155" spans="2:14">
+      <c r="B155" t="s">
         <v>835</v>
       </c>
-      <c r="K56" s="201" t="s">
+      <c r="K155" s="201" t="s">
         <v>542</v>
       </c>
-      <c r="L56" s="93" t="s">
+      <c r="L155" s="93" t="s">
         <v>819</v>
       </c>
-      <c r="M56" s="93" t="s">
+      <c r="M155" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="N56" s="93" t="s">
+      <c r="N155" s="93" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="2:14">
-      <c r="B57" t="s">
+    <row r="156" spans="2:14">
+      <c r="B156" t="s">
         <v>836</v>
       </c>
-      <c r="K57" s="209" t="s">
+      <c r="K156" s="209" t="s">
         <v>326</v>
       </c>
-      <c r="L57" s="210" t="s">
+      <c r="L156" s="210" t="s">
         <v>207</v>
       </c>
-      <c r="M57" s="93" t="s">
+      <c r="M156" s="93" t="s">
         <v>845</v>
       </c>
-      <c r="N57" s="93" t="s">
+      <c r="N156" s="93" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="208" t="s">
+    <row r="157" spans="2:14">
+      <c r="B157" s="208" t="s">
         <v>849</v>
       </c>
-      <c r="C58" s="208"/>
-      <c r="D58" s="208"/>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" t="s">
+      <c r="C157" s="208"/>
+      <c r="D157" s="208"/>
+    </row>
+    <row r="158" spans="2:14">
+      <c r="B158" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="60" spans="2:14">
-      <c r="B60" t="s">
+    <row r="159" spans="2:14">
+      <c r="B159" t="s">
         <v>838</v>
       </c>
-      <c r="F60" t="b">
+      <c r="F159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14">
-      <c r="B61" t="s">
+    <row r="160" spans="2:14">
+      <c r="B160" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="62" spans="2:14">
-      <c r="B62" t="s">
+    <row r="161" spans="2:15">
+      <c r="B161" t="s">
         <v>833</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C161" t="s">
         <v>850</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G161" t="s">
         <v>26</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H161" t="s">
         <v>845</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J161" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="63" spans="2:14">
-      <c r="C63" t="s">
+    <row r="162" spans="2:15">
+      <c r="C162" t="s">
         <v>846</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G162" t="s">
         <v>327</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H162" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="2:14">
-      <c r="B64" t="s">
+    <row r="163" spans="2:15">
+      <c r="B163" t="s">
         <v>840</v>
       </c>
-      <c r="C64" s="208" t="s">
+      <c r="C163" s="208" t="s">
         <v>848</v>
       </c>
-      <c r="D64" s="208"/>
-      <c r="E64" s="208"/>
-      <c r="F64" s="208"/>
-      <c r="G64" s="208"/>
-      <c r="J64" t="s">
+      <c r="D163" s="208"/>
+      <c r="E163" s="208"/>
+      <c r="F163" s="208"/>
+      <c r="G163" s="208"/>
+      <c r="J163" t="s">
         <v>847</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K163" t="s">
         <v>317</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L163" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="B65" t="s">
+    <row r="164" spans="2:15">
+      <c r="B164" t="s">
         <v>841</v>
       </c>
-      <c r="K65" s="37" t="s">
+      <c r="K164" s="37" t="s">
         <v>852</v>
       </c>
-      <c r="L65" s="37" t="s">
+      <c r="L164" s="37" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="F68" t="s">
+    <row r="165" spans="2:15">
+      <c r="K165" s="37"/>
+      <c r="L165" s="37"/>
+    </row>
+    <row r="167" spans="2:15">
+      <c r="F167" t="s">
         <v>998</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N167" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="D69" t="s">
+    <row r="168" spans="2:15">
+      <c r="D168" t="s">
         <v>995</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F168" t="s">
         <v>997</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J168" t="s">
         <v>996</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N168" t="s">
         <v>1027</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O168" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
-      <c r="D70" s="12" t="s">
+    <row r="169" spans="2:15">
+      <c r="D169" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E169" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F169" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="G169" s="12" t="s">
         <v>989</v>
       </c>
-      <c r="H70" s="12"/>
-      <c r="J70" s="263" t="s">
+      <c r="H169" s="12"/>
+      <c r="J169" s="263" t="s">
         <v>810</v>
       </c>
-      <c r="K70" s="263" t="s">
+      <c r="K169" s="263" t="s">
         <v>323</v>
       </c>
-      <c r="L70" s="12" t="s">
+      <c r="L169" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="B71" t="s">
+    <row r="170" spans="2:15">
+      <c r="B170" t="s">
         <v>1002</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C170" t="s">
         <v>999</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="69"/>
-      <c r="J71" s="247">
+      <c r="D170" s="37"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="69"/>
+      <c r="J170" s="247">
         <v>1</v>
       </c>
-      <c r="K71" s="247" t="s">
+      <c r="K170" s="247" t="s">
         <v>330</v>
       </c>
-      <c r="L71" s="247">
+      <c r="L170" s="247">
         <v>2</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N170" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="B72" t="s">
+    <row r="171" spans="2:15">
+      <c r="B171" t="s">
         <v>1003</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C171" t="s">
         <v>1000</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D171" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E171" s="37" t="s">
         <v>1016</v>
       </c>
-      <c r="F72" s="37" t="s">
+      <c r="F171" s="37" t="s">
         <v>603</v>
       </c>
-      <c r="G72" s="37">
+      <c r="G171" s="37">
         <v>345</v>
       </c>
-      <c r="H72" s="69"/>
-      <c r="J72" s="247">
+      <c r="H171" s="69"/>
+      <c r="J171" s="247">
         <v>2</v>
       </c>
-      <c r="K72" s="247" t="s">
+      <c r="K171" s="247" t="s">
         <v>1017</v>
       </c>
-      <c r="L72" s="247">
+      <c r="L171" s="247">
         <v>1</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N171" t="s">
         <v>359</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O171" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="B73" t="s">
+    <row r="172" spans="2:15">
+      <c r="B172" t="s">
         <v>1004</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C172" t="s">
         <v>1001</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D172" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E172" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="F73" s="37" t="s">
+      <c r="F172" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="G73" s="37">
+      <c r="G172" s="37">
         <v>123</v>
       </c>
-      <c r="H73" s="69"/>
-      <c r="J73" s="247">
+      <c r="H172" s="69"/>
+      <c r="J172" s="247">
         <v>3</v>
       </c>
-      <c r="K73" s="247" t="s">
+      <c r="K172" s="247" t="s">
         <v>363</v>
       </c>
-      <c r="L73" s="247">
+      <c r="L172" s="247">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="J74" s="247">
+    <row r="173" spans="2:15">
+      <c r="D173" s="37"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="37"/>
+      <c r="H173" s="37"/>
+      <c r="J173" s="247">
         <v>3</v>
       </c>
-      <c r="K74" s="247" t="s">
+      <c r="K173" s="247" t="s">
         <v>1017</v>
       </c>
-      <c r="L74" s="247">
+      <c r="L173" s="247">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="J75" s="247"/>
-      <c r="K75" s="247"/>
-      <c r="L75" s="247"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="D76" t="s">
+    <row r="174" spans="2:15">
+      <c r="D174" s="37"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37"/>
+      <c r="H174" s="37"/>
+      <c r="J174" s="247"/>
+      <c r="K174" s="247"/>
+      <c r="L174" s="247"/>
+    </row>
+    <row r="175" spans="2:15">
+      <c r="D175" t="s">
         <v>1005</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E175" t="s">
         <v>1006</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F175" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
+    <row r="176" spans="2:15">
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="L177" s="37"/>
+      <c r="M177" s="37"/>
+      <c r="N177" s="37"/>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" t="s">
         <v>1009</v>
       </c>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
+      <c r="L178" s="37"/>
+      <c r="M178" s="37"/>
+      <c r="N178" s="37"/>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" t="s">
         <v>1008</v>
       </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="262"/>
-      <c r="K81" s="37"/>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="262"/>
-      <c r="K82" s="37"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" t="s">
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="F180" s="37"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="37"/>
+      <c r="I180" s="37"/>
+      <c r="J180" s="262"/>
+      <c r="K180" s="37"/>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="F181" s="37"/>
+      <c r="G181" s="37"/>
+      <c r="H181" s="37"/>
+      <c r="I181" s="37"/>
+      <c r="J181" s="262"/>
+      <c r="K181" s="37"/>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="F182" s="37"/>
+      <c r="G182" s="37"/>
+      <c r="H182" s="37"/>
+      <c r="I182" s="37"/>
+      <c r="J182" s="37"/>
+      <c r="K182" s="37"/>
+      <c r="L182" t="s">
         <v>1018</v>
       </c>
-      <c r="N83" t="s">
+      <c r="N182" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="N84" t="s">
+    <row r="183" spans="1:14">
+      <c r="F183" s="37"/>
+      <c r="G183" s="37"/>
+      <c r="H183" s="37"/>
+      <c r="I183" s="37"/>
+      <c r="J183" s="37"/>
+      <c r="K183" s="37"/>
+      <c r="N183" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
-      <c r="A85" t="s">
+    <row r="184" spans="1:14">
+      <c r="A184" t="s">
         <v>1015</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D184" t="s">
         <v>603</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N184" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
-      <c r="A86" t="s">
+    <row r="185" spans="1:14">
+      <c r="A185" t="s">
         <v>1014</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D185" t="s">
         <v>761</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H185" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
-      <c r="A87" t="s">
+    <row r="186" spans="1:14">
+      <c r="A186" t="s">
         <v>1010</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D186" t="s">
         <v>1011</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H186" t="s">
         <v>1025</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N186" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
-      <c r="A88" t="s">
+    <row r="187" spans="1:14">
+      <c r="A187" t="s">
         <v>1012</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D187" t="s">
         <v>1013</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N187" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
-      <c r="N89" t="s">
+    <row r="188" spans="1:14">
+      <c r="N188" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
-      <c r="F90" t="s">
+    <row r="189" spans="1:14">
+      <c r="F189" t="s">
         <v>1041</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G189" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
-      <c r="F91" t="s">
+    <row r="190" spans="1:14">
+      <c r="F190" t="s">
         <v>1039</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G190" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
-      <c r="F92" t="s">
+    <row r="191" spans="1:14">
+      <c r="F191" t="s">
         <v>1035</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G191" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="E94" t="s">
+    <row r="192" spans="1:14">
+      <c r="F192" s="37"/>
+      <c r="G192" s="37"/>
+    </row>
+    <row r="193" spans="5:10">
+      <c r="E193" t="s">
         <v>1036</v>
       </c>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="23" t="s">
+      <c r="F193" s="37"/>
+      <c r="G193" s="37"/>
+      <c r="H193" s="23" t="s">
         <v>1037</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J193" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
-      <c r="E95" t="s">
+    <row r="194" spans="5:10">
+      <c r="E194" t="s">
         <v>1037</v>
       </c>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="23" t="s">
+      <c r="F194" s="37"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="23" t="s">
         <v>1037</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J194" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
-      <c r="E96" t="s">
+    <row r="195" spans="5:10">
+      <c r="E195" t="s">
         <v>1038</v>
       </c>
-      <c r="F96" s="264"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="23" t="s">
+      <c r="F195" s="264"/>
+      <c r="G195" s="37"/>
+      <c r="H195" s="23" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="97" spans="6:9">
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-    </row>
-    <row r="98" spans="6:9">
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" t="s">
+    <row r="196" spans="5:10">
+      <c r="F196" s="37"/>
+      <c r="G196" s="37"/>
+    </row>
+    <row r="197" spans="5:10">
+      <c r="F197" s="37"/>
+      <c r="G197" s="37"/>
+      <c r="H197" t="s">
         <v>1043</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I197" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="99" spans="6:9">
-      <c r="H99" t="s">
+    <row r="198" spans="5:10">
+      <c r="H198" t="s">
         <v>1045</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I198" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="129" spans="2:12">
-      <c r="B129" t="s">
+    <row r="228" spans="2:12">
+      <c r="B228" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="130" spans="2:12">
-      <c r="D130" t="s">
+    <row r="229" spans="2:12">
+      <c r="D229" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="131" spans="2:12">
-      <c r="B131" t="s">
+    <row r="230" spans="2:12">
+      <c r="B230" t="s">
         <v>833</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C230" t="s">
         <v>835</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J230" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="132" spans="2:12">
-      <c r="B132" t="s">
+    <row r="231" spans="2:12">
+      <c r="B231" t="s">
         <v>833</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C231" t="s">
         <v>836</v>
       </c>
-      <c r="J132" s="39" t="s">
+      <c r="J231" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="K132" s="39" t="s">
+      <c r="K231" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="L132" s="39" t="s">
+      <c r="L231" s="39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="2:12">
-      <c r="B133" t="s">
+    <row r="232" spans="2:12">
+      <c r="B232" t="s">
         <v>837</v>
       </c>
-      <c r="J133" s="315" t="s">
+      <c r="J232" s="315" t="s">
         <v>30</v>
       </c>
-      <c r="K133" s="315" t="s">
+      <c r="K232" s="315" t="s">
         <v>30</v>
       </c>
-      <c r="L133" s="315" t="s">
+      <c r="L232" s="315" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="134" spans="2:12">
-      <c r="B134" t="s">
+    <row r="233" spans="2:12">
+      <c r="B233" t="s">
         <v>838</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J233" t="s">
         <v>30</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K233" t="s">
         <v>1326</v>
       </c>
-      <c r="L134" t="s">
+      <c r="L233" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="2:12">
-      <c r="B135" t="s">
+    <row r="234" spans="2:12">
+      <c r="B234" t="s">
         <v>839</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I234" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="136" spans="2:12">
-      <c r="B136" t="s">
+    <row r="235" spans="2:12">
+      <c r="B235" t="s">
         <v>840</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C235" t="s">
         <v>1323</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G235" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="137" spans="2:12">
-      <c r="D137" t="s">
+    <row r="236" spans="2:12">
+      <c r="D236" t="s">
         <v>1328</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G236" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="138" spans="2:12">
-      <c r="D138" t="s">
+    <row r="237" spans="2:12">
+      <c r="D237" t="s">
         <v>1329</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G237" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="139" spans="2:12">
-      <c r="D139" t="s">
+    <row r="238" spans="2:12">
+      <c r="D238" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="140" spans="2:12">
-      <c r="B140" t="s">
+    <row r="239" spans="2:12">
+      <c r="B239" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="141" spans="2:12">
-      <c r="C141" t="s">
+    <row r="240" spans="2:12">
+      <c r="C240" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="142" spans="2:12">
-      <c r="B142" t="s">
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
         <v>1325</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1"/>
+    <hyperlink ref="E15" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -17301,18 +17880,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="401" t="s">
+      <c r="E6" s="409" t="s">
         <v>405</v>
       </c>
-      <c r="F6" s="354"/>
-      <c r="G6" s="353" t="s">
+      <c r="F6" s="358"/>
+      <c r="G6" s="357" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="353"/>
-      <c r="I6" s="353"/>
-      <c r="J6" s="353"/>
-      <c r="K6" s="353"/>
-      <c r="L6" s="354"/>
+      <c r="H6" s="357"/>
+      <c r="I6" s="357"/>
+      <c r="J6" s="357"/>
+      <c r="K6" s="357"/>
+      <c r="L6" s="358"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="27" t="s">
@@ -17322,7 +17901,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="398">
+      <c r="D7" s="417">
         <v>80</v>
       </c>
       <c r="E7" s="65"/>
@@ -17340,7 +17919,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="398"/>
+      <c r="D8" s="417"/>
       <c r="E8" s="57" t="s">
         <v>407</v>
       </c>
@@ -17375,7 +17954,7 @@
       <c r="B9" t="s">
         <v>406</v>
       </c>
-      <c r="D9" s="398"/>
+      <c r="D9" s="417"/>
       <c r="E9" s="236"/>
       <c r="F9" s="242"/>
       <c r="G9" s="236"/>
@@ -17399,7 +17978,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="398"/>
+      <c r="D10" s="417"/>
       <c r="E10" s="65"/>
       <c r="F10" s="241"/>
       <c r="G10" s="65"/>
@@ -17423,7 +18002,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="398"/>
+      <c r="D11" s="417"/>
       <c r="E11" s="57" t="s">
         <v>411</v>
       </c>
@@ -17452,7 +18031,7 @@
       <c r="B12" s="213" t="s">
         <v>415</v>
       </c>
-      <c r="D12" s="398"/>
+      <c r="D12" s="417"/>
       <c r="E12" s="236"/>
       <c r="F12" s="242"/>
       <c r="G12" s="236"/>
@@ -17470,7 +18049,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="398"/>
+      <c r="D13" s="417"/>
       <c r="E13" s="65"/>
       <c r="F13" s="241"/>
       <c r="G13" s="65"/>
@@ -17486,7 +18065,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="398"/>
+      <c r="D14" s="417"/>
       <c r="E14" s="57" t="s">
         <v>416</v>
       </c>
@@ -17510,7 +18089,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="398"/>
+      <c r="D15" s="417"/>
       <c r="E15" s="236"/>
       <c r="F15" s="242"/>
       <c r="G15" s="236"/>
@@ -17526,7 +18105,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="398"/>
+      <c r="D16" s="417"/>
       <c r="E16" s="65"/>
       <c r="F16" s="241"/>
       <c r="G16" s="58"/>
@@ -17542,7 +18121,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="398"/>
+      <c r="D17" s="417"/>
       <c r="E17" s="57" t="s">
         <v>420</v>
       </c>
@@ -17566,7 +18145,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="398"/>
+      <c r="D18" s="417"/>
       <c r="E18" s="236"/>
       <c r="F18" s="242"/>
       <c r="G18" s="325"/>
@@ -17583,20 +18162,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="402" t="s">
+      <c r="E19" s="410" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="403"/>
-      <c r="G19" s="402" t="s">
+      <c r="F19" s="411"/>
+      <c r="G19" s="410" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="403"/>
-      <c r="I19" s="402" t="s">
+      <c r="H19" s="411"/>
+      <c r="I19" s="410" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="404"/>
-      <c r="K19" s="404"/>
-      <c r="L19" s="403"/>
+      <c r="J19" s="412"/>
+      <c r="K19" s="412"/>
+      <c r="L19" s="411"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -17661,12 +18240,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="400"/>
-      <c r="H24" s="400"/>
-      <c r="I24" s="400"/>
-      <c r="J24" s="400"/>
-      <c r="K24" s="400"/>
-      <c r="L24" s="400"/>
+      <c r="G24" s="419"/>
+      <c r="H24" s="419"/>
+      <c r="I24" s="419"/>
+      <c r="J24" s="419"/>
+      <c r="K24" s="419"/>
+      <c r="L24" s="419"/>
       <c r="O24" s="39" t="s">
         <v>178</v>
       </c>
@@ -18039,11 +18618,11 @@
       <c r="G47" s="226" t="s">
         <v>898</v>
       </c>
-      <c r="H47" s="390" t="s">
+      <c r="H47" s="405" t="s">
         <v>1369</v>
       </c>
-      <c r="I47" s="399"/>
-      <c r="J47" s="391"/>
+      <c r="I47" s="418"/>
+      <c r="J47" s="406"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -18649,16 +19228,16 @@
         <v>1063</v>
       </c>
       <c r="F131" s="37"/>
-      <c r="G131" s="396" t="s">
+      <c r="G131" s="415" t="s">
         <v>1056</v>
       </c>
-      <c r="H131" s="396"/>
-      <c r="I131" s="396"/>
-      <c r="J131" s="396"/>
-      <c r="K131" s="396"/>
-      <c r="L131" s="396"/>
-      <c r="M131" s="396"/>
-      <c r="N131" s="396"/>
+      <c r="H131" s="415"/>
+      <c r="I131" s="415"/>
+      <c r="J131" s="415"/>
+      <c r="K131" s="415"/>
+      <c r="L131" s="415"/>
+      <c r="M131" s="415"/>
+      <c r="N131" s="415"/>
       <c r="O131" s="37"/>
     </row>
     <row r="132" spans="2:15">
@@ -18795,29 +19374,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="37"/>
-      <c r="G141" s="397"/>
-      <c r="H141" s="397"/>
-      <c r="I141" s="397"/>
-      <c r="J141" s="397"/>
-      <c r="K141" s="397"/>
-      <c r="L141" s="397"/>
-      <c r="M141" s="397"/>
-      <c r="N141" s="397"/>
-      <c r="O141" s="397"/>
+      <c r="G141" s="416"/>
+      <c r="H141" s="416"/>
+      <c r="I141" s="416"/>
+      <c r="J141" s="416"/>
+      <c r="K141" s="416"/>
+      <c r="L141" s="416"/>
+      <c r="M141" s="416"/>
+      <c r="N141" s="416"/>
+      <c r="O141" s="416"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="397"/>
-      <c r="H142" s="397"/>
-      <c r="I142" s="397"/>
-      <c r="J142" s="397"/>
-      <c r="K142" s="397"/>
-      <c r="L142" s="397"/>
-      <c r="M142" s="397"/>
-      <c r="N142" s="397"/>
-      <c r="O142" s="397"/>
+      <c r="G142" s="416"/>
+      <c r="H142" s="416"/>
+      <c r="I142" s="416"/>
+      <c r="J142" s="416"/>
+      <c r="K142" s="416"/>
+      <c r="L142" s="416"/>
+      <c r="M142" s="416"/>
+      <c r="N142" s="416"/>
+      <c r="O142" s="416"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -18861,7 +19440,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="394" t="s">
+      <c r="D158" s="413" t="s">
         <v>1335</v>
       </c>
       <c r="E158" s="65"/>
@@ -18874,7 +19453,7 @@
       <c r="L158" s="241"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="395"/>
+      <c r="D159" s="414"/>
       <c r="E159" s="317" t="s">
         <v>1333</v>
       </c>
@@ -18896,7 +19475,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="395"/>
+      <c r="D160" s="414"/>
       <c r="E160" s="236"/>
       <c r="F160" s="242"/>
       <c r="G160" s="236"/>
@@ -18907,7 +19486,7 @@
       <c r="L160" s="242"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="395"/>
+      <c r="D161" s="414"/>
       <c r="E161" s="319"/>
       <c r="F161" s="320"/>
       <c r="G161" s="319"/>
@@ -18918,7 +19497,7 @@
       <c r="L161" s="320"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="395"/>
+      <c r="D162" s="414"/>
       <c r="E162" s="321"/>
       <c r="F162" s="322"/>
       <c r="G162" s="321"/>
@@ -18932,7 +19511,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="395"/>
+      <c r="D163" s="414"/>
       <c r="E163" s="323"/>
       <c r="F163" s="324"/>
       <c r="G163" s="323"/>
@@ -18943,7 +19522,7 @@
       <c r="L163" s="324"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="395"/>
+      <c r="D164" s="414"/>
       <c r="E164" s="65"/>
       <c r="F164" s="241"/>
       <c r="G164" s="65"/>
@@ -18954,7 +19533,7 @@
       <c r="L164" s="241"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="395"/>
+      <c r="D165" s="414"/>
       <c r="E165" s="57"/>
       <c r="F165" s="316"/>
       <c r="G165" s="57"/>
@@ -18968,7 +19547,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="395"/>
+      <c r="D166" s="414"/>
       <c r="E166" s="236"/>
       <c r="F166" s="242"/>
       <c r="G166" s="236"/>
@@ -18979,7 +19558,7 @@
       <c r="L166" s="242"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="395"/>
+      <c r="D167" s="414"/>
       <c r="E167" s="65"/>
       <c r="F167" s="241"/>
       <c r="G167" s="58"/>
@@ -18990,7 +19569,7 @@
       <c r="L167" s="316"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="395"/>
+      <c r="D168" s="414"/>
       <c r="E168" s="57"/>
       <c r="F168" s="316"/>
       <c r="G168" s="58"/>
@@ -19004,7 +19583,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="395"/>
+      <c r="D169" s="414"/>
       <c r="E169" s="236"/>
       <c r="F169" s="242"/>
       <c r="G169" s="325"/>
@@ -19184,17 +19763,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -19439,13 +20018,13 @@
       <c r="C20" s="115">
         <v>43908</v>
       </c>
-      <c r="D20" s="405" t="s">
+      <c r="D20" s="369" t="s">
         <v>455</v>
       </c>
-      <c r="E20" s="405"/>
-      <c r="F20" s="405"/>
-      <c r="G20" s="405"/>
-      <c r="H20" s="405"/>
+      <c r="E20" s="369"/>
+      <c r="F20" s="369"/>
+      <c r="G20" s="369"/>
+      <c r="H20" s="369"/>
       <c r="I20" s="37" t="s">
         <v>456</v>
       </c>
@@ -19456,37 +20035,37 @@
       <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="406">
+      <c r="C21" s="430">
         <v>43909</v>
       </c>
-      <c r="D21" s="405"/>
-      <c r="E21" s="405"/>
-      <c r="F21" s="405"/>
-      <c r="G21" s="405"/>
-      <c r="H21" s="405"/>
+      <c r="D21" s="369"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="369"/>
+      <c r="G21" s="369"/>
+      <c r="H21" s="369"/>
       <c r="I21" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="J21" s="405"/>
-      <c r="K21" s="405"/>
-      <c r="L21" s="405" t="s">
+      <c r="J21" s="369"/>
+      <c r="K21" s="369"/>
+      <c r="L21" s="369" t="s">
         <v>458</v>
       </c>
-      <c r="M21" s="405"/>
-      <c r="N21" s="405"/>
+      <c r="M21" s="369"/>
+      <c r="N21" s="369"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="406"/>
-      <c r="D22" s="405"/>
-      <c r="E22" s="405"/>
-      <c r="F22" s="405"/>
-      <c r="G22" s="405"/>
-      <c r="H22" s="405"/>
-      <c r="I22" s="362" t="s">
+      <c r="C22" s="430"/>
+      <c r="D22" s="369"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="369"/>
+      <c r="G22" s="369"/>
+      <c r="H22" s="369"/>
+      <c r="I22" s="366" t="s">
         <v>459</v>
       </c>
-      <c r="J22" s="405"/>
-      <c r="K22" s="405"/>
+      <c r="J22" s="369"/>
+      <c r="K22" s="369"/>
       <c r="L22" s="116" t="s">
         <v>460</v>
       </c>
@@ -19494,31 +20073,31 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="406"/>
-      <c r="D23" s="405"/>
-      <c r="E23" s="405"/>
-      <c r="F23" s="405"/>
-      <c r="G23" s="405"/>
-      <c r="H23" s="405"/>
-      <c r="I23" s="362"/>
-      <c r="J23" s="405"/>
-      <c r="K23" s="405"/>
-      <c r="L23" s="405" t="s">
+      <c r="C23" s="430"/>
+      <c r="D23" s="369"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="369"/>
+      <c r="G23" s="369"/>
+      <c r="H23" s="369"/>
+      <c r="I23" s="366"/>
+      <c r="J23" s="369"/>
+      <c r="K23" s="369"/>
+      <c r="L23" s="369" t="s">
         <v>461</v>
       </c>
-      <c r="M23" s="405"/>
-      <c r="N23" s="405"/>
+      <c r="M23" s="369"/>
+      <c r="N23" s="369"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="406"/>
-      <c r="D24" s="405"/>
-      <c r="E24" s="405"/>
-      <c r="F24" s="405"/>
-      <c r="G24" s="405"/>
-      <c r="H24" s="405"/>
-      <c r="I24" s="362"/>
-      <c r="J24" s="405"/>
-      <c r="K24" s="405"/>
+      <c r="C24" s="430"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="369"/>
+      <c r="K24" s="369"/>
       <c r="L24" s="117" t="s">
         <v>459</v>
       </c>
@@ -19529,13 +20108,13 @@
       <c r="C25" s="115">
         <v>43910</v>
       </c>
-      <c r="D25" s="405" t="s">
+      <c r="D25" s="369" t="s">
         <v>462</v>
       </c>
-      <c r="E25" s="405"/>
-      <c r="F25" s="405"/>
-      <c r="G25" s="405"/>
-      <c r="H25" s="405"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="369"/>
+      <c r="G25" s="369"/>
+      <c r="H25" s="369"/>
       <c r="I25" s="37" t="s">
         <v>463</v>
       </c>
@@ -19549,16 +20128,16 @@
       <c r="C26" s="115">
         <v>43911</v>
       </c>
-      <c r="D26" s="407"/>
-      <c r="E26" s="408"/>
-      <c r="F26" s="408"/>
-      <c r="G26" s="408"/>
-      <c r="H26" s="409"/>
-      <c r="I26" s="414" t="s">
+      <c r="D26" s="420"/>
+      <c r="E26" s="421"/>
+      <c r="F26" s="421"/>
+      <c r="G26" s="421"/>
+      <c r="H26" s="422"/>
+      <c r="I26" s="427" t="s">
         <v>459</v>
       </c>
-      <c r="J26" s="407"/>
-      <c r="K26" s="409"/>
+      <c r="J26" s="420"/>
+      <c r="K26" s="422"/>
       <c r="L26" s="116" t="s">
         <v>460</v>
       </c>
@@ -19567,30 +20146,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="37"/>
-      <c r="D27" s="410"/>
-      <c r="E27" s="400"/>
-      <c r="F27" s="400"/>
-      <c r="G27" s="400"/>
-      <c r="H27" s="411"/>
-      <c r="I27" s="415"/>
-      <c r="J27" s="410"/>
-      <c r="K27" s="411"/>
-      <c r="L27" s="405" t="s">
+      <c r="D27" s="423"/>
+      <c r="E27" s="419"/>
+      <c r="F27" s="419"/>
+      <c r="G27" s="419"/>
+      <c r="H27" s="424"/>
+      <c r="I27" s="428"/>
+      <c r="J27" s="423"/>
+      <c r="K27" s="424"/>
+      <c r="L27" s="369" t="s">
         <v>464</v>
       </c>
-      <c r="M27" s="405"/>
-      <c r="N27" s="405"/>
+      <c r="M27" s="369"/>
+      <c r="N27" s="369"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="37"/>
-      <c r="D28" s="410"/>
-      <c r="E28" s="400"/>
-      <c r="F28" s="400"/>
-      <c r="G28" s="400"/>
-      <c r="H28" s="411"/>
-      <c r="I28" s="415"/>
-      <c r="J28" s="410"/>
-      <c r="K28" s="411"/>
+      <c r="D28" s="423"/>
+      <c r="E28" s="419"/>
+      <c r="F28" s="419"/>
+      <c r="G28" s="419"/>
+      <c r="H28" s="424"/>
+      <c r="I28" s="428"/>
+      <c r="J28" s="423"/>
+      <c r="K28" s="424"/>
       <c r="L28" s="117" t="s">
         <v>459</v>
       </c>
@@ -19599,14 +20178,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="37"/>
-      <c r="D29" s="412"/>
-      <c r="E29" s="392"/>
-      <c r="F29" s="392"/>
-      <c r="G29" s="392"/>
-      <c r="H29" s="413"/>
-      <c r="I29" s="416"/>
-      <c r="J29" s="412"/>
-      <c r="K29" s="413"/>
+      <c r="D29" s="425"/>
+      <c r="E29" s="407"/>
+      <c r="F29" s="407"/>
+      <c r="G29" s="407"/>
+      <c r="H29" s="426"/>
+      <c r="I29" s="429"/>
+      <c r="J29" s="425"/>
+      <c r="K29" s="426"/>
       <c r="L29" s="118" t="s">
         <v>465</v>
       </c>
@@ -19654,13 +20233,13 @@
       <c r="C33" s="115">
         <v>43908</v>
       </c>
-      <c r="D33" s="405" t="s">
+      <c r="D33" s="369" t="s">
         <v>455</v>
       </c>
-      <c r="E33" s="405"/>
-      <c r="F33" s="405"/>
-      <c r="G33" s="405"/>
-      <c r="H33" s="405"/>
+      <c r="E33" s="369"/>
+      <c r="F33" s="369"/>
+      <c r="G33" s="369"/>
+      <c r="H33" s="369"/>
       <c r="I33" s="37" t="s">
         <v>456</v>
       </c>
@@ -19671,33 +20250,33 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="406">
+      <c r="C34" s="430">
         <v>43909</v>
       </c>
-      <c r="D34" s="405"/>
-      <c r="E34" s="405"/>
-      <c r="F34" s="405"/>
-      <c r="G34" s="405"/>
-      <c r="H34" s="405"/>
-      <c r="I34" s="417"/>
-      <c r="J34" s="405"/>
-      <c r="K34" s="405"/>
-      <c r="L34" s="405" t="s">
+      <c r="D34" s="369"/>
+      <c r="E34" s="369"/>
+      <c r="F34" s="369"/>
+      <c r="G34" s="369"/>
+      <c r="H34" s="369"/>
+      <c r="I34" s="431"/>
+      <c r="J34" s="369"/>
+      <c r="K34" s="369"/>
+      <c r="L34" s="369" t="s">
         <v>458</v>
       </c>
-      <c r="M34" s="405"/>
-      <c r="N34" s="405"/>
+      <c r="M34" s="369"/>
+      <c r="N34" s="369"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="406"/>
-      <c r="D35" s="405"/>
-      <c r="E35" s="405"/>
-      <c r="F35" s="405"/>
-      <c r="G35" s="405"/>
-      <c r="H35" s="405"/>
-      <c r="I35" s="418"/>
-      <c r="J35" s="405"/>
-      <c r="K35" s="405"/>
+      <c r="C35" s="430"/>
+      <c r="D35" s="369"/>
+      <c r="E35" s="369"/>
+      <c r="F35" s="369"/>
+      <c r="G35" s="369"/>
+      <c r="H35" s="369"/>
+      <c r="I35" s="432"/>
+      <c r="J35" s="369"/>
+      <c r="K35" s="369"/>
       <c r="L35" s="116" t="s">
         <v>460</v>
       </c>
@@ -19705,31 +20284,31 @@
       <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="406"/>
-      <c r="D36" s="405"/>
-      <c r="E36" s="405"/>
-      <c r="F36" s="405"/>
-      <c r="G36" s="405"/>
-      <c r="H36" s="405"/>
-      <c r="I36" s="418"/>
-      <c r="J36" s="405"/>
-      <c r="K36" s="405"/>
-      <c r="L36" s="405" t="s">
+      <c r="C36" s="430"/>
+      <c r="D36" s="369"/>
+      <c r="E36" s="369"/>
+      <c r="F36" s="369"/>
+      <c r="G36" s="369"/>
+      <c r="H36" s="369"/>
+      <c r="I36" s="432"/>
+      <c r="J36" s="369"/>
+      <c r="K36" s="369"/>
+      <c r="L36" s="369" t="s">
         <v>461</v>
       </c>
-      <c r="M36" s="405"/>
-      <c r="N36" s="405"/>
+      <c r="M36" s="369"/>
+      <c r="N36" s="369"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="406"/>
-      <c r="D37" s="405"/>
-      <c r="E37" s="405"/>
-      <c r="F37" s="405"/>
-      <c r="G37" s="405"/>
-      <c r="H37" s="405"/>
-      <c r="I37" s="419"/>
-      <c r="J37" s="405"/>
-      <c r="K37" s="405"/>
+      <c r="C37" s="430"/>
+      <c r="D37" s="369"/>
+      <c r="E37" s="369"/>
+      <c r="F37" s="369"/>
+      <c r="G37" s="369"/>
+      <c r="H37" s="369"/>
+      <c r="I37" s="433"/>
+      <c r="J37" s="369"/>
+      <c r="K37" s="369"/>
       <c r="L37" s="117" t="s">
         <v>466</v>
       </c>
@@ -19740,13 +20319,13 @@
       <c r="C38" s="115">
         <v>43910</v>
       </c>
-      <c r="D38" s="405" t="s">
+      <c r="D38" s="369" t="s">
         <v>462</v>
       </c>
-      <c r="E38" s="405"/>
-      <c r="F38" s="405"/>
-      <c r="G38" s="405"/>
-      <c r="H38" s="405"/>
+      <c r="E38" s="369"/>
+      <c r="F38" s="369"/>
+      <c r="G38" s="369"/>
+      <c r="H38" s="369"/>
       <c r="I38" s="37" t="s">
         <v>463</v>
       </c>
@@ -19760,14 +20339,14 @@
       <c r="C39" s="115">
         <v>43911</v>
       </c>
-      <c r="D39" s="407"/>
-      <c r="E39" s="408"/>
-      <c r="F39" s="408"/>
-      <c r="G39" s="408"/>
-      <c r="H39" s="409"/>
-      <c r="I39" s="414"/>
-      <c r="J39" s="407"/>
-      <c r="K39" s="409"/>
+      <c r="D39" s="420"/>
+      <c r="E39" s="421"/>
+      <c r="F39" s="421"/>
+      <c r="G39" s="421"/>
+      <c r="H39" s="422"/>
+      <c r="I39" s="427"/>
+      <c r="J39" s="420"/>
+      <c r="K39" s="422"/>
       <c r="L39" s="116" t="s">
         <v>460</v>
       </c>
@@ -19776,30 +20355,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="37"/>
-      <c r="D40" s="410"/>
-      <c r="E40" s="400"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="400"/>
-      <c r="H40" s="411"/>
-      <c r="I40" s="415"/>
-      <c r="J40" s="410"/>
-      <c r="K40" s="411"/>
-      <c r="L40" s="405" t="s">
+      <c r="D40" s="423"/>
+      <c r="E40" s="419"/>
+      <c r="F40" s="419"/>
+      <c r="G40" s="419"/>
+      <c r="H40" s="424"/>
+      <c r="I40" s="428"/>
+      <c r="J40" s="423"/>
+      <c r="K40" s="424"/>
+      <c r="L40" s="369" t="s">
         <v>464</v>
       </c>
-      <c r="M40" s="405"/>
-      <c r="N40" s="405"/>
+      <c r="M40" s="369"/>
+      <c r="N40" s="369"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="37"/>
-      <c r="D41" s="410"/>
-      <c r="E41" s="400"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="400"/>
-      <c r="H41" s="411"/>
-      <c r="I41" s="416"/>
-      <c r="J41" s="410"/>
-      <c r="K41" s="411"/>
+      <c r="D41" s="423"/>
+      <c r="E41" s="419"/>
+      <c r="F41" s="419"/>
+      <c r="G41" s="419"/>
+      <c r="H41" s="424"/>
+      <c r="I41" s="429"/>
+      <c r="J41" s="423"/>
+      <c r="K41" s="424"/>
       <c r="L41" s="117" t="s">
         <v>466</v>
       </c>
@@ -19808,16 +20387,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="37"/>
-      <c r="D42" s="412"/>
-      <c r="E42" s="392"/>
-      <c r="F42" s="392"/>
-      <c r="G42" s="392"/>
-      <c r="H42" s="413"/>
+      <c r="D42" s="425"/>
+      <c r="E42" s="407"/>
+      <c r="F42" s="407"/>
+      <c r="G42" s="407"/>
+      <c r="H42" s="426"/>
       <c r="I42" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="J42" s="412"/>
-      <c r="K42" s="413"/>
+      <c r="J42" s="425"/>
+      <c r="K42" s="426"/>
       <c r="L42" s="118" t="s">
         <v>465</v>
       </c>
@@ -20129,17 +20708,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -20147,12 +20721,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20174,29 +20753,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="430" t="s">
+      <c r="B2" s="454" t="s">
         <v>1091</v>
       </c>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
-      <c r="K2" s="430"/>
-      <c r="L2" s="430"/>
-      <c r="M2" s="430"/>
-      <c r="N2" s="430"/>
-      <c r="O2" s="430"/>
-      <c r="P2" s="430"/>
-      <c r="Q2" s="430"/>
-      <c r="R2" s="430"/>
-      <c r="S2" s="430"/>
-      <c r="T2" s="430"/>
-      <c r="U2" s="430"/>
-      <c r="V2" s="430"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="454"/>
+      <c r="I2" s="454"/>
+      <c r="J2" s="454"/>
+      <c r="K2" s="454"/>
+      <c r="L2" s="454"/>
+      <c r="M2" s="454"/>
+      <c r="N2" s="454"/>
+      <c r="O2" s="454"/>
+      <c r="P2" s="454"/>
+      <c r="Q2" s="454"/>
+      <c r="R2" s="454"/>
+      <c r="S2" s="454"/>
+      <c r="T2" s="454"/>
+      <c r="U2" s="454"/>
+      <c r="V2" s="454"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -20229,22 +20808,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="433" t="s">
+      <c r="G5" s="434" t="s">
         <v>517</v>
       </c>
-      <c r="H5" s="433"/>
-      <c r="I5" s="433" t="s">
+      <c r="H5" s="434"/>
+      <c r="I5" s="434" t="s">
         <v>518</v>
       </c>
-      <c r="J5" s="433"/>
-      <c r="K5" s="433"/>
-      <c r="L5" s="433"/>
-      <c r="M5" s="433"/>
-      <c r="N5" s="433"/>
-      <c r="O5" s="433" t="s">
+      <c r="J5" s="434"/>
+      <c r="K5" s="434"/>
+      <c r="L5" s="434"/>
+      <c r="M5" s="434"/>
+      <c r="N5" s="434"/>
+      <c r="O5" s="434" t="s">
         <v>519</v>
       </c>
-      <c r="P5" s="433"/>
+      <c r="P5" s="434"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -20256,7 +20835,7 @@
       <c r="D6" s="134"/>
       <c r="E6" s="135"/>
       <c r="F6" s="137"/>
-      <c r="G6" s="438" t="s">
+      <c r="G6" s="435" t="s">
         <v>520</v>
       </c>
       <c r="H6" s="110"/>
@@ -20285,26 +20864,26 @@
       </c>
       <c r="E7" s="137"/>
       <c r="F7" s="137"/>
-      <c r="G7" s="439"/>
-      <c r="H7" s="441" t="s">
+      <c r="G7" s="436"/>
+      <c r="H7" s="438" t="s">
         <v>522</v>
       </c>
-      <c r="I7" s="444" t="s">
+      <c r="I7" s="367" t="s">
         <v>523</v>
       </c>
-      <c r="J7" s="445"/>
-      <c r="K7" s="446" t="s">
+      <c r="J7" s="441"/>
+      <c r="K7" s="442" t="s">
         <v>524</v>
       </c>
-      <c r="L7" s="447"/>
-      <c r="M7" s="444" t="s">
+      <c r="L7" s="443"/>
+      <c r="M7" s="367" t="s">
         <v>525</v>
       </c>
-      <c r="N7" s="445"/>
-      <c r="O7" s="452" t="s">
+      <c r="N7" s="441"/>
+      <c r="O7" s="448" t="s">
         <v>526</v>
       </c>
-      <c r="P7" s="453"/>
+      <c r="P7" s="449"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -20316,16 +20895,16 @@
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
       <c r="F8" s="137"/>
-      <c r="G8" s="439"/>
-      <c r="H8" s="442"/>
-      <c r="I8" s="359"/>
-      <c r="J8" s="361"/>
-      <c r="K8" s="448"/>
-      <c r="L8" s="449"/>
-      <c r="M8" s="359"/>
-      <c r="N8" s="361"/>
-      <c r="O8" s="454"/>
-      <c r="P8" s="455"/>
+      <c r="G8" s="436"/>
+      <c r="H8" s="439"/>
+      <c r="I8" s="363"/>
+      <c r="J8" s="365"/>
+      <c r="K8" s="444"/>
+      <c r="L8" s="445"/>
+      <c r="M8" s="363"/>
+      <c r="N8" s="365"/>
+      <c r="O8" s="450"/>
+      <c r="P8" s="451"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="37" t="s">
         <v>181</v>
@@ -20343,16 +20922,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="439"/>
-      <c r="H9" s="442"/>
-      <c r="I9" s="359"/>
-      <c r="J9" s="361"/>
-      <c r="K9" s="448"/>
-      <c r="L9" s="449"/>
-      <c r="M9" s="359"/>
-      <c r="N9" s="361"/>
-      <c r="O9" s="454"/>
-      <c r="P9" s="455"/>
+      <c r="G9" s="436"/>
+      <c r="H9" s="439"/>
+      <c r="I9" s="363"/>
+      <c r="J9" s="365"/>
+      <c r="K9" s="444"/>
+      <c r="L9" s="445"/>
+      <c r="M9" s="363"/>
+      <c r="N9" s="365"/>
+      <c r="O9" s="450"/>
+      <c r="P9" s="451"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -20372,16 +20951,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="439"/>
-      <c r="H10" s="442"/>
-      <c r="I10" s="359"/>
-      <c r="J10" s="361"/>
-      <c r="K10" s="448"/>
-      <c r="L10" s="449"/>
-      <c r="M10" s="359"/>
-      <c r="N10" s="361"/>
-      <c r="O10" s="454"/>
-      <c r="P10" s="455"/>
+      <c r="G10" s="436"/>
+      <c r="H10" s="439"/>
+      <c r="I10" s="363"/>
+      <c r="J10" s="365"/>
+      <c r="K10" s="444"/>
+      <c r="L10" s="445"/>
+      <c r="M10" s="363"/>
+      <c r="N10" s="365"/>
+      <c r="O10" s="450"/>
+      <c r="P10" s="451"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -20397,16 +20976,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="439"/>
-      <c r="H11" s="442"/>
-      <c r="I11" s="359"/>
-      <c r="J11" s="361"/>
-      <c r="K11" s="448"/>
-      <c r="L11" s="449"/>
-      <c r="M11" s="359"/>
-      <c r="N11" s="361"/>
-      <c r="O11" s="454"/>
-      <c r="P11" s="455"/>
+      <c r="G11" s="436"/>
+      <c r="H11" s="439"/>
+      <c r="I11" s="363"/>
+      <c r="J11" s="365"/>
+      <c r="K11" s="444"/>
+      <c r="L11" s="445"/>
+      <c r="M11" s="363"/>
+      <c r="N11" s="365"/>
+      <c r="O11" s="450"/>
+      <c r="P11" s="451"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -20424,16 +21003,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="439"/>
-      <c r="H12" s="442"/>
-      <c r="I12" s="359"/>
-      <c r="J12" s="361"/>
-      <c r="K12" s="448"/>
-      <c r="L12" s="449"/>
-      <c r="M12" s="359"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="454"/>
-      <c r="P12" s="455"/>
+      <c r="G12" s="436"/>
+      <c r="H12" s="439"/>
+      <c r="I12" s="363"/>
+      <c r="J12" s="365"/>
+      <c r="K12" s="444"/>
+      <c r="L12" s="445"/>
+      <c r="M12" s="363"/>
+      <c r="N12" s="365"/>
+      <c r="O12" s="450"/>
+      <c r="P12" s="451"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -20447,16 +21026,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="439"/>
-      <c r="H13" s="442"/>
-      <c r="I13" s="359"/>
-      <c r="J13" s="361"/>
-      <c r="K13" s="448"/>
-      <c r="L13" s="449"/>
-      <c r="M13" s="359"/>
-      <c r="N13" s="361"/>
-      <c r="O13" s="454"/>
-      <c r="P13" s="455"/>
+      <c r="G13" s="436"/>
+      <c r="H13" s="439"/>
+      <c r="I13" s="363"/>
+      <c r="J13" s="365"/>
+      <c r="K13" s="444"/>
+      <c r="L13" s="445"/>
+      <c r="M13" s="363"/>
+      <c r="N13" s="365"/>
+      <c r="O13" s="450"/>
+      <c r="P13" s="451"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -20468,16 +21047,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="439"/>
-      <c r="H14" s="442"/>
-      <c r="I14" s="359"/>
-      <c r="J14" s="361"/>
-      <c r="K14" s="448"/>
-      <c r="L14" s="449"/>
-      <c r="M14" s="359"/>
-      <c r="N14" s="361"/>
-      <c r="O14" s="454"/>
-      <c r="P14" s="455"/>
+      <c r="G14" s="436"/>
+      <c r="H14" s="439"/>
+      <c r="I14" s="363"/>
+      <c r="J14" s="365"/>
+      <c r="K14" s="444"/>
+      <c r="L14" s="445"/>
+      <c r="M14" s="363"/>
+      <c r="N14" s="365"/>
+      <c r="O14" s="450"/>
+      <c r="P14" s="451"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -20491,16 +21070,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="439"/>
-      <c r="H15" s="442"/>
-      <c r="I15" s="359"/>
-      <c r="J15" s="361"/>
-      <c r="K15" s="448"/>
-      <c r="L15" s="449"/>
-      <c r="M15" s="359"/>
-      <c r="N15" s="361"/>
-      <c r="O15" s="454"/>
-      <c r="P15" s="455"/>
+      <c r="G15" s="436"/>
+      <c r="H15" s="439"/>
+      <c r="I15" s="363"/>
+      <c r="J15" s="365"/>
+      <c r="K15" s="444"/>
+      <c r="L15" s="445"/>
+      <c r="M15" s="363"/>
+      <c r="N15" s="365"/>
+      <c r="O15" s="450"/>
+      <c r="P15" s="451"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -20512,16 +21091,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="439"/>
-      <c r="H16" s="442"/>
-      <c r="I16" s="359"/>
-      <c r="J16" s="361"/>
-      <c r="K16" s="448"/>
-      <c r="L16" s="449"/>
-      <c r="M16" s="359"/>
-      <c r="N16" s="361"/>
-      <c r="O16" s="454"/>
-      <c r="P16" s="455"/>
+      <c r="G16" s="436"/>
+      <c r="H16" s="439"/>
+      <c r="I16" s="363"/>
+      <c r="J16" s="365"/>
+      <c r="K16" s="444"/>
+      <c r="L16" s="445"/>
+      <c r="M16" s="363"/>
+      <c r="N16" s="365"/>
+      <c r="O16" s="450"/>
+      <c r="P16" s="451"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -20533,16 +21112,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="439"/>
-      <c r="H17" s="442"/>
-      <c r="I17" s="359"/>
-      <c r="J17" s="361"/>
-      <c r="K17" s="448"/>
-      <c r="L17" s="449"/>
-      <c r="M17" s="359"/>
-      <c r="N17" s="361"/>
-      <c r="O17" s="454"/>
-      <c r="P17" s="455"/>
+      <c r="G17" s="436"/>
+      <c r="H17" s="439"/>
+      <c r="I17" s="363"/>
+      <c r="J17" s="365"/>
+      <c r="K17" s="444"/>
+      <c r="L17" s="445"/>
+      <c r="M17" s="363"/>
+      <c r="N17" s="365"/>
+      <c r="O17" s="450"/>
+      <c r="P17" s="451"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -20554,16 +21133,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="439"/>
-      <c r="H18" s="442"/>
-      <c r="I18" s="359"/>
-      <c r="J18" s="361"/>
-      <c r="K18" s="448"/>
-      <c r="L18" s="449"/>
-      <c r="M18" s="359"/>
-      <c r="N18" s="361"/>
-      <c r="O18" s="454"/>
-      <c r="P18" s="455"/>
+      <c r="G18" s="436"/>
+      <c r="H18" s="439"/>
+      <c r="I18" s="363"/>
+      <c r="J18" s="365"/>
+      <c r="K18" s="444"/>
+      <c r="L18" s="445"/>
+      <c r="M18" s="363"/>
+      <c r="N18" s="365"/>
+      <c r="O18" s="450"/>
+      <c r="P18" s="451"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -20577,16 +21156,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="439"/>
-      <c r="H19" s="442"/>
-      <c r="I19" s="359"/>
-      <c r="J19" s="361"/>
-      <c r="K19" s="448"/>
-      <c r="L19" s="449"/>
-      <c r="M19" s="359"/>
-      <c r="N19" s="361"/>
-      <c r="O19" s="454"/>
-      <c r="P19" s="455"/>
+      <c r="G19" s="436"/>
+      <c r="H19" s="439"/>
+      <c r="I19" s="363"/>
+      <c r="J19" s="365"/>
+      <c r="K19" s="444"/>
+      <c r="L19" s="445"/>
+      <c r="M19" s="363"/>
+      <c r="N19" s="365"/>
+      <c r="O19" s="450"/>
+      <c r="P19" s="451"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -20598,16 +21177,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="440"/>
-      <c r="H20" s="443"/>
-      <c r="I20" s="371"/>
-      <c r="J20" s="373"/>
-      <c r="K20" s="450"/>
-      <c r="L20" s="451"/>
-      <c r="M20" s="371"/>
-      <c r="N20" s="373"/>
-      <c r="O20" s="456"/>
-      <c r="P20" s="457"/>
+      <c r="G20" s="437"/>
+      <c r="H20" s="440"/>
+      <c r="I20" s="368"/>
+      <c r="J20" s="388"/>
+      <c r="K20" s="446"/>
+      <c r="L20" s="447"/>
+      <c r="M20" s="368"/>
+      <c r="N20" s="388"/>
+      <c r="O20" s="452"/>
+      <c r="P20" s="453"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -20637,27 +21216,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="374" t="s">
+      <c r="D22" s="389" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="375"/>
+      <c r="E22" s="390"/>
       <c r="F22" s="269"/>
       <c r="G22" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="374" t="s">
+      <c r="H22" s="389" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="376"/>
-      <c r="J22" s="376"/>
-      <c r="K22" s="376"/>
-      <c r="L22" s="376"/>
-      <c r="M22" s="376"/>
-      <c r="N22" s="375"/>
-      <c r="O22" s="374" t="s">
+      <c r="I22" s="391"/>
+      <c r="J22" s="391"/>
+      <c r="K22" s="391"/>
+      <c r="L22" s="391"/>
+      <c r="M22" s="391"/>
+      <c r="N22" s="390"/>
+      <c r="O22" s="389" t="s">
         <v>527</v>
       </c>
-      <c r="P22" s="375"/>
+      <c r="P22" s="390"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -20688,59 +21267,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="430" t="s">
+      <c r="B25" s="454" t="s">
         <v>1090</v>
       </c>
-      <c r="C25" s="430"/>
-      <c r="D25" s="430"/>
-      <c r="E25" s="430"/>
-      <c r="F25" s="430"/>
-      <c r="G25" s="430"/>
-      <c r="H25" s="430"/>
-      <c r="I25" s="430"/>
-      <c r="J25" s="430"/>
-      <c r="K25" s="430"/>
-      <c r="L25" s="430"/>
-      <c r="M25" s="430"/>
-      <c r="N25" s="430"/>
-      <c r="O25" s="430"/>
-      <c r="P25" s="430"/>
-      <c r="Q25" s="430"/>
-      <c r="R25" s="430"/>
-      <c r="S25" s="430"/>
-      <c r="T25" s="430"/>
-      <c r="U25" s="430"/>
-      <c r="V25" s="430"/>
+      <c r="C25" s="454"/>
+      <c r="D25" s="454"/>
+      <c r="E25" s="454"/>
+      <c r="F25" s="454"/>
+      <c r="G25" s="454"/>
+      <c r="H25" s="454"/>
+      <c r="I25" s="454"/>
+      <c r="J25" s="454"/>
+      <c r="K25" s="454"/>
+      <c r="L25" s="454"/>
+      <c r="M25" s="454"/>
+      <c r="N25" s="454"/>
+      <c r="O25" s="454"/>
+      <c r="P25" s="454"/>
+      <c r="Q25" s="454"/>
+      <c r="R25" s="454"/>
+      <c r="S25" s="454"/>
+      <c r="T25" s="454"/>
+      <c r="U25" s="454"/>
+      <c r="V25" s="454"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="431" t="s">
+      <c r="C26" s="455" t="s">
         <v>569</v>
       </c>
-      <c r="D26" s="431"/>
-      <c r="E26" s="431"/>
-      <c r="F26" s="431"/>
-      <c r="G26" s="431"/>
-      <c r="H26" s="431"/>
-      <c r="I26" s="431"/>
-      <c r="J26" s="431"/>
-      <c r="K26" s="431"/>
-      <c r="L26" s="431"/>
-      <c r="M26" s="431"/>
+      <c r="D26" s="455"/>
+      <c r="E26" s="455"/>
+      <c r="F26" s="455"/>
+      <c r="G26" s="455"/>
+      <c r="H26" s="455"/>
+      <c r="I26" s="455"/>
+      <c r="J26" s="455"/>
+      <c r="K26" s="455"/>
+      <c r="L26" s="455"/>
+      <c r="M26" s="455"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="401" t="s">
+      <c r="E27" s="409" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="353"/>
-      <c r="G27" s="353"/>
-      <c r="H27" s="364"/>
-      <c r="I27" s="364"/>
-      <c r="J27" s="364"/>
-      <c r="K27" s="364"/>
-      <c r="L27" s="364"/>
-      <c r="M27" s="365"/>
+      <c r="F27" s="357"/>
+      <c r="G27" s="357"/>
+      <c r="H27" s="380"/>
+      <c r="I27" s="380"/>
+      <c r="J27" s="380"/>
+      <c r="K27" s="380"/>
+      <c r="L27" s="380"/>
+      <c r="M27" s="381"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -20773,11 +21352,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="432" t="s">
+      <c r="O29" s="456" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="432"/>
-      <c r="Q29" s="432"/>
+      <c r="P29" s="456"/>
+      <c r="Q29" s="456"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -20822,21 +21401,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="427" t="s">
+      <c r="E32" s="460" t="s">
         <v>1094</v>
       </c>
-      <c r="F32" s="428"/>
-      <c r="G32" s="429"/>
-      <c r="H32" s="427" t="s">
+      <c r="F32" s="461"/>
+      <c r="G32" s="462"/>
+      <c r="H32" s="460" t="s">
         <v>1095</v>
       </c>
-      <c r="I32" s="428"/>
-      <c r="J32" s="429"/>
-      <c r="K32" s="427" t="s">
+      <c r="I32" s="461"/>
+      <c r="J32" s="462"/>
+      <c r="K32" s="460" t="s">
         <v>1096</v>
       </c>
-      <c r="L32" s="428"/>
-      <c r="M32" s="429"/>
+      <c r="L32" s="461"/>
+      <c r="M32" s="462"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -20853,15 +21432,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="427"/>
-      <c r="F33" s="428"/>
-      <c r="G33" s="429"/>
-      <c r="H33" s="427"/>
-      <c r="I33" s="428"/>
-      <c r="J33" s="429"/>
-      <c r="K33" s="427"/>
-      <c r="L33" s="428"/>
-      <c r="M33" s="429"/>
+      <c r="E33" s="460"/>
+      <c r="F33" s="461"/>
+      <c r="G33" s="462"/>
+      <c r="H33" s="460"/>
+      <c r="I33" s="461"/>
+      <c r="J33" s="462"/>
+      <c r="K33" s="460"/>
+      <c r="L33" s="461"/>
+      <c r="M33" s="462"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -20878,15 +21457,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="427"/>
-      <c r="F34" s="428"/>
-      <c r="G34" s="429"/>
-      <c r="H34" s="427"/>
-      <c r="I34" s="428"/>
-      <c r="J34" s="429"/>
-      <c r="K34" s="427"/>
-      <c r="L34" s="428"/>
-      <c r="M34" s="429"/>
+      <c r="E34" s="460"/>
+      <c r="F34" s="461"/>
+      <c r="G34" s="462"/>
+      <c r="H34" s="460"/>
+      <c r="I34" s="461"/>
+      <c r="J34" s="462"/>
+      <c r="K34" s="460"/>
+      <c r="L34" s="461"/>
+      <c r="M34" s="462"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -20897,15 +21476,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="427"/>
-      <c r="F35" s="428"/>
-      <c r="G35" s="429"/>
-      <c r="H35" s="427"/>
-      <c r="I35" s="428"/>
-      <c r="J35" s="429"/>
-      <c r="K35" s="427"/>
-      <c r="L35" s="428"/>
-      <c r="M35" s="429"/>
+      <c r="E35" s="460"/>
+      <c r="F35" s="461"/>
+      <c r="G35" s="462"/>
+      <c r="H35" s="460"/>
+      <c r="I35" s="461"/>
+      <c r="J35" s="462"/>
+      <c r="K35" s="460"/>
+      <c r="L35" s="461"/>
+      <c r="M35" s="462"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -21036,15 +21615,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="420"/>
-      <c r="F42" s="421"/>
-      <c r="G42" s="421"/>
-      <c r="H42" s="421"/>
-      <c r="I42" s="421"/>
-      <c r="J42" s="421"/>
-      <c r="K42" s="421"/>
-      <c r="L42" s="421"/>
-      <c r="M42" s="422"/>
+      <c r="E42" s="464"/>
+      <c r="F42" s="465"/>
+      <c r="G42" s="465"/>
+      <c r="H42" s="465"/>
+      <c r="I42" s="465"/>
+      <c r="J42" s="465"/>
+      <c r="K42" s="465"/>
+      <c r="L42" s="465"/>
+      <c r="M42" s="466"/>
       <c r="N42" s="39" t="s">
         <v>574</v>
       </c>
@@ -21063,83 +21642,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="374" t="s">
+      <c r="C44" s="389" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="375"/>
-      <c r="E44" s="374" t="s">
+      <c r="D44" s="390"/>
+      <c r="E44" s="389" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="376"/>
-      <c r="G44" s="375"/>
-      <c r="H44" s="374" t="s">
+      <c r="F44" s="391"/>
+      <c r="G44" s="390"/>
+      <c r="H44" s="389" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="376"/>
-      <c r="J44" s="376"/>
-      <c r="K44" s="376"/>
-      <c r="L44" s="376"/>
-      <c r="M44" s="375"/>
+      <c r="I44" s="391"/>
+      <c r="J44" s="391"/>
+      <c r="K44" s="391"/>
+      <c r="L44" s="391"/>
+      <c r="M44" s="390"/>
       <c r="Q44" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="430" t="s">
+      <c r="B47" s="454" t="s">
         <v>1092</v>
       </c>
-      <c r="C47" s="430"/>
-      <c r="D47" s="430"/>
-      <c r="E47" s="430"/>
-      <c r="F47" s="430"/>
-      <c r="G47" s="430"/>
-      <c r="H47" s="430"/>
-      <c r="I47" s="430"/>
-      <c r="J47" s="430"/>
-      <c r="K47" s="430"/>
-      <c r="L47" s="430"/>
-      <c r="M47" s="430"/>
-      <c r="N47" s="430"/>
-      <c r="O47" s="430"/>
-      <c r="P47" s="430"/>
-      <c r="Q47" s="430"/>
-      <c r="R47" s="430"/>
-      <c r="S47" s="430"/>
-      <c r="T47" s="430"/>
-      <c r="U47" s="430"/>
-      <c r="V47" s="430"/>
+      <c r="C47" s="454"/>
+      <c r="D47" s="454"/>
+      <c r="E47" s="454"/>
+      <c r="F47" s="454"/>
+      <c r="G47" s="454"/>
+      <c r="H47" s="454"/>
+      <c r="I47" s="454"/>
+      <c r="J47" s="454"/>
+      <c r="K47" s="454"/>
+      <c r="L47" s="454"/>
+      <c r="M47" s="454"/>
+      <c r="N47" s="454"/>
+      <c r="O47" s="454"/>
+      <c r="P47" s="454"/>
+      <c r="Q47" s="454"/>
+      <c r="R47" s="454"/>
+      <c r="S47" s="454"/>
+      <c r="T47" s="454"/>
+      <c r="U47" s="454"/>
+      <c r="V47" s="454"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="431" t="s">
+      <c r="C48" s="455" t="s">
         <v>569</v>
       </c>
-      <c r="D48" s="431"/>
-      <c r="E48" s="431"/>
-      <c r="F48" s="431"/>
-      <c r="G48" s="431"/>
-      <c r="H48" s="431"/>
-      <c r="I48" s="431"/>
-      <c r="J48" s="431"/>
-      <c r="K48" s="431"/>
-      <c r="L48" s="431"/>
-      <c r="M48" s="431"/>
+      <c r="D48" s="455"/>
+      <c r="E48" s="455"/>
+      <c r="F48" s="455"/>
+      <c r="G48" s="455"/>
+      <c r="H48" s="455"/>
+      <c r="I48" s="455"/>
+      <c r="J48" s="455"/>
+      <c r="K48" s="455"/>
+      <c r="L48" s="455"/>
+      <c r="M48" s="455"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="401" t="s">
+      <c r="E49" s="409" t="s">
         <v>177</v>
       </c>
-      <c r="F49" s="353"/>
-      <c r="G49" s="353"/>
-      <c r="H49" s="364"/>
-      <c r="I49" s="364"/>
-      <c r="J49" s="364"/>
-      <c r="K49" s="364"/>
-      <c r="L49" s="364"/>
-      <c r="M49" s="365"/>
+      <c r="F49" s="357"/>
+      <c r="G49" s="357"/>
+      <c r="H49" s="380"/>
+      <c r="I49" s="380"/>
+      <c r="J49" s="380"/>
+      <c r="K49" s="380"/>
+      <c r="L49" s="380"/>
+      <c r="M49" s="381"/>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="17"/>
@@ -21157,16 +21736,16 @@
       </c>
       <c r="F50" s="121"/>
       <c r="G50" s="249"/>
-      <c r="H50" s="434" t="s">
+      <c r="H50" s="457" t="s">
         <v>1095</v>
       </c>
-      <c r="I50" s="435"/>
-      <c r="J50" s="436"/>
-      <c r="K50" s="434" t="s">
+      <c r="I50" s="458"/>
+      <c r="J50" s="459"/>
+      <c r="K50" s="457" t="s">
         <v>1096</v>
       </c>
-      <c r="L50" s="435"/>
-      <c r="M50" s="436"/>
+      <c r="L50" s="458"/>
+      <c r="M50" s="459"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="W50" t="s">
@@ -21180,20 +21759,20 @@
         <v>1110</v>
       </c>
       <c r="F51" s="290"/>
-      <c r="G51" s="437" t="s">
+      <c r="G51" s="463" t="s">
         <v>1118</v>
       </c>
-      <c r="H51" s="427"/>
-      <c r="I51" s="428"/>
-      <c r="J51" s="429"/>
-      <c r="K51" s="427"/>
-      <c r="L51" s="428"/>
-      <c r="M51" s="429"/>
-      <c r="O51" s="432" t="s">
+      <c r="H51" s="460"/>
+      <c r="I51" s="461"/>
+      <c r="J51" s="462"/>
+      <c r="K51" s="460"/>
+      <c r="L51" s="461"/>
+      <c r="M51" s="462"/>
+      <c r="O51" s="456" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="432"/>
-      <c r="Q51" s="432"/>
+      <c r="P51" s="456"/>
+      <c r="Q51" s="456"/>
       <c r="S51" s="277"/>
       <c r="T51" s="277"/>
       <c r="W51" s="39" t="s">
@@ -21207,13 +21786,13 @@
         <v>1111</v>
       </c>
       <c r="F52" s="291"/>
-      <c r="G52" s="437"/>
-      <c r="H52" s="427"/>
-      <c r="I52" s="428"/>
-      <c r="J52" s="429"/>
-      <c r="K52" s="427"/>
-      <c r="L52" s="428"/>
-      <c r="M52" s="429"/>
+      <c r="G52" s="463"/>
+      <c r="H52" s="460"/>
+      <c r="I52" s="461"/>
+      <c r="J52" s="462"/>
+      <c r="K52" s="460"/>
+      <c r="L52" s="461"/>
+      <c r="M52" s="462"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
     </row>
@@ -21224,13 +21803,13 @@
         <v>1112</v>
       </c>
       <c r="F53" s="292"/>
-      <c r="G53" s="437"/>
-      <c r="H53" s="427"/>
-      <c r="I53" s="428"/>
-      <c r="J53" s="429"/>
-      <c r="K53" s="427"/>
-      <c r="L53" s="428"/>
-      <c r="M53" s="429"/>
+      <c r="G53" s="463"/>
+      <c r="H53" s="460"/>
+      <c r="I53" s="461"/>
+      <c r="J53" s="462"/>
+      <c r="K53" s="460"/>
+      <c r="L53" s="461"/>
+      <c r="M53" s="462"/>
       <c r="N53" s="5"/>
       <c r="O53" s="37" t="s">
         <v>181</v>
@@ -21269,7 +21848,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="278"/>
       <c r="F54" s="293"/>
-      <c r="G54" s="425" t="s">
+      <c r="G54" s="469" t="s">
         <v>1122</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -21316,11 +21895,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="423" t="s">
+      <c r="E55" s="467" t="s">
         <v>1123</v>
       </c>
-      <c r="F55" s="424"/>
-      <c r="G55" s="426"/>
+      <c r="F55" s="468"/>
+      <c r="G55" s="470"/>
       <c r="H55" s="140" t="s">
         <v>1114</v>
       </c>
@@ -21364,9 +21943,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="423"/>
-      <c r="F56" s="424"/>
-      <c r="G56" s="426"/>
+      <c r="E56" s="467"/>
+      <c r="F56" s="468"/>
+      <c r="G56" s="470"/>
       <c r="H56" s="140" t="s">
         <v>1115</v>
       </c>
@@ -21396,9 +21975,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="423"/>
-      <c r="F57" s="424"/>
-      <c r="G57" s="426"/>
+      <c r="E57" s="467"/>
+      <c r="F57" s="468"/>
+      <c r="G57" s="470"/>
       <c r="H57" s="4" t="s">
         <v>1127</v>
       </c>
@@ -21428,9 +22007,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="423"/>
-      <c r="F58" s="424"/>
-      <c r="G58" s="426"/>
+      <c r="E58" s="467"/>
+      <c r="F58" s="468"/>
+      <c r="G58" s="470"/>
       <c r="H58" s="282" t="s">
         <v>1113</v>
       </c>
@@ -21455,9 +22034,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="423"/>
-      <c r="F59" s="424"/>
-      <c r="G59" s="426"/>
+      <c r="E59" s="467"/>
+      <c r="F59" s="468"/>
+      <c r="G59" s="470"/>
       <c r="H59" s="282" t="s">
         <v>548</v>
       </c>
@@ -21482,9 +22061,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="423"/>
-      <c r="F60" s="424"/>
-      <c r="G60" s="426"/>
+      <c r="E60" s="467"/>
+      <c r="F60" s="468"/>
+      <c r="G60" s="470"/>
       <c r="H60" s="284"/>
       <c r="I60" s="285" t="s">
         <v>1129</v>
@@ -21504,9 +22083,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="423"/>
-      <c r="F61" s="424"/>
-      <c r="G61" s="426"/>
+      <c r="E61" s="467"/>
+      <c r="F61" s="468"/>
+      <c r="G61" s="470"/>
       <c r="H61" s="284"/>
       <c r="I61" s="285" t="s">
         <v>1130</v>
@@ -21526,7 +22105,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="273"/>
       <c r="F62" s="289"/>
-      <c r="G62" s="426"/>
+      <c r="G62" s="470"/>
       <c r="H62" s="286"/>
       <c r="I62" s="288" t="s">
         <v>1131</v>
@@ -21568,15 +22147,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="420"/>
-      <c r="F64" s="421"/>
-      <c r="G64" s="421"/>
-      <c r="H64" s="421"/>
-      <c r="I64" s="421"/>
-      <c r="J64" s="421"/>
-      <c r="K64" s="421"/>
-      <c r="L64" s="421"/>
-      <c r="M64" s="422"/>
+      <c r="E64" s="464"/>
+      <c r="F64" s="465"/>
+      <c r="G64" s="465"/>
+      <c r="H64" s="465"/>
+      <c r="I64" s="465"/>
+      <c r="J64" s="465"/>
+      <c r="K64" s="465"/>
+      <c r="L64" s="465"/>
+      <c r="M64" s="466"/>
       <c r="N64" s="39" t="s">
         <v>574</v>
       </c>
@@ -21605,23 +22184,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="374" t="s">
+      <c r="C66" s="389" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="375"/>
-      <c r="E66" s="374" t="s">
+      <c r="D66" s="390"/>
+      <c r="E66" s="389" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="376"/>
-      <c r="G66" s="375"/>
-      <c r="H66" s="374" t="s">
+      <c r="F66" s="391"/>
+      <c r="G66" s="390"/>
+      <c r="H66" s="389" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="376"/>
-      <c r="J66" s="376"/>
-      <c r="K66" s="376"/>
-      <c r="L66" s="376"/>
-      <c r="M66" s="375"/>
+      <c r="I66" s="391"/>
+      <c r="J66" s="391"/>
+      <c r="K66" s="391"/>
+      <c r="L66" s="391"/>
+      <c r="M66" s="390"/>
       <c r="Q66" t="s">
         <v>1093</v>
       </c>
@@ -21642,23 +22221,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="405" t="s">
+      <c r="C68" s="369" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="405"/>
-      <c r="E68" s="405" t="s">
+      <c r="D68" s="369"/>
+      <c r="E68" s="369" t="s">
         <v>1379</v>
       </c>
-      <c r="F68" s="405"/>
-      <c r="G68" s="405"/>
-      <c r="H68" s="405" t="s">
+      <c r="F68" s="369"/>
+      <c r="G68" s="369"/>
+      <c r="H68" s="369" t="s">
         <v>1395</v>
       </c>
-      <c r="I68" s="405"/>
-      <c r="J68" s="405"/>
-      <c r="K68" s="405"/>
-      <c r="L68" s="405"/>
-      <c r="M68" s="405"/>
+      <c r="I68" s="369"/>
+      <c r="J68" s="369"/>
+      <c r="K68" s="369"/>
+      <c r="L68" s="369"/>
+      <c r="M68" s="369"/>
       <c r="S68" s="23"/>
       <c r="T68" s="23"/>
       <c r="U68" s="2" t="s">
@@ -22455,6 +23034,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -22471,30 +23074,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -22528,12 +23107,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="458" t="s">
+      <c r="B1" s="471" t="s">
         <v>537</v>
       </c>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
+      <c r="C1" s="471"/>
+      <c r="D1" s="471"/>
+      <c r="E1" s="471"/>
       <c r="I1" s="39" t="s">
         <v>550</v>
       </c>
@@ -22650,12 +23229,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="400" t="s">
+      <c r="B8" s="419" t="s">
         <v>1417</v>
       </c>
-      <c r="C8" s="400"/>
-      <c r="D8" s="400"/>
-      <c r="E8" s="400"/>
+      <c r="C8" s="419"/>
+      <c r="D8" s="419"/>
+      <c r="E8" s="419"/>
       <c r="J8" s="31" t="s">
         <v>553</v>
       </c>
@@ -22828,32 +23407,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="431" t="s">
+      <c r="C2" s="455" t="s">
         <v>569</v>
       </c>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="431"/>
-      <c r="I2" s="431"/>
-      <c r="J2" s="431"/>
-      <c r="K2" s="431"/>
-      <c r="L2" s="431"/>
+      <c r="D2" s="455"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="455"/>
+      <c r="G2" s="455"/>
+      <c r="H2" s="455"/>
+      <c r="I2" s="455"/>
+      <c r="J2" s="455"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="455"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="401" t="s">
+      <c r="E3" s="409" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="353"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="364"/>
-      <c r="I3" s="364"/>
-      <c r="J3" s="364"/>
-      <c r="K3" s="364"/>
-      <c r="L3" s="365"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="380"/>
+      <c r="I3" s="380"/>
+      <c r="J3" s="380"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="381"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -22884,11 +23463,11 @@
         <v>588</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="432" t="s">
+      <c r="N5" s="456" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="432"/>
-      <c r="P5" s="432"/>
+      <c r="O5" s="456"/>
+      <c r="P5" s="456"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -22939,20 +23518,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="427" t="s">
+      <c r="E8" s="460" t="s">
         <v>570</v>
       </c>
-      <c r="F8" s="429"/>
-      <c r="G8" s="427" t="s">
+      <c r="F8" s="462"/>
+      <c r="G8" s="460" t="s">
         <v>571</v>
       </c>
-      <c r="H8" s="428"/>
-      <c r="I8" s="429"/>
-      <c r="J8" s="427" t="s">
+      <c r="H8" s="461"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="460" t="s">
         <v>572</v>
       </c>
-      <c r="K8" s="428"/>
-      <c r="L8" s="429"/>
+      <c r="K8" s="461"/>
+      <c r="L8" s="462"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -22975,14 +23554,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="427"/>
-      <c r="F9" s="429"/>
-      <c r="G9" s="427"/>
-      <c r="H9" s="428"/>
-      <c r="I9" s="429"/>
-      <c r="J9" s="427"/>
-      <c r="K9" s="428"/>
-      <c r="L9" s="429"/>
+      <c r="E9" s="460"/>
+      <c r="F9" s="462"/>
+      <c r="G9" s="460"/>
+      <c r="H9" s="461"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="460"/>
+      <c r="K9" s="461"/>
+      <c r="L9" s="462"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -23002,14 +23581,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="427"/>
-      <c r="F10" s="429"/>
-      <c r="G10" s="427"/>
-      <c r="H10" s="428"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="427"/>
-      <c r="K10" s="428"/>
-      <c r="L10" s="429"/>
+      <c r="E10" s="460"/>
+      <c r="F10" s="462"/>
+      <c r="G10" s="460"/>
+      <c r="H10" s="461"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="460"/>
+      <c r="K10" s="461"/>
+      <c r="L10" s="462"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -23023,14 +23602,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="427"/>
-      <c r="F11" s="429"/>
-      <c r="G11" s="427"/>
-      <c r="H11" s="428"/>
-      <c r="I11" s="429"/>
-      <c r="J11" s="427"/>
-      <c r="K11" s="428"/>
-      <c r="L11" s="429"/>
+      <c r="E11" s="460"/>
+      <c r="F11" s="462"/>
+      <c r="G11" s="460"/>
+      <c r="H11" s="461"/>
+      <c r="I11" s="462"/>
+      <c r="J11" s="460"/>
+      <c r="K11" s="461"/>
+      <c r="L11" s="462"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -23133,16 +23712,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="420" t="s">
+      <c r="E17" s="464" t="s">
         <v>573</v>
       </c>
-      <c r="F17" s="421"/>
-      <c r="G17" s="421"/>
-      <c r="H17" s="421"/>
-      <c r="I17" s="421"/>
-      <c r="J17" s="421"/>
-      <c r="K17" s="421"/>
-      <c r="L17" s="422"/>
+      <c r="F17" s="465"/>
+      <c r="G17" s="465"/>
+      <c r="H17" s="465"/>
+      <c r="I17" s="465"/>
+      <c r="J17" s="465"/>
+      <c r="K17" s="465"/>
+      <c r="L17" s="466"/>
       <c r="M17" s="39" t="s">
         <v>574</v>
       </c>
@@ -23160,40 +23739,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="374" t="s">
+      <c r="C19" s="389" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="375"/>
-      <c r="E19" s="374" t="s">
+      <c r="D19" s="390"/>
+      <c r="E19" s="389" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="375"/>
-      <c r="G19" s="374" t="s">
+      <c r="F19" s="390"/>
+      <c r="G19" s="389" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="376"/>
-      <c r="I19" s="376"/>
-      <c r="J19" s="376"/>
-      <c r="K19" s="376"/>
-      <c r="L19" s="375"/>
+      <c r="H19" s="391"/>
+      <c r="I19" s="391"/>
+      <c r="J19" s="391"/>
+      <c r="K19" s="391"/>
+      <c r="L19" s="390"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="459" t="s">
+      <c r="E21" s="472" t="s">
         <v>1408</v>
       </c>
-      <c r="F21" s="460"/>
+      <c r="F21" s="473"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="461"/>
-      <c r="F22" s="462"/>
+      <c r="E22" s="474"/>
+      <c r="F22" s="475"/>
       <c r="J22" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="461"/>
-      <c r="F23" s="462"/>
+      <c r="E23" s="474"/>
+      <c r="F23" s="475"/>
       <c r="H23" t="s">
         <v>1429</v>
       </c>
@@ -23205,8 +23784,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="463"/>
-      <c r="F24" s="464"/>
+      <c r="E24" s="476"/>
+      <c r="F24" s="477"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23661,22 +24240,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="433" t="s">
+      <c r="E3" s="434" t="s">
         <v>517</v>
       </c>
-      <c r="F3" s="433"/>
-      <c r="G3" s="433" t="s">
+      <c r="F3" s="434"/>
+      <c r="G3" s="434" t="s">
         <v>518</v>
       </c>
-      <c r="H3" s="433"/>
-      <c r="I3" s="433"/>
-      <c r="J3" s="433"/>
-      <c r="K3" s="433"/>
-      <c r="L3" s="433"/>
-      <c r="M3" s="433" t="s">
+      <c r="H3" s="434"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="434"/>
+      <c r="K3" s="434"/>
+      <c r="L3" s="434"/>
+      <c r="M3" s="434" t="s">
         <v>519</v>
       </c>
-      <c r="N3" s="433"/>
+      <c r="N3" s="434"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -23687,7 +24266,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="134"/>
       <c r="D4" s="135"/>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="435" t="s">
         <v>520</v>
       </c>
       <c r="F4" s="130"/>
@@ -23715,22 +24294,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="137"/>
-      <c r="E5" s="439"/>
-      <c r="F5" s="379" t="s">
+      <c r="E5" s="436"/>
+      <c r="F5" s="394" t="s">
         <v>616</v>
       </c>
-      <c r="G5" s="380"/>
-      <c r="H5" s="381"/>
-      <c r="I5" s="465" t="s">
+      <c r="G5" s="395"/>
+      <c r="H5" s="396"/>
+      <c r="I5" s="507" t="s">
         <v>617</v>
       </c>
-      <c r="J5" s="466"/>
-      <c r="K5" s="466"/>
-      <c r="L5" s="447"/>
-      <c r="M5" s="465" t="s">
+      <c r="J5" s="508"/>
+      <c r="K5" s="508"/>
+      <c r="L5" s="443"/>
+      <c r="M5" s="507" t="s">
         <v>618</v>
       </c>
-      <c r="N5" s="447"/>
+      <c r="N5" s="443"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -23741,16 +24320,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="138"/>
       <c r="D6" s="139"/>
-      <c r="E6" s="439"/>
-      <c r="F6" s="382"/>
-      <c r="G6" s="383"/>
-      <c r="H6" s="384"/>
-      <c r="I6" s="448"/>
-      <c r="J6" s="467"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="449"/>
-      <c r="M6" s="448"/>
-      <c r="N6" s="449"/>
+      <c r="E6" s="436"/>
+      <c r="F6" s="397"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="399"/>
+      <c r="I6" s="444"/>
+      <c r="J6" s="509"/>
+      <c r="K6" s="509"/>
+      <c r="L6" s="445"/>
+      <c r="M6" s="444"/>
+      <c r="N6" s="445"/>
       <c r="O6" s="5"/>
       <c r="P6" s="37" t="s">
         <v>181</v>
@@ -23767,16 +24346,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="439"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="383"/>
-      <c r="H7" s="384"/>
-      <c r="I7" s="448"/>
-      <c r="J7" s="467"/>
-      <c r="K7" s="467"/>
-      <c r="L7" s="449"/>
-      <c r="M7" s="448"/>
-      <c r="N7" s="449"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="397"/>
+      <c r="G7" s="398"/>
+      <c r="H7" s="399"/>
+      <c r="I7" s="444"/>
+      <c r="J7" s="509"/>
+      <c r="K7" s="509"/>
+      <c r="L7" s="445"/>
+      <c r="M7" s="444"/>
+      <c r="N7" s="445"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -23795,16 +24374,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="439"/>
-      <c r="F8" s="382"/>
-      <c r="G8" s="383"/>
-      <c r="H8" s="384"/>
-      <c r="I8" s="448"/>
-      <c r="J8" s="467"/>
-      <c r="K8" s="467"/>
-      <c r="L8" s="449"/>
-      <c r="M8" s="448"/>
-      <c r="N8" s="449"/>
+      <c r="E8" s="436"/>
+      <c r="F8" s="397"/>
+      <c r="G8" s="398"/>
+      <c r="H8" s="399"/>
+      <c r="I8" s="444"/>
+      <c r="J8" s="509"/>
+      <c r="K8" s="509"/>
+      <c r="L8" s="445"/>
+      <c r="M8" s="444"/>
+      <c r="N8" s="445"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -23825,16 +24404,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="439"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="383"/>
-      <c r="H9" s="384"/>
-      <c r="I9" s="448"/>
-      <c r="J9" s="467"/>
-      <c r="K9" s="467"/>
-      <c r="L9" s="449"/>
-      <c r="M9" s="448"/>
-      <c r="N9" s="449"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="397"/>
+      <c r="G9" s="398"/>
+      <c r="H9" s="399"/>
+      <c r="I9" s="444"/>
+      <c r="J9" s="509"/>
+      <c r="K9" s="509"/>
+      <c r="L9" s="445"/>
+      <c r="M9" s="444"/>
+      <c r="N9" s="445"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -23851,16 +24430,16 @@
         <v>536</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="439"/>
-      <c r="F10" s="382"/>
-      <c r="G10" s="383"/>
-      <c r="H10" s="384"/>
-      <c r="I10" s="448"/>
-      <c r="J10" s="467"/>
-      <c r="K10" s="467"/>
-      <c r="L10" s="449"/>
-      <c r="M10" s="448"/>
-      <c r="N10" s="449"/>
+      <c r="E10" s="436"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="398"/>
+      <c r="H10" s="399"/>
+      <c r="I10" s="444"/>
+      <c r="J10" s="509"/>
+      <c r="K10" s="509"/>
+      <c r="L10" s="445"/>
+      <c r="M10" s="444"/>
+      <c r="N10" s="445"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -23873,16 +24452,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="439"/>
-      <c r="F11" s="382"/>
-      <c r="G11" s="383"/>
-      <c r="H11" s="384"/>
-      <c r="I11" s="448"/>
-      <c r="J11" s="467"/>
-      <c r="K11" s="467"/>
-      <c r="L11" s="449"/>
-      <c r="M11" s="448"/>
-      <c r="N11" s="449"/>
+      <c r="E11" s="436"/>
+      <c r="F11" s="397"/>
+      <c r="G11" s="398"/>
+      <c r="H11" s="399"/>
+      <c r="I11" s="444"/>
+      <c r="J11" s="509"/>
+      <c r="K11" s="509"/>
+      <c r="L11" s="445"/>
+      <c r="M11" s="444"/>
+      <c r="N11" s="445"/>
       <c r="O11" s="5"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -23893,16 +24472,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="439"/>
-      <c r="F12" s="382"/>
-      <c r="G12" s="383"/>
-      <c r="H12" s="384"/>
-      <c r="I12" s="448"/>
-      <c r="J12" s="467"/>
-      <c r="K12" s="467"/>
-      <c r="L12" s="449"/>
-      <c r="M12" s="448"/>
-      <c r="N12" s="449"/>
+      <c r="E12" s="436"/>
+      <c r="F12" s="397"/>
+      <c r="G12" s="398"/>
+      <c r="H12" s="399"/>
+      <c r="I12" s="444"/>
+      <c r="J12" s="509"/>
+      <c r="K12" s="509"/>
+      <c r="L12" s="445"/>
+      <c r="M12" s="444"/>
+      <c r="N12" s="445"/>
       <c r="O12" s="5"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -23915,16 +24494,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="439"/>
-      <c r="F13" s="382"/>
-      <c r="G13" s="383"/>
-      <c r="H13" s="384"/>
-      <c r="I13" s="448"/>
-      <c r="J13" s="467"/>
-      <c r="K13" s="467"/>
-      <c r="L13" s="449"/>
-      <c r="M13" s="448"/>
-      <c r="N13" s="449"/>
+      <c r="E13" s="436"/>
+      <c r="F13" s="397"/>
+      <c r="G13" s="398"/>
+      <c r="H13" s="399"/>
+      <c r="I13" s="444"/>
+      <c r="J13" s="509"/>
+      <c r="K13" s="509"/>
+      <c r="L13" s="445"/>
+      <c r="M13" s="444"/>
+      <c r="N13" s="445"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -23935,16 +24514,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="439"/>
-      <c r="F14" s="382"/>
-      <c r="G14" s="383"/>
-      <c r="H14" s="384"/>
-      <c r="I14" s="448"/>
-      <c r="J14" s="467"/>
-      <c r="K14" s="467"/>
-      <c r="L14" s="449"/>
-      <c r="M14" s="448"/>
-      <c r="N14" s="449"/>
+      <c r="E14" s="436"/>
+      <c r="F14" s="397"/>
+      <c r="G14" s="398"/>
+      <c r="H14" s="399"/>
+      <c r="I14" s="444"/>
+      <c r="J14" s="509"/>
+      <c r="K14" s="509"/>
+      <c r="L14" s="445"/>
+      <c r="M14" s="444"/>
+      <c r="N14" s="445"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -23955,16 +24534,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="439"/>
-      <c r="F15" s="382"/>
-      <c r="G15" s="383"/>
-      <c r="H15" s="384"/>
-      <c r="I15" s="448"/>
-      <c r="J15" s="467"/>
-      <c r="K15" s="467"/>
-      <c r="L15" s="449"/>
-      <c r="M15" s="448"/>
-      <c r="N15" s="449"/>
+      <c r="E15" s="436"/>
+      <c r="F15" s="397"/>
+      <c r="G15" s="398"/>
+      <c r="H15" s="399"/>
+      <c r="I15" s="444"/>
+      <c r="J15" s="509"/>
+      <c r="K15" s="509"/>
+      <c r="L15" s="445"/>
+      <c r="M15" s="444"/>
+      <c r="N15" s="445"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -23975,16 +24554,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="439"/>
-      <c r="F16" s="382"/>
-      <c r="G16" s="383"/>
-      <c r="H16" s="384"/>
-      <c r="I16" s="448"/>
-      <c r="J16" s="467"/>
-      <c r="K16" s="467"/>
-      <c r="L16" s="449"/>
-      <c r="M16" s="448"/>
-      <c r="N16" s="449"/>
+      <c r="E16" s="436"/>
+      <c r="F16" s="397"/>
+      <c r="G16" s="398"/>
+      <c r="H16" s="399"/>
+      <c r="I16" s="444"/>
+      <c r="J16" s="509"/>
+      <c r="K16" s="509"/>
+      <c r="L16" s="445"/>
+      <c r="M16" s="444"/>
+      <c r="N16" s="445"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -23997,16 +24576,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="439"/>
-      <c r="F17" s="382"/>
-      <c r="G17" s="383"/>
-      <c r="H17" s="384"/>
-      <c r="I17" s="448"/>
-      <c r="J17" s="467"/>
-      <c r="K17" s="467"/>
-      <c r="L17" s="449"/>
-      <c r="M17" s="448"/>
-      <c r="N17" s="449"/>
+      <c r="E17" s="436"/>
+      <c r="F17" s="397"/>
+      <c r="G17" s="398"/>
+      <c r="H17" s="399"/>
+      <c r="I17" s="444"/>
+      <c r="J17" s="509"/>
+      <c r="K17" s="509"/>
+      <c r="L17" s="445"/>
+      <c r="M17" s="444"/>
+      <c r="N17" s="445"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -24017,16 +24596,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="440"/>
-      <c r="F18" s="385"/>
-      <c r="G18" s="386"/>
-      <c r="H18" s="387"/>
-      <c r="I18" s="450"/>
-      <c r="J18" s="468"/>
-      <c r="K18" s="468"/>
-      <c r="L18" s="451"/>
-      <c r="M18" s="450"/>
-      <c r="N18" s="451"/>
+      <c r="E18" s="437"/>
+      <c r="F18" s="400"/>
+      <c r="G18" s="401"/>
+      <c r="H18" s="402"/>
+      <c r="I18" s="446"/>
+      <c r="J18" s="510"/>
+      <c r="K18" s="510"/>
+      <c r="L18" s="447"/>
+      <c r="M18" s="446"/>
+      <c r="N18" s="447"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -24055,26 +24634,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="374" t="s">
+      <c r="C20" s="389" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="375"/>
+      <c r="D20" s="390"/>
       <c r="E20" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="374" t="s">
+      <c r="F20" s="389" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="376"/>
-      <c r="H20" s="376"/>
-      <c r="I20" s="376"/>
-      <c r="J20" s="376"/>
-      <c r="K20" s="376"/>
-      <c r="L20" s="375"/>
-      <c r="M20" s="374" t="s">
+      <c r="G20" s="391"/>
+      <c r="H20" s="391"/>
+      <c r="I20" s="391"/>
+      <c r="J20" s="391"/>
+      <c r="K20" s="391"/>
+      <c r="L20" s="390"/>
+      <c r="M20" s="389" t="s">
         <v>527</v>
       </c>
-      <c r="N20" s="375"/>
+      <c r="N20" s="390"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -24102,39 +24681,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="432" t="s">
+      <c r="B24" s="456" t="s">
         <v>569</v>
       </c>
-      <c r="C24" s="432"/>
-      <c r="D24" s="431"/>
-      <c r="E24" s="431"/>
-      <c r="F24" s="431"/>
-      <c r="G24" s="431"/>
-      <c r="H24" s="431"/>
-      <c r="I24" s="431"/>
-      <c r="J24" s="431"/>
-      <c r="K24" s="431"/>
-      <c r="M24" s="486" t="s">
+      <c r="C24" s="456"/>
+      <c r="D24" s="455"/>
+      <c r="E24" s="455"/>
+      <c r="F24" s="455"/>
+      <c r="G24" s="455"/>
+      <c r="H24" s="455"/>
+      <c r="I24" s="455"/>
+      <c r="J24" s="455"/>
+      <c r="K24" s="455"/>
+      <c r="M24" s="478" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="486"/>
-      <c r="O24" s="486"/>
+      <c r="N24" s="478"/>
+      <c r="O24" s="478"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="487" t="s">
+      <c r="B25" s="479" t="s">
         <v>929</v>
       </c>
-      <c r="C25" s="409"/>
-      <c r="D25" s="364" t="s">
+      <c r="C25" s="422"/>
+      <c r="D25" s="380" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="364"/>
-      <c r="F25" s="364"/>
-      <c r="G25" s="364"/>
-      <c r="H25" s="364"/>
-      <c r="I25" s="364"/>
-      <c r="J25" s="364"/>
-      <c r="K25" s="365"/>
+      <c r="E25" s="380"/>
+      <c r="F25" s="380"/>
+      <c r="G25" s="380"/>
+      <c r="H25" s="380"/>
+      <c r="I25" s="380"/>
+      <c r="J25" s="380"/>
+      <c r="K25" s="381"/>
       <c r="M25" s="37" t="s">
         <v>181</v>
       </c>
@@ -24146,22 +24725,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="410"/>
-      <c r="C26" s="411"/>
-      <c r="D26" s="408" t="s">
+      <c r="B26" s="423"/>
+      <c r="C26" s="424"/>
+      <c r="D26" s="421" t="s">
         <v>922</v>
       </c>
-      <c r="E26" s="409"/>
-      <c r="F26" s="481" t="s">
+      <c r="E26" s="422"/>
+      <c r="F26" s="505" t="s">
         <v>922</v>
       </c>
-      <c r="G26" s="364"/>
-      <c r="H26" s="365"/>
-      <c r="I26" s="363" t="s">
+      <c r="G26" s="380"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="379" t="s">
         <v>926</v>
       </c>
-      <c r="J26" s="364"/>
-      <c r="K26" s="365"/>
+      <c r="J26" s="380"/>
+      <c r="K26" s="381"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -24176,22 +24755,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="410"/>
-      <c r="C27" s="411"/>
-      <c r="D27" s="400" t="s">
+      <c r="B27" s="423"/>
+      <c r="C27" s="424"/>
+      <c r="D27" s="419" t="s">
         <v>927</v>
       </c>
-      <c r="E27" s="411"/>
-      <c r="F27" s="410" t="s">
+      <c r="E27" s="424"/>
+      <c r="F27" s="423" t="s">
         <v>923</v>
       </c>
-      <c r="G27" s="400"/>
-      <c r="H27" s="358"/>
-      <c r="I27" s="485" t="s">
+      <c r="G27" s="419"/>
+      <c r="H27" s="362"/>
+      <c r="I27" s="489" t="s">
         <v>927</v>
       </c>
-      <c r="J27" s="400"/>
-      <c r="K27" s="358"/>
+      <c r="J27" s="419"/>
+      <c r="K27" s="362"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -24206,22 +24785,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="410"/>
-      <c r="C28" s="411"/>
-      <c r="D28" s="400" t="s">
+      <c r="B28" s="423"/>
+      <c r="C28" s="424"/>
+      <c r="D28" s="419" t="s">
         <v>924</v>
       </c>
-      <c r="E28" s="411"/>
-      <c r="F28" s="410" t="s">
+      <c r="E28" s="424"/>
+      <c r="F28" s="423" t="s">
         <v>924</v>
       </c>
-      <c r="G28" s="400"/>
-      <c r="H28" s="358"/>
-      <c r="I28" s="485" t="s">
+      <c r="G28" s="419"/>
+      <c r="H28" s="362"/>
+      <c r="I28" s="489" t="s">
         <v>924</v>
       </c>
-      <c r="J28" s="400"/>
-      <c r="K28" s="358"/>
+      <c r="J28" s="419"/>
+      <c r="K28" s="362"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -24230,22 +24809,22 @@
       <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="412"/>
-      <c r="C29" s="413"/>
-      <c r="D29" s="400" t="s">
+      <c r="B29" s="425"/>
+      <c r="C29" s="426"/>
+      <c r="D29" s="419" t="s">
         <v>925</v>
       </c>
-      <c r="E29" s="411"/>
-      <c r="F29" s="482" t="s">
+      <c r="E29" s="424"/>
+      <c r="F29" s="506" t="s">
         <v>925</v>
       </c>
-      <c r="G29" s="483"/>
-      <c r="H29" s="484"/>
-      <c r="I29" s="497" t="s">
+      <c r="G29" s="491"/>
+      <c r="H29" s="492"/>
+      <c r="I29" s="490" t="s">
         <v>925</v>
       </c>
-      <c r="J29" s="483"/>
-      <c r="K29" s="484"/>
+      <c r="J29" s="491"/>
+      <c r="K29" s="492"/>
       <c r="L29" s="23" t="s">
         <v>2</v>
       </c>
@@ -24254,149 +24833,149 @@
       <c r="O29" s="37"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="366" t="s">
+      <c r="B30" s="382" t="s">
         <v>928</v>
       </c>
-      <c r="C30" s="368"/>
-      <c r="D30" s="469" t="s">
+      <c r="C30" s="384"/>
+      <c r="D30" s="493" t="s">
         <v>570</v>
       </c>
-      <c r="E30" s="470"/>
-      <c r="F30" s="474" t="s">
+      <c r="E30" s="494"/>
+      <c r="F30" s="498" t="s">
         <v>571</v>
       </c>
-      <c r="G30" s="475"/>
-      <c r="H30" s="470"/>
-      <c r="I30" s="474" t="s">
+      <c r="G30" s="499"/>
+      <c r="H30" s="494"/>
+      <c r="I30" s="498" t="s">
         <v>572</v>
       </c>
-      <c r="J30" s="475"/>
-      <c r="K30" s="478"/>
+      <c r="J30" s="499"/>
+      <c r="K30" s="502"/>
       <c r="L30" s="5"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="359"/>
-      <c r="C31" s="370"/>
-      <c r="D31" s="471"/>
-      <c r="E31" s="429"/>
-      <c r="F31" s="427"/>
-      <c r="G31" s="428"/>
-      <c r="H31" s="429"/>
-      <c r="I31" s="427"/>
-      <c r="J31" s="428"/>
-      <c r="K31" s="479"/>
+      <c r="B31" s="363"/>
+      <c r="C31" s="386"/>
+      <c r="D31" s="495"/>
+      <c r="E31" s="462"/>
+      <c r="F31" s="460"/>
+      <c r="G31" s="461"/>
+      <c r="H31" s="462"/>
+      <c r="I31" s="460"/>
+      <c r="J31" s="461"/>
+      <c r="K31" s="503"/>
       <c r="L31" s="5"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="359"/>
-      <c r="C32" s="370"/>
-      <c r="D32" s="471"/>
-      <c r="E32" s="429"/>
-      <c r="F32" s="427"/>
-      <c r="G32" s="428"/>
-      <c r="H32" s="429"/>
-      <c r="I32" s="427"/>
-      <c r="J32" s="428"/>
-      <c r="K32" s="479"/>
+      <c r="B32" s="363"/>
+      <c r="C32" s="386"/>
+      <c r="D32" s="495"/>
+      <c r="E32" s="462"/>
+      <c r="F32" s="460"/>
+      <c r="G32" s="461"/>
+      <c r="H32" s="462"/>
+      <c r="I32" s="460"/>
+      <c r="J32" s="461"/>
+      <c r="K32" s="503"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="359"/>
-      <c r="C33" s="370"/>
-      <c r="D33" s="472"/>
-      <c r="E33" s="473"/>
-      <c r="F33" s="476"/>
-      <c r="G33" s="477"/>
-      <c r="H33" s="473"/>
-      <c r="I33" s="476"/>
-      <c r="J33" s="477"/>
-      <c r="K33" s="480"/>
+      <c r="B33" s="363"/>
+      <c r="C33" s="386"/>
+      <c r="D33" s="496"/>
+      <c r="E33" s="497"/>
+      <c r="F33" s="500"/>
+      <c r="G33" s="501"/>
+      <c r="H33" s="497"/>
+      <c r="I33" s="500"/>
+      <c r="J33" s="501"/>
+      <c r="K33" s="504"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="359"/>
-      <c r="C34" s="361"/>
-      <c r="D34" s="488" t="s">
+      <c r="B34" s="363"/>
+      <c r="C34" s="365"/>
+      <c r="D34" s="480" t="s">
         <v>915</v>
       </c>
-      <c r="E34" s="489"/>
-      <c r="F34" s="488" t="s">
+      <c r="E34" s="481"/>
+      <c r="F34" s="480" t="s">
         <v>592</v>
       </c>
-      <c r="G34" s="494"/>
-      <c r="H34" s="489"/>
-      <c r="I34" s="488" t="s">
+      <c r="G34" s="486"/>
+      <c r="H34" s="481"/>
+      <c r="I34" s="480" t="s">
         <v>930</v>
       </c>
-      <c r="J34" s="494"/>
-      <c r="K34" s="489"/>
+      <c r="J34" s="486"/>
+      <c r="K34" s="481"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="359"/>
-      <c r="C35" s="361"/>
-      <c r="D35" s="490"/>
-      <c r="E35" s="491"/>
-      <c r="F35" s="490"/>
-      <c r="G35" s="495"/>
-      <c r="H35" s="491"/>
-      <c r="I35" s="490"/>
-      <c r="J35" s="495"/>
-      <c r="K35" s="491"/>
+      <c r="B35" s="363"/>
+      <c r="C35" s="365"/>
+      <c r="D35" s="482"/>
+      <c r="E35" s="483"/>
+      <c r="F35" s="482"/>
+      <c r="G35" s="487"/>
+      <c r="H35" s="483"/>
+      <c r="I35" s="482"/>
+      <c r="J35" s="487"/>
+      <c r="K35" s="483"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="359"/>
-      <c r="C36" s="361"/>
-      <c r="D36" s="490"/>
-      <c r="E36" s="491"/>
-      <c r="F36" s="490"/>
-      <c r="G36" s="495"/>
-      <c r="H36" s="491"/>
-      <c r="I36" s="490"/>
-      <c r="J36" s="495"/>
-      <c r="K36" s="491"/>
+      <c r="B36" s="363"/>
+      <c r="C36" s="365"/>
+      <c r="D36" s="482"/>
+      <c r="E36" s="483"/>
+      <c r="F36" s="482"/>
+      <c r="G36" s="487"/>
+      <c r="H36" s="483"/>
+      <c r="I36" s="482"/>
+      <c r="J36" s="487"/>
+      <c r="K36" s="483"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="359"/>
-      <c r="C37" s="361"/>
-      <c r="D37" s="490"/>
-      <c r="E37" s="491"/>
-      <c r="F37" s="490"/>
-      <c r="G37" s="495"/>
-      <c r="H37" s="491"/>
-      <c r="I37" s="490"/>
-      <c r="J37" s="495"/>
-      <c r="K37" s="491"/>
+      <c r="B37" s="363"/>
+      <c r="C37" s="365"/>
+      <c r="D37" s="482"/>
+      <c r="E37" s="483"/>
+      <c r="F37" s="482"/>
+      <c r="G37" s="487"/>
+      <c r="H37" s="483"/>
+      <c r="I37" s="482"/>
+      <c r="J37" s="487"/>
+      <c r="K37" s="483"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="359"/>
-      <c r="C38" s="361"/>
-      <c r="D38" s="492"/>
-      <c r="E38" s="493"/>
-      <c r="F38" s="492"/>
-      <c r="G38" s="496"/>
-      <c r="H38" s="493"/>
-      <c r="I38" s="492"/>
-      <c r="J38" s="496"/>
-      <c r="K38" s="493"/>
+      <c r="B38" s="363"/>
+      <c r="C38" s="365"/>
+      <c r="D38" s="484"/>
+      <c r="E38" s="485"/>
+      <c r="F38" s="484"/>
+      <c r="G38" s="488"/>
+      <c r="H38" s="485"/>
+      <c r="I38" s="484"/>
+      <c r="J38" s="488"/>
+      <c r="K38" s="485"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="371"/>
-      <c r="C39" s="373"/>
-      <c r="D39" s="420" t="s">
+      <c r="B39" s="368"/>
+      <c r="C39" s="388"/>
+      <c r="D39" s="464" t="s">
         <v>573</v>
       </c>
-      <c r="E39" s="421"/>
-      <c r="F39" s="421"/>
-      <c r="G39" s="421"/>
-      <c r="H39" s="421"/>
-      <c r="I39" s="421"/>
-      <c r="J39" s="421"/>
-      <c r="K39" s="422"/>
+      <c r="E39" s="465"/>
+      <c r="F39" s="465"/>
+      <c r="G39" s="465"/>
+      <c r="H39" s="465"/>
+      <c r="I39" s="465"/>
+      <c r="J39" s="465"/>
+      <c r="K39" s="466"/>
       <c r="L39" s="39" t="s">
         <v>574</v>
       </c>
@@ -24414,36 +24993,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="374" t="s">
+      <c r="B41" s="389" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="375"/>
-      <c r="D41" s="374" t="s">
+      <c r="C41" s="390"/>
+      <c r="D41" s="389" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="375"/>
-      <c r="F41" s="374" t="s">
+      <c r="E41" s="390"/>
+      <c r="F41" s="389" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="376"/>
-      <c r="H41" s="376"/>
-      <c r="I41" s="376"/>
-      <c r="J41" s="376"/>
-      <c r="K41" s="375"/>
+      <c r="G41" s="391"/>
+      <c r="H41" s="391"/>
+      <c r="I41" s="391"/>
+      <c r="J41" s="391"/>
+      <c r="K41" s="390"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -24460,16 +25038,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -25012,13 +25591,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="352" t="s">
+      <c r="A5" s="356" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="353"/>
-      <c r="C5" s="353"/>
-      <c r="D5" s="353"/>
-      <c r="E5" s="354"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="358"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>149</v>
@@ -25816,7 +26395,7 @@
       <c r="K4" s="230"/>
       <c r="L4" s="230"/>
       <c r="M4" s="239"/>
-      <c r="N4" s="359" t="s">
+      <c r="N4" s="363" t="s">
         <v>1151</v>
       </c>
     </row>
@@ -25834,7 +26413,7 @@
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="359"/>
+      <c r="N5" s="363"/>
     </row>
     <row r="6" spans="3:16">
       <c r="C6" s="339">
@@ -25850,7 +26429,7 @@
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="359"/>
+      <c r="N6" s="363"/>
     </row>
     <row r="7" spans="3:16">
       <c r="C7" s="339">
@@ -25866,7 +26445,7 @@
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="359"/>
+      <c r="N7" s="363"/>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" s="339">
@@ -25882,7 +26461,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="359"/>
+      <c r="N8" s="363"/>
     </row>
     <row r="9" spans="3:16">
       <c r="C9" s="339">
@@ -25898,7 +26477,7 @@
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="359"/>
+      <c r="N9" s="363"/>
     </row>
     <row r="10" spans="3:16">
       <c r="C10" s="339">
@@ -25914,7 +26493,7 @@
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="359"/>
+      <c r="N10" s="363"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
       <c r="C11" s="339">
@@ -25930,7 +26509,7 @@
       <c r="K11" s="232"/>
       <c r="L11" s="232"/>
       <c r="M11" s="240"/>
-      <c r="N11" s="359"/>
+      <c r="N11" s="363"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1">
       <c r="C12" s="339">
@@ -26284,7 +26863,7 @@
       </c>
     </row>
     <row r="153" spans="3:14">
-      <c r="C153" s="362" t="s">
+      <c r="C153" s="366" t="s">
         <v>166</v>
       </c>
       <c r="D153">
@@ -26310,7 +26889,7 @@
       </c>
     </row>
     <row r="154" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C154" s="362"/>
+      <c r="C154" s="366"/>
       <c r="D154">
         <v>20</v>
       </c>
@@ -26338,7 +26917,7 @@
       <c r="N154" s="63"/>
     </row>
     <row r="155" spans="3:14">
-      <c r="C155" s="362" t="s">
+      <c r="C155" s="366" t="s">
         <v>167</v>
       </c>
       <c r="D155">
@@ -26356,7 +26935,7 @@
       <c r="N155" s="172"/>
     </row>
     <row r="156" spans="3:14">
-      <c r="C156" s="362"/>
+      <c r="C156" s="366"/>
       <c r="D156">
         <v>40</v>
       </c>
@@ -26372,7 +26951,7 @@
       <c r="N156" s="172"/>
     </row>
     <row r="157" spans="3:14">
-      <c r="C157" s="362"/>
+      <c r="C157" s="366"/>
       <c r="D157">
         <v>50</v>
       </c>
@@ -26388,7 +26967,7 @@
       <c r="N157" s="172"/>
     </row>
     <row r="158" spans="3:14">
-      <c r="C158" s="362"/>
+      <c r="C158" s="366"/>
       <c r="D158">
         <v>60</v>
       </c>
@@ -26406,7 +26985,7 @@
       <c r="N158" s="172"/>
     </row>
     <row r="159" spans="3:14">
-      <c r="C159" s="362"/>
+      <c r="C159" s="366"/>
       <c r="D159">
         <v>70</v>
       </c>
@@ -26422,7 +27001,7 @@
       <c r="N159" s="172"/>
     </row>
     <row r="160" spans="3:14">
-      <c r="C160" s="362"/>
+      <c r="C160" s="366"/>
       <c r="D160">
         <v>80</v>
       </c>
@@ -26438,7 +27017,7 @@
       <c r="N160" s="172"/>
     </row>
     <row r="161" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C161" s="362"/>
+      <c r="C161" s="366"/>
       <c r="D161">
         <v>90</v>
       </c>
@@ -26526,7 +27105,7 @@
       </c>
     </row>
     <row r="166" spans="3:14">
-      <c r="D166" s="360">
+      <c r="D166" s="364">
         <v>1</v>
       </c>
       <c r="E166" s="173"/>
@@ -26541,7 +27120,7 @@
       <c r="N166" s="178"/>
     </row>
     <row r="167" spans="3:14">
-      <c r="D167" s="361"/>
+      <c r="D167" s="365"/>
       <c r="E167" s="174"/>
       <c r="F167" s="170"/>
       <c r="G167" s="171"/>
@@ -26554,7 +27133,7 @@
       <c r="N167" s="172"/>
     </row>
     <row r="168" spans="3:14">
-      <c r="D168" s="361"/>
+      <c r="D168" s="365"/>
       <c r="E168" s="174"/>
       <c r="F168" s="170"/>
       <c r="G168" s="171"/>
@@ -26567,7 +27146,7 @@
       <c r="N168" s="172"/>
     </row>
     <row r="169" spans="3:14">
-      <c r="D169" s="361"/>
+      <c r="D169" s="365"/>
       <c r="E169" s="174" t="s">
         <v>678</v>
       </c>
@@ -26584,7 +27163,7 @@
       <c r="N169" s="172"/>
     </row>
     <row r="170" spans="3:14">
-      <c r="D170" s="361"/>
+      <c r="D170" s="365"/>
       <c r="E170" s="174"/>
       <c r="F170" s="170"/>
       <c r="G170" s="171"/>
@@ -26597,7 +27176,7 @@
       <c r="N170" s="172"/>
     </row>
     <row r="171" spans="3:14">
-      <c r="D171" s="361"/>
+      <c r="D171" s="365"/>
       <c r="E171" s="174"/>
       <c r="F171" s="170"/>
       <c r="G171" s="171"/>
@@ -26610,7 +27189,7 @@
       <c r="N171" s="172"/>
     </row>
     <row r="172" spans="3:14" ht="15.75" thickBot="1">
-      <c r="D172" s="361"/>
+      <c r="D172" s="365"/>
       <c r="E172" s="175"/>
       <c r="F172" s="179"/>
       <c r="G172" s="180"/>
@@ -26733,7 +27312,7 @@
       <c r="K201" s="177"/>
       <c r="L201" s="177"/>
       <c r="M201" s="177"/>
-      <c r="N201" s="356" t="s">
+      <c r="N201" s="360" t="s">
         <v>932</v>
       </c>
     </row>
@@ -26751,7 +27330,7 @@
       <c r="K202" s="180"/>
       <c r="L202" s="180"/>
       <c r="M202" s="180"/>
-      <c r="N202" s="356"/>
+      <c r="N202" s="360"/>
     </row>
     <row r="203" spans="3:14">
       <c r="C203">
@@ -26767,7 +27346,7 @@
       <c r="K203" s="233"/>
       <c r="L203" s="233"/>
       <c r="M203" s="297"/>
-      <c r="N203" s="355" t="s">
+      <c r="N203" s="359" t="s">
         <v>935</v>
       </c>
     </row>
@@ -26785,7 +27364,7 @@
       <c r="K204" s="234"/>
       <c r="L204" s="234"/>
       <c r="M204" s="299"/>
-      <c r="N204" s="355"/>
+      <c r="N204" s="359"/>
     </row>
     <row r="205" spans="3:14">
       <c r="C205">
@@ -26801,7 +27380,7 @@
       <c r="K205" s="234"/>
       <c r="L205" s="234"/>
       <c r="M205" s="299"/>
-      <c r="N205" s="355"/>
+      <c r="N205" s="359"/>
     </row>
     <row r="206" spans="3:14" ht="15.75" thickBot="1">
       <c r="C206">
@@ -26821,7 +27400,7 @@
       <c r="K206" s="235"/>
       <c r="L206" s="235"/>
       <c r="M206" s="301"/>
-      <c r="N206" s="355"/>
+      <c r="N206" s="359"/>
     </row>
     <row r="207" spans="3:14">
       <c r="C207">
@@ -26837,7 +27416,7 @@
       <c r="K207" s="234"/>
       <c r="L207" s="234"/>
       <c r="M207" s="234"/>
-      <c r="N207" s="356"/>
+      <c r="N207" s="360"/>
     </row>
     <row r="208" spans="3:14">
       <c r="C208">
@@ -26853,7 +27432,7 @@
       <c r="K208" s="234"/>
       <c r="L208" s="234"/>
       <c r="M208" s="234"/>
-      <c r="N208" s="356"/>
+      <c r="N208" s="360"/>
     </row>
     <row r="209" spans="3:14" ht="15.75" thickBot="1">
       <c r="C209">
@@ -26869,7 +27448,7 @@
       <c r="K209" s="235"/>
       <c r="L209" s="235"/>
       <c r="M209" s="235"/>
-      <c r="N209" s="356"/>
+      <c r="N209" s="360"/>
     </row>
     <row r="210" spans="3:14" ht="15.75" thickBot="1">
       <c r="C210">
@@ -26956,7 +27535,7 @@
       </c>
     </row>
     <row r="218" spans="3:14">
-      <c r="C218" s="357">
+      <c r="C218" s="361">
         <v>1</v>
       </c>
       <c r="D218" s="229"/>
@@ -26971,7 +27550,7 @@
       <c r="M218" s="239"/>
     </row>
     <row r="219" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C219" s="358"/>
+      <c r="C219" s="362"/>
       <c r="D219" s="231"/>
       <c r="E219" s="232"/>
       <c r="F219" s="232"/>
@@ -27173,16 +27752,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U218"/>
+  <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M194" sqref="M194"/>
+    <sheetView topLeftCell="A219" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M224" sqref="M224:M227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1"/>
@@ -27229,14 +27808,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="363" t="s">
+      <c r="K4" s="379" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="364"/>
-      <c r="M4" s="364"/>
-      <c r="N4" s="364"/>
-      <c r="O4" s="364"/>
-      <c r="P4" s="365"/>
+      <c r="L4" s="380"/>
+      <c r="M4" s="380"/>
+      <c r="N4" s="380"/>
+      <c r="O4" s="380"/>
+      <c r="P4" s="381"/>
       <c r="Q4" s="114" t="s">
         <v>280</v>
       </c>
@@ -27365,10 +27944,10 @@
       <c r="L8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="377" t="s">
+      <c r="M8" s="392" t="s">
         <v>209</v>
       </c>
-      <c r="N8" s="378"/>
+      <c r="N8" s="393"/>
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
@@ -27410,8 +27989,8 @@
       <c r="L9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="378"/>
-      <c r="N9" s="378"/>
+      <c r="M9" s="393"/>
+      <c r="N9" s="393"/>
       <c r="O9" s="5" t="s">
         <v>186</v>
       </c>
@@ -27447,8 +28026,8 @@
       <c r="L10" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="M10" s="378"/>
-      <c r="N10" s="378"/>
+      <c r="M10" s="393"/>
+      <c r="N10" s="393"/>
       <c r="O10" s="5"/>
       <c r="P10" s="250" t="s">
         <v>398</v>
@@ -27465,13 +28044,13 @@
       <c r="T10" s="37"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="366" t="s">
+      <c r="A11" s="382" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="367"/>
-      <c r="C11" s="368"/>
-      <c r="D11" s="368"/>
-      <c r="E11" s="369"/>
+      <c r="B11" s="383"/>
+      <c r="C11" s="384"/>
+      <c r="D11" s="384"/>
+      <c r="E11" s="385"/>
       <c r="F11" t="s">
         <v>1579</v>
       </c>
@@ -27480,8 +28059,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="378"/>
-      <c r="N11" s="378"/>
+      <c r="M11" s="393"/>
+      <c r="N11" s="393"/>
       <c r="O11" s="5"/>
       <c r="P11" s="250" t="s">
         <v>399</v>
@@ -27491,11 +28070,11 @@
       <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="359"/>
-      <c r="B12" s="370"/>
-      <c r="C12" s="370"/>
-      <c r="D12" s="370"/>
-      <c r="E12" s="361"/>
+      <c r="A12" s="363"/>
+      <c r="B12" s="386"/>
+      <c r="C12" s="386"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="365"/>
       <c r="F12" t="s">
         <v>959</v>
       </c>
@@ -27504,8 +28083,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="378"/>
-      <c r="N12" s="378"/>
+      <c r="M12" s="393"/>
+      <c r="N12" s="393"/>
       <c r="O12" s="5"/>
       <c r="P12" s="250" t="s">
         <v>1320</v>
@@ -27515,11 +28094,11 @@
       <c r="T12" s="37"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="359"/>
-      <c r="B13" s="370"/>
-      <c r="C13" s="370"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="361"/>
+      <c r="A13" s="363"/>
+      <c r="B13" s="386"/>
+      <c r="C13" s="386"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="365"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>191</v>
@@ -27527,8 +28106,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="378"/>
-      <c r="N13" s="378"/>
+      <c r="M13" s="393"/>
+      <c r="N13" s="393"/>
       <c r="O13" s="27"/>
       <c r="P13" s="251"/>
       <c r="S13" t="s">
@@ -27536,11 +28115,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="371"/>
-      <c r="B14" s="372"/>
-      <c r="C14" s="372"/>
-      <c r="D14" s="372"/>
-      <c r="E14" s="373"/>
+      <c r="A14" s="368"/>
+      <c r="B14" s="387"/>
+      <c r="C14" s="387"/>
+      <c r="D14" s="387"/>
+      <c r="E14" s="388"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -27676,20 +28255,20 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="374" t="s">
+      <c r="I20" s="389" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="375"/>
-      <c r="K20" s="374" t="s">
+      <c r="J20" s="390"/>
+      <c r="K20" s="389" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="375"/>
-      <c r="M20" s="374" t="s">
+      <c r="L20" s="390"/>
+      <c r="M20" s="389" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="376"/>
-      <c r="O20" s="376"/>
-      <c r="P20" s="375"/>
+      <c r="N20" s="391"/>
+      <c r="O20" s="391"/>
+      <c r="P20" s="390"/>
       <c r="S20" t="s">
         <v>280</v>
       </c>
@@ -28566,33 +29145,33 @@
         <v>1566</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="444" t="s">
+      <c r="I124" s="367" t="s">
         <v>693</v>
       </c>
-      <c r="J124" s="405" t="s">
+      <c r="J124" s="369" t="s">
         <v>180</v>
       </c>
-      <c r="K124" s="405"/>
-      <c r="L124" s="405"/>
-      <c r="M124" s="405"/>
+      <c r="K124" s="369"/>
+      <c r="L124" s="369"/>
+      <c r="M124" s="369"/>
       <c r="N124" s="6"/>
     </row>
     <row r="125" spans="1:14">
       <c r="H125" s="4"/>
-      <c r="I125" s="359"/>
-      <c r="J125" s="405"/>
-      <c r="K125" s="405"/>
-      <c r="L125" s="405"/>
-      <c r="M125" s="405"/>
+      <c r="I125" s="363"/>
+      <c r="J125" s="369"/>
+      <c r="K125" s="369"/>
+      <c r="L125" s="369"/>
+      <c r="M125" s="369"/>
       <c r="N125" s="6"/>
     </row>
     <row r="126" spans="1:14" ht="15.75" thickBot="1">
       <c r="H126" s="4"/>
-      <c r="I126" s="359"/>
-      <c r="J126" s="405"/>
-      <c r="K126" s="405"/>
-      <c r="L126" s="405"/>
-      <c r="M126" s="405"/>
+      <c r="I126" s="363"/>
+      <c r="J126" s="369"/>
+      <c r="K126" s="369"/>
+      <c r="L126" s="369"/>
+      <c r="M126" s="369"/>
       <c r="N126" s="6"/>
     </row>
     <row r="127" spans="1:14">
@@ -28602,13 +29181,13 @@
       <c r="D127" s="2"/>
       <c r="E127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="359"/>
-      <c r="J127" s="405" t="s">
+      <c r="I127" s="363"/>
+      <c r="J127" s="369" t="s">
         <v>1567</v>
       </c>
-      <c r="K127" s="405"/>
-      <c r="L127" s="405"/>
-      <c r="M127" s="405"/>
+      <c r="K127" s="369"/>
+      <c r="L127" s="369"/>
+      <c r="M127" s="369"/>
       <c r="N127" s="6"/>
     </row>
     <row r="128" spans="1:14">
@@ -28620,11 +29199,11 @@
       <c r="D128" s="5"/>
       <c r="E128" s="6"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="359"/>
-      <c r="J128" s="405"/>
-      <c r="K128" s="405"/>
-      <c r="L128" s="405"/>
-      <c r="M128" s="405"/>
+      <c r="I128" s="363"/>
+      <c r="J128" s="369"/>
+      <c r="K128" s="369"/>
+      <c r="L128" s="369"/>
+      <c r="M128" s="369"/>
       <c r="N128" s="6"/>
     </row>
     <row r="129" spans="1:14">
@@ -28637,11 +29216,11 @@
         <v>164</v>
       </c>
       <c r="H129" s="4"/>
-      <c r="I129" s="359"/>
-      <c r="J129" s="405"/>
-      <c r="K129" s="405"/>
-      <c r="L129" s="405"/>
-      <c r="M129" s="405"/>
+      <c r="I129" s="363"/>
+      <c r="J129" s="369"/>
+      <c r="K129" s="369"/>
+      <c r="L129" s="369"/>
+      <c r="M129" s="369"/>
       <c r="N129" s="6"/>
     </row>
     <row r="130" spans="1:14">
@@ -28660,13 +29239,13 @@
       <c r="H130" s="34">
         <v>80</v>
       </c>
-      <c r="I130" s="359"/>
-      <c r="J130" s="405" t="s">
+      <c r="I130" s="363"/>
+      <c r="J130" s="369" t="s">
         <v>1568</v>
       </c>
-      <c r="K130" s="405"/>
-      <c r="L130" s="405"/>
-      <c r="M130" s="405"/>
+      <c r="K130" s="369"/>
+      <c r="L130" s="369"/>
+      <c r="M130" s="369"/>
       <c r="N130" s="6"/>
     </row>
     <row r="131" spans="1:14">
@@ -28683,11 +29262,11 @@
         <v>1570</v>
       </c>
       <c r="H131" s="4"/>
-      <c r="I131" s="359"/>
-      <c r="J131" s="405"/>
-      <c r="K131" s="405"/>
-      <c r="L131" s="405"/>
-      <c r="M131" s="405"/>
+      <c r="I131" s="363"/>
+      <c r="J131" s="369"/>
+      <c r="K131" s="369"/>
+      <c r="L131" s="369"/>
+      <c r="M131" s="369"/>
       <c r="N131" s="6"/>
     </row>
     <row r="132" spans="1:14">
@@ -28705,11 +29284,11 @@
         <v>404</v>
       </c>
       <c r="H132" s="4"/>
-      <c r="I132" s="359"/>
-      <c r="J132" s="405"/>
-      <c r="K132" s="405"/>
-      <c r="L132" s="405"/>
-      <c r="M132" s="405"/>
+      <c r="I132" s="363"/>
+      <c r="J132" s="369"/>
+      <c r="K132" s="369"/>
+      <c r="L132" s="369"/>
+      <c r="M132" s="369"/>
       <c r="N132" s="6"/>
     </row>
     <row r="133" spans="1:14">
@@ -28722,13 +29301,13 @@
         <v>1583</v>
       </c>
       <c r="H133" s="4"/>
-      <c r="I133" s="359"/>
-      <c r="J133" s="498" t="s">
+      <c r="I133" s="363"/>
+      <c r="J133" s="370" t="s">
         <v>1569</v>
       </c>
-      <c r="K133" s="499"/>
-      <c r="L133" s="499"/>
-      <c r="M133" s="500"/>
+      <c r="K133" s="371"/>
+      <c r="L133" s="371"/>
+      <c r="M133" s="372"/>
       <c r="N133" s="6"/>
     </row>
     <row r="134" spans="1:14">
@@ -28743,11 +29322,11 @@
         <v>1531</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="359"/>
-      <c r="J134" s="501"/>
-      <c r="K134" s="502"/>
-      <c r="L134" s="502"/>
-      <c r="M134" s="503"/>
+      <c r="I134" s="363"/>
+      <c r="J134" s="373"/>
+      <c r="K134" s="374"/>
+      <c r="L134" s="374"/>
+      <c r="M134" s="375"/>
       <c r="N134" s="6"/>
     </row>
     <row r="135" spans="1:14" ht="15.75" thickBot="1">
@@ -28759,29 +29338,29 @@
       <c r="D135" s="10"/>
       <c r="E135" s="9"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="359"/>
-      <c r="J135" s="501"/>
-      <c r="K135" s="502"/>
-      <c r="L135" s="502"/>
-      <c r="M135" s="503"/>
+      <c r="I135" s="363"/>
+      <c r="J135" s="373"/>
+      <c r="K135" s="374"/>
+      <c r="L135" s="374"/>
+      <c r="M135" s="375"/>
       <c r="N135" s="6"/>
     </row>
     <row r="136" spans="1:14">
       <c r="H136" s="4"/>
-      <c r="I136" s="359"/>
-      <c r="J136" s="501"/>
-      <c r="K136" s="502"/>
-      <c r="L136" s="502"/>
-      <c r="M136" s="503"/>
+      <c r="I136" s="363"/>
+      <c r="J136" s="373"/>
+      <c r="K136" s="374"/>
+      <c r="L136" s="374"/>
+      <c r="M136" s="375"/>
       <c r="N136" s="6"/>
     </row>
     <row r="137" spans="1:14">
       <c r="H137" s="4"/>
-      <c r="I137" s="359"/>
-      <c r="J137" s="501"/>
-      <c r="K137" s="502"/>
-      <c r="L137" s="502"/>
-      <c r="M137" s="503"/>
+      <c r="I137" s="363"/>
+      <c r="J137" s="373"/>
+      <c r="K137" s="374"/>
+      <c r="L137" s="374"/>
+      <c r="M137" s="375"/>
       <c r="N137" s="6"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
@@ -28789,11 +29368,11 @@
         <v>1580</v>
       </c>
       <c r="H138" s="4"/>
-      <c r="I138" s="371"/>
-      <c r="J138" s="504"/>
-      <c r="K138" s="505"/>
-      <c r="L138" s="505"/>
-      <c r="M138" s="506"/>
+      <c r="I138" s="368"/>
+      <c r="J138" s="376"/>
+      <c r="K138" s="377"/>
+      <c r="L138" s="377"/>
+      <c r="M138" s="378"/>
       <c r="N138" s="6"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
@@ -28896,7 +29475,7 @@
       <c r="K149" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L149" s="507" t="s">
+      <c r="L149" s="355" t="s">
         <v>1597</v>
       </c>
     </row>
@@ -29023,7 +29602,7 @@
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="5"/>
-      <c r="L168" s="507"/>
+      <c r="L168" s="355"/>
     </row>
     <row r="169" spans="4:12">
       <c r="J169" s="4"/>
@@ -29401,7 +29980,7 @@
       <c r="L208" s="5"/>
       <c r="M208" s="6"/>
     </row>
-    <row r="209" spans="4:13" ht="15.75" thickBot="1">
+    <row r="209" spans="1:14" ht="15.75" thickBot="1">
       <c r="G209" s="8"/>
       <c r="H209" s="10"/>
       <c r="I209" s="10"/>
@@ -29410,8 +29989,8 @@
       <c r="L209" s="10"/>
       <c r="M209" s="9"/>
     </row>
-    <row r="210" spans="4:13" ht="15.75" thickBot="1"/>
-    <row r="211" spans="4:13">
+    <row r="210" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="211" spans="1:14">
       <c r="G211" s="1" t="s">
         <v>635</v>
       </c>
@@ -29422,7 +30001,7 @@
       <c r="L211" s="2"/>
       <c r="M211" s="3"/>
     </row>
-    <row r="212" spans="4:13" ht="15.75" thickBot="1">
+    <row r="212" spans="1:14" ht="15.75" thickBot="1">
       <c r="G212" s="4"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
@@ -29431,7 +30010,7 @@
       <c r="L212" s="5"/>
       <c r="M212" s="6"/>
     </row>
-    <row r="213" spans="4:13" ht="15.75" thickBot="1">
+    <row r="213" spans="1:14" ht="15.75" thickBot="1">
       <c r="D213" t="s">
         <v>484</v>
       </c>
@@ -29445,7 +30024,7 @@
       <c r="L213" s="5"/>
       <c r="M213" s="6"/>
     </row>
-    <row r="214" spans="4:13">
+    <row r="214" spans="1:14">
       <c r="D214" t="s">
         <v>1606</v>
       </c>
@@ -29457,7 +30036,7 @@
       <c r="L214" s="5"/>
       <c r="M214" s="6"/>
     </row>
-    <row r="215" spans="4:13">
+    <row r="215" spans="1:14">
       <c r="G215" s="4"/>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
@@ -29466,7 +30045,7 @@
       <c r="L215" s="5"/>
       <c r="M215" s="6"/>
     </row>
-    <row r="216" spans="4:13">
+    <row r="216" spans="1:14">
       <c r="G216" s="4"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
@@ -29475,7 +30054,7 @@
       <c r="L216" s="5"/>
       <c r="M216" s="6"/>
     </row>
-    <row r="217" spans="4:13">
+    <row r="217" spans="1:14">
       <c r="G217" s="4"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
@@ -29484,7 +30063,7 @@
       <c r="L217" s="5"/>
       <c r="M217" s="6"/>
     </row>
-    <row r="218" spans="4:13" ht="15.75" thickBot="1">
+    <row r="218" spans="1:14" ht="15.75" thickBot="1">
       <c r="G218" s="8"/>
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
@@ -29493,19 +30072,590 @@
       <c r="L218" s="10"/>
       <c r="M218" s="9"/>
     </row>
+    <row r="219" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="220" spans="1:14" ht="15.75" thickBot="1">
+      <c r="I220" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
+      <c r="N220" s="3"/>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A221" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="3"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="M221" s="5"/>
+      <c r="N221" s="6"/>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A222" s="4"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="6"/>
+      <c r="I222" s="4"/>
+      <c r="J222" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="M222" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="4"/>
+      <c r="B223" s="33" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="6"/>
+      <c r="G223" t="s">
+        <v>707</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5">
+        <v>123123</v>
+      </c>
+      <c r="M223" s="513" t="s">
+        <v>1618</v>
+      </c>
+      <c r="N223" s="514" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="4"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="6"/>
+      <c r="G224" t="s">
+        <v>789</v>
+      </c>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="511" t="s">
+        <v>783</v>
+      </c>
+      <c r="N224" s="353" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="4"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F225" s="6"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="511"/>
+      <c r="N225" s="353" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="4"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F226" s="6"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="511"/>
+      <c r="N226" s="353"/>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" s="153" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B227" s="5"/>
+      <c r="F227" s="6"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="5"/>
+      <c r="M227" s="512"/>
+      <c r="N227" s="354"/>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228" s="154"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="6"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="5"/>
+      <c r="M228" s="352" t="s">
+        <v>787</v>
+      </c>
+      <c r="N228" s="353">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229" s="154"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F229" s="6"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="5"/>
+      <c r="M229" s="352" t="s">
+        <v>300</v>
+      </c>
+      <c r="N229" s="353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" s="154"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="23" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F230" s="6"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="6"/>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" s="154"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="6"/>
+      <c r="I231" s="4"/>
+      <c r="J231" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
+      <c r="M231" s="5"/>
+      <c r="N231" s="6"/>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" s="154"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="6"/>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K232" s="5"/>
+      <c r="L232" s="5"/>
+      <c r="M232" s="5"/>
+      <c r="N232" s="6"/>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" s="154"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="6"/>
+      <c r="I233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="K233" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L233" s="5"/>
+      <c r="M233" s="5"/>
+      <c r="N233" s="6"/>
+    </row>
+    <row r="234" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A234" s="155"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="9"/>
+      <c r="I234" s="4"/>
+      <c r="J234" s="8"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="10"/>
+      <c r="N234" s="9"/>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" thickBot="1">
+      <c r="I235" s="8"/>
+      <c r="J235" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="10"/>
+      <c r="N235" s="9"/>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="J236" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="J237" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="G238" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="241" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A241" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="3"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="M241" s="5"/>
+      <c r="N241" s="6"/>
+    </row>
+    <row r="242" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="6"/>
+      <c r="I242" s="4"/>
+      <c r="J242" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="M242" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
+      <c r="A243" s="4"/>
+      <c r="B243" s="33" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="6"/>
+      <c r="G243" t="s">
+        <v>707</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I243" s="4"/>
+      <c r="J243" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5">
+        <v>123455445</v>
+      </c>
+      <c r="M243" s="513" t="s">
+        <v>1618</v>
+      </c>
+      <c r="N243" s="514" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
+      <c r="A244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="6"/>
+      <c r="G244" t="s">
+        <v>789</v>
+      </c>
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="511" t="s">
+        <v>783</v>
+      </c>
+      <c r="N244" s="353" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F245" s="6"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="511"/>
+      <c r="N245" s="353" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246" s="4"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F246" s="6"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+      <c r="M246" s="511"/>
+      <c r="N246" s="353"/>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247" s="153" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B247" s="5"/>
+      <c r="F247" s="6"/>
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
+      <c r="M247" s="512"/>
+      <c r="N247" s="354"/>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248" s="154" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="6"/>
+      <c r="I248" s="4"/>
+      <c r="J248" s="4"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+      <c r="M248" s="352" t="s">
+        <v>787</v>
+      </c>
+      <c r="N248" s="353">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249" s="154"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="6"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="5"/>
+      <c r="M249" s="352" t="s">
+        <v>300</v>
+      </c>
+      <c r="N249" s="353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250" s="154"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="6"/>
+      <c r="I250" s="4"/>
+      <c r="J250" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K250" s="5"/>
+      <c r="L250" s="5"/>
+      <c r="M250" s="5"/>
+      <c r="N250" s="6"/>
+    </row>
+    <row r="251" spans="1:14">
+      <c r="A251" s="154"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="6"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K251" s="5"/>
+      <c r="L251" s="5"/>
+      <c r="M251" s="5"/>
+      <c r="N251" s="6"/>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252" s="154"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="6"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K252" s="5"/>
+      <c r="L252" s="5"/>
+      <c r="M252" s="5"/>
+      <c r="N252" s="6"/>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253" s="154"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="6"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="K253" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L253" s="5"/>
+      <c r="M253" s="5"/>
+      <c r="N253" s="6"/>
+    </row>
+    <row r="254" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A254" s="155"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="9"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="8"/>
+      <c r="K254" s="10"/>
+      <c r="L254" s="10"/>
+      <c r="M254" s="10"/>
+      <c r="N254" s="9"/>
+    </row>
+    <row r="255" spans="1:14" ht="15.75" thickBot="1">
+      <c r="I255" s="8"/>
+      <c r="J255" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K255" s="10"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I124:I138"/>
-    <mergeCell ref="J124:M126"/>
-    <mergeCell ref="J127:M129"/>
-    <mergeCell ref="J130:M132"/>
-    <mergeCell ref="J133:M138"/>
+  <mergeCells count="13">
+    <mergeCell ref="M224:M227"/>
+    <mergeCell ref="M244:M247"/>
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="A11:E14"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M8:N13"/>
+    <mergeCell ref="I124:I138"/>
+    <mergeCell ref="J124:M126"/>
+    <mergeCell ref="J127:M129"/>
+    <mergeCell ref="J130:M132"/>
+    <mergeCell ref="J133:M138"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>
@@ -29521,9 +30671,11 @@
     <hyperlink ref="G124" r:id="rId11"/>
     <hyperlink ref="C134" r:id="rId12"/>
     <hyperlink ref="D141" r:id="rId13"/>
+    <hyperlink ref="B223" r:id="rId14"/>
+    <hyperlink ref="B243" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -29949,13 +31101,13 @@
         <v>180</v>
       </c>
       <c r="J3" s="147"/>
-      <c r="K3" s="388"/>
-      <c r="L3" s="388"/>
-      <c r="M3" s="388"/>
-      <c r="N3" s="388"/>
-      <c r="O3" s="388"/>
-      <c r="P3" s="388"/>
-      <c r="Q3" s="389"/>
+      <c r="K3" s="403"/>
+      <c r="L3" s="403"/>
+      <c r="M3" s="403"/>
+      <c r="N3" s="403"/>
+      <c r="O3" s="403"/>
+      <c r="P3" s="403"/>
+      <c r="Q3" s="404"/>
       <c r="T3" s="39" t="s">
         <v>178</v>
       </c>
@@ -30223,13 +31375,13 @@
       <c r="U11" s="37"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="379" t="s">
+      <c r="A12" s="394" t="s">
         <v>682</v>
       </c>
-      <c r="B12" s="380"/>
-      <c r="C12" s="380"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="381"/>
+      <c r="B12" s="395"/>
+      <c r="C12" s="395"/>
+      <c r="D12" s="395"/>
+      <c r="E12" s="396"/>
       <c r="F12" t="s">
         <v>695</v>
       </c>
@@ -30252,11 +31404,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="382"/>
-      <c r="B13" s="383"/>
-      <c r="C13" s="383"/>
-      <c r="D13" s="383"/>
-      <c r="E13" s="384"/>
+      <c r="A13" s="397"/>
+      <c r="B13" s="398"/>
+      <c r="C13" s="398"/>
+      <c r="D13" s="398"/>
+      <c r="E13" s="399"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -30277,11 +31429,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="382"/>
-      <c r="B14" s="383"/>
-      <c r="C14" s="383"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
+      <c r="A14" s="397"/>
+      <c r="B14" s="398"/>
+      <c r="C14" s="398"/>
+      <c r="D14" s="398"/>
+      <c r="E14" s="399"/>
       <c r="F14" t="s">
         <v>692</v>
       </c>
@@ -30304,11 +31456,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="385"/>
-      <c r="B15" s="386"/>
-      <c r="C15" s="386"/>
-      <c r="D15" s="386"/>
-      <c r="E15" s="387"/>
+      <c r="A15" s="400"/>
+      <c r="B15" s="401"/>
+      <c r="C15" s="401"/>
+      <c r="D15" s="401"/>
+      <c r="E15" s="402"/>
       <c r="F15" s="23"/>
       <c r="H15" s="196"/>
       <c r="I15" s="4" t="s">
@@ -30366,17 +31518,17 @@
       <c r="F17" s="192"/>
       <c r="G17" s="128"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="364" t="s">
+      <c r="I17" s="380" t="s">
         <v>1192</v>
       </c>
-      <c r="J17" s="364"/>
-      <c r="K17" s="364"/>
-      <c r="L17" s="364"/>
-      <c r="M17" s="364"/>
-      <c r="N17" s="364"/>
-      <c r="O17" s="364"/>
-      <c r="P17" s="364"/>
-      <c r="Q17" s="364"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="380"/>
+      <c r="L17" s="380"/>
+      <c r="M17" s="380"/>
+      <c r="N17" s="380"/>
+      <c r="O17" s="380"/>
+      <c r="P17" s="380"/>
+      <c r="Q17" s="380"/>
       <c r="S17" t="s">
         <v>357</v>
       </c>
@@ -34662,10 +35814,10 @@
       <c r="K232" s="34"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="390" t="s">
+      <c r="O232" s="405" t="s">
         <v>1240</v>
       </c>
-      <c r="P232" s="391"/>
+      <c r="P232" s="406"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1669">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5181,9 +5181,6 @@
     <t>src="http://1.2.3.4:80/css/test.css"</t>
   </si>
   <si>
-    <t>STS console</t>
-  </si>
-  <si>
     <t>console.log</t>
   </si>
   <si>
@@ -5459,6 +5456,60 @@
   </si>
   <si>
     <t>price is PARTIALLY depended on one of the columns in composite key</t>
+  </si>
+  <si>
+    <t>Order table</t>
+  </si>
+  <si>
+    <t>prodName</t>
+  </si>
+  <si>
+    <t>insert iphone in order table</t>
+  </si>
+  <si>
+    <t>insert sony in order table</t>
+  </si>
+  <si>
+    <t>update iphone in warehouse table</t>
+  </si>
+  <si>
+    <t>update sony in warehouse table</t>
+  </si>
+  <si>
+    <t>OLTP=Online Tran Processing</t>
+  </si>
+  <si>
+    <t>ATOMIC = ALL or NOTHING</t>
+  </si>
+  <si>
+    <t>try{</t>
+  </si>
+  <si>
+    <t>Connection conn=DatabaseConnection.getDBConnection();</t>
+  </si>
+  <si>
+    <t>conn.setAutoCommit(false);</t>
+  </si>
+  <si>
+    <t>conn.commit();</t>
+  </si>
+  <si>
+    <t>}catch(Exception e){</t>
+  </si>
+  <si>
+    <t>conn.rollBack();</t>
+  </si>
+  <si>
+    <t>finally{</t>
+  </si>
+  <si>
+    <t>conn.close();</t>
+  </si>
+  <si>
+    <t>select userid from users where userid ='ron' and password='ron2!'</t>
+  </si>
+  <si>
+    <t>dynamic binding</t>
   </si>
 </sst>
 </file>
@@ -6384,7 +6435,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="536">
+  <cellXfs count="539">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6903,6 +6954,73 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7068,6 +7186,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7088,21 +7218,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7134,6 +7249,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7143,59 +7261,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7254,6 +7321,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7275,17 +7393,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7329,112 +7480,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13160,37 +13220,37 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17">
-      <c r="C4" s="516" t="s">
+      <c r="C4" s="361" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="517" t="s">
+      <c r="D4" s="362" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="517" t="s">
+      <c r="E4" s="362" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="517" t="s">
+      <c r="F4" s="362" t="s">
         <v>318</v>
       </c>
-      <c r="G4" s="517" t="s">
+      <c r="G4" s="362" t="s">
         <v>319</v>
       </c>
-      <c r="H4" s="517" t="s">
+      <c r="H4" s="362" t="s">
         <v>320</v>
       </c>
-      <c r="I4" s="517" t="s">
+      <c r="I4" s="362" t="s">
         <v>321</v>
       </c>
-      <c r="J4" s="517" t="s">
+      <c r="J4" s="362" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="517" t="s">
+      <c r="K4" s="362" t="s">
         <v>323</v>
       </c>
-      <c r="L4" s="517" t="s">
+      <c r="L4" s="362" t="s">
         <v>324</v>
       </c>
-      <c r="M4" s="518" t="s">
+      <c r="M4" s="363" t="s">
         <v>325</v>
       </c>
     </row>
@@ -13198,7 +13258,7 @@
       <c r="A5" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="519" t="s">
+      <c r="C5" s="364" t="s">
         <v>326</v>
       </c>
       <c r="D5" s="351" t="s">
@@ -13228,7 +13288,7 @@
       <c r="L5" s="351">
         <v>1</v>
       </c>
-      <c r="M5" s="520">
+      <c r="M5" s="365">
         <v>800</v>
       </c>
       <c r="O5" t="s">
@@ -13236,7 +13296,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="C6" s="519" t="s">
+      <c r="C6" s="364" t="s">
         <v>326</v>
       </c>
       <c r="D6" s="351" t="s">
@@ -13266,7 +13326,7 @@
       <c r="L6" s="351">
         <v>1</v>
       </c>
-      <c r="M6" s="520">
+      <c r="M6" s="365">
         <v>800</v>
       </c>
       <c r="O6" t="s">
@@ -13277,7 +13337,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="C7" s="521" t="s">
+      <c r="C7" s="366" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="354" t="s">
@@ -13305,7 +13365,7 @@
         <v>363</v>
       </c>
       <c r="L7" s="353"/>
-      <c r="M7" s="522">
+      <c r="M7" s="367">
         <v>1000</v>
       </c>
     </row>
@@ -13313,7 +13373,7 @@
       <c r="A8" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="523"/>
+      <c r="C8" s="368"/>
       <c r="D8" s="352"/>
       <c r="E8" s="352"/>
       <c r="F8" s="352"/>
@@ -13323,7 +13383,7 @@
       <c r="J8" s="352"/>
       <c r="K8" s="352"/>
       <c r="L8" s="352"/>
-      <c r="M8" s="524"/>
+      <c r="M8" s="369"/>
       <c r="O8" t="s">
         <v>364</v>
       </c>
@@ -13332,17 +13392,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C9" s="525"/>
-      <c r="D9" s="526"/>
-      <c r="E9" s="526"/>
-      <c r="F9" s="526"/>
-      <c r="G9" s="526"/>
-      <c r="H9" s="526"/>
-      <c r="I9" s="527"/>
-      <c r="J9" s="528"/>
-      <c r="K9" s="529"/>
-      <c r="L9" s="528"/>
-      <c r="M9" s="530"/>
+      <c r="C9" s="370"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
+      <c r="G9" s="371"/>
+      <c r="H9" s="371"/>
+      <c r="I9" s="372"/>
+      <c r="J9" s="373"/>
+      <c r="K9" s="374"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="375"/>
       <c r="P9" t="s">
         <v>366</v>
       </c>
@@ -14114,7 +14174,7 @@
         <v>1266</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -14144,10 +14204,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="411" t="s">
+      <c r="L35" s="434" t="s">
         <v>372</v>
       </c>
-      <c r="M35" s="411"/>
+      <c r="M35" s="434"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -15021,10 +15081,10 @@
         <v>324</v>
       </c>
       <c r="Q60" s="99"/>
-      <c r="R60" s="531" t="s">
+      <c r="R60" s="376" t="s">
         <v>323</v>
       </c>
-      <c r="S60" s="518" t="s">
+      <c r="S60" s="363" t="s">
         <v>325</v>
       </c>
       <c r="T60" s="6"/>
@@ -15070,10 +15130,10 @@
         <v>1</v>
       </c>
       <c r="Q61" s="100"/>
-      <c r="R61" s="532" t="s">
+      <c r="R61" s="377" t="s">
         <v>330</v>
       </c>
-      <c r="S61" s="533">
+      <c r="S61" s="378">
         <v>1000</v>
       </c>
       <c r="T61" s="6"/>
@@ -15119,10 +15179,10 @@
         <v>1</v>
       </c>
       <c r="Q62" s="100"/>
-      <c r="R62" s="532" t="s">
+      <c r="R62" s="377" t="s">
         <v>331</v>
       </c>
-      <c r="S62" s="533">
+      <c r="S62" s="378">
         <v>500</v>
       </c>
       <c r="T62" s="6"/>
@@ -15156,10 +15216,10 @@
         <v>1</v>
       </c>
       <c r="Q63" s="100"/>
-      <c r="R63" s="532" t="s">
+      <c r="R63" s="377" t="s">
         <v>332</v>
       </c>
-      <c r="S63" s="533">
+      <c r="S63" s="378">
         <v>500</v>
       </c>
       <c r="T63" s="6"/>
@@ -15181,10 +15241,10 @@
       <c r="O64" s="96"/>
       <c r="P64" s="94"/>
       <c r="Q64" s="100"/>
-      <c r="R64" s="534" t="s">
+      <c r="R64" s="379" t="s">
         <v>352</v>
       </c>
-      <c r="S64" s="533">
+      <c r="S64" s="378">
         <v>2000</v>
       </c>
       <c r="T64" s="6"/>
@@ -16081,10 +16141,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="412" t="s">
+      <c r="A155" s="435" t="s">
         <v>1007</v>
       </c>
-      <c r="B155" s="412"/>
+      <c r="B155" s="435"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="92" t="s">
@@ -16442,12 +16502,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G16"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="6" max="7" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -16457,7 +16518,7 @@
     <row r="2" spans="2:14">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -16483,7 +16544,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>181</v>
@@ -16495,19 +16556,19 @@
     <row r="4" spans="2:14">
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -16516,16 +16577,16 @@
     <row r="5" spans="2:14">
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>1634</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>1635</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1135</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -16538,7 +16599,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -16555,7 +16616,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -16572,7 +16633,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -16605,7 +16666,7 @@
     <row r="10" spans="2:14">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -16645,7 +16706,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -16670,7 +16731,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
       <c r="I13" s="12" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>824</v>
@@ -16741,7 +16802,7 @@
       <c r="G16" s="37"/>
       <c r="H16" s="5"/>
       <c r="I16" s="37" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J16" s="37">
         <v>100</v>
@@ -16809,7 +16870,7 @@
         <v>181</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>324</v>
@@ -16817,7 +16878,7 @@
       <c r="G20" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="H20" s="535" t="s">
+      <c r="H20" s="380" t="s">
         <v>400</v>
       </c>
       <c r="I20" s="5"/>
@@ -16884,27 +16945,27 @@
     </row>
     <row r="26" spans="2:14">
       <c r="I26" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K26" t="s">
         <v>1648</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="27" spans="2:14">
       <c r="I27" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="28" spans="2:14">
       <c r="I28" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="I30" s="515" t="s">
+      <c r="I30" s="360" t="s">
         <v>181</v>
       </c>
-      <c r="J30" s="515" t="s">
+      <c r="J30" s="360" t="s">
         <v>323</v>
       </c>
       <c r="K30" s="112" t="s">
@@ -16942,7 +17003,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="9:12">
+    <row r="33" spans="1:12">
       <c r="I33" s="112" t="s">
         <v>30</v>
       </c>
@@ -16956,7 +17017,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="9:12">
+    <row r="34" spans="1:12">
       <c r="I34" s="112" t="s">
         <v>32</v>
       </c>
@@ -16968,6 +17029,263 @@
       </c>
       <c r="L34" s="112">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="B36" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="B37" s="359" t="s">
+        <v>809</v>
+      </c>
+      <c r="C37" s="359" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="359" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E37" s="359" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="359" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" s="538">
+        <v>123</v>
+      </c>
+      <c r="C38" s="538" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="538" t="s">
+        <v>330</v>
+      </c>
+      <c r="E38" s="538">
+        <v>2</v>
+      </c>
+      <c r="F38" s="538">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="215"/>
+      <c r="B39" s="538">
+        <v>124</v>
+      </c>
+      <c r="C39" s="538" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="538" t="s">
+        <v>330</v>
+      </c>
+      <c r="E39" s="538">
+        <v>3</v>
+      </c>
+      <c r="F39" s="538">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="215"/>
+      <c r="B40" s="538">
+        <v>124</v>
+      </c>
+      <c r="C40" s="538" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="538" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E40" s="538">
+        <v>2</v>
+      </c>
+      <c r="F40" s="538">
+        <v>1500</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="215"/>
+      <c r="G41" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="215"/>
+      <c r="B42" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="215"/>
+      <c r="B43" s="359" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C43" s="359" t="s">
+        <v>324</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="215"/>
+      <c r="B44" s="538" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" s="538">
+        <v>97</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="215"/>
+      <c r="B45" s="538" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="538">
+        <v>50</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="215"/>
+      <c r="B46" s="538" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C46" s="538">
+        <v>18</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="215"/>
+      <c r="B47" s="358"/>
+      <c r="C47" s="358"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="31" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="31" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+    </row>
+    <row r="49" spans="6:10">
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="31" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+    </row>
+    <row r="50" spans="6:10">
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="31" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+    </row>
+    <row r="51" spans="6:10">
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="6:10">
+      <c r="F52" s="32"/>
+      <c r="G52" s="32" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="6:10">
+      <c r="F53" s="32" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+    </row>
+    <row r="54" spans="6:10">
+      <c r="F54" s="32"/>
+      <c r="G54" s="32" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" spans="6:10">
+      <c r="F55" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+    </row>
+    <row r="56" spans="6:10">
+      <c r="F56" s="32" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="6:10">
+      <c r="F57" s="32"/>
+      <c r="G57" s="32" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="6:10">
+      <c r="F58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="4:15" ht="15.75" thickBot="1"/>
@@ -18194,18 +18512,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="420" t="s">
+      <c r="E6" s="436" t="s">
         <v>404</v>
       </c>
-      <c r="F6" s="360"/>
-      <c r="G6" s="359" t="s">
+      <c r="F6" s="383"/>
+      <c r="G6" s="382" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="359"/>
-      <c r="L6" s="360"/>
+      <c r="H6" s="382"/>
+      <c r="I6" s="382"/>
+      <c r="J6" s="382"/>
+      <c r="K6" s="382"/>
+      <c r="L6" s="383"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="27" t="s">
@@ -18215,7 +18533,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="417">
+      <c r="D7" s="444">
         <v>80</v>
       </c>
       <c r="E7" s="65"/>
@@ -18233,7 +18551,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="417"/>
+      <c r="D8" s="444"/>
       <c r="E8" s="57" t="s">
         <v>406</v>
       </c>
@@ -18268,7 +18586,7 @@
       <c r="B9" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="417"/>
+      <c r="D9" s="444"/>
       <c r="E9" s="232"/>
       <c r="F9" s="238"/>
       <c r="G9" s="232"/>
@@ -18292,7 +18610,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="417"/>
+      <c r="D10" s="444"/>
       <c r="E10" s="65"/>
       <c r="F10" s="237"/>
       <c r="G10" s="65"/>
@@ -18316,7 +18634,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="417"/>
+      <c r="D11" s="444"/>
       <c r="E11" s="57" t="s">
         <v>410</v>
       </c>
@@ -18345,7 +18663,7 @@
       <c r="B12" s="209" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="417"/>
+      <c r="D12" s="444"/>
       <c r="E12" s="232"/>
       <c r="F12" s="238"/>
       <c r="G12" s="232"/>
@@ -18363,7 +18681,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="417"/>
+      <c r="D13" s="444"/>
       <c r="E13" s="65"/>
       <c r="F13" s="237"/>
       <c r="G13" s="65"/>
@@ -18379,7 +18697,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="417"/>
+      <c r="D14" s="444"/>
       <c r="E14" s="57" t="s">
         <v>415</v>
       </c>
@@ -18403,7 +18721,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="417"/>
+      <c r="D15" s="444"/>
       <c r="E15" s="232"/>
       <c r="F15" s="238"/>
       <c r="G15" s="232"/>
@@ -18419,7 +18737,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="417"/>
+      <c r="D16" s="444"/>
       <c r="E16" s="65"/>
       <c r="F16" s="237"/>
       <c r="G16" s="58"/>
@@ -18435,7 +18753,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="417"/>
+      <c r="D17" s="444"/>
       <c r="E17" s="57" t="s">
         <v>419</v>
       </c>
@@ -18459,7 +18777,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="417"/>
+      <c r="D18" s="444"/>
       <c r="E18" s="232"/>
       <c r="F18" s="238"/>
       <c r="G18" s="320"/>
@@ -18476,20 +18794,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="421" t="s">
+      <c r="E19" s="437" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="422"/>
-      <c r="G19" s="421" t="s">
+      <c r="F19" s="438"/>
+      <c r="G19" s="437" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="422"/>
-      <c r="I19" s="421" t="s">
+      <c r="H19" s="438"/>
+      <c r="I19" s="437" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="423"/>
-      <c r="K19" s="423"/>
-      <c r="L19" s="422"/>
+      <c r="J19" s="439"/>
+      <c r="K19" s="439"/>
+      <c r="L19" s="438"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -18554,12 +18872,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="419"/>
-      <c r="H24" s="419"/>
-      <c r="I24" s="419"/>
-      <c r="J24" s="419"/>
-      <c r="K24" s="419"/>
-      <c r="L24" s="419"/>
+      <c r="G24" s="446"/>
+      <c r="H24" s="446"/>
+      <c r="I24" s="446"/>
+      <c r="J24" s="446"/>
+      <c r="K24" s="446"/>
+      <c r="L24" s="446"/>
       <c r="O24" s="39" t="s">
         <v>178</v>
       </c>
@@ -18932,11 +19250,11 @@
       <c r="G47" s="222" t="s">
         <v>897</v>
       </c>
-      <c r="H47" s="409" t="s">
+      <c r="H47" s="432" t="s">
         <v>1367</v>
       </c>
-      <c r="I47" s="418"/>
-      <c r="J47" s="410"/>
+      <c r="I47" s="445"/>
+      <c r="J47" s="433"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -19542,16 +19860,16 @@
         <v>1062</v>
       </c>
       <c r="F131" s="37"/>
-      <c r="G131" s="415" t="s">
+      <c r="G131" s="442" t="s">
         <v>1055</v>
       </c>
-      <c r="H131" s="415"/>
-      <c r="I131" s="415"/>
-      <c r="J131" s="415"/>
-      <c r="K131" s="415"/>
-      <c r="L131" s="415"/>
-      <c r="M131" s="415"/>
-      <c r="N131" s="415"/>
+      <c r="H131" s="442"/>
+      <c r="I131" s="442"/>
+      <c r="J131" s="442"/>
+      <c r="K131" s="442"/>
+      <c r="L131" s="442"/>
+      <c r="M131" s="442"/>
+      <c r="N131" s="442"/>
       <c r="O131" s="37"/>
     </row>
     <row r="132" spans="2:15">
@@ -19688,29 +20006,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="37"/>
-      <c r="G141" s="416"/>
-      <c r="H141" s="416"/>
-      <c r="I141" s="416"/>
-      <c r="J141" s="416"/>
-      <c r="K141" s="416"/>
-      <c r="L141" s="416"/>
-      <c r="M141" s="416"/>
-      <c r="N141" s="416"/>
-      <c r="O141" s="416"/>
+      <c r="G141" s="443"/>
+      <c r="H141" s="443"/>
+      <c r="I141" s="443"/>
+      <c r="J141" s="443"/>
+      <c r="K141" s="443"/>
+      <c r="L141" s="443"/>
+      <c r="M141" s="443"/>
+      <c r="N141" s="443"/>
+      <c r="O141" s="443"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="416"/>
-      <c r="H142" s="416"/>
-      <c r="I142" s="416"/>
-      <c r="J142" s="416"/>
-      <c r="K142" s="416"/>
-      <c r="L142" s="416"/>
-      <c r="M142" s="416"/>
-      <c r="N142" s="416"/>
-      <c r="O142" s="416"/>
+      <c r="G142" s="443"/>
+      <c r="H142" s="443"/>
+      <c r="I142" s="443"/>
+      <c r="J142" s="443"/>
+      <c r="K142" s="443"/>
+      <c r="L142" s="443"/>
+      <c r="M142" s="443"/>
+      <c r="N142" s="443"/>
+      <c r="O142" s="443"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -19754,7 +20072,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="413" t="s">
+      <c r="D158" s="440" t="s">
         <v>1333</v>
       </c>
       <c r="E158" s="65"/>
@@ -19767,7 +20085,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="414"/>
+      <c r="D159" s="441"/>
       <c r="E159" s="312" t="s">
         <v>1331</v>
       </c>
@@ -19789,7 +20107,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="414"/>
+      <c r="D160" s="441"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -19800,7 +20118,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="414"/>
+      <c r="D161" s="441"/>
       <c r="E161" s="314"/>
       <c r="F161" s="315"/>
       <c r="G161" s="314"/>
@@ -19811,7 +20129,7 @@
       <c r="L161" s="315"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="414"/>
+      <c r="D162" s="441"/>
       <c r="E162" s="316"/>
       <c r="F162" s="317"/>
       <c r="G162" s="316"/>
@@ -19825,7 +20143,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="414"/>
+      <c r="D163" s="441"/>
       <c r="E163" s="318"/>
       <c r="F163" s="319"/>
       <c r="G163" s="318"/>
@@ -19836,7 +20154,7 @@
       <c r="L163" s="319"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="414"/>
+      <c r="D164" s="441"/>
       <c r="E164" s="65"/>
       <c r="F164" s="237"/>
       <c r="G164" s="65"/>
@@ -19847,7 +20165,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="414"/>
+      <c r="D165" s="441"/>
       <c r="E165" s="57"/>
       <c r="F165" s="311"/>
       <c r="G165" s="57"/>
@@ -19861,7 +20179,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="414"/>
+      <c r="D166" s="441"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -19872,7 +20190,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="414"/>
+      <c r="D167" s="441"/>
       <c r="E167" s="65"/>
       <c r="F167" s="237"/>
       <c r="G167" s="58"/>
@@ -19883,7 +20201,7 @@
       <c r="L167" s="311"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="414"/>
+      <c r="D168" s="441"/>
       <c r="E168" s="57"/>
       <c r="F168" s="311"/>
       <c r="G168" s="58"/>
@@ -19897,7 +20215,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="414"/>
+      <c r="D169" s="441"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="320"/>
@@ -20077,17 +20395,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -20332,13 +20650,13 @@
       <c r="C20" s="113">
         <v>43908</v>
       </c>
-      <c r="D20" s="388" t="s">
+      <c r="D20" s="411" t="s">
         <v>454</v>
       </c>
-      <c r="E20" s="388"/>
-      <c r="F20" s="388"/>
-      <c r="G20" s="388"/>
-      <c r="H20" s="388"/>
+      <c r="E20" s="411"/>
+      <c r="F20" s="411"/>
+      <c r="G20" s="411"/>
+      <c r="H20" s="411"/>
       <c r="I20" s="37" t="s">
         <v>455</v>
       </c>
@@ -20349,37 +20667,37 @@
       <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="424">
+      <c r="C21" s="457">
         <v>43909</v>
       </c>
-      <c r="D21" s="388"/>
-      <c r="E21" s="388"/>
-      <c r="F21" s="388"/>
-      <c r="G21" s="388"/>
-      <c r="H21" s="388"/>
+      <c r="D21" s="411"/>
+      <c r="E21" s="411"/>
+      <c r="F21" s="411"/>
+      <c r="G21" s="411"/>
+      <c r="H21" s="411"/>
       <c r="I21" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J21" s="388"/>
-      <c r="K21" s="388"/>
-      <c r="L21" s="388" t="s">
+      <c r="J21" s="411"/>
+      <c r="K21" s="411"/>
+      <c r="L21" s="411" t="s">
         <v>457</v>
       </c>
-      <c r="M21" s="388"/>
-      <c r="N21" s="388"/>
+      <c r="M21" s="411"/>
+      <c r="N21" s="411"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="424"/>
-      <c r="D22" s="388"/>
-      <c r="E22" s="388"/>
-      <c r="F22" s="388"/>
-      <c r="G22" s="388"/>
-      <c r="H22" s="388"/>
-      <c r="I22" s="368" t="s">
+      <c r="C22" s="457"/>
+      <c r="D22" s="411"/>
+      <c r="E22" s="411"/>
+      <c r="F22" s="411"/>
+      <c r="G22" s="411"/>
+      <c r="H22" s="411"/>
+      <c r="I22" s="391" t="s">
         <v>458</v>
       </c>
-      <c r="J22" s="388"/>
-      <c r="K22" s="388"/>
+      <c r="J22" s="411"/>
+      <c r="K22" s="411"/>
       <c r="L22" s="114" t="s">
         <v>459</v>
       </c>
@@ -20387,31 +20705,31 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="424"/>
-      <c r="D23" s="388"/>
-      <c r="E23" s="388"/>
-      <c r="F23" s="388"/>
-      <c r="G23" s="388"/>
-      <c r="H23" s="388"/>
-      <c r="I23" s="368"/>
-      <c r="J23" s="388"/>
-      <c r="K23" s="388"/>
-      <c r="L23" s="388" t="s">
+      <c r="C23" s="457"/>
+      <c r="D23" s="411"/>
+      <c r="E23" s="411"/>
+      <c r="F23" s="411"/>
+      <c r="G23" s="411"/>
+      <c r="H23" s="411"/>
+      <c r="I23" s="391"/>
+      <c r="J23" s="411"/>
+      <c r="K23" s="411"/>
+      <c r="L23" s="411" t="s">
         <v>460</v>
       </c>
-      <c r="M23" s="388"/>
-      <c r="N23" s="388"/>
+      <c r="M23" s="411"/>
+      <c r="N23" s="411"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="424"/>
-      <c r="D24" s="388"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="388"/>
-      <c r="G24" s="388"/>
-      <c r="H24" s="388"/>
-      <c r="I24" s="368"/>
-      <c r="J24" s="388"/>
-      <c r="K24" s="388"/>
+      <c r="C24" s="457"/>
+      <c r="D24" s="411"/>
+      <c r="E24" s="411"/>
+      <c r="F24" s="411"/>
+      <c r="G24" s="411"/>
+      <c r="H24" s="411"/>
+      <c r="I24" s="391"/>
+      <c r="J24" s="411"/>
+      <c r="K24" s="411"/>
       <c r="L24" s="115" t="s">
         <v>458</v>
       </c>
@@ -20422,13 +20740,13 @@
       <c r="C25" s="113">
         <v>43910</v>
       </c>
-      <c r="D25" s="388" t="s">
+      <c r="D25" s="411" t="s">
         <v>461</v>
       </c>
-      <c r="E25" s="388"/>
-      <c r="F25" s="388"/>
-      <c r="G25" s="388"/>
-      <c r="H25" s="388"/>
+      <c r="E25" s="411"/>
+      <c r="F25" s="411"/>
+      <c r="G25" s="411"/>
+      <c r="H25" s="411"/>
       <c r="I25" s="37" t="s">
         <v>462</v>
       </c>
@@ -20442,16 +20760,16 @@
       <c r="C26" s="113">
         <v>43911</v>
       </c>
-      <c r="D26" s="425"/>
-      <c r="E26" s="426"/>
-      <c r="F26" s="426"/>
-      <c r="G26" s="426"/>
-      <c r="H26" s="427"/>
-      <c r="I26" s="432" t="s">
+      <c r="D26" s="447"/>
+      <c r="E26" s="448"/>
+      <c r="F26" s="448"/>
+      <c r="G26" s="448"/>
+      <c r="H26" s="449"/>
+      <c r="I26" s="454" t="s">
         <v>458</v>
       </c>
-      <c r="J26" s="425"/>
-      <c r="K26" s="427"/>
+      <c r="J26" s="447"/>
+      <c r="K26" s="449"/>
       <c r="L26" s="114" t="s">
         <v>459</v>
       </c>
@@ -20460,30 +20778,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="37"/>
-      <c r="D27" s="428"/>
-      <c r="E27" s="419"/>
-      <c r="F27" s="419"/>
-      <c r="G27" s="419"/>
-      <c r="H27" s="429"/>
-      <c r="I27" s="433"/>
-      <c r="J27" s="428"/>
-      <c r="K27" s="429"/>
-      <c r="L27" s="388" t="s">
+      <c r="D27" s="450"/>
+      <c r="E27" s="446"/>
+      <c r="F27" s="446"/>
+      <c r="G27" s="446"/>
+      <c r="H27" s="451"/>
+      <c r="I27" s="455"/>
+      <c r="J27" s="450"/>
+      <c r="K27" s="451"/>
+      <c r="L27" s="411" t="s">
         <v>463</v>
       </c>
-      <c r="M27" s="388"/>
-      <c r="N27" s="388"/>
+      <c r="M27" s="411"/>
+      <c r="N27" s="411"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="37"/>
-      <c r="D28" s="428"/>
-      <c r="E28" s="419"/>
-      <c r="F28" s="419"/>
-      <c r="G28" s="419"/>
-      <c r="H28" s="429"/>
-      <c r="I28" s="433"/>
-      <c r="J28" s="428"/>
-      <c r="K28" s="429"/>
+      <c r="D28" s="450"/>
+      <c r="E28" s="446"/>
+      <c r="F28" s="446"/>
+      <c r="G28" s="446"/>
+      <c r="H28" s="451"/>
+      <c r="I28" s="455"/>
+      <c r="J28" s="450"/>
+      <c r="K28" s="451"/>
       <c r="L28" s="115" t="s">
         <v>458</v>
       </c>
@@ -20492,14 +20810,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="37"/>
-      <c r="D29" s="430"/>
-      <c r="E29" s="411"/>
-      <c r="F29" s="411"/>
-      <c r="G29" s="411"/>
-      <c r="H29" s="431"/>
-      <c r="I29" s="434"/>
-      <c r="J29" s="430"/>
-      <c r="K29" s="431"/>
+      <c r="D29" s="452"/>
+      <c r="E29" s="434"/>
+      <c r="F29" s="434"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="453"/>
+      <c r="I29" s="456"/>
+      <c r="J29" s="452"/>
+      <c r="K29" s="453"/>
       <c r="L29" s="116" t="s">
         <v>464</v>
       </c>
@@ -20547,13 +20865,13 @@
       <c r="C33" s="113">
         <v>43908</v>
       </c>
-      <c r="D33" s="388" t="s">
+      <c r="D33" s="411" t="s">
         <v>454</v>
       </c>
-      <c r="E33" s="388"/>
-      <c r="F33" s="388"/>
-      <c r="G33" s="388"/>
-      <c r="H33" s="388"/>
+      <c r="E33" s="411"/>
+      <c r="F33" s="411"/>
+      <c r="G33" s="411"/>
+      <c r="H33" s="411"/>
       <c r="I33" s="37" t="s">
         <v>455</v>
       </c>
@@ -20564,33 +20882,33 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="424">
+      <c r="C34" s="457">
         <v>43909</v>
       </c>
-      <c r="D34" s="388"/>
-      <c r="E34" s="388"/>
-      <c r="F34" s="388"/>
-      <c r="G34" s="388"/>
-      <c r="H34" s="388"/>
-      <c r="I34" s="435"/>
-      <c r="J34" s="388"/>
-      <c r="K34" s="388"/>
-      <c r="L34" s="388" t="s">
+      <c r="D34" s="411"/>
+      <c r="E34" s="411"/>
+      <c r="F34" s="411"/>
+      <c r="G34" s="411"/>
+      <c r="H34" s="411"/>
+      <c r="I34" s="458"/>
+      <c r="J34" s="411"/>
+      <c r="K34" s="411"/>
+      <c r="L34" s="411" t="s">
         <v>457</v>
       </c>
-      <c r="M34" s="388"/>
-      <c r="N34" s="388"/>
+      <c r="M34" s="411"/>
+      <c r="N34" s="411"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="424"/>
-      <c r="D35" s="388"/>
-      <c r="E35" s="388"/>
-      <c r="F35" s="388"/>
-      <c r="G35" s="388"/>
-      <c r="H35" s="388"/>
-      <c r="I35" s="436"/>
-      <c r="J35" s="388"/>
-      <c r="K35" s="388"/>
+      <c r="C35" s="457"/>
+      <c r="D35" s="411"/>
+      <c r="E35" s="411"/>
+      <c r="F35" s="411"/>
+      <c r="G35" s="411"/>
+      <c r="H35" s="411"/>
+      <c r="I35" s="459"/>
+      <c r="J35" s="411"/>
+      <c r="K35" s="411"/>
       <c r="L35" s="114" t="s">
         <v>459</v>
       </c>
@@ -20598,31 +20916,31 @@
       <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="424"/>
-      <c r="D36" s="388"/>
-      <c r="E36" s="388"/>
-      <c r="F36" s="388"/>
-      <c r="G36" s="388"/>
-      <c r="H36" s="388"/>
-      <c r="I36" s="436"/>
-      <c r="J36" s="388"/>
-      <c r="K36" s="388"/>
-      <c r="L36" s="388" t="s">
+      <c r="C36" s="457"/>
+      <c r="D36" s="411"/>
+      <c r="E36" s="411"/>
+      <c r="F36" s="411"/>
+      <c r="G36" s="411"/>
+      <c r="H36" s="411"/>
+      <c r="I36" s="459"/>
+      <c r="J36" s="411"/>
+      <c r="K36" s="411"/>
+      <c r="L36" s="411" t="s">
         <v>460</v>
       </c>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
+      <c r="M36" s="411"/>
+      <c r="N36" s="411"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="424"/>
-      <c r="D37" s="388"/>
-      <c r="E37" s="388"/>
-      <c r="F37" s="388"/>
-      <c r="G37" s="388"/>
-      <c r="H37" s="388"/>
-      <c r="I37" s="437"/>
-      <c r="J37" s="388"/>
-      <c r="K37" s="388"/>
+      <c r="C37" s="457"/>
+      <c r="D37" s="411"/>
+      <c r="E37" s="411"/>
+      <c r="F37" s="411"/>
+      <c r="G37" s="411"/>
+      <c r="H37" s="411"/>
+      <c r="I37" s="460"/>
+      <c r="J37" s="411"/>
+      <c r="K37" s="411"/>
       <c r="L37" s="115" t="s">
         <v>465</v>
       </c>
@@ -20633,13 +20951,13 @@
       <c r="C38" s="113">
         <v>43910</v>
       </c>
-      <c r="D38" s="388" t="s">
+      <c r="D38" s="411" t="s">
         <v>461</v>
       </c>
-      <c r="E38" s="388"/>
-      <c r="F38" s="388"/>
-      <c r="G38" s="388"/>
-      <c r="H38" s="388"/>
+      <c r="E38" s="411"/>
+      <c r="F38" s="411"/>
+      <c r="G38" s="411"/>
+      <c r="H38" s="411"/>
       <c r="I38" s="37" t="s">
         <v>462</v>
       </c>
@@ -20653,14 +20971,14 @@
       <c r="C39" s="113">
         <v>43911</v>
       </c>
-      <c r="D39" s="425"/>
-      <c r="E39" s="426"/>
-      <c r="F39" s="426"/>
-      <c r="G39" s="426"/>
-      <c r="H39" s="427"/>
-      <c r="I39" s="432"/>
-      <c r="J39" s="425"/>
-      <c r="K39" s="427"/>
+      <c r="D39" s="447"/>
+      <c r="E39" s="448"/>
+      <c r="F39" s="448"/>
+      <c r="G39" s="448"/>
+      <c r="H39" s="449"/>
+      <c r="I39" s="454"/>
+      <c r="J39" s="447"/>
+      <c r="K39" s="449"/>
       <c r="L39" s="114" t="s">
         <v>459</v>
       </c>
@@ -20669,30 +20987,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="37"/>
-      <c r="D40" s="428"/>
-      <c r="E40" s="419"/>
-      <c r="F40" s="419"/>
-      <c r="G40" s="419"/>
-      <c r="H40" s="429"/>
-      <c r="I40" s="433"/>
-      <c r="J40" s="428"/>
-      <c r="K40" s="429"/>
-      <c r="L40" s="388" t="s">
+      <c r="D40" s="450"/>
+      <c r="E40" s="446"/>
+      <c r="F40" s="446"/>
+      <c r="G40" s="446"/>
+      <c r="H40" s="451"/>
+      <c r="I40" s="455"/>
+      <c r="J40" s="450"/>
+      <c r="K40" s="451"/>
+      <c r="L40" s="411" t="s">
         <v>463</v>
       </c>
-      <c r="M40" s="388"/>
-      <c r="N40" s="388"/>
+      <c r="M40" s="411"/>
+      <c r="N40" s="411"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="37"/>
-      <c r="D41" s="428"/>
-      <c r="E41" s="419"/>
-      <c r="F41" s="419"/>
-      <c r="G41" s="419"/>
-      <c r="H41" s="429"/>
-      <c r="I41" s="434"/>
-      <c r="J41" s="428"/>
-      <c r="K41" s="429"/>
+      <c r="D41" s="450"/>
+      <c r="E41" s="446"/>
+      <c r="F41" s="446"/>
+      <c r="G41" s="446"/>
+      <c r="H41" s="451"/>
+      <c r="I41" s="456"/>
+      <c r="J41" s="450"/>
+      <c r="K41" s="451"/>
       <c r="L41" s="115" t="s">
         <v>465</v>
       </c>
@@ -20701,16 +21019,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="37"/>
-      <c r="D42" s="430"/>
-      <c r="E42" s="411"/>
-      <c r="F42" s="411"/>
-      <c r="G42" s="411"/>
-      <c r="H42" s="431"/>
+      <c r="D42" s="452"/>
+      <c r="E42" s="434"/>
+      <c r="F42" s="434"/>
+      <c r="G42" s="434"/>
+      <c r="H42" s="453"/>
       <c r="I42" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J42" s="430"/>
-      <c r="K42" s="431"/>
+      <c r="J42" s="452"/>
+      <c r="K42" s="453"/>
       <c r="L42" s="116" t="s">
         <v>464</v>
       </c>
@@ -21022,17 +21340,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -21040,12 +21353,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21067,29 +21385,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="448" t="s">
+      <c r="B2" s="481" t="s">
         <v>1090</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="448"/>
-      <c r="E2" s="448"/>
-      <c r="F2" s="448"/>
-      <c r="G2" s="448"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="448"/>
-      <c r="J2" s="448"/>
-      <c r="K2" s="448"/>
-      <c r="L2" s="448"/>
-      <c r="M2" s="448"/>
-      <c r="N2" s="448"/>
-      <c r="O2" s="448"/>
-      <c r="P2" s="448"/>
-      <c r="Q2" s="448"/>
-      <c r="R2" s="448"/>
-      <c r="S2" s="448"/>
-      <c r="T2" s="448"/>
-      <c r="U2" s="448"/>
-      <c r="V2" s="448"/>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="481"/>
+      <c r="I2" s="481"/>
+      <c r="J2" s="481"/>
+      <c r="K2" s="481"/>
+      <c r="L2" s="481"/>
+      <c r="M2" s="481"/>
+      <c r="N2" s="481"/>
+      <c r="O2" s="481"/>
+      <c r="P2" s="481"/>
+      <c r="Q2" s="481"/>
+      <c r="R2" s="481"/>
+      <c r="S2" s="481"/>
+      <c r="T2" s="481"/>
+      <c r="U2" s="481"/>
+      <c r="V2" s="481"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -21122,22 +21440,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="451" t="s">
+      <c r="G5" s="461" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="451"/>
-      <c r="I5" s="451" t="s">
+      <c r="H5" s="461"/>
+      <c r="I5" s="461" t="s">
         <v>517</v>
       </c>
-      <c r="J5" s="451"/>
-      <c r="K5" s="451"/>
-      <c r="L5" s="451"/>
-      <c r="M5" s="451"/>
-      <c r="N5" s="451"/>
-      <c r="O5" s="451" t="s">
+      <c r="J5" s="461"/>
+      <c r="K5" s="461"/>
+      <c r="L5" s="461"/>
+      <c r="M5" s="461"/>
+      <c r="N5" s="461"/>
+      <c r="O5" s="461" t="s">
         <v>518</v>
       </c>
-      <c r="P5" s="451"/>
+      <c r="P5" s="461"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -21149,7 +21467,7 @@
       <c r="D6" s="132"/>
       <c r="E6" s="133"/>
       <c r="F6" s="135"/>
-      <c r="G6" s="456" t="s">
+      <c r="G6" s="462" t="s">
         <v>519</v>
       </c>
       <c r="H6" s="108"/>
@@ -21178,26 +21496,26 @@
       </c>
       <c r="E7" s="135"/>
       <c r="F7" s="135"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="459" t="s">
+      <c r="G7" s="463"/>
+      <c r="H7" s="465" t="s">
         <v>521</v>
       </c>
-      <c r="I7" s="387" t="s">
+      <c r="I7" s="410" t="s">
         <v>522</v>
       </c>
-      <c r="J7" s="462"/>
-      <c r="K7" s="463" t="s">
+      <c r="J7" s="468"/>
+      <c r="K7" s="469" t="s">
         <v>523</v>
       </c>
-      <c r="L7" s="464"/>
-      <c r="M7" s="387" t="s">
+      <c r="L7" s="470"/>
+      <c r="M7" s="410" t="s">
         <v>524</v>
       </c>
-      <c r="N7" s="462"/>
-      <c r="O7" s="469" t="s">
+      <c r="N7" s="468"/>
+      <c r="O7" s="475" t="s">
         <v>525</v>
       </c>
-      <c r="P7" s="470"/>
+      <c r="P7" s="476"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -21209,16 +21527,16 @@
       <c r="D8" s="136"/>
       <c r="E8" s="137"/>
       <c r="F8" s="135"/>
-      <c r="G8" s="457"/>
-      <c r="H8" s="460"/>
-      <c r="I8" s="365"/>
-      <c r="J8" s="367"/>
-      <c r="K8" s="465"/>
-      <c r="L8" s="466"/>
-      <c r="M8" s="365"/>
-      <c r="N8" s="367"/>
-      <c r="O8" s="471"/>
-      <c r="P8" s="472"/>
+      <c r="G8" s="463"/>
+      <c r="H8" s="466"/>
+      <c r="I8" s="388"/>
+      <c r="J8" s="390"/>
+      <c r="K8" s="471"/>
+      <c r="L8" s="472"/>
+      <c r="M8" s="388"/>
+      <c r="N8" s="390"/>
+      <c r="O8" s="477"/>
+      <c r="P8" s="478"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="37" t="s">
         <v>181</v>
@@ -21236,16 +21554,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="457"/>
-      <c r="H9" s="460"/>
-      <c r="I9" s="365"/>
-      <c r="J9" s="367"/>
-      <c r="K9" s="465"/>
-      <c r="L9" s="466"/>
-      <c r="M9" s="365"/>
-      <c r="N9" s="367"/>
-      <c r="O9" s="471"/>
-      <c r="P9" s="472"/>
+      <c r="G9" s="463"/>
+      <c r="H9" s="466"/>
+      <c r="I9" s="388"/>
+      <c r="J9" s="390"/>
+      <c r="K9" s="471"/>
+      <c r="L9" s="472"/>
+      <c r="M9" s="388"/>
+      <c r="N9" s="390"/>
+      <c r="O9" s="477"/>
+      <c r="P9" s="478"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -21265,16 +21583,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="457"/>
-      <c r="H10" s="460"/>
-      <c r="I10" s="365"/>
-      <c r="J10" s="367"/>
-      <c r="K10" s="465"/>
-      <c r="L10" s="466"/>
-      <c r="M10" s="365"/>
-      <c r="N10" s="367"/>
-      <c r="O10" s="471"/>
-      <c r="P10" s="472"/>
+      <c r="G10" s="463"/>
+      <c r="H10" s="466"/>
+      <c r="I10" s="388"/>
+      <c r="J10" s="390"/>
+      <c r="K10" s="471"/>
+      <c r="L10" s="472"/>
+      <c r="M10" s="388"/>
+      <c r="N10" s="390"/>
+      <c r="O10" s="477"/>
+      <c r="P10" s="478"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -21290,16 +21608,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="457"/>
-      <c r="H11" s="460"/>
-      <c r="I11" s="365"/>
-      <c r="J11" s="367"/>
-      <c r="K11" s="465"/>
-      <c r="L11" s="466"/>
-      <c r="M11" s="365"/>
-      <c r="N11" s="367"/>
-      <c r="O11" s="471"/>
-      <c r="P11" s="472"/>
+      <c r="G11" s="463"/>
+      <c r="H11" s="466"/>
+      <c r="I11" s="388"/>
+      <c r="J11" s="390"/>
+      <c r="K11" s="471"/>
+      <c r="L11" s="472"/>
+      <c r="M11" s="388"/>
+      <c r="N11" s="390"/>
+      <c r="O11" s="477"/>
+      <c r="P11" s="478"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -21317,16 +21635,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="457"/>
-      <c r="H12" s="460"/>
-      <c r="I12" s="365"/>
-      <c r="J12" s="367"/>
-      <c r="K12" s="465"/>
-      <c r="L12" s="466"/>
-      <c r="M12" s="365"/>
-      <c r="N12" s="367"/>
-      <c r="O12" s="471"/>
-      <c r="P12" s="472"/>
+      <c r="G12" s="463"/>
+      <c r="H12" s="466"/>
+      <c r="I12" s="388"/>
+      <c r="J12" s="390"/>
+      <c r="K12" s="471"/>
+      <c r="L12" s="472"/>
+      <c r="M12" s="388"/>
+      <c r="N12" s="390"/>
+      <c r="O12" s="477"/>
+      <c r="P12" s="478"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -21340,16 +21658,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="457"/>
-      <c r="H13" s="460"/>
-      <c r="I13" s="365"/>
-      <c r="J13" s="367"/>
-      <c r="K13" s="465"/>
-      <c r="L13" s="466"/>
-      <c r="M13" s="365"/>
-      <c r="N13" s="367"/>
-      <c r="O13" s="471"/>
-      <c r="P13" s="472"/>
+      <c r="G13" s="463"/>
+      <c r="H13" s="466"/>
+      <c r="I13" s="388"/>
+      <c r="J13" s="390"/>
+      <c r="K13" s="471"/>
+      <c r="L13" s="472"/>
+      <c r="M13" s="388"/>
+      <c r="N13" s="390"/>
+      <c r="O13" s="477"/>
+      <c r="P13" s="478"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -21361,16 +21679,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="457"/>
-      <c r="H14" s="460"/>
-      <c r="I14" s="365"/>
-      <c r="J14" s="367"/>
-      <c r="K14" s="465"/>
-      <c r="L14" s="466"/>
-      <c r="M14" s="365"/>
-      <c r="N14" s="367"/>
-      <c r="O14" s="471"/>
-      <c r="P14" s="472"/>
+      <c r="G14" s="463"/>
+      <c r="H14" s="466"/>
+      <c r="I14" s="388"/>
+      <c r="J14" s="390"/>
+      <c r="K14" s="471"/>
+      <c r="L14" s="472"/>
+      <c r="M14" s="388"/>
+      <c r="N14" s="390"/>
+      <c r="O14" s="477"/>
+      <c r="P14" s="478"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -21384,16 +21702,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="457"/>
-      <c r="H15" s="460"/>
-      <c r="I15" s="365"/>
-      <c r="J15" s="367"/>
-      <c r="K15" s="465"/>
-      <c r="L15" s="466"/>
-      <c r="M15" s="365"/>
-      <c r="N15" s="367"/>
-      <c r="O15" s="471"/>
-      <c r="P15" s="472"/>
+      <c r="G15" s="463"/>
+      <c r="H15" s="466"/>
+      <c r="I15" s="388"/>
+      <c r="J15" s="390"/>
+      <c r="K15" s="471"/>
+      <c r="L15" s="472"/>
+      <c r="M15" s="388"/>
+      <c r="N15" s="390"/>
+      <c r="O15" s="477"/>
+      <c r="P15" s="478"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -21405,16 +21723,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="457"/>
-      <c r="H16" s="460"/>
-      <c r="I16" s="365"/>
-      <c r="J16" s="367"/>
-      <c r="K16" s="465"/>
-      <c r="L16" s="466"/>
-      <c r="M16" s="365"/>
-      <c r="N16" s="367"/>
-      <c r="O16" s="471"/>
-      <c r="P16" s="472"/>
+      <c r="G16" s="463"/>
+      <c r="H16" s="466"/>
+      <c r="I16" s="388"/>
+      <c r="J16" s="390"/>
+      <c r="K16" s="471"/>
+      <c r="L16" s="472"/>
+      <c r="M16" s="388"/>
+      <c r="N16" s="390"/>
+      <c r="O16" s="477"/>
+      <c r="P16" s="478"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -21426,16 +21744,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="457"/>
-      <c r="H17" s="460"/>
-      <c r="I17" s="365"/>
-      <c r="J17" s="367"/>
-      <c r="K17" s="465"/>
-      <c r="L17" s="466"/>
-      <c r="M17" s="365"/>
-      <c r="N17" s="367"/>
-      <c r="O17" s="471"/>
-      <c r="P17" s="472"/>
+      <c r="G17" s="463"/>
+      <c r="H17" s="466"/>
+      <c r="I17" s="388"/>
+      <c r="J17" s="390"/>
+      <c r="K17" s="471"/>
+      <c r="L17" s="472"/>
+      <c r="M17" s="388"/>
+      <c r="N17" s="390"/>
+      <c r="O17" s="477"/>
+      <c r="P17" s="478"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -21447,16 +21765,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="457"/>
-      <c r="H18" s="460"/>
-      <c r="I18" s="365"/>
-      <c r="J18" s="367"/>
-      <c r="K18" s="465"/>
-      <c r="L18" s="466"/>
-      <c r="M18" s="365"/>
-      <c r="N18" s="367"/>
-      <c r="O18" s="471"/>
-      <c r="P18" s="472"/>
+      <c r="G18" s="463"/>
+      <c r="H18" s="466"/>
+      <c r="I18" s="388"/>
+      <c r="J18" s="390"/>
+      <c r="K18" s="471"/>
+      <c r="L18" s="472"/>
+      <c r="M18" s="388"/>
+      <c r="N18" s="390"/>
+      <c r="O18" s="477"/>
+      <c r="P18" s="478"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -21470,16 +21788,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="457"/>
-      <c r="H19" s="460"/>
-      <c r="I19" s="365"/>
-      <c r="J19" s="367"/>
-      <c r="K19" s="465"/>
-      <c r="L19" s="466"/>
-      <c r="M19" s="365"/>
-      <c r="N19" s="367"/>
-      <c r="O19" s="471"/>
-      <c r="P19" s="472"/>
+      <c r="G19" s="463"/>
+      <c r="H19" s="466"/>
+      <c r="I19" s="388"/>
+      <c r="J19" s="390"/>
+      <c r="K19" s="471"/>
+      <c r="L19" s="472"/>
+      <c r="M19" s="388"/>
+      <c r="N19" s="390"/>
+      <c r="O19" s="477"/>
+      <c r="P19" s="478"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -21491,16 +21809,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="458"/>
-      <c r="H20" s="461"/>
-      <c r="I20" s="379"/>
-      <c r="J20" s="381"/>
-      <c r="K20" s="467"/>
-      <c r="L20" s="468"/>
-      <c r="M20" s="379"/>
-      <c r="N20" s="381"/>
-      <c r="O20" s="473"/>
-      <c r="P20" s="474"/>
+      <c r="G20" s="464"/>
+      <c r="H20" s="467"/>
+      <c r="I20" s="402"/>
+      <c r="J20" s="404"/>
+      <c r="K20" s="473"/>
+      <c r="L20" s="474"/>
+      <c r="M20" s="402"/>
+      <c r="N20" s="404"/>
+      <c r="O20" s="479"/>
+      <c r="P20" s="480"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -21530,27 +21848,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="382" t="s">
+      <c r="D22" s="405" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="383"/>
+      <c r="E22" s="406"/>
       <c r="F22" s="264"/>
       <c r="G22" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="382" t="s">
+      <c r="H22" s="405" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="384"/>
-      <c r="J22" s="384"/>
-      <c r="K22" s="384"/>
-      <c r="L22" s="384"/>
-      <c r="M22" s="384"/>
-      <c r="N22" s="383"/>
-      <c r="O22" s="382" t="s">
+      <c r="I22" s="407"/>
+      <c r="J22" s="407"/>
+      <c r="K22" s="407"/>
+      <c r="L22" s="407"/>
+      <c r="M22" s="407"/>
+      <c r="N22" s="406"/>
+      <c r="O22" s="405" t="s">
         <v>526</v>
       </c>
-      <c r="P22" s="383"/>
+      <c r="P22" s="406"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -21581,59 +21899,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="448" t="s">
+      <c r="B25" s="481" t="s">
         <v>1089</v>
       </c>
-      <c r="C25" s="448"/>
-      <c r="D25" s="448"/>
-      <c r="E25" s="448"/>
-      <c r="F25" s="448"/>
-      <c r="G25" s="448"/>
-      <c r="H25" s="448"/>
-      <c r="I25" s="448"/>
-      <c r="J25" s="448"/>
-      <c r="K25" s="448"/>
-      <c r="L25" s="448"/>
-      <c r="M25" s="448"/>
-      <c r="N25" s="448"/>
-      <c r="O25" s="448"/>
-      <c r="P25" s="448"/>
-      <c r="Q25" s="448"/>
-      <c r="R25" s="448"/>
-      <c r="S25" s="448"/>
-      <c r="T25" s="448"/>
-      <c r="U25" s="448"/>
-      <c r="V25" s="448"/>
+      <c r="C25" s="481"/>
+      <c r="D25" s="481"/>
+      <c r="E25" s="481"/>
+      <c r="F25" s="481"/>
+      <c r="G25" s="481"/>
+      <c r="H25" s="481"/>
+      <c r="I25" s="481"/>
+      <c r="J25" s="481"/>
+      <c r="K25" s="481"/>
+      <c r="L25" s="481"/>
+      <c r="M25" s="481"/>
+      <c r="N25" s="481"/>
+      <c r="O25" s="481"/>
+      <c r="P25" s="481"/>
+      <c r="Q25" s="481"/>
+      <c r="R25" s="481"/>
+      <c r="S25" s="481"/>
+      <c r="T25" s="481"/>
+      <c r="U25" s="481"/>
+      <c r="V25" s="481"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="449" t="s">
+      <c r="C26" s="482" t="s">
         <v>568</v>
       </c>
-      <c r="D26" s="449"/>
-      <c r="E26" s="449"/>
-      <c r="F26" s="449"/>
-      <c r="G26" s="449"/>
-      <c r="H26" s="449"/>
-      <c r="I26" s="449"/>
-      <c r="J26" s="449"/>
-      <c r="K26" s="449"/>
-      <c r="L26" s="449"/>
-      <c r="M26" s="449"/>
+      <c r="D26" s="482"/>
+      <c r="E26" s="482"/>
+      <c r="F26" s="482"/>
+      <c r="G26" s="482"/>
+      <c r="H26" s="482"/>
+      <c r="I26" s="482"/>
+      <c r="J26" s="482"/>
+      <c r="K26" s="482"/>
+      <c r="L26" s="482"/>
+      <c r="M26" s="482"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="420" t="s">
+      <c r="E27" s="436" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="359"/>
-      <c r="G27" s="359"/>
-      <c r="H27" s="372"/>
-      <c r="I27" s="372"/>
-      <c r="J27" s="372"/>
-      <c r="K27" s="372"/>
-      <c r="L27" s="372"/>
-      <c r="M27" s="373"/>
+      <c r="F27" s="382"/>
+      <c r="G27" s="382"/>
+      <c r="H27" s="395"/>
+      <c r="I27" s="395"/>
+      <c r="J27" s="395"/>
+      <c r="K27" s="395"/>
+      <c r="L27" s="395"/>
+      <c r="M27" s="396"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -21666,11 +21984,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="450" t="s">
+      <c r="O29" s="483" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="450"/>
-      <c r="Q29" s="450"/>
+      <c r="P29" s="483"/>
+      <c r="Q29" s="483"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -21715,21 +22033,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="445" t="s">
+      <c r="E32" s="487" t="s">
         <v>1093</v>
       </c>
-      <c r="F32" s="446"/>
-      <c r="G32" s="447"/>
-      <c r="H32" s="445" t="s">
+      <c r="F32" s="488"/>
+      <c r="G32" s="489"/>
+      <c r="H32" s="487" t="s">
         <v>1094</v>
       </c>
-      <c r="I32" s="446"/>
-      <c r="J32" s="447"/>
-      <c r="K32" s="445" t="s">
+      <c r="I32" s="488"/>
+      <c r="J32" s="489"/>
+      <c r="K32" s="487" t="s">
         <v>1095</v>
       </c>
-      <c r="L32" s="446"/>
-      <c r="M32" s="447"/>
+      <c r="L32" s="488"/>
+      <c r="M32" s="489"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -21746,15 +22064,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="445"/>
-      <c r="F33" s="446"/>
-      <c r="G33" s="447"/>
-      <c r="H33" s="445"/>
-      <c r="I33" s="446"/>
-      <c r="J33" s="447"/>
-      <c r="K33" s="445"/>
-      <c r="L33" s="446"/>
-      <c r="M33" s="447"/>
+      <c r="E33" s="487"/>
+      <c r="F33" s="488"/>
+      <c r="G33" s="489"/>
+      <c r="H33" s="487"/>
+      <c r="I33" s="488"/>
+      <c r="J33" s="489"/>
+      <c r="K33" s="487"/>
+      <c r="L33" s="488"/>
+      <c r="M33" s="489"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -21771,15 +22089,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="445"/>
-      <c r="F34" s="446"/>
-      <c r="G34" s="447"/>
-      <c r="H34" s="445"/>
-      <c r="I34" s="446"/>
-      <c r="J34" s="447"/>
-      <c r="K34" s="445"/>
-      <c r="L34" s="446"/>
-      <c r="M34" s="447"/>
+      <c r="E34" s="487"/>
+      <c r="F34" s="488"/>
+      <c r="G34" s="489"/>
+      <c r="H34" s="487"/>
+      <c r="I34" s="488"/>
+      <c r="J34" s="489"/>
+      <c r="K34" s="487"/>
+      <c r="L34" s="488"/>
+      <c r="M34" s="489"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -21790,15 +22108,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="445"/>
-      <c r="F35" s="446"/>
-      <c r="G35" s="447"/>
-      <c r="H35" s="445"/>
-      <c r="I35" s="446"/>
-      <c r="J35" s="447"/>
-      <c r="K35" s="445"/>
-      <c r="L35" s="446"/>
-      <c r="M35" s="447"/>
+      <c r="E35" s="487"/>
+      <c r="F35" s="488"/>
+      <c r="G35" s="489"/>
+      <c r="H35" s="487"/>
+      <c r="I35" s="488"/>
+      <c r="J35" s="489"/>
+      <c r="K35" s="487"/>
+      <c r="L35" s="488"/>
+      <c r="M35" s="489"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -21929,15 +22247,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="438"/>
-      <c r="F42" s="439"/>
-      <c r="G42" s="439"/>
-      <c r="H42" s="439"/>
-      <c r="I42" s="439"/>
-      <c r="J42" s="439"/>
-      <c r="K42" s="439"/>
-      <c r="L42" s="439"/>
-      <c r="M42" s="440"/>
+      <c r="E42" s="491"/>
+      <c r="F42" s="492"/>
+      <c r="G42" s="492"/>
+      <c r="H42" s="492"/>
+      <c r="I42" s="492"/>
+      <c r="J42" s="492"/>
+      <c r="K42" s="492"/>
+      <c r="L42" s="492"/>
+      <c r="M42" s="493"/>
       <c r="N42" s="39" t="s">
         <v>573</v>
       </c>
@@ -21956,83 +22274,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="382" t="s">
+      <c r="C44" s="405" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="383"/>
-      <c r="E44" s="382" t="s">
+      <c r="D44" s="406"/>
+      <c r="E44" s="405" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="384"/>
-      <c r="G44" s="383"/>
-      <c r="H44" s="382" t="s">
+      <c r="F44" s="407"/>
+      <c r="G44" s="406"/>
+      <c r="H44" s="405" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="384"/>
-      <c r="J44" s="384"/>
-      <c r="K44" s="384"/>
-      <c r="L44" s="384"/>
-      <c r="M44" s="383"/>
+      <c r="I44" s="407"/>
+      <c r="J44" s="407"/>
+      <c r="K44" s="407"/>
+      <c r="L44" s="407"/>
+      <c r="M44" s="406"/>
       <c r="Q44" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="448" t="s">
+      <c r="B47" s="481" t="s">
         <v>1091</v>
       </c>
-      <c r="C47" s="448"/>
-      <c r="D47" s="448"/>
-      <c r="E47" s="448"/>
-      <c r="F47" s="448"/>
-      <c r="G47" s="448"/>
-      <c r="H47" s="448"/>
-      <c r="I47" s="448"/>
-      <c r="J47" s="448"/>
-      <c r="K47" s="448"/>
-      <c r="L47" s="448"/>
-      <c r="M47" s="448"/>
-      <c r="N47" s="448"/>
-      <c r="O47" s="448"/>
-      <c r="P47" s="448"/>
-      <c r="Q47" s="448"/>
-      <c r="R47" s="448"/>
-      <c r="S47" s="448"/>
-      <c r="T47" s="448"/>
-      <c r="U47" s="448"/>
-      <c r="V47" s="448"/>
+      <c r="C47" s="481"/>
+      <c r="D47" s="481"/>
+      <c r="E47" s="481"/>
+      <c r="F47" s="481"/>
+      <c r="G47" s="481"/>
+      <c r="H47" s="481"/>
+      <c r="I47" s="481"/>
+      <c r="J47" s="481"/>
+      <c r="K47" s="481"/>
+      <c r="L47" s="481"/>
+      <c r="M47" s="481"/>
+      <c r="N47" s="481"/>
+      <c r="O47" s="481"/>
+      <c r="P47" s="481"/>
+      <c r="Q47" s="481"/>
+      <c r="R47" s="481"/>
+      <c r="S47" s="481"/>
+      <c r="T47" s="481"/>
+      <c r="U47" s="481"/>
+      <c r="V47" s="481"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="449" t="s">
+      <c r="C48" s="482" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="449"/>
-      <c r="E48" s="449"/>
-      <c r="F48" s="449"/>
-      <c r="G48" s="449"/>
-      <c r="H48" s="449"/>
-      <c r="I48" s="449"/>
-      <c r="J48" s="449"/>
-      <c r="K48" s="449"/>
-      <c r="L48" s="449"/>
-      <c r="M48" s="449"/>
+      <c r="D48" s="482"/>
+      <c r="E48" s="482"/>
+      <c r="F48" s="482"/>
+      <c r="G48" s="482"/>
+      <c r="H48" s="482"/>
+      <c r="I48" s="482"/>
+      <c r="J48" s="482"/>
+      <c r="K48" s="482"/>
+      <c r="L48" s="482"/>
+      <c r="M48" s="482"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="420" t="s">
+      <c r="E49" s="436" t="s">
         <v>177</v>
       </c>
-      <c r="F49" s="359"/>
-      <c r="G49" s="359"/>
-      <c r="H49" s="372"/>
-      <c r="I49" s="372"/>
-      <c r="J49" s="372"/>
-      <c r="K49" s="372"/>
-      <c r="L49" s="372"/>
-      <c r="M49" s="373"/>
+      <c r="F49" s="382"/>
+      <c r="G49" s="382"/>
+      <c r="H49" s="395"/>
+      <c r="I49" s="395"/>
+      <c r="J49" s="395"/>
+      <c r="K49" s="395"/>
+      <c r="L49" s="395"/>
+      <c r="M49" s="396"/>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="17"/>
@@ -22050,16 +22368,16 @@
       </c>
       <c r="F50" s="119"/>
       <c r="G50" s="244"/>
-      <c r="H50" s="452" t="s">
+      <c r="H50" s="484" t="s">
         <v>1094</v>
       </c>
-      <c r="I50" s="453"/>
-      <c r="J50" s="454"/>
-      <c r="K50" s="452" t="s">
+      <c r="I50" s="485"/>
+      <c r="J50" s="486"/>
+      <c r="K50" s="484" t="s">
         <v>1095</v>
       </c>
-      <c r="L50" s="453"/>
-      <c r="M50" s="454"/>
+      <c r="L50" s="485"/>
+      <c r="M50" s="486"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="W50" t="s">
@@ -22073,20 +22391,20 @@
         <v>1109</v>
       </c>
       <c r="F51" s="285"/>
-      <c r="G51" s="455" t="s">
+      <c r="G51" s="490" t="s">
         <v>1117</v>
       </c>
-      <c r="H51" s="445"/>
-      <c r="I51" s="446"/>
-      <c r="J51" s="447"/>
-      <c r="K51" s="445"/>
-      <c r="L51" s="446"/>
-      <c r="M51" s="447"/>
-      <c r="O51" s="450" t="s">
+      <c r="H51" s="487"/>
+      <c r="I51" s="488"/>
+      <c r="J51" s="489"/>
+      <c r="K51" s="487"/>
+      <c r="L51" s="488"/>
+      <c r="M51" s="489"/>
+      <c r="O51" s="483" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="450"/>
-      <c r="Q51" s="450"/>
+      <c r="P51" s="483"/>
+      <c r="Q51" s="483"/>
       <c r="S51" s="272"/>
       <c r="T51" s="272"/>
       <c r="W51" s="39" t="s">
@@ -22100,13 +22418,13 @@
         <v>1110</v>
       </c>
       <c r="F52" s="286"/>
-      <c r="G52" s="455"/>
-      <c r="H52" s="445"/>
-      <c r="I52" s="446"/>
-      <c r="J52" s="447"/>
-      <c r="K52" s="445"/>
-      <c r="L52" s="446"/>
-      <c r="M52" s="447"/>
+      <c r="G52" s="490"/>
+      <c r="H52" s="487"/>
+      <c r="I52" s="488"/>
+      <c r="J52" s="489"/>
+      <c r="K52" s="487"/>
+      <c r="L52" s="488"/>
+      <c r="M52" s="489"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
     </row>
@@ -22117,13 +22435,13 @@
         <v>1111</v>
       </c>
       <c r="F53" s="287"/>
-      <c r="G53" s="455"/>
-      <c r="H53" s="445"/>
-      <c r="I53" s="446"/>
-      <c r="J53" s="447"/>
-      <c r="K53" s="445"/>
-      <c r="L53" s="446"/>
-      <c r="M53" s="447"/>
+      <c r="G53" s="490"/>
+      <c r="H53" s="487"/>
+      <c r="I53" s="488"/>
+      <c r="J53" s="489"/>
+      <c r="K53" s="487"/>
+      <c r="L53" s="488"/>
+      <c r="M53" s="489"/>
       <c r="N53" s="5"/>
       <c r="O53" s="37" t="s">
         <v>181</v>
@@ -22162,7 +22480,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="273"/>
       <c r="F54" s="288"/>
-      <c r="G54" s="443" t="s">
+      <c r="G54" s="496" t="s">
         <v>1121</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22209,11 +22527,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="441" t="s">
+      <c r="E55" s="494" t="s">
         <v>1122</v>
       </c>
-      <c r="F55" s="442"/>
-      <c r="G55" s="444"/>
+      <c r="F55" s="495"/>
+      <c r="G55" s="497"/>
       <c r="H55" s="138" t="s">
         <v>1113</v>
       </c>
@@ -22257,9 +22575,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="441"/>
-      <c r="F56" s="442"/>
-      <c r="G56" s="444"/>
+      <c r="E56" s="494"/>
+      <c r="F56" s="495"/>
+      <c r="G56" s="497"/>
       <c r="H56" s="138" t="s">
         <v>1114</v>
       </c>
@@ -22289,9 +22607,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="441"/>
-      <c r="F57" s="442"/>
-      <c r="G57" s="444"/>
+      <c r="E57" s="494"/>
+      <c r="F57" s="495"/>
+      <c r="G57" s="497"/>
       <c r="H57" s="4" t="s">
         <v>1126</v>
       </c>
@@ -22321,9 +22639,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="441"/>
-      <c r="F58" s="442"/>
-      <c r="G58" s="444"/>
+      <c r="E58" s="494"/>
+      <c r="F58" s="495"/>
+      <c r="G58" s="497"/>
       <c r="H58" s="277" t="s">
         <v>1112</v>
       </c>
@@ -22348,9 +22666,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="441"/>
-      <c r="F59" s="442"/>
-      <c r="G59" s="444"/>
+      <c r="E59" s="494"/>
+      <c r="F59" s="495"/>
+      <c r="G59" s="497"/>
       <c r="H59" s="277" t="s">
         <v>547</v>
       </c>
@@ -22375,9 +22693,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="441"/>
-      <c r="F60" s="442"/>
-      <c r="G60" s="444"/>
+      <c r="E60" s="494"/>
+      <c r="F60" s="495"/>
+      <c r="G60" s="497"/>
       <c r="H60" s="279"/>
       <c r="I60" s="280" t="s">
         <v>1128</v>
@@ -22397,9 +22715,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="441"/>
-      <c r="F61" s="442"/>
-      <c r="G61" s="444"/>
+      <c r="E61" s="494"/>
+      <c r="F61" s="495"/>
+      <c r="G61" s="497"/>
       <c r="H61" s="279"/>
       <c r="I61" s="280" t="s">
         <v>1129</v>
@@ -22419,7 +22737,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="268"/>
       <c r="F62" s="284"/>
-      <c r="G62" s="444"/>
+      <c r="G62" s="497"/>
       <c r="H62" s="281"/>
       <c r="I62" s="283" t="s">
         <v>1130</v>
@@ -22461,15 +22779,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="438"/>
-      <c r="F64" s="439"/>
-      <c r="G64" s="439"/>
-      <c r="H64" s="439"/>
-      <c r="I64" s="439"/>
-      <c r="J64" s="439"/>
-      <c r="K64" s="439"/>
-      <c r="L64" s="439"/>
-      <c r="M64" s="440"/>
+      <c r="E64" s="491"/>
+      <c r="F64" s="492"/>
+      <c r="G64" s="492"/>
+      <c r="H64" s="492"/>
+      <c r="I64" s="492"/>
+      <c r="J64" s="492"/>
+      <c r="K64" s="492"/>
+      <c r="L64" s="492"/>
+      <c r="M64" s="493"/>
       <c r="N64" s="39" t="s">
         <v>573</v>
       </c>
@@ -22498,23 +22816,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="382" t="s">
+      <c r="C66" s="405" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="383"/>
-      <c r="E66" s="382" t="s">
+      <c r="D66" s="406"/>
+      <c r="E66" s="405" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="384"/>
-      <c r="G66" s="383"/>
-      <c r="H66" s="382" t="s">
+      <c r="F66" s="407"/>
+      <c r="G66" s="406"/>
+      <c r="H66" s="405" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="384"/>
-      <c r="J66" s="384"/>
-      <c r="K66" s="384"/>
-      <c r="L66" s="384"/>
-      <c r="M66" s="383"/>
+      <c r="I66" s="407"/>
+      <c r="J66" s="407"/>
+      <c r="K66" s="407"/>
+      <c r="L66" s="407"/>
+      <c r="M66" s="406"/>
       <c r="Q66" t="s">
         <v>1092</v>
       </c>
@@ -22535,23 +22853,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="388" t="s">
+      <c r="C68" s="411" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="388"/>
-      <c r="E68" s="388" t="s">
+      <c r="D68" s="411"/>
+      <c r="E68" s="411" t="s">
         <v>1377</v>
       </c>
-      <c r="F68" s="388"/>
-      <c r="G68" s="388"/>
-      <c r="H68" s="388" t="s">
+      <c r="F68" s="411"/>
+      <c r="G68" s="411"/>
+      <c r="H68" s="411" t="s">
         <v>1393</v>
       </c>
-      <c r="I68" s="388"/>
-      <c r="J68" s="388"/>
-      <c r="K68" s="388"/>
-      <c r="L68" s="388"/>
-      <c r="M68" s="388"/>
+      <c r="I68" s="411"/>
+      <c r="J68" s="411"/>
+      <c r="K68" s="411"/>
+      <c r="L68" s="411"/>
+      <c r="M68" s="411"/>
       <c r="S68" s="23"/>
       <c r="T68" s="23"/>
       <c r="U68" s="2" t="s">
@@ -23348,6 +23666,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -23364,30 +23706,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -23421,12 +23739,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="475" t="s">
+      <c r="B1" s="498" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="475"/>
-      <c r="D1" s="475"/>
-      <c r="E1" s="475"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="498"/>
       <c r="I1" s="39" t="s">
         <v>549</v>
       </c>
@@ -23543,12 +23861,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="419" t="s">
+      <c r="B8" s="446" t="s">
         <v>1415</v>
       </c>
-      <c r="C8" s="419"/>
-      <c r="D8" s="419"/>
-      <c r="E8" s="419"/>
+      <c r="C8" s="446"/>
+      <c r="D8" s="446"/>
+      <c r="E8" s="446"/>
       <c r="J8" s="31" t="s">
         <v>552</v>
       </c>
@@ -23721,32 +24039,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="449" t="s">
+      <c r="C2" s="482" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="449"/>
-      <c r="E2" s="449"/>
-      <c r="F2" s="449"/>
-      <c r="G2" s="449"/>
-      <c r="H2" s="449"/>
-      <c r="I2" s="449"/>
-      <c r="J2" s="449"/>
-      <c r="K2" s="449"/>
-      <c r="L2" s="449"/>
+      <c r="D2" s="482"/>
+      <c r="E2" s="482"/>
+      <c r="F2" s="482"/>
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
+      <c r="K2" s="482"/>
+      <c r="L2" s="482"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="420" t="s">
+      <c r="E3" s="436" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="359"/>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
-      <c r="I3" s="372"/>
-      <c r="J3" s="372"/>
-      <c r="K3" s="372"/>
-      <c r="L3" s="373"/>
+      <c r="F3" s="382"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="396"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -23777,11 +24095,11 @@
         <v>587</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="450" t="s">
+      <c r="N5" s="483" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="450"/>
-      <c r="P5" s="450"/>
+      <c r="O5" s="483"/>
+      <c r="P5" s="483"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -23832,20 +24150,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="445" t="s">
+      <c r="E8" s="487" t="s">
         <v>569</v>
       </c>
-      <c r="F8" s="447"/>
-      <c r="G8" s="445" t="s">
+      <c r="F8" s="489"/>
+      <c r="G8" s="487" t="s">
         <v>570</v>
       </c>
-      <c r="H8" s="446"/>
-      <c r="I8" s="447"/>
-      <c r="J8" s="445" t="s">
+      <c r="H8" s="488"/>
+      <c r="I8" s="489"/>
+      <c r="J8" s="487" t="s">
         <v>571</v>
       </c>
-      <c r="K8" s="446"/>
-      <c r="L8" s="447"/>
+      <c r="K8" s="488"/>
+      <c r="L8" s="489"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -23868,14 +24186,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="445"/>
-      <c r="F9" s="447"/>
-      <c r="G9" s="445"/>
-      <c r="H9" s="446"/>
-      <c r="I9" s="447"/>
-      <c r="J9" s="445"/>
-      <c r="K9" s="446"/>
-      <c r="L9" s="447"/>
+      <c r="E9" s="487"/>
+      <c r="F9" s="489"/>
+      <c r="G9" s="487"/>
+      <c r="H9" s="488"/>
+      <c r="I9" s="489"/>
+      <c r="J9" s="487"/>
+      <c r="K9" s="488"/>
+      <c r="L9" s="489"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -23895,14 +24213,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="445"/>
-      <c r="F10" s="447"/>
-      <c r="G10" s="445"/>
-      <c r="H10" s="446"/>
-      <c r="I10" s="447"/>
-      <c r="J10" s="445"/>
-      <c r="K10" s="446"/>
-      <c r="L10" s="447"/>
+      <c r="E10" s="487"/>
+      <c r="F10" s="489"/>
+      <c r="G10" s="487"/>
+      <c r="H10" s="488"/>
+      <c r="I10" s="489"/>
+      <c r="J10" s="487"/>
+      <c r="K10" s="488"/>
+      <c r="L10" s="489"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -23916,14 +24234,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="445"/>
-      <c r="F11" s="447"/>
-      <c r="G11" s="445"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="447"/>
-      <c r="J11" s="445"/>
-      <c r="K11" s="446"/>
-      <c r="L11" s="447"/>
+      <c r="E11" s="487"/>
+      <c r="F11" s="489"/>
+      <c r="G11" s="487"/>
+      <c r="H11" s="488"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="487"/>
+      <c r="K11" s="488"/>
+      <c r="L11" s="489"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -24026,16 +24344,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="438" t="s">
+      <c r="E17" s="491" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="439"/>
-      <c r="G17" s="439"/>
-      <c r="H17" s="439"/>
-      <c r="I17" s="439"/>
-      <c r="J17" s="439"/>
-      <c r="K17" s="439"/>
-      <c r="L17" s="440"/>
+      <c r="F17" s="492"/>
+      <c r="G17" s="492"/>
+      <c r="H17" s="492"/>
+      <c r="I17" s="492"/>
+      <c r="J17" s="492"/>
+      <c r="K17" s="492"/>
+      <c r="L17" s="493"/>
       <c r="M17" s="39" t="s">
         <v>573</v>
       </c>
@@ -24053,40 +24371,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="382" t="s">
+      <c r="C19" s="405" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="383"/>
-      <c r="E19" s="382" t="s">
+      <c r="D19" s="406"/>
+      <c r="E19" s="405" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="383"/>
-      <c r="G19" s="382" t="s">
+      <c r="F19" s="406"/>
+      <c r="G19" s="405" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="384"/>
-      <c r="I19" s="384"/>
-      <c r="J19" s="384"/>
-      <c r="K19" s="384"/>
-      <c r="L19" s="383"/>
+      <c r="H19" s="407"/>
+      <c r="I19" s="407"/>
+      <c r="J19" s="407"/>
+      <c r="K19" s="407"/>
+      <c r="L19" s="406"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="476" t="s">
+      <c r="E21" s="499" t="s">
         <v>1406</v>
       </c>
-      <c r="F21" s="477"/>
+      <c r="F21" s="500"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="478"/>
-      <c r="F22" s="479"/>
+      <c r="E22" s="501"/>
+      <c r="F22" s="502"/>
       <c r="J22" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="478"/>
-      <c r="F23" s="479"/>
+      <c r="E23" s="501"/>
+      <c r="F23" s="502"/>
       <c r="H23" t="s">
         <v>1427</v>
       </c>
@@ -24098,8 +24416,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="480"/>
-      <c r="F24" s="481"/>
+      <c r="E24" s="503"/>
+      <c r="F24" s="504"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24554,22 +24872,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="451" t="s">
+      <c r="E3" s="461" t="s">
         <v>516</v>
       </c>
-      <c r="F3" s="451"/>
-      <c r="G3" s="451" t="s">
+      <c r="F3" s="461"/>
+      <c r="G3" s="461" t="s">
         <v>517</v>
       </c>
-      <c r="H3" s="451"/>
-      <c r="I3" s="451"/>
-      <c r="J3" s="451"/>
-      <c r="K3" s="451"/>
-      <c r="L3" s="451"/>
-      <c r="M3" s="451" t="s">
+      <c r="H3" s="461"/>
+      <c r="I3" s="461"/>
+      <c r="J3" s="461"/>
+      <c r="K3" s="461"/>
+      <c r="L3" s="461"/>
+      <c r="M3" s="461" t="s">
         <v>518</v>
       </c>
-      <c r="N3" s="451"/>
+      <c r="N3" s="461"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -24580,7 +24898,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="132"/>
       <c r="D4" s="133"/>
-      <c r="E4" s="456" t="s">
+      <c r="E4" s="462" t="s">
         <v>519</v>
       </c>
       <c r="F4" s="128"/>
@@ -24608,22 +24926,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="135"/>
-      <c r="E5" s="457"/>
-      <c r="F5" s="398" t="s">
+      <c r="E5" s="463"/>
+      <c r="F5" s="421" t="s">
         <v>615</v>
       </c>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="482" t="s">
+      <c r="G5" s="422"/>
+      <c r="H5" s="423"/>
+      <c r="I5" s="534" t="s">
         <v>616</v>
       </c>
-      <c r="J5" s="483"/>
-      <c r="K5" s="483"/>
-      <c r="L5" s="464"/>
-      <c r="M5" s="482" t="s">
+      <c r="J5" s="535"/>
+      <c r="K5" s="535"/>
+      <c r="L5" s="470"/>
+      <c r="M5" s="534" t="s">
         <v>617</v>
       </c>
-      <c r="N5" s="464"/>
+      <c r="N5" s="470"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -24634,16 +24952,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="136"/>
       <c r="D6" s="137"/>
-      <c r="E6" s="457"/>
-      <c r="F6" s="401"/>
-      <c r="G6" s="402"/>
-      <c r="H6" s="403"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="484"/>
-      <c r="K6" s="484"/>
-      <c r="L6" s="466"/>
-      <c r="M6" s="465"/>
-      <c r="N6" s="466"/>
+      <c r="E6" s="463"/>
+      <c r="F6" s="424"/>
+      <c r="G6" s="425"/>
+      <c r="H6" s="426"/>
+      <c r="I6" s="471"/>
+      <c r="J6" s="536"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="472"/>
+      <c r="M6" s="471"/>
+      <c r="N6" s="472"/>
       <c r="O6" s="5"/>
       <c r="P6" s="37" t="s">
         <v>181</v>
@@ -24660,16 +24978,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="457"/>
-      <c r="F7" s="401"/>
-      <c r="G7" s="402"/>
-      <c r="H7" s="403"/>
-      <c r="I7" s="465"/>
-      <c r="J7" s="484"/>
-      <c r="K7" s="484"/>
-      <c r="L7" s="466"/>
-      <c r="M7" s="465"/>
-      <c r="N7" s="466"/>
+      <c r="E7" s="463"/>
+      <c r="F7" s="424"/>
+      <c r="G7" s="425"/>
+      <c r="H7" s="426"/>
+      <c r="I7" s="471"/>
+      <c r="J7" s="536"/>
+      <c r="K7" s="536"/>
+      <c r="L7" s="472"/>
+      <c r="M7" s="471"/>
+      <c r="N7" s="472"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -24688,16 +25006,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="457"/>
-      <c r="F8" s="401"/>
-      <c r="G8" s="402"/>
-      <c r="H8" s="403"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="484"/>
-      <c r="K8" s="484"/>
-      <c r="L8" s="466"/>
-      <c r="M8" s="465"/>
-      <c r="N8" s="466"/>
+      <c r="E8" s="463"/>
+      <c r="F8" s="424"/>
+      <c r="G8" s="425"/>
+      <c r="H8" s="426"/>
+      <c r="I8" s="471"/>
+      <c r="J8" s="536"/>
+      <c r="K8" s="536"/>
+      <c r="L8" s="472"/>
+      <c r="M8" s="471"/>
+      <c r="N8" s="472"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -24718,16 +25036,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="457"/>
-      <c r="F9" s="401"/>
-      <c r="G9" s="402"/>
-      <c r="H9" s="403"/>
-      <c r="I9" s="465"/>
-      <c r="J9" s="484"/>
-      <c r="K9" s="484"/>
-      <c r="L9" s="466"/>
-      <c r="M9" s="465"/>
-      <c r="N9" s="466"/>
+      <c r="E9" s="463"/>
+      <c r="F9" s="424"/>
+      <c r="G9" s="425"/>
+      <c r="H9" s="426"/>
+      <c r="I9" s="471"/>
+      <c r="J9" s="536"/>
+      <c r="K9" s="536"/>
+      <c r="L9" s="472"/>
+      <c r="M9" s="471"/>
+      <c r="N9" s="472"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -24744,16 +25062,16 @@
         <v>535</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="457"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="402"/>
-      <c r="H10" s="403"/>
-      <c r="I10" s="465"/>
-      <c r="J10" s="484"/>
-      <c r="K10" s="484"/>
-      <c r="L10" s="466"/>
-      <c r="M10" s="465"/>
-      <c r="N10" s="466"/>
+      <c r="E10" s="463"/>
+      <c r="F10" s="424"/>
+      <c r="G10" s="425"/>
+      <c r="H10" s="426"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="536"/>
+      <c r="K10" s="536"/>
+      <c r="L10" s="472"/>
+      <c r="M10" s="471"/>
+      <c r="N10" s="472"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -24766,16 +25084,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="457"/>
-      <c r="F11" s="401"/>
-      <c r="G11" s="402"/>
-      <c r="H11" s="403"/>
-      <c r="I11" s="465"/>
-      <c r="J11" s="484"/>
-      <c r="K11" s="484"/>
-      <c r="L11" s="466"/>
-      <c r="M11" s="465"/>
-      <c r="N11" s="466"/>
+      <c r="E11" s="463"/>
+      <c r="F11" s="424"/>
+      <c r="G11" s="425"/>
+      <c r="H11" s="426"/>
+      <c r="I11" s="471"/>
+      <c r="J11" s="536"/>
+      <c r="K11" s="536"/>
+      <c r="L11" s="472"/>
+      <c r="M11" s="471"/>
+      <c r="N11" s="472"/>
       <c r="O11" s="5"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -24786,16 +25104,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="457"/>
-      <c r="F12" s="401"/>
-      <c r="G12" s="402"/>
-      <c r="H12" s="403"/>
-      <c r="I12" s="465"/>
-      <c r="J12" s="484"/>
-      <c r="K12" s="484"/>
-      <c r="L12" s="466"/>
-      <c r="M12" s="465"/>
-      <c r="N12" s="466"/>
+      <c r="E12" s="463"/>
+      <c r="F12" s="424"/>
+      <c r="G12" s="425"/>
+      <c r="H12" s="426"/>
+      <c r="I12" s="471"/>
+      <c r="J12" s="536"/>
+      <c r="K12" s="536"/>
+      <c r="L12" s="472"/>
+      <c r="M12" s="471"/>
+      <c r="N12" s="472"/>
       <c r="O12" s="5"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -24808,16 +25126,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="457"/>
-      <c r="F13" s="401"/>
-      <c r="G13" s="402"/>
-      <c r="H13" s="403"/>
-      <c r="I13" s="465"/>
-      <c r="J13" s="484"/>
-      <c r="K13" s="484"/>
-      <c r="L13" s="466"/>
-      <c r="M13" s="465"/>
-      <c r="N13" s="466"/>
+      <c r="E13" s="463"/>
+      <c r="F13" s="424"/>
+      <c r="G13" s="425"/>
+      <c r="H13" s="426"/>
+      <c r="I13" s="471"/>
+      <c r="J13" s="536"/>
+      <c r="K13" s="536"/>
+      <c r="L13" s="472"/>
+      <c r="M13" s="471"/>
+      <c r="N13" s="472"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -24828,16 +25146,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="457"/>
-      <c r="F14" s="401"/>
-      <c r="G14" s="402"/>
-      <c r="H14" s="403"/>
-      <c r="I14" s="465"/>
-      <c r="J14" s="484"/>
-      <c r="K14" s="484"/>
-      <c r="L14" s="466"/>
-      <c r="M14" s="465"/>
-      <c r="N14" s="466"/>
+      <c r="E14" s="463"/>
+      <c r="F14" s="424"/>
+      <c r="G14" s="425"/>
+      <c r="H14" s="426"/>
+      <c r="I14" s="471"/>
+      <c r="J14" s="536"/>
+      <c r="K14" s="536"/>
+      <c r="L14" s="472"/>
+      <c r="M14" s="471"/>
+      <c r="N14" s="472"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -24848,16 +25166,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="457"/>
-      <c r="F15" s="401"/>
-      <c r="G15" s="402"/>
-      <c r="H15" s="403"/>
-      <c r="I15" s="465"/>
-      <c r="J15" s="484"/>
-      <c r="K15" s="484"/>
-      <c r="L15" s="466"/>
-      <c r="M15" s="465"/>
-      <c r="N15" s="466"/>
+      <c r="E15" s="463"/>
+      <c r="F15" s="424"/>
+      <c r="G15" s="425"/>
+      <c r="H15" s="426"/>
+      <c r="I15" s="471"/>
+      <c r="J15" s="536"/>
+      <c r="K15" s="536"/>
+      <c r="L15" s="472"/>
+      <c r="M15" s="471"/>
+      <c r="N15" s="472"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -24868,16 +25186,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="457"/>
-      <c r="F16" s="401"/>
-      <c r="G16" s="402"/>
-      <c r="H16" s="403"/>
-      <c r="I16" s="465"/>
-      <c r="J16" s="484"/>
-      <c r="K16" s="484"/>
-      <c r="L16" s="466"/>
-      <c r="M16" s="465"/>
-      <c r="N16" s="466"/>
+      <c r="E16" s="463"/>
+      <c r="F16" s="424"/>
+      <c r="G16" s="425"/>
+      <c r="H16" s="426"/>
+      <c r="I16" s="471"/>
+      <c r="J16" s="536"/>
+      <c r="K16" s="536"/>
+      <c r="L16" s="472"/>
+      <c r="M16" s="471"/>
+      <c r="N16" s="472"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -24890,16 +25208,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="457"/>
-      <c r="F17" s="401"/>
-      <c r="G17" s="402"/>
-      <c r="H17" s="403"/>
-      <c r="I17" s="465"/>
-      <c r="J17" s="484"/>
-      <c r="K17" s="484"/>
-      <c r="L17" s="466"/>
-      <c r="M17" s="465"/>
-      <c r="N17" s="466"/>
+      <c r="E17" s="463"/>
+      <c r="F17" s="424"/>
+      <c r="G17" s="425"/>
+      <c r="H17" s="426"/>
+      <c r="I17" s="471"/>
+      <c r="J17" s="536"/>
+      <c r="K17" s="536"/>
+      <c r="L17" s="472"/>
+      <c r="M17" s="471"/>
+      <c r="N17" s="472"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -24910,16 +25228,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="458"/>
-      <c r="F18" s="404"/>
-      <c r="G18" s="405"/>
-      <c r="H18" s="406"/>
-      <c r="I18" s="467"/>
-      <c r="J18" s="485"/>
-      <c r="K18" s="485"/>
-      <c r="L18" s="468"/>
-      <c r="M18" s="467"/>
-      <c r="N18" s="468"/>
+      <c r="E18" s="464"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="428"/>
+      <c r="H18" s="429"/>
+      <c r="I18" s="473"/>
+      <c r="J18" s="537"/>
+      <c r="K18" s="537"/>
+      <c r="L18" s="474"/>
+      <c r="M18" s="473"/>
+      <c r="N18" s="474"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -24948,26 +25266,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="382" t="s">
+      <c r="C20" s="405" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="383"/>
+      <c r="D20" s="406"/>
       <c r="E20" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="382" t="s">
+      <c r="F20" s="405" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="384"/>
-      <c r="H20" s="384"/>
-      <c r="I20" s="384"/>
-      <c r="J20" s="384"/>
-      <c r="K20" s="384"/>
-      <c r="L20" s="383"/>
-      <c r="M20" s="382" t="s">
+      <c r="G20" s="407"/>
+      <c r="H20" s="407"/>
+      <c r="I20" s="407"/>
+      <c r="J20" s="407"/>
+      <c r="K20" s="407"/>
+      <c r="L20" s="406"/>
+      <c r="M20" s="405" t="s">
         <v>526</v>
       </c>
-      <c r="N20" s="383"/>
+      <c r="N20" s="406"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -24995,39 +25313,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="450" t="s">
+      <c r="B24" s="483" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="450"/>
-      <c r="D24" s="449"/>
-      <c r="E24" s="449"/>
-      <c r="F24" s="449"/>
-      <c r="G24" s="449"/>
-      <c r="H24" s="449"/>
-      <c r="I24" s="449"/>
-      <c r="J24" s="449"/>
-      <c r="K24" s="449"/>
-      <c r="M24" s="503" t="s">
+      <c r="C24" s="483"/>
+      <c r="D24" s="482"/>
+      <c r="E24" s="482"/>
+      <c r="F24" s="482"/>
+      <c r="G24" s="482"/>
+      <c r="H24" s="482"/>
+      <c r="I24" s="482"/>
+      <c r="J24" s="482"/>
+      <c r="K24" s="482"/>
+      <c r="M24" s="505" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="503"/>
-      <c r="O24" s="503"/>
+      <c r="N24" s="505"/>
+      <c r="O24" s="505"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="504" t="s">
+      <c r="B25" s="506" t="s">
         <v>928</v>
       </c>
-      <c r="C25" s="427"/>
-      <c r="D25" s="372" t="s">
+      <c r="C25" s="449"/>
+      <c r="D25" s="395" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="372"/>
-      <c r="F25" s="372"/>
-      <c r="G25" s="372"/>
-      <c r="H25" s="372"/>
-      <c r="I25" s="372"/>
-      <c r="J25" s="372"/>
-      <c r="K25" s="373"/>
+      <c r="E25" s="395"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="395"/>
+      <c r="H25" s="395"/>
+      <c r="I25" s="395"/>
+      <c r="J25" s="395"/>
+      <c r="K25" s="396"/>
       <c r="M25" s="37" t="s">
         <v>181</v>
       </c>
@@ -25039,22 +25357,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="428"/>
-      <c r="C26" s="429"/>
-      <c r="D26" s="426" t="s">
+      <c r="B26" s="450"/>
+      <c r="C26" s="451"/>
+      <c r="D26" s="448" t="s">
         <v>921</v>
       </c>
-      <c r="E26" s="427"/>
-      <c r="F26" s="498" t="s">
+      <c r="E26" s="449"/>
+      <c r="F26" s="532" t="s">
         <v>921</v>
       </c>
-      <c r="G26" s="372"/>
-      <c r="H26" s="373"/>
-      <c r="I26" s="371" t="s">
+      <c r="G26" s="395"/>
+      <c r="H26" s="396"/>
+      <c r="I26" s="394" t="s">
         <v>925</v>
       </c>
-      <c r="J26" s="372"/>
-      <c r="K26" s="373"/>
+      <c r="J26" s="395"/>
+      <c r="K26" s="396"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -25069,22 +25387,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="428"/>
-      <c r="C27" s="429"/>
-      <c r="D27" s="419" t="s">
+      <c r="B27" s="450"/>
+      <c r="C27" s="451"/>
+      <c r="D27" s="446" t="s">
         <v>926</v>
       </c>
-      <c r="E27" s="429"/>
-      <c r="F27" s="428" t="s">
+      <c r="E27" s="451"/>
+      <c r="F27" s="450" t="s">
         <v>922</v>
       </c>
-      <c r="G27" s="419"/>
-      <c r="H27" s="364"/>
-      <c r="I27" s="502" t="s">
+      <c r="G27" s="446"/>
+      <c r="H27" s="387"/>
+      <c r="I27" s="516" t="s">
         <v>926</v>
       </c>
-      <c r="J27" s="419"/>
-      <c r="K27" s="364"/>
+      <c r="J27" s="446"/>
+      <c r="K27" s="387"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -25099,22 +25417,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="428"/>
-      <c r="C28" s="429"/>
-      <c r="D28" s="419" t="s">
+      <c r="B28" s="450"/>
+      <c r="C28" s="451"/>
+      <c r="D28" s="446" t="s">
         <v>923</v>
       </c>
-      <c r="E28" s="429"/>
-      <c r="F28" s="428" t="s">
+      <c r="E28" s="451"/>
+      <c r="F28" s="450" t="s">
         <v>923</v>
       </c>
-      <c r="G28" s="419"/>
-      <c r="H28" s="364"/>
-      <c r="I28" s="502" t="s">
+      <c r="G28" s="446"/>
+      <c r="H28" s="387"/>
+      <c r="I28" s="516" t="s">
         <v>923</v>
       </c>
-      <c r="J28" s="419"/>
-      <c r="K28" s="364"/>
+      <c r="J28" s="446"/>
+      <c r="K28" s="387"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -25123,22 +25441,22 @@
       <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="430"/>
-      <c r="C29" s="431"/>
-      <c r="D29" s="419" t="s">
+      <c r="B29" s="452"/>
+      <c r="C29" s="453"/>
+      <c r="D29" s="446" t="s">
         <v>924</v>
       </c>
-      <c r="E29" s="429"/>
-      <c r="F29" s="499" t="s">
+      <c r="E29" s="451"/>
+      <c r="F29" s="533" t="s">
         <v>924</v>
       </c>
-      <c r="G29" s="500"/>
-      <c r="H29" s="501"/>
-      <c r="I29" s="514" t="s">
+      <c r="G29" s="518"/>
+      <c r="H29" s="519"/>
+      <c r="I29" s="517" t="s">
         <v>924</v>
       </c>
-      <c r="J29" s="500"/>
-      <c r="K29" s="501"/>
+      <c r="J29" s="518"/>
+      <c r="K29" s="519"/>
       <c r="L29" s="23" t="s">
         <v>2</v>
       </c>
@@ -25147,149 +25465,149 @@
       <c r="O29" s="37"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="374" t="s">
+      <c r="B30" s="397" t="s">
         <v>927</v>
       </c>
-      <c r="C30" s="376"/>
-      <c r="D30" s="486" t="s">
+      <c r="C30" s="399"/>
+      <c r="D30" s="520" t="s">
         <v>569</v>
       </c>
-      <c r="E30" s="487"/>
-      <c r="F30" s="491" t="s">
+      <c r="E30" s="521"/>
+      <c r="F30" s="525" t="s">
         <v>570</v>
       </c>
-      <c r="G30" s="492"/>
-      <c r="H30" s="487"/>
-      <c r="I30" s="491" t="s">
+      <c r="G30" s="526"/>
+      <c r="H30" s="521"/>
+      <c r="I30" s="525" t="s">
         <v>571</v>
       </c>
-      <c r="J30" s="492"/>
-      <c r="K30" s="495"/>
+      <c r="J30" s="526"/>
+      <c r="K30" s="529"/>
       <c r="L30" s="5"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="365"/>
-      <c r="C31" s="378"/>
-      <c r="D31" s="488"/>
-      <c r="E31" s="447"/>
-      <c r="F31" s="445"/>
-      <c r="G31" s="446"/>
-      <c r="H31" s="447"/>
-      <c r="I31" s="445"/>
-      <c r="J31" s="446"/>
-      <c r="K31" s="496"/>
+      <c r="B31" s="388"/>
+      <c r="C31" s="401"/>
+      <c r="D31" s="522"/>
+      <c r="E31" s="489"/>
+      <c r="F31" s="487"/>
+      <c r="G31" s="488"/>
+      <c r="H31" s="489"/>
+      <c r="I31" s="487"/>
+      <c r="J31" s="488"/>
+      <c r="K31" s="530"/>
       <c r="L31" s="5"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="365"/>
-      <c r="C32" s="378"/>
-      <c r="D32" s="488"/>
-      <c r="E32" s="447"/>
-      <c r="F32" s="445"/>
-      <c r="G32" s="446"/>
-      <c r="H32" s="447"/>
-      <c r="I32" s="445"/>
-      <c r="J32" s="446"/>
-      <c r="K32" s="496"/>
+      <c r="B32" s="388"/>
+      <c r="C32" s="401"/>
+      <c r="D32" s="522"/>
+      <c r="E32" s="489"/>
+      <c r="F32" s="487"/>
+      <c r="G32" s="488"/>
+      <c r="H32" s="489"/>
+      <c r="I32" s="487"/>
+      <c r="J32" s="488"/>
+      <c r="K32" s="530"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="365"/>
-      <c r="C33" s="378"/>
-      <c r="D33" s="489"/>
-      <c r="E33" s="490"/>
-      <c r="F33" s="493"/>
-      <c r="G33" s="494"/>
-      <c r="H33" s="490"/>
-      <c r="I33" s="493"/>
-      <c r="J33" s="494"/>
-      <c r="K33" s="497"/>
+      <c r="B33" s="388"/>
+      <c r="C33" s="401"/>
+      <c r="D33" s="523"/>
+      <c r="E33" s="524"/>
+      <c r="F33" s="527"/>
+      <c r="G33" s="528"/>
+      <c r="H33" s="524"/>
+      <c r="I33" s="527"/>
+      <c r="J33" s="528"/>
+      <c r="K33" s="531"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="365"/>
-      <c r="C34" s="367"/>
-      <c r="D34" s="505" t="s">
+      <c r="B34" s="388"/>
+      <c r="C34" s="390"/>
+      <c r="D34" s="507" t="s">
         <v>914</v>
       </c>
-      <c r="E34" s="506"/>
-      <c r="F34" s="505" t="s">
+      <c r="E34" s="508"/>
+      <c r="F34" s="507" t="s">
         <v>591</v>
       </c>
-      <c r="G34" s="511"/>
-      <c r="H34" s="506"/>
-      <c r="I34" s="505" t="s">
+      <c r="G34" s="513"/>
+      <c r="H34" s="508"/>
+      <c r="I34" s="507" t="s">
         <v>929</v>
       </c>
-      <c r="J34" s="511"/>
-      <c r="K34" s="506"/>
+      <c r="J34" s="513"/>
+      <c r="K34" s="508"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="365"/>
-      <c r="C35" s="367"/>
-      <c r="D35" s="507"/>
-      <c r="E35" s="508"/>
-      <c r="F35" s="507"/>
-      <c r="G35" s="512"/>
-      <c r="H35" s="508"/>
-      <c r="I35" s="507"/>
-      <c r="J35" s="512"/>
-      <c r="K35" s="508"/>
+      <c r="B35" s="388"/>
+      <c r="C35" s="390"/>
+      <c r="D35" s="509"/>
+      <c r="E35" s="510"/>
+      <c r="F35" s="509"/>
+      <c r="G35" s="514"/>
+      <c r="H35" s="510"/>
+      <c r="I35" s="509"/>
+      <c r="J35" s="514"/>
+      <c r="K35" s="510"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="365"/>
-      <c r="C36" s="367"/>
-      <c r="D36" s="507"/>
-      <c r="E36" s="508"/>
-      <c r="F36" s="507"/>
-      <c r="G36" s="512"/>
-      <c r="H36" s="508"/>
-      <c r="I36" s="507"/>
-      <c r="J36" s="512"/>
-      <c r="K36" s="508"/>
+      <c r="B36" s="388"/>
+      <c r="C36" s="390"/>
+      <c r="D36" s="509"/>
+      <c r="E36" s="510"/>
+      <c r="F36" s="509"/>
+      <c r="G36" s="514"/>
+      <c r="H36" s="510"/>
+      <c r="I36" s="509"/>
+      <c r="J36" s="514"/>
+      <c r="K36" s="510"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="365"/>
-      <c r="C37" s="367"/>
-      <c r="D37" s="507"/>
-      <c r="E37" s="508"/>
-      <c r="F37" s="507"/>
-      <c r="G37" s="512"/>
-      <c r="H37" s="508"/>
-      <c r="I37" s="507"/>
-      <c r="J37" s="512"/>
-      <c r="K37" s="508"/>
+      <c r="B37" s="388"/>
+      <c r="C37" s="390"/>
+      <c r="D37" s="509"/>
+      <c r="E37" s="510"/>
+      <c r="F37" s="509"/>
+      <c r="G37" s="514"/>
+      <c r="H37" s="510"/>
+      <c r="I37" s="509"/>
+      <c r="J37" s="514"/>
+      <c r="K37" s="510"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="365"/>
-      <c r="C38" s="367"/>
-      <c r="D38" s="509"/>
-      <c r="E38" s="510"/>
-      <c r="F38" s="509"/>
-      <c r="G38" s="513"/>
-      <c r="H38" s="510"/>
-      <c r="I38" s="509"/>
-      <c r="J38" s="513"/>
-      <c r="K38" s="510"/>
+      <c r="B38" s="388"/>
+      <c r="C38" s="390"/>
+      <c r="D38" s="511"/>
+      <c r="E38" s="512"/>
+      <c r="F38" s="511"/>
+      <c r="G38" s="515"/>
+      <c r="H38" s="512"/>
+      <c r="I38" s="511"/>
+      <c r="J38" s="515"/>
+      <c r="K38" s="512"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="379"/>
-      <c r="C39" s="381"/>
-      <c r="D39" s="438" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="404"/>
+      <c r="D39" s="491" t="s">
         <v>572</v>
       </c>
-      <c r="E39" s="439"/>
-      <c r="F39" s="439"/>
-      <c r="G39" s="439"/>
-      <c r="H39" s="439"/>
-      <c r="I39" s="439"/>
-      <c r="J39" s="439"/>
-      <c r="K39" s="440"/>
+      <c r="E39" s="492"/>
+      <c r="F39" s="492"/>
+      <c r="G39" s="492"/>
+      <c r="H39" s="492"/>
+      <c r="I39" s="492"/>
+      <c r="J39" s="492"/>
+      <c r="K39" s="493"/>
       <c r="L39" s="39" t="s">
         <v>573</v>
       </c>
@@ -25307,36 +25625,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="382" t="s">
+      <c r="B41" s="405" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="383"/>
-      <c r="D41" s="382" t="s">
+      <c r="C41" s="406"/>
+      <c r="D41" s="405" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="383"/>
-      <c r="F41" s="382" t="s">
+      <c r="E41" s="406"/>
+      <c r="F41" s="405" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="384"/>
-      <c r="H41" s="384"/>
-      <c r="I41" s="384"/>
-      <c r="J41" s="384"/>
-      <c r="K41" s="383"/>
+      <c r="G41" s="407"/>
+      <c r="H41" s="407"/>
+      <c r="I41" s="407"/>
+      <c r="J41" s="407"/>
+      <c r="K41" s="406"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -25353,16 +25670,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -25905,13 +26223,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="381" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="360"/>
+      <c r="B5" s="382"/>
+      <c r="C5" s="382"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="383"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>149</v>
@@ -26709,7 +27027,7 @@
       <c r="K4" s="226"/>
       <c r="L4" s="226"/>
       <c r="M4" s="235"/>
-      <c r="N4" s="365" t="s">
+      <c r="N4" s="388" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -26727,7 +27045,7 @@
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="365"/>
+      <c r="N5" s="388"/>
     </row>
     <row r="6" spans="3:16">
       <c r="C6" s="334">
@@ -26743,7 +27061,7 @@
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="365"/>
+      <c r="N6" s="388"/>
     </row>
     <row r="7" spans="3:16">
       <c r="C7" s="334">
@@ -26759,7 +27077,7 @@
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="365"/>
+      <c r="N7" s="388"/>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" s="334">
@@ -26775,7 +27093,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="365"/>
+      <c r="N8" s="388"/>
     </row>
     <row r="9" spans="3:16">
       <c r="C9" s="334">
@@ -26791,7 +27109,7 @@
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="365"/>
+      <c r="N9" s="388"/>
     </row>
     <row r="10" spans="3:16">
       <c r="C10" s="334">
@@ -26807,7 +27125,7 @@
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="365"/>
+      <c r="N10" s="388"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
       <c r="C11" s="334">
@@ -26823,7 +27141,7 @@
       <c r="K11" s="228"/>
       <c r="L11" s="228"/>
       <c r="M11" s="236"/>
-      <c r="N11" s="365"/>
+      <c r="N11" s="388"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1">
       <c r="C12" s="334">
@@ -27177,7 +27495,7 @@
       </c>
     </row>
     <row r="153" spans="3:14">
-      <c r="C153" s="368" t="s">
+      <c r="C153" s="391" t="s">
         <v>166</v>
       </c>
       <c r="D153">
@@ -27203,7 +27521,7 @@
       </c>
     </row>
     <row r="154" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C154" s="368"/>
+      <c r="C154" s="391"/>
       <c r="D154">
         <v>20</v>
       </c>
@@ -27231,7 +27549,7 @@
       <c r="N154" s="63"/>
     </row>
     <row r="155" spans="3:14">
-      <c r="C155" s="368" t="s">
+      <c r="C155" s="391" t="s">
         <v>167</v>
       </c>
       <c r="D155">
@@ -27249,7 +27567,7 @@
       <c r="N155" s="170"/>
     </row>
     <row r="156" spans="3:14">
-      <c r="C156" s="368"/>
+      <c r="C156" s="391"/>
       <c r="D156">
         <v>40</v>
       </c>
@@ -27265,7 +27583,7 @@
       <c r="N156" s="170"/>
     </row>
     <row r="157" spans="3:14">
-      <c r="C157" s="368"/>
+      <c r="C157" s="391"/>
       <c r="D157">
         <v>50</v>
       </c>
@@ -27281,7 +27599,7 @@
       <c r="N157" s="170"/>
     </row>
     <row r="158" spans="3:14">
-      <c r="C158" s="368"/>
+      <c r="C158" s="391"/>
       <c r="D158">
         <v>60</v>
       </c>
@@ -27299,7 +27617,7 @@
       <c r="N158" s="170"/>
     </row>
     <row r="159" spans="3:14">
-      <c r="C159" s="368"/>
+      <c r="C159" s="391"/>
       <c r="D159">
         <v>70</v>
       </c>
@@ -27315,7 +27633,7 @@
       <c r="N159" s="170"/>
     </row>
     <row r="160" spans="3:14">
-      <c r="C160" s="368"/>
+      <c r="C160" s="391"/>
       <c r="D160">
         <v>80</v>
       </c>
@@ -27331,7 +27649,7 @@
       <c r="N160" s="170"/>
     </row>
     <row r="161" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C161" s="368"/>
+      <c r="C161" s="391"/>
       <c r="D161">
         <v>90</v>
       </c>
@@ -27419,7 +27737,7 @@
       </c>
     </row>
     <row r="166" spans="3:14">
-      <c r="D166" s="366">
+      <c r="D166" s="389">
         <v>1</v>
       </c>
       <c r="E166" s="171"/>
@@ -27434,7 +27752,7 @@
       <c r="N166" s="176"/>
     </row>
     <row r="167" spans="3:14">
-      <c r="D167" s="367"/>
+      <c r="D167" s="390"/>
       <c r="E167" s="172"/>
       <c r="F167" s="168"/>
       <c r="G167" s="169"/>
@@ -27447,7 +27765,7 @@
       <c r="N167" s="170"/>
     </row>
     <row r="168" spans="3:14">
-      <c r="D168" s="367"/>
+      <c r="D168" s="390"/>
       <c r="E168" s="172"/>
       <c r="F168" s="168"/>
       <c r="G168" s="169"/>
@@ -27460,7 +27778,7 @@
       <c r="N168" s="170"/>
     </row>
     <row r="169" spans="3:14">
-      <c r="D169" s="367"/>
+      <c r="D169" s="390"/>
       <c r="E169" s="172" t="s">
         <v>677</v>
       </c>
@@ -27477,7 +27795,7 @@
       <c r="N169" s="170"/>
     </row>
     <row r="170" spans="3:14">
-      <c r="D170" s="367"/>
+      <c r="D170" s="390"/>
       <c r="E170" s="172"/>
       <c r="F170" s="168"/>
       <c r="G170" s="169"/>
@@ -27490,7 +27808,7 @@
       <c r="N170" s="170"/>
     </row>
     <row r="171" spans="3:14">
-      <c r="D171" s="367"/>
+      <c r="D171" s="390"/>
       <c r="E171" s="172"/>
       <c r="F171" s="168"/>
       <c r="G171" s="169"/>
@@ -27503,7 +27821,7 @@
       <c r="N171" s="170"/>
     </row>
     <row r="172" spans="3:14" ht="15.75" thickBot="1">
-      <c r="D172" s="367"/>
+      <c r="D172" s="390"/>
       <c r="E172" s="173"/>
       <c r="F172" s="177"/>
       <c r="G172" s="178"/>
@@ -27626,7 +27944,7 @@
       <c r="K201" s="175"/>
       <c r="L201" s="175"/>
       <c r="M201" s="175"/>
-      <c r="N201" s="362" t="s">
+      <c r="N201" s="385" t="s">
         <v>931</v>
       </c>
     </row>
@@ -27644,7 +27962,7 @@
       <c r="K202" s="178"/>
       <c r="L202" s="178"/>
       <c r="M202" s="178"/>
-      <c r="N202" s="362"/>
+      <c r="N202" s="385"/>
     </row>
     <row r="203" spans="3:14">
       <c r="C203">
@@ -27660,7 +27978,7 @@
       <c r="K203" s="229"/>
       <c r="L203" s="229"/>
       <c r="M203" s="292"/>
-      <c r="N203" s="361" t="s">
+      <c r="N203" s="384" t="s">
         <v>934</v>
       </c>
     </row>
@@ -27678,7 +27996,7 @@
       <c r="K204" s="230"/>
       <c r="L204" s="230"/>
       <c r="M204" s="294"/>
-      <c r="N204" s="361"/>
+      <c r="N204" s="384"/>
     </row>
     <row r="205" spans="3:14">
       <c r="C205">
@@ -27694,7 +28012,7 @@
       <c r="K205" s="230"/>
       <c r="L205" s="230"/>
       <c r="M205" s="294"/>
-      <c r="N205" s="361"/>
+      <c r="N205" s="384"/>
     </row>
     <row r="206" spans="3:14" ht="15.75" thickBot="1">
       <c r="C206">
@@ -27714,7 +28032,7 @@
       <c r="K206" s="231"/>
       <c r="L206" s="231"/>
       <c r="M206" s="296"/>
-      <c r="N206" s="361"/>
+      <c r="N206" s="384"/>
     </row>
     <row r="207" spans="3:14">
       <c r="C207">
@@ -27730,7 +28048,7 @@
       <c r="K207" s="230"/>
       <c r="L207" s="230"/>
       <c r="M207" s="230"/>
-      <c r="N207" s="362"/>
+      <c r="N207" s="385"/>
     </row>
     <row r="208" spans="3:14">
       <c r="C208">
@@ -27746,7 +28064,7 @@
       <c r="K208" s="230"/>
       <c r="L208" s="230"/>
       <c r="M208" s="230"/>
-      <c r="N208" s="362"/>
+      <c r="N208" s="385"/>
     </row>
     <row r="209" spans="3:14" ht="15.75" thickBot="1">
       <c r="C209">
@@ -27762,7 +28080,7 @@
       <c r="K209" s="231"/>
       <c r="L209" s="231"/>
       <c r="M209" s="231"/>
-      <c r="N209" s="362"/>
+      <c r="N209" s="385"/>
     </row>
     <row r="210" spans="3:14" ht="15.75" thickBot="1">
       <c r="C210">
@@ -27849,7 +28167,7 @@
       </c>
     </row>
     <row r="218" spans="3:14">
-      <c r="C218" s="363">
+      <c r="C218" s="386">
         <v>1</v>
       </c>
       <c r="D218" s="225"/>
@@ -27864,7 +28182,7 @@
       <c r="M218" s="235"/>
     </row>
     <row r="219" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C219" s="364"/>
+      <c r="C219" s="387"/>
       <c r="D219" s="227"/>
       <c r="E219" s="228"/>
       <c r="F219" s="228"/>
@@ -28068,8 +28386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M224" sqref="M224:M227"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28122,14 +28440,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="371" t="s">
+      <c r="K4" s="394" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="372"/>
-      <c r="M4" s="372"/>
-      <c r="N4" s="372"/>
-      <c r="O4" s="372"/>
-      <c r="P4" s="373"/>
+      <c r="L4" s="395"/>
+      <c r="M4" s="395"/>
+      <c r="N4" s="395"/>
+      <c r="O4" s="395"/>
+      <c r="P4" s="396"/>
       <c r="Q4" s="112" t="s">
         <v>280</v>
       </c>
@@ -28245,7 +28563,7 @@
         <v>182</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" t="s">
@@ -28258,10 +28576,10 @@
       <c r="L8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="385" t="s">
+      <c r="M8" s="408" t="s">
         <v>209</v>
       </c>
-      <c r="N8" s="386"/>
+      <c r="N8" s="409"/>
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
@@ -28288,7 +28606,7 @@
         <v>208</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>668</v>
+        <v>300</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="23" t="s">
@@ -28303,8 +28621,8 @@
       <c r="L9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="386"/>
-      <c r="N9" s="386"/>
+      <c r="M9" s="409"/>
+      <c r="N9" s="409"/>
       <c r="O9" s="5" t="s">
         <v>186</v>
       </c>
@@ -28331,7 +28649,7 @@
       <c r="D10" s="25"/>
       <c r="E10" s="22"/>
       <c r="F10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -28340,15 +28658,12 @@
       <c r="L10" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="M10" s="386"/>
-      <c r="N10" s="386"/>
+      <c r="M10" s="409"/>
+      <c r="N10" s="409"/>
       <c r="O10" s="5"/>
       <c r="P10" s="245" t="s">
         <v>397</v>
       </c>
-      <c r="Q10" t="s">
-        <v>2</v>
-      </c>
       <c r="R10" s="37" t="s">
         <v>1315</v>
       </c>
@@ -28358,37 +28673,38 @@
       <c r="T10" s="37"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="374" t="s">
+      <c r="A11" s="397" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="375"/>
-      <c r="C11" s="376"/>
-      <c r="D11" s="376"/>
-      <c r="E11" s="377"/>
+      <c r="B11" s="398"/>
+      <c r="C11" s="399"/>
+      <c r="D11" s="399"/>
+      <c r="E11" s="400"/>
       <c r="F11" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="8"/>
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="386"/>
-      <c r="N11" s="386"/>
+      <c r="M11" s="409"/>
+      <c r="N11" s="409"/>
       <c r="O11" s="5"/>
       <c r="P11" s="245" t="s">
         <v>398</v>
       </c>
+      <c r="Q11" s="112"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="365"/>
-      <c r="B12" s="378"/>
-      <c r="C12" s="378"/>
-      <c r="D12" s="378"/>
-      <c r="E12" s="367"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="401"/>
+      <c r="C12" s="401"/>
+      <c r="D12" s="401"/>
+      <c r="E12" s="390"/>
       <c r="F12" t="s">
         <v>958</v>
       </c>
@@ -28397,8 +28713,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="386"/>
-      <c r="N12" s="386"/>
+      <c r="M12" s="409"/>
+      <c r="N12" s="409"/>
       <c r="O12" s="5"/>
       <c r="P12" s="245" t="s">
         <v>1318</v>
@@ -28408,11 +28724,11 @@
       <c r="T12" s="37"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="365"/>
-      <c r="B13" s="378"/>
-      <c r="C13" s="378"/>
-      <c r="D13" s="378"/>
-      <c r="E13" s="367"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="401"/>
+      <c r="C13" s="401"/>
+      <c r="D13" s="401"/>
+      <c r="E13" s="390"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>191</v>
@@ -28420,20 +28736,23 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="386"/>
+      <c r="M13" s="409"/>
+      <c r="N13" s="409"/>
       <c r="O13" s="27"/>
       <c r="P13" s="246"/>
+      <c r="Q13">
+        <v>1000</v>
+      </c>
       <c r="S13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="379"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="380"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="A14" s="402"/>
+      <c r="B14" s="403"/>
+      <c r="C14" s="403"/>
+      <c r="D14" s="403"/>
+      <c r="E14" s="404"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -28473,7 +28792,7 @@
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -28484,10 +28803,10 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
-        <v>1560</v>
-      </c>
+      <c r="L16" s="5" t="s">
+        <v>1667</v>
+      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
@@ -28511,7 +28830,9 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>1668</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
@@ -28569,20 +28890,20 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="382" t="s">
+      <c r="I20" s="405" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="383"/>
-      <c r="K20" s="382" t="s">
+      <c r="J20" s="406"/>
+      <c r="K20" s="405" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="383"/>
-      <c r="M20" s="382" t="s">
+      <c r="L20" s="406"/>
+      <c r="M20" s="405" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="384"/>
-      <c r="O20" s="384"/>
-      <c r="P20" s="383"/>
+      <c r="N20" s="407"/>
+      <c r="O20" s="407"/>
+      <c r="P20" s="406"/>
       <c r="S20" t="s">
         <v>280</v>
       </c>
@@ -29456,36 +29777,36 @@
     </row>
     <row r="124" spans="1:14">
       <c r="G124" s="15" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="387" t="s">
+      <c r="I124" s="410" t="s">
         <v>692</v>
       </c>
-      <c r="J124" s="388" t="s">
+      <c r="J124" s="411" t="s">
         <v>180</v>
       </c>
-      <c r="K124" s="388"/>
-      <c r="L124" s="388"/>
-      <c r="M124" s="388"/>
+      <c r="K124" s="411"/>
+      <c r="L124" s="411"/>
+      <c r="M124" s="411"/>
       <c r="N124" s="6"/>
     </row>
     <row r="125" spans="1:14">
       <c r="H125" s="4"/>
-      <c r="I125" s="365"/>
-      <c r="J125" s="388"/>
-      <c r="K125" s="388"/>
-      <c r="L125" s="388"/>
-      <c r="M125" s="388"/>
+      <c r="I125" s="388"/>
+      <c r="J125" s="411"/>
+      <c r="K125" s="411"/>
+      <c r="L125" s="411"/>
+      <c r="M125" s="411"/>
       <c r="N125" s="6"/>
     </row>
     <row r="126" spans="1:14" ht="15.75" thickBot="1">
       <c r="H126" s="4"/>
-      <c r="I126" s="365"/>
-      <c r="J126" s="388"/>
-      <c r="K126" s="388"/>
-      <c r="L126" s="388"/>
-      <c r="M126" s="388"/>
+      <c r="I126" s="388"/>
+      <c r="J126" s="411"/>
+      <c r="K126" s="411"/>
+      <c r="L126" s="411"/>
+      <c r="M126" s="411"/>
       <c r="N126" s="6"/>
     </row>
     <row r="127" spans="1:14">
@@ -29495,29 +29816,29 @@
       <c r="D127" s="2"/>
       <c r="E127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="365"/>
-      <c r="J127" s="388" t="s">
-        <v>1565</v>
-      </c>
-      <c r="K127" s="388"/>
-      <c r="L127" s="388"/>
-      <c r="M127" s="388"/>
+      <c r="I127" s="388"/>
+      <c r="J127" s="411" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K127" s="411"/>
+      <c r="L127" s="411"/>
+      <c r="M127" s="411"/>
       <c r="N127" s="6"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="40" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="6"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="365"/>
-      <c r="J128" s="388"/>
-      <c r="K128" s="388"/>
-      <c r="L128" s="388"/>
-      <c r="M128" s="388"/>
+      <c r="I128" s="388"/>
+      <c r="J128" s="411"/>
+      <c r="K128" s="411"/>
+      <c r="L128" s="411"/>
+      <c r="M128" s="411"/>
       <c r="N128" s="6"/>
     </row>
     <row r="129" spans="1:14">
@@ -29530,11 +29851,11 @@
         <v>164</v>
       </c>
       <c r="H129" s="4"/>
-      <c r="I129" s="365"/>
-      <c r="J129" s="388"/>
-      <c r="K129" s="388"/>
-      <c r="L129" s="388"/>
-      <c r="M129" s="388"/>
+      <c r="I129" s="388"/>
+      <c r="J129" s="411"/>
+      <c r="K129" s="411"/>
+      <c r="L129" s="411"/>
+      <c r="M129" s="411"/>
       <c r="N129" s="6"/>
     </row>
     <row r="130" spans="1:14">
@@ -29553,13 +29874,13 @@
       <c r="H130" s="34">
         <v>80</v>
       </c>
-      <c r="I130" s="365"/>
-      <c r="J130" s="388" t="s">
-        <v>1566</v>
-      </c>
-      <c r="K130" s="388"/>
-      <c r="L130" s="388"/>
-      <c r="M130" s="388"/>
+      <c r="I130" s="388"/>
+      <c r="J130" s="411" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K130" s="411"/>
+      <c r="L130" s="411"/>
+      <c r="M130" s="411"/>
       <c r="N130" s="6"/>
     </row>
     <row r="131" spans="1:14">
@@ -29573,21 +29894,21 @@
       <c r="D131" s="5"/>
       <c r="E131" s="6"/>
       <c r="F131" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H131" s="4"/>
-      <c r="I131" s="365"/>
-      <c r="J131" s="388"/>
-      <c r="K131" s="388"/>
-      <c r="L131" s="388"/>
-      <c r="M131" s="388"/>
+      <c r="I131" s="388"/>
+      <c r="J131" s="411"/>
+      <c r="K131" s="411"/>
+      <c r="L131" s="411"/>
+      <c r="M131" s="411"/>
       <c r="N131" s="6"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="27" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="6"/>
@@ -29598,11 +29919,11 @@
         <v>404</v>
       </c>
       <c r="H132" s="4"/>
-      <c r="I132" s="365"/>
-      <c r="J132" s="388"/>
-      <c r="K132" s="388"/>
-      <c r="L132" s="388"/>
-      <c r="M132" s="388"/>
+      <c r="I132" s="388"/>
+      <c r="J132" s="411"/>
+      <c r="K132" s="411"/>
+      <c r="L132" s="411"/>
+      <c r="M132" s="411"/>
       <c r="N132" s="6"/>
     </row>
     <row r="133" spans="1:14">
@@ -29612,23 +29933,23 @@
       <c r="D133" s="5"/>
       <c r="E133" s="6"/>
       <c r="G133" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H133" s="4"/>
-      <c r="I133" s="365"/>
-      <c r="J133" s="389" t="s">
-        <v>1567</v>
-      </c>
-      <c r="K133" s="390"/>
-      <c r="L133" s="390"/>
-      <c r="M133" s="391"/>
+      <c r="I133" s="388"/>
+      <c r="J133" s="412" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K133" s="413"/>
+      <c r="L133" s="413"/>
+      <c r="M133" s="414"/>
       <c r="N133" s="6"/>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="33" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="6"/>
@@ -29636,57 +29957,57 @@
         <v>1529</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="365"/>
-      <c r="J134" s="392"/>
-      <c r="K134" s="393"/>
-      <c r="L134" s="393"/>
-      <c r="M134" s="394"/>
+      <c r="I134" s="388"/>
+      <c r="J134" s="415"/>
+      <c r="K134" s="416"/>
+      <c r="L134" s="416"/>
+      <c r="M134" s="417"/>
       <c r="N134" s="6"/>
     </row>
     <row r="135" spans="1:14" ht="15.75" thickBot="1">
       <c r="A135" s="8"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="9"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="365"/>
-      <c r="J135" s="392"/>
-      <c r="K135" s="393"/>
-      <c r="L135" s="393"/>
-      <c r="M135" s="394"/>
+      <c r="I135" s="388"/>
+      <c r="J135" s="415"/>
+      <c r="K135" s="416"/>
+      <c r="L135" s="416"/>
+      <c r="M135" s="417"/>
       <c r="N135" s="6"/>
     </row>
     <row r="136" spans="1:14">
       <c r="H136" s="4"/>
-      <c r="I136" s="365"/>
-      <c r="J136" s="392"/>
-      <c r="K136" s="393"/>
-      <c r="L136" s="393"/>
-      <c r="M136" s="394"/>
+      <c r="I136" s="388"/>
+      <c r="J136" s="415"/>
+      <c r="K136" s="416"/>
+      <c r="L136" s="416"/>
+      <c r="M136" s="417"/>
       <c r="N136" s="6"/>
     </row>
     <row r="137" spans="1:14">
       <c r="H137" s="4"/>
-      <c r="I137" s="365"/>
-      <c r="J137" s="392"/>
-      <c r="K137" s="393"/>
-      <c r="L137" s="393"/>
-      <c r="M137" s="394"/>
+      <c r="I137" s="388"/>
+      <c r="J137" s="415"/>
+      <c r="K137" s="416"/>
+      <c r="L137" s="416"/>
+      <c r="M137" s="417"/>
       <c r="N137" s="6"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
       <c r="C138" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H138" s="4"/>
-      <c r="I138" s="379"/>
-      <c r="J138" s="395"/>
-      <c r="K138" s="396"/>
-      <c r="L138" s="396"/>
-      <c r="M138" s="397"/>
+      <c r="I138" s="402"/>
+      <c r="J138" s="418"/>
+      <c r="K138" s="419"/>
+      <c r="L138" s="419"/>
+      <c r="M138" s="420"/>
       <c r="N138" s="6"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
@@ -29705,10 +30026,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="D141" s="15" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H141" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -29716,10 +30037,10 @@
         <v>1203</v>
       </c>
       <c r="H142" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J142" t="s">
         <v>1573</v>
-      </c>
-      <c r="J142" t="s">
-        <v>1574</v>
       </c>
       <c r="N142" t="s">
         <v>975</v>
@@ -29727,10 +30048,10 @@
     </row>
     <row r="143" spans="1:14">
       <c r="E143" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="J143" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="N143" t="s">
         <v>976</v>
@@ -29738,13 +30059,13 @@
     </row>
     <row r="145" spans="4:13">
       <c r="K145" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="L145" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="M145" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="146" spans="4:13" ht="15.75" thickBot="1">
@@ -29752,7 +30073,7 @@
         <v>1210</v>
       </c>
       <c r="M146" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="147" spans="4:13">
@@ -29760,37 +30081,37 @@
       <c r="K147" s="2"/>
       <c r="L147" s="3"/>
       <c r="M147" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="148" spans="4:13">
       <c r="D148" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G148" t="s">
         <v>470</v>
       </c>
       <c r="J148" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K148" s="5" t="s">
         <v>1582</v>
-      </c>
-      <c r="K148" s="5" t="s">
-        <v>1583</v>
       </c>
       <c r="L148" s="6"/>
       <c r="M148" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="149" spans="4:13">
       <c r="D149" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="J149" s="4"/>
       <c r="K149" s="5" t="s">
         <v>280</v>
       </c>
       <c r="L149" s="350" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="150" spans="4:13">
@@ -29800,22 +30121,22 @@
       </c>
       <c r="L150" s="6"/>
       <c r="M150" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="151" spans="4:13">
       <c r="G151" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="J151" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K151" s="5" t="s">
         <v>1584</v>
-      </c>
-      <c r="K151" s="5" t="s">
-        <v>1585</v>
       </c>
       <c r="L151" s="6"/>
       <c r="M151" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="152" spans="4:13" ht="15.75" thickBot="1">
@@ -29823,18 +30144,18 @@
       <c r="K152" s="10"/>
       <c r="L152" s="9"/>
       <c r="M152" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="153" spans="4:13">
       <c r="K153" s="23" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="L153" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="M153" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="154" spans="4:13" ht="15.75" thickBot="1">
@@ -29852,7 +30173,7 @@
         <v>748</v>
       </c>
       <c r="K156" s="5" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="L156" s="6"/>
     </row>
@@ -29868,10 +30189,10 @@
     </row>
     <row r="159" spans="4:13">
       <c r="J159" s="4" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="L159" s="6"/>
     </row>
@@ -29882,7 +30203,7 @@
     </row>
     <row r="164" spans="4:12">
       <c r="K164" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="165" spans="4:12" ht="15.75" thickBot="1">
@@ -29897,22 +30218,22 @@
     </row>
     <row r="167" spans="4:12">
       <c r="D167" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G167" t="s">
         <v>470</v>
       </c>
       <c r="J167" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K167" s="5" t="s">
         <v>1582</v>
-      </c>
-      <c r="K167" s="5" t="s">
-        <v>1583</v>
       </c>
       <c r="L167" s="6"/>
     </row>
     <row r="168" spans="4:12">
       <c r="D168" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="5"/>
@@ -29925,10 +30246,10 @@
     </row>
     <row r="170" spans="4:12">
       <c r="J170" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K170" s="5" t="s">
         <v>1584</v>
-      </c>
-      <c r="K170" s="5" t="s">
-        <v>1585</v>
       </c>
       <c r="L170" s="6"/>
     </row>
@@ -29958,7 +30279,7 @@
         <v>748</v>
       </c>
       <c r="K175" s="5" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="L175" s="6"/>
     </row>
@@ -29974,10 +30295,10 @@
     </row>
     <row r="178" spans="1:13">
       <c r="J178" s="4" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="L178" s="6"/>
     </row>
@@ -30008,7 +30329,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="1"/>
       <c r="I182" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="J182" s="3"/>
       <c r="K182" s="5"/>
@@ -30024,7 +30345,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="5" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="J183" s="6"/>
       <c r="K183" s="5"/>
@@ -30037,7 +30358,7 @@
         <v>300</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
@@ -30141,13 +30462,13 @@
     </row>
     <row r="194" spans="1:13">
       <c r="B194" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H194" t="s">
         <v>1609</v>
       </c>
-      <c r="H194" t="s">
+      <c r="J194" t="s">
         <v>1610</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1611</v>
       </c>
       <c r="M194" t="s">
         <v>273</v>
@@ -30159,7 +30480,7 @@
       <c r="B198" s="2"/>
       <c r="C198" s="3"/>
       <c r="G198" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -30177,7 +30498,7 @@
       <c r="G199" s="4"/>
       <c r="H199" s="1"/>
       <c r="I199" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="J199" s="3"/>
       <c r="K199" s="5"/>
@@ -30205,7 +30526,7 @@
       </c>
       <c r="C201" s="6"/>
       <c r="D201" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
@@ -30220,7 +30541,7 @@
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
       <c r="D202" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
@@ -30330,7 +30651,7 @@
       </c>
       <c r="G213" s="4"/>
       <c r="H213" s="11" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
@@ -30340,7 +30661,7 @@
     </row>
     <row r="214" spans="1:14">
       <c r="D214" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="5"/>
@@ -30410,7 +30731,7 @@
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
       <c r="L221" s="5" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="M221" s="5"/>
       <c r="N221" s="6"/>
@@ -30434,13 +30755,13 @@
         <v>983</v>
       </c>
       <c r="N222" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="4"/>
       <c r="B223" s="33" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -30450,21 +30771,21 @@
         <v>706</v>
       </c>
       <c r="H223" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="I223" s="4"/>
       <c r="J223" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K223" s="5"/>
       <c r="L223" s="5">
         <v>123123</v>
       </c>
       <c r="M223" s="356" t="s">
+        <v>1615</v>
+      </c>
+      <c r="N223" s="357" t="s">
         <v>1616</v>
-      </c>
-      <c r="N223" s="357" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -30481,7 +30802,7 @@
       <c r="J224" s="4"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
-      <c r="M224" s="369" t="s">
+      <c r="M224" s="392" t="s">
         <v>782</v>
       </c>
       <c r="N224" s="348" t="s">
@@ -30505,7 +30826,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
-      <c r="M225" s="369"/>
+      <c r="M225" s="392"/>
       <c r="N225" s="348" t="s">
         <v>363</v>
       </c>
@@ -30516,19 +30837,19 @@
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F226" s="6"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
-      <c r="M226" s="369"/>
+      <c r="M226" s="392"/>
       <c r="N226" s="348"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="151" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B227" s="5"/>
       <c r="F227" s="6"/>
@@ -30536,7 +30857,7 @@
       <c r="J227" s="4"/>
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
-      <c r="M227" s="370"/>
+      <c r="M227" s="393"/>
       <c r="N227" s="349"/>
     </row>
     <row r="228" spans="1:14">
@@ -30567,7 +30888,7 @@
         <v>608</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F229" s="6"/>
       <c r="I229" s="4"/>
@@ -30587,12 +30908,12 @@
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="23" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F230" s="6"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="K230" s="5"/>
       <c r="L230" s="5"/>
@@ -30608,7 +30929,7 @@
       <c r="F231" s="6"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K231" s="5"/>
       <c r="L231" s="5"/>
@@ -30624,7 +30945,7 @@
       <c r="F232" s="6"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="K232" s="5"/>
       <c r="L232" s="5"/>
@@ -30641,7 +30962,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
       <c r="K233" s="5" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L233" s="5"/>
       <c r="M233" s="5"/>
@@ -30664,7 +30985,7 @@
     <row r="235" spans="1:14" ht="15.75" thickBot="1">
       <c r="I235" s="8"/>
       <c r="J235" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="K235" s="10"/>
       <c r="L235" s="10"/>
@@ -30673,7 +30994,7 @@
     </row>
     <row r="236" spans="1:14">
       <c r="J236" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -30683,7 +31004,7 @@
     </row>
     <row r="238" spans="1:14">
       <c r="G238" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="15.75" thickBot="1"/>
@@ -30700,7 +31021,7 @@
       <c r="J241" s="5"/>
       <c r="K241" s="5"/>
       <c r="L241" s="5" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="M241" s="5"/>
       <c r="N241" s="6"/>
@@ -30724,13 +31045,13 @@
         <v>983</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="4"/>
       <c r="B243" s="33" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -30740,21 +31061,21 @@
         <v>706</v>
       </c>
       <c r="H243" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="I243" s="4"/>
       <c r="J243" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K243" s="5"/>
       <c r="L243" s="5">
         <v>123455445</v>
       </c>
       <c r="M243" s="356" t="s">
+        <v>1615</v>
+      </c>
+      <c r="N243" s="357" t="s">
         <v>1616</v>
-      </c>
-      <c r="N243" s="357" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -30771,7 +31092,7 @@
       <c r="J244" s="4"/>
       <c r="K244" s="5"/>
       <c r="L244" s="5"/>
-      <c r="M244" s="369" t="s">
+      <c r="M244" s="392" t="s">
         <v>782</v>
       </c>
       <c r="N244" s="348" t="s">
@@ -30782,7 +31103,7 @@
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>608</v>
@@ -30795,7 +31116,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
-      <c r="M245" s="369"/>
+      <c r="M245" s="392"/>
       <c r="N245" s="348" t="s">
         <v>363</v>
       </c>
@@ -30806,19 +31127,19 @@
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F246" s="6"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
-      <c r="M246" s="369"/>
+      <c r="M246" s="392"/>
       <c r="N246" s="348"/>
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="151" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B247" s="5"/>
       <c r="F247" s="6"/>
@@ -30826,12 +31147,12 @@
       <c r="J247" s="4"/>
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
-      <c r="M247" s="370"/>
+      <c r="M247" s="393"/>
       <c r="N247" s="349"/>
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="152" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -30876,7 +31197,7 @@
       <c r="F250" s="6"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="K250" s="5"/>
       <c r="L250" s="5"/>
@@ -30892,7 +31213,7 @@
       <c r="F251" s="6"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K251" s="5"/>
       <c r="L251" s="5"/>
@@ -30908,7 +31229,7 @@
       <c r="F252" s="6"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="K252" s="5"/>
       <c r="L252" s="5"/>
@@ -30925,7 +31246,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
       <c r="K253" s="5" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
@@ -30948,7 +31269,7 @@
     <row r="255" spans="1:14" ht="15.75" thickBot="1">
       <c r="I255" s="8"/>
       <c r="J255" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="K255" s="10"/>
       <c r="L255" s="10"/>
@@ -31415,13 +31736,13 @@
         <v>180</v>
       </c>
       <c r="J3" s="145"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="407"/>
-      <c r="M3" s="407"/>
-      <c r="N3" s="407"/>
-      <c r="O3" s="407"/>
-      <c r="P3" s="407"/>
-      <c r="Q3" s="408"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="430"/>
+      <c r="M3" s="430"/>
+      <c r="N3" s="430"/>
+      <c r="O3" s="430"/>
+      <c r="P3" s="430"/>
+      <c r="Q3" s="431"/>
       <c r="T3" s="39" t="s">
         <v>178</v>
       </c>
@@ -31689,13 +32010,13 @@
       <c r="U11" s="37"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="398" t="s">
+      <c r="A12" s="421" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="399"/>
-      <c r="C12" s="399"/>
-      <c r="D12" s="399"/>
-      <c r="E12" s="400"/>
+      <c r="B12" s="422"/>
+      <c r="C12" s="422"/>
+      <c r="D12" s="422"/>
+      <c r="E12" s="423"/>
       <c r="F12" t="s">
         <v>694</v>
       </c>
@@ -31718,11 +32039,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="401"/>
-      <c r="B13" s="402"/>
-      <c r="C13" s="402"/>
-      <c r="D13" s="402"/>
-      <c r="E13" s="403"/>
+      <c r="A13" s="424"/>
+      <c r="B13" s="425"/>
+      <c r="C13" s="425"/>
+      <c r="D13" s="425"/>
+      <c r="E13" s="426"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -31743,11 +32064,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="401"/>
-      <c r="B14" s="402"/>
-      <c r="C14" s="402"/>
-      <c r="D14" s="402"/>
-      <c r="E14" s="403"/>
+      <c r="A14" s="424"/>
+      <c r="B14" s="425"/>
+      <c r="C14" s="425"/>
+      <c r="D14" s="425"/>
+      <c r="E14" s="426"/>
       <c r="F14" t="s">
         <v>691</v>
       </c>
@@ -31770,11 +32091,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="404"/>
-      <c r="B15" s="405"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="405"/>
-      <c r="E15" s="406"/>
+      <c r="A15" s="427"/>
+      <c r="B15" s="428"/>
+      <c r="C15" s="428"/>
+      <c r="D15" s="428"/>
+      <c r="E15" s="429"/>
       <c r="F15" s="23"/>
       <c r="H15" s="193"/>
       <c r="I15" s="4" t="s">
@@ -31832,17 +32153,17 @@
       <c r="F17" s="190"/>
       <c r="G17" s="126"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="372" t="s">
+      <c r="I17" s="395" t="s">
         <v>1191</v>
       </c>
-      <c r="J17" s="372"/>
-      <c r="K17" s="372"/>
-      <c r="L17" s="372"/>
-      <c r="M17" s="372"/>
-      <c r="N17" s="372"/>
-      <c r="O17" s="372"/>
-      <c r="P17" s="372"/>
-      <c r="Q17" s="372"/>
+      <c r="J17" s="395"/>
+      <c r="K17" s="395"/>
+      <c r="L17" s="395"/>
+      <c r="M17" s="395"/>
+      <c r="N17" s="395"/>
+      <c r="O17" s="395"/>
+      <c r="P17" s="395"/>
+      <c r="Q17" s="395"/>
       <c r="S17" t="s">
         <v>357</v>
       </c>
@@ -36128,10 +36449,10 @@
       <c r="K232" s="34"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="409" t="s">
+      <c r="O232" s="432" t="s">
         <v>1239</v>
       </c>
-      <c r="P232" s="410"/>
+      <c r="P232" s="433"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="1682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="1703">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5549,6 +5549,69 @@
   </si>
   <si>
     <t>7 cpu 7 gb</t>
+  </si>
+  <si>
+    <t>Soap Webservice</t>
+  </si>
+  <si>
+    <t>Soap webservice client (Consuming)</t>
+  </si>
+  <si>
+    <t>(publish)</t>
+  </si>
+  <si>
+    <t>public int add(int a,int b)</t>
+  </si>
+  <si>
+    <t>return a+b;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>SOAP UI software</t>
+  </si>
+  <si>
+    <t>Java client</t>
+  </si>
+  <si>
+    <t>STUB program</t>
+  </si>
+  <si>
+    <t>public class Math</t>
+  </si>
+  <si>
+    <t>convert client java variables into</t>
+  </si>
+  <si>
+    <t>XML… then make http call to</t>
+  </si>
+  <si>
+    <t>actual webservice</t>
+  </si>
+  <si>
+    <t>Math m=new Math();</t>
+  </si>
+  <si>
+    <t>int result=m.add(10,20);</t>
+  </si>
+  <si>
+    <t>&lt;calculateRectangleResponse&gt;&lt;return&gt;600&lt;/return&gt;&lt;/calculateRectangleResponse&gt;</t>
+  </si>
+  <si>
+    <t>&lt;calRect&gt; &lt;num1&gt;20&lt;/num1&gt; &lt;num2&gt;30&lt;/num2&gt;&lt;/calRect&gt;</t>
+  </si>
+  <si>
+    <t>&lt;return&gt;600&lt;/return&gt;</t>
+  </si>
+  <si>
+    <t>complex soap response</t>
+  </si>
+  <si>
+    <t>&lt;num1&gt;20&lt;/num1&gt; &lt;num2&gt;30&lt;/num2&gt;</t>
   </si>
 </sst>
 </file>
@@ -7078,6 +7141,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7243,6 +7323,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7263,21 +7355,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7309,6 +7386,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7318,59 +7398,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7429,6 +7458,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7450,17 +7530,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7504,68 +7617,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14275,10 +14338,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="432" t="s">
+      <c r="L35" s="449" t="s">
         <v>372</v>
       </c>
-      <c r="M35" s="432"/>
+      <c r="M35" s="449"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -16212,10 +16275,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="433" t="s">
+      <c r="A155" s="450" t="s">
         <v>1007</v>
       </c>
-      <c r="B155" s="433"/>
+      <c r="B155" s="450"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="92" t="s">
@@ -18545,10 +18608,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q203"/>
+  <dimension ref="A2:Q237"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O239" sqref="A219:O239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18583,18 +18646,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="441" t="s">
+      <c r="E6" s="451" t="s">
         <v>404</v>
       </c>
-      <c r="F6" s="381"/>
-      <c r="G6" s="380" t="s">
+      <c r="F6" s="398"/>
+      <c r="G6" s="397" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="380"/>
-      <c r="I6" s="380"/>
-      <c r="J6" s="380"/>
-      <c r="K6" s="380"/>
-      <c r="L6" s="381"/>
+      <c r="H6" s="397"/>
+      <c r="I6" s="397"/>
+      <c r="J6" s="397"/>
+      <c r="K6" s="397"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="27" t="s">
@@ -18607,7 +18670,7 @@
       <c r="A7" s="15" t="s">
         <v>1671</v>
       </c>
-      <c r="D7" s="438">
+      <c r="D7" s="459">
         <v>80</v>
       </c>
       <c r="E7" s="222"/>
@@ -18625,7 +18688,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="438"/>
+      <c r="D8" s="459"/>
       <c r="E8" s="47" t="s">
         <v>406</v>
       </c>
@@ -18660,7 +18723,7 @@
       <c r="B9" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="438"/>
+      <c r="D9" s="459"/>
       <c r="E9" s="224"/>
       <c r="F9" s="233"/>
       <c r="G9" s="136"/>
@@ -18684,15 +18747,15 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="D10" s="438"/>
+      <c r="D10" s="459"/>
       <c r="E10" s="222"/>
       <c r="F10" s="232"/>
-      <c r="G10" s="536"/>
-      <c r="H10" s="537"/>
-      <c r="I10" s="536"/>
-      <c r="J10" s="537"/>
-      <c r="K10" s="536"/>
-      <c r="L10" s="537"/>
+      <c r="G10" s="379"/>
+      <c r="H10" s="380"/>
+      <c r="I10" s="379"/>
+      <c r="J10" s="380"/>
+      <c r="K10" s="379"/>
+      <c r="L10" s="380"/>
       <c r="M10" s="5" t="s">
         <v>186</v>
       </c>
@@ -18708,23 +18771,23 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="438"/>
+      <c r="D11" s="459"/>
       <c r="E11" s="47" t="s">
         <v>410</v>
       </c>
       <c r="F11" s="60"/>
-      <c r="G11" s="538" t="s">
+      <c r="G11" s="381" t="s">
         <v>411</v>
       </c>
-      <c r="H11" s="539"/>
-      <c r="I11" s="538" t="s">
+      <c r="H11" s="382"/>
+      <c r="I11" s="381" t="s">
         <v>412</v>
       </c>
-      <c r="J11" s="539"/>
-      <c r="K11" s="538" t="s">
+      <c r="J11" s="382"/>
+      <c r="K11" s="381" t="s">
         <v>413</v>
       </c>
-      <c r="L11" s="539"/>
+      <c r="L11" s="382"/>
       <c r="M11" s="5">
         <v>1000</v>
       </c>
@@ -18737,15 +18800,15 @@
       <c r="B12" s="206" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="438"/>
+      <c r="D12" s="459"/>
       <c r="E12" s="224"/>
       <c r="F12" s="233"/>
-      <c r="G12" s="540"/>
-      <c r="H12" s="541"/>
-      <c r="I12" s="540"/>
-      <c r="J12" s="541"/>
-      <c r="K12" s="540"/>
-      <c r="L12" s="541"/>
+      <c r="G12" s="383"/>
+      <c r="H12" s="384"/>
+      <c r="I12" s="383"/>
+      <c r="J12" s="384"/>
+      <c r="K12" s="383"/>
+      <c r="L12" s="384"/>
       <c r="M12" s="5" t="s">
         <v>2</v>
       </c>
@@ -18758,15 +18821,15 @@
       <c r="B13" t="s">
         <v>1672</v>
       </c>
-      <c r="D13" s="438"/>
+      <c r="D13" s="459"/>
       <c r="E13" s="222"/>
       <c r="F13" s="232"/>
-      <c r="G13" s="542"/>
-      <c r="H13" s="543"/>
-      <c r="I13" s="542"/>
-      <c r="J13" s="543"/>
-      <c r="K13" s="542"/>
-      <c r="L13" s="543"/>
+      <c r="G13" s="385"/>
+      <c r="H13" s="386"/>
+      <c r="I13" s="385"/>
+      <c r="J13" s="386"/>
+      <c r="K13" s="385"/>
+      <c r="L13" s="386"/>
       <c r="M13" s="5"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
@@ -18774,23 +18837,23 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="D14" s="438"/>
+      <c r="D14" s="459"/>
       <c r="E14" s="47" t="s">
         <v>415</v>
       </c>
       <c r="F14" s="60"/>
-      <c r="G14" s="544" t="s">
+      <c r="G14" s="387" t="s">
         <v>416</v>
       </c>
-      <c r="H14" s="545"/>
-      <c r="I14" s="544" t="s">
+      <c r="H14" s="388"/>
+      <c r="I14" s="387" t="s">
         <v>417</v>
       </c>
-      <c r="J14" s="545"/>
-      <c r="K14" s="544" t="s">
+      <c r="J14" s="388"/>
+      <c r="K14" s="387" t="s">
         <v>418</v>
       </c>
-      <c r="L14" s="545"/>
+      <c r="L14" s="388"/>
       <c r="M14" s="5"/>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
@@ -18801,15 +18864,15 @@
       <c r="B15" t="s">
         <v>1673</v>
       </c>
-      <c r="D15" s="438"/>
+      <c r="D15" s="459"/>
       <c r="E15" s="224"/>
       <c r="F15" s="233"/>
-      <c r="G15" s="546"/>
-      <c r="H15" s="547"/>
-      <c r="I15" s="546"/>
-      <c r="J15" s="547"/>
-      <c r="K15" s="546"/>
-      <c r="L15" s="547"/>
+      <c r="G15" s="389"/>
+      <c r="H15" s="390"/>
+      <c r="I15" s="389"/>
+      <c r="J15" s="390"/>
+      <c r="K15" s="389"/>
+      <c r="L15" s="390"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -18820,13 +18883,13 @@
       <c r="B16" t="s">
         <v>1391</v>
       </c>
-      <c r="D16" s="438"/>
+      <c r="D16" s="459"/>
       <c r="E16" s="222"/>
       <c r="F16" s="232"/>
-      <c r="G16" s="548"/>
-      <c r="H16" s="549"/>
-      <c r="I16" s="550"/>
-      <c r="J16" s="549"/>
+      <c r="G16" s="391"/>
+      <c r="H16" s="392"/>
+      <c r="I16" s="393"/>
+      <c r="J16" s="392"/>
       <c r="K16" s="58"/>
       <c r="L16" s="308"/>
       <c r="M16" s="5"/>
@@ -18840,19 +18903,19 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="438"/>
+      <c r="D17" s="459"/>
       <c r="E17" s="47" t="s">
         <v>419</v>
       </c>
       <c r="F17" s="60"/>
-      <c r="G17" s="548" t="s">
+      <c r="G17" s="391" t="s">
         <v>420</v>
       </c>
-      <c r="H17" s="549"/>
-      <c r="I17" s="550" t="s">
+      <c r="H17" s="392"/>
+      <c r="I17" s="393" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="549"/>
+      <c r="J17" s="392"/>
       <c r="K17" s="58" t="s">
         <v>422</v>
       </c>
@@ -18868,13 +18931,13 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="438"/>
+      <c r="D18" s="459"/>
       <c r="E18" s="224"/>
       <c r="F18" s="233"/>
-      <c r="G18" s="551"/>
-      <c r="H18" s="552"/>
-      <c r="I18" s="551"/>
-      <c r="J18" s="552"/>
+      <c r="G18" s="394"/>
+      <c r="H18" s="395"/>
+      <c r="I18" s="394"/>
+      <c r="J18" s="395"/>
       <c r="K18" s="317"/>
       <c r="L18" s="235"/>
       <c r="M18" s="5" t="s">
@@ -18887,20 +18950,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="442" t="s">
+      <c r="E19" s="452" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="443"/>
-      <c r="G19" s="442" t="s">
+      <c r="F19" s="453"/>
+      <c r="G19" s="452" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="443"/>
-      <c r="I19" s="442" t="s">
+      <c r="H19" s="453"/>
+      <c r="I19" s="452" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="444"/>
-      <c r="K19" s="444"/>
-      <c r="L19" s="443"/>
+      <c r="J19" s="454"/>
+      <c r="K19" s="454"/>
+      <c r="L19" s="453"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -18965,12 +19028,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="440"/>
-      <c r="H24" s="440"/>
-      <c r="I24" s="440"/>
-      <c r="J24" s="440"/>
-      <c r="K24" s="440"/>
-      <c r="L24" s="440"/>
+      <c r="G24" s="461"/>
+      <c r="H24" s="461"/>
+      <c r="I24" s="461"/>
+      <c r="J24" s="461"/>
+      <c r="K24" s="461"/>
+      <c r="L24" s="461"/>
       <c r="O24" s="39" t="s">
         <v>178</v>
       </c>
@@ -19386,11 +19449,11 @@
       <c r="G47" s="219" t="s">
         <v>897</v>
       </c>
-      <c r="H47" s="430" t="s">
+      <c r="H47" s="447" t="s">
         <v>1367</v>
       </c>
-      <c r="I47" s="439"/>
-      <c r="J47" s="431"/>
+      <c r="I47" s="460"/>
+      <c r="J47" s="448"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -19996,16 +20059,16 @@
         <v>1062</v>
       </c>
       <c r="F131" s="37"/>
-      <c r="G131" s="436" t="s">
+      <c r="G131" s="457" t="s">
         <v>1055</v>
       </c>
-      <c r="H131" s="436"/>
-      <c r="I131" s="436"/>
-      <c r="J131" s="436"/>
-      <c r="K131" s="436"/>
-      <c r="L131" s="436"/>
-      <c r="M131" s="436"/>
-      <c r="N131" s="436"/>
+      <c r="H131" s="457"/>
+      <c r="I131" s="457"/>
+      <c r="J131" s="457"/>
+      <c r="K131" s="457"/>
+      <c r="L131" s="457"/>
+      <c r="M131" s="457"/>
+      <c r="N131" s="457"/>
       <c r="O131" s="37"/>
     </row>
     <row r="132" spans="2:15">
@@ -20142,29 +20205,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="37"/>
-      <c r="G141" s="437"/>
-      <c r="H141" s="437"/>
-      <c r="I141" s="437"/>
-      <c r="J141" s="437"/>
-      <c r="K141" s="437"/>
-      <c r="L141" s="437"/>
-      <c r="M141" s="437"/>
-      <c r="N141" s="437"/>
-      <c r="O141" s="437"/>
+      <c r="G141" s="458"/>
+      <c r="H141" s="458"/>
+      <c r="I141" s="458"/>
+      <c r="J141" s="458"/>
+      <c r="K141" s="458"/>
+      <c r="L141" s="458"/>
+      <c r="M141" s="458"/>
+      <c r="N141" s="458"/>
+      <c r="O141" s="458"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="437"/>
-      <c r="H142" s="437"/>
-      <c r="I142" s="437"/>
-      <c r="J142" s="437"/>
-      <c r="K142" s="437"/>
-      <c r="L142" s="437"/>
-      <c r="M142" s="437"/>
-      <c r="N142" s="437"/>
-      <c r="O142" s="437"/>
+      <c r="G142" s="458"/>
+      <c r="H142" s="458"/>
+      <c r="I142" s="458"/>
+      <c r="J142" s="458"/>
+      <c r="K142" s="458"/>
+      <c r="L142" s="458"/>
+      <c r="M142" s="458"/>
+      <c r="N142" s="458"/>
+      <c r="O142" s="458"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -20208,7 +20271,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="434" t="s">
+      <c r="D158" s="455" t="s">
         <v>1333</v>
       </c>
       <c r="E158" s="65"/>
@@ -20221,7 +20284,7 @@
       <c r="L158" s="234"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="435"/>
+      <c r="D159" s="456"/>
       <c r="E159" s="309" t="s">
         <v>1331</v>
       </c>
@@ -20243,7 +20306,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="435"/>
+      <c r="D160" s="456"/>
       <c r="E160" s="229"/>
       <c r="F160" s="235"/>
       <c r="G160" s="229"/>
@@ -20254,7 +20317,7 @@
       <c r="L160" s="235"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="435"/>
+      <c r="D161" s="456"/>
       <c r="E161" s="311"/>
       <c r="F161" s="312"/>
       <c r="G161" s="311"/>
@@ -20265,7 +20328,7 @@
       <c r="L161" s="312"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="435"/>
+      <c r="D162" s="456"/>
       <c r="E162" s="313"/>
       <c r="F162" s="314"/>
       <c r="G162" s="313"/>
@@ -20279,7 +20342,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="435"/>
+      <c r="D163" s="456"/>
       <c r="E163" s="315"/>
       <c r="F163" s="316"/>
       <c r="G163" s="315"/>
@@ -20290,7 +20353,7 @@
       <c r="L163" s="316"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="435"/>
+      <c r="D164" s="456"/>
       <c r="E164" s="65"/>
       <c r="F164" s="234"/>
       <c r="G164" s="65"/>
@@ -20301,7 +20364,7 @@
       <c r="L164" s="234"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="435"/>
+      <c r="D165" s="456"/>
       <c r="E165" s="57"/>
       <c r="F165" s="308"/>
       <c r="G165" s="57"/>
@@ -20315,7 +20378,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="435"/>
+      <c r="D166" s="456"/>
       <c r="E166" s="229"/>
       <c r="F166" s="235"/>
       <c r="G166" s="229"/>
@@ -20326,7 +20389,7 @@
       <c r="L166" s="235"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="435"/>
+      <c r="D167" s="456"/>
       <c r="E167" s="65"/>
       <c r="F167" s="234"/>
       <c r="G167" s="58"/>
@@ -20337,7 +20400,7 @@
       <c r="L167" s="308"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="435"/>
+      <c r="D168" s="456"/>
       <c r="E168" s="57"/>
       <c r="F168" s="308"/>
       <c r="G168" s="58"/>
@@ -20351,7 +20414,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="435"/>
+      <c r="D169" s="456"/>
       <c r="E169" s="229"/>
       <c r="F169" s="235"/>
       <c r="G169" s="317"/>
@@ -20529,19 +20592,234 @@
       <c r="J203" s="39"/>
       <c r="L203" s="39"/>
     </row>
+    <row r="220" spans="1:14">
+      <c r="A220" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1699</v>
+      </c>
+      <c r="L221" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N221" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" thickBot="1">
+      <c r="H222" t="s">
+        <v>429</v>
+      </c>
+      <c r="L222" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="1"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="3"/>
+      <c r="D223" t="s">
+        <v>1687</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M223" s="2"/>
+      <c r="N223" s="3"/>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="4"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="6"/>
+      <c r="L224" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="M224" s="5"/>
+      <c r="N224" s="6"/>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="4"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="6"/>
+      <c r="H225" t="s">
+        <v>429</v>
+      </c>
+      <c r="L225" s="4"/>
+      <c r="M225" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N225" s="6"/>
+    </row>
+    <row r="226" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A226" s="8"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="9"/>
+      <c r="D226" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L226" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M226" s="10"/>
+      <c r="N226" s="9"/>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="E227" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1702</v>
+      </c>
+      <c r="L230" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N230" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E231" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F231" s="23"/>
+      <c r="G231" s="23"/>
+      <c r="I231" t="s">
+        <v>429</v>
+      </c>
+      <c r="L231" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="3"/>
+      <c r="D232" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E232" s="244" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F232" s="55"/>
+      <c r="G232" s="56"/>
+      <c r="H232" t="s">
+        <v>483</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M232" s="2"/>
+      <c r="N232" s="3"/>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B233" s="5"/>
+      <c r="C233" s="6"/>
+      <c r="E233" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="F233" s="27"/>
+      <c r="G233" s="38"/>
+      <c r="L233" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="M233" s="5"/>
+      <c r="N233" s="6"/>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234" s="4"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="6"/>
+      <c r="E234" s="34" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F234" s="27"/>
+      <c r="G234" s="38"/>
+      <c r="I234" t="s">
+        <v>429</v>
+      </c>
+      <c r="L234" s="4"/>
+      <c r="M234" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N234" s="6"/>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A235" s="8"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="9"/>
+      <c r="D235" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E235" s="245" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F235" s="301"/>
+      <c r="G235" s="246"/>
+      <c r="H235" t="s">
+        <v>484</v>
+      </c>
+      <c r="L235" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M235" s="10"/>
+      <c r="N235" s="9"/>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="E236" s="27" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F236" s="27"/>
+      <c r="G236" s="27"/>
+      <c r="I236" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="E237" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F237" s="27"/>
+      <c r="G237" s="27"/>
+      <c r="I237" t="s">
+        <v>1701</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -20787,13 +21065,13 @@
       <c r="C20" s="113">
         <v>43908</v>
       </c>
-      <c r="D20" s="409" t="s">
+      <c r="D20" s="426" t="s">
         <v>454</v>
       </c>
-      <c r="E20" s="409"/>
-      <c r="F20" s="409"/>
-      <c r="G20" s="409"/>
-      <c r="H20" s="409"/>
+      <c r="E20" s="426"/>
+      <c r="F20" s="426"/>
+      <c r="G20" s="426"/>
+      <c r="H20" s="426"/>
       <c r="I20" s="37" t="s">
         <v>455</v>
       </c>
@@ -20804,37 +21082,37 @@
       <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="445">
+      <c r="C21" s="472">
         <v>43909</v>
       </c>
-      <c r="D21" s="409"/>
-      <c r="E21" s="409"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="409"/>
-      <c r="H21" s="409"/>
+      <c r="D21" s="426"/>
+      <c r="E21" s="426"/>
+      <c r="F21" s="426"/>
+      <c r="G21" s="426"/>
+      <c r="H21" s="426"/>
       <c r="I21" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J21" s="409"/>
-      <c r="K21" s="409"/>
-      <c r="L21" s="409" t="s">
+      <c r="J21" s="426"/>
+      <c r="K21" s="426"/>
+      <c r="L21" s="426" t="s">
         <v>457</v>
       </c>
-      <c r="M21" s="409"/>
-      <c r="N21" s="409"/>
+      <c r="M21" s="426"/>
+      <c r="N21" s="426"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="445"/>
-      <c r="D22" s="409"/>
-      <c r="E22" s="409"/>
-      <c r="F22" s="409"/>
-      <c r="G22" s="409"/>
-      <c r="H22" s="409"/>
-      <c r="I22" s="389" t="s">
+      <c r="C22" s="472"/>
+      <c r="D22" s="426"/>
+      <c r="E22" s="426"/>
+      <c r="F22" s="426"/>
+      <c r="G22" s="426"/>
+      <c r="H22" s="426"/>
+      <c r="I22" s="406" t="s">
         <v>458</v>
       </c>
-      <c r="J22" s="409"/>
-      <c r="K22" s="409"/>
+      <c r="J22" s="426"/>
+      <c r="K22" s="426"/>
       <c r="L22" s="114" t="s">
         <v>459</v>
       </c>
@@ -20842,31 +21120,31 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="445"/>
-      <c r="D23" s="409"/>
-      <c r="E23" s="409"/>
-      <c r="F23" s="409"/>
-      <c r="G23" s="409"/>
-      <c r="H23" s="409"/>
-      <c r="I23" s="389"/>
-      <c r="J23" s="409"/>
-      <c r="K23" s="409"/>
-      <c r="L23" s="409" t="s">
+      <c r="C23" s="472"/>
+      <c r="D23" s="426"/>
+      <c r="E23" s="426"/>
+      <c r="F23" s="426"/>
+      <c r="G23" s="426"/>
+      <c r="H23" s="426"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="426"/>
+      <c r="K23" s="426"/>
+      <c r="L23" s="426" t="s">
         <v>460</v>
       </c>
-      <c r="M23" s="409"/>
-      <c r="N23" s="409"/>
+      <c r="M23" s="426"/>
+      <c r="N23" s="426"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="445"/>
-      <c r="D24" s="409"/>
-      <c r="E24" s="409"/>
-      <c r="F24" s="409"/>
-      <c r="G24" s="409"/>
-      <c r="H24" s="409"/>
-      <c r="I24" s="389"/>
-      <c r="J24" s="409"/>
-      <c r="K24" s="409"/>
+      <c r="C24" s="472"/>
+      <c r="D24" s="426"/>
+      <c r="E24" s="426"/>
+      <c r="F24" s="426"/>
+      <c r="G24" s="426"/>
+      <c r="H24" s="426"/>
+      <c r="I24" s="406"/>
+      <c r="J24" s="426"/>
+      <c r="K24" s="426"/>
       <c r="L24" s="115" t="s">
         <v>458</v>
       </c>
@@ -20877,13 +21155,13 @@
       <c r="C25" s="113">
         <v>43910</v>
       </c>
-      <c r="D25" s="409" t="s">
+      <c r="D25" s="426" t="s">
         <v>461</v>
       </c>
-      <c r="E25" s="409"/>
-      <c r="F25" s="409"/>
-      <c r="G25" s="409"/>
-      <c r="H25" s="409"/>
+      <c r="E25" s="426"/>
+      <c r="F25" s="426"/>
+      <c r="G25" s="426"/>
+      <c r="H25" s="426"/>
       <c r="I25" s="37" t="s">
         <v>462</v>
       </c>
@@ -20897,16 +21175,16 @@
       <c r="C26" s="113">
         <v>43911</v>
       </c>
-      <c r="D26" s="446"/>
-      <c r="E26" s="447"/>
-      <c r="F26" s="447"/>
-      <c r="G26" s="447"/>
-      <c r="H26" s="448"/>
-      <c r="I26" s="453" t="s">
+      <c r="D26" s="462"/>
+      <c r="E26" s="463"/>
+      <c r="F26" s="463"/>
+      <c r="G26" s="463"/>
+      <c r="H26" s="464"/>
+      <c r="I26" s="469" t="s">
         <v>458</v>
       </c>
-      <c r="J26" s="446"/>
-      <c r="K26" s="448"/>
+      <c r="J26" s="462"/>
+      <c r="K26" s="464"/>
       <c r="L26" s="114" t="s">
         <v>459</v>
       </c>
@@ -20915,30 +21193,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="37"/>
-      <c r="D27" s="449"/>
-      <c r="E27" s="440"/>
-      <c r="F27" s="440"/>
-      <c r="G27" s="440"/>
-      <c r="H27" s="450"/>
-      <c r="I27" s="454"/>
-      <c r="J27" s="449"/>
-      <c r="K27" s="450"/>
-      <c r="L27" s="409" t="s">
+      <c r="D27" s="465"/>
+      <c r="E27" s="461"/>
+      <c r="F27" s="461"/>
+      <c r="G27" s="461"/>
+      <c r="H27" s="466"/>
+      <c r="I27" s="470"/>
+      <c r="J27" s="465"/>
+      <c r="K27" s="466"/>
+      <c r="L27" s="426" t="s">
         <v>463</v>
       </c>
-      <c r="M27" s="409"/>
-      <c r="N27" s="409"/>
+      <c r="M27" s="426"/>
+      <c r="N27" s="426"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="37"/>
-      <c r="D28" s="449"/>
-      <c r="E28" s="440"/>
-      <c r="F28" s="440"/>
-      <c r="G28" s="440"/>
-      <c r="H28" s="450"/>
-      <c r="I28" s="454"/>
-      <c r="J28" s="449"/>
-      <c r="K28" s="450"/>
+      <c r="D28" s="465"/>
+      <c r="E28" s="461"/>
+      <c r="F28" s="461"/>
+      <c r="G28" s="461"/>
+      <c r="H28" s="466"/>
+      <c r="I28" s="470"/>
+      <c r="J28" s="465"/>
+      <c r="K28" s="466"/>
       <c r="L28" s="115" t="s">
         <v>458</v>
       </c>
@@ -20947,14 +21225,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="37"/>
-      <c r="D29" s="451"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="432"/>
-      <c r="G29" s="432"/>
-      <c r="H29" s="452"/>
-      <c r="I29" s="455"/>
-      <c r="J29" s="451"/>
-      <c r="K29" s="452"/>
+      <c r="D29" s="467"/>
+      <c r="E29" s="449"/>
+      <c r="F29" s="449"/>
+      <c r="G29" s="449"/>
+      <c r="H29" s="468"/>
+      <c r="I29" s="471"/>
+      <c r="J29" s="467"/>
+      <c r="K29" s="468"/>
       <c r="L29" s="116" t="s">
         <v>464</v>
       </c>
@@ -21002,13 +21280,13 @@
       <c r="C33" s="113">
         <v>43908</v>
       </c>
-      <c r="D33" s="409" t="s">
+      <c r="D33" s="426" t="s">
         <v>454</v>
       </c>
-      <c r="E33" s="409"/>
-      <c r="F33" s="409"/>
-      <c r="G33" s="409"/>
-      <c r="H33" s="409"/>
+      <c r="E33" s="426"/>
+      <c r="F33" s="426"/>
+      <c r="G33" s="426"/>
+      <c r="H33" s="426"/>
       <c r="I33" s="37" t="s">
         <v>455</v>
       </c>
@@ -21019,33 +21297,33 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="445">
+      <c r="C34" s="472">
         <v>43909</v>
       </c>
-      <c r="D34" s="409"/>
-      <c r="E34" s="409"/>
-      <c r="F34" s="409"/>
-      <c r="G34" s="409"/>
-      <c r="H34" s="409"/>
-      <c r="I34" s="456"/>
-      <c r="J34" s="409"/>
-      <c r="K34" s="409"/>
-      <c r="L34" s="409" t="s">
+      <c r="D34" s="426"/>
+      <c r="E34" s="426"/>
+      <c r="F34" s="426"/>
+      <c r="G34" s="426"/>
+      <c r="H34" s="426"/>
+      <c r="I34" s="473"/>
+      <c r="J34" s="426"/>
+      <c r="K34" s="426"/>
+      <c r="L34" s="426" t="s">
         <v>457</v>
       </c>
-      <c r="M34" s="409"/>
-      <c r="N34" s="409"/>
+      <c r="M34" s="426"/>
+      <c r="N34" s="426"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="445"/>
-      <c r="D35" s="409"/>
-      <c r="E35" s="409"/>
-      <c r="F35" s="409"/>
-      <c r="G35" s="409"/>
-      <c r="H35" s="409"/>
-      <c r="I35" s="457"/>
-      <c r="J35" s="409"/>
-      <c r="K35" s="409"/>
+      <c r="C35" s="472"/>
+      <c r="D35" s="426"/>
+      <c r="E35" s="426"/>
+      <c r="F35" s="426"/>
+      <c r="G35" s="426"/>
+      <c r="H35" s="426"/>
+      <c r="I35" s="474"/>
+      <c r="J35" s="426"/>
+      <c r="K35" s="426"/>
       <c r="L35" s="114" t="s">
         <v>459</v>
       </c>
@@ -21053,31 +21331,31 @@
       <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="445"/>
-      <c r="D36" s="409"/>
-      <c r="E36" s="409"/>
-      <c r="F36" s="409"/>
-      <c r="G36" s="409"/>
-      <c r="H36" s="409"/>
-      <c r="I36" s="457"/>
-      <c r="J36" s="409"/>
-      <c r="K36" s="409"/>
-      <c r="L36" s="409" t="s">
+      <c r="C36" s="472"/>
+      <c r="D36" s="426"/>
+      <c r="E36" s="426"/>
+      <c r="F36" s="426"/>
+      <c r="G36" s="426"/>
+      <c r="H36" s="426"/>
+      <c r="I36" s="474"/>
+      <c r="J36" s="426"/>
+      <c r="K36" s="426"/>
+      <c r="L36" s="426" t="s">
         <v>460</v>
       </c>
-      <c r="M36" s="409"/>
-      <c r="N36" s="409"/>
+      <c r="M36" s="426"/>
+      <c r="N36" s="426"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="445"/>
-      <c r="D37" s="409"/>
-      <c r="E37" s="409"/>
-      <c r="F37" s="409"/>
-      <c r="G37" s="409"/>
-      <c r="H37" s="409"/>
-      <c r="I37" s="458"/>
-      <c r="J37" s="409"/>
-      <c r="K37" s="409"/>
+      <c r="C37" s="472"/>
+      <c r="D37" s="426"/>
+      <c r="E37" s="426"/>
+      <c r="F37" s="426"/>
+      <c r="G37" s="426"/>
+      <c r="H37" s="426"/>
+      <c r="I37" s="475"/>
+      <c r="J37" s="426"/>
+      <c r="K37" s="426"/>
       <c r="L37" s="115" t="s">
         <v>465</v>
       </c>
@@ -21088,13 +21366,13 @@
       <c r="C38" s="113">
         <v>43910</v>
       </c>
-      <c r="D38" s="409" t="s">
+      <c r="D38" s="426" t="s">
         <v>461</v>
       </c>
-      <c r="E38" s="409"/>
-      <c r="F38" s="409"/>
-      <c r="G38" s="409"/>
-      <c r="H38" s="409"/>
+      <c r="E38" s="426"/>
+      <c r="F38" s="426"/>
+      <c r="G38" s="426"/>
+      <c r="H38" s="426"/>
       <c r="I38" s="37" t="s">
         <v>462</v>
       </c>
@@ -21108,14 +21386,14 @@
       <c r="C39" s="113">
         <v>43911</v>
       </c>
-      <c r="D39" s="446"/>
-      <c r="E39" s="447"/>
-      <c r="F39" s="447"/>
-      <c r="G39" s="447"/>
-      <c r="H39" s="448"/>
-      <c r="I39" s="453"/>
-      <c r="J39" s="446"/>
-      <c r="K39" s="448"/>
+      <c r="D39" s="462"/>
+      <c r="E39" s="463"/>
+      <c r="F39" s="463"/>
+      <c r="G39" s="463"/>
+      <c r="H39" s="464"/>
+      <c r="I39" s="469"/>
+      <c r="J39" s="462"/>
+      <c r="K39" s="464"/>
       <c r="L39" s="114" t="s">
         <v>459</v>
       </c>
@@ -21124,30 +21402,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="37"/>
-      <c r="D40" s="449"/>
-      <c r="E40" s="440"/>
-      <c r="F40" s="440"/>
-      <c r="G40" s="440"/>
-      <c r="H40" s="450"/>
-      <c r="I40" s="454"/>
-      <c r="J40" s="449"/>
-      <c r="K40" s="450"/>
-      <c r="L40" s="409" t="s">
+      <c r="D40" s="465"/>
+      <c r="E40" s="461"/>
+      <c r="F40" s="461"/>
+      <c r="G40" s="461"/>
+      <c r="H40" s="466"/>
+      <c r="I40" s="470"/>
+      <c r="J40" s="465"/>
+      <c r="K40" s="466"/>
+      <c r="L40" s="426" t="s">
         <v>463</v>
       </c>
-      <c r="M40" s="409"/>
-      <c r="N40" s="409"/>
+      <c r="M40" s="426"/>
+      <c r="N40" s="426"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="37"/>
-      <c r="D41" s="449"/>
-      <c r="E41" s="440"/>
-      <c r="F41" s="440"/>
-      <c r="G41" s="440"/>
-      <c r="H41" s="450"/>
-      <c r="I41" s="455"/>
-      <c r="J41" s="449"/>
-      <c r="K41" s="450"/>
+      <c r="D41" s="465"/>
+      <c r="E41" s="461"/>
+      <c r="F41" s="461"/>
+      <c r="G41" s="461"/>
+      <c r="H41" s="466"/>
+      <c r="I41" s="471"/>
+      <c r="J41" s="465"/>
+      <c r="K41" s="466"/>
       <c r="L41" s="115" t="s">
         <v>465</v>
       </c>
@@ -21156,16 +21434,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="37"/>
-      <c r="D42" s="451"/>
-      <c r="E42" s="432"/>
-      <c r="F42" s="432"/>
-      <c r="G42" s="432"/>
-      <c r="H42" s="452"/>
+      <c r="D42" s="467"/>
+      <c r="E42" s="449"/>
+      <c r="F42" s="449"/>
+      <c r="G42" s="449"/>
+      <c r="H42" s="468"/>
       <c r="I42" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J42" s="451"/>
-      <c r="K42" s="452"/>
+      <c r="J42" s="467"/>
+      <c r="K42" s="468"/>
       <c r="L42" s="116" t="s">
         <v>464</v>
       </c>
@@ -21477,17 +21755,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -21495,12 +21768,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21522,29 +21800,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="469" t="s">
+      <c r="B2" s="496" t="s">
         <v>1090</v>
       </c>
-      <c r="C2" s="469"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="469"/>
-      <c r="F2" s="469"/>
-      <c r="G2" s="469"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="469"/>
-      <c r="J2" s="469"/>
-      <c r="K2" s="469"/>
-      <c r="L2" s="469"/>
-      <c r="M2" s="469"/>
-      <c r="N2" s="469"/>
-      <c r="O2" s="469"/>
-      <c r="P2" s="469"/>
-      <c r="Q2" s="469"/>
-      <c r="R2" s="469"/>
-      <c r="S2" s="469"/>
-      <c r="T2" s="469"/>
-      <c r="U2" s="469"/>
-      <c r="V2" s="469"/>
+      <c r="C2" s="496"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="496"/>
+      <c r="F2" s="496"/>
+      <c r="G2" s="496"/>
+      <c r="H2" s="496"/>
+      <c r="I2" s="496"/>
+      <c r="J2" s="496"/>
+      <c r="K2" s="496"/>
+      <c r="L2" s="496"/>
+      <c r="M2" s="496"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="496"/>
+      <c r="P2" s="496"/>
+      <c r="Q2" s="496"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="496"/>
+      <c r="T2" s="496"/>
+      <c r="U2" s="496"/>
+      <c r="V2" s="496"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -21577,22 +21855,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="472" t="s">
+      <c r="G5" s="476" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="472"/>
-      <c r="I5" s="472" t="s">
+      <c r="H5" s="476"/>
+      <c r="I5" s="476" t="s">
         <v>517</v>
       </c>
-      <c r="J5" s="472"/>
-      <c r="K5" s="472"/>
-      <c r="L5" s="472"/>
-      <c r="M5" s="472"/>
-      <c r="N5" s="472"/>
-      <c r="O5" s="472" t="s">
+      <c r="J5" s="476"/>
+      <c r="K5" s="476"/>
+      <c r="L5" s="476"/>
+      <c r="M5" s="476"/>
+      <c r="N5" s="476"/>
+      <c r="O5" s="476" t="s">
         <v>518</v>
       </c>
-      <c r="P5" s="472"/>
+      <c r="P5" s="476"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -21637,7 +21915,7 @@
       <c r="H7" s="480" t="s">
         <v>521</v>
       </c>
-      <c r="I7" s="408" t="s">
+      <c r="I7" s="425" t="s">
         <v>522</v>
       </c>
       <c r="J7" s="483"/>
@@ -21645,7 +21923,7 @@
         <v>523</v>
       </c>
       <c r="L7" s="485"/>
-      <c r="M7" s="408" t="s">
+      <c r="M7" s="425" t="s">
         <v>524</v>
       </c>
       <c r="N7" s="483"/>
@@ -21666,12 +21944,12 @@
       <c r="F8" s="135"/>
       <c r="G8" s="478"/>
       <c r="H8" s="481"/>
-      <c r="I8" s="386"/>
-      <c r="J8" s="388"/>
+      <c r="I8" s="403"/>
+      <c r="J8" s="405"/>
       <c r="K8" s="486"/>
       <c r="L8" s="487"/>
-      <c r="M8" s="386"/>
-      <c r="N8" s="388"/>
+      <c r="M8" s="403"/>
+      <c r="N8" s="405"/>
       <c r="O8" s="492"/>
       <c r="P8" s="493"/>
       <c r="Q8" s="5"/>
@@ -21693,12 +21971,12 @@
       <c r="F9" s="6"/>
       <c r="G9" s="478"/>
       <c r="H9" s="481"/>
-      <c r="I9" s="386"/>
-      <c r="J9" s="388"/>
+      <c r="I9" s="403"/>
+      <c r="J9" s="405"/>
       <c r="K9" s="486"/>
       <c r="L9" s="487"/>
-      <c r="M9" s="386"/>
-      <c r="N9" s="388"/>
+      <c r="M9" s="403"/>
+      <c r="N9" s="405"/>
       <c r="O9" s="492"/>
       <c r="P9" s="493"/>
       <c r="Q9" s="5" t="s">
@@ -21722,12 +22000,12 @@
       <c r="F10" s="6"/>
       <c r="G10" s="478"/>
       <c r="H10" s="481"/>
-      <c r="I10" s="386"/>
-      <c r="J10" s="388"/>
+      <c r="I10" s="403"/>
+      <c r="J10" s="405"/>
       <c r="K10" s="486"/>
       <c r="L10" s="487"/>
-      <c r="M10" s="386"/>
-      <c r="N10" s="388"/>
+      <c r="M10" s="403"/>
+      <c r="N10" s="405"/>
       <c r="O10" s="492"/>
       <c r="P10" s="493"/>
       <c r="Q10" s="5" t="s">
@@ -21747,12 +22025,12 @@
       <c r="F11" s="6"/>
       <c r="G11" s="478"/>
       <c r="H11" s="481"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="388"/>
+      <c r="I11" s="403"/>
+      <c r="J11" s="405"/>
       <c r="K11" s="486"/>
       <c r="L11" s="487"/>
-      <c r="M11" s="386"/>
-      <c r="N11" s="388"/>
+      <c r="M11" s="403"/>
+      <c r="N11" s="405"/>
       <c r="O11" s="492"/>
       <c r="P11" s="493"/>
       <c r="Q11" s="5">
@@ -21774,12 +22052,12 @@
       <c r="F12" s="6"/>
       <c r="G12" s="478"/>
       <c r="H12" s="481"/>
-      <c r="I12" s="386"/>
-      <c r="J12" s="388"/>
+      <c r="I12" s="403"/>
+      <c r="J12" s="405"/>
       <c r="K12" s="486"/>
       <c r="L12" s="487"/>
-      <c r="M12" s="386"/>
-      <c r="N12" s="388"/>
+      <c r="M12" s="403"/>
+      <c r="N12" s="405"/>
       <c r="O12" s="492"/>
       <c r="P12" s="493"/>
       <c r="Q12" s="5" t="s">
@@ -21797,12 +22075,12 @@
       <c r="F13" s="6"/>
       <c r="G13" s="478"/>
       <c r="H13" s="481"/>
-      <c r="I13" s="386"/>
-      <c r="J13" s="388"/>
+      <c r="I13" s="403"/>
+      <c r="J13" s="405"/>
       <c r="K13" s="486"/>
       <c r="L13" s="487"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="388"/>
+      <c r="M13" s="403"/>
+      <c r="N13" s="405"/>
       <c r="O13" s="492"/>
       <c r="P13" s="493"/>
       <c r="Q13" s="5"/>
@@ -21818,12 +22096,12 @@
       <c r="F14" s="6"/>
       <c r="G14" s="478"/>
       <c r="H14" s="481"/>
-      <c r="I14" s="386"/>
-      <c r="J14" s="388"/>
+      <c r="I14" s="403"/>
+      <c r="J14" s="405"/>
       <c r="K14" s="486"/>
       <c r="L14" s="487"/>
-      <c r="M14" s="386"/>
-      <c r="N14" s="388"/>
+      <c r="M14" s="403"/>
+      <c r="N14" s="405"/>
       <c r="O14" s="492"/>
       <c r="P14" s="493"/>
       <c r="Q14" s="5"/>
@@ -21841,12 +22119,12 @@
       <c r="F15" s="6"/>
       <c r="G15" s="478"/>
       <c r="H15" s="481"/>
-      <c r="I15" s="386"/>
-      <c r="J15" s="388"/>
+      <c r="I15" s="403"/>
+      <c r="J15" s="405"/>
       <c r="K15" s="486"/>
       <c r="L15" s="487"/>
-      <c r="M15" s="386"/>
-      <c r="N15" s="388"/>
+      <c r="M15" s="403"/>
+      <c r="N15" s="405"/>
       <c r="O15" s="492"/>
       <c r="P15" s="493"/>
       <c r="Q15" s="5"/>
@@ -21862,12 +22140,12 @@
       <c r="F16" s="6"/>
       <c r="G16" s="478"/>
       <c r="H16" s="481"/>
-      <c r="I16" s="386"/>
-      <c r="J16" s="388"/>
+      <c r="I16" s="403"/>
+      <c r="J16" s="405"/>
       <c r="K16" s="486"/>
       <c r="L16" s="487"/>
-      <c r="M16" s="386"/>
-      <c r="N16" s="388"/>
+      <c r="M16" s="403"/>
+      <c r="N16" s="405"/>
       <c r="O16" s="492"/>
       <c r="P16" s="493"/>
       <c r="Q16" s="5"/>
@@ -21883,12 +22161,12 @@
       <c r="F17" s="6"/>
       <c r="G17" s="478"/>
       <c r="H17" s="481"/>
-      <c r="I17" s="386"/>
-      <c r="J17" s="388"/>
+      <c r="I17" s="403"/>
+      <c r="J17" s="405"/>
       <c r="K17" s="486"/>
       <c r="L17" s="487"/>
-      <c r="M17" s="386"/>
-      <c r="N17" s="388"/>
+      <c r="M17" s="403"/>
+      <c r="N17" s="405"/>
       <c r="O17" s="492"/>
       <c r="P17" s="493"/>
       <c r="Q17" s="5"/>
@@ -21904,12 +22182,12 @@
       <c r="F18" s="6"/>
       <c r="G18" s="478"/>
       <c r="H18" s="481"/>
-      <c r="I18" s="386"/>
-      <c r="J18" s="388"/>
+      <c r="I18" s="403"/>
+      <c r="J18" s="405"/>
       <c r="K18" s="486"/>
       <c r="L18" s="487"/>
-      <c r="M18" s="386"/>
-      <c r="N18" s="388"/>
+      <c r="M18" s="403"/>
+      <c r="N18" s="405"/>
       <c r="O18" s="492"/>
       <c r="P18" s="493"/>
       <c r="Q18" s="5"/>
@@ -21927,12 +22205,12 @@
       <c r="F19" s="6"/>
       <c r="G19" s="478"/>
       <c r="H19" s="481"/>
-      <c r="I19" s="386"/>
-      <c r="J19" s="388"/>
+      <c r="I19" s="403"/>
+      <c r="J19" s="405"/>
       <c r="K19" s="486"/>
       <c r="L19" s="487"/>
-      <c r="M19" s="386"/>
-      <c r="N19" s="388"/>
+      <c r="M19" s="403"/>
+      <c r="N19" s="405"/>
       <c r="O19" s="492"/>
       <c r="P19" s="493"/>
       <c r="Q19" s="5"/>
@@ -21948,12 +22226,12 @@
       <c r="F20" s="9"/>
       <c r="G20" s="479"/>
       <c r="H20" s="482"/>
-      <c r="I20" s="400"/>
-      <c r="J20" s="402"/>
+      <c r="I20" s="417"/>
+      <c r="J20" s="419"/>
       <c r="K20" s="488"/>
       <c r="L20" s="489"/>
-      <c r="M20" s="400"/>
-      <c r="N20" s="402"/>
+      <c r="M20" s="417"/>
+      <c r="N20" s="419"/>
       <c r="O20" s="494"/>
       <c r="P20" s="495"/>
       <c r="Q20" s="5"/>
@@ -21985,27 +22263,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="403" t="s">
+      <c r="D22" s="420" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="404"/>
+      <c r="E22" s="421"/>
       <c r="F22" s="261"/>
       <c r="G22" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="403" t="s">
+      <c r="H22" s="420" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="405"/>
-      <c r="J22" s="405"/>
-      <c r="K22" s="405"/>
-      <c r="L22" s="405"/>
-      <c r="M22" s="405"/>
-      <c r="N22" s="404"/>
-      <c r="O22" s="403" t="s">
+      <c r="I22" s="422"/>
+      <c r="J22" s="422"/>
+      <c r="K22" s="422"/>
+      <c r="L22" s="422"/>
+      <c r="M22" s="422"/>
+      <c r="N22" s="421"/>
+      <c r="O22" s="420" t="s">
         <v>526</v>
       </c>
-      <c r="P22" s="404"/>
+      <c r="P22" s="421"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -22036,59 +22314,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="469" t="s">
+      <c r="B25" s="496" t="s">
         <v>1089</v>
       </c>
-      <c r="C25" s="469"/>
-      <c r="D25" s="469"/>
-      <c r="E25" s="469"/>
-      <c r="F25" s="469"/>
-      <c r="G25" s="469"/>
-      <c r="H25" s="469"/>
-      <c r="I25" s="469"/>
-      <c r="J25" s="469"/>
-      <c r="K25" s="469"/>
-      <c r="L25" s="469"/>
-      <c r="M25" s="469"/>
-      <c r="N25" s="469"/>
-      <c r="O25" s="469"/>
-      <c r="P25" s="469"/>
-      <c r="Q25" s="469"/>
-      <c r="R25" s="469"/>
-      <c r="S25" s="469"/>
-      <c r="T25" s="469"/>
-      <c r="U25" s="469"/>
-      <c r="V25" s="469"/>
+      <c r="C25" s="496"/>
+      <c r="D25" s="496"/>
+      <c r="E25" s="496"/>
+      <c r="F25" s="496"/>
+      <c r="G25" s="496"/>
+      <c r="H25" s="496"/>
+      <c r="I25" s="496"/>
+      <c r="J25" s="496"/>
+      <c r="K25" s="496"/>
+      <c r="L25" s="496"/>
+      <c r="M25" s="496"/>
+      <c r="N25" s="496"/>
+      <c r="O25" s="496"/>
+      <c r="P25" s="496"/>
+      <c r="Q25" s="496"/>
+      <c r="R25" s="496"/>
+      <c r="S25" s="496"/>
+      <c r="T25" s="496"/>
+      <c r="U25" s="496"/>
+      <c r="V25" s="496"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="470" t="s">
+      <c r="C26" s="497" t="s">
         <v>568</v>
       </c>
-      <c r="D26" s="470"/>
-      <c r="E26" s="470"/>
-      <c r="F26" s="470"/>
-      <c r="G26" s="470"/>
-      <c r="H26" s="470"/>
-      <c r="I26" s="470"/>
-      <c r="J26" s="470"/>
-      <c r="K26" s="470"/>
-      <c r="L26" s="470"/>
-      <c r="M26" s="470"/>
+      <c r="D26" s="497"/>
+      <c r="E26" s="497"/>
+      <c r="F26" s="497"/>
+      <c r="G26" s="497"/>
+      <c r="H26" s="497"/>
+      <c r="I26" s="497"/>
+      <c r="J26" s="497"/>
+      <c r="K26" s="497"/>
+      <c r="L26" s="497"/>
+      <c r="M26" s="497"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="441" t="s">
+      <c r="E27" s="451" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="380"/>
-      <c r="G27" s="380"/>
-      <c r="H27" s="393"/>
-      <c r="I27" s="393"/>
-      <c r="J27" s="393"/>
-      <c r="K27" s="393"/>
-      <c r="L27" s="393"/>
-      <c r="M27" s="394"/>
+      <c r="F27" s="397"/>
+      <c r="G27" s="397"/>
+      <c r="H27" s="410"/>
+      <c r="I27" s="410"/>
+      <c r="J27" s="410"/>
+      <c r="K27" s="410"/>
+      <c r="L27" s="410"/>
+      <c r="M27" s="411"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -22121,11 +22399,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="471" t="s">
+      <c r="O29" s="498" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="471"/>
-      <c r="Q29" s="471"/>
+      <c r="P29" s="498"/>
+      <c r="Q29" s="498"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -22170,21 +22448,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="466" t="s">
+      <c r="E32" s="502" t="s">
         <v>1093</v>
       </c>
-      <c r="F32" s="467"/>
-      <c r="G32" s="468"/>
-      <c r="H32" s="466" t="s">
+      <c r="F32" s="503"/>
+      <c r="G32" s="504"/>
+      <c r="H32" s="502" t="s">
         <v>1094</v>
       </c>
-      <c r="I32" s="467"/>
-      <c r="J32" s="468"/>
-      <c r="K32" s="466" t="s">
+      <c r="I32" s="503"/>
+      <c r="J32" s="504"/>
+      <c r="K32" s="502" t="s">
         <v>1095</v>
       </c>
-      <c r="L32" s="467"/>
-      <c r="M32" s="468"/>
+      <c r="L32" s="503"/>
+      <c r="M32" s="504"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -22201,15 +22479,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="466"/>
-      <c r="F33" s="467"/>
-      <c r="G33" s="468"/>
-      <c r="H33" s="466"/>
-      <c r="I33" s="467"/>
-      <c r="J33" s="468"/>
-      <c r="K33" s="466"/>
-      <c r="L33" s="467"/>
-      <c r="M33" s="468"/>
+      <c r="E33" s="502"/>
+      <c r="F33" s="503"/>
+      <c r="G33" s="504"/>
+      <c r="H33" s="502"/>
+      <c r="I33" s="503"/>
+      <c r="J33" s="504"/>
+      <c r="K33" s="502"/>
+      <c r="L33" s="503"/>
+      <c r="M33" s="504"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -22226,15 +22504,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="466"/>
-      <c r="F34" s="467"/>
-      <c r="G34" s="468"/>
-      <c r="H34" s="466"/>
-      <c r="I34" s="467"/>
-      <c r="J34" s="468"/>
-      <c r="K34" s="466"/>
-      <c r="L34" s="467"/>
-      <c r="M34" s="468"/>
+      <c r="E34" s="502"/>
+      <c r="F34" s="503"/>
+      <c r="G34" s="504"/>
+      <c r="H34" s="502"/>
+      <c r="I34" s="503"/>
+      <c r="J34" s="504"/>
+      <c r="K34" s="502"/>
+      <c r="L34" s="503"/>
+      <c r="M34" s="504"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -22245,15 +22523,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="466"/>
-      <c r="F35" s="467"/>
-      <c r="G35" s="468"/>
-      <c r="H35" s="466"/>
-      <c r="I35" s="467"/>
-      <c r="J35" s="468"/>
-      <c r="K35" s="466"/>
-      <c r="L35" s="467"/>
-      <c r="M35" s="468"/>
+      <c r="E35" s="502"/>
+      <c r="F35" s="503"/>
+      <c r="G35" s="504"/>
+      <c r="H35" s="502"/>
+      <c r="I35" s="503"/>
+      <c r="J35" s="504"/>
+      <c r="K35" s="502"/>
+      <c r="L35" s="503"/>
+      <c r="M35" s="504"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -22384,15 +22662,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="459"/>
-      <c r="F42" s="460"/>
-      <c r="G42" s="460"/>
-      <c r="H42" s="460"/>
-      <c r="I42" s="460"/>
-      <c r="J42" s="460"/>
-      <c r="K42" s="460"/>
-      <c r="L42" s="460"/>
-      <c r="M42" s="461"/>
+      <c r="E42" s="506"/>
+      <c r="F42" s="507"/>
+      <c r="G42" s="507"/>
+      <c r="H42" s="507"/>
+      <c r="I42" s="507"/>
+      <c r="J42" s="507"/>
+      <c r="K42" s="507"/>
+      <c r="L42" s="507"/>
+      <c r="M42" s="508"/>
       <c r="N42" s="39" t="s">
         <v>573</v>
       </c>
@@ -22411,83 +22689,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="403" t="s">
+      <c r="C44" s="420" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="404"/>
-      <c r="E44" s="403" t="s">
+      <c r="D44" s="421"/>
+      <c r="E44" s="420" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="405"/>
-      <c r="G44" s="404"/>
-      <c r="H44" s="403" t="s">
+      <c r="F44" s="422"/>
+      <c r="G44" s="421"/>
+      <c r="H44" s="420" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="405"/>
-      <c r="J44" s="405"/>
-      <c r="K44" s="405"/>
-      <c r="L44" s="405"/>
-      <c r="M44" s="404"/>
+      <c r="I44" s="422"/>
+      <c r="J44" s="422"/>
+      <c r="K44" s="422"/>
+      <c r="L44" s="422"/>
+      <c r="M44" s="421"/>
       <c r="Q44" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="469" t="s">
+      <c r="B47" s="496" t="s">
         <v>1091</v>
       </c>
-      <c r="C47" s="469"/>
-      <c r="D47" s="469"/>
-      <c r="E47" s="469"/>
-      <c r="F47" s="469"/>
-      <c r="G47" s="469"/>
-      <c r="H47" s="469"/>
-      <c r="I47" s="469"/>
-      <c r="J47" s="469"/>
-      <c r="K47" s="469"/>
-      <c r="L47" s="469"/>
-      <c r="M47" s="469"/>
-      <c r="N47" s="469"/>
-      <c r="O47" s="469"/>
-      <c r="P47" s="469"/>
-      <c r="Q47" s="469"/>
-      <c r="R47" s="469"/>
-      <c r="S47" s="469"/>
-      <c r="T47" s="469"/>
-      <c r="U47" s="469"/>
-      <c r="V47" s="469"/>
+      <c r="C47" s="496"/>
+      <c r="D47" s="496"/>
+      <c r="E47" s="496"/>
+      <c r="F47" s="496"/>
+      <c r="G47" s="496"/>
+      <c r="H47" s="496"/>
+      <c r="I47" s="496"/>
+      <c r="J47" s="496"/>
+      <c r="K47" s="496"/>
+      <c r="L47" s="496"/>
+      <c r="M47" s="496"/>
+      <c r="N47" s="496"/>
+      <c r="O47" s="496"/>
+      <c r="P47" s="496"/>
+      <c r="Q47" s="496"/>
+      <c r="R47" s="496"/>
+      <c r="S47" s="496"/>
+      <c r="T47" s="496"/>
+      <c r="U47" s="496"/>
+      <c r="V47" s="496"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="470" t="s">
+      <c r="C48" s="497" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="470"/>
-      <c r="E48" s="470"/>
-      <c r="F48" s="470"/>
-      <c r="G48" s="470"/>
-      <c r="H48" s="470"/>
-      <c r="I48" s="470"/>
-      <c r="J48" s="470"/>
-      <c r="K48" s="470"/>
-      <c r="L48" s="470"/>
-      <c r="M48" s="470"/>
+      <c r="D48" s="497"/>
+      <c r="E48" s="497"/>
+      <c r="F48" s="497"/>
+      <c r="G48" s="497"/>
+      <c r="H48" s="497"/>
+      <c r="I48" s="497"/>
+      <c r="J48" s="497"/>
+      <c r="K48" s="497"/>
+      <c r="L48" s="497"/>
+      <c r="M48" s="497"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="441" t="s">
+      <c r="E49" s="451" t="s">
         <v>177</v>
       </c>
-      <c r="F49" s="380"/>
-      <c r="G49" s="380"/>
-      <c r="H49" s="393"/>
-      <c r="I49" s="393"/>
-      <c r="J49" s="393"/>
-      <c r="K49" s="393"/>
-      <c r="L49" s="393"/>
-      <c r="M49" s="394"/>
+      <c r="F49" s="397"/>
+      <c r="G49" s="397"/>
+      <c r="H49" s="410"/>
+      <c r="I49" s="410"/>
+      <c r="J49" s="410"/>
+      <c r="K49" s="410"/>
+      <c r="L49" s="410"/>
+      <c r="M49" s="411"/>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="17"/>
@@ -22505,16 +22783,16 @@
       </c>
       <c r="F50" s="119"/>
       <c r="G50" s="241"/>
-      <c r="H50" s="473" t="s">
+      <c r="H50" s="499" t="s">
         <v>1094</v>
       </c>
-      <c r="I50" s="474"/>
-      <c r="J50" s="475"/>
-      <c r="K50" s="473" t="s">
+      <c r="I50" s="500"/>
+      <c r="J50" s="501"/>
+      <c r="K50" s="499" t="s">
         <v>1095</v>
       </c>
-      <c r="L50" s="474"/>
-      <c r="M50" s="475"/>
+      <c r="L50" s="500"/>
+      <c r="M50" s="501"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="W50" t="s">
@@ -22528,20 +22806,20 @@
         <v>1109</v>
       </c>
       <c r="F51" s="282"/>
-      <c r="G51" s="476" t="s">
+      <c r="G51" s="505" t="s">
         <v>1117</v>
       </c>
-      <c r="H51" s="466"/>
-      <c r="I51" s="467"/>
-      <c r="J51" s="468"/>
-      <c r="K51" s="466"/>
-      <c r="L51" s="467"/>
-      <c r="M51" s="468"/>
-      <c r="O51" s="471" t="s">
+      <c r="H51" s="502"/>
+      <c r="I51" s="503"/>
+      <c r="J51" s="504"/>
+      <c r="K51" s="502"/>
+      <c r="L51" s="503"/>
+      <c r="M51" s="504"/>
+      <c r="O51" s="498" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="471"/>
-      <c r="Q51" s="471"/>
+      <c r="P51" s="498"/>
+      <c r="Q51" s="498"/>
       <c r="S51" s="269"/>
       <c r="T51" s="269"/>
       <c r="W51" s="39" t="s">
@@ -22555,13 +22833,13 @@
         <v>1110</v>
       </c>
       <c r="F52" s="283"/>
-      <c r="G52" s="476"/>
-      <c r="H52" s="466"/>
-      <c r="I52" s="467"/>
-      <c r="J52" s="468"/>
-      <c r="K52" s="466"/>
-      <c r="L52" s="467"/>
-      <c r="M52" s="468"/>
+      <c r="G52" s="505"/>
+      <c r="H52" s="502"/>
+      <c r="I52" s="503"/>
+      <c r="J52" s="504"/>
+      <c r="K52" s="502"/>
+      <c r="L52" s="503"/>
+      <c r="M52" s="504"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
     </row>
@@ -22572,13 +22850,13 @@
         <v>1111</v>
       </c>
       <c r="F53" s="284"/>
-      <c r="G53" s="476"/>
-      <c r="H53" s="466"/>
-      <c r="I53" s="467"/>
-      <c r="J53" s="468"/>
-      <c r="K53" s="466"/>
-      <c r="L53" s="467"/>
-      <c r="M53" s="468"/>
+      <c r="G53" s="505"/>
+      <c r="H53" s="502"/>
+      <c r="I53" s="503"/>
+      <c r="J53" s="504"/>
+      <c r="K53" s="502"/>
+      <c r="L53" s="503"/>
+      <c r="M53" s="504"/>
       <c r="N53" s="5"/>
       <c r="O53" s="37" t="s">
         <v>181</v>
@@ -22617,7 +22895,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="270"/>
       <c r="F54" s="285"/>
-      <c r="G54" s="464" t="s">
+      <c r="G54" s="511" t="s">
         <v>1121</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22664,11 +22942,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="462" t="s">
+      <c r="E55" s="509" t="s">
         <v>1122</v>
       </c>
-      <c r="F55" s="463"/>
-      <c r="G55" s="465"/>
+      <c r="F55" s="510"/>
+      <c r="G55" s="512"/>
       <c r="H55" s="138" t="s">
         <v>1113</v>
       </c>
@@ -22712,9 +22990,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="462"/>
-      <c r="F56" s="463"/>
-      <c r="G56" s="465"/>
+      <c r="E56" s="509"/>
+      <c r="F56" s="510"/>
+      <c r="G56" s="512"/>
       <c r="H56" s="138" t="s">
         <v>1114</v>
       </c>
@@ -22744,9 +23022,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="462"/>
-      <c r="F57" s="463"/>
-      <c r="G57" s="465"/>
+      <c r="E57" s="509"/>
+      <c r="F57" s="510"/>
+      <c r="G57" s="512"/>
       <c r="H57" s="4" t="s">
         <v>1126</v>
       </c>
@@ -22776,9 +23054,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="462"/>
-      <c r="F58" s="463"/>
-      <c r="G58" s="465"/>
+      <c r="E58" s="509"/>
+      <c r="F58" s="510"/>
+      <c r="G58" s="512"/>
       <c r="H58" s="274" t="s">
         <v>1112</v>
       </c>
@@ -22803,9 +23081,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="462"/>
-      <c r="F59" s="463"/>
-      <c r="G59" s="465"/>
+      <c r="E59" s="509"/>
+      <c r="F59" s="510"/>
+      <c r="G59" s="512"/>
       <c r="H59" s="274" t="s">
         <v>547</v>
       </c>
@@ -22830,9 +23108,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="462"/>
-      <c r="F60" s="463"/>
-      <c r="G60" s="465"/>
+      <c r="E60" s="509"/>
+      <c r="F60" s="510"/>
+      <c r="G60" s="512"/>
       <c r="H60" s="276"/>
       <c r="I60" s="277" t="s">
         <v>1128</v>
@@ -22852,9 +23130,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="462"/>
-      <c r="F61" s="463"/>
-      <c r="G61" s="465"/>
+      <c r="E61" s="509"/>
+      <c r="F61" s="510"/>
+      <c r="G61" s="512"/>
       <c r="H61" s="276"/>
       <c r="I61" s="277" t="s">
         <v>1129</v>
@@ -22874,7 +23152,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="265"/>
       <c r="F62" s="281"/>
-      <c r="G62" s="465"/>
+      <c r="G62" s="512"/>
       <c r="H62" s="278"/>
       <c r="I62" s="280" t="s">
         <v>1130</v>
@@ -22916,15 +23194,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="459"/>
-      <c r="F64" s="460"/>
-      <c r="G64" s="460"/>
-      <c r="H64" s="460"/>
-      <c r="I64" s="460"/>
-      <c r="J64" s="460"/>
-      <c r="K64" s="460"/>
-      <c r="L64" s="460"/>
-      <c r="M64" s="461"/>
+      <c r="E64" s="506"/>
+      <c r="F64" s="507"/>
+      <c r="G64" s="507"/>
+      <c r="H64" s="507"/>
+      <c r="I64" s="507"/>
+      <c r="J64" s="507"/>
+      <c r="K64" s="507"/>
+      <c r="L64" s="507"/>
+      <c r="M64" s="508"/>
       <c r="N64" s="39" t="s">
         <v>573</v>
       </c>
@@ -22953,23 +23231,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="403" t="s">
+      <c r="C66" s="420" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="404"/>
-      <c r="E66" s="403" t="s">
+      <c r="D66" s="421"/>
+      <c r="E66" s="420" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="405"/>
-      <c r="G66" s="404"/>
-      <c r="H66" s="403" t="s">
+      <c r="F66" s="422"/>
+      <c r="G66" s="421"/>
+      <c r="H66" s="420" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="405"/>
-      <c r="J66" s="405"/>
-      <c r="K66" s="405"/>
-      <c r="L66" s="405"/>
-      <c r="M66" s="404"/>
+      <c r="I66" s="422"/>
+      <c r="J66" s="422"/>
+      <c r="K66" s="422"/>
+      <c r="L66" s="422"/>
+      <c r="M66" s="421"/>
       <c r="Q66" t="s">
         <v>1092</v>
       </c>
@@ -22990,23 +23268,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="409" t="s">
+      <c r="C68" s="426" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="409"/>
-      <c r="E68" s="409" t="s">
+      <c r="D68" s="426"/>
+      <c r="E68" s="426" t="s">
         <v>1377</v>
       </c>
-      <c r="F68" s="409"/>
-      <c r="G68" s="409"/>
-      <c r="H68" s="409" t="s">
+      <c r="F68" s="426"/>
+      <c r="G68" s="426"/>
+      <c r="H68" s="426" t="s">
         <v>1393</v>
       </c>
-      <c r="I68" s="409"/>
-      <c r="J68" s="409"/>
-      <c r="K68" s="409"/>
-      <c r="L68" s="409"/>
-      <c r="M68" s="409"/>
+      <c r="I68" s="426"/>
+      <c r="J68" s="426"/>
+      <c r="K68" s="426"/>
+      <c r="L68" s="426"/>
+      <c r="M68" s="426"/>
       <c r="S68" s="23"/>
       <c r="T68" s="23"/>
       <c r="U68" s="2" t="s">
@@ -23803,6 +24081,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -23819,30 +24121,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -23876,12 +24154,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="496" t="s">
+      <c r="B1" s="513" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="496"/>
-      <c r="D1" s="496"/>
-      <c r="E1" s="496"/>
+      <c r="C1" s="513"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
       <c r="I1" s="39" t="s">
         <v>549</v>
       </c>
@@ -23998,12 +24276,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="440" t="s">
+      <c r="B8" s="461" t="s">
         <v>1415</v>
       </c>
-      <c r="C8" s="440"/>
-      <c r="D8" s="440"/>
-      <c r="E8" s="440"/>
+      <c r="C8" s="461"/>
+      <c r="D8" s="461"/>
+      <c r="E8" s="461"/>
       <c r="J8" s="31" t="s">
         <v>552</v>
       </c>
@@ -24176,32 +24454,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="470" t="s">
+      <c r="C2" s="497" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="470"/>
-      <c r="E2" s="470"/>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="470"/>
-      <c r="I2" s="470"/>
-      <c r="J2" s="470"/>
-      <c r="K2" s="470"/>
-      <c r="L2" s="470"/>
+      <c r="D2" s="497"/>
+      <c r="E2" s="497"/>
+      <c r="F2" s="497"/>
+      <c r="G2" s="497"/>
+      <c r="H2" s="497"/>
+      <c r="I2" s="497"/>
+      <c r="J2" s="497"/>
+      <c r="K2" s="497"/>
+      <c r="L2" s="497"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="441" t="s">
+      <c r="E3" s="451" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="380"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
-      <c r="K3" s="393"/>
-      <c r="L3" s="394"/>
+      <c r="F3" s="397"/>
+      <c r="G3" s="410"/>
+      <c r="H3" s="410"/>
+      <c r="I3" s="410"/>
+      <c r="J3" s="410"/>
+      <c r="K3" s="410"/>
+      <c r="L3" s="411"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -24232,11 +24510,11 @@
         <v>587</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="471" t="s">
+      <c r="N5" s="498" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="471"/>
-      <c r="P5" s="471"/>
+      <c r="O5" s="498"/>
+      <c r="P5" s="498"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -24287,20 +24565,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="466" t="s">
+      <c r="E8" s="502" t="s">
         <v>569</v>
       </c>
-      <c r="F8" s="468"/>
-      <c r="G8" s="466" t="s">
+      <c r="F8" s="504"/>
+      <c r="G8" s="502" t="s">
         <v>570</v>
       </c>
-      <c r="H8" s="467"/>
-      <c r="I8" s="468"/>
-      <c r="J8" s="466" t="s">
+      <c r="H8" s="503"/>
+      <c r="I8" s="504"/>
+      <c r="J8" s="502" t="s">
         <v>571</v>
       </c>
-      <c r="K8" s="467"/>
-      <c r="L8" s="468"/>
+      <c r="K8" s="503"/>
+      <c r="L8" s="504"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -24323,14 +24601,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="466"/>
-      <c r="F9" s="468"/>
-      <c r="G9" s="466"/>
-      <c r="H9" s="467"/>
-      <c r="I9" s="468"/>
-      <c r="J9" s="466"/>
-      <c r="K9" s="467"/>
-      <c r="L9" s="468"/>
+      <c r="E9" s="502"/>
+      <c r="F9" s="504"/>
+      <c r="G9" s="502"/>
+      <c r="H9" s="503"/>
+      <c r="I9" s="504"/>
+      <c r="J9" s="502"/>
+      <c r="K9" s="503"/>
+      <c r="L9" s="504"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -24350,14 +24628,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="466"/>
-      <c r="F10" s="468"/>
-      <c r="G10" s="466"/>
-      <c r="H10" s="467"/>
-      <c r="I10" s="468"/>
-      <c r="J10" s="466"/>
-      <c r="K10" s="467"/>
-      <c r="L10" s="468"/>
+      <c r="E10" s="502"/>
+      <c r="F10" s="504"/>
+      <c r="G10" s="502"/>
+      <c r="H10" s="503"/>
+      <c r="I10" s="504"/>
+      <c r="J10" s="502"/>
+      <c r="K10" s="503"/>
+      <c r="L10" s="504"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -24371,14 +24649,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="466"/>
-      <c r="F11" s="468"/>
-      <c r="G11" s="466"/>
-      <c r="H11" s="467"/>
-      <c r="I11" s="468"/>
-      <c r="J11" s="466"/>
-      <c r="K11" s="467"/>
-      <c r="L11" s="468"/>
+      <c r="E11" s="502"/>
+      <c r="F11" s="504"/>
+      <c r="G11" s="502"/>
+      <c r="H11" s="503"/>
+      <c r="I11" s="504"/>
+      <c r="J11" s="502"/>
+      <c r="K11" s="503"/>
+      <c r="L11" s="504"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -24481,16 +24759,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="459" t="s">
+      <c r="E17" s="506" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="460"/>
-      <c r="G17" s="460"/>
-      <c r="H17" s="460"/>
-      <c r="I17" s="460"/>
-      <c r="J17" s="460"/>
-      <c r="K17" s="460"/>
-      <c r="L17" s="461"/>
+      <c r="F17" s="507"/>
+      <c r="G17" s="507"/>
+      <c r="H17" s="507"/>
+      <c r="I17" s="507"/>
+      <c r="J17" s="507"/>
+      <c r="K17" s="507"/>
+      <c r="L17" s="508"/>
       <c r="M17" s="39" t="s">
         <v>573</v>
       </c>
@@ -24508,40 +24786,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="403" t="s">
+      <c r="C19" s="420" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="404"/>
-      <c r="E19" s="403" t="s">
+      <c r="D19" s="421"/>
+      <c r="E19" s="420" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="404"/>
-      <c r="G19" s="403" t="s">
+      <c r="F19" s="421"/>
+      <c r="G19" s="420" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="405"/>
-      <c r="I19" s="405"/>
-      <c r="J19" s="405"/>
-      <c r="K19" s="405"/>
-      <c r="L19" s="404"/>
+      <c r="H19" s="422"/>
+      <c r="I19" s="422"/>
+      <c r="J19" s="422"/>
+      <c r="K19" s="422"/>
+      <c r="L19" s="421"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="497" t="s">
+      <c r="E21" s="514" t="s">
         <v>1406</v>
       </c>
-      <c r="F21" s="498"/>
+      <c r="F21" s="515"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="499"/>
-      <c r="F22" s="500"/>
+      <c r="E22" s="516"/>
+      <c r="F22" s="517"/>
       <c r="J22" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="499"/>
-      <c r="F23" s="500"/>
+      <c r="E23" s="516"/>
+      <c r="F23" s="517"/>
       <c r="H23" t="s">
         <v>1427</v>
       </c>
@@ -24553,8 +24831,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="501"/>
-      <c r="F24" s="502"/>
+      <c r="E24" s="518"/>
+      <c r="F24" s="519"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -25009,22 +25287,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="472" t="s">
+      <c r="E3" s="476" t="s">
         <v>516</v>
       </c>
-      <c r="F3" s="472"/>
-      <c r="G3" s="472" t="s">
+      <c r="F3" s="476"/>
+      <c r="G3" s="476" t="s">
         <v>517</v>
       </c>
-      <c r="H3" s="472"/>
-      <c r="I3" s="472"/>
-      <c r="J3" s="472"/>
-      <c r="K3" s="472"/>
-      <c r="L3" s="472"/>
-      <c r="M3" s="472" t="s">
+      <c r="H3" s="476"/>
+      <c r="I3" s="476"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="476"/>
+      <c r="L3" s="476"/>
+      <c r="M3" s="476" t="s">
         <v>518</v>
       </c>
-      <c r="N3" s="472"/>
+      <c r="N3" s="476"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -25064,18 +25342,18 @@
       </c>
       <c r="D5" s="135"/>
       <c r="E5" s="478"/>
-      <c r="F5" s="419" t="s">
+      <c r="F5" s="436" t="s">
         <v>615</v>
       </c>
-      <c r="G5" s="420"/>
-      <c r="H5" s="421"/>
-      <c r="I5" s="503" t="s">
+      <c r="G5" s="437"/>
+      <c r="H5" s="438"/>
+      <c r="I5" s="549" t="s">
         <v>616</v>
       </c>
-      <c r="J5" s="504"/>
-      <c r="K5" s="504"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="550"/>
       <c r="L5" s="485"/>
-      <c r="M5" s="503" t="s">
+      <c r="M5" s="549" t="s">
         <v>617</v>
       </c>
       <c r="N5" s="485"/>
@@ -25090,12 +25368,12 @@
       <c r="C6" s="136"/>
       <c r="D6" s="137"/>
       <c r="E6" s="478"/>
-      <c r="F6" s="422"/>
-      <c r="G6" s="423"/>
-      <c r="H6" s="424"/>
+      <c r="F6" s="439"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
       <c r="I6" s="486"/>
-      <c r="J6" s="505"/>
-      <c r="K6" s="505"/>
+      <c r="J6" s="551"/>
+      <c r="K6" s="551"/>
       <c r="L6" s="487"/>
       <c r="M6" s="486"/>
       <c r="N6" s="487"/>
@@ -25116,12 +25394,12 @@
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="478"/>
-      <c r="F7" s="422"/>
-      <c r="G7" s="423"/>
-      <c r="H7" s="424"/>
+      <c r="F7" s="439"/>
+      <c r="G7" s="440"/>
+      <c r="H7" s="441"/>
       <c r="I7" s="486"/>
-      <c r="J7" s="505"/>
-      <c r="K7" s="505"/>
+      <c r="J7" s="551"/>
+      <c r="K7" s="551"/>
       <c r="L7" s="487"/>
       <c r="M7" s="486"/>
       <c r="N7" s="487"/>
@@ -25144,12 +25422,12 @@
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
       <c r="E8" s="478"/>
-      <c r="F8" s="422"/>
-      <c r="G8" s="423"/>
-      <c r="H8" s="424"/>
+      <c r="F8" s="439"/>
+      <c r="G8" s="440"/>
+      <c r="H8" s="441"/>
       <c r="I8" s="486"/>
-      <c r="J8" s="505"/>
-      <c r="K8" s="505"/>
+      <c r="J8" s="551"/>
+      <c r="K8" s="551"/>
       <c r="L8" s="487"/>
       <c r="M8" s="486"/>
       <c r="N8" s="487"/>
@@ -25174,12 +25452,12 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="478"/>
-      <c r="F9" s="422"/>
-      <c r="G9" s="423"/>
-      <c r="H9" s="424"/>
+      <c r="F9" s="439"/>
+      <c r="G9" s="440"/>
+      <c r="H9" s="441"/>
       <c r="I9" s="486"/>
-      <c r="J9" s="505"/>
-      <c r="K9" s="505"/>
+      <c r="J9" s="551"/>
+      <c r="K9" s="551"/>
       <c r="L9" s="487"/>
       <c r="M9" s="486"/>
       <c r="N9" s="487"/>
@@ -25200,12 +25478,12 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="478"/>
-      <c r="F10" s="422"/>
-      <c r="G10" s="423"/>
-      <c r="H10" s="424"/>
+      <c r="F10" s="439"/>
+      <c r="G10" s="440"/>
+      <c r="H10" s="441"/>
       <c r="I10" s="486"/>
-      <c r="J10" s="505"/>
-      <c r="K10" s="505"/>
+      <c r="J10" s="551"/>
+      <c r="K10" s="551"/>
       <c r="L10" s="487"/>
       <c r="M10" s="486"/>
       <c r="N10" s="487"/>
@@ -25222,12 +25500,12 @@
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="478"/>
-      <c r="F11" s="422"/>
-      <c r="G11" s="423"/>
-      <c r="H11" s="424"/>
+      <c r="F11" s="439"/>
+      <c r="G11" s="440"/>
+      <c r="H11" s="441"/>
       <c r="I11" s="486"/>
-      <c r="J11" s="505"/>
-      <c r="K11" s="505"/>
+      <c r="J11" s="551"/>
+      <c r="K11" s="551"/>
       <c r="L11" s="487"/>
       <c r="M11" s="486"/>
       <c r="N11" s="487"/>
@@ -25242,12 +25520,12 @@
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="478"/>
-      <c r="F12" s="422"/>
-      <c r="G12" s="423"/>
-      <c r="H12" s="424"/>
+      <c r="F12" s="439"/>
+      <c r="G12" s="440"/>
+      <c r="H12" s="441"/>
       <c r="I12" s="486"/>
-      <c r="J12" s="505"/>
-      <c r="K12" s="505"/>
+      <c r="J12" s="551"/>
+      <c r="K12" s="551"/>
       <c r="L12" s="487"/>
       <c r="M12" s="486"/>
       <c r="N12" s="487"/>
@@ -25264,12 +25542,12 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="478"/>
-      <c r="F13" s="422"/>
-      <c r="G13" s="423"/>
-      <c r="H13" s="424"/>
+      <c r="F13" s="439"/>
+      <c r="G13" s="440"/>
+      <c r="H13" s="441"/>
       <c r="I13" s="486"/>
-      <c r="J13" s="505"/>
-      <c r="K13" s="505"/>
+      <c r="J13" s="551"/>
+      <c r="K13" s="551"/>
       <c r="L13" s="487"/>
       <c r="M13" s="486"/>
       <c r="N13" s="487"/>
@@ -25284,12 +25562,12 @@
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
       <c r="E14" s="478"/>
-      <c r="F14" s="422"/>
-      <c r="G14" s="423"/>
-      <c r="H14" s="424"/>
+      <c r="F14" s="439"/>
+      <c r="G14" s="440"/>
+      <c r="H14" s="441"/>
       <c r="I14" s="486"/>
-      <c r="J14" s="505"/>
-      <c r="K14" s="505"/>
+      <c r="J14" s="551"/>
+      <c r="K14" s="551"/>
       <c r="L14" s="487"/>
       <c r="M14" s="486"/>
       <c r="N14" s="487"/>
@@ -25304,12 +25582,12 @@
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="478"/>
-      <c r="F15" s="422"/>
-      <c r="G15" s="423"/>
-      <c r="H15" s="424"/>
+      <c r="F15" s="439"/>
+      <c r="G15" s="440"/>
+      <c r="H15" s="441"/>
       <c r="I15" s="486"/>
-      <c r="J15" s="505"/>
-      <c r="K15" s="505"/>
+      <c r="J15" s="551"/>
+      <c r="K15" s="551"/>
       <c r="L15" s="487"/>
       <c r="M15" s="486"/>
       <c r="N15" s="487"/>
@@ -25324,12 +25602,12 @@
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
       <c r="E16" s="478"/>
-      <c r="F16" s="422"/>
-      <c r="G16" s="423"/>
-      <c r="H16" s="424"/>
+      <c r="F16" s="439"/>
+      <c r="G16" s="440"/>
+      <c r="H16" s="441"/>
       <c r="I16" s="486"/>
-      <c r="J16" s="505"/>
-      <c r="K16" s="505"/>
+      <c r="J16" s="551"/>
+      <c r="K16" s="551"/>
       <c r="L16" s="487"/>
       <c r="M16" s="486"/>
       <c r="N16" s="487"/>
@@ -25346,12 +25624,12 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="478"/>
-      <c r="F17" s="422"/>
-      <c r="G17" s="423"/>
-      <c r="H17" s="424"/>
+      <c r="F17" s="439"/>
+      <c r="G17" s="440"/>
+      <c r="H17" s="441"/>
       <c r="I17" s="486"/>
-      <c r="J17" s="505"/>
-      <c r="K17" s="505"/>
+      <c r="J17" s="551"/>
+      <c r="K17" s="551"/>
       <c r="L17" s="487"/>
       <c r="M17" s="486"/>
       <c r="N17" s="487"/>
@@ -25366,12 +25644,12 @@
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="479"/>
-      <c r="F18" s="425"/>
-      <c r="G18" s="426"/>
-      <c r="H18" s="427"/>
+      <c r="F18" s="442"/>
+      <c r="G18" s="443"/>
+      <c r="H18" s="444"/>
       <c r="I18" s="488"/>
-      <c r="J18" s="506"/>
-      <c r="K18" s="506"/>
+      <c r="J18" s="552"/>
+      <c r="K18" s="552"/>
       <c r="L18" s="489"/>
       <c r="M18" s="488"/>
       <c r="N18" s="489"/>
@@ -25403,26 +25681,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="403" t="s">
+      <c r="C20" s="420" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="404"/>
+      <c r="D20" s="421"/>
       <c r="E20" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="403" t="s">
+      <c r="F20" s="420" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="405"/>
-      <c r="H20" s="405"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="405"/>
-      <c r="K20" s="405"/>
-      <c r="L20" s="404"/>
-      <c r="M20" s="403" t="s">
+      <c r="G20" s="422"/>
+      <c r="H20" s="422"/>
+      <c r="I20" s="422"/>
+      <c r="J20" s="422"/>
+      <c r="K20" s="422"/>
+      <c r="L20" s="421"/>
+      <c r="M20" s="420" t="s">
         <v>526</v>
       </c>
-      <c r="N20" s="404"/>
+      <c r="N20" s="421"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -25450,39 +25728,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="471" t="s">
+      <c r="B24" s="498" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="471"/>
-      <c r="D24" s="470"/>
-      <c r="E24" s="470"/>
-      <c r="F24" s="470"/>
-      <c r="G24" s="470"/>
-      <c r="H24" s="470"/>
-      <c r="I24" s="470"/>
-      <c r="J24" s="470"/>
-      <c r="K24" s="470"/>
-      <c r="M24" s="524" t="s">
+      <c r="C24" s="498"/>
+      <c r="D24" s="497"/>
+      <c r="E24" s="497"/>
+      <c r="F24" s="497"/>
+      <c r="G24" s="497"/>
+      <c r="H24" s="497"/>
+      <c r="I24" s="497"/>
+      <c r="J24" s="497"/>
+      <c r="K24" s="497"/>
+      <c r="M24" s="520" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="524"/>
-      <c r="O24" s="524"/>
+      <c r="N24" s="520"/>
+      <c r="O24" s="520"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="525" t="s">
+      <c r="B25" s="521" t="s">
         <v>928</v>
       </c>
-      <c r="C25" s="448"/>
-      <c r="D25" s="393" t="s">
+      <c r="C25" s="464"/>
+      <c r="D25" s="410" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="393"/>
-      <c r="F25" s="393"/>
-      <c r="G25" s="393"/>
-      <c r="H25" s="393"/>
-      <c r="I25" s="393"/>
-      <c r="J25" s="393"/>
-      <c r="K25" s="394"/>
+      <c r="E25" s="410"/>
+      <c r="F25" s="410"/>
+      <c r="G25" s="410"/>
+      <c r="H25" s="410"/>
+      <c r="I25" s="410"/>
+      <c r="J25" s="410"/>
+      <c r="K25" s="411"/>
       <c r="M25" s="37" t="s">
         <v>181</v>
       </c>
@@ -25494,22 +25772,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="449"/>
-      <c r="C26" s="450"/>
-      <c r="D26" s="447" t="s">
+      <c r="B26" s="465"/>
+      <c r="C26" s="466"/>
+      <c r="D26" s="463" t="s">
         <v>921</v>
       </c>
-      <c r="E26" s="448"/>
-      <c r="F26" s="519" t="s">
+      <c r="E26" s="464"/>
+      <c r="F26" s="547" t="s">
         <v>921</v>
       </c>
-      <c r="G26" s="393"/>
-      <c r="H26" s="394"/>
-      <c r="I26" s="392" t="s">
+      <c r="G26" s="410"/>
+      <c r="H26" s="411"/>
+      <c r="I26" s="409" t="s">
         <v>925</v>
       </c>
-      <c r="J26" s="393"/>
-      <c r="K26" s="394"/>
+      <c r="J26" s="410"/>
+      <c r="K26" s="411"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -25524,22 +25802,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="449"/>
-      <c r="C27" s="450"/>
-      <c r="D27" s="440" t="s">
+      <c r="B27" s="465"/>
+      <c r="C27" s="466"/>
+      <c r="D27" s="461" t="s">
         <v>926</v>
       </c>
-      <c r="E27" s="450"/>
-      <c r="F27" s="449" t="s">
+      <c r="E27" s="466"/>
+      <c r="F27" s="465" t="s">
         <v>922</v>
       </c>
-      <c r="G27" s="440"/>
-      <c r="H27" s="385"/>
-      <c r="I27" s="523" t="s">
+      <c r="G27" s="461"/>
+      <c r="H27" s="402"/>
+      <c r="I27" s="531" t="s">
         <v>926</v>
       </c>
-      <c r="J27" s="440"/>
-      <c r="K27" s="385"/>
+      <c r="J27" s="461"/>
+      <c r="K27" s="402"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -25554,22 +25832,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="449"/>
-      <c r="C28" s="450"/>
-      <c r="D28" s="440" t="s">
+      <c r="B28" s="465"/>
+      <c r="C28" s="466"/>
+      <c r="D28" s="461" t="s">
         <v>923</v>
       </c>
-      <c r="E28" s="450"/>
-      <c r="F28" s="449" t="s">
+      <c r="E28" s="466"/>
+      <c r="F28" s="465" t="s">
         <v>923</v>
       </c>
-      <c r="G28" s="440"/>
-      <c r="H28" s="385"/>
-      <c r="I28" s="523" t="s">
+      <c r="G28" s="461"/>
+      <c r="H28" s="402"/>
+      <c r="I28" s="531" t="s">
         <v>923</v>
       </c>
-      <c r="J28" s="440"/>
-      <c r="K28" s="385"/>
+      <c r="J28" s="461"/>
+      <c r="K28" s="402"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -25578,22 +25856,22 @@
       <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="451"/>
-      <c r="C29" s="452"/>
-      <c r="D29" s="440" t="s">
+      <c r="B29" s="467"/>
+      <c r="C29" s="468"/>
+      <c r="D29" s="461" t="s">
         <v>924</v>
       </c>
-      <c r="E29" s="450"/>
-      <c r="F29" s="520" t="s">
+      <c r="E29" s="466"/>
+      <c r="F29" s="548" t="s">
         <v>924</v>
       </c>
-      <c r="G29" s="521"/>
-      <c r="H29" s="522"/>
-      <c r="I29" s="535" t="s">
+      <c r="G29" s="533"/>
+      <c r="H29" s="534"/>
+      <c r="I29" s="532" t="s">
         <v>924</v>
       </c>
-      <c r="J29" s="521"/>
-      <c r="K29" s="522"/>
+      <c r="J29" s="533"/>
+      <c r="K29" s="534"/>
       <c r="L29" s="23" t="s">
         <v>2</v>
       </c>
@@ -25602,149 +25880,149 @@
       <c r="O29" s="37"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="395" t="s">
+      <c r="B30" s="412" t="s">
         <v>927</v>
       </c>
-      <c r="C30" s="397"/>
-      <c r="D30" s="507" t="s">
+      <c r="C30" s="414"/>
+      <c r="D30" s="535" t="s">
         <v>569</v>
       </c>
-      <c r="E30" s="508"/>
-      <c r="F30" s="512" t="s">
+      <c r="E30" s="536"/>
+      <c r="F30" s="540" t="s">
         <v>570</v>
       </c>
-      <c r="G30" s="513"/>
-      <c r="H30" s="508"/>
-      <c r="I30" s="512" t="s">
+      <c r="G30" s="541"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="540" t="s">
         <v>571</v>
       </c>
-      <c r="J30" s="513"/>
-      <c r="K30" s="516"/>
+      <c r="J30" s="541"/>
+      <c r="K30" s="544"/>
       <c r="L30" s="5"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="386"/>
-      <c r="C31" s="399"/>
-      <c r="D31" s="509"/>
-      <c r="E31" s="468"/>
-      <c r="F31" s="466"/>
-      <c r="G31" s="467"/>
-      <c r="H31" s="468"/>
-      <c r="I31" s="466"/>
-      <c r="J31" s="467"/>
-      <c r="K31" s="517"/>
+      <c r="B31" s="403"/>
+      <c r="C31" s="416"/>
+      <c r="D31" s="537"/>
+      <c r="E31" s="504"/>
+      <c r="F31" s="502"/>
+      <c r="G31" s="503"/>
+      <c r="H31" s="504"/>
+      <c r="I31" s="502"/>
+      <c r="J31" s="503"/>
+      <c r="K31" s="545"/>
       <c r="L31" s="5"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="386"/>
-      <c r="C32" s="399"/>
-      <c r="D32" s="509"/>
-      <c r="E32" s="468"/>
-      <c r="F32" s="466"/>
-      <c r="G32" s="467"/>
-      <c r="H32" s="468"/>
-      <c r="I32" s="466"/>
-      <c r="J32" s="467"/>
-      <c r="K32" s="517"/>
+      <c r="B32" s="403"/>
+      <c r="C32" s="416"/>
+      <c r="D32" s="537"/>
+      <c r="E32" s="504"/>
+      <c r="F32" s="502"/>
+      <c r="G32" s="503"/>
+      <c r="H32" s="504"/>
+      <c r="I32" s="502"/>
+      <c r="J32" s="503"/>
+      <c r="K32" s="545"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="386"/>
-      <c r="C33" s="399"/>
-      <c r="D33" s="510"/>
-      <c r="E33" s="511"/>
-      <c r="F33" s="514"/>
-      <c r="G33" s="515"/>
-      <c r="H33" s="511"/>
-      <c r="I33" s="514"/>
-      <c r="J33" s="515"/>
-      <c r="K33" s="518"/>
+      <c r="B33" s="403"/>
+      <c r="C33" s="416"/>
+      <c r="D33" s="538"/>
+      <c r="E33" s="539"/>
+      <c r="F33" s="542"/>
+      <c r="G33" s="543"/>
+      <c r="H33" s="539"/>
+      <c r="I33" s="542"/>
+      <c r="J33" s="543"/>
+      <c r="K33" s="546"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="386"/>
-      <c r="C34" s="388"/>
-      <c r="D34" s="526" t="s">
+      <c r="B34" s="403"/>
+      <c r="C34" s="405"/>
+      <c r="D34" s="522" t="s">
         <v>914</v>
       </c>
-      <c r="E34" s="527"/>
-      <c r="F34" s="526" t="s">
+      <c r="E34" s="523"/>
+      <c r="F34" s="522" t="s">
         <v>591</v>
       </c>
-      <c r="G34" s="532"/>
-      <c r="H34" s="527"/>
-      <c r="I34" s="526" t="s">
+      <c r="G34" s="528"/>
+      <c r="H34" s="523"/>
+      <c r="I34" s="522" t="s">
         <v>929</v>
       </c>
-      <c r="J34" s="532"/>
-      <c r="K34" s="527"/>
+      <c r="J34" s="528"/>
+      <c r="K34" s="523"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="386"/>
-      <c r="C35" s="388"/>
-      <c r="D35" s="528"/>
-      <c r="E35" s="529"/>
-      <c r="F35" s="528"/>
-      <c r="G35" s="533"/>
-      <c r="H35" s="529"/>
-      <c r="I35" s="528"/>
-      <c r="J35" s="533"/>
-      <c r="K35" s="529"/>
+      <c r="B35" s="403"/>
+      <c r="C35" s="405"/>
+      <c r="D35" s="524"/>
+      <c r="E35" s="525"/>
+      <c r="F35" s="524"/>
+      <c r="G35" s="529"/>
+      <c r="H35" s="525"/>
+      <c r="I35" s="524"/>
+      <c r="J35" s="529"/>
+      <c r="K35" s="525"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="386"/>
-      <c r="C36" s="388"/>
-      <c r="D36" s="528"/>
-      <c r="E36" s="529"/>
-      <c r="F36" s="528"/>
-      <c r="G36" s="533"/>
-      <c r="H36" s="529"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="533"/>
-      <c r="K36" s="529"/>
+      <c r="B36" s="403"/>
+      <c r="C36" s="405"/>
+      <c r="D36" s="524"/>
+      <c r="E36" s="525"/>
+      <c r="F36" s="524"/>
+      <c r="G36" s="529"/>
+      <c r="H36" s="525"/>
+      <c r="I36" s="524"/>
+      <c r="J36" s="529"/>
+      <c r="K36" s="525"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="386"/>
-      <c r="C37" s="388"/>
-      <c r="D37" s="528"/>
-      <c r="E37" s="529"/>
-      <c r="F37" s="528"/>
-      <c r="G37" s="533"/>
-      <c r="H37" s="529"/>
-      <c r="I37" s="528"/>
-      <c r="J37" s="533"/>
-      <c r="K37" s="529"/>
+      <c r="B37" s="403"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="524"/>
+      <c r="E37" s="525"/>
+      <c r="F37" s="524"/>
+      <c r="G37" s="529"/>
+      <c r="H37" s="525"/>
+      <c r="I37" s="524"/>
+      <c r="J37" s="529"/>
+      <c r="K37" s="525"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="386"/>
-      <c r="C38" s="388"/>
-      <c r="D38" s="530"/>
-      <c r="E38" s="531"/>
-      <c r="F38" s="530"/>
-      <c r="G38" s="534"/>
-      <c r="H38" s="531"/>
-      <c r="I38" s="530"/>
-      <c r="J38" s="534"/>
-      <c r="K38" s="531"/>
+      <c r="B38" s="403"/>
+      <c r="C38" s="405"/>
+      <c r="D38" s="526"/>
+      <c r="E38" s="527"/>
+      <c r="F38" s="526"/>
+      <c r="G38" s="530"/>
+      <c r="H38" s="527"/>
+      <c r="I38" s="526"/>
+      <c r="J38" s="530"/>
+      <c r="K38" s="527"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="400"/>
-      <c r="C39" s="402"/>
-      <c r="D39" s="459" t="s">
+      <c r="B39" s="417"/>
+      <c r="C39" s="419"/>
+      <c r="D39" s="506" t="s">
         <v>572</v>
       </c>
-      <c r="E39" s="460"/>
-      <c r="F39" s="460"/>
-      <c r="G39" s="460"/>
-      <c r="H39" s="460"/>
-      <c r="I39" s="460"/>
-      <c r="J39" s="460"/>
-      <c r="K39" s="461"/>
+      <c r="E39" s="507"/>
+      <c r="F39" s="507"/>
+      <c r="G39" s="507"/>
+      <c r="H39" s="507"/>
+      <c r="I39" s="507"/>
+      <c r="J39" s="507"/>
+      <c r="K39" s="508"/>
       <c r="L39" s="39" t="s">
         <v>573</v>
       </c>
@@ -25762,36 +26040,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="403" t="s">
+      <c r="B41" s="420" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="404"/>
-      <c r="D41" s="403" t="s">
+      <c r="C41" s="421"/>
+      <c r="D41" s="420" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="404"/>
-      <c r="F41" s="403" t="s">
+      <c r="E41" s="421"/>
+      <c r="F41" s="420" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="405"/>
-      <c r="H41" s="405"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="405"/>
-      <c r="K41" s="404"/>
+      <c r="G41" s="422"/>
+      <c r="H41" s="422"/>
+      <c r="I41" s="422"/>
+      <c r="J41" s="422"/>
+      <c r="K41" s="421"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -25808,16 +26085,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -26360,13 +26638,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="379" t="s">
+      <c r="A5" s="396" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="380"/>
-      <c r="C5" s="380"/>
-      <c r="D5" s="380"/>
-      <c r="E5" s="381"/>
+      <c r="B5" s="397"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="397"/>
+      <c r="E5" s="398"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>149</v>
@@ -27164,7 +27442,7 @@
       <c r="K4" s="223"/>
       <c r="L4" s="223"/>
       <c r="M4" s="232"/>
-      <c r="N4" s="386" t="s">
+      <c r="N4" s="403" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -27182,7 +27460,7 @@
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="386"/>
+      <c r="N5" s="403"/>
     </row>
     <row r="6" spans="3:16">
       <c r="C6" s="331">
@@ -27198,7 +27476,7 @@
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="386"/>
+      <c r="N6" s="403"/>
     </row>
     <row r="7" spans="3:16">
       <c r="C7" s="331">
@@ -27214,7 +27492,7 @@
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="386"/>
+      <c r="N7" s="403"/>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" s="331">
@@ -27230,7 +27508,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="386"/>
+      <c r="N8" s="403"/>
     </row>
     <row r="9" spans="3:16">
       <c r="C9" s="331">
@@ -27246,7 +27524,7 @@
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="386"/>
+      <c r="N9" s="403"/>
     </row>
     <row r="10" spans="3:16">
       <c r="C10" s="331">
@@ -27262,7 +27540,7 @@
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="386"/>
+      <c r="N10" s="403"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
       <c r="C11" s="331">
@@ -27278,7 +27556,7 @@
       <c r="K11" s="225"/>
       <c r="L11" s="225"/>
       <c r="M11" s="233"/>
-      <c r="N11" s="386"/>
+      <c r="N11" s="403"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1">
       <c r="C12" s="331">
@@ -27632,7 +27910,7 @@
       </c>
     </row>
     <row r="153" spans="3:14">
-      <c r="C153" s="389" t="s">
+      <c r="C153" s="406" t="s">
         <v>166</v>
       </c>
       <c r="D153">
@@ -27658,7 +27936,7 @@
       </c>
     </row>
     <row r="154" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C154" s="389"/>
+      <c r="C154" s="406"/>
       <c r="D154">
         <v>20</v>
       </c>
@@ -27686,7 +27964,7 @@
       <c r="N154" s="63"/>
     </row>
     <row r="155" spans="3:14">
-      <c r="C155" s="389" t="s">
+      <c r="C155" s="406" t="s">
         <v>167</v>
       </c>
       <c r="D155">
@@ -27704,7 +27982,7 @@
       <c r="N155" s="169"/>
     </row>
     <row r="156" spans="3:14">
-      <c r="C156" s="389"/>
+      <c r="C156" s="406"/>
       <c r="D156">
         <v>40</v>
       </c>
@@ -27720,7 +27998,7 @@
       <c r="N156" s="169"/>
     </row>
     <row r="157" spans="3:14">
-      <c r="C157" s="389"/>
+      <c r="C157" s="406"/>
       <c r="D157">
         <v>50</v>
       </c>
@@ -27736,7 +28014,7 @@
       <c r="N157" s="169"/>
     </row>
     <row r="158" spans="3:14">
-      <c r="C158" s="389"/>
+      <c r="C158" s="406"/>
       <c r="D158">
         <v>60</v>
       </c>
@@ -27754,7 +28032,7 @@
       <c r="N158" s="169"/>
     </row>
     <row r="159" spans="3:14">
-      <c r="C159" s="389"/>
+      <c r="C159" s="406"/>
       <c r="D159">
         <v>70</v>
       </c>
@@ -27770,7 +28048,7 @@
       <c r="N159" s="169"/>
     </row>
     <row r="160" spans="3:14">
-      <c r="C160" s="389"/>
+      <c r="C160" s="406"/>
       <c r="D160">
         <v>80</v>
       </c>
@@ -27786,7 +28064,7 @@
       <c r="N160" s="169"/>
     </row>
     <row r="161" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C161" s="389"/>
+      <c r="C161" s="406"/>
       <c r="D161">
         <v>90</v>
       </c>
@@ -27874,7 +28152,7 @@
       </c>
     </row>
     <row r="166" spans="3:14">
-      <c r="D166" s="387">
+      <c r="D166" s="404">
         <v>1</v>
       </c>
       <c r="E166" s="170"/>
@@ -27889,7 +28167,7 @@
       <c r="N166" s="175"/>
     </row>
     <row r="167" spans="3:14">
-      <c r="D167" s="388"/>
+      <c r="D167" s="405"/>
       <c r="E167" s="171"/>
       <c r="F167" s="167"/>
       <c r="G167" s="168"/>
@@ -27902,7 +28180,7 @@
       <c r="N167" s="169"/>
     </row>
     <row r="168" spans="3:14">
-      <c r="D168" s="388"/>
+      <c r="D168" s="405"/>
       <c r="E168" s="171"/>
       <c r="F168" s="167"/>
       <c r="G168" s="168"/>
@@ -27915,7 +28193,7 @@
       <c r="N168" s="169"/>
     </row>
     <row r="169" spans="3:14">
-      <c r="D169" s="388"/>
+      <c r="D169" s="405"/>
       <c r="E169" s="171" t="s">
         <v>677</v>
       </c>
@@ -27932,7 +28210,7 @@
       <c r="N169" s="169"/>
     </row>
     <row r="170" spans="3:14">
-      <c r="D170" s="388"/>
+      <c r="D170" s="405"/>
       <c r="E170" s="171"/>
       <c r="F170" s="167"/>
       <c r="G170" s="168"/>
@@ -27945,7 +28223,7 @@
       <c r="N170" s="169"/>
     </row>
     <row r="171" spans="3:14">
-      <c r="D171" s="388"/>
+      <c r="D171" s="405"/>
       <c r="E171" s="171"/>
       <c r="F171" s="167"/>
       <c r="G171" s="168"/>
@@ -27958,7 +28236,7 @@
       <c r="N171" s="169"/>
     </row>
     <row r="172" spans="3:14" ht="15.75" thickBot="1">
-      <c r="D172" s="388"/>
+      <c r="D172" s="405"/>
       <c r="E172" s="172"/>
       <c r="F172" s="176"/>
       <c r="G172" s="177"/>
@@ -28081,7 +28359,7 @@
       <c r="K201" s="174"/>
       <c r="L201" s="174"/>
       <c r="M201" s="174"/>
-      <c r="N201" s="383" t="s">
+      <c r="N201" s="400" t="s">
         <v>931</v>
       </c>
     </row>
@@ -28099,7 +28377,7 @@
       <c r="K202" s="177"/>
       <c r="L202" s="177"/>
       <c r="M202" s="177"/>
-      <c r="N202" s="383"/>
+      <c r="N202" s="400"/>
     </row>
     <row r="203" spans="3:14">
       <c r="C203">
@@ -28115,7 +28393,7 @@
       <c r="K203" s="226"/>
       <c r="L203" s="226"/>
       <c r="M203" s="289"/>
-      <c r="N203" s="382" t="s">
+      <c r="N203" s="399" t="s">
         <v>934</v>
       </c>
     </row>
@@ -28133,7 +28411,7 @@
       <c r="K204" s="227"/>
       <c r="L204" s="227"/>
       <c r="M204" s="291"/>
-      <c r="N204" s="382"/>
+      <c r="N204" s="399"/>
     </row>
     <row r="205" spans="3:14">
       <c r="C205">
@@ -28149,7 +28427,7 @@
       <c r="K205" s="227"/>
       <c r="L205" s="227"/>
       <c r="M205" s="291"/>
-      <c r="N205" s="382"/>
+      <c r="N205" s="399"/>
     </row>
     <row r="206" spans="3:14" ht="15.75" thickBot="1">
       <c r="C206">
@@ -28169,7 +28447,7 @@
       <c r="K206" s="228"/>
       <c r="L206" s="228"/>
       <c r="M206" s="293"/>
-      <c r="N206" s="382"/>
+      <c r="N206" s="399"/>
     </row>
     <row r="207" spans="3:14">
       <c r="C207">
@@ -28185,7 +28463,7 @@
       <c r="K207" s="227"/>
       <c r="L207" s="227"/>
       <c r="M207" s="227"/>
-      <c r="N207" s="383"/>
+      <c r="N207" s="400"/>
     </row>
     <row r="208" spans="3:14">
       <c r="C208">
@@ -28201,7 +28479,7 @@
       <c r="K208" s="227"/>
       <c r="L208" s="227"/>
       <c r="M208" s="227"/>
-      <c r="N208" s="383"/>
+      <c r="N208" s="400"/>
     </row>
     <row r="209" spans="3:14" ht="15.75" thickBot="1">
       <c r="C209">
@@ -28217,7 +28495,7 @@
       <c r="K209" s="228"/>
       <c r="L209" s="228"/>
       <c r="M209" s="228"/>
-      <c r="N209" s="383"/>
+      <c r="N209" s="400"/>
     </row>
     <row r="210" spans="3:14" ht="15.75" thickBot="1">
       <c r="C210">
@@ -28304,7 +28582,7 @@
       </c>
     </row>
     <row r="218" spans="3:14">
-      <c r="C218" s="384">
+      <c r="C218" s="401">
         <v>1</v>
       </c>
       <c r="D218" s="222"/>
@@ -28319,7 +28597,7 @@
       <c r="M218" s="232"/>
     </row>
     <row r="219" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C219" s="385"/>
+      <c r="C219" s="402"/>
       <c r="D219" s="224"/>
       <c r="E219" s="225"/>
       <c r="F219" s="225"/>
@@ -28523,8 +28801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28577,14 +28855,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="392" t="s">
+      <c r="K4" s="409" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="393"/>
-      <c r="M4" s="393"/>
-      <c r="N4" s="393"/>
-      <c r="O4" s="393"/>
-      <c r="P4" s="394"/>
+      <c r="L4" s="410"/>
+      <c r="M4" s="410"/>
+      <c r="N4" s="410"/>
+      <c r="O4" s="410"/>
+      <c r="P4" s="411"/>
       <c r="Q4" s="112" t="s">
         <v>280</v>
       </c>
@@ -28713,10 +28991,10 @@
       <c r="L8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="406" t="s">
+      <c r="M8" s="423" t="s">
         <v>209</v>
       </c>
-      <c r="N8" s="407"/>
+      <c r="N8" s="424"/>
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
@@ -28758,8 +29036,8 @@
       <c r="L9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="407"/>
-      <c r="N9" s="407"/>
+      <c r="M9" s="424"/>
+      <c r="N9" s="424"/>
       <c r="O9" s="5" t="s">
         <v>186</v>
       </c>
@@ -28795,8 +29073,8 @@
       <c r="L10" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="M10" s="407"/>
-      <c r="N10" s="407"/>
+      <c r="M10" s="424"/>
+      <c r="N10" s="424"/>
       <c r="O10" s="5"/>
       <c r="P10" s="242" t="s">
         <v>397</v>
@@ -28810,13 +29088,13 @@
       <c r="T10" s="37"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="395" t="s">
+      <c r="A11" s="412" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="396"/>
-      <c r="C11" s="397"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="398"/>
+      <c r="B11" s="413"/>
+      <c r="C11" s="414"/>
+      <c r="D11" s="414"/>
+      <c r="E11" s="415"/>
       <c r="F11" t="s">
         <v>1576</v>
       </c>
@@ -28825,8 +29103,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="407"/>
-      <c r="N11" s="407"/>
+      <c r="M11" s="424"/>
+      <c r="N11" s="424"/>
       <c r="O11" s="5"/>
       <c r="P11" s="242" t="s">
         <v>398</v>
@@ -28837,11 +29115,11 @@
       <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="386"/>
-      <c r="B12" s="399"/>
-      <c r="C12" s="399"/>
-      <c r="D12" s="399"/>
-      <c r="E12" s="388"/>
+      <c r="A12" s="403"/>
+      <c r="B12" s="416"/>
+      <c r="C12" s="416"/>
+      <c r="D12" s="416"/>
+      <c r="E12" s="405"/>
       <c r="F12" t="s">
         <v>958</v>
       </c>
@@ -28850,8 +29128,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="407"/>
-      <c r="N12" s="407"/>
+      <c r="M12" s="424"/>
+      <c r="N12" s="424"/>
       <c r="O12" s="5"/>
       <c r="P12" s="242" t="s">
         <v>1318</v>
@@ -28861,11 +29139,11 @@
       <c r="T12" s="37"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="386"/>
-      <c r="B13" s="399"/>
-      <c r="C13" s="399"/>
-      <c r="D13" s="399"/>
-      <c r="E13" s="388"/>
+      <c r="A13" s="403"/>
+      <c r="B13" s="416"/>
+      <c r="C13" s="416"/>
+      <c r="D13" s="416"/>
+      <c r="E13" s="405"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>191</v>
@@ -28873,8 +29151,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="407"/>
-      <c r="N13" s="407"/>
+      <c r="M13" s="424"/>
+      <c r="N13" s="424"/>
       <c r="O13" s="27"/>
       <c r="P13" s="243"/>
       <c r="Q13">
@@ -28885,11 +29163,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="400"/>
-      <c r="B14" s="401"/>
-      <c r="C14" s="401"/>
-      <c r="D14" s="401"/>
-      <c r="E14" s="402"/>
+      <c r="A14" s="417"/>
+      <c r="B14" s="418"/>
+      <c r="C14" s="418"/>
+      <c r="D14" s="418"/>
+      <c r="E14" s="419"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -29027,20 +29305,20 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="403" t="s">
+      <c r="I20" s="420" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="404"/>
-      <c r="K20" s="403" t="s">
+      <c r="J20" s="421"/>
+      <c r="K20" s="420" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="404"/>
-      <c r="M20" s="403" t="s">
+      <c r="L20" s="421"/>
+      <c r="M20" s="420" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="405"/>
-      <c r="O20" s="405"/>
-      <c r="P20" s="404"/>
+      <c r="N20" s="422"/>
+      <c r="O20" s="422"/>
+      <c r="P20" s="421"/>
       <c r="S20" t="s">
         <v>280</v>
       </c>
@@ -29917,33 +30195,33 @@
         <v>1563</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="408" t="s">
+      <c r="I124" s="425" t="s">
         <v>692</v>
       </c>
-      <c r="J124" s="409" t="s">
+      <c r="J124" s="426" t="s">
         <v>180</v>
       </c>
-      <c r="K124" s="409"/>
-      <c r="L124" s="409"/>
-      <c r="M124" s="409"/>
+      <c r="K124" s="426"/>
+      <c r="L124" s="426"/>
+      <c r="M124" s="426"/>
       <c r="N124" s="6"/>
     </row>
     <row r="125" spans="1:14">
       <c r="H125" s="4"/>
-      <c r="I125" s="386"/>
-      <c r="J125" s="409"/>
-      <c r="K125" s="409"/>
-      <c r="L125" s="409"/>
-      <c r="M125" s="409"/>
+      <c r="I125" s="403"/>
+      <c r="J125" s="426"/>
+      <c r="K125" s="426"/>
+      <c r="L125" s="426"/>
+      <c r="M125" s="426"/>
       <c r="N125" s="6"/>
     </row>
     <row r="126" spans="1:14" ht="15.75" thickBot="1">
       <c r="H126" s="4"/>
-      <c r="I126" s="386"/>
-      <c r="J126" s="409"/>
-      <c r="K126" s="409"/>
-      <c r="L126" s="409"/>
-      <c r="M126" s="409"/>
+      <c r="I126" s="403"/>
+      <c r="J126" s="426"/>
+      <c r="K126" s="426"/>
+      <c r="L126" s="426"/>
+      <c r="M126" s="426"/>
       <c r="N126" s="6"/>
     </row>
     <row r="127" spans="1:14">
@@ -29953,13 +30231,13 @@
       <c r="D127" s="2"/>
       <c r="E127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="386"/>
-      <c r="J127" s="409" t="s">
+      <c r="I127" s="403"/>
+      <c r="J127" s="426" t="s">
         <v>1564</v>
       </c>
-      <c r="K127" s="409"/>
-      <c r="L127" s="409"/>
-      <c r="M127" s="409"/>
+      <c r="K127" s="426"/>
+      <c r="L127" s="426"/>
+      <c r="M127" s="426"/>
       <c r="N127" s="6"/>
     </row>
     <row r="128" spans="1:14">
@@ -29971,11 +30249,11 @@
       <c r="D128" s="5"/>
       <c r="E128" s="6"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="386"/>
-      <c r="J128" s="409"/>
-      <c r="K128" s="409"/>
-      <c r="L128" s="409"/>
-      <c r="M128" s="409"/>
+      <c r="I128" s="403"/>
+      <c r="J128" s="426"/>
+      <c r="K128" s="426"/>
+      <c r="L128" s="426"/>
+      <c r="M128" s="426"/>
       <c r="N128" s="6"/>
     </row>
     <row r="129" spans="1:14">
@@ -29988,11 +30266,11 @@
         <v>164</v>
       </c>
       <c r="H129" s="4"/>
-      <c r="I129" s="386"/>
-      <c r="J129" s="409"/>
-      <c r="K129" s="409"/>
-      <c r="L129" s="409"/>
-      <c r="M129" s="409"/>
+      <c r="I129" s="403"/>
+      <c r="J129" s="426"/>
+      <c r="K129" s="426"/>
+      <c r="L129" s="426"/>
+      <c r="M129" s="426"/>
       <c r="N129" s="6"/>
     </row>
     <row r="130" spans="1:14">
@@ -30011,13 +30289,13 @@
       <c r="H130" s="34">
         <v>80</v>
       </c>
-      <c r="I130" s="386"/>
-      <c r="J130" s="409" t="s">
+      <c r="I130" s="403"/>
+      <c r="J130" s="426" t="s">
         <v>1565</v>
       </c>
-      <c r="K130" s="409"/>
-      <c r="L130" s="409"/>
-      <c r="M130" s="409"/>
+      <c r="K130" s="426"/>
+      <c r="L130" s="426"/>
+      <c r="M130" s="426"/>
       <c r="N130" s="6"/>
     </row>
     <row r="131" spans="1:14">
@@ -30034,11 +30312,11 @@
         <v>1567</v>
       </c>
       <c r="H131" s="4"/>
-      <c r="I131" s="386"/>
-      <c r="J131" s="409"/>
-      <c r="K131" s="409"/>
-      <c r="L131" s="409"/>
-      <c r="M131" s="409"/>
+      <c r="I131" s="403"/>
+      <c r="J131" s="426"/>
+      <c r="K131" s="426"/>
+      <c r="L131" s="426"/>
+      <c r="M131" s="426"/>
       <c r="N131" s="6"/>
     </row>
     <row r="132" spans="1:14">
@@ -30056,11 +30334,11 @@
         <v>404</v>
       </c>
       <c r="H132" s="4"/>
-      <c r="I132" s="386"/>
-      <c r="J132" s="409"/>
-      <c r="K132" s="409"/>
-      <c r="L132" s="409"/>
-      <c r="M132" s="409"/>
+      <c r="I132" s="403"/>
+      <c r="J132" s="426"/>
+      <c r="K132" s="426"/>
+      <c r="L132" s="426"/>
+      <c r="M132" s="426"/>
       <c r="N132" s="6"/>
     </row>
     <row r="133" spans="1:14">
@@ -30073,13 +30351,13 @@
         <v>1580</v>
       </c>
       <c r="H133" s="4"/>
-      <c r="I133" s="386"/>
-      <c r="J133" s="410" t="s">
+      <c r="I133" s="403"/>
+      <c r="J133" s="427" t="s">
         <v>1566</v>
       </c>
-      <c r="K133" s="411"/>
-      <c r="L133" s="411"/>
-      <c r="M133" s="412"/>
+      <c r="K133" s="428"/>
+      <c r="L133" s="428"/>
+      <c r="M133" s="429"/>
       <c r="N133" s="6"/>
     </row>
     <row r="134" spans="1:14">
@@ -30094,11 +30372,11 @@
         <v>1529</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="386"/>
-      <c r="J134" s="413"/>
-      <c r="K134" s="414"/>
-      <c r="L134" s="414"/>
-      <c r="M134" s="415"/>
+      <c r="I134" s="403"/>
+      <c r="J134" s="430"/>
+      <c r="K134" s="431"/>
+      <c r="L134" s="431"/>
+      <c r="M134" s="432"/>
       <c r="N134" s="6"/>
     </row>
     <row r="135" spans="1:14" ht="15.75" thickBot="1">
@@ -30110,29 +30388,29 @@
       <c r="D135" s="10"/>
       <c r="E135" s="9"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="386"/>
-      <c r="J135" s="413"/>
-      <c r="K135" s="414"/>
-      <c r="L135" s="414"/>
-      <c r="M135" s="415"/>
+      <c r="I135" s="403"/>
+      <c r="J135" s="430"/>
+      <c r="K135" s="431"/>
+      <c r="L135" s="431"/>
+      <c r="M135" s="432"/>
       <c r="N135" s="6"/>
     </row>
     <row r="136" spans="1:14">
       <c r="H136" s="4"/>
-      <c r="I136" s="386"/>
-      <c r="J136" s="413"/>
-      <c r="K136" s="414"/>
-      <c r="L136" s="414"/>
-      <c r="M136" s="415"/>
+      <c r="I136" s="403"/>
+      <c r="J136" s="430"/>
+      <c r="K136" s="431"/>
+      <c r="L136" s="431"/>
+      <c r="M136" s="432"/>
       <c r="N136" s="6"/>
     </row>
     <row r="137" spans="1:14">
       <c r="H137" s="4"/>
-      <c r="I137" s="386"/>
-      <c r="J137" s="413"/>
-      <c r="K137" s="414"/>
-      <c r="L137" s="414"/>
-      <c r="M137" s="415"/>
+      <c r="I137" s="403"/>
+      <c r="J137" s="430"/>
+      <c r="K137" s="431"/>
+      <c r="L137" s="431"/>
+      <c r="M137" s="432"/>
       <c r="N137" s="6"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
@@ -30140,11 +30418,11 @@
         <v>1577</v>
       </c>
       <c r="H138" s="4"/>
-      <c r="I138" s="400"/>
-      <c r="J138" s="416"/>
-      <c r="K138" s="417"/>
-      <c r="L138" s="417"/>
-      <c r="M138" s="418"/>
+      <c r="I138" s="417"/>
+      <c r="J138" s="433"/>
+      <c r="K138" s="434"/>
+      <c r="L138" s="434"/>
+      <c r="M138" s="435"/>
       <c r="N138" s="6"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
@@ -30939,7 +31217,7 @@
       <c r="J224" s="4"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
-      <c r="M224" s="390" t="s">
+      <c r="M224" s="407" t="s">
         <v>782</v>
       </c>
       <c r="N224" s="345" t="s">
@@ -30963,7 +31241,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
-      <c r="M225" s="390"/>
+      <c r="M225" s="407"/>
       <c r="N225" s="345" t="s">
         <v>363</v>
       </c>
@@ -30981,7 +31259,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
-      <c r="M226" s="390"/>
+      <c r="M226" s="407"/>
       <c r="N226" s="345"/>
     </row>
     <row r="227" spans="1:14">
@@ -30994,7 +31272,7 @@
       <c r="J227" s="4"/>
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
-      <c r="M227" s="391"/>
+      <c r="M227" s="408"/>
       <c r="N227" s="346"/>
     </row>
     <row r="228" spans="1:14">
@@ -31229,7 +31507,7 @@
       <c r="J244" s="4"/>
       <c r="K244" s="5"/>
       <c r="L244" s="5"/>
-      <c r="M244" s="390" t="s">
+      <c r="M244" s="407" t="s">
         <v>782</v>
       </c>
       <c r="N244" s="345" t="s">
@@ -31253,7 +31531,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
-      <c r="M245" s="390"/>
+      <c r="M245" s="407"/>
       <c r="N245" s="345" t="s">
         <v>363</v>
       </c>
@@ -31271,7 +31549,7 @@
       <c r="J246" s="4"/>
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
-      <c r="M246" s="390"/>
+      <c r="M246" s="407"/>
       <c r="N246" s="345"/>
     </row>
     <row r="247" spans="1:14">
@@ -31284,7 +31562,7 @@
       <c r="J247" s="4"/>
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
-      <c r="M247" s="391"/>
+      <c r="M247" s="408"/>
       <c r="N247" s="346"/>
     </row>
     <row r="248" spans="1:14">
@@ -31873,13 +32151,13 @@
         <v>180</v>
       </c>
       <c r="J3" s="145"/>
-      <c r="K3" s="428"/>
-      <c r="L3" s="428"/>
-      <c r="M3" s="428"/>
-      <c r="N3" s="428"/>
-      <c r="O3" s="428"/>
-      <c r="P3" s="428"/>
-      <c r="Q3" s="429"/>
+      <c r="K3" s="445"/>
+      <c r="L3" s="445"/>
+      <c r="M3" s="445"/>
+      <c r="N3" s="445"/>
+      <c r="O3" s="445"/>
+      <c r="P3" s="445"/>
+      <c r="Q3" s="446"/>
       <c r="T3" s="39" t="s">
         <v>178</v>
       </c>
@@ -32147,13 +32425,13 @@
       <c r="U11" s="37"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="419" t="s">
+      <c r="A12" s="436" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="420"/>
-      <c r="C12" s="420"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="421"/>
+      <c r="B12" s="437"/>
+      <c r="C12" s="437"/>
+      <c r="D12" s="437"/>
+      <c r="E12" s="438"/>
       <c r="F12" t="s">
         <v>694</v>
       </c>
@@ -32176,11 +32454,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="422"/>
-      <c r="B13" s="423"/>
-      <c r="C13" s="423"/>
-      <c r="D13" s="423"/>
-      <c r="E13" s="424"/>
+      <c r="A13" s="439"/>
+      <c r="B13" s="440"/>
+      <c r="C13" s="440"/>
+      <c r="D13" s="440"/>
+      <c r="E13" s="441"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -32201,11 +32479,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="422"/>
-      <c r="B14" s="423"/>
-      <c r="C14" s="423"/>
-      <c r="D14" s="423"/>
-      <c r="E14" s="424"/>
+      <c r="A14" s="439"/>
+      <c r="B14" s="440"/>
+      <c r="C14" s="440"/>
+      <c r="D14" s="440"/>
+      <c r="E14" s="441"/>
       <c r="F14" t="s">
         <v>691</v>
       </c>
@@ -32228,11 +32506,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="425"/>
-      <c r="B15" s="426"/>
-      <c r="C15" s="426"/>
-      <c r="D15" s="426"/>
-      <c r="E15" s="427"/>
+      <c r="A15" s="442"/>
+      <c r="B15" s="443"/>
+      <c r="C15" s="443"/>
+      <c r="D15" s="443"/>
+      <c r="E15" s="444"/>
       <c r="F15" s="23"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -32290,17 +32568,17 @@
       <c r="F17" s="189"/>
       <c r="G17" s="126"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="393" t="s">
+      <c r="I17" s="410" t="s">
         <v>1191</v>
       </c>
-      <c r="J17" s="393"/>
-      <c r="K17" s="393"/>
-      <c r="L17" s="393"/>
-      <c r="M17" s="393"/>
-      <c r="N17" s="393"/>
-      <c r="O17" s="393"/>
-      <c r="P17" s="393"/>
-      <c r="Q17" s="393"/>
+      <c r="J17" s="410"/>
+      <c r="K17" s="410"/>
+      <c r="L17" s="410"/>
+      <c r="M17" s="410"/>
+      <c r="N17" s="410"/>
+      <c r="O17" s="410"/>
+      <c r="P17" s="410"/>
+      <c r="Q17" s="410"/>
       <c r="S17" t="s">
         <v>357</v>
       </c>
@@ -36586,10 +36864,10 @@
       <c r="K232" s="34"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="430" t="s">
+      <c r="O232" s="447" t="s">
         <v>1239</v>
       </c>
-      <c r="P232" s="431"/>
+      <c r="P232" s="448"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -7323,18 +7323,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7355,6 +7343,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7386,9 +7389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7398,8 +7398,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7458,57 +7509,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7530,50 +7530,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7617,17 +7584,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18610,8 +18610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O239" sqref="A219:O239"/>
+    <sheetView topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18646,7 +18646,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="451" t="s">
+      <c r="E6" s="458" t="s">
         <v>404</v>
       </c>
       <c r="F6" s="398"/>
@@ -18670,7 +18670,7 @@
       <c r="A7" s="15" t="s">
         <v>1671</v>
       </c>
-      <c r="D7" s="459">
+      <c r="D7" s="455">
         <v>80</v>
       </c>
       <c r="E7" s="222"/>
@@ -18688,7 +18688,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="459"/>
+      <c r="D8" s="455"/>
       <c r="E8" s="47" t="s">
         <v>406</v>
       </c>
@@ -18723,7 +18723,7 @@
       <c r="B9" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="459"/>
+      <c r="D9" s="455"/>
       <c r="E9" s="224"/>
       <c r="F9" s="233"/>
       <c r="G9" s="136"/>
@@ -18747,7 +18747,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="D10" s="459"/>
+      <c r="D10" s="455"/>
       <c r="E10" s="222"/>
       <c r="F10" s="232"/>
       <c r="G10" s="379"/>
@@ -18771,7 +18771,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="459"/>
+      <c r="D11" s="455"/>
       <c r="E11" s="47" t="s">
         <v>410</v>
       </c>
@@ -18800,7 +18800,7 @@
       <c r="B12" s="206" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="459"/>
+      <c r="D12" s="455"/>
       <c r="E12" s="224"/>
       <c r="F12" s="233"/>
       <c r="G12" s="383"/>
@@ -18821,7 +18821,7 @@
       <c r="B13" t="s">
         <v>1672</v>
       </c>
-      <c r="D13" s="459"/>
+      <c r="D13" s="455"/>
       <c r="E13" s="222"/>
       <c r="F13" s="232"/>
       <c r="G13" s="385"/>
@@ -18837,7 +18837,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="D14" s="459"/>
+      <c r="D14" s="455"/>
       <c r="E14" s="47" t="s">
         <v>415</v>
       </c>
@@ -18864,7 +18864,7 @@
       <c r="B15" t="s">
         <v>1673</v>
       </c>
-      <c r="D15" s="459"/>
+      <c r="D15" s="455"/>
       <c r="E15" s="224"/>
       <c r="F15" s="233"/>
       <c r="G15" s="389"/>
@@ -18883,7 +18883,7 @@
       <c r="B16" t="s">
         <v>1391</v>
       </c>
-      <c r="D16" s="459"/>
+      <c r="D16" s="455"/>
       <c r="E16" s="222"/>
       <c r="F16" s="232"/>
       <c r="G16" s="391"/>
@@ -18903,7 +18903,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="459"/>
+      <c r="D17" s="455"/>
       <c r="E17" s="47" t="s">
         <v>419</v>
       </c>
@@ -18931,7 +18931,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="459"/>
+      <c r="D18" s="455"/>
       <c r="E18" s="224"/>
       <c r="F18" s="233"/>
       <c r="G18" s="394"/>
@@ -18950,20 +18950,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="452" t="s">
+      <c r="E19" s="459" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="453"/>
-      <c r="G19" s="452" t="s">
+      <c r="F19" s="460"/>
+      <c r="G19" s="459" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="453"/>
-      <c r="I19" s="452" t="s">
+      <c r="H19" s="460"/>
+      <c r="I19" s="459" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="454"/>
-      <c r="K19" s="454"/>
-      <c r="L19" s="453"/>
+      <c r="J19" s="461"/>
+      <c r="K19" s="461"/>
+      <c r="L19" s="460"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -19028,12 +19028,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="461"/>
-      <c r="H24" s="461"/>
-      <c r="I24" s="461"/>
-      <c r="J24" s="461"/>
-      <c r="K24" s="461"/>
-      <c r="L24" s="461"/>
+      <c r="G24" s="457"/>
+      <c r="H24" s="457"/>
+      <c r="I24" s="457"/>
+      <c r="J24" s="457"/>
+      <c r="K24" s="457"/>
+      <c r="L24" s="457"/>
       <c r="O24" s="39" t="s">
         <v>178</v>
       </c>
@@ -19452,7 +19452,7 @@
       <c r="H47" s="447" t="s">
         <v>1367</v>
       </c>
-      <c r="I47" s="460"/>
+      <c r="I47" s="456"/>
       <c r="J47" s="448"/>
     </row>
     <row r="48" spans="1:17">
@@ -20059,16 +20059,16 @@
         <v>1062</v>
       </c>
       <c r="F131" s="37"/>
-      <c r="G131" s="457" t="s">
+      <c r="G131" s="453" t="s">
         <v>1055</v>
       </c>
-      <c r="H131" s="457"/>
-      <c r="I131" s="457"/>
-      <c r="J131" s="457"/>
-      <c r="K131" s="457"/>
-      <c r="L131" s="457"/>
-      <c r="M131" s="457"/>
-      <c r="N131" s="457"/>
+      <c r="H131" s="453"/>
+      <c r="I131" s="453"/>
+      <c r="J131" s="453"/>
+      <c r="K131" s="453"/>
+      <c r="L131" s="453"/>
+      <c r="M131" s="453"/>
+      <c r="N131" s="453"/>
       <c r="O131" s="37"/>
     </row>
     <row r="132" spans="2:15">
@@ -20205,29 +20205,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="37"/>
-      <c r="G141" s="458"/>
-      <c r="H141" s="458"/>
-      <c r="I141" s="458"/>
-      <c r="J141" s="458"/>
-      <c r="K141" s="458"/>
-      <c r="L141" s="458"/>
-      <c r="M141" s="458"/>
-      <c r="N141" s="458"/>
-      <c r="O141" s="458"/>
+      <c r="G141" s="454"/>
+      <c r="H141" s="454"/>
+      <c r="I141" s="454"/>
+      <c r="J141" s="454"/>
+      <c r="K141" s="454"/>
+      <c r="L141" s="454"/>
+      <c r="M141" s="454"/>
+      <c r="N141" s="454"/>
+      <c r="O141" s="454"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="458"/>
-      <c r="H142" s="458"/>
-      <c r="I142" s="458"/>
-      <c r="J142" s="458"/>
-      <c r="K142" s="458"/>
-      <c r="L142" s="458"/>
-      <c r="M142" s="458"/>
-      <c r="N142" s="458"/>
-      <c r="O142" s="458"/>
+      <c r="G142" s="454"/>
+      <c r="H142" s="454"/>
+      <c r="I142" s="454"/>
+      <c r="J142" s="454"/>
+      <c r="K142" s="454"/>
+      <c r="L142" s="454"/>
+      <c r="M142" s="454"/>
+      <c r="N142" s="454"/>
+      <c r="O142" s="454"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -20271,7 +20271,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="455" t="s">
+      <c r="D158" s="451" t="s">
         <v>1333</v>
       </c>
       <c r="E158" s="65"/>
@@ -20284,7 +20284,7 @@
       <c r="L158" s="234"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="456"/>
+      <c r="D159" s="452"/>
       <c r="E159" s="309" t="s">
         <v>1331</v>
       </c>
@@ -20306,7 +20306,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="456"/>
+      <c r="D160" s="452"/>
       <c r="E160" s="229"/>
       <c r="F160" s="235"/>
       <c r="G160" s="229"/>
@@ -20317,7 +20317,7 @@
       <c r="L160" s="235"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="456"/>
+      <c r="D161" s="452"/>
       <c r="E161" s="311"/>
       <c r="F161" s="312"/>
       <c r="G161" s="311"/>
@@ -20328,7 +20328,7 @@
       <c r="L161" s="312"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="456"/>
+      <c r="D162" s="452"/>
       <c r="E162" s="313"/>
       <c r="F162" s="314"/>
       <c r="G162" s="313"/>
@@ -20342,7 +20342,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="456"/>
+      <c r="D163" s="452"/>
       <c r="E163" s="315"/>
       <c r="F163" s="316"/>
       <c r="G163" s="315"/>
@@ -20353,7 +20353,7 @@
       <c r="L163" s="316"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="456"/>
+      <c r="D164" s="452"/>
       <c r="E164" s="65"/>
       <c r="F164" s="234"/>
       <c r="G164" s="65"/>
@@ -20364,7 +20364,7 @@
       <c r="L164" s="234"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="456"/>
+      <c r="D165" s="452"/>
       <c r="E165" s="57"/>
       <c r="F165" s="308"/>
       <c r="G165" s="57"/>
@@ -20378,7 +20378,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="456"/>
+      <c r="D166" s="452"/>
       <c r="E166" s="229"/>
       <c r="F166" s="235"/>
       <c r="G166" s="229"/>
@@ -20389,7 +20389,7 @@
       <c r="L166" s="235"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="456"/>
+      <c r="D167" s="452"/>
       <c r="E167" s="65"/>
       <c r="F167" s="234"/>
       <c r="G167" s="58"/>
@@ -20400,7 +20400,7 @@
       <c r="L167" s="308"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="456"/>
+      <c r="D168" s="452"/>
       <c r="E168" s="57"/>
       <c r="F168" s="308"/>
       <c r="G168" s="58"/>
@@ -20414,7 +20414,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="456"/>
+      <c r="D169" s="452"/>
       <c r="E169" s="229"/>
       <c r="F169" s="235"/>
       <c r="G169" s="317"/>
@@ -20809,17 +20809,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -21082,7 +21082,7 @@
       <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="472">
+      <c r="C21" s="462">
         <v>43909</v>
       </c>
       <c r="D21" s="426"/>
@@ -21102,7 +21102,7 @@
       <c r="N21" s="426"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="472"/>
+      <c r="C22" s="462"/>
       <c r="D22" s="426"/>
       <c r="E22" s="426"/>
       <c r="F22" s="426"/>
@@ -21120,7 +21120,7 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="472"/>
+      <c r="C23" s="462"/>
       <c r="D23" s="426"/>
       <c r="E23" s="426"/>
       <c r="F23" s="426"/>
@@ -21136,7 +21136,7 @@
       <c r="N23" s="426"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="472"/>
+      <c r="C24" s="462"/>
       <c r="D24" s="426"/>
       <c r="E24" s="426"/>
       <c r="F24" s="426"/>
@@ -21175,16 +21175,16 @@
       <c r="C26" s="113">
         <v>43911</v>
       </c>
-      <c r="D26" s="462"/>
-      <c r="E26" s="463"/>
-      <c r="F26" s="463"/>
-      <c r="G26" s="463"/>
-      <c r="H26" s="464"/>
-      <c r="I26" s="469" t="s">
+      <c r="D26" s="463"/>
+      <c r="E26" s="464"/>
+      <c r="F26" s="464"/>
+      <c r="G26" s="464"/>
+      <c r="H26" s="465"/>
+      <c r="I26" s="470" t="s">
         <v>458</v>
       </c>
-      <c r="J26" s="462"/>
-      <c r="K26" s="464"/>
+      <c r="J26" s="463"/>
+      <c r="K26" s="465"/>
       <c r="L26" s="114" t="s">
         <v>459</v>
       </c>
@@ -21193,14 +21193,14 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="37"/>
-      <c r="D27" s="465"/>
-      <c r="E27" s="461"/>
-      <c r="F27" s="461"/>
-      <c r="G27" s="461"/>
-      <c r="H27" s="466"/>
-      <c r="I27" s="470"/>
-      <c r="J27" s="465"/>
-      <c r="K27" s="466"/>
+      <c r="D27" s="466"/>
+      <c r="E27" s="457"/>
+      <c r="F27" s="457"/>
+      <c r="G27" s="457"/>
+      <c r="H27" s="467"/>
+      <c r="I27" s="471"/>
+      <c r="J27" s="466"/>
+      <c r="K27" s="467"/>
       <c r="L27" s="426" t="s">
         <v>463</v>
       </c>
@@ -21209,14 +21209,14 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="37"/>
-      <c r="D28" s="465"/>
-      <c r="E28" s="461"/>
-      <c r="F28" s="461"/>
-      <c r="G28" s="461"/>
-      <c r="H28" s="466"/>
-      <c r="I28" s="470"/>
-      <c r="J28" s="465"/>
-      <c r="K28" s="466"/>
+      <c r="D28" s="466"/>
+      <c r="E28" s="457"/>
+      <c r="F28" s="457"/>
+      <c r="G28" s="457"/>
+      <c r="H28" s="467"/>
+      <c r="I28" s="471"/>
+      <c r="J28" s="466"/>
+      <c r="K28" s="467"/>
       <c r="L28" s="115" t="s">
         <v>458</v>
       </c>
@@ -21225,14 +21225,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="37"/>
-      <c r="D29" s="467"/>
+      <c r="D29" s="468"/>
       <c r="E29" s="449"/>
       <c r="F29" s="449"/>
       <c r="G29" s="449"/>
-      <c r="H29" s="468"/>
-      <c r="I29" s="471"/>
-      <c r="J29" s="467"/>
-      <c r="K29" s="468"/>
+      <c r="H29" s="469"/>
+      <c r="I29" s="472"/>
+      <c r="J29" s="468"/>
+      <c r="K29" s="469"/>
       <c r="L29" s="116" t="s">
         <v>464</v>
       </c>
@@ -21297,7 +21297,7 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="472">
+      <c r="C34" s="462">
         <v>43909</v>
       </c>
       <c r="D34" s="426"/>
@@ -21315,7 +21315,7 @@
       <c r="N34" s="426"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="472"/>
+      <c r="C35" s="462"/>
       <c r="D35" s="426"/>
       <c r="E35" s="426"/>
       <c r="F35" s="426"/>
@@ -21331,7 +21331,7 @@
       <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="472"/>
+      <c r="C36" s="462"/>
       <c r="D36" s="426"/>
       <c r="E36" s="426"/>
       <c r="F36" s="426"/>
@@ -21347,7 +21347,7 @@
       <c r="N36" s="426"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="472"/>
+      <c r="C37" s="462"/>
       <c r="D37" s="426"/>
       <c r="E37" s="426"/>
       <c r="F37" s="426"/>
@@ -21386,14 +21386,14 @@
       <c r="C39" s="113">
         <v>43911</v>
       </c>
-      <c r="D39" s="462"/>
-      <c r="E39" s="463"/>
-      <c r="F39" s="463"/>
-      <c r="G39" s="463"/>
-      <c r="H39" s="464"/>
-      <c r="I39" s="469"/>
-      <c r="J39" s="462"/>
-      <c r="K39" s="464"/>
+      <c r="D39" s="463"/>
+      <c r="E39" s="464"/>
+      <c r="F39" s="464"/>
+      <c r="G39" s="464"/>
+      <c r="H39" s="465"/>
+      <c r="I39" s="470"/>
+      <c r="J39" s="463"/>
+      <c r="K39" s="465"/>
       <c r="L39" s="114" t="s">
         <v>459</v>
       </c>
@@ -21402,14 +21402,14 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="37"/>
-      <c r="D40" s="465"/>
-      <c r="E40" s="461"/>
-      <c r="F40" s="461"/>
-      <c r="G40" s="461"/>
-      <c r="H40" s="466"/>
-      <c r="I40" s="470"/>
-      <c r="J40" s="465"/>
-      <c r="K40" s="466"/>
+      <c r="D40" s="466"/>
+      <c r="E40" s="457"/>
+      <c r="F40" s="457"/>
+      <c r="G40" s="457"/>
+      <c r="H40" s="467"/>
+      <c r="I40" s="471"/>
+      <c r="J40" s="466"/>
+      <c r="K40" s="467"/>
       <c r="L40" s="426" t="s">
         <v>463</v>
       </c>
@@ -21418,14 +21418,14 @@
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="37"/>
-      <c r="D41" s="465"/>
-      <c r="E41" s="461"/>
-      <c r="F41" s="461"/>
-      <c r="G41" s="461"/>
-      <c r="H41" s="466"/>
-      <c r="I41" s="471"/>
-      <c r="J41" s="465"/>
-      <c r="K41" s="466"/>
+      <c r="D41" s="466"/>
+      <c r="E41" s="457"/>
+      <c r="F41" s="457"/>
+      <c r="G41" s="457"/>
+      <c r="H41" s="467"/>
+      <c r="I41" s="472"/>
+      <c r="J41" s="466"/>
+      <c r="K41" s="467"/>
       <c r="L41" s="115" t="s">
         <v>465</v>
       </c>
@@ -21434,16 +21434,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="37"/>
-      <c r="D42" s="467"/>
+      <c r="D42" s="468"/>
       <c r="E42" s="449"/>
       <c r="F42" s="449"/>
       <c r="G42" s="449"/>
-      <c r="H42" s="468"/>
+      <c r="H42" s="469"/>
       <c r="I42" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J42" s="467"/>
-      <c r="K42" s="468"/>
+      <c r="J42" s="468"/>
+      <c r="K42" s="469"/>
       <c r="L42" s="116" t="s">
         <v>464</v>
       </c>
@@ -21755,12 +21755,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -21768,17 +21773,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21788,8 +21788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:X155"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N147" sqref="N147:P156"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21800,29 +21800,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="496" t="s">
+      <c r="B2" s="486" t="s">
         <v>1090</v>
       </c>
-      <c r="C2" s="496"/>
-      <c r="D2" s="496"/>
-      <c r="E2" s="496"/>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="496"/>
-      <c r="I2" s="496"/>
-      <c r="J2" s="496"/>
-      <c r="K2" s="496"/>
-      <c r="L2" s="496"/>
-      <c r="M2" s="496"/>
-      <c r="N2" s="496"/>
-      <c r="O2" s="496"/>
-      <c r="P2" s="496"/>
-      <c r="Q2" s="496"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="496"/>
-      <c r="T2" s="496"/>
-      <c r="U2" s="496"/>
-      <c r="V2" s="496"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="486"/>
+      <c r="O2" s="486"/>
+      <c r="P2" s="486"/>
+      <c r="Q2" s="486"/>
+      <c r="R2" s="486"/>
+      <c r="S2" s="486"/>
+      <c r="T2" s="486"/>
+      <c r="U2" s="486"/>
+      <c r="V2" s="486"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -21855,22 +21855,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="476" t="s">
+      <c r="G5" s="489" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="476"/>
-      <c r="I5" s="476" t="s">
+      <c r="H5" s="489"/>
+      <c r="I5" s="489" t="s">
         <v>517</v>
       </c>
-      <c r="J5" s="476"/>
-      <c r="K5" s="476"/>
-      <c r="L5" s="476"/>
-      <c r="M5" s="476"/>
-      <c r="N5" s="476"/>
-      <c r="O5" s="476" t="s">
+      <c r="J5" s="489"/>
+      <c r="K5" s="489"/>
+      <c r="L5" s="489"/>
+      <c r="M5" s="489"/>
+      <c r="N5" s="489"/>
+      <c r="O5" s="489" t="s">
         <v>518</v>
       </c>
-      <c r="P5" s="476"/>
+      <c r="P5" s="489"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -21882,7 +21882,7 @@
       <c r="D6" s="132"/>
       <c r="E6" s="133"/>
       <c r="F6" s="135"/>
-      <c r="G6" s="477" t="s">
+      <c r="G6" s="494" t="s">
         <v>519</v>
       </c>
       <c r="H6" s="108"/>
@@ -21911,26 +21911,26 @@
       </c>
       <c r="E7" s="135"/>
       <c r="F7" s="135"/>
-      <c r="G7" s="478"/>
-      <c r="H7" s="480" t="s">
+      <c r="G7" s="495"/>
+      <c r="H7" s="497" t="s">
         <v>521</v>
       </c>
       <c r="I7" s="425" t="s">
         <v>522</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="484" t="s">
+      <c r="J7" s="500"/>
+      <c r="K7" s="501" t="s">
         <v>523</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="425" t="s">
         <v>524</v>
       </c>
-      <c r="N7" s="483"/>
-      <c r="O7" s="490" t="s">
+      <c r="N7" s="500"/>
+      <c r="O7" s="507" t="s">
         <v>525</v>
       </c>
-      <c r="P7" s="491"/>
+      <c r="P7" s="508"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -21942,16 +21942,16 @@
       <c r="D8" s="136"/>
       <c r="E8" s="137"/>
       <c r="F8" s="135"/>
-      <c r="G8" s="478"/>
-      <c r="H8" s="481"/>
+      <c r="G8" s="495"/>
+      <c r="H8" s="498"/>
       <c r="I8" s="403"/>
       <c r="J8" s="405"/>
-      <c r="K8" s="486"/>
-      <c r="L8" s="487"/>
+      <c r="K8" s="503"/>
+      <c r="L8" s="504"/>
       <c r="M8" s="403"/>
       <c r="N8" s="405"/>
-      <c r="O8" s="492"/>
-      <c r="P8" s="493"/>
+      <c r="O8" s="509"/>
+      <c r="P8" s="510"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="37" t="s">
         <v>181</v>
@@ -21969,16 +21969,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="478"/>
-      <c r="H9" s="481"/>
+      <c r="G9" s="495"/>
+      <c r="H9" s="498"/>
       <c r="I9" s="403"/>
       <c r="J9" s="405"/>
-      <c r="K9" s="486"/>
-      <c r="L9" s="487"/>
+      <c r="K9" s="503"/>
+      <c r="L9" s="504"/>
       <c r="M9" s="403"/>
       <c r="N9" s="405"/>
-      <c r="O9" s="492"/>
-      <c r="P9" s="493"/>
+      <c r="O9" s="509"/>
+      <c r="P9" s="510"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -21998,16 +21998,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="478"/>
-      <c r="H10" s="481"/>
+      <c r="G10" s="495"/>
+      <c r="H10" s="498"/>
       <c r="I10" s="403"/>
       <c r="J10" s="405"/>
-      <c r="K10" s="486"/>
-      <c r="L10" s="487"/>
+      <c r="K10" s="503"/>
+      <c r="L10" s="504"/>
       <c r="M10" s="403"/>
       <c r="N10" s="405"/>
-      <c r="O10" s="492"/>
-      <c r="P10" s="493"/>
+      <c r="O10" s="509"/>
+      <c r="P10" s="510"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -22023,16 +22023,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="478"/>
-      <c r="H11" s="481"/>
+      <c r="G11" s="495"/>
+      <c r="H11" s="498"/>
       <c r="I11" s="403"/>
       <c r="J11" s="405"/>
-      <c r="K11" s="486"/>
-      <c r="L11" s="487"/>
+      <c r="K11" s="503"/>
+      <c r="L11" s="504"/>
       <c r="M11" s="403"/>
       <c r="N11" s="405"/>
-      <c r="O11" s="492"/>
-      <c r="P11" s="493"/>
+      <c r="O11" s="509"/>
+      <c r="P11" s="510"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -22050,16 +22050,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="478"/>
-      <c r="H12" s="481"/>
+      <c r="G12" s="495"/>
+      <c r="H12" s="498"/>
       <c r="I12" s="403"/>
       <c r="J12" s="405"/>
-      <c r="K12" s="486"/>
-      <c r="L12" s="487"/>
+      <c r="K12" s="503"/>
+      <c r="L12" s="504"/>
       <c r="M12" s="403"/>
       <c r="N12" s="405"/>
-      <c r="O12" s="492"/>
-      <c r="P12" s="493"/>
+      <c r="O12" s="509"/>
+      <c r="P12" s="510"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -22073,16 +22073,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="478"/>
-      <c r="H13" s="481"/>
+      <c r="G13" s="495"/>
+      <c r="H13" s="498"/>
       <c r="I13" s="403"/>
       <c r="J13" s="405"/>
-      <c r="K13" s="486"/>
-      <c r="L13" s="487"/>
+      <c r="K13" s="503"/>
+      <c r="L13" s="504"/>
       <c r="M13" s="403"/>
       <c r="N13" s="405"/>
-      <c r="O13" s="492"/>
-      <c r="P13" s="493"/>
+      <c r="O13" s="509"/>
+      <c r="P13" s="510"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -22094,16 +22094,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="478"/>
-      <c r="H14" s="481"/>
+      <c r="G14" s="495"/>
+      <c r="H14" s="498"/>
       <c r="I14" s="403"/>
       <c r="J14" s="405"/>
-      <c r="K14" s="486"/>
-      <c r="L14" s="487"/>
+      <c r="K14" s="503"/>
+      <c r="L14" s="504"/>
       <c r="M14" s="403"/>
       <c r="N14" s="405"/>
-      <c r="O14" s="492"/>
-      <c r="P14" s="493"/>
+      <c r="O14" s="509"/>
+      <c r="P14" s="510"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -22117,16 +22117,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="478"/>
-      <c r="H15" s="481"/>
+      <c r="G15" s="495"/>
+      <c r="H15" s="498"/>
       <c r="I15" s="403"/>
       <c r="J15" s="405"/>
-      <c r="K15" s="486"/>
-      <c r="L15" s="487"/>
+      <c r="K15" s="503"/>
+      <c r="L15" s="504"/>
       <c r="M15" s="403"/>
       <c r="N15" s="405"/>
-      <c r="O15" s="492"/>
-      <c r="P15" s="493"/>
+      <c r="O15" s="509"/>
+      <c r="P15" s="510"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -22138,16 +22138,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="478"/>
-      <c r="H16" s="481"/>
+      <c r="G16" s="495"/>
+      <c r="H16" s="498"/>
       <c r="I16" s="403"/>
       <c r="J16" s="405"/>
-      <c r="K16" s="486"/>
-      <c r="L16" s="487"/>
+      <c r="K16" s="503"/>
+      <c r="L16" s="504"/>
       <c r="M16" s="403"/>
       <c r="N16" s="405"/>
-      <c r="O16" s="492"/>
-      <c r="P16" s="493"/>
+      <c r="O16" s="509"/>
+      <c r="P16" s="510"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -22159,16 +22159,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="478"/>
-      <c r="H17" s="481"/>
+      <c r="G17" s="495"/>
+      <c r="H17" s="498"/>
       <c r="I17" s="403"/>
       <c r="J17" s="405"/>
-      <c r="K17" s="486"/>
-      <c r="L17" s="487"/>
+      <c r="K17" s="503"/>
+      <c r="L17" s="504"/>
       <c r="M17" s="403"/>
       <c r="N17" s="405"/>
-      <c r="O17" s="492"/>
-      <c r="P17" s="493"/>
+      <c r="O17" s="509"/>
+      <c r="P17" s="510"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -22180,16 +22180,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="478"/>
-      <c r="H18" s="481"/>
+      <c r="G18" s="495"/>
+      <c r="H18" s="498"/>
       <c r="I18" s="403"/>
       <c r="J18" s="405"/>
-      <c r="K18" s="486"/>
-      <c r="L18" s="487"/>
+      <c r="K18" s="503"/>
+      <c r="L18" s="504"/>
       <c r="M18" s="403"/>
       <c r="N18" s="405"/>
-      <c r="O18" s="492"/>
-      <c r="P18" s="493"/>
+      <c r="O18" s="509"/>
+      <c r="P18" s="510"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -22203,16 +22203,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="478"/>
-      <c r="H19" s="481"/>
+      <c r="G19" s="495"/>
+      <c r="H19" s="498"/>
       <c r="I19" s="403"/>
       <c r="J19" s="405"/>
-      <c r="K19" s="486"/>
-      <c r="L19" s="487"/>
+      <c r="K19" s="503"/>
+      <c r="L19" s="504"/>
       <c r="M19" s="403"/>
       <c r="N19" s="405"/>
-      <c r="O19" s="492"/>
-      <c r="P19" s="493"/>
+      <c r="O19" s="509"/>
+      <c r="P19" s="510"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -22224,16 +22224,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="479"/>
-      <c r="H20" s="482"/>
+      <c r="G20" s="496"/>
+      <c r="H20" s="499"/>
       <c r="I20" s="417"/>
       <c r="J20" s="419"/>
-      <c r="K20" s="488"/>
-      <c r="L20" s="489"/>
+      <c r="K20" s="505"/>
+      <c r="L20" s="506"/>
       <c r="M20" s="417"/>
       <c r="N20" s="419"/>
-      <c r="O20" s="494"/>
-      <c r="P20" s="495"/>
+      <c r="O20" s="511"/>
+      <c r="P20" s="512"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -22314,49 +22314,49 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="496" t="s">
+      <c r="B25" s="486" t="s">
         <v>1089</v>
       </c>
-      <c r="C25" s="496"/>
-      <c r="D25" s="496"/>
-      <c r="E25" s="496"/>
-      <c r="F25" s="496"/>
-      <c r="G25" s="496"/>
-      <c r="H25" s="496"/>
-      <c r="I25" s="496"/>
-      <c r="J25" s="496"/>
-      <c r="K25" s="496"/>
-      <c r="L25" s="496"/>
-      <c r="M25" s="496"/>
-      <c r="N25" s="496"/>
-      <c r="O25" s="496"/>
-      <c r="P25" s="496"/>
-      <c r="Q25" s="496"/>
-      <c r="R25" s="496"/>
-      <c r="S25" s="496"/>
-      <c r="T25" s="496"/>
-      <c r="U25" s="496"/>
-      <c r="V25" s="496"/>
+      <c r="C25" s="486"/>
+      <c r="D25" s="486"/>
+      <c r="E25" s="486"/>
+      <c r="F25" s="486"/>
+      <c r="G25" s="486"/>
+      <c r="H25" s="486"/>
+      <c r="I25" s="486"/>
+      <c r="J25" s="486"/>
+      <c r="K25" s="486"/>
+      <c r="L25" s="486"/>
+      <c r="M25" s="486"/>
+      <c r="N25" s="486"/>
+      <c r="O25" s="486"/>
+      <c r="P25" s="486"/>
+      <c r="Q25" s="486"/>
+      <c r="R25" s="486"/>
+      <c r="S25" s="486"/>
+      <c r="T25" s="486"/>
+      <c r="U25" s="486"/>
+      <c r="V25" s="486"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="497" t="s">
+      <c r="C26" s="487" t="s">
         <v>568</v>
       </c>
-      <c r="D26" s="497"/>
-      <c r="E26" s="497"/>
-      <c r="F26" s="497"/>
-      <c r="G26" s="497"/>
-      <c r="H26" s="497"/>
-      <c r="I26" s="497"/>
-      <c r="J26" s="497"/>
-      <c r="K26" s="497"/>
-      <c r="L26" s="497"/>
-      <c r="M26" s="497"/>
+      <c r="D26" s="487"/>
+      <c r="E26" s="487"/>
+      <c r="F26" s="487"/>
+      <c r="G26" s="487"/>
+      <c r="H26" s="487"/>
+      <c r="I26" s="487"/>
+      <c r="J26" s="487"/>
+      <c r="K26" s="487"/>
+      <c r="L26" s="487"/>
+      <c r="M26" s="487"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="451" t="s">
+      <c r="E27" s="458" t="s">
         <v>177</v>
       </c>
       <c r="F27" s="397"/>
@@ -22399,11 +22399,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="498" t="s">
+      <c r="O29" s="488" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="498"/>
-      <c r="Q29" s="498"/>
+      <c r="P29" s="488"/>
+      <c r="Q29" s="488"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -22448,21 +22448,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="502" t="s">
+      <c r="E32" s="483" t="s">
         <v>1093</v>
       </c>
-      <c r="F32" s="503"/>
-      <c r="G32" s="504"/>
-      <c r="H32" s="502" t="s">
+      <c r="F32" s="484"/>
+      <c r="G32" s="485"/>
+      <c r="H32" s="483" t="s">
         <v>1094</v>
       </c>
-      <c r="I32" s="503"/>
-      <c r="J32" s="504"/>
-      <c r="K32" s="502" t="s">
+      <c r="I32" s="484"/>
+      <c r="J32" s="485"/>
+      <c r="K32" s="483" t="s">
         <v>1095</v>
       </c>
-      <c r="L32" s="503"/>
-      <c r="M32" s="504"/>
+      <c r="L32" s="484"/>
+      <c r="M32" s="485"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -22479,15 +22479,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="502"/>
-      <c r="F33" s="503"/>
-      <c r="G33" s="504"/>
-      <c r="H33" s="502"/>
-      <c r="I33" s="503"/>
-      <c r="J33" s="504"/>
-      <c r="K33" s="502"/>
-      <c r="L33" s="503"/>
-      <c r="M33" s="504"/>
+      <c r="E33" s="483"/>
+      <c r="F33" s="484"/>
+      <c r="G33" s="485"/>
+      <c r="H33" s="483"/>
+      <c r="I33" s="484"/>
+      <c r="J33" s="485"/>
+      <c r="K33" s="483"/>
+      <c r="L33" s="484"/>
+      <c r="M33" s="485"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -22504,15 +22504,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="502"/>
-      <c r="F34" s="503"/>
-      <c r="G34" s="504"/>
-      <c r="H34" s="502"/>
-      <c r="I34" s="503"/>
-      <c r="J34" s="504"/>
-      <c r="K34" s="502"/>
-      <c r="L34" s="503"/>
-      <c r="M34" s="504"/>
+      <c r="E34" s="483"/>
+      <c r="F34" s="484"/>
+      <c r="G34" s="485"/>
+      <c r="H34" s="483"/>
+      <c r="I34" s="484"/>
+      <c r="J34" s="485"/>
+      <c r="K34" s="483"/>
+      <c r="L34" s="484"/>
+      <c r="M34" s="485"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -22523,15 +22523,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="502"/>
-      <c r="F35" s="503"/>
-      <c r="G35" s="504"/>
-      <c r="H35" s="502"/>
-      <c r="I35" s="503"/>
-      <c r="J35" s="504"/>
-      <c r="K35" s="502"/>
-      <c r="L35" s="503"/>
-      <c r="M35" s="504"/>
+      <c r="E35" s="483"/>
+      <c r="F35" s="484"/>
+      <c r="G35" s="485"/>
+      <c r="H35" s="483"/>
+      <c r="I35" s="484"/>
+      <c r="J35" s="485"/>
+      <c r="K35" s="483"/>
+      <c r="L35" s="484"/>
+      <c r="M35" s="485"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -22662,15 +22662,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="506"/>
-      <c r="F42" s="507"/>
-      <c r="G42" s="507"/>
-      <c r="H42" s="507"/>
-      <c r="I42" s="507"/>
-      <c r="J42" s="507"/>
-      <c r="K42" s="507"/>
-      <c r="L42" s="507"/>
-      <c r="M42" s="508"/>
+      <c r="E42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="477"/>
+      <c r="H42" s="477"/>
+      <c r="I42" s="477"/>
+      <c r="J42" s="477"/>
+      <c r="K42" s="477"/>
+      <c r="L42" s="477"/>
+      <c r="M42" s="478"/>
       <c r="N42" s="39" t="s">
         <v>573</v>
       </c>
@@ -22711,51 +22711,51 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="496" t="s">
+      <c r="B47" s="486" t="s">
         <v>1091</v>
       </c>
-      <c r="C47" s="496"/>
-      <c r="D47" s="496"/>
-      <c r="E47" s="496"/>
-      <c r="F47" s="496"/>
-      <c r="G47" s="496"/>
-      <c r="H47" s="496"/>
-      <c r="I47" s="496"/>
-      <c r="J47" s="496"/>
-      <c r="K47" s="496"/>
-      <c r="L47" s="496"/>
-      <c r="M47" s="496"/>
-      <c r="N47" s="496"/>
-      <c r="O47" s="496"/>
-      <c r="P47" s="496"/>
-      <c r="Q47" s="496"/>
-      <c r="R47" s="496"/>
-      <c r="S47" s="496"/>
-      <c r="T47" s="496"/>
-      <c r="U47" s="496"/>
-      <c r="V47" s="496"/>
+      <c r="C47" s="486"/>
+      <c r="D47" s="486"/>
+      <c r="E47" s="486"/>
+      <c r="F47" s="486"/>
+      <c r="G47" s="486"/>
+      <c r="H47" s="486"/>
+      <c r="I47" s="486"/>
+      <c r="J47" s="486"/>
+      <c r="K47" s="486"/>
+      <c r="L47" s="486"/>
+      <c r="M47" s="486"/>
+      <c r="N47" s="486"/>
+      <c r="O47" s="486"/>
+      <c r="P47" s="486"/>
+      <c r="Q47" s="486"/>
+      <c r="R47" s="486"/>
+      <c r="S47" s="486"/>
+      <c r="T47" s="486"/>
+      <c r="U47" s="486"/>
+      <c r="V47" s="486"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="497" t="s">
+      <c r="C48" s="487" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="497"/>
-      <c r="E48" s="497"/>
-      <c r="F48" s="497"/>
-      <c r="G48" s="497"/>
-      <c r="H48" s="497"/>
-      <c r="I48" s="497"/>
-      <c r="J48" s="497"/>
-      <c r="K48" s="497"/>
-      <c r="L48" s="497"/>
-      <c r="M48" s="497"/>
+      <c r="D48" s="487"/>
+      <c r="E48" s="487"/>
+      <c r="F48" s="487"/>
+      <c r="G48" s="487"/>
+      <c r="H48" s="487"/>
+      <c r="I48" s="487"/>
+      <c r="J48" s="487"/>
+      <c r="K48" s="487"/>
+      <c r="L48" s="487"/>
+      <c r="M48" s="487"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="451" t="s">
+      <c r="E49" s="458" t="s">
         <v>177</v>
       </c>
       <c r="F49" s="397"/>
@@ -22783,16 +22783,16 @@
       </c>
       <c r="F50" s="119"/>
       <c r="G50" s="241"/>
-      <c r="H50" s="499" t="s">
+      <c r="H50" s="490" t="s">
         <v>1094</v>
       </c>
-      <c r="I50" s="500"/>
-      <c r="J50" s="501"/>
-      <c r="K50" s="499" t="s">
+      <c r="I50" s="491"/>
+      <c r="J50" s="492"/>
+      <c r="K50" s="490" t="s">
         <v>1095</v>
       </c>
-      <c r="L50" s="500"/>
-      <c r="M50" s="501"/>
+      <c r="L50" s="491"/>
+      <c r="M50" s="492"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="W50" t="s">
@@ -22806,20 +22806,20 @@
         <v>1109</v>
       </c>
       <c r="F51" s="282"/>
-      <c r="G51" s="505" t="s">
+      <c r="G51" s="493" t="s">
         <v>1117</v>
       </c>
-      <c r="H51" s="502"/>
-      <c r="I51" s="503"/>
-      <c r="J51" s="504"/>
-      <c r="K51" s="502"/>
-      <c r="L51" s="503"/>
-      <c r="M51" s="504"/>
-      <c r="O51" s="498" t="s">
+      <c r="H51" s="483"/>
+      <c r="I51" s="484"/>
+      <c r="J51" s="485"/>
+      <c r="K51" s="483"/>
+      <c r="L51" s="484"/>
+      <c r="M51" s="485"/>
+      <c r="O51" s="488" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="498"/>
-      <c r="Q51" s="498"/>
+      <c r="P51" s="488"/>
+      <c r="Q51" s="488"/>
       <c r="S51" s="269"/>
       <c r="T51" s="269"/>
       <c r="W51" s="39" t="s">
@@ -22833,13 +22833,13 @@
         <v>1110</v>
       </c>
       <c r="F52" s="283"/>
-      <c r="G52" s="505"/>
-      <c r="H52" s="502"/>
-      <c r="I52" s="503"/>
-      <c r="J52" s="504"/>
-      <c r="K52" s="502"/>
-      <c r="L52" s="503"/>
-      <c r="M52" s="504"/>
+      <c r="G52" s="493"/>
+      <c r="H52" s="483"/>
+      <c r="I52" s="484"/>
+      <c r="J52" s="485"/>
+      <c r="K52" s="483"/>
+      <c r="L52" s="484"/>
+      <c r="M52" s="485"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
     </row>
@@ -22850,13 +22850,13 @@
         <v>1111</v>
       </c>
       <c r="F53" s="284"/>
-      <c r="G53" s="505"/>
-      <c r="H53" s="502"/>
-      <c r="I53" s="503"/>
-      <c r="J53" s="504"/>
-      <c r="K53" s="502"/>
-      <c r="L53" s="503"/>
-      <c r="M53" s="504"/>
+      <c r="G53" s="493"/>
+      <c r="H53" s="483"/>
+      <c r="I53" s="484"/>
+      <c r="J53" s="485"/>
+      <c r="K53" s="483"/>
+      <c r="L53" s="484"/>
+      <c r="M53" s="485"/>
       <c r="N53" s="5"/>
       <c r="O53" s="37" t="s">
         <v>181</v>
@@ -22895,7 +22895,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="270"/>
       <c r="F54" s="285"/>
-      <c r="G54" s="511" t="s">
+      <c r="G54" s="481" t="s">
         <v>1121</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22942,11 +22942,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="509" t="s">
+      <c r="E55" s="479" t="s">
         <v>1122</v>
       </c>
-      <c r="F55" s="510"/>
-      <c r="G55" s="512"/>
+      <c r="F55" s="480"/>
+      <c r="G55" s="482"/>
       <c r="H55" s="138" t="s">
         <v>1113</v>
       </c>
@@ -22990,9 +22990,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="509"/>
-      <c r="F56" s="510"/>
-      <c r="G56" s="512"/>
+      <c r="E56" s="479"/>
+      <c r="F56" s="480"/>
+      <c r="G56" s="482"/>
       <c r="H56" s="138" t="s">
         <v>1114</v>
       </c>
@@ -23022,9 +23022,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="509"/>
-      <c r="F57" s="510"/>
-      <c r="G57" s="512"/>
+      <c r="E57" s="479"/>
+      <c r="F57" s="480"/>
+      <c r="G57" s="482"/>
       <c r="H57" s="4" t="s">
         <v>1126</v>
       </c>
@@ -23054,9 +23054,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="509"/>
-      <c r="F58" s="510"/>
-      <c r="G58" s="512"/>
+      <c r="E58" s="479"/>
+      <c r="F58" s="480"/>
+      <c r="G58" s="482"/>
       <c r="H58" s="274" t="s">
         <v>1112</v>
       </c>
@@ -23081,9 +23081,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="509"/>
-      <c r="F59" s="510"/>
-      <c r="G59" s="512"/>
+      <c r="E59" s="479"/>
+      <c r="F59" s="480"/>
+      <c r="G59" s="482"/>
       <c r="H59" s="274" t="s">
         <v>547</v>
       </c>
@@ -23108,9 +23108,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="509"/>
-      <c r="F60" s="510"/>
-      <c r="G60" s="512"/>
+      <c r="E60" s="479"/>
+      <c r="F60" s="480"/>
+      <c r="G60" s="482"/>
       <c r="H60" s="276"/>
       <c r="I60" s="277" t="s">
         <v>1128</v>
@@ -23130,9 +23130,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="509"/>
-      <c r="F61" s="510"/>
-      <c r="G61" s="512"/>
+      <c r="E61" s="479"/>
+      <c r="F61" s="480"/>
+      <c r="G61" s="482"/>
       <c r="H61" s="276"/>
       <c r="I61" s="277" t="s">
         <v>1129</v>
@@ -23152,7 +23152,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="265"/>
       <c r="F62" s="281"/>
-      <c r="G62" s="512"/>
+      <c r="G62" s="482"/>
       <c r="H62" s="278"/>
       <c r="I62" s="280" t="s">
         <v>1130</v>
@@ -23194,15 +23194,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="506"/>
-      <c r="F64" s="507"/>
-      <c r="G64" s="507"/>
-      <c r="H64" s="507"/>
-      <c r="I64" s="507"/>
-      <c r="J64" s="507"/>
-      <c r="K64" s="507"/>
-      <c r="L64" s="507"/>
-      <c r="M64" s="508"/>
+      <c r="E64" s="476"/>
+      <c r="F64" s="477"/>
+      <c r="G64" s="477"/>
+      <c r="H64" s="477"/>
+      <c r="I64" s="477"/>
+      <c r="J64" s="477"/>
+      <c r="K64" s="477"/>
+      <c r="L64" s="477"/>
+      <c r="M64" s="478"/>
       <c r="N64" s="39" t="s">
         <v>573</v>
       </c>
@@ -24081,30 +24081,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -24121,6 +24097,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -24276,12 +24276,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="461" t="s">
+      <c r="B8" s="457" t="s">
         <v>1415</v>
       </c>
-      <c r="C8" s="461"/>
-      <c r="D8" s="461"/>
-      <c r="E8" s="461"/>
+      <c r="C8" s="457"/>
+      <c r="D8" s="457"/>
+      <c r="E8" s="457"/>
       <c r="J8" s="31" t="s">
         <v>552</v>
       </c>
@@ -24454,23 +24454,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="497" t="s">
+      <c r="C2" s="487" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="497"/>
-      <c r="E2" s="497"/>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="497"/>
-      <c r="J2" s="497"/>
-      <c r="K2" s="497"/>
-      <c r="L2" s="497"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
+      <c r="K2" s="487"/>
+      <c r="L2" s="487"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="451" t="s">
+      <c r="E3" s="458" t="s">
         <v>177</v>
       </c>
       <c r="F3" s="397"/>
@@ -24510,11 +24510,11 @@
         <v>587</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="498" t="s">
+      <c r="N5" s="488" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="498"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="488"/>
+      <c r="P5" s="488"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -24565,20 +24565,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="502" t="s">
+      <c r="E8" s="483" t="s">
         <v>569</v>
       </c>
-      <c r="F8" s="504"/>
-      <c r="G8" s="502" t="s">
+      <c r="F8" s="485"/>
+      <c r="G8" s="483" t="s">
         <v>570</v>
       </c>
-      <c r="H8" s="503"/>
-      <c r="I8" s="504"/>
-      <c r="J8" s="502" t="s">
+      <c r="H8" s="484"/>
+      <c r="I8" s="485"/>
+      <c r="J8" s="483" t="s">
         <v>571</v>
       </c>
-      <c r="K8" s="503"/>
-      <c r="L8" s="504"/>
+      <c r="K8" s="484"/>
+      <c r="L8" s="485"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -24601,14 +24601,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="502"/>
-      <c r="F9" s="504"/>
-      <c r="G9" s="502"/>
-      <c r="H9" s="503"/>
-      <c r="I9" s="504"/>
-      <c r="J9" s="502"/>
-      <c r="K9" s="503"/>
-      <c r="L9" s="504"/>
+      <c r="E9" s="483"/>
+      <c r="F9" s="485"/>
+      <c r="G9" s="483"/>
+      <c r="H9" s="484"/>
+      <c r="I9" s="485"/>
+      <c r="J9" s="483"/>
+      <c r="K9" s="484"/>
+      <c r="L9" s="485"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -24628,14 +24628,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="502"/>
-      <c r="F10" s="504"/>
-      <c r="G10" s="502"/>
-      <c r="H10" s="503"/>
-      <c r="I10" s="504"/>
-      <c r="J10" s="502"/>
-      <c r="K10" s="503"/>
-      <c r="L10" s="504"/>
+      <c r="E10" s="483"/>
+      <c r="F10" s="485"/>
+      <c r="G10" s="483"/>
+      <c r="H10" s="484"/>
+      <c r="I10" s="485"/>
+      <c r="J10" s="483"/>
+      <c r="K10" s="484"/>
+      <c r="L10" s="485"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -24649,14 +24649,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="502"/>
-      <c r="F11" s="504"/>
-      <c r="G11" s="502"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="504"/>
-      <c r="J11" s="502"/>
-      <c r="K11" s="503"/>
-      <c r="L11" s="504"/>
+      <c r="E11" s="483"/>
+      <c r="F11" s="485"/>
+      <c r="G11" s="483"/>
+      <c r="H11" s="484"/>
+      <c r="I11" s="485"/>
+      <c r="J11" s="483"/>
+      <c r="K11" s="484"/>
+      <c r="L11" s="485"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -24759,16 +24759,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="506" t="s">
+      <c r="E17" s="476" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="507"/>
-      <c r="G17" s="507"/>
-      <c r="H17" s="507"/>
-      <c r="I17" s="507"/>
-      <c r="J17" s="507"/>
-      <c r="K17" s="507"/>
-      <c r="L17" s="508"/>
+      <c r="F17" s="477"/>
+      <c r="G17" s="477"/>
+      <c r="H17" s="477"/>
+      <c r="I17" s="477"/>
+      <c r="J17" s="477"/>
+      <c r="K17" s="477"/>
+      <c r="L17" s="478"/>
       <c r="M17" s="39" t="s">
         <v>573</v>
       </c>
@@ -25287,22 +25287,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="476" t="s">
+      <c r="E3" s="489" t="s">
         <v>516</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476" t="s">
+      <c r="F3" s="489"/>
+      <c r="G3" s="489" t="s">
         <v>517</v>
       </c>
-      <c r="H3" s="476"/>
-      <c r="I3" s="476"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="476"/>
-      <c r="L3" s="476"/>
-      <c r="M3" s="476" t="s">
+      <c r="H3" s="489"/>
+      <c r="I3" s="489"/>
+      <c r="J3" s="489"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="489"/>
+      <c r="M3" s="489" t="s">
         <v>518</v>
       </c>
-      <c r="N3" s="476"/>
+      <c r="N3" s="489"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -25313,7 +25313,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="132"/>
       <c r="D4" s="133"/>
-      <c r="E4" s="477" t="s">
+      <c r="E4" s="494" t="s">
         <v>519</v>
       </c>
       <c r="F4" s="128"/>
@@ -25341,22 +25341,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="135"/>
-      <c r="E5" s="478"/>
+      <c r="E5" s="495"/>
       <c r="F5" s="436" t="s">
         <v>615</v>
       </c>
       <c r="G5" s="437"/>
       <c r="H5" s="438"/>
-      <c r="I5" s="549" t="s">
+      <c r="I5" s="520" t="s">
         <v>616</v>
       </c>
-      <c r="J5" s="550"/>
-      <c r="K5" s="550"/>
-      <c r="L5" s="485"/>
-      <c r="M5" s="549" t="s">
+      <c r="J5" s="521"/>
+      <c r="K5" s="521"/>
+      <c r="L5" s="502"/>
+      <c r="M5" s="520" t="s">
         <v>617</v>
       </c>
-      <c r="N5" s="485"/>
+      <c r="N5" s="502"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -25367,16 +25367,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="136"/>
       <c r="D6" s="137"/>
-      <c r="E6" s="478"/>
+      <c r="E6" s="495"/>
       <c r="F6" s="439"/>
       <c r="G6" s="440"/>
       <c r="H6" s="441"/>
-      <c r="I6" s="486"/>
-      <c r="J6" s="551"/>
-      <c r="K6" s="551"/>
-      <c r="L6" s="487"/>
-      <c r="M6" s="486"/>
-      <c r="N6" s="487"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="522"/>
+      <c r="K6" s="522"/>
+      <c r="L6" s="504"/>
+      <c r="M6" s="503"/>
+      <c r="N6" s="504"/>
       <c r="O6" s="5"/>
       <c r="P6" s="37" t="s">
         <v>181</v>
@@ -25393,16 +25393,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="478"/>
+      <c r="E7" s="495"/>
       <c r="F7" s="439"/>
       <c r="G7" s="440"/>
       <c r="H7" s="441"/>
-      <c r="I7" s="486"/>
-      <c r="J7" s="551"/>
-      <c r="K7" s="551"/>
-      <c r="L7" s="487"/>
-      <c r="M7" s="486"/>
-      <c r="N7" s="487"/>
+      <c r="I7" s="503"/>
+      <c r="J7" s="522"/>
+      <c r="K7" s="522"/>
+      <c r="L7" s="504"/>
+      <c r="M7" s="503"/>
+      <c r="N7" s="504"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -25421,16 +25421,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="478"/>
+      <c r="E8" s="495"/>
       <c r="F8" s="439"/>
       <c r="G8" s="440"/>
       <c r="H8" s="441"/>
-      <c r="I8" s="486"/>
-      <c r="J8" s="551"/>
-      <c r="K8" s="551"/>
-      <c r="L8" s="487"/>
-      <c r="M8" s="486"/>
-      <c r="N8" s="487"/>
+      <c r="I8" s="503"/>
+      <c r="J8" s="522"/>
+      <c r="K8" s="522"/>
+      <c r="L8" s="504"/>
+      <c r="M8" s="503"/>
+      <c r="N8" s="504"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -25451,16 +25451,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="478"/>
+      <c r="E9" s="495"/>
       <c r="F9" s="439"/>
       <c r="G9" s="440"/>
       <c r="H9" s="441"/>
-      <c r="I9" s="486"/>
-      <c r="J9" s="551"/>
-      <c r="K9" s="551"/>
-      <c r="L9" s="487"/>
-      <c r="M9" s="486"/>
-      <c r="N9" s="487"/>
+      <c r="I9" s="503"/>
+      <c r="J9" s="522"/>
+      <c r="K9" s="522"/>
+      <c r="L9" s="504"/>
+      <c r="M9" s="503"/>
+      <c r="N9" s="504"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -25477,16 +25477,16 @@
         <v>535</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="478"/>
+      <c r="E10" s="495"/>
       <c r="F10" s="439"/>
       <c r="G10" s="440"/>
       <c r="H10" s="441"/>
-      <c r="I10" s="486"/>
-      <c r="J10" s="551"/>
-      <c r="K10" s="551"/>
-      <c r="L10" s="487"/>
-      <c r="M10" s="486"/>
-      <c r="N10" s="487"/>
+      <c r="I10" s="503"/>
+      <c r="J10" s="522"/>
+      <c r="K10" s="522"/>
+      <c r="L10" s="504"/>
+      <c r="M10" s="503"/>
+      <c r="N10" s="504"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -25499,16 +25499,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="478"/>
+      <c r="E11" s="495"/>
       <c r="F11" s="439"/>
       <c r="G11" s="440"/>
       <c r="H11" s="441"/>
-      <c r="I11" s="486"/>
-      <c r="J11" s="551"/>
-      <c r="K11" s="551"/>
-      <c r="L11" s="487"/>
-      <c r="M11" s="486"/>
-      <c r="N11" s="487"/>
+      <c r="I11" s="503"/>
+      <c r="J11" s="522"/>
+      <c r="K11" s="522"/>
+      <c r="L11" s="504"/>
+      <c r="M11" s="503"/>
+      <c r="N11" s="504"/>
       <c r="O11" s="5"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -25519,16 +25519,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="478"/>
+      <c r="E12" s="495"/>
       <c r="F12" s="439"/>
       <c r="G12" s="440"/>
       <c r="H12" s="441"/>
-      <c r="I12" s="486"/>
-      <c r="J12" s="551"/>
-      <c r="K12" s="551"/>
-      <c r="L12" s="487"/>
-      <c r="M12" s="486"/>
-      <c r="N12" s="487"/>
+      <c r="I12" s="503"/>
+      <c r="J12" s="522"/>
+      <c r="K12" s="522"/>
+      <c r="L12" s="504"/>
+      <c r="M12" s="503"/>
+      <c r="N12" s="504"/>
       <c r="O12" s="5"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -25541,16 +25541,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="478"/>
+      <c r="E13" s="495"/>
       <c r="F13" s="439"/>
       <c r="G13" s="440"/>
       <c r="H13" s="441"/>
-      <c r="I13" s="486"/>
-      <c r="J13" s="551"/>
-      <c r="K13" s="551"/>
-      <c r="L13" s="487"/>
-      <c r="M13" s="486"/>
-      <c r="N13" s="487"/>
+      <c r="I13" s="503"/>
+      <c r="J13" s="522"/>
+      <c r="K13" s="522"/>
+      <c r="L13" s="504"/>
+      <c r="M13" s="503"/>
+      <c r="N13" s="504"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -25561,16 +25561,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="478"/>
+      <c r="E14" s="495"/>
       <c r="F14" s="439"/>
       <c r="G14" s="440"/>
       <c r="H14" s="441"/>
-      <c r="I14" s="486"/>
-      <c r="J14" s="551"/>
-      <c r="K14" s="551"/>
-      <c r="L14" s="487"/>
-      <c r="M14" s="486"/>
-      <c r="N14" s="487"/>
+      <c r="I14" s="503"/>
+      <c r="J14" s="522"/>
+      <c r="K14" s="522"/>
+      <c r="L14" s="504"/>
+      <c r="M14" s="503"/>
+      <c r="N14" s="504"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -25581,16 +25581,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="478"/>
+      <c r="E15" s="495"/>
       <c r="F15" s="439"/>
       <c r="G15" s="440"/>
       <c r="H15" s="441"/>
-      <c r="I15" s="486"/>
-      <c r="J15" s="551"/>
-      <c r="K15" s="551"/>
-      <c r="L15" s="487"/>
-      <c r="M15" s="486"/>
-      <c r="N15" s="487"/>
+      <c r="I15" s="503"/>
+      <c r="J15" s="522"/>
+      <c r="K15" s="522"/>
+      <c r="L15" s="504"/>
+      <c r="M15" s="503"/>
+      <c r="N15" s="504"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -25601,16 +25601,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="478"/>
+      <c r="E16" s="495"/>
       <c r="F16" s="439"/>
       <c r="G16" s="440"/>
       <c r="H16" s="441"/>
-      <c r="I16" s="486"/>
-      <c r="J16" s="551"/>
-      <c r="K16" s="551"/>
-      <c r="L16" s="487"/>
-      <c r="M16" s="486"/>
-      <c r="N16" s="487"/>
+      <c r="I16" s="503"/>
+      <c r="J16" s="522"/>
+      <c r="K16" s="522"/>
+      <c r="L16" s="504"/>
+      <c r="M16" s="503"/>
+      <c r="N16" s="504"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -25623,16 +25623,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="478"/>
+      <c r="E17" s="495"/>
       <c r="F17" s="439"/>
       <c r="G17" s="440"/>
       <c r="H17" s="441"/>
-      <c r="I17" s="486"/>
-      <c r="J17" s="551"/>
-      <c r="K17" s="551"/>
-      <c r="L17" s="487"/>
-      <c r="M17" s="486"/>
-      <c r="N17" s="487"/>
+      <c r="I17" s="503"/>
+      <c r="J17" s="522"/>
+      <c r="K17" s="522"/>
+      <c r="L17" s="504"/>
+      <c r="M17" s="503"/>
+      <c r="N17" s="504"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -25643,16 +25643,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="479"/>
+      <c r="E18" s="496"/>
       <c r="F18" s="442"/>
       <c r="G18" s="443"/>
       <c r="H18" s="444"/>
-      <c r="I18" s="488"/>
-      <c r="J18" s="552"/>
-      <c r="K18" s="552"/>
-      <c r="L18" s="489"/>
-      <c r="M18" s="488"/>
-      <c r="N18" s="489"/>
+      <c r="I18" s="505"/>
+      <c r="J18" s="523"/>
+      <c r="K18" s="523"/>
+      <c r="L18" s="506"/>
+      <c r="M18" s="505"/>
+      <c r="N18" s="506"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -25728,29 +25728,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="498" t="s">
+      <c r="B24" s="488" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="498"/>
-      <c r="D24" s="497"/>
-      <c r="E24" s="497"/>
-      <c r="F24" s="497"/>
-      <c r="G24" s="497"/>
-      <c r="H24" s="497"/>
-      <c r="I24" s="497"/>
-      <c r="J24" s="497"/>
-      <c r="K24" s="497"/>
-      <c r="M24" s="520" t="s">
+      <c r="C24" s="488"/>
+      <c r="D24" s="487"/>
+      <c r="E24" s="487"/>
+      <c r="F24" s="487"/>
+      <c r="G24" s="487"/>
+      <c r="H24" s="487"/>
+      <c r="I24" s="487"/>
+      <c r="J24" s="487"/>
+      <c r="K24" s="487"/>
+      <c r="M24" s="541" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="520"/>
-      <c r="O24" s="520"/>
+      <c r="N24" s="541"/>
+      <c r="O24" s="541"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="521" t="s">
+      <c r="B25" s="542" t="s">
         <v>928</v>
       </c>
-      <c r="C25" s="464"/>
+      <c r="C25" s="465"/>
       <c r="D25" s="410" t="s">
         <v>177</v>
       </c>
@@ -25772,13 +25772,13 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="465"/>
-      <c r="C26" s="466"/>
-      <c r="D26" s="463" t="s">
+      <c r="B26" s="466"/>
+      <c r="C26" s="467"/>
+      <c r="D26" s="464" t="s">
         <v>921</v>
       </c>
-      <c r="E26" s="464"/>
-      <c r="F26" s="547" t="s">
+      <c r="E26" s="465"/>
+      <c r="F26" s="536" t="s">
         <v>921</v>
       </c>
       <c r="G26" s="410"/>
@@ -25802,21 +25802,21 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="465"/>
-      <c r="C27" s="466"/>
-      <c r="D27" s="461" t="s">
+      <c r="B27" s="466"/>
+      <c r="C27" s="467"/>
+      <c r="D27" s="457" t="s">
         <v>926</v>
       </c>
-      <c r="E27" s="466"/>
-      <c r="F27" s="465" t="s">
+      <c r="E27" s="467"/>
+      <c r="F27" s="466" t="s">
         <v>922</v>
       </c>
-      <c r="G27" s="461"/>
+      <c r="G27" s="457"/>
       <c r="H27" s="402"/>
-      <c r="I27" s="531" t="s">
+      <c r="I27" s="540" t="s">
         <v>926</v>
       </c>
-      <c r="J27" s="461"/>
+      <c r="J27" s="457"/>
       <c r="K27" s="402"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
@@ -25832,21 +25832,21 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="465"/>
-      <c r="C28" s="466"/>
-      <c r="D28" s="461" t="s">
+      <c r="B28" s="466"/>
+      <c r="C28" s="467"/>
+      <c r="D28" s="457" t="s">
         <v>923</v>
       </c>
-      <c r="E28" s="466"/>
-      <c r="F28" s="465" t="s">
+      <c r="E28" s="467"/>
+      <c r="F28" s="466" t="s">
         <v>923</v>
       </c>
-      <c r="G28" s="461"/>
+      <c r="G28" s="457"/>
       <c r="H28" s="402"/>
-      <c r="I28" s="531" t="s">
+      <c r="I28" s="540" t="s">
         <v>923</v>
       </c>
-      <c r="J28" s="461"/>
+      <c r="J28" s="457"/>
       <c r="K28" s="402"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
@@ -25856,22 +25856,22 @@
       <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="467"/>
-      <c r="C29" s="468"/>
-      <c r="D29" s="461" t="s">
+      <c r="B29" s="468"/>
+      <c r="C29" s="469"/>
+      <c r="D29" s="457" t="s">
         <v>924</v>
       </c>
-      <c r="E29" s="466"/>
-      <c r="F29" s="548" t="s">
+      <c r="E29" s="467"/>
+      <c r="F29" s="537" t="s">
         <v>924</v>
       </c>
-      <c r="G29" s="533"/>
-      <c r="H29" s="534"/>
-      <c r="I29" s="532" t="s">
+      <c r="G29" s="538"/>
+      <c r="H29" s="539"/>
+      <c r="I29" s="552" t="s">
         <v>924</v>
       </c>
-      <c r="J29" s="533"/>
-      <c r="K29" s="534"/>
+      <c r="J29" s="538"/>
+      <c r="K29" s="539"/>
       <c r="L29" s="23" t="s">
         <v>2</v>
       </c>
@@ -25884,20 +25884,20 @@
         <v>927</v>
       </c>
       <c r="C30" s="414"/>
-      <c r="D30" s="535" t="s">
+      <c r="D30" s="524" t="s">
         <v>569</v>
       </c>
-      <c r="E30" s="536"/>
-      <c r="F30" s="540" t="s">
+      <c r="E30" s="525"/>
+      <c r="F30" s="529" t="s">
         <v>570</v>
       </c>
-      <c r="G30" s="541"/>
-      <c r="H30" s="536"/>
-      <c r="I30" s="540" t="s">
+      <c r="G30" s="530"/>
+      <c r="H30" s="525"/>
+      <c r="I30" s="529" t="s">
         <v>571</v>
       </c>
-      <c r="J30" s="541"/>
-      <c r="K30" s="544"/>
+      <c r="J30" s="530"/>
+      <c r="K30" s="533"/>
       <c r="L30" s="5"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
@@ -25906,14 +25906,14 @@
     <row r="31" spans="2:19">
       <c r="B31" s="403"/>
       <c r="C31" s="416"/>
-      <c r="D31" s="537"/>
-      <c r="E31" s="504"/>
-      <c r="F31" s="502"/>
-      <c r="G31" s="503"/>
-      <c r="H31" s="504"/>
-      <c r="I31" s="502"/>
-      <c r="J31" s="503"/>
-      <c r="K31" s="545"/>
+      <c r="D31" s="526"/>
+      <c r="E31" s="485"/>
+      <c r="F31" s="483"/>
+      <c r="G31" s="484"/>
+      <c r="H31" s="485"/>
+      <c r="I31" s="483"/>
+      <c r="J31" s="484"/>
+      <c r="K31" s="534"/>
       <c r="L31" s="5"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
@@ -25922,107 +25922,107 @@
     <row r="32" spans="2:19">
       <c r="B32" s="403"/>
       <c r="C32" s="416"/>
-      <c r="D32" s="537"/>
-      <c r="E32" s="504"/>
-      <c r="F32" s="502"/>
-      <c r="G32" s="503"/>
-      <c r="H32" s="504"/>
-      <c r="I32" s="502"/>
-      <c r="J32" s="503"/>
-      <c r="K32" s="545"/>
+      <c r="D32" s="526"/>
+      <c r="E32" s="485"/>
+      <c r="F32" s="483"/>
+      <c r="G32" s="484"/>
+      <c r="H32" s="485"/>
+      <c r="I32" s="483"/>
+      <c r="J32" s="484"/>
+      <c r="K32" s="534"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="403"/>
       <c r="C33" s="416"/>
-      <c r="D33" s="538"/>
-      <c r="E33" s="539"/>
-      <c r="F33" s="542"/>
-      <c r="G33" s="543"/>
-      <c r="H33" s="539"/>
-      <c r="I33" s="542"/>
-      <c r="J33" s="543"/>
-      <c r="K33" s="546"/>
+      <c r="D33" s="527"/>
+      <c r="E33" s="528"/>
+      <c r="F33" s="531"/>
+      <c r="G33" s="532"/>
+      <c r="H33" s="528"/>
+      <c r="I33" s="531"/>
+      <c r="J33" s="532"/>
+      <c r="K33" s="535"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="403"/>
       <c r="C34" s="405"/>
-      <c r="D34" s="522" t="s">
+      <c r="D34" s="543" t="s">
         <v>914</v>
       </c>
-      <c r="E34" s="523"/>
-      <c r="F34" s="522" t="s">
+      <c r="E34" s="544"/>
+      <c r="F34" s="543" t="s">
         <v>591</v>
       </c>
-      <c r="G34" s="528"/>
-      <c r="H34" s="523"/>
-      <c r="I34" s="522" t="s">
+      <c r="G34" s="549"/>
+      <c r="H34" s="544"/>
+      <c r="I34" s="543" t="s">
         <v>929</v>
       </c>
-      <c r="J34" s="528"/>
-      <c r="K34" s="523"/>
+      <c r="J34" s="549"/>
+      <c r="K34" s="544"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="403"/>
       <c r="C35" s="405"/>
-      <c r="D35" s="524"/>
-      <c r="E35" s="525"/>
-      <c r="F35" s="524"/>
-      <c r="G35" s="529"/>
-      <c r="H35" s="525"/>
-      <c r="I35" s="524"/>
-      <c r="J35" s="529"/>
-      <c r="K35" s="525"/>
+      <c r="D35" s="545"/>
+      <c r="E35" s="546"/>
+      <c r="F35" s="545"/>
+      <c r="G35" s="550"/>
+      <c r="H35" s="546"/>
+      <c r="I35" s="545"/>
+      <c r="J35" s="550"/>
+      <c r="K35" s="546"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="403"/>
       <c r="C36" s="405"/>
-      <c r="D36" s="524"/>
-      <c r="E36" s="525"/>
-      <c r="F36" s="524"/>
-      <c r="G36" s="529"/>
-      <c r="H36" s="525"/>
-      <c r="I36" s="524"/>
-      <c r="J36" s="529"/>
-      <c r="K36" s="525"/>
+      <c r="D36" s="545"/>
+      <c r="E36" s="546"/>
+      <c r="F36" s="545"/>
+      <c r="G36" s="550"/>
+      <c r="H36" s="546"/>
+      <c r="I36" s="545"/>
+      <c r="J36" s="550"/>
+      <c r="K36" s="546"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="403"/>
       <c r="C37" s="405"/>
-      <c r="D37" s="524"/>
-      <c r="E37" s="525"/>
-      <c r="F37" s="524"/>
-      <c r="G37" s="529"/>
-      <c r="H37" s="525"/>
-      <c r="I37" s="524"/>
-      <c r="J37" s="529"/>
-      <c r="K37" s="525"/>
+      <c r="D37" s="545"/>
+      <c r="E37" s="546"/>
+      <c r="F37" s="545"/>
+      <c r="G37" s="550"/>
+      <c r="H37" s="546"/>
+      <c r="I37" s="545"/>
+      <c r="J37" s="550"/>
+      <c r="K37" s="546"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="B38" s="403"/>
       <c r="C38" s="405"/>
-      <c r="D38" s="526"/>
-      <c r="E38" s="527"/>
-      <c r="F38" s="526"/>
-      <c r="G38" s="530"/>
-      <c r="H38" s="527"/>
-      <c r="I38" s="526"/>
-      <c r="J38" s="530"/>
-      <c r="K38" s="527"/>
+      <c r="D38" s="547"/>
+      <c r="E38" s="548"/>
+      <c r="F38" s="547"/>
+      <c r="G38" s="551"/>
+      <c r="H38" s="548"/>
+      <c r="I38" s="547"/>
+      <c r="J38" s="551"/>
+      <c r="K38" s="548"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
       <c r="B39" s="417"/>
       <c r="C39" s="419"/>
-      <c r="D39" s="506" t="s">
+      <c r="D39" s="476" t="s">
         <v>572</v>
       </c>
-      <c r="E39" s="507"/>
-      <c r="F39" s="507"/>
-      <c r="G39" s="507"/>
-      <c r="H39" s="507"/>
-      <c r="I39" s="507"/>
-      <c r="J39" s="507"/>
-      <c r="K39" s="508"/>
+      <c r="E39" s="477"/>
+      <c r="F39" s="477"/>
+      <c r="G39" s="477"/>
+      <c r="H39" s="477"/>
+      <c r="I39" s="477"/>
+      <c r="J39" s="477"/>
+      <c r="K39" s="478"/>
       <c r="L39" s="39" t="s">
         <v>573</v>
       </c>
@@ -26059,16 +26059,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -26085,17 +26086,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -28801,8 +28801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:P16"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -22,17 +22,18 @@
     <sheet name="webservice" sheetId="13" r:id="rId13"/>
     <sheet name="git" sheetId="15" r:id="rId14"/>
     <sheet name="framework" sheetId="16" r:id="rId15"/>
-    <sheet name="spring-data" sheetId="17" r:id="rId16"/>
-    <sheet name="spring" sheetId="18" r:id="rId17"/>
-    <sheet name="spring beans scope" sheetId="19" r:id="rId18"/>
-    <sheet name="junit" sheetId="20" r:id="rId19"/>
+    <sheet name="strut_tag" sheetId="21" r:id="rId16"/>
+    <sheet name="spring-data" sheetId="17" r:id="rId17"/>
+    <sheet name="spring" sheetId="18" r:id="rId18"/>
+    <sheet name="spring beans scope" sheetId="19" r:id="rId19"/>
+    <sheet name="junit" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="1774">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5612,6 +5613,221 @@
   </si>
   <si>
     <t>&lt;num1&gt;20&lt;/num1&gt; &lt;num2&gt;30&lt;/num2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s:append var=“appendIterator"&gt;</t>
+  </si>
+  <si>
+    <t>myList1and myList2 is an arraylist in action java program
+Append will join both list into 1
+s:iterator will read all value with new iterator and print on webpage</t>
+  </si>
+  <si>
+    <t>myList1</t>
+  </si>
+  <si>
+    <t>myList2</t>
+  </si>
+  <si>
+    <t>appendIterator</t>
+  </si>
+  <si>
+    <t>     &lt;s:param value="%{myList1}" /&gt;       &lt;s:param value="%{myList2}" /&gt;</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>&lt;/s:append&gt;</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>will create list that can be read through iteration. And iterator will print a b c d e in new line on webpage</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>&lt;s:generator val="%{'a,b,c,d,e'}"&gt;</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t> &lt;s:iterator&gt;      &lt;s:property /&gt;&lt;br/&gt;    &lt;/s:iterator&gt;</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/s:generator&gt; </t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>personsList</t>
+  </si>
+  <si>
+    <t>print on webpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:bean name="com.mywebsite.NameComparator" var=“nameComparator" /&gt;  </t>
+  </si>
+  <si>
+    <t>personsList is list which has person object with firstname in it. Comparator will be sort all first name and display</t>
+  </si>
+  <si>
+    <t>firstName=john lastName=doe</t>
+  </si>
+  <si>
+    <t>&lt;s:sort comparator="#nameComparator" source="personsList"&gt;</t>
+  </si>
+  <si>
+    <t>firstName=jane lastName=doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;s:iterator&gt; &lt;s:property value="firstName" /&gt;&lt;/s:iterator&gt;  &lt;/s:sort&gt;  </t>
+  </si>
+  <si>
+    <t>firstName=mike lastName=doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:subset source="namesList" start="1" count="3"&gt; </t>
+  </si>
+  <si>
+    <t>namesList is an arraylist of name in action java program. You can read item using iterator from index 1 to3 counts and print on webpage</t>
+  </si>
+  <si>
+    <t>namesList</t>
+  </si>
+  <si>
+    <t>&lt;s:iterator&gt; &lt;li&gt;&lt;s:property /&gt;&lt;/li&gt; &lt;/s:iterator&gt; &lt;/s:subset&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:bean name="com.Person" var="personBean"&gt; </t>
+  </si>
+  <si>
+    <t>public class Person</t>
+  </si>
+  <si>
+    <t>Person personBean=new Person();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:param name="nickName" value=“jee"&gt;&lt;/s:param&gt; </t>
+  </si>
+  <si>
+    <t>personBean.nickName="jee";</t>
+  </si>
+  <si>
+    <t>&lt;s:param name=“lastName" &gt;java&lt;/s:param&gt;</t>
+  </si>
+  <si>
+    <t>String nickName;</t>
+  </si>
+  <si>
+    <t>personBean.lastName="java";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;/s:bean&gt;</t>
+  </si>
+  <si>
+    <t>String lastName;</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
+  </si>
+  <si>
+    <t>LoginAction.java</t>
+  </si>
+  <si>
+    <t>loginAction</t>
+  </si>
+  <si>
+    <t>============================================&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome </t>
+  </si>
+  <si>
+    <t>String fName</t>
+  </si>
+  <si>
+    <t>====================================================&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s:property value = "fName" /&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>String lName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;s:property value = "lName" /&gt; </t>
+  </si>
+  <si>
+    <t>ArrayList myList1</t>
+  </si>
+  <si>
+    <t>strut tag library</t>
+  </si>
+  <si>
+    <t>public String auth()</t>
+  </si>
+  <si>
+    <t>{ if(userid==john &amp; pwd=john1!)</t>
+  </si>
+  <si>
+    <t>fName=johnathan</t>
+  </si>
+  <si>
+    <t>lName=doe</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>return good &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>method=auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;s:property /&gt;   </t>
+  </si>
+  <si>
+    <t>&lt;s:iterator value="%{#appendIterator}"&gt;    </t>
+  </si>
+  <si>
+    <t>   &lt;/s:iterator&gt;</t>
+  </si>
+  <si>
+    <t>mergeIteraor</t>
+  </si>
+  <si>
+    <t>fname=johnathan</t>
+  </si>
+  <si>
+    <t>lname=doe</t>
+  </si>
+  <si>
+    <t>pwd=john1!</t>
   </si>
 </sst>
 </file>
@@ -6555,7 +6771,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="553">
+  <cellXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -7323,6 +7539,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7343,21 +7571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7389,6 +7602,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7398,59 +7614,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7509,6 +7674,60 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7530,17 +7749,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7584,51 +7836,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18646,7 +18867,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="458" t="s">
+      <c r="E6" s="451" t="s">
         <v>404</v>
       </c>
       <c r="F6" s="398"/>
@@ -18670,7 +18891,7 @@
       <c r="A7" s="15" t="s">
         <v>1671</v>
       </c>
-      <c r="D7" s="455">
+      <c r="D7" s="459">
         <v>80</v>
       </c>
       <c r="E7" s="222"/>
@@ -18688,7 +18909,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="455"/>
+      <c r="D8" s="459"/>
       <c r="E8" s="47" t="s">
         <v>406</v>
       </c>
@@ -18723,7 +18944,7 @@
       <c r="B9" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="455"/>
+      <c r="D9" s="459"/>
       <c r="E9" s="224"/>
       <c r="F9" s="233"/>
       <c r="G9" s="136"/>
@@ -18747,7 +18968,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="D10" s="455"/>
+      <c r="D10" s="459"/>
       <c r="E10" s="222"/>
       <c r="F10" s="232"/>
       <c r="G10" s="379"/>
@@ -18771,7 +18992,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="455"/>
+      <c r="D11" s="459"/>
       <c r="E11" s="47" t="s">
         <v>410</v>
       </c>
@@ -18800,7 +19021,7 @@
       <c r="B12" s="206" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="455"/>
+      <c r="D12" s="459"/>
       <c r="E12" s="224"/>
       <c r="F12" s="233"/>
       <c r="G12" s="383"/>
@@ -18821,7 +19042,7 @@
       <c r="B13" t="s">
         <v>1672</v>
       </c>
-      <c r="D13" s="455"/>
+      <c r="D13" s="459"/>
       <c r="E13" s="222"/>
       <c r="F13" s="232"/>
       <c r="G13" s="385"/>
@@ -18837,7 +19058,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="D14" s="455"/>
+      <c r="D14" s="459"/>
       <c r="E14" s="47" t="s">
         <v>415</v>
       </c>
@@ -18864,7 +19085,7 @@
       <c r="B15" t="s">
         <v>1673</v>
       </c>
-      <c r="D15" s="455"/>
+      <c r="D15" s="459"/>
       <c r="E15" s="224"/>
       <c r="F15" s="233"/>
       <c r="G15" s="389"/>
@@ -18883,7 +19104,7 @@
       <c r="B16" t="s">
         <v>1391</v>
       </c>
-      <c r="D16" s="455"/>
+      <c r="D16" s="459"/>
       <c r="E16" s="222"/>
       <c r="F16" s="232"/>
       <c r="G16" s="391"/>
@@ -18903,7 +19124,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="455"/>
+      <c r="D17" s="459"/>
       <c r="E17" s="47" t="s">
         <v>419</v>
       </c>
@@ -18931,7 +19152,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="455"/>
+      <c r="D18" s="459"/>
       <c r="E18" s="224"/>
       <c r="F18" s="233"/>
       <c r="G18" s="394"/>
@@ -18950,20 +19171,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="459" t="s">
+      <c r="E19" s="452" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="460"/>
-      <c r="G19" s="459" t="s">
+      <c r="F19" s="453"/>
+      <c r="G19" s="452" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="460"/>
-      <c r="I19" s="459" t="s">
+      <c r="H19" s="453"/>
+      <c r="I19" s="452" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="461"/>
-      <c r="K19" s="461"/>
-      <c r="L19" s="460"/>
+      <c r="J19" s="454"/>
+      <c r="K19" s="454"/>
+      <c r="L19" s="453"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -19028,12 +19249,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="457"/>
-      <c r="H24" s="457"/>
-      <c r="I24" s="457"/>
-      <c r="J24" s="457"/>
-      <c r="K24" s="457"/>
-      <c r="L24" s="457"/>
+      <c r="G24" s="461"/>
+      <c r="H24" s="461"/>
+      <c r="I24" s="461"/>
+      <c r="J24" s="461"/>
+      <c r="K24" s="461"/>
+      <c r="L24" s="461"/>
       <c r="O24" s="39" t="s">
         <v>178</v>
       </c>
@@ -19452,7 +19673,7 @@
       <c r="H47" s="447" t="s">
         <v>1367</v>
       </c>
-      <c r="I47" s="456"/>
+      <c r="I47" s="460"/>
       <c r="J47" s="448"/>
     </row>
     <row r="48" spans="1:17">
@@ -20059,16 +20280,16 @@
         <v>1062</v>
       </c>
       <c r="F131" s="37"/>
-      <c r="G131" s="453" t="s">
+      <c r="G131" s="457" t="s">
         <v>1055</v>
       </c>
-      <c r="H131" s="453"/>
-      <c r="I131" s="453"/>
-      <c r="J131" s="453"/>
-      <c r="K131" s="453"/>
-      <c r="L131" s="453"/>
-      <c r="M131" s="453"/>
-      <c r="N131" s="453"/>
+      <c r="H131" s="457"/>
+      <c r="I131" s="457"/>
+      <c r="J131" s="457"/>
+      <c r="K131" s="457"/>
+      <c r="L131" s="457"/>
+      <c r="M131" s="457"/>
+      <c r="N131" s="457"/>
       <c r="O131" s="37"/>
     </row>
     <row r="132" spans="2:15">
@@ -20205,29 +20426,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="37"/>
-      <c r="G141" s="454"/>
-      <c r="H141" s="454"/>
-      <c r="I141" s="454"/>
-      <c r="J141" s="454"/>
-      <c r="K141" s="454"/>
-      <c r="L141" s="454"/>
-      <c r="M141" s="454"/>
-      <c r="N141" s="454"/>
-      <c r="O141" s="454"/>
+      <c r="G141" s="458"/>
+      <c r="H141" s="458"/>
+      <c r="I141" s="458"/>
+      <c r="J141" s="458"/>
+      <c r="K141" s="458"/>
+      <c r="L141" s="458"/>
+      <c r="M141" s="458"/>
+      <c r="N141" s="458"/>
+      <c r="O141" s="458"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="454"/>
-      <c r="H142" s="454"/>
-      <c r="I142" s="454"/>
-      <c r="J142" s="454"/>
-      <c r="K142" s="454"/>
-      <c r="L142" s="454"/>
-      <c r="M142" s="454"/>
-      <c r="N142" s="454"/>
-      <c r="O142" s="454"/>
+      <c r="G142" s="458"/>
+      <c r="H142" s="458"/>
+      <c r="I142" s="458"/>
+      <c r="J142" s="458"/>
+      <c r="K142" s="458"/>
+      <c r="L142" s="458"/>
+      <c r="M142" s="458"/>
+      <c r="N142" s="458"/>
+      <c r="O142" s="458"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -20271,7 +20492,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="451" t="s">
+      <c r="D158" s="455" t="s">
         <v>1333</v>
       </c>
       <c r="E158" s="65"/>
@@ -20284,7 +20505,7 @@
       <c r="L158" s="234"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="452"/>
+      <c r="D159" s="456"/>
       <c r="E159" s="309" t="s">
         <v>1331</v>
       </c>
@@ -20306,7 +20527,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="452"/>
+      <c r="D160" s="456"/>
       <c r="E160" s="229"/>
       <c r="F160" s="235"/>
       <c r="G160" s="229"/>
@@ -20317,7 +20538,7 @@
       <c r="L160" s="235"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="452"/>
+      <c r="D161" s="456"/>
       <c r="E161" s="311"/>
       <c r="F161" s="312"/>
       <c r="G161" s="311"/>
@@ -20328,7 +20549,7 @@
       <c r="L161" s="312"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="452"/>
+      <c r="D162" s="456"/>
       <c r="E162" s="313"/>
       <c r="F162" s="314"/>
       <c r="G162" s="313"/>
@@ -20342,7 +20563,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="452"/>
+      <c r="D163" s="456"/>
       <c r="E163" s="315"/>
       <c r="F163" s="316"/>
       <c r="G163" s="315"/>
@@ -20353,7 +20574,7 @@
       <c r="L163" s="316"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="452"/>
+      <c r="D164" s="456"/>
       <c r="E164" s="65"/>
       <c r="F164" s="234"/>
       <c r="G164" s="65"/>
@@ -20364,7 +20585,7 @@
       <c r="L164" s="234"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="452"/>
+      <c r="D165" s="456"/>
       <c r="E165" s="57"/>
       <c r="F165" s="308"/>
       <c r="G165" s="57"/>
@@ -20378,7 +20599,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="452"/>
+      <c r="D166" s="456"/>
       <c r="E166" s="229"/>
       <c r="F166" s="235"/>
       <c r="G166" s="229"/>
@@ -20389,7 +20610,7 @@
       <c r="L166" s="235"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="452"/>
+      <c r="D167" s="456"/>
       <c r="E167" s="65"/>
       <c r="F167" s="234"/>
       <c r="G167" s="58"/>
@@ -20400,7 +20621,7 @@
       <c r="L167" s="308"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="452"/>
+      <c r="D168" s="456"/>
       <c r="E168" s="57"/>
       <c r="F168" s="308"/>
       <c r="G168" s="58"/>
@@ -20414,7 +20635,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="452"/>
+      <c r="D169" s="456"/>
       <c r="E169" s="229"/>
       <c r="F169" s="235"/>
       <c r="G169" s="317"/>
@@ -20809,17 +21030,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -21082,7 +21303,7 @@
       <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="462">
+      <c r="C21" s="472">
         <v>43909</v>
       </c>
       <c r="D21" s="426"/>
@@ -21102,7 +21323,7 @@
       <c r="N21" s="426"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="462"/>
+      <c r="C22" s="472"/>
       <c r="D22" s="426"/>
       <c r="E22" s="426"/>
       <c r="F22" s="426"/>
@@ -21120,7 +21341,7 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="462"/>
+      <c r="C23" s="472"/>
       <c r="D23" s="426"/>
       <c r="E23" s="426"/>
       <c r="F23" s="426"/>
@@ -21136,7 +21357,7 @@
       <c r="N23" s="426"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="462"/>
+      <c r="C24" s="472"/>
       <c r="D24" s="426"/>
       <c r="E24" s="426"/>
       <c r="F24" s="426"/>
@@ -21175,16 +21396,16 @@
       <c r="C26" s="113">
         <v>43911</v>
       </c>
-      <c r="D26" s="463"/>
-      <c r="E26" s="464"/>
-      <c r="F26" s="464"/>
-      <c r="G26" s="464"/>
-      <c r="H26" s="465"/>
-      <c r="I26" s="470" t="s">
+      <c r="D26" s="462"/>
+      <c r="E26" s="463"/>
+      <c r="F26" s="463"/>
+      <c r="G26" s="463"/>
+      <c r="H26" s="464"/>
+      <c r="I26" s="469" t="s">
         <v>458</v>
       </c>
-      <c r="J26" s="463"/>
-      <c r="K26" s="465"/>
+      <c r="J26" s="462"/>
+      <c r="K26" s="464"/>
       <c r="L26" s="114" t="s">
         <v>459</v>
       </c>
@@ -21193,14 +21414,14 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="37"/>
-      <c r="D27" s="466"/>
-      <c r="E27" s="457"/>
-      <c r="F27" s="457"/>
-      <c r="G27" s="457"/>
-      <c r="H27" s="467"/>
-      <c r="I27" s="471"/>
-      <c r="J27" s="466"/>
-      <c r="K27" s="467"/>
+      <c r="D27" s="465"/>
+      <c r="E27" s="461"/>
+      <c r="F27" s="461"/>
+      <c r="G27" s="461"/>
+      <c r="H27" s="466"/>
+      <c r="I27" s="470"/>
+      <c r="J27" s="465"/>
+      <c r="K27" s="466"/>
       <c r="L27" s="426" t="s">
         <v>463</v>
       </c>
@@ -21209,14 +21430,14 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="37"/>
-      <c r="D28" s="466"/>
-      <c r="E28" s="457"/>
-      <c r="F28" s="457"/>
-      <c r="G28" s="457"/>
-      <c r="H28" s="467"/>
-      <c r="I28" s="471"/>
-      <c r="J28" s="466"/>
-      <c r="K28" s="467"/>
+      <c r="D28" s="465"/>
+      <c r="E28" s="461"/>
+      <c r="F28" s="461"/>
+      <c r="G28" s="461"/>
+      <c r="H28" s="466"/>
+      <c r="I28" s="470"/>
+      <c r="J28" s="465"/>
+      <c r="K28" s="466"/>
       <c r="L28" s="115" t="s">
         <v>458</v>
       </c>
@@ -21225,14 +21446,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="37"/>
-      <c r="D29" s="468"/>
+      <c r="D29" s="467"/>
       <c r="E29" s="449"/>
       <c r="F29" s="449"/>
       <c r="G29" s="449"/>
-      <c r="H29" s="469"/>
-      <c r="I29" s="472"/>
-      <c r="J29" s="468"/>
-      <c r="K29" s="469"/>
+      <c r="H29" s="468"/>
+      <c r="I29" s="471"/>
+      <c r="J29" s="467"/>
+      <c r="K29" s="468"/>
       <c r="L29" s="116" t="s">
         <v>464</v>
       </c>
@@ -21297,7 +21518,7 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="462">
+      <c r="C34" s="472">
         <v>43909</v>
       </c>
       <c r="D34" s="426"/>
@@ -21315,7 +21536,7 @@
       <c r="N34" s="426"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="462"/>
+      <c r="C35" s="472"/>
       <c r="D35" s="426"/>
       <c r="E35" s="426"/>
       <c r="F35" s="426"/>
@@ -21331,7 +21552,7 @@
       <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="462"/>
+      <c r="C36" s="472"/>
       <c r="D36" s="426"/>
       <c r="E36" s="426"/>
       <c r="F36" s="426"/>
@@ -21347,7 +21568,7 @@
       <c r="N36" s="426"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="462"/>
+      <c r="C37" s="472"/>
       <c r="D37" s="426"/>
       <c r="E37" s="426"/>
       <c r="F37" s="426"/>
@@ -21386,14 +21607,14 @@
       <c r="C39" s="113">
         <v>43911</v>
       </c>
-      <c r="D39" s="463"/>
-      <c r="E39" s="464"/>
-      <c r="F39" s="464"/>
-      <c r="G39" s="464"/>
-      <c r="H39" s="465"/>
-      <c r="I39" s="470"/>
-      <c r="J39" s="463"/>
-      <c r="K39" s="465"/>
+      <c r="D39" s="462"/>
+      <c r="E39" s="463"/>
+      <c r="F39" s="463"/>
+      <c r="G39" s="463"/>
+      <c r="H39" s="464"/>
+      <c r="I39" s="469"/>
+      <c r="J39" s="462"/>
+      <c r="K39" s="464"/>
       <c r="L39" s="114" t="s">
         <v>459</v>
       </c>
@@ -21402,14 +21623,14 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="37"/>
-      <c r="D40" s="466"/>
-      <c r="E40" s="457"/>
-      <c r="F40" s="457"/>
-      <c r="G40" s="457"/>
-      <c r="H40" s="467"/>
-      <c r="I40" s="471"/>
-      <c r="J40" s="466"/>
-      <c r="K40" s="467"/>
+      <c r="D40" s="465"/>
+      <c r="E40" s="461"/>
+      <c r="F40" s="461"/>
+      <c r="G40" s="461"/>
+      <c r="H40" s="466"/>
+      <c r="I40" s="470"/>
+      <c r="J40" s="465"/>
+      <c r="K40" s="466"/>
       <c r="L40" s="426" t="s">
         <v>463</v>
       </c>
@@ -21418,14 +21639,14 @@
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="37"/>
-      <c r="D41" s="466"/>
-      <c r="E41" s="457"/>
-      <c r="F41" s="457"/>
-      <c r="G41" s="457"/>
-      <c r="H41" s="467"/>
-      <c r="I41" s="472"/>
-      <c r="J41" s="466"/>
-      <c r="K41" s="467"/>
+      <c r="D41" s="465"/>
+      <c r="E41" s="461"/>
+      <c r="F41" s="461"/>
+      <c r="G41" s="461"/>
+      <c r="H41" s="466"/>
+      <c r="I41" s="471"/>
+      <c r="J41" s="465"/>
+      <c r="K41" s="466"/>
       <c r="L41" s="115" t="s">
         <v>465</v>
       </c>
@@ -21434,16 +21655,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="37"/>
-      <c r="D42" s="468"/>
+      <c r="D42" s="467"/>
       <c r="E42" s="449"/>
       <c r="F42" s="449"/>
       <c r="G42" s="449"/>
-      <c r="H42" s="469"/>
+      <c r="H42" s="468"/>
       <c r="I42" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J42" s="468"/>
-      <c r="K42" s="469"/>
+      <c r="J42" s="467"/>
+      <c r="K42" s="468"/>
       <c r="L42" s="116" t="s">
         <v>464</v>
       </c>
@@ -21755,17 +21976,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -21773,12 +21989,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21788,8 +22009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:X155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:M42"/>
+    <sheetView tabSelected="1" topLeftCell="B87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21800,29 +22021,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="486" t="s">
+      <c r="B2" s="496" t="s">
         <v>1090</v>
       </c>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
-      <c r="K2" s="486"/>
-      <c r="L2" s="486"/>
-      <c r="M2" s="486"/>
-      <c r="N2" s="486"/>
-      <c r="O2" s="486"/>
-      <c r="P2" s="486"/>
-      <c r="Q2" s="486"/>
-      <c r="R2" s="486"/>
-      <c r="S2" s="486"/>
-      <c r="T2" s="486"/>
-      <c r="U2" s="486"/>
-      <c r="V2" s="486"/>
+      <c r="C2" s="496"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="496"/>
+      <c r="F2" s="496"/>
+      <c r="G2" s="496"/>
+      <c r="H2" s="496"/>
+      <c r="I2" s="496"/>
+      <c r="J2" s="496"/>
+      <c r="K2" s="496"/>
+      <c r="L2" s="496"/>
+      <c r="M2" s="496"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="496"/>
+      <c r="P2" s="496"/>
+      <c r="Q2" s="496"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="496"/>
+      <c r="T2" s="496"/>
+      <c r="U2" s="496"/>
+      <c r="V2" s="496"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -21855,22 +22076,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="489" t="s">
+      <c r="G5" s="476" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="489"/>
-      <c r="I5" s="489" t="s">
+      <c r="H5" s="476"/>
+      <c r="I5" s="476" t="s">
         <v>517</v>
       </c>
-      <c r="J5" s="489"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="489"/>
-      <c r="M5" s="489"/>
-      <c r="N5" s="489"/>
-      <c r="O5" s="489" t="s">
+      <c r="J5" s="476"/>
+      <c r="K5" s="476"/>
+      <c r="L5" s="476"/>
+      <c r="M5" s="476"/>
+      <c r="N5" s="476"/>
+      <c r="O5" s="476" t="s">
         <v>518</v>
       </c>
-      <c r="P5" s="489"/>
+      <c r="P5" s="476"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -21882,7 +22103,7 @@
       <c r="D6" s="132"/>
       <c r="E6" s="133"/>
       <c r="F6" s="135"/>
-      <c r="G6" s="494" t="s">
+      <c r="G6" s="477" t="s">
         <v>519</v>
       </c>
       <c r="H6" s="108"/>
@@ -21911,26 +22132,26 @@
       </c>
       <c r="E7" s="135"/>
       <c r="F7" s="135"/>
-      <c r="G7" s="495"/>
-      <c r="H7" s="497" t="s">
+      <c r="G7" s="478"/>
+      <c r="H7" s="480" t="s">
         <v>521</v>
       </c>
       <c r="I7" s="425" t="s">
         <v>522</v>
       </c>
-      <c r="J7" s="500"/>
-      <c r="K7" s="501" t="s">
+      <c r="J7" s="483"/>
+      <c r="K7" s="484" t="s">
         <v>523</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="425" t="s">
         <v>524</v>
       </c>
-      <c r="N7" s="500"/>
-      <c r="O7" s="507" t="s">
+      <c r="N7" s="483"/>
+      <c r="O7" s="490" t="s">
         <v>525</v>
       </c>
-      <c r="P7" s="508"/>
+      <c r="P7" s="491"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -21942,16 +22163,16 @@
       <c r="D8" s="136"/>
       <c r="E8" s="137"/>
       <c r="F8" s="135"/>
-      <c r="G8" s="495"/>
-      <c r="H8" s="498"/>
+      <c r="G8" s="478"/>
+      <c r="H8" s="481"/>
       <c r="I8" s="403"/>
       <c r="J8" s="405"/>
-      <c r="K8" s="503"/>
-      <c r="L8" s="504"/>
+      <c r="K8" s="486"/>
+      <c r="L8" s="487"/>
       <c r="M8" s="403"/>
       <c r="N8" s="405"/>
-      <c r="O8" s="509"/>
-      <c r="P8" s="510"/>
+      <c r="O8" s="492"/>
+      <c r="P8" s="493"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="37" t="s">
         <v>181</v>
@@ -21969,16 +22190,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="495"/>
-      <c r="H9" s="498"/>
+      <c r="G9" s="478"/>
+      <c r="H9" s="481"/>
       <c r="I9" s="403"/>
       <c r="J9" s="405"/>
-      <c r="K9" s="503"/>
-      <c r="L9" s="504"/>
+      <c r="K9" s="486"/>
+      <c r="L9" s="487"/>
       <c r="M9" s="403"/>
       <c r="N9" s="405"/>
-      <c r="O9" s="509"/>
-      <c r="P9" s="510"/>
+      <c r="O9" s="492"/>
+      <c r="P9" s="493"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -21998,16 +22219,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="495"/>
-      <c r="H10" s="498"/>
+      <c r="G10" s="478"/>
+      <c r="H10" s="481"/>
       <c r="I10" s="403"/>
       <c r="J10" s="405"/>
-      <c r="K10" s="503"/>
-      <c r="L10" s="504"/>
+      <c r="K10" s="486"/>
+      <c r="L10" s="487"/>
       <c r="M10" s="403"/>
       <c r="N10" s="405"/>
-      <c r="O10" s="509"/>
-      <c r="P10" s="510"/>
+      <c r="O10" s="492"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -22023,16 +22244,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="495"/>
-      <c r="H11" s="498"/>
+      <c r="G11" s="478"/>
+      <c r="H11" s="481"/>
       <c r="I11" s="403"/>
       <c r="J11" s="405"/>
-      <c r="K11" s="503"/>
-      <c r="L11" s="504"/>
+      <c r="K11" s="486"/>
+      <c r="L11" s="487"/>
       <c r="M11" s="403"/>
       <c r="N11" s="405"/>
-      <c r="O11" s="509"/>
-      <c r="P11" s="510"/>
+      <c r="O11" s="492"/>
+      <c r="P11" s="493"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -22050,16 +22271,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="495"/>
-      <c r="H12" s="498"/>
+      <c r="G12" s="478"/>
+      <c r="H12" s="481"/>
       <c r="I12" s="403"/>
       <c r="J12" s="405"/>
-      <c r="K12" s="503"/>
-      <c r="L12" s="504"/>
+      <c r="K12" s="486"/>
+      <c r="L12" s="487"/>
       <c r="M12" s="403"/>
       <c r="N12" s="405"/>
-      <c r="O12" s="509"/>
-      <c r="P12" s="510"/>
+      <c r="O12" s="492"/>
+      <c r="P12" s="493"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -22073,16 +22294,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="495"/>
-      <c r="H13" s="498"/>
+      <c r="G13" s="478"/>
+      <c r="H13" s="481"/>
       <c r="I13" s="403"/>
       <c r="J13" s="405"/>
-      <c r="K13" s="503"/>
-      <c r="L13" s="504"/>
+      <c r="K13" s="486"/>
+      <c r="L13" s="487"/>
       <c r="M13" s="403"/>
       <c r="N13" s="405"/>
-      <c r="O13" s="509"/>
-      <c r="P13" s="510"/>
+      <c r="O13" s="492"/>
+      <c r="P13" s="493"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -22094,16 +22315,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="495"/>
-      <c r="H14" s="498"/>
+      <c r="G14" s="478"/>
+      <c r="H14" s="481"/>
       <c r="I14" s="403"/>
       <c r="J14" s="405"/>
-      <c r="K14" s="503"/>
-      <c r="L14" s="504"/>
+      <c r="K14" s="486"/>
+      <c r="L14" s="487"/>
       <c r="M14" s="403"/>
       <c r="N14" s="405"/>
-      <c r="O14" s="509"/>
-      <c r="P14" s="510"/>
+      <c r="O14" s="492"/>
+      <c r="P14" s="493"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -22117,16 +22338,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="495"/>
-      <c r="H15" s="498"/>
+      <c r="G15" s="478"/>
+      <c r="H15" s="481"/>
       <c r="I15" s="403"/>
       <c r="J15" s="405"/>
-      <c r="K15" s="503"/>
-      <c r="L15" s="504"/>
+      <c r="K15" s="486"/>
+      <c r="L15" s="487"/>
       <c r="M15" s="403"/>
       <c r="N15" s="405"/>
-      <c r="O15" s="509"/>
-      <c r="P15" s="510"/>
+      <c r="O15" s="492"/>
+      <c r="P15" s="493"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -22138,16 +22359,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="495"/>
-      <c r="H16" s="498"/>
+      <c r="G16" s="478"/>
+      <c r="H16" s="481"/>
       <c r="I16" s="403"/>
       <c r="J16" s="405"/>
-      <c r="K16" s="503"/>
-      <c r="L16" s="504"/>
+      <c r="K16" s="486"/>
+      <c r="L16" s="487"/>
       <c r="M16" s="403"/>
       <c r="N16" s="405"/>
-      <c r="O16" s="509"/>
-      <c r="P16" s="510"/>
+      <c r="O16" s="492"/>
+      <c r="P16" s="493"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -22159,16 +22380,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="495"/>
-      <c r="H17" s="498"/>
+      <c r="G17" s="478"/>
+      <c r="H17" s="481"/>
       <c r="I17" s="403"/>
       <c r="J17" s="405"/>
-      <c r="K17" s="503"/>
-      <c r="L17" s="504"/>
+      <c r="K17" s="486"/>
+      <c r="L17" s="487"/>
       <c r="M17" s="403"/>
       <c r="N17" s="405"/>
-      <c r="O17" s="509"/>
-      <c r="P17" s="510"/>
+      <c r="O17" s="492"/>
+      <c r="P17" s="493"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -22180,16 +22401,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="495"/>
-      <c r="H18" s="498"/>
+      <c r="G18" s="478"/>
+      <c r="H18" s="481"/>
       <c r="I18" s="403"/>
       <c r="J18" s="405"/>
-      <c r="K18" s="503"/>
-      <c r="L18" s="504"/>
+      <c r="K18" s="486"/>
+      <c r="L18" s="487"/>
       <c r="M18" s="403"/>
       <c r="N18" s="405"/>
-      <c r="O18" s="509"/>
-      <c r="P18" s="510"/>
+      <c r="O18" s="492"/>
+      <c r="P18" s="493"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -22203,16 +22424,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="495"/>
-      <c r="H19" s="498"/>
+      <c r="G19" s="478"/>
+      <c r="H19" s="481"/>
       <c r="I19" s="403"/>
       <c r="J19" s="405"/>
-      <c r="K19" s="503"/>
-      <c r="L19" s="504"/>
+      <c r="K19" s="486"/>
+      <c r="L19" s="487"/>
       <c r="M19" s="403"/>
       <c r="N19" s="405"/>
-      <c r="O19" s="509"/>
-      <c r="P19" s="510"/>
+      <c r="O19" s="492"/>
+      <c r="P19" s="493"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -22224,16 +22445,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="496"/>
-      <c r="H20" s="499"/>
+      <c r="G20" s="479"/>
+      <c r="H20" s="482"/>
       <c r="I20" s="417"/>
       <c r="J20" s="419"/>
-      <c r="K20" s="505"/>
-      <c r="L20" s="506"/>
+      <c r="K20" s="488"/>
+      <c r="L20" s="489"/>
       <c r="M20" s="417"/>
       <c r="N20" s="419"/>
-      <c r="O20" s="511"/>
-      <c r="P20" s="512"/>
+      <c r="O20" s="494"/>
+      <c r="P20" s="495"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -22314,49 +22535,49 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="486" t="s">
+      <c r="B25" s="496" t="s">
         <v>1089</v>
       </c>
-      <c r="C25" s="486"/>
-      <c r="D25" s="486"/>
-      <c r="E25" s="486"/>
-      <c r="F25" s="486"/>
-      <c r="G25" s="486"/>
-      <c r="H25" s="486"/>
-      <c r="I25" s="486"/>
-      <c r="J25" s="486"/>
-      <c r="K25" s="486"/>
-      <c r="L25" s="486"/>
-      <c r="M25" s="486"/>
-      <c r="N25" s="486"/>
-      <c r="O25" s="486"/>
-      <c r="P25" s="486"/>
-      <c r="Q25" s="486"/>
-      <c r="R25" s="486"/>
-      <c r="S25" s="486"/>
-      <c r="T25" s="486"/>
-      <c r="U25" s="486"/>
-      <c r="V25" s="486"/>
+      <c r="C25" s="496"/>
+      <c r="D25" s="496"/>
+      <c r="E25" s="496"/>
+      <c r="F25" s="496"/>
+      <c r="G25" s="496"/>
+      <c r="H25" s="496"/>
+      <c r="I25" s="496"/>
+      <c r="J25" s="496"/>
+      <c r="K25" s="496"/>
+      <c r="L25" s="496"/>
+      <c r="M25" s="496"/>
+      <c r="N25" s="496"/>
+      <c r="O25" s="496"/>
+      <c r="P25" s="496"/>
+      <c r="Q25" s="496"/>
+      <c r="R25" s="496"/>
+      <c r="S25" s="496"/>
+      <c r="T25" s="496"/>
+      <c r="U25" s="496"/>
+      <c r="V25" s="496"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="487" t="s">
+      <c r="C26" s="497" t="s">
         <v>568</v>
       </c>
-      <c r="D26" s="487"/>
-      <c r="E26" s="487"/>
-      <c r="F26" s="487"/>
-      <c r="G26" s="487"/>
-      <c r="H26" s="487"/>
-      <c r="I26" s="487"/>
-      <c r="J26" s="487"/>
-      <c r="K26" s="487"/>
-      <c r="L26" s="487"/>
-      <c r="M26" s="487"/>
+      <c r="D26" s="497"/>
+      <c r="E26" s="497"/>
+      <c r="F26" s="497"/>
+      <c r="G26" s="497"/>
+      <c r="H26" s="497"/>
+      <c r="I26" s="497"/>
+      <c r="J26" s="497"/>
+      <c r="K26" s="497"/>
+      <c r="L26" s="497"/>
+      <c r="M26" s="497"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="458" t="s">
+      <c r="E27" s="451" t="s">
         <v>177</v>
       </c>
       <c r="F27" s="397"/>
@@ -22399,11 +22620,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="488" t="s">
+      <c r="O29" s="498" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="488"/>
-      <c r="Q29" s="488"/>
+      <c r="P29" s="498"/>
+      <c r="Q29" s="498"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -22448,21 +22669,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="483" t="s">
+      <c r="E32" s="502" t="s">
         <v>1093</v>
       </c>
-      <c r="F32" s="484"/>
-      <c r="G32" s="485"/>
-      <c r="H32" s="483" t="s">
+      <c r="F32" s="503"/>
+      <c r="G32" s="504"/>
+      <c r="H32" s="502" t="s">
         <v>1094</v>
       </c>
-      <c r="I32" s="484"/>
-      <c r="J32" s="485"/>
-      <c r="K32" s="483" t="s">
+      <c r="I32" s="503"/>
+      <c r="J32" s="504"/>
+      <c r="K32" s="502" t="s">
         <v>1095</v>
       </c>
-      <c r="L32" s="484"/>
-      <c r="M32" s="485"/>
+      <c r="L32" s="503"/>
+      <c r="M32" s="504"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -22479,15 +22700,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="483"/>
-      <c r="F33" s="484"/>
-      <c r="G33" s="485"/>
-      <c r="H33" s="483"/>
-      <c r="I33" s="484"/>
-      <c r="J33" s="485"/>
-      <c r="K33" s="483"/>
-      <c r="L33" s="484"/>
-      <c r="M33" s="485"/>
+      <c r="E33" s="502"/>
+      <c r="F33" s="503"/>
+      <c r="G33" s="504"/>
+      <c r="H33" s="502"/>
+      <c r="I33" s="503"/>
+      <c r="J33" s="504"/>
+      <c r="K33" s="502"/>
+      <c r="L33" s="503"/>
+      <c r="M33" s="504"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -22504,15 +22725,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="483"/>
-      <c r="F34" s="484"/>
-      <c r="G34" s="485"/>
-      <c r="H34" s="483"/>
-      <c r="I34" s="484"/>
-      <c r="J34" s="485"/>
-      <c r="K34" s="483"/>
-      <c r="L34" s="484"/>
-      <c r="M34" s="485"/>
+      <c r="E34" s="502"/>
+      <c r="F34" s="503"/>
+      <c r="G34" s="504"/>
+      <c r="H34" s="502"/>
+      <c r="I34" s="503"/>
+      <c r="J34" s="504"/>
+      <c r="K34" s="502"/>
+      <c r="L34" s="503"/>
+      <c r="M34" s="504"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -22523,15 +22744,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="483"/>
-      <c r="F35" s="484"/>
-      <c r="G35" s="485"/>
-      <c r="H35" s="483"/>
-      <c r="I35" s="484"/>
-      <c r="J35" s="485"/>
-      <c r="K35" s="483"/>
-      <c r="L35" s="484"/>
-      <c r="M35" s="485"/>
+      <c r="E35" s="502"/>
+      <c r="F35" s="503"/>
+      <c r="G35" s="504"/>
+      <c r="H35" s="502"/>
+      <c r="I35" s="503"/>
+      <c r="J35" s="504"/>
+      <c r="K35" s="502"/>
+      <c r="L35" s="503"/>
+      <c r="M35" s="504"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -22662,15 +22883,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="476"/>
-      <c r="F42" s="477"/>
-      <c r="G42" s="477"/>
-      <c r="H42" s="477"/>
-      <c r="I42" s="477"/>
-      <c r="J42" s="477"/>
-      <c r="K42" s="477"/>
-      <c r="L42" s="477"/>
-      <c r="M42" s="478"/>
+      <c r="E42" s="506"/>
+      <c r="F42" s="507"/>
+      <c r="G42" s="507"/>
+      <c r="H42" s="507"/>
+      <c r="I42" s="507"/>
+      <c r="J42" s="507"/>
+      <c r="K42" s="507"/>
+      <c r="L42" s="507"/>
+      <c r="M42" s="508"/>
       <c r="N42" s="39" t="s">
         <v>573</v>
       </c>
@@ -22711,51 +22932,51 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="486" t="s">
+      <c r="B47" s="496" t="s">
         <v>1091</v>
       </c>
-      <c r="C47" s="486"/>
-      <c r="D47" s="486"/>
-      <c r="E47" s="486"/>
-      <c r="F47" s="486"/>
-      <c r="G47" s="486"/>
-      <c r="H47" s="486"/>
-      <c r="I47" s="486"/>
-      <c r="J47" s="486"/>
-      <c r="K47" s="486"/>
-      <c r="L47" s="486"/>
-      <c r="M47" s="486"/>
-      <c r="N47" s="486"/>
-      <c r="O47" s="486"/>
-      <c r="P47" s="486"/>
-      <c r="Q47" s="486"/>
-      <c r="R47" s="486"/>
-      <c r="S47" s="486"/>
-      <c r="T47" s="486"/>
-      <c r="U47" s="486"/>
-      <c r="V47" s="486"/>
+      <c r="C47" s="496"/>
+      <c r="D47" s="496"/>
+      <c r="E47" s="496"/>
+      <c r="F47" s="496"/>
+      <c r="G47" s="496"/>
+      <c r="H47" s="496"/>
+      <c r="I47" s="496"/>
+      <c r="J47" s="496"/>
+      <c r="K47" s="496"/>
+      <c r="L47" s="496"/>
+      <c r="M47" s="496"/>
+      <c r="N47" s="496"/>
+      <c r="O47" s="496"/>
+      <c r="P47" s="496"/>
+      <c r="Q47" s="496"/>
+      <c r="R47" s="496"/>
+      <c r="S47" s="496"/>
+      <c r="T47" s="496"/>
+      <c r="U47" s="496"/>
+      <c r="V47" s="496"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="487" t="s">
+      <c r="C48" s="497" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="487"/>
-      <c r="E48" s="487"/>
-      <c r="F48" s="487"/>
-      <c r="G48" s="487"/>
-      <c r="H48" s="487"/>
-      <c r="I48" s="487"/>
-      <c r="J48" s="487"/>
-      <c r="K48" s="487"/>
-      <c r="L48" s="487"/>
-      <c r="M48" s="487"/>
+      <c r="D48" s="497"/>
+      <c r="E48" s="497"/>
+      <c r="F48" s="497"/>
+      <c r="G48" s="497"/>
+      <c r="H48" s="497"/>
+      <c r="I48" s="497"/>
+      <c r="J48" s="497"/>
+      <c r="K48" s="497"/>
+      <c r="L48" s="497"/>
+      <c r="M48" s="497"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="458" t="s">
+      <c r="E49" s="451" t="s">
         <v>177</v>
       </c>
       <c r="F49" s="397"/>
@@ -22783,16 +23004,16 @@
       </c>
       <c r="F50" s="119"/>
       <c r="G50" s="241"/>
-      <c r="H50" s="490" t="s">
+      <c r="H50" s="499" t="s">
         <v>1094</v>
       </c>
-      <c r="I50" s="491"/>
-      <c r="J50" s="492"/>
-      <c r="K50" s="490" t="s">
+      <c r="I50" s="500"/>
+      <c r="J50" s="501"/>
+      <c r="K50" s="499" t="s">
         <v>1095</v>
       </c>
-      <c r="L50" s="491"/>
-      <c r="M50" s="492"/>
+      <c r="L50" s="500"/>
+      <c r="M50" s="501"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="W50" t="s">
@@ -22806,20 +23027,20 @@
         <v>1109</v>
       </c>
       <c r="F51" s="282"/>
-      <c r="G51" s="493" t="s">
+      <c r="G51" s="505" t="s">
         <v>1117</v>
       </c>
-      <c r="H51" s="483"/>
-      <c r="I51" s="484"/>
-      <c r="J51" s="485"/>
-      <c r="K51" s="483"/>
-      <c r="L51" s="484"/>
-      <c r="M51" s="485"/>
-      <c r="O51" s="488" t="s">
+      <c r="H51" s="502"/>
+      <c r="I51" s="503"/>
+      <c r="J51" s="504"/>
+      <c r="K51" s="502"/>
+      <c r="L51" s="503"/>
+      <c r="M51" s="504"/>
+      <c r="O51" s="498" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="488"/>
-      <c r="Q51" s="488"/>
+      <c r="P51" s="498"/>
+      <c r="Q51" s="498"/>
       <c r="S51" s="269"/>
       <c r="T51" s="269"/>
       <c r="W51" s="39" t="s">
@@ -22833,13 +23054,13 @@
         <v>1110</v>
       </c>
       <c r="F52" s="283"/>
-      <c r="G52" s="493"/>
-      <c r="H52" s="483"/>
-      <c r="I52" s="484"/>
-      <c r="J52" s="485"/>
-      <c r="K52" s="483"/>
-      <c r="L52" s="484"/>
-      <c r="M52" s="485"/>
+      <c r="G52" s="505"/>
+      <c r="H52" s="502"/>
+      <c r="I52" s="503"/>
+      <c r="J52" s="504"/>
+      <c r="K52" s="502"/>
+      <c r="L52" s="503"/>
+      <c r="M52" s="504"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
     </row>
@@ -22850,13 +23071,13 @@
         <v>1111</v>
       </c>
       <c r="F53" s="284"/>
-      <c r="G53" s="493"/>
-      <c r="H53" s="483"/>
-      <c r="I53" s="484"/>
-      <c r="J53" s="485"/>
-      <c r="K53" s="483"/>
-      <c r="L53" s="484"/>
-      <c r="M53" s="485"/>
+      <c r="G53" s="505"/>
+      <c r="H53" s="502"/>
+      <c r="I53" s="503"/>
+      <c r="J53" s="504"/>
+      <c r="K53" s="502"/>
+      <c r="L53" s="503"/>
+      <c r="M53" s="504"/>
       <c r="N53" s="5"/>
       <c r="O53" s="37" t="s">
         <v>181</v>
@@ -22895,7 +23116,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="270"/>
       <c r="F54" s="285"/>
-      <c r="G54" s="481" t="s">
+      <c r="G54" s="511" t="s">
         <v>1121</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22942,11 +23163,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="479" t="s">
+      <c r="E55" s="509" t="s">
         <v>1122</v>
       </c>
-      <c r="F55" s="480"/>
-      <c r="G55" s="482"/>
+      <c r="F55" s="510"/>
+      <c r="G55" s="512"/>
       <c r="H55" s="138" t="s">
         <v>1113</v>
       </c>
@@ -22990,9 +23211,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="479"/>
-      <c r="F56" s="480"/>
-      <c r="G56" s="482"/>
+      <c r="E56" s="509"/>
+      <c r="F56" s="510"/>
+      <c r="G56" s="512"/>
       <c r="H56" s="138" t="s">
         <v>1114</v>
       </c>
@@ -23022,9 +23243,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="479"/>
-      <c r="F57" s="480"/>
-      <c r="G57" s="482"/>
+      <c r="E57" s="509"/>
+      <c r="F57" s="510"/>
+      <c r="G57" s="512"/>
       <c r="H57" s="4" t="s">
         <v>1126</v>
       </c>
@@ -23054,9 +23275,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="479"/>
-      <c r="F58" s="480"/>
-      <c r="G58" s="482"/>
+      <c r="E58" s="509"/>
+      <c r="F58" s="510"/>
+      <c r="G58" s="512"/>
       <c r="H58" s="274" t="s">
         <v>1112</v>
       </c>
@@ -23081,9 +23302,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="479"/>
-      <c r="F59" s="480"/>
-      <c r="G59" s="482"/>
+      <c r="E59" s="509"/>
+      <c r="F59" s="510"/>
+      <c r="G59" s="512"/>
       <c r="H59" s="274" t="s">
         <v>547</v>
       </c>
@@ -23108,9 +23329,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="479"/>
-      <c r="F60" s="480"/>
-      <c r="G60" s="482"/>
+      <c r="E60" s="509"/>
+      <c r="F60" s="510"/>
+      <c r="G60" s="512"/>
       <c r="H60" s="276"/>
       <c r="I60" s="277" t="s">
         <v>1128</v>
@@ -23130,9 +23351,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="479"/>
-      <c r="F61" s="480"/>
-      <c r="G61" s="482"/>
+      <c r="E61" s="509"/>
+      <c r="F61" s="510"/>
+      <c r="G61" s="512"/>
       <c r="H61" s="276"/>
       <c r="I61" s="277" t="s">
         <v>1129</v>
@@ -23152,7 +23373,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="265"/>
       <c r="F62" s="281"/>
-      <c r="G62" s="482"/>
+      <c r="G62" s="512"/>
       <c r="H62" s="278"/>
       <c r="I62" s="280" t="s">
         <v>1130</v>
@@ -23194,15 +23415,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="476"/>
-      <c r="F64" s="477"/>
-      <c r="G64" s="477"/>
-      <c r="H64" s="477"/>
-      <c r="I64" s="477"/>
-      <c r="J64" s="477"/>
-      <c r="K64" s="477"/>
-      <c r="L64" s="477"/>
-      <c r="M64" s="478"/>
+      <c r="E64" s="506"/>
+      <c r="F64" s="507"/>
+      <c r="G64" s="507"/>
+      <c r="H64" s="507"/>
+      <c r="I64" s="507"/>
+      <c r="J64" s="507"/>
+      <c r="K64" s="507"/>
+      <c r="L64" s="507"/>
+      <c r="M64" s="508"/>
       <c r="N64" s="39" t="s">
         <v>573</v>
       </c>
@@ -24081,6 +24302,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -24097,30 +24342,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -24142,6 +24363,851 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H1" s="513" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="513"/>
+      <c r="M1" s="39" t="s">
+        <v>1705</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>1706</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>1707</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
+      <c r="K2" s="513"/>
+      <c r="M2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H3" s="513"/>
+      <c r="I3" s="513"/>
+      <c r="J3" s="513"/>
+      <c r="K3" s="513"/>
+      <c r="M3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H4" s="513"/>
+      <c r="I4" s="513"/>
+      <c r="J4" s="513"/>
+      <c r="K4" s="513"/>
+      <c r="M4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H5" s="513"/>
+      <c r="I5" s="513"/>
+      <c r="J5" s="513"/>
+      <c r="K5" s="513"/>
+      <c r="Q5" t="s">
+        <v>1709</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H6" s="513"/>
+      <c r="I6" s="513"/>
+      <c r="J6" s="513"/>
+      <c r="K6" s="513"/>
+      <c r="Q6" t="s">
+        <v>1711</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="H7" s="513"/>
+      <c r="I7" s="513"/>
+      <c r="J7" s="513"/>
+      <c r="K7" s="513"/>
+      <c r="Q7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="H9" s="513" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I9" s="513"/>
+      <c r="J9" s="513"/>
+      <c r="K9" s="513"/>
+      <c r="M9" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H10" s="513"/>
+      <c r="I10" s="513"/>
+      <c r="J10" s="513"/>
+      <c r="K10" s="513"/>
+      <c r="M10" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H11" s="513"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="513"/>
+      <c r="K11" s="513"/>
+      <c r="M11" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H12" s="513"/>
+      <c r="I12" s="513"/>
+      <c r="J12" s="513"/>
+      <c r="K12" s="513"/>
+      <c r="M12" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="513"/>
+      <c r="K13" s="513"/>
+      <c r="M13" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="M15" t="s">
+        <v>1722</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I16" s="513" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J16" s="513"/>
+      <c r="K16" s="513"/>
+      <c r="M16" t="s">
+        <v>1726</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I17" s="513"/>
+      <c r="J17" s="513"/>
+      <c r="K17" s="513"/>
+      <c r="M17" t="s">
+        <v>1728</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I18" s="513"/>
+      <c r="J18" s="513"/>
+      <c r="K18" s="513"/>
+      <c r="M18" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="I19" s="513"/>
+      <c r="J19" s="513"/>
+      <c r="K19" s="513"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="I20" s="513"/>
+      <c r="J20" s="513"/>
+      <c r="K20" s="513"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I22" s="513" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J22" s="513"/>
+      <c r="K22" s="513"/>
+      <c r="N22" s="39" t="s">
+        <v>1733</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I23" s="513"/>
+      <c r="J23" s="513"/>
+      <c r="K23" s="513"/>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="I24" s="513"/>
+      <c r="J24" s="513"/>
+      <c r="K24" s="513"/>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="I25" s="513"/>
+      <c r="J25" s="513"/>
+      <c r="K25" s="513"/>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="I26" s="513"/>
+      <c r="J26" s="513"/>
+      <c r="K26" s="513"/>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="I27" s="513"/>
+      <c r="J27" s="513"/>
+      <c r="K27" s="513"/>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1736</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I30" t="s">
+        <v>547</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1741</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="I34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A36" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I36" t="s">
+        <v>235</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="76" t="s">
+        <v>758</v>
+      </c>
+      <c r="B38" s="181"/>
+      <c r="C38" s="554"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="181" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G38" s="554"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="76" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J38" s="181"/>
+      <c r="K38" s="554"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="76" t="s">
+        <v>1377</v>
+      </c>
+      <c r="N38" s="554"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="6"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="M40" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="I41" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="6"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+      <c r="I42" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="6"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="I43" s="4" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="555" t="s">
+        <v>1752</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="6"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="R43" s="5"/>
+      <c r="S43" s="6"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+      <c r="I44" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="555" t="s">
+        <v>1752</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="6"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+      <c r="I45" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="6"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="6"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="R46" s="5"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+      <c r="I47" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="6"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
+      <c r="I48" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="6"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="6"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5" t="s">
+        <v>1761</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="6"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="6"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="M50" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="N50" s="6"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="6"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+      <c r="I51" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>1764</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="M51" s="4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O51" t="s">
+        <v>2</v>
+      </c>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="6"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+      <c r="I52" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="6"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="6"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="6"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="6"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="6"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="6"/>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="9"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="9"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="9"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="9"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="I56" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="I57" s="37"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="I58" s="37"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="I59" s="37"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="I60" s="37"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="I61" s="37"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="I62" s="37"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="I63" s="37" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="I64" s="37" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="37" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="37" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:K7"/>
+    <mergeCell ref="H9:K13"/>
+    <mergeCell ref="I16:K20"/>
+    <mergeCell ref="I22:K27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -24154,12 +25220,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="513" t="s">
+      <c r="B1" s="514" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
+      <c r="C1" s="514"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
       <c r="I1" s="39" t="s">
         <v>549</v>
       </c>
@@ -24276,12 +25342,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="457" t="s">
+      <c r="B8" s="461" t="s">
         <v>1415</v>
       </c>
-      <c r="C8" s="457"/>
-      <c r="D8" s="457"/>
-      <c r="E8" s="457"/>
+      <c r="C8" s="461"/>
+      <c r="D8" s="461"/>
+      <c r="E8" s="461"/>
       <c r="J8" s="31" t="s">
         <v>552</v>
       </c>
@@ -24443,7 +25509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P24"/>
   <sheetViews>
@@ -24454,23 +25520,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="487" t="s">
+      <c r="C2" s="497" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
-      <c r="I2" s="487"/>
-      <c r="J2" s="487"/>
-      <c r="K2" s="487"/>
-      <c r="L2" s="487"/>
+      <c r="D2" s="497"/>
+      <c r="E2" s="497"/>
+      <c r="F2" s="497"/>
+      <c r="G2" s="497"/>
+      <c r="H2" s="497"/>
+      <c r="I2" s="497"/>
+      <c r="J2" s="497"/>
+      <c r="K2" s="497"/>
+      <c r="L2" s="497"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="458" t="s">
+      <c r="E3" s="451" t="s">
         <v>177</v>
       </c>
       <c r="F3" s="397"/>
@@ -24510,11 +25576,11 @@
         <v>587</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="488" t="s">
+      <c r="N5" s="498" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="488"/>
-      <c r="P5" s="488"/>
+      <c r="O5" s="498"/>
+      <c r="P5" s="498"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -24565,20 +25631,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="483" t="s">
+      <c r="E8" s="502" t="s">
         <v>569</v>
       </c>
-      <c r="F8" s="485"/>
-      <c r="G8" s="483" t="s">
+      <c r="F8" s="504"/>
+      <c r="G8" s="502" t="s">
         <v>570</v>
       </c>
-      <c r="H8" s="484"/>
-      <c r="I8" s="485"/>
-      <c r="J8" s="483" t="s">
+      <c r="H8" s="503"/>
+      <c r="I8" s="504"/>
+      <c r="J8" s="502" t="s">
         <v>571</v>
       </c>
-      <c r="K8" s="484"/>
-      <c r="L8" s="485"/>
+      <c r="K8" s="503"/>
+      <c r="L8" s="504"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -24601,14 +25667,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="483"/>
-      <c r="F9" s="485"/>
-      <c r="G9" s="483"/>
-      <c r="H9" s="484"/>
-      <c r="I9" s="485"/>
-      <c r="J9" s="483"/>
-      <c r="K9" s="484"/>
-      <c r="L9" s="485"/>
+      <c r="E9" s="502"/>
+      <c r="F9" s="504"/>
+      <c r="G9" s="502"/>
+      <c r="H9" s="503"/>
+      <c r="I9" s="504"/>
+      <c r="J9" s="502"/>
+      <c r="K9" s="503"/>
+      <c r="L9" s="504"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -24628,14 +25694,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="483"/>
-      <c r="F10" s="485"/>
-      <c r="G10" s="483"/>
-      <c r="H10" s="484"/>
-      <c r="I10" s="485"/>
-      <c r="J10" s="483"/>
-      <c r="K10" s="484"/>
-      <c r="L10" s="485"/>
+      <c r="E10" s="502"/>
+      <c r="F10" s="504"/>
+      <c r="G10" s="502"/>
+      <c r="H10" s="503"/>
+      <c r="I10" s="504"/>
+      <c r="J10" s="502"/>
+      <c r="K10" s="503"/>
+      <c r="L10" s="504"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -24649,14 +25715,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="483"/>
-      <c r="F11" s="485"/>
-      <c r="G11" s="483"/>
-      <c r="H11" s="484"/>
-      <c r="I11" s="485"/>
-      <c r="J11" s="483"/>
-      <c r="K11" s="484"/>
-      <c r="L11" s="485"/>
+      <c r="E11" s="502"/>
+      <c r="F11" s="504"/>
+      <c r="G11" s="502"/>
+      <c r="H11" s="503"/>
+      <c r="I11" s="504"/>
+      <c r="J11" s="502"/>
+      <c r="K11" s="503"/>
+      <c r="L11" s="504"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -24759,16 +25825,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="476" t="s">
+      <c r="E17" s="506" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="477"/>
-      <c r="G17" s="477"/>
-      <c r="H17" s="477"/>
-      <c r="I17" s="477"/>
-      <c r="J17" s="477"/>
-      <c r="K17" s="477"/>
-      <c r="L17" s="478"/>
+      <c r="F17" s="507"/>
+      <c r="G17" s="507"/>
+      <c r="H17" s="507"/>
+      <c r="I17" s="507"/>
+      <c r="J17" s="507"/>
+      <c r="K17" s="507"/>
+      <c r="L17" s="508"/>
       <c r="M17" s="39" t="s">
         <v>573</v>
       </c>
@@ -24805,21 +25871,21 @@
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="514" t="s">
+      <c r="E21" s="515" t="s">
         <v>1406</v>
       </c>
-      <c r="F21" s="515"/>
+      <c r="F21" s="516"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="516"/>
-      <c r="F22" s="517"/>
+      <c r="E22" s="517"/>
+      <c r="F22" s="518"/>
       <c r="J22" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="516"/>
-      <c r="F23" s="517"/>
+      <c r="E23" s="517"/>
+      <c r="F23" s="518"/>
       <c r="H23" t="s">
         <v>1427</v>
       </c>
@@ -24831,8 +25897,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="518"/>
-      <c r="F24" s="519"/>
+      <c r="E24" s="519"/>
+      <c r="F24" s="520"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24858,7 +25924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q23"/>
   <sheetViews>
@@ -25244,7 +26310,276 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B2" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B4" s="37"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B7" s="37"/>
+      <c r="I7" s="7">
+        <v>80</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B10" s="37"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6">
+        <v>25678</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>65635</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B15" s="37"/>
+      <c r="I15" s="11">
+        <v>22</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I16" s="8"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="35">
+        <v>44234</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="I20">
+        <v>3306</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:S41"/>
   <sheetViews>
@@ -25287,22 +26622,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="489" t="s">
+      <c r="E3" s="476" t="s">
         <v>516</v>
       </c>
-      <c r="F3" s="489"/>
-      <c r="G3" s="489" t="s">
+      <c r="F3" s="476"/>
+      <c r="G3" s="476" t="s">
         <v>517</v>
       </c>
-      <c r="H3" s="489"/>
-      <c r="I3" s="489"/>
-      <c r="J3" s="489"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="489"/>
-      <c r="M3" s="489" t="s">
+      <c r="H3" s="476"/>
+      <c r="I3" s="476"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="476"/>
+      <c r="L3" s="476"/>
+      <c r="M3" s="476" t="s">
         <v>518</v>
       </c>
-      <c r="N3" s="489"/>
+      <c r="N3" s="476"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -25313,7 +26648,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="132"/>
       <c r="D4" s="133"/>
-      <c r="E4" s="494" t="s">
+      <c r="E4" s="477" t="s">
         <v>519</v>
       </c>
       <c r="F4" s="128"/>
@@ -25341,22 +26676,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="135"/>
-      <c r="E5" s="495"/>
+      <c r="E5" s="478"/>
       <c r="F5" s="436" t="s">
         <v>615</v>
       </c>
       <c r="G5" s="437"/>
       <c r="H5" s="438"/>
-      <c r="I5" s="520" t="s">
+      <c r="I5" s="550" t="s">
         <v>616</v>
       </c>
-      <c r="J5" s="521"/>
-      <c r="K5" s="521"/>
-      <c r="L5" s="502"/>
-      <c r="M5" s="520" t="s">
+      <c r="J5" s="551"/>
+      <c r="K5" s="551"/>
+      <c r="L5" s="485"/>
+      <c r="M5" s="550" t="s">
         <v>617</v>
       </c>
-      <c r="N5" s="502"/>
+      <c r="N5" s="485"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -25367,16 +26702,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="136"/>
       <c r="D6" s="137"/>
-      <c r="E6" s="495"/>
+      <c r="E6" s="478"/>
       <c r="F6" s="439"/>
       <c r="G6" s="440"/>
       <c r="H6" s="441"/>
-      <c r="I6" s="503"/>
-      <c r="J6" s="522"/>
-      <c r="K6" s="522"/>
-      <c r="L6" s="504"/>
-      <c r="M6" s="503"/>
-      <c r="N6" s="504"/>
+      <c r="I6" s="486"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="552"/>
+      <c r="L6" s="487"/>
+      <c r="M6" s="486"/>
+      <c r="N6" s="487"/>
       <c r="O6" s="5"/>
       <c r="P6" s="37" t="s">
         <v>181</v>
@@ -25393,16 +26728,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="495"/>
+      <c r="E7" s="478"/>
       <c r="F7" s="439"/>
       <c r="G7" s="440"/>
       <c r="H7" s="441"/>
-      <c r="I7" s="503"/>
-      <c r="J7" s="522"/>
-      <c r="K7" s="522"/>
-      <c r="L7" s="504"/>
-      <c r="M7" s="503"/>
-      <c r="N7" s="504"/>
+      <c r="I7" s="486"/>
+      <c r="J7" s="552"/>
+      <c r="K7" s="552"/>
+      <c r="L7" s="487"/>
+      <c r="M7" s="486"/>
+      <c r="N7" s="487"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -25421,16 +26756,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="495"/>
+      <c r="E8" s="478"/>
       <c r="F8" s="439"/>
       <c r="G8" s="440"/>
       <c r="H8" s="441"/>
-      <c r="I8" s="503"/>
-      <c r="J8" s="522"/>
-      <c r="K8" s="522"/>
-      <c r="L8" s="504"/>
-      <c r="M8" s="503"/>
-      <c r="N8" s="504"/>
+      <c r="I8" s="486"/>
+      <c r="J8" s="552"/>
+      <c r="K8" s="552"/>
+      <c r="L8" s="487"/>
+      <c r="M8" s="486"/>
+      <c r="N8" s="487"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -25451,16 +26786,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="495"/>
+      <c r="E9" s="478"/>
       <c r="F9" s="439"/>
       <c r="G9" s="440"/>
       <c r="H9" s="441"/>
-      <c r="I9" s="503"/>
-      <c r="J9" s="522"/>
-      <c r="K9" s="522"/>
-      <c r="L9" s="504"/>
-      <c r="M9" s="503"/>
-      <c r="N9" s="504"/>
+      <c r="I9" s="486"/>
+      <c r="J9" s="552"/>
+      <c r="K9" s="552"/>
+      <c r="L9" s="487"/>
+      <c r="M9" s="486"/>
+      <c r="N9" s="487"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -25477,16 +26812,16 @@
         <v>535</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="495"/>
+      <c r="E10" s="478"/>
       <c r="F10" s="439"/>
       <c r="G10" s="440"/>
       <c r="H10" s="441"/>
-      <c r="I10" s="503"/>
-      <c r="J10" s="522"/>
-      <c r="K10" s="522"/>
-      <c r="L10" s="504"/>
-      <c r="M10" s="503"/>
-      <c r="N10" s="504"/>
+      <c r="I10" s="486"/>
+      <c r="J10" s="552"/>
+      <c r="K10" s="552"/>
+      <c r="L10" s="487"/>
+      <c r="M10" s="486"/>
+      <c r="N10" s="487"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -25499,16 +26834,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="495"/>
+      <c r="E11" s="478"/>
       <c r="F11" s="439"/>
       <c r="G11" s="440"/>
       <c r="H11" s="441"/>
-      <c r="I11" s="503"/>
-      <c r="J11" s="522"/>
-      <c r="K11" s="522"/>
-      <c r="L11" s="504"/>
-      <c r="M11" s="503"/>
-      <c r="N11" s="504"/>
+      <c r="I11" s="486"/>
+      <c r="J11" s="552"/>
+      <c r="K11" s="552"/>
+      <c r="L11" s="487"/>
+      <c r="M11" s="486"/>
+      <c r="N11" s="487"/>
       <c r="O11" s="5"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -25519,16 +26854,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="495"/>
+      <c r="E12" s="478"/>
       <c r="F12" s="439"/>
       <c r="G12" s="440"/>
       <c r="H12" s="441"/>
-      <c r="I12" s="503"/>
-      <c r="J12" s="522"/>
-      <c r="K12" s="522"/>
-      <c r="L12" s="504"/>
-      <c r="M12" s="503"/>
-      <c r="N12" s="504"/>
+      <c r="I12" s="486"/>
+      <c r="J12" s="552"/>
+      <c r="K12" s="552"/>
+      <c r="L12" s="487"/>
+      <c r="M12" s="486"/>
+      <c r="N12" s="487"/>
       <c r="O12" s="5"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -25541,16 +26876,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="495"/>
+      <c r="E13" s="478"/>
       <c r="F13" s="439"/>
       <c r="G13" s="440"/>
       <c r="H13" s="441"/>
-      <c r="I13" s="503"/>
-      <c r="J13" s="522"/>
-      <c r="K13" s="522"/>
-      <c r="L13" s="504"/>
-      <c r="M13" s="503"/>
-      <c r="N13" s="504"/>
+      <c r="I13" s="486"/>
+      <c r="J13" s="552"/>
+      <c r="K13" s="552"/>
+      <c r="L13" s="487"/>
+      <c r="M13" s="486"/>
+      <c r="N13" s="487"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -25561,16 +26896,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="495"/>
+      <c r="E14" s="478"/>
       <c r="F14" s="439"/>
       <c r="G14" s="440"/>
       <c r="H14" s="441"/>
-      <c r="I14" s="503"/>
-      <c r="J14" s="522"/>
-      <c r="K14" s="522"/>
-      <c r="L14" s="504"/>
-      <c r="M14" s="503"/>
-      <c r="N14" s="504"/>
+      <c r="I14" s="486"/>
+      <c r="J14" s="552"/>
+      <c r="K14" s="552"/>
+      <c r="L14" s="487"/>
+      <c r="M14" s="486"/>
+      <c r="N14" s="487"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -25581,16 +26916,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="495"/>
+      <c r="E15" s="478"/>
       <c r="F15" s="439"/>
       <c r="G15" s="440"/>
       <c r="H15" s="441"/>
-      <c r="I15" s="503"/>
-      <c r="J15" s="522"/>
-      <c r="K15" s="522"/>
-      <c r="L15" s="504"/>
-      <c r="M15" s="503"/>
-      <c r="N15" s="504"/>
+      <c r="I15" s="486"/>
+      <c r="J15" s="552"/>
+      <c r="K15" s="552"/>
+      <c r="L15" s="487"/>
+      <c r="M15" s="486"/>
+      <c r="N15" s="487"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -25601,16 +26936,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="495"/>
+      <c r="E16" s="478"/>
       <c r="F16" s="439"/>
       <c r="G16" s="440"/>
       <c r="H16" s="441"/>
-      <c r="I16" s="503"/>
-      <c r="J16" s="522"/>
-      <c r="K16" s="522"/>
-      <c r="L16" s="504"/>
-      <c r="M16" s="503"/>
-      <c r="N16" s="504"/>
+      <c r="I16" s="486"/>
+      <c r="J16" s="552"/>
+      <c r="K16" s="552"/>
+      <c r="L16" s="487"/>
+      <c r="M16" s="486"/>
+      <c r="N16" s="487"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -25623,16 +26958,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="495"/>
+      <c r="E17" s="478"/>
       <c r="F17" s="439"/>
       <c r="G17" s="440"/>
       <c r="H17" s="441"/>
-      <c r="I17" s="503"/>
-      <c r="J17" s="522"/>
-      <c r="K17" s="522"/>
-      <c r="L17" s="504"/>
-      <c r="M17" s="503"/>
-      <c r="N17" s="504"/>
+      <c r="I17" s="486"/>
+      <c r="J17" s="552"/>
+      <c r="K17" s="552"/>
+      <c r="L17" s="487"/>
+      <c r="M17" s="486"/>
+      <c r="N17" s="487"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -25643,16 +26978,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="496"/>
+      <c r="E18" s="479"/>
       <c r="F18" s="442"/>
       <c r="G18" s="443"/>
       <c r="H18" s="444"/>
-      <c r="I18" s="505"/>
-      <c r="J18" s="523"/>
-      <c r="K18" s="523"/>
-      <c r="L18" s="506"/>
-      <c r="M18" s="505"/>
-      <c r="N18" s="506"/>
+      <c r="I18" s="488"/>
+      <c r="J18" s="553"/>
+      <c r="K18" s="553"/>
+      <c r="L18" s="489"/>
+      <c r="M18" s="488"/>
+      <c r="N18" s="489"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -25728,29 +27063,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="488" t="s">
+      <c r="B24" s="498" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="488"/>
-      <c r="D24" s="487"/>
-      <c r="E24" s="487"/>
-      <c r="F24" s="487"/>
-      <c r="G24" s="487"/>
-      <c r="H24" s="487"/>
-      <c r="I24" s="487"/>
-      <c r="J24" s="487"/>
-      <c r="K24" s="487"/>
-      <c r="M24" s="541" t="s">
+      <c r="C24" s="498"/>
+      <c r="D24" s="497"/>
+      <c r="E24" s="497"/>
+      <c r="F24" s="497"/>
+      <c r="G24" s="497"/>
+      <c r="H24" s="497"/>
+      <c r="I24" s="497"/>
+      <c r="J24" s="497"/>
+      <c r="K24" s="497"/>
+      <c r="M24" s="521" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="541"/>
-      <c r="O24" s="541"/>
+      <c r="N24" s="521"/>
+      <c r="O24" s="521"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="542" t="s">
+      <c r="B25" s="522" t="s">
         <v>928</v>
       </c>
-      <c r="C25" s="465"/>
+      <c r="C25" s="464"/>
       <c r="D25" s="410" t="s">
         <v>177</v>
       </c>
@@ -25772,13 +27107,13 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="466"/>
-      <c r="C26" s="467"/>
-      <c r="D26" s="464" t="s">
+      <c r="B26" s="465"/>
+      <c r="C26" s="466"/>
+      <c r="D26" s="463" t="s">
         <v>921</v>
       </c>
-      <c r="E26" s="465"/>
-      <c r="F26" s="536" t="s">
+      <c r="E26" s="464"/>
+      <c r="F26" s="548" t="s">
         <v>921</v>
       </c>
       <c r="G26" s="410"/>
@@ -25802,21 +27137,21 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="466"/>
-      <c r="C27" s="467"/>
-      <c r="D27" s="457" t="s">
+      <c r="B27" s="465"/>
+      <c r="C27" s="466"/>
+      <c r="D27" s="461" t="s">
         <v>926</v>
       </c>
-      <c r="E27" s="467"/>
-      <c r="F27" s="466" t="s">
+      <c r="E27" s="466"/>
+      <c r="F27" s="465" t="s">
         <v>922</v>
       </c>
-      <c r="G27" s="457"/>
+      <c r="G27" s="461"/>
       <c r="H27" s="402"/>
-      <c r="I27" s="540" t="s">
+      <c r="I27" s="532" t="s">
         <v>926</v>
       </c>
-      <c r="J27" s="457"/>
+      <c r="J27" s="461"/>
       <c r="K27" s="402"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
@@ -25832,21 +27167,21 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="466"/>
-      <c r="C28" s="467"/>
-      <c r="D28" s="457" t="s">
+      <c r="B28" s="465"/>
+      <c r="C28" s="466"/>
+      <c r="D28" s="461" t="s">
         <v>923</v>
       </c>
-      <c r="E28" s="467"/>
-      <c r="F28" s="466" t="s">
+      <c r="E28" s="466"/>
+      <c r="F28" s="465" t="s">
         <v>923</v>
       </c>
-      <c r="G28" s="457"/>
+      <c r="G28" s="461"/>
       <c r="H28" s="402"/>
-      <c r="I28" s="540" t="s">
+      <c r="I28" s="532" t="s">
         <v>923</v>
       </c>
-      <c r="J28" s="457"/>
+      <c r="J28" s="461"/>
       <c r="K28" s="402"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
@@ -25856,22 +27191,22 @@
       <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="468"/>
-      <c r="C29" s="469"/>
-      <c r="D29" s="457" t="s">
+      <c r="B29" s="467"/>
+      <c r="C29" s="468"/>
+      <c r="D29" s="461" t="s">
         <v>924</v>
       </c>
-      <c r="E29" s="467"/>
-      <c r="F29" s="537" t="s">
+      <c r="E29" s="466"/>
+      <c r="F29" s="549" t="s">
         <v>924</v>
       </c>
-      <c r="G29" s="538"/>
-      <c r="H29" s="539"/>
-      <c r="I29" s="552" t="s">
+      <c r="G29" s="534"/>
+      <c r="H29" s="535"/>
+      <c r="I29" s="533" t="s">
         <v>924</v>
       </c>
-      <c r="J29" s="538"/>
-      <c r="K29" s="539"/>
+      <c r="J29" s="534"/>
+      <c r="K29" s="535"/>
       <c r="L29" s="23" t="s">
         <v>2</v>
       </c>
@@ -25884,20 +27219,20 @@
         <v>927</v>
       </c>
       <c r="C30" s="414"/>
-      <c r="D30" s="524" t="s">
+      <c r="D30" s="536" t="s">
         <v>569</v>
       </c>
-      <c r="E30" s="525"/>
-      <c r="F30" s="529" t="s">
+      <c r="E30" s="537"/>
+      <c r="F30" s="541" t="s">
         <v>570</v>
       </c>
-      <c r="G30" s="530"/>
-      <c r="H30" s="525"/>
-      <c r="I30" s="529" t="s">
+      <c r="G30" s="542"/>
+      <c r="H30" s="537"/>
+      <c r="I30" s="541" t="s">
         <v>571</v>
       </c>
-      <c r="J30" s="530"/>
-      <c r="K30" s="533"/>
+      <c r="J30" s="542"/>
+      <c r="K30" s="545"/>
       <c r="L30" s="5"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
@@ -25906,14 +27241,14 @@
     <row r="31" spans="2:19">
       <c r="B31" s="403"/>
       <c r="C31" s="416"/>
-      <c r="D31" s="526"/>
-      <c r="E31" s="485"/>
-      <c r="F31" s="483"/>
-      <c r="G31" s="484"/>
-      <c r="H31" s="485"/>
-      <c r="I31" s="483"/>
-      <c r="J31" s="484"/>
-      <c r="K31" s="534"/>
+      <c r="D31" s="538"/>
+      <c r="E31" s="504"/>
+      <c r="F31" s="502"/>
+      <c r="G31" s="503"/>
+      <c r="H31" s="504"/>
+      <c r="I31" s="502"/>
+      <c r="J31" s="503"/>
+      <c r="K31" s="546"/>
       <c r="L31" s="5"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
@@ -25922,107 +27257,107 @@
     <row r="32" spans="2:19">
       <c r="B32" s="403"/>
       <c r="C32" s="416"/>
-      <c r="D32" s="526"/>
-      <c r="E32" s="485"/>
-      <c r="F32" s="483"/>
-      <c r="G32" s="484"/>
-      <c r="H32" s="485"/>
-      <c r="I32" s="483"/>
-      <c r="J32" s="484"/>
-      <c r="K32" s="534"/>
+      <c r="D32" s="538"/>
+      <c r="E32" s="504"/>
+      <c r="F32" s="502"/>
+      <c r="G32" s="503"/>
+      <c r="H32" s="504"/>
+      <c r="I32" s="502"/>
+      <c r="J32" s="503"/>
+      <c r="K32" s="546"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="403"/>
       <c r="C33" s="416"/>
-      <c r="D33" s="527"/>
-      <c r="E33" s="528"/>
-      <c r="F33" s="531"/>
-      <c r="G33" s="532"/>
-      <c r="H33" s="528"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="532"/>
-      <c r="K33" s="535"/>
+      <c r="D33" s="539"/>
+      <c r="E33" s="540"/>
+      <c r="F33" s="543"/>
+      <c r="G33" s="544"/>
+      <c r="H33" s="540"/>
+      <c r="I33" s="543"/>
+      <c r="J33" s="544"/>
+      <c r="K33" s="547"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="403"/>
       <c r="C34" s="405"/>
-      <c r="D34" s="543" t="s">
+      <c r="D34" s="523" t="s">
         <v>914</v>
       </c>
-      <c r="E34" s="544"/>
-      <c r="F34" s="543" t="s">
+      <c r="E34" s="524"/>
+      <c r="F34" s="523" t="s">
         <v>591</v>
       </c>
-      <c r="G34" s="549"/>
-      <c r="H34" s="544"/>
-      <c r="I34" s="543" t="s">
+      <c r="G34" s="529"/>
+      <c r="H34" s="524"/>
+      <c r="I34" s="523" t="s">
         <v>929</v>
       </c>
-      <c r="J34" s="549"/>
-      <c r="K34" s="544"/>
+      <c r="J34" s="529"/>
+      <c r="K34" s="524"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="403"/>
       <c r="C35" s="405"/>
-      <c r="D35" s="545"/>
-      <c r="E35" s="546"/>
-      <c r="F35" s="545"/>
-      <c r="G35" s="550"/>
-      <c r="H35" s="546"/>
-      <c r="I35" s="545"/>
-      <c r="J35" s="550"/>
-      <c r="K35" s="546"/>
+      <c r="D35" s="525"/>
+      <c r="E35" s="526"/>
+      <c r="F35" s="525"/>
+      <c r="G35" s="530"/>
+      <c r="H35" s="526"/>
+      <c r="I35" s="525"/>
+      <c r="J35" s="530"/>
+      <c r="K35" s="526"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="403"/>
       <c r="C36" s="405"/>
-      <c r="D36" s="545"/>
-      <c r="E36" s="546"/>
-      <c r="F36" s="545"/>
-      <c r="G36" s="550"/>
-      <c r="H36" s="546"/>
-      <c r="I36" s="545"/>
-      <c r="J36" s="550"/>
-      <c r="K36" s="546"/>
+      <c r="D36" s="525"/>
+      <c r="E36" s="526"/>
+      <c r="F36" s="525"/>
+      <c r="G36" s="530"/>
+      <c r="H36" s="526"/>
+      <c r="I36" s="525"/>
+      <c r="J36" s="530"/>
+      <c r="K36" s="526"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="403"/>
       <c r="C37" s="405"/>
-      <c r="D37" s="545"/>
-      <c r="E37" s="546"/>
-      <c r="F37" s="545"/>
-      <c r="G37" s="550"/>
-      <c r="H37" s="546"/>
-      <c r="I37" s="545"/>
-      <c r="J37" s="550"/>
-      <c r="K37" s="546"/>
+      <c r="D37" s="525"/>
+      <c r="E37" s="526"/>
+      <c r="F37" s="525"/>
+      <c r="G37" s="530"/>
+      <c r="H37" s="526"/>
+      <c r="I37" s="525"/>
+      <c r="J37" s="530"/>
+      <c r="K37" s="526"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="B38" s="403"/>
       <c r="C38" s="405"/>
-      <c r="D38" s="547"/>
-      <c r="E38" s="548"/>
-      <c r="F38" s="547"/>
-      <c r="G38" s="551"/>
-      <c r="H38" s="548"/>
-      <c r="I38" s="547"/>
-      <c r="J38" s="551"/>
-      <c r="K38" s="548"/>
+      <c r="D38" s="527"/>
+      <c r="E38" s="528"/>
+      <c r="F38" s="527"/>
+      <c r="G38" s="531"/>
+      <c r="H38" s="528"/>
+      <c r="I38" s="527"/>
+      <c r="J38" s="531"/>
+      <c r="K38" s="528"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
       <c r="B39" s="417"/>
       <c r="C39" s="419"/>
-      <c r="D39" s="476" t="s">
+      <c r="D39" s="506" t="s">
         <v>572</v>
       </c>
-      <c r="E39" s="477"/>
-      <c r="F39" s="477"/>
-      <c r="G39" s="477"/>
-      <c r="H39" s="477"/>
-      <c r="I39" s="477"/>
-      <c r="J39" s="477"/>
-      <c r="K39" s="478"/>
+      <c r="E39" s="507"/>
+      <c r="F39" s="507"/>
+      <c r="G39" s="507"/>
+      <c r="H39" s="507"/>
+      <c r="I39" s="507"/>
+      <c r="J39" s="507"/>
+      <c r="K39" s="508"/>
       <c r="L39" s="39" t="s">
         <v>573</v>
       </c>
@@ -26059,17 +27394,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -26086,16 +27420,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -26107,275 +27442,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B2" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="I3" s="4"/>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B4" s="37"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B7" s="37"/>
-      <c r="I7" s="7">
-        <v>80</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B10" s="37"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I12" s="4"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6">
-        <v>25678</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <v>65635</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B15" s="37"/>
-      <c r="I15" s="11">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="35">
-        <v>44234</v>
-      </c>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="5:11">
-      <c r="E17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11">
-      <c r="E18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11">
-      <c r="I19">
-        <v>22</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11">
-      <c r="I20">
-        <v>3306</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -7374,6 +7374,8 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7539,18 +7541,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7571,6 +7561,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7602,9 +7607,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7614,8 +7616,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7674,57 +7727,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7749,50 +7751,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7836,20 +7805,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12750,8 +12750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:K69"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14559,10 +14559,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="449" t="s">
+      <c r="L35" s="451" t="s">
         <v>372</v>
       </c>
-      <c r="M35" s="449"/>
+      <c r="M35" s="451"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -16496,10 +16496,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="450" t="s">
+      <c r="A155" s="452" t="s">
         <v>1007</v>
       </c>
-      <c r="B155" s="450"/>
+      <c r="B155" s="452"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="92" t="s">
@@ -18867,18 +18867,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="451" t="s">
+      <c r="E6" s="460" t="s">
         <v>404</v>
       </c>
-      <c r="F6" s="398"/>
-      <c r="G6" s="397" t="s">
+      <c r="F6" s="400"/>
+      <c r="G6" s="399" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="397"/>
-      <c r="I6" s="397"/>
-      <c r="J6" s="397"/>
-      <c r="K6" s="397"/>
-      <c r="L6" s="398"/>
+      <c r="H6" s="399"/>
+      <c r="I6" s="399"/>
+      <c r="J6" s="399"/>
+      <c r="K6" s="399"/>
+      <c r="L6" s="400"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="27" t="s">
@@ -18891,7 +18891,7 @@
       <c r="A7" s="15" t="s">
         <v>1671</v>
       </c>
-      <c r="D7" s="459">
+      <c r="D7" s="457">
         <v>80</v>
       </c>
       <c r="E7" s="222"/>
@@ -18909,7 +18909,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="459"/>
+      <c r="D8" s="457"/>
       <c r="E8" s="47" t="s">
         <v>406</v>
       </c>
@@ -18944,7 +18944,7 @@
       <c r="B9" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="459"/>
+      <c r="D9" s="457"/>
       <c r="E9" s="224"/>
       <c r="F9" s="233"/>
       <c r="G9" s="136"/>
@@ -18968,7 +18968,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="D10" s="459"/>
+      <c r="D10" s="457"/>
       <c r="E10" s="222"/>
       <c r="F10" s="232"/>
       <c r="G10" s="379"/>
@@ -18992,7 +18992,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="459"/>
+      <c r="D11" s="457"/>
       <c r="E11" s="47" t="s">
         <v>410</v>
       </c>
@@ -19021,7 +19021,7 @@
       <c r="B12" s="206" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="459"/>
+      <c r="D12" s="457"/>
       <c r="E12" s="224"/>
       <c r="F12" s="233"/>
       <c r="G12" s="383"/>
@@ -19042,7 +19042,7 @@
       <c r="B13" t="s">
         <v>1672</v>
       </c>
-      <c r="D13" s="459"/>
+      <c r="D13" s="457"/>
       <c r="E13" s="222"/>
       <c r="F13" s="232"/>
       <c r="G13" s="385"/>
@@ -19058,7 +19058,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="D14" s="459"/>
+      <c r="D14" s="457"/>
       <c r="E14" s="47" t="s">
         <v>415</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="B15" t="s">
         <v>1673</v>
       </c>
-      <c r="D15" s="459"/>
+      <c r="D15" s="457"/>
       <c r="E15" s="224"/>
       <c r="F15" s="233"/>
       <c r="G15" s="389"/>
@@ -19104,7 +19104,7 @@
       <c r="B16" t="s">
         <v>1391</v>
       </c>
-      <c r="D16" s="459"/>
+      <c r="D16" s="457"/>
       <c r="E16" s="222"/>
       <c r="F16" s="232"/>
       <c r="G16" s="391"/>
@@ -19124,7 +19124,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="459"/>
+      <c r="D17" s="457"/>
       <c r="E17" s="47" t="s">
         <v>419</v>
       </c>
@@ -19152,7 +19152,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="459"/>
+      <c r="D18" s="457"/>
       <c r="E18" s="224"/>
       <c r="F18" s="233"/>
       <c r="G18" s="394"/>
@@ -19171,20 +19171,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="452" t="s">
+      <c r="E19" s="461" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="453"/>
-      <c r="G19" s="452" t="s">
+      <c r="F19" s="462"/>
+      <c r="G19" s="461" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="453"/>
-      <c r="I19" s="452" t="s">
+      <c r="H19" s="462"/>
+      <c r="I19" s="461" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="454"/>
-      <c r="K19" s="454"/>
-      <c r="L19" s="453"/>
+      <c r="J19" s="463"/>
+      <c r="K19" s="463"/>
+      <c r="L19" s="462"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -19249,12 +19249,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="461"/>
-      <c r="H24" s="461"/>
-      <c r="I24" s="461"/>
-      <c r="J24" s="461"/>
-      <c r="K24" s="461"/>
-      <c r="L24" s="461"/>
+      <c r="G24" s="459"/>
+      <c r="H24" s="459"/>
+      <c r="I24" s="459"/>
+      <c r="J24" s="459"/>
+      <c r="K24" s="459"/>
+      <c r="L24" s="459"/>
       <c r="O24" s="39" t="s">
         <v>178</v>
       </c>
@@ -19670,11 +19670,11 @@
       <c r="G47" s="219" t="s">
         <v>897</v>
       </c>
-      <c r="H47" s="447" t="s">
+      <c r="H47" s="449" t="s">
         <v>1367</v>
       </c>
-      <c r="I47" s="460"/>
-      <c r="J47" s="448"/>
+      <c r="I47" s="458"/>
+      <c r="J47" s="450"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -20280,16 +20280,16 @@
         <v>1062</v>
       </c>
       <c r="F131" s="37"/>
-      <c r="G131" s="457" t="s">
+      <c r="G131" s="455" t="s">
         <v>1055</v>
       </c>
-      <c r="H131" s="457"/>
-      <c r="I131" s="457"/>
-      <c r="J131" s="457"/>
-      <c r="K131" s="457"/>
-      <c r="L131" s="457"/>
-      <c r="M131" s="457"/>
-      <c r="N131" s="457"/>
+      <c r="H131" s="455"/>
+      <c r="I131" s="455"/>
+      <c r="J131" s="455"/>
+      <c r="K131" s="455"/>
+      <c r="L131" s="455"/>
+      <c r="M131" s="455"/>
+      <c r="N131" s="455"/>
       <c r="O131" s="37"/>
     </row>
     <row r="132" spans="2:15">
@@ -20426,29 +20426,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="37"/>
-      <c r="G141" s="458"/>
-      <c r="H141" s="458"/>
-      <c r="I141" s="458"/>
-      <c r="J141" s="458"/>
-      <c r="K141" s="458"/>
-      <c r="L141" s="458"/>
-      <c r="M141" s="458"/>
-      <c r="N141" s="458"/>
-      <c r="O141" s="458"/>
+      <c r="G141" s="456"/>
+      <c r="H141" s="456"/>
+      <c r="I141" s="456"/>
+      <c r="J141" s="456"/>
+      <c r="K141" s="456"/>
+      <c r="L141" s="456"/>
+      <c r="M141" s="456"/>
+      <c r="N141" s="456"/>
+      <c r="O141" s="456"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="458"/>
-      <c r="H142" s="458"/>
-      <c r="I142" s="458"/>
-      <c r="J142" s="458"/>
-      <c r="K142" s="458"/>
-      <c r="L142" s="458"/>
-      <c r="M142" s="458"/>
-      <c r="N142" s="458"/>
-      <c r="O142" s="458"/>
+      <c r="G142" s="456"/>
+      <c r="H142" s="456"/>
+      <c r="I142" s="456"/>
+      <c r="J142" s="456"/>
+      <c r="K142" s="456"/>
+      <c r="L142" s="456"/>
+      <c r="M142" s="456"/>
+      <c r="N142" s="456"/>
+      <c r="O142" s="456"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -20492,7 +20492,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="455" t="s">
+      <c r="D158" s="453" t="s">
         <v>1333</v>
       </c>
       <c r="E158" s="65"/>
@@ -20505,7 +20505,7 @@
       <c r="L158" s="234"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="456"/>
+      <c r="D159" s="454"/>
       <c r="E159" s="309" t="s">
         <v>1331</v>
       </c>
@@ -20527,7 +20527,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="456"/>
+      <c r="D160" s="454"/>
       <c r="E160" s="229"/>
       <c r="F160" s="235"/>
       <c r="G160" s="229"/>
@@ -20538,7 +20538,7 @@
       <c r="L160" s="235"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="456"/>
+      <c r="D161" s="454"/>
       <c r="E161" s="311"/>
       <c r="F161" s="312"/>
       <c r="G161" s="311"/>
@@ -20549,7 +20549,7 @@
       <c r="L161" s="312"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="456"/>
+      <c r="D162" s="454"/>
       <c r="E162" s="313"/>
       <c r="F162" s="314"/>
       <c r="G162" s="313"/>
@@ -20563,7 +20563,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="456"/>
+      <c r="D163" s="454"/>
       <c r="E163" s="315"/>
       <c r="F163" s="316"/>
       <c r="G163" s="315"/>
@@ -20574,7 +20574,7 @@
       <c r="L163" s="316"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="456"/>
+      <c r="D164" s="454"/>
       <c r="E164" s="65"/>
       <c r="F164" s="234"/>
       <c r="G164" s="65"/>
@@ -20585,7 +20585,7 @@
       <c r="L164" s="234"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="456"/>
+      <c r="D165" s="454"/>
       <c r="E165" s="57"/>
       <c r="F165" s="308"/>
       <c r="G165" s="57"/>
@@ -20599,7 +20599,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="456"/>
+      <c r="D166" s="454"/>
       <c r="E166" s="229"/>
       <c r="F166" s="235"/>
       <c r="G166" s="229"/>
@@ -20610,7 +20610,7 @@
       <c r="L166" s="235"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="456"/>
+      <c r="D167" s="454"/>
       <c r="E167" s="65"/>
       <c r="F167" s="234"/>
       <c r="G167" s="58"/>
@@ -20621,7 +20621,7 @@
       <c r="L167" s="308"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="456"/>
+      <c r="D168" s="454"/>
       <c r="E168" s="57"/>
       <c r="F168" s="308"/>
       <c r="G168" s="58"/>
@@ -20635,7 +20635,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="456"/>
+      <c r="D169" s="454"/>
       <c r="E169" s="229"/>
       <c r="F169" s="235"/>
       <c r="G169" s="317"/>
@@ -21030,17 +21030,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -21286,13 +21286,13 @@
       <c r="C20" s="113">
         <v>43908</v>
       </c>
-      <c r="D20" s="426" t="s">
+      <c r="D20" s="428" t="s">
         <v>454</v>
       </c>
-      <c r="E20" s="426"/>
-      <c r="F20" s="426"/>
-      <c r="G20" s="426"/>
-      <c r="H20" s="426"/>
+      <c r="E20" s="428"/>
+      <c r="F20" s="428"/>
+      <c r="G20" s="428"/>
+      <c r="H20" s="428"/>
       <c r="I20" s="37" t="s">
         <v>455</v>
       </c>
@@ -21303,37 +21303,37 @@
       <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="472">
+      <c r="C21" s="464">
         <v>43909</v>
       </c>
-      <c r="D21" s="426"/>
-      <c r="E21" s="426"/>
-      <c r="F21" s="426"/>
-      <c r="G21" s="426"/>
-      <c r="H21" s="426"/>
+      <c r="D21" s="428"/>
+      <c r="E21" s="428"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="428"/>
+      <c r="H21" s="428"/>
       <c r="I21" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J21" s="426"/>
-      <c r="K21" s="426"/>
-      <c r="L21" s="426" t="s">
+      <c r="J21" s="428"/>
+      <c r="K21" s="428"/>
+      <c r="L21" s="428" t="s">
         <v>457</v>
       </c>
-      <c r="M21" s="426"/>
-      <c r="N21" s="426"/>
+      <c r="M21" s="428"/>
+      <c r="N21" s="428"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="472"/>
-      <c r="D22" s="426"/>
-      <c r="E22" s="426"/>
-      <c r="F22" s="426"/>
-      <c r="G22" s="426"/>
-      <c r="H22" s="426"/>
-      <c r="I22" s="406" t="s">
+      <c r="C22" s="464"/>
+      <c r="D22" s="428"/>
+      <c r="E22" s="428"/>
+      <c r="F22" s="428"/>
+      <c r="G22" s="428"/>
+      <c r="H22" s="428"/>
+      <c r="I22" s="408" t="s">
         <v>458</v>
       </c>
-      <c r="J22" s="426"/>
-      <c r="K22" s="426"/>
+      <c r="J22" s="428"/>
+      <c r="K22" s="428"/>
       <c r="L22" s="114" t="s">
         <v>459</v>
       </c>
@@ -21341,31 +21341,31 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="472"/>
-      <c r="D23" s="426"/>
-      <c r="E23" s="426"/>
-      <c r="F23" s="426"/>
-      <c r="G23" s="426"/>
-      <c r="H23" s="426"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="426"/>
-      <c r="K23" s="426"/>
-      <c r="L23" s="426" t="s">
+      <c r="C23" s="464"/>
+      <c r="D23" s="428"/>
+      <c r="E23" s="428"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="428"/>
+      <c r="H23" s="428"/>
+      <c r="I23" s="408"/>
+      <c r="J23" s="428"/>
+      <c r="K23" s="428"/>
+      <c r="L23" s="428" t="s">
         <v>460</v>
       </c>
-      <c r="M23" s="426"/>
-      <c r="N23" s="426"/>
+      <c r="M23" s="428"/>
+      <c r="N23" s="428"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="472"/>
-      <c r="D24" s="426"/>
-      <c r="E24" s="426"/>
-      <c r="F24" s="426"/>
-      <c r="G24" s="426"/>
-      <c r="H24" s="426"/>
-      <c r="I24" s="406"/>
-      <c r="J24" s="426"/>
-      <c r="K24" s="426"/>
+      <c r="C24" s="464"/>
+      <c r="D24" s="428"/>
+      <c r="E24" s="428"/>
+      <c r="F24" s="428"/>
+      <c r="G24" s="428"/>
+      <c r="H24" s="428"/>
+      <c r="I24" s="408"/>
+      <c r="J24" s="428"/>
+      <c r="K24" s="428"/>
       <c r="L24" s="115" t="s">
         <v>458</v>
       </c>
@@ -21376,13 +21376,13 @@
       <c r="C25" s="113">
         <v>43910</v>
       </c>
-      <c r="D25" s="426" t="s">
+      <c r="D25" s="428" t="s">
         <v>461</v>
       </c>
-      <c r="E25" s="426"/>
-      <c r="F25" s="426"/>
-      <c r="G25" s="426"/>
-      <c r="H25" s="426"/>
+      <c r="E25" s="428"/>
+      <c r="F25" s="428"/>
+      <c r="G25" s="428"/>
+      <c r="H25" s="428"/>
       <c r="I25" s="37" t="s">
         <v>462</v>
       </c>
@@ -21396,16 +21396,16 @@
       <c r="C26" s="113">
         <v>43911</v>
       </c>
-      <c r="D26" s="462"/>
-      <c r="E26" s="463"/>
-      <c r="F26" s="463"/>
-      <c r="G26" s="463"/>
-      <c r="H26" s="464"/>
-      <c r="I26" s="469" t="s">
+      <c r="D26" s="465"/>
+      <c r="E26" s="466"/>
+      <c r="F26" s="466"/>
+      <c r="G26" s="466"/>
+      <c r="H26" s="467"/>
+      <c r="I26" s="472" t="s">
         <v>458</v>
       </c>
-      <c r="J26" s="462"/>
-      <c r="K26" s="464"/>
+      <c r="J26" s="465"/>
+      <c r="K26" s="467"/>
       <c r="L26" s="114" t="s">
         <v>459</v>
       </c>
@@ -21414,30 +21414,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="37"/>
-      <c r="D27" s="465"/>
-      <c r="E27" s="461"/>
-      <c r="F27" s="461"/>
-      <c r="G27" s="461"/>
-      <c r="H27" s="466"/>
-      <c r="I27" s="470"/>
-      <c r="J27" s="465"/>
-      <c r="K27" s="466"/>
-      <c r="L27" s="426" t="s">
+      <c r="D27" s="468"/>
+      <c r="E27" s="459"/>
+      <c r="F27" s="459"/>
+      <c r="G27" s="459"/>
+      <c r="H27" s="469"/>
+      <c r="I27" s="473"/>
+      <c r="J27" s="468"/>
+      <c r="K27" s="469"/>
+      <c r="L27" s="428" t="s">
         <v>463</v>
       </c>
-      <c r="M27" s="426"/>
-      <c r="N27" s="426"/>
+      <c r="M27" s="428"/>
+      <c r="N27" s="428"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="37"/>
-      <c r="D28" s="465"/>
-      <c r="E28" s="461"/>
-      <c r="F28" s="461"/>
-      <c r="G28" s="461"/>
-      <c r="H28" s="466"/>
-      <c r="I28" s="470"/>
-      <c r="J28" s="465"/>
-      <c r="K28" s="466"/>
+      <c r="D28" s="468"/>
+      <c r="E28" s="459"/>
+      <c r="F28" s="459"/>
+      <c r="G28" s="459"/>
+      <c r="H28" s="469"/>
+      <c r="I28" s="473"/>
+      <c r="J28" s="468"/>
+      <c r="K28" s="469"/>
       <c r="L28" s="115" t="s">
         <v>458</v>
       </c>
@@ -21446,14 +21446,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="37"/>
-      <c r="D29" s="467"/>
-      <c r="E29" s="449"/>
-      <c r="F29" s="449"/>
-      <c r="G29" s="449"/>
-      <c r="H29" s="468"/>
-      <c r="I29" s="471"/>
-      <c r="J29" s="467"/>
-      <c r="K29" s="468"/>
+      <c r="D29" s="470"/>
+      <c r="E29" s="451"/>
+      <c r="F29" s="451"/>
+      <c r="G29" s="451"/>
+      <c r="H29" s="471"/>
+      <c r="I29" s="474"/>
+      <c r="J29" s="470"/>
+      <c r="K29" s="471"/>
       <c r="L29" s="116" t="s">
         <v>464</v>
       </c>
@@ -21501,13 +21501,13 @@
       <c r="C33" s="113">
         <v>43908</v>
       </c>
-      <c r="D33" s="426" t="s">
+      <c r="D33" s="428" t="s">
         <v>454</v>
       </c>
-      <c r="E33" s="426"/>
-      <c r="F33" s="426"/>
-      <c r="G33" s="426"/>
-      <c r="H33" s="426"/>
+      <c r="E33" s="428"/>
+      <c r="F33" s="428"/>
+      <c r="G33" s="428"/>
+      <c r="H33" s="428"/>
       <c r="I33" s="37" t="s">
         <v>455</v>
       </c>
@@ -21518,33 +21518,33 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="472">
+      <c r="C34" s="464">
         <v>43909</v>
       </c>
-      <c r="D34" s="426"/>
-      <c r="E34" s="426"/>
-      <c r="F34" s="426"/>
-      <c r="G34" s="426"/>
-      <c r="H34" s="426"/>
-      <c r="I34" s="473"/>
-      <c r="J34" s="426"/>
-      <c r="K34" s="426"/>
-      <c r="L34" s="426" t="s">
+      <c r="D34" s="428"/>
+      <c r="E34" s="428"/>
+      <c r="F34" s="428"/>
+      <c r="G34" s="428"/>
+      <c r="H34" s="428"/>
+      <c r="I34" s="475"/>
+      <c r="J34" s="428"/>
+      <c r="K34" s="428"/>
+      <c r="L34" s="428" t="s">
         <v>457</v>
       </c>
-      <c r="M34" s="426"/>
-      <c r="N34" s="426"/>
+      <c r="M34" s="428"/>
+      <c r="N34" s="428"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="472"/>
-      <c r="D35" s="426"/>
-      <c r="E35" s="426"/>
-      <c r="F35" s="426"/>
-      <c r="G35" s="426"/>
-      <c r="H35" s="426"/>
-      <c r="I35" s="474"/>
-      <c r="J35" s="426"/>
-      <c r="K35" s="426"/>
+      <c r="C35" s="464"/>
+      <c r="D35" s="428"/>
+      <c r="E35" s="428"/>
+      <c r="F35" s="428"/>
+      <c r="G35" s="428"/>
+      <c r="H35" s="428"/>
+      <c r="I35" s="476"/>
+      <c r="J35" s="428"/>
+      <c r="K35" s="428"/>
       <c r="L35" s="114" t="s">
         <v>459</v>
       </c>
@@ -21552,31 +21552,31 @@
       <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="472"/>
-      <c r="D36" s="426"/>
-      <c r="E36" s="426"/>
-      <c r="F36" s="426"/>
-      <c r="G36" s="426"/>
-      <c r="H36" s="426"/>
-      <c r="I36" s="474"/>
-      <c r="J36" s="426"/>
-      <c r="K36" s="426"/>
-      <c r="L36" s="426" t="s">
+      <c r="C36" s="464"/>
+      <c r="D36" s="428"/>
+      <c r="E36" s="428"/>
+      <c r="F36" s="428"/>
+      <c r="G36" s="428"/>
+      <c r="H36" s="428"/>
+      <c r="I36" s="476"/>
+      <c r="J36" s="428"/>
+      <c r="K36" s="428"/>
+      <c r="L36" s="428" t="s">
         <v>460</v>
       </c>
-      <c r="M36" s="426"/>
-      <c r="N36" s="426"/>
+      <c r="M36" s="428"/>
+      <c r="N36" s="428"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="472"/>
-      <c r="D37" s="426"/>
-      <c r="E37" s="426"/>
-      <c r="F37" s="426"/>
-      <c r="G37" s="426"/>
-      <c r="H37" s="426"/>
-      <c r="I37" s="475"/>
-      <c r="J37" s="426"/>
-      <c r="K37" s="426"/>
+      <c r="C37" s="464"/>
+      <c r="D37" s="428"/>
+      <c r="E37" s="428"/>
+      <c r="F37" s="428"/>
+      <c r="G37" s="428"/>
+      <c r="H37" s="428"/>
+      <c r="I37" s="477"/>
+      <c r="J37" s="428"/>
+      <c r="K37" s="428"/>
       <c r="L37" s="115" t="s">
         <v>465</v>
       </c>
@@ -21587,13 +21587,13 @@
       <c r="C38" s="113">
         <v>43910</v>
       </c>
-      <c r="D38" s="426" t="s">
+      <c r="D38" s="428" t="s">
         <v>461</v>
       </c>
-      <c r="E38" s="426"/>
-      <c r="F38" s="426"/>
-      <c r="G38" s="426"/>
-      <c r="H38" s="426"/>
+      <c r="E38" s="428"/>
+      <c r="F38" s="428"/>
+      <c r="G38" s="428"/>
+      <c r="H38" s="428"/>
       <c r="I38" s="37" t="s">
         <v>462</v>
       </c>
@@ -21607,14 +21607,14 @@
       <c r="C39" s="113">
         <v>43911</v>
       </c>
-      <c r="D39" s="462"/>
-      <c r="E39" s="463"/>
-      <c r="F39" s="463"/>
-      <c r="G39" s="463"/>
-      <c r="H39" s="464"/>
-      <c r="I39" s="469"/>
-      <c r="J39" s="462"/>
-      <c r="K39" s="464"/>
+      <c r="D39" s="465"/>
+      <c r="E39" s="466"/>
+      <c r="F39" s="466"/>
+      <c r="G39" s="466"/>
+      <c r="H39" s="467"/>
+      <c r="I39" s="472"/>
+      <c r="J39" s="465"/>
+      <c r="K39" s="467"/>
       <c r="L39" s="114" t="s">
         <v>459</v>
       </c>
@@ -21623,30 +21623,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="37"/>
-      <c r="D40" s="465"/>
-      <c r="E40" s="461"/>
-      <c r="F40" s="461"/>
-      <c r="G40" s="461"/>
-      <c r="H40" s="466"/>
-      <c r="I40" s="470"/>
-      <c r="J40" s="465"/>
-      <c r="K40" s="466"/>
-      <c r="L40" s="426" t="s">
+      <c r="D40" s="468"/>
+      <c r="E40" s="459"/>
+      <c r="F40" s="459"/>
+      <c r="G40" s="459"/>
+      <c r="H40" s="469"/>
+      <c r="I40" s="473"/>
+      <c r="J40" s="468"/>
+      <c r="K40" s="469"/>
+      <c r="L40" s="428" t="s">
         <v>463</v>
       </c>
-      <c r="M40" s="426"/>
-      <c r="N40" s="426"/>
+      <c r="M40" s="428"/>
+      <c r="N40" s="428"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="37"/>
-      <c r="D41" s="465"/>
-      <c r="E41" s="461"/>
-      <c r="F41" s="461"/>
-      <c r="G41" s="461"/>
-      <c r="H41" s="466"/>
-      <c r="I41" s="471"/>
-      <c r="J41" s="465"/>
-      <c r="K41" s="466"/>
+      <c r="D41" s="468"/>
+      <c r="E41" s="459"/>
+      <c r="F41" s="459"/>
+      <c r="G41" s="459"/>
+      <c r="H41" s="469"/>
+      <c r="I41" s="474"/>
+      <c r="J41" s="468"/>
+      <c r="K41" s="469"/>
       <c r="L41" s="115" t="s">
         <v>465</v>
       </c>
@@ -21655,16 +21655,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="37"/>
-      <c r="D42" s="467"/>
-      <c r="E42" s="449"/>
-      <c r="F42" s="449"/>
-      <c r="G42" s="449"/>
-      <c r="H42" s="468"/>
+      <c r="D42" s="470"/>
+      <c r="E42" s="451"/>
+      <c r="F42" s="451"/>
+      <c r="G42" s="451"/>
+      <c r="H42" s="471"/>
       <c r="I42" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J42" s="467"/>
-      <c r="K42" s="468"/>
+      <c r="J42" s="470"/>
+      <c r="K42" s="471"/>
       <c r="L42" s="116" t="s">
         <v>464</v>
       </c>
@@ -21976,12 +21976,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -21989,17 +21994,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22009,8 +22009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:X155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22021,29 +22021,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="496" t="s">
+      <c r="B2" s="488" t="s">
         <v>1090</v>
       </c>
-      <c r="C2" s="496"/>
-      <c r="D2" s="496"/>
-      <c r="E2" s="496"/>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="496"/>
-      <c r="I2" s="496"/>
-      <c r="J2" s="496"/>
-      <c r="K2" s="496"/>
-      <c r="L2" s="496"/>
-      <c r="M2" s="496"/>
-      <c r="N2" s="496"/>
-      <c r="O2" s="496"/>
-      <c r="P2" s="496"/>
-      <c r="Q2" s="496"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="496"/>
-      <c r="T2" s="496"/>
-      <c r="U2" s="496"/>
-      <c r="V2" s="496"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
+      <c r="K2" s="488"/>
+      <c r="L2" s="488"/>
+      <c r="M2" s="488"/>
+      <c r="N2" s="488"/>
+      <c r="O2" s="488"/>
+      <c r="P2" s="488"/>
+      <c r="Q2" s="488"/>
+      <c r="R2" s="488"/>
+      <c r="S2" s="488"/>
+      <c r="T2" s="488"/>
+      <c r="U2" s="488"/>
+      <c r="V2" s="488"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -22076,22 +22076,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="476" t="s">
+      <c r="G5" s="491" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="476"/>
-      <c r="I5" s="476" t="s">
+      <c r="H5" s="491"/>
+      <c r="I5" s="491" t="s">
         <v>517</v>
       </c>
-      <c r="J5" s="476"/>
-      <c r="K5" s="476"/>
-      <c r="L5" s="476"/>
-      <c r="M5" s="476"/>
-      <c r="N5" s="476"/>
-      <c r="O5" s="476" t="s">
+      <c r="J5" s="491"/>
+      <c r="K5" s="491"/>
+      <c r="L5" s="491"/>
+      <c r="M5" s="491"/>
+      <c r="N5" s="491"/>
+      <c r="O5" s="491" t="s">
         <v>518</v>
       </c>
-      <c r="P5" s="476"/>
+      <c r="P5" s="491"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -22103,7 +22103,7 @@
       <c r="D6" s="132"/>
       <c r="E6" s="133"/>
       <c r="F6" s="135"/>
-      <c r="G6" s="477" t="s">
+      <c r="G6" s="496" t="s">
         <v>519</v>
       </c>
       <c r="H6" s="108"/>
@@ -22132,26 +22132,26 @@
       </c>
       <c r="E7" s="135"/>
       <c r="F7" s="135"/>
-      <c r="G7" s="478"/>
-      <c r="H7" s="480" t="s">
+      <c r="G7" s="497"/>
+      <c r="H7" s="499" t="s">
         <v>521</v>
       </c>
-      <c r="I7" s="425" t="s">
+      <c r="I7" s="427" t="s">
         <v>522</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="484" t="s">
+      <c r="J7" s="502"/>
+      <c r="K7" s="503" t="s">
         <v>523</v>
       </c>
-      <c r="L7" s="485"/>
-      <c r="M7" s="425" t="s">
+      <c r="L7" s="504"/>
+      <c r="M7" s="427" t="s">
         <v>524</v>
       </c>
-      <c r="N7" s="483"/>
-      <c r="O7" s="490" t="s">
+      <c r="N7" s="502"/>
+      <c r="O7" s="509" t="s">
         <v>525</v>
       </c>
-      <c r="P7" s="491"/>
+      <c r="P7" s="510"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -22163,16 +22163,16 @@
       <c r="D8" s="136"/>
       <c r="E8" s="137"/>
       <c r="F8" s="135"/>
-      <c r="G8" s="478"/>
-      <c r="H8" s="481"/>
-      <c r="I8" s="403"/>
-      <c r="J8" s="405"/>
-      <c r="K8" s="486"/>
-      <c r="L8" s="487"/>
-      <c r="M8" s="403"/>
-      <c r="N8" s="405"/>
-      <c r="O8" s="492"/>
-      <c r="P8" s="493"/>
+      <c r="G8" s="497"/>
+      <c r="H8" s="500"/>
+      <c r="I8" s="405"/>
+      <c r="J8" s="407"/>
+      <c r="K8" s="505"/>
+      <c r="L8" s="506"/>
+      <c r="M8" s="405"/>
+      <c r="N8" s="407"/>
+      <c r="O8" s="511"/>
+      <c r="P8" s="512"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="37" t="s">
         <v>181</v>
@@ -22190,16 +22190,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="478"/>
-      <c r="H9" s="481"/>
-      <c r="I9" s="403"/>
-      <c r="J9" s="405"/>
-      <c r="K9" s="486"/>
-      <c r="L9" s="487"/>
-      <c r="M9" s="403"/>
-      <c r="N9" s="405"/>
-      <c r="O9" s="492"/>
-      <c r="P9" s="493"/>
+      <c r="G9" s="497"/>
+      <c r="H9" s="500"/>
+      <c r="I9" s="405"/>
+      <c r="J9" s="407"/>
+      <c r="K9" s="505"/>
+      <c r="L9" s="506"/>
+      <c r="M9" s="405"/>
+      <c r="N9" s="407"/>
+      <c r="O9" s="511"/>
+      <c r="P9" s="512"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -22219,16 +22219,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="478"/>
-      <c r="H10" s="481"/>
-      <c r="I10" s="403"/>
-      <c r="J10" s="405"/>
-      <c r="K10" s="486"/>
-      <c r="L10" s="487"/>
-      <c r="M10" s="403"/>
-      <c r="N10" s="405"/>
-      <c r="O10" s="492"/>
-      <c r="P10" s="493"/>
+      <c r="G10" s="497"/>
+      <c r="H10" s="500"/>
+      <c r="I10" s="405"/>
+      <c r="J10" s="407"/>
+      <c r="K10" s="505"/>
+      <c r="L10" s="506"/>
+      <c r="M10" s="405"/>
+      <c r="N10" s="407"/>
+      <c r="O10" s="511"/>
+      <c r="P10" s="512"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -22244,16 +22244,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="478"/>
-      <c r="H11" s="481"/>
-      <c r="I11" s="403"/>
-      <c r="J11" s="405"/>
-      <c r="K11" s="486"/>
-      <c r="L11" s="487"/>
-      <c r="M11" s="403"/>
-      <c r="N11" s="405"/>
-      <c r="O11" s="492"/>
-      <c r="P11" s="493"/>
+      <c r="G11" s="497"/>
+      <c r="H11" s="500"/>
+      <c r="I11" s="405"/>
+      <c r="J11" s="407"/>
+      <c r="K11" s="505"/>
+      <c r="L11" s="506"/>
+      <c r="M11" s="405"/>
+      <c r="N11" s="407"/>
+      <c r="O11" s="511"/>
+      <c r="P11" s="512"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -22271,16 +22271,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="478"/>
-      <c r="H12" s="481"/>
-      <c r="I12" s="403"/>
-      <c r="J12" s="405"/>
-      <c r="K12" s="486"/>
-      <c r="L12" s="487"/>
-      <c r="M12" s="403"/>
-      <c r="N12" s="405"/>
-      <c r="O12" s="492"/>
-      <c r="P12" s="493"/>
+      <c r="G12" s="497"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="405"/>
+      <c r="J12" s="407"/>
+      <c r="K12" s="505"/>
+      <c r="L12" s="506"/>
+      <c r="M12" s="405"/>
+      <c r="N12" s="407"/>
+      <c r="O12" s="511"/>
+      <c r="P12" s="512"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -22294,16 +22294,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="478"/>
-      <c r="H13" s="481"/>
-      <c r="I13" s="403"/>
-      <c r="J13" s="405"/>
-      <c r="K13" s="486"/>
-      <c r="L13" s="487"/>
-      <c r="M13" s="403"/>
-      <c r="N13" s="405"/>
-      <c r="O13" s="492"/>
-      <c r="P13" s="493"/>
+      <c r="G13" s="497"/>
+      <c r="H13" s="500"/>
+      <c r="I13" s="405"/>
+      <c r="J13" s="407"/>
+      <c r="K13" s="505"/>
+      <c r="L13" s="506"/>
+      <c r="M13" s="405"/>
+      <c r="N13" s="407"/>
+      <c r="O13" s="511"/>
+      <c r="P13" s="512"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -22315,16 +22315,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="478"/>
-      <c r="H14" s="481"/>
-      <c r="I14" s="403"/>
-      <c r="J14" s="405"/>
-      <c r="K14" s="486"/>
-      <c r="L14" s="487"/>
-      <c r="M14" s="403"/>
-      <c r="N14" s="405"/>
-      <c r="O14" s="492"/>
-      <c r="P14" s="493"/>
+      <c r="G14" s="497"/>
+      <c r="H14" s="500"/>
+      <c r="I14" s="405"/>
+      <c r="J14" s="407"/>
+      <c r="K14" s="505"/>
+      <c r="L14" s="506"/>
+      <c r="M14" s="405"/>
+      <c r="N14" s="407"/>
+      <c r="O14" s="511"/>
+      <c r="P14" s="512"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -22338,16 +22338,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="478"/>
-      <c r="H15" s="481"/>
-      <c r="I15" s="403"/>
-      <c r="J15" s="405"/>
-      <c r="K15" s="486"/>
-      <c r="L15" s="487"/>
-      <c r="M15" s="403"/>
-      <c r="N15" s="405"/>
-      <c r="O15" s="492"/>
-      <c r="P15" s="493"/>
+      <c r="G15" s="497"/>
+      <c r="H15" s="500"/>
+      <c r="I15" s="405"/>
+      <c r="J15" s="407"/>
+      <c r="K15" s="505"/>
+      <c r="L15" s="506"/>
+      <c r="M15" s="405"/>
+      <c r="N15" s="407"/>
+      <c r="O15" s="511"/>
+      <c r="P15" s="512"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -22359,16 +22359,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="478"/>
-      <c r="H16" s="481"/>
-      <c r="I16" s="403"/>
-      <c r="J16" s="405"/>
-      <c r="K16" s="486"/>
-      <c r="L16" s="487"/>
-      <c r="M16" s="403"/>
-      <c r="N16" s="405"/>
-      <c r="O16" s="492"/>
-      <c r="P16" s="493"/>
+      <c r="G16" s="497"/>
+      <c r="H16" s="500"/>
+      <c r="I16" s="405"/>
+      <c r="J16" s="407"/>
+      <c r="K16" s="505"/>
+      <c r="L16" s="506"/>
+      <c r="M16" s="405"/>
+      <c r="N16" s="407"/>
+      <c r="O16" s="511"/>
+      <c r="P16" s="512"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -22380,16 +22380,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="478"/>
-      <c r="H17" s="481"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="405"/>
-      <c r="K17" s="486"/>
-      <c r="L17" s="487"/>
-      <c r="M17" s="403"/>
-      <c r="N17" s="405"/>
-      <c r="O17" s="492"/>
-      <c r="P17" s="493"/>
+      <c r="G17" s="497"/>
+      <c r="H17" s="500"/>
+      <c r="I17" s="405"/>
+      <c r="J17" s="407"/>
+      <c r="K17" s="505"/>
+      <c r="L17" s="506"/>
+      <c r="M17" s="405"/>
+      <c r="N17" s="407"/>
+      <c r="O17" s="511"/>
+      <c r="P17" s="512"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -22401,16 +22401,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="478"/>
-      <c r="H18" s="481"/>
-      <c r="I18" s="403"/>
-      <c r="J18" s="405"/>
-      <c r="K18" s="486"/>
-      <c r="L18" s="487"/>
-      <c r="M18" s="403"/>
-      <c r="N18" s="405"/>
-      <c r="O18" s="492"/>
-      <c r="P18" s="493"/>
+      <c r="G18" s="497"/>
+      <c r="H18" s="500"/>
+      <c r="I18" s="405"/>
+      <c r="J18" s="407"/>
+      <c r="K18" s="505"/>
+      <c r="L18" s="506"/>
+      <c r="M18" s="405"/>
+      <c r="N18" s="407"/>
+      <c r="O18" s="511"/>
+      <c r="P18" s="512"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -22424,16 +22424,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="478"/>
-      <c r="H19" s="481"/>
-      <c r="I19" s="403"/>
-      <c r="J19" s="405"/>
-      <c r="K19" s="486"/>
-      <c r="L19" s="487"/>
-      <c r="M19" s="403"/>
-      <c r="N19" s="405"/>
-      <c r="O19" s="492"/>
-      <c r="P19" s="493"/>
+      <c r="G19" s="497"/>
+      <c r="H19" s="500"/>
+      <c r="I19" s="405"/>
+      <c r="J19" s="407"/>
+      <c r="K19" s="505"/>
+      <c r="L19" s="506"/>
+      <c r="M19" s="405"/>
+      <c r="N19" s="407"/>
+      <c r="O19" s="511"/>
+      <c r="P19" s="512"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -22445,16 +22445,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="479"/>
-      <c r="H20" s="482"/>
-      <c r="I20" s="417"/>
-      <c r="J20" s="419"/>
-      <c r="K20" s="488"/>
-      <c r="L20" s="489"/>
-      <c r="M20" s="417"/>
-      <c r="N20" s="419"/>
-      <c r="O20" s="494"/>
-      <c r="P20" s="495"/>
+      <c r="G20" s="498"/>
+      <c r="H20" s="501"/>
+      <c r="I20" s="419"/>
+      <c r="J20" s="421"/>
+      <c r="K20" s="507"/>
+      <c r="L20" s="508"/>
+      <c r="M20" s="419"/>
+      <c r="N20" s="421"/>
+      <c r="O20" s="513"/>
+      <c r="P20" s="514"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -22484,27 +22484,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="420" t="s">
+      <c r="D22" s="422" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="421"/>
+      <c r="E22" s="423"/>
       <c r="F22" s="261"/>
       <c r="G22" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="420" t="s">
+      <c r="H22" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="422"/>
-      <c r="J22" s="422"/>
-      <c r="K22" s="422"/>
-      <c r="L22" s="422"/>
-      <c r="M22" s="422"/>
-      <c r="N22" s="421"/>
-      <c r="O22" s="420" t="s">
+      <c r="I22" s="424"/>
+      <c r="J22" s="424"/>
+      <c r="K22" s="424"/>
+      <c r="L22" s="424"/>
+      <c r="M22" s="424"/>
+      <c r="N22" s="423"/>
+      <c r="O22" s="422" t="s">
         <v>526</v>
       </c>
-      <c r="P22" s="421"/>
+      <c r="P22" s="423"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -22535,59 +22535,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="496" t="s">
+      <c r="B25" s="488" t="s">
         <v>1089</v>
       </c>
-      <c r="C25" s="496"/>
-      <c r="D25" s="496"/>
-      <c r="E25" s="496"/>
-      <c r="F25" s="496"/>
-      <c r="G25" s="496"/>
-      <c r="H25" s="496"/>
-      <c r="I25" s="496"/>
-      <c r="J25" s="496"/>
-      <c r="K25" s="496"/>
-      <c r="L25" s="496"/>
-      <c r="M25" s="496"/>
-      <c r="N25" s="496"/>
-      <c r="O25" s="496"/>
-      <c r="P25" s="496"/>
-      <c r="Q25" s="496"/>
-      <c r="R25" s="496"/>
-      <c r="S25" s="496"/>
-      <c r="T25" s="496"/>
-      <c r="U25" s="496"/>
-      <c r="V25" s="496"/>
+      <c r="C25" s="488"/>
+      <c r="D25" s="488"/>
+      <c r="E25" s="488"/>
+      <c r="F25" s="488"/>
+      <c r="G25" s="488"/>
+      <c r="H25" s="488"/>
+      <c r="I25" s="488"/>
+      <c r="J25" s="488"/>
+      <c r="K25" s="488"/>
+      <c r="L25" s="488"/>
+      <c r="M25" s="488"/>
+      <c r="N25" s="488"/>
+      <c r="O25" s="488"/>
+      <c r="P25" s="488"/>
+      <c r="Q25" s="488"/>
+      <c r="R25" s="488"/>
+      <c r="S25" s="488"/>
+      <c r="T25" s="488"/>
+      <c r="U25" s="488"/>
+      <c r="V25" s="488"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="497" t="s">
+      <c r="C26" s="489" t="s">
         <v>568</v>
       </c>
-      <c r="D26" s="497"/>
-      <c r="E26" s="497"/>
-      <c r="F26" s="497"/>
-      <c r="G26" s="497"/>
-      <c r="H26" s="497"/>
-      <c r="I26" s="497"/>
-      <c r="J26" s="497"/>
-      <c r="K26" s="497"/>
-      <c r="L26" s="497"/>
-      <c r="M26" s="497"/>
+      <c r="D26" s="489"/>
+      <c r="E26" s="489"/>
+      <c r="F26" s="489"/>
+      <c r="G26" s="489"/>
+      <c r="H26" s="489"/>
+      <c r="I26" s="489"/>
+      <c r="J26" s="489"/>
+      <c r="K26" s="489"/>
+      <c r="L26" s="489"/>
+      <c r="M26" s="489"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="451" t="s">
+      <c r="E27" s="460" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="397"/>
-      <c r="G27" s="397"/>
-      <c r="H27" s="410"/>
-      <c r="I27" s="410"/>
-      <c r="J27" s="410"/>
-      <c r="K27" s="410"/>
-      <c r="L27" s="410"/>
-      <c r="M27" s="411"/>
+      <c r="F27" s="399"/>
+      <c r="G27" s="399"/>
+      <c r="H27" s="412"/>
+      <c r="I27" s="412"/>
+      <c r="J27" s="412"/>
+      <c r="K27" s="412"/>
+      <c r="L27" s="412"/>
+      <c r="M27" s="413"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -22620,11 +22620,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="498" t="s">
+      <c r="O29" s="490" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="498"/>
-      <c r="Q29" s="498"/>
+      <c r="P29" s="490"/>
+      <c r="Q29" s="490"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -22669,21 +22669,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="502" t="s">
+      <c r="E32" s="485" t="s">
         <v>1093</v>
       </c>
-      <c r="F32" s="503"/>
-      <c r="G32" s="504"/>
-      <c r="H32" s="502" t="s">
+      <c r="F32" s="486"/>
+      <c r="G32" s="487"/>
+      <c r="H32" s="485" t="s">
         <v>1094</v>
       </c>
-      <c r="I32" s="503"/>
-      <c r="J32" s="504"/>
-      <c r="K32" s="502" t="s">
+      <c r="I32" s="486"/>
+      <c r="J32" s="487"/>
+      <c r="K32" s="485" t="s">
         <v>1095</v>
       </c>
-      <c r="L32" s="503"/>
-      <c r="M32" s="504"/>
+      <c r="L32" s="486"/>
+      <c r="M32" s="487"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -22700,15 +22700,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="502"/>
-      <c r="F33" s="503"/>
-      <c r="G33" s="504"/>
-      <c r="H33" s="502"/>
-      <c r="I33" s="503"/>
-      <c r="J33" s="504"/>
-      <c r="K33" s="502"/>
-      <c r="L33" s="503"/>
-      <c r="M33" s="504"/>
+      <c r="E33" s="485"/>
+      <c r="F33" s="486"/>
+      <c r="G33" s="487"/>
+      <c r="H33" s="485"/>
+      <c r="I33" s="486"/>
+      <c r="J33" s="487"/>
+      <c r="K33" s="485"/>
+      <c r="L33" s="486"/>
+      <c r="M33" s="487"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -22725,15 +22725,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="502"/>
-      <c r="F34" s="503"/>
-      <c r="G34" s="504"/>
-      <c r="H34" s="502"/>
-      <c r="I34" s="503"/>
-      <c r="J34" s="504"/>
-      <c r="K34" s="502"/>
-      <c r="L34" s="503"/>
-      <c r="M34" s="504"/>
+      <c r="E34" s="485"/>
+      <c r="F34" s="486"/>
+      <c r="G34" s="487"/>
+      <c r="H34" s="485"/>
+      <c r="I34" s="486"/>
+      <c r="J34" s="487"/>
+      <c r="K34" s="485"/>
+      <c r="L34" s="486"/>
+      <c r="M34" s="487"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -22744,15 +22744,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="502"/>
-      <c r="F35" s="503"/>
-      <c r="G35" s="504"/>
-      <c r="H35" s="502"/>
-      <c r="I35" s="503"/>
-      <c r="J35" s="504"/>
-      <c r="K35" s="502"/>
-      <c r="L35" s="503"/>
-      <c r="M35" s="504"/>
+      <c r="E35" s="485"/>
+      <c r="F35" s="486"/>
+      <c r="G35" s="487"/>
+      <c r="H35" s="485"/>
+      <c r="I35" s="486"/>
+      <c r="J35" s="487"/>
+      <c r="K35" s="485"/>
+      <c r="L35" s="486"/>
+      <c r="M35" s="487"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -22883,15 +22883,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="506"/>
-      <c r="F42" s="507"/>
-      <c r="G42" s="507"/>
-      <c r="H42" s="507"/>
-      <c r="I42" s="507"/>
-      <c r="J42" s="507"/>
-      <c r="K42" s="507"/>
-      <c r="L42" s="507"/>
-      <c r="M42" s="508"/>
+      <c r="E42" s="478"/>
+      <c r="F42" s="479"/>
+      <c r="G42" s="479"/>
+      <c r="H42" s="479"/>
+      <c r="I42" s="479"/>
+      <c r="J42" s="479"/>
+      <c r="K42" s="479"/>
+      <c r="L42" s="479"/>
+      <c r="M42" s="480"/>
       <c r="N42" s="39" t="s">
         <v>573</v>
       </c>
@@ -22910,83 +22910,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="420" t="s">
+      <c r="C44" s="422" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="421"/>
-      <c r="E44" s="420" t="s">
+      <c r="D44" s="423"/>
+      <c r="E44" s="422" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="422"/>
-      <c r="G44" s="421"/>
-      <c r="H44" s="420" t="s">
+      <c r="F44" s="424"/>
+      <c r="G44" s="423"/>
+      <c r="H44" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="422"/>
-      <c r="J44" s="422"/>
-      <c r="K44" s="422"/>
-      <c r="L44" s="422"/>
-      <c r="M44" s="421"/>
+      <c r="I44" s="424"/>
+      <c r="J44" s="424"/>
+      <c r="K44" s="424"/>
+      <c r="L44" s="424"/>
+      <c r="M44" s="423"/>
       <c r="Q44" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="496" t="s">
+      <c r="B47" s="488" t="s">
         <v>1091</v>
       </c>
-      <c r="C47" s="496"/>
-      <c r="D47" s="496"/>
-      <c r="E47" s="496"/>
-      <c r="F47" s="496"/>
-      <c r="G47" s="496"/>
-      <c r="H47" s="496"/>
-      <c r="I47" s="496"/>
-      <c r="J47" s="496"/>
-      <c r="K47" s="496"/>
-      <c r="L47" s="496"/>
-      <c r="M47" s="496"/>
-      <c r="N47" s="496"/>
-      <c r="O47" s="496"/>
-      <c r="P47" s="496"/>
-      <c r="Q47" s="496"/>
-      <c r="R47" s="496"/>
-      <c r="S47" s="496"/>
-      <c r="T47" s="496"/>
-      <c r="U47" s="496"/>
-      <c r="V47" s="496"/>
+      <c r="C47" s="488"/>
+      <c r="D47" s="488"/>
+      <c r="E47" s="488"/>
+      <c r="F47" s="488"/>
+      <c r="G47" s="488"/>
+      <c r="H47" s="488"/>
+      <c r="I47" s="488"/>
+      <c r="J47" s="488"/>
+      <c r="K47" s="488"/>
+      <c r="L47" s="488"/>
+      <c r="M47" s="488"/>
+      <c r="N47" s="488"/>
+      <c r="O47" s="488"/>
+      <c r="P47" s="488"/>
+      <c r="Q47" s="488"/>
+      <c r="R47" s="488"/>
+      <c r="S47" s="488"/>
+      <c r="T47" s="488"/>
+      <c r="U47" s="488"/>
+      <c r="V47" s="488"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="497" t="s">
+      <c r="C48" s="489" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="497"/>
-      <c r="E48" s="497"/>
-      <c r="F48" s="497"/>
-      <c r="G48" s="497"/>
-      <c r="H48" s="497"/>
-      <c r="I48" s="497"/>
-      <c r="J48" s="497"/>
-      <c r="K48" s="497"/>
-      <c r="L48" s="497"/>
-      <c r="M48" s="497"/>
+      <c r="D48" s="489"/>
+      <c r="E48" s="489"/>
+      <c r="F48" s="489"/>
+      <c r="G48" s="489"/>
+      <c r="H48" s="489"/>
+      <c r="I48" s="489"/>
+      <c r="J48" s="489"/>
+      <c r="K48" s="489"/>
+      <c r="L48" s="489"/>
+      <c r="M48" s="489"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="451" t="s">
+      <c r="E49" s="460" t="s">
         <v>177</v>
       </c>
-      <c r="F49" s="397"/>
-      <c r="G49" s="397"/>
-      <c r="H49" s="410"/>
-      <c r="I49" s="410"/>
-      <c r="J49" s="410"/>
-      <c r="K49" s="410"/>
-      <c r="L49" s="410"/>
-      <c r="M49" s="411"/>
+      <c r="F49" s="399"/>
+      <c r="G49" s="399"/>
+      <c r="H49" s="412"/>
+      <c r="I49" s="412"/>
+      <c r="J49" s="412"/>
+      <c r="K49" s="412"/>
+      <c r="L49" s="412"/>
+      <c r="M49" s="413"/>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="17"/>
@@ -23004,16 +23004,16 @@
       </c>
       <c r="F50" s="119"/>
       <c r="G50" s="241"/>
-      <c r="H50" s="499" t="s">
+      <c r="H50" s="492" t="s">
         <v>1094</v>
       </c>
-      <c r="I50" s="500"/>
-      <c r="J50" s="501"/>
-      <c r="K50" s="499" t="s">
+      <c r="I50" s="493"/>
+      <c r="J50" s="494"/>
+      <c r="K50" s="492" t="s">
         <v>1095</v>
       </c>
-      <c r="L50" s="500"/>
-      <c r="M50" s="501"/>
+      <c r="L50" s="493"/>
+      <c r="M50" s="494"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="W50" t="s">
@@ -23027,20 +23027,20 @@
         <v>1109</v>
       </c>
       <c r="F51" s="282"/>
-      <c r="G51" s="505" t="s">
+      <c r="G51" s="495" t="s">
         <v>1117</v>
       </c>
-      <c r="H51" s="502"/>
-      <c r="I51" s="503"/>
-      <c r="J51" s="504"/>
-      <c r="K51" s="502"/>
-      <c r="L51" s="503"/>
-      <c r="M51" s="504"/>
-      <c r="O51" s="498" t="s">
+      <c r="H51" s="485"/>
+      <c r="I51" s="486"/>
+      <c r="J51" s="487"/>
+      <c r="K51" s="485"/>
+      <c r="L51" s="486"/>
+      <c r="M51" s="487"/>
+      <c r="O51" s="490" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="498"/>
-      <c r="Q51" s="498"/>
+      <c r="P51" s="490"/>
+      <c r="Q51" s="490"/>
       <c r="S51" s="269"/>
       <c r="T51" s="269"/>
       <c r="W51" s="39" t="s">
@@ -23054,13 +23054,13 @@
         <v>1110</v>
       </c>
       <c r="F52" s="283"/>
-      <c r="G52" s="505"/>
-      <c r="H52" s="502"/>
-      <c r="I52" s="503"/>
-      <c r="J52" s="504"/>
-      <c r="K52" s="502"/>
-      <c r="L52" s="503"/>
-      <c r="M52" s="504"/>
+      <c r="G52" s="495"/>
+      <c r="H52" s="485"/>
+      <c r="I52" s="486"/>
+      <c r="J52" s="487"/>
+      <c r="K52" s="485"/>
+      <c r="L52" s="486"/>
+      <c r="M52" s="487"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
     </row>
@@ -23071,13 +23071,13 @@
         <v>1111</v>
       </c>
       <c r="F53" s="284"/>
-      <c r="G53" s="505"/>
-      <c r="H53" s="502"/>
-      <c r="I53" s="503"/>
-      <c r="J53" s="504"/>
-      <c r="K53" s="502"/>
-      <c r="L53" s="503"/>
-      <c r="M53" s="504"/>
+      <c r="G53" s="495"/>
+      <c r="H53" s="485"/>
+      <c r="I53" s="486"/>
+      <c r="J53" s="487"/>
+      <c r="K53" s="485"/>
+      <c r="L53" s="486"/>
+      <c r="M53" s="487"/>
       <c r="N53" s="5"/>
       <c r="O53" s="37" t="s">
         <v>181</v>
@@ -23116,7 +23116,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="270"/>
       <c r="F54" s="285"/>
-      <c r="G54" s="511" t="s">
+      <c r="G54" s="483" t="s">
         <v>1121</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -23163,11 +23163,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="509" t="s">
+      <c r="E55" s="481" t="s">
         <v>1122</v>
       </c>
-      <c r="F55" s="510"/>
-      <c r="G55" s="512"/>
+      <c r="F55" s="482"/>
+      <c r="G55" s="484"/>
       <c r="H55" s="138" t="s">
         <v>1113</v>
       </c>
@@ -23211,9 +23211,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="509"/>
-      <c r="F56" s="510"/>
-      <c r="G56" s="512"/>
+      <c r="E56" s="481"/>
+      <c r="F56" s="482"/>
+      <c r="G56" s="484"/>
       <c r="H56" s="138" t="s">
         <v>1114</v>
       </c>
@@ -23243,9 +23243,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="509"/>
-      <c r="F57" s="510"/>
-      <c r="G57" s="512"/>
+      <c r="E57" s="481"/>
+      <c r="F57" s="482"/>
+      <c r="G57" s="484"/>
       <c r="H57" s="4" t="s">
         <v>1126</v>
       </c>
@@ -23275,9 +23275,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="509"/>
-      <c r="F58" s="510"/>
-      <c r="G58" s="512"/>
+      <c r="E58" s="481"/>
+      <c r="F58" s="482"/>
+      <c r="G58" s="484"/>
       <c r="H58" s="274" t="s">
         <v>1112</v>
       </c>
@@ -23302,9 +23302,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="509"/>
-      <c r="F59" s="510"/>
-      <c r="G59" s="512"/>
+      <c r="E59" s="481"/>
+      <c r="F59" s="482"/>
+      <c r="G59" s="484"/>
       <c r="H59" s="274" t="s">
         <v>547</v>
       </c>
@@ -23329,9 +23329,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="509"/>
-      <c r="F60" s="510"/>
-      <c r="G60" s="512"/>
+      <c r="E60" s="481"/>
+      <c r="F60" s="482"/>
+      <c r="G60" s="484"/>
       <c r="H60" s="276"/>
       <c r="I60" s="277" t="s">
         <v>1128</v>
@@ -23351,9 +23351,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="509"/>
-      <c r="F61" s="510"/>
-      <c r="G61" s="512"/>
+      <c r="E61" s="481"/>
+      <c r="F61" s="482"/>
+      <c r="G61" s="484"/>
       <c r="H61" s="276"/>
       <c r="I61" s="277" t="s">
         <v>1129</v>
@@ -23373,7 +23373,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="265"/>
       <c r="F62" s="281"/>
-      <c r="G62" s="512"/>
+      <c r="G62" s="484"/>
       <c r="H62" s="278"/>
       <c r="I62" s="280" t="s">
         <v>1130</v>
@@ -23415,15 +23415,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="506"/>
-      <c r="F64" s="507"/>
-      <c r="G64" s="507"/>
-      <c r="H64" s="507"/>
-      <c r="I64" s="507"/>
-      <c r="J64" s="507"/>
-      <c r="K64" s="507"/>
-      <c r="L64" s="507"/>
-      <c r="M64" s="508"/>
+      <c r="E64" s="478"/>
+      <c r="F64" s="479"/>
+      <c r="G64" s="479"/>
+      <c r="H64" s="479"/>
+      <c r="I64" s="479"/>
+      <c r="J64" s="479"/>
+      <c r="K64" s="479"/>
+      <c r="L64" s="479"/>
+      <c r="M64" s="480"/>
       <c r="N64" s="39" t="s">
         <v>573</v>
       </c>
@@ -23452,23 +23452,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="420" t="s">
+      <c r="C66" s="422" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="421"/>
-      <c r="E66" s="420" t="s">
+      <c r="D66" s="423"/>
+      <c r="E66" s="422" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="422"/>
-      <c r="G66" s="421"/>
-      <c r="H66" s="420" t="s">
+      <c r="F66" s="424"/>
+      <c r="G66" s="423"/>
+      <c r="H66" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="422"/>
-      <c r="J66" s="422"/>
-      <c r="K66" s="422"/>
-      <c r="L66" s="422"/>
-      <c r="M66" s="421"/>
+      <c r="I66" s="424"/>
+      <c r="J66" s="424"/>
+      <c r="K66" s="424"/>
+      <c r="L66" s="424"/>
+      <c r="M66" s="423"/>
       <c r="Q66" t="s">
         <v>1092</v>
       </c>
@@ -23489,23 +23489,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="426" t="s">
+      <c r="C68" s="428" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="426"/>
-      <c r="E68" s="426" t="s">
+      <c r="D68" s="428"/>
+      <c r="E68" s="428" t="s">
         <v>1377</v>
       </c>
-      <c r="F68" s="426"/>
-      <c r="G68" s="426"/>
-      <c r="H68" s="426" t="s">
+      <c r="F68" s="428"/>
+      <c r="G68" s="428"/>
+      <c r="H68" s="428" t="s">
         <v>1393</v>
       </c>
-      <c r="I68" s="426"/>
-      <c r="J68" s="426"/>
-      <c r="K68" s="426"/>
-      <c r="L68" s="426"/>
-      <c r="M68" s="426"/>
+      <c r="I68" s="428"/>
+      <c r="J68" s="428"/>
+      <c r="K68" s="428"/>
+      <c r="L68" s="428"/>
+      <c r="M68" s="428"/>
       <c r="S68" s="23"/>
       <c r="T68" s="23"/>
       <c r="U68" s="2" t="s">
@@ -24302,30 +24302,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -24342,6 +24318,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -24375,12 +24375,12 @@
       <c r="A1" t="s">
         <v>1703</v>
       </c>
-      <c r="H1" s="513" t="s">
+      <c r="H1" s="515" t="s">
         <v>1704</v>
       </c>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
-      <c r="K1" s="513"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
+      <c r="K1" s="515"/>
       <c r="M1" s="39" t="s">
         <v>1705</v>
       </c>
@@ -24398,10 +24398,10 @@
       <c r="A2" t="s">
         <v>1708</v>
       </c>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513"/>
-      <c r="J2" s="513"/>
-      <c r="K2" s="513"/>
+      <c r="H2" s="515"/>
+      <c r="I2" s="515"/>
+      <c r="J2" s="515"/>
+      <c r="K2" s="515"/>
       <c r="M2" t="s">
         <v>1137</v>
       </c>
@@ -24419,10 +24419,10 @@
       <c r="A3" t="s">
         <v>1710</v>
       </c>
-      <c r="H3" s="513"/>
-      <c r="I3" s="513"/>
-      <c r="J3" s="513"/>
-      <c r="K3" s="513"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="515"/>
+      <c r="K3" s="515"/>
       <c r="M3" t="s">
         <v>1138</v>
       </c>
@@ -24440,10 +24440,10 @@
       <c r="A4" t="s">
         <v>1768</v>
       </c>
-      <c r="H4" s="513"/>
-      <c r="I4" s="513"/>
-      <c r="J4" s="513"/>
-      <c r="K4" s="513"/>
+      <c r="H4" s="515"/>
+      <c r="I4" s="515"/>
+      <c r="J4" s="515"/>
+      <c r="K4" s="515"/>
       <c r="M4" t="s">
         <v>1403</v>
       </c>
@@ -24461,10 +24461,10 @@
       <c r="B5" t="s">
         <v>1767</v>
       </c>
-      <c r="H5" s="513"/>
-      <c r="I5" s="513"/>
-      <c r="J5" s="513"/>
-      <c r="K5" s="513"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="515"/>
+      <c r="J5" s="515"/>
+      <c r="K5" s="515"/>
       <c r="Q5" t="s">
         <v>1709</v>
       </c>
@@ -24476,10 +24476,10 @@
       <c r="A6" t="s">
         <v>1769</v>
       </c>
-      <c r="H6" s="513"/>
-      <c r="I6" s="513"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="513"/>
+      <c r="H6" s="515"/>
+      <c r="I6" s="515"/>
+      <c r="J6" s="515"/>
+      <c r="K6" s="515"/>
       <c r="Q6" t="s">
         <v>1711</v>
       </c>
@@ -24488,10 +24488,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="H7" s="513"/>
-      <c r="I7" s="513"/>
-      <c r="J7" s="513"/>
-      <c r="K7" s="513"/>
+      <c r="H7" s="515"/>
+      <c r="I7" s="515"/>
+      <c r="J7" s="515"/>
+      <c r="K7" s="515"/>
       <c r="Q7" t="s">
         <v>1712</v>
       </c>
@@ -24500,12 +24500,12 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="H9" s="513" t="s">
+      <c r="H9" s="515" t="s">
         <v>1713</v>
       </c>
-      <c r="I9" s="513"/>
-      <c r="J9" s="513"/>
-      <c r="K9" s="513"/>
+      <c r="I9" s="515"/>
+      <c r="J9" s="515"/>
+      <c r="K9" s="515"/>
       <c r="M9" t="s">
         <v>1714</v>
       </c>
@@ -24514,10 +24514,10 @@
       <c r="A10" t="s">
         <v>1715</v>
       </c>
-      <c r="H10" s="513"/>
-      <c r="I10" s="513"/>
-      <c r="J10" s="513"/>
-      <c r="K10" s="513"/>
+      <c r="H10" s="515"/>
+      <c r="I10" s="515"/>
+      <c r="J10" s="515"/>
+      <c r="K10" s="515"/>
       <c r="M10" t="s">
         <v>1716</v>
       </c>
@@ -24526,10 +24526,10 @@
       <c r="A11" t="s">
         <v>1717</v>
       </c>
-      <c r="H11" s="513"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="513"/>
-      <c r="K11" s="513"/>
+      <c r="H11" s="515"/>
+      <c r="I11" s="515"/>
+      <c r="J11" s="515"/>
+      <c r="K11" s="515"/>
       <c r="M11" t="s">
         <v>1718</v>
       </c>
@@ -24538,19 +24538,19 @@
       <c r="A12" t="s">
         <v>1719</v>
       </c>
-      <c r="H12" s="513"/>
-      <c r="I12" s="513"/>
-      <c r="J12" s="513"/>
-      <c r="K12" s="513"/>
+      <c r="H12" s="515"/>
+      <c r="I12" s="515"/>
+      <c r="J12" s="515"/>
+      <c r="K12" s="515"/>
       <c r="M12" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
-      <c r="K13" s="513"/>
+      <c r="H13" s="515"/>
+      <c r="I13" s="515"/>
+      <c r="J13" s="515"/>
+      <c r="K13" s="515"/>
       <c r="M13" t="s">
         <v>1721</v>
       </c>
@@ -24567,11 +24567,11 @@
       <c r="A16" t="s">
         <v>1724</v>
       </c>
-      <c r="I16" s="513" t="s">
+      <c r="I16" s="515" t="s">
         <v>1725</v>
       </c>
-      <c r="J16" s="513"/>
-      <c r="K16" s="513"/>
+      <c r="J16" s="515"/>
+      <c r="K16" s="515"/>
       <c r="M16" t="s">
         <v>1726</v>
       </c>
@@ -24583,9 +24583,9 @@
       <c r="A17" t="s">
         <v>1727</v>
       </c>
-      <c r="I17" s="513"/>
-      <c r="J17" s="513"/>
-      <c r="K17" s="513"/>
+      <c r="I17" s="515"/>
+      <c r="J17" s="515"/>
+      <c r="K17" s="515"/>
       <c r="M17" t="s">
         <v>1728</v>
       </c>
@@ -24597,9 +24597,9 @@
       <c r="A18" t="s">
         <v>1729</v>
       </c>
-      <c r="I18" s="513"/>
-      <c r="J18" s="513"/>
-      <c r="K18" s="513"/>
+      <c r="I18" s="515"/>
+      <c r="J18" s="515"/>
+      <c r="K18" s="515"/>
       <c r="M18" t="s">
         <v>1730</v>
       </c>
@@ -24608,24 +24608,24 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="I19" s="513"/>
-      <c r="J19" s="513"/>
-      <c r="K19" s="513"/>
+      <c r="I19" s="515"/>
+      <c r="J19" s="515"/>
+      <c r="K19" s="515"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="I20" s="513"/>
-      <c r="J20" s="513"/>
-      <c r="K20" s="513"/>
+      <c r="I20" s="515"/>
+      <c r="J20" s="515"/>
+      <c r="K20" s="515"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>1731</v>
       </c>
-      <c r="I22" s="513" t="s">
+      <c r="I22" s="515" t="s">
         <v>1732</v>
       </c>
-      <c r="J22" s="513"/>
-      <c r="K22" s="513"/>
+      <c r="J22" s="515"/>
+      <c r="K22" s="515"/>
       <c r="N22" s="39" t="s">
         <v>1733</v>
       </c>
@@ -24637,9 +24637,9 @@
       <c r="A23" t="s">
         <v>1734</v>
       </c>
-      <c r="I23" s="513"/>
-      <c r="J23" s="513"/>
-      <c r="K23" s="513"/>
+      <c r="I23" s="515"/>
+      <c r="J23" s="515"/>
+      <c r="K23" s="515"/>
       <c r="M23">
         <v>0</v>
       </c>
@@ -24651,9 +24651,9 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="I24" s="513"/>
-      <c r="J24" s="513"/>
-      <c r="K24" s="513"/>
+      <c r="I24" s="515"/>
+      <c r="J24" s="515"/>
+      <c r="K24" s="515"/>
       <c r="M24">
         <v>1</v>
       </c>
@@ -24665,9 +24665,9 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="I25" s="513"/>
-      <c r="J25" s="513"/>
-      <c r="K25" s="513"/>
+      <c r="I25" s="515"/>
+      <c r="J25" s="515"/>
+      <c r="K25" s="515"/>
       <c r="M25">
         <v>2</v>
       </c>
@@ -24679,9 +24679,9 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="I26" s="513"/>
-      <c r="J26" s="513"/>
-      <c r="K26" s="513"/>
+      <c r="I26" s="515"/>
+      <c r="J26" s="515"/>
+      <c r="K26" s="515"/>
       <c r="M26">
         <v>3</v>
       </c>
@@ -24690,9 +24690,9 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="I27" s="513"/>
-      <c r="J27" s="513"/>
-      <c r="K27" s="513"/>
+      <c r="I27" s="515"/>
+      <c r="J27" s="515"/>
+      <c r="K27" s="515"/>
       <c r="M27">
         <v>4</v>
       </c>
@@ -24779,24 +24779,24 @@
         <v>758</v>
       </c>
       <c r="B38" s="181"/>
-      <c r="C38" s="554"/>
+      <c r="C38" s="396"/>
       <c r="D38" s="36"/>
       <c r="E38" s="76"/>
       <c r="F38" s="181" t="s">
         <v>1377</v>
       </c>
-      <c r="G38" s="554"/>
+      <c r="G38" s="396"/>
       <c r="H38" s="36"/>
       <c r="I38" s="76" t="s">
         <v>1747</v>
       </c>
       <c r="J38" s="181"/>
-      <c r="K38" s="554"/>
+      <c r="K38" s="396"/>
       <c r="L38" s="36"/>
       <c r="M38" s="76" t="s">
         <v>1377</v>
       </c>
-      <c r="N38" s="554"/>
+      <c r="N38" s="396"/>
       <c r="O38" s="36"/>
       <c r="P38" s="76" t="s">
         <v>273</v>
@@ -24914,7 +24914,7 @@
         <v>1751</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="K43" s="555" t="s">
+      <c r="K43" s="397" t="s">
         <v>1752</v>
       </c>
       <c r="M43" s="4"/>
@@ -24942,7 +24942,7 @@
         <v>1755</v>
       </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="555" t="s">
+      <c r="K44" s="397" t="s">
         <v>1752</v>
       </c>
       <c r="M44" s="4"/>
@@ -25220,12 +25220,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="514" t="s">
+      <c r="B1" s="516" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="514"/>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
       <c r="I1" s="39" t="s">
         <v>549</v>
       </c>
@@ -25342,12 +25342,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="461" t="s">
+      <c r="B8" s="459" t="s">
         <v>1415</v>
       </c>
-      <c r="C8" s="461"/>
-      <c r="D8" s="461"/>
-      <c r="E8" s="461"/>
+      <c r="C8" s="459"/>
+      <c r="D8" s="459"/>
+      <c r="E8" s="459"/>
       <c r="J8" s="31" t="s">
         <v>552</v>
       </c>
@@ -25513,39 +25513,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="497" t="s">
+      <c r="C2" s="489" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="497"/>
-      <c r="E2" s="497"/>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="497"/>
-      <c r="J2" s="497"/>
-      <c r="K2" s="497"/>
-      <c r="L2" s="497"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="489"/>
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="489"/>
+      <c r="I2" s="489"/>
+      <c r="J2" s="489"/>
+      <c r="K2" s="489"/>
+      <c r="L2" s="489"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="451" t="s">
+      <c r="E3" s="460" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="397"/>
-      <c r="G3" s="410"/>
-      <c r="H3" s="410"/>
-      <c r="I3" s="410"/>
-      <c r="J3" s="410"/>
-      <c r="K3" s="410"/>
-      <c r="L3" s="411"/>
+      <c r="F3" s="399"/>
+      <c r="G3" s="412"/>
+      <c r="H3" s="412"/>
+      <c r="I3" s="412"/>
+      <c r="J3" s="412"/>
+      <c r="K3" s="412"/>
+      <c r="L3" s="413"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -25576,11 +25579,11 @@
         <v>587</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="498" t="s">
+      <c r="N5" s="490" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="498"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="490"/>
+      <c r="P5" s="490"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -25631,20 +25634,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="502" t="s">
+      <c r="E8" s="485" t="s">
         <v>569</v>
       </c>
-      <c r="F8" s="504"/>
-      <c r="G8" s="502" t="s">
+      <c r="F8" s="487"/>
+      <c r="G8" s="485" t="s">
         <v>570</v>
       </c>
-      <c r="H8" s="503"/>
-      <c r="I8" s="504"/>
-      <c r="J8" s="502" t="s">
+      <c r="H8" s="486"/>
+      <c r="I8" s="487"/>
+      <c r="J8" s="485" t="s">
         <v>571</v>
       </c>
-      <c r="K8" s="503"/>
-      <c r="L8" s="504"/>
+      <c r="K8" s="486"/>
+      <c r="L8" s="487"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -25667,14 +25670,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="502"/>
-      <c r="F9" s="504"/>
-      <c r="G9" s="502"/>
-      <c r="H9" s="503"/>
-      <c r="I9" s="504"/>
-      <c r="J9" s="502"/>
-      <c r="K9" s="503"/>
-      <c r="L9" s="504"/>
+      <c r="E9" s="485"/>
+      <c r="F9" s="487"/>
+      <c r="G9" s="485"/>
+      <c r="H9" s="486"/>
+      <c r="I9" s="487"/>
+      <c r="J9" s="485"/>
+      <c r="K9" s="486"/>
+      <c r="L9" s="487"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -25694,14 +25697,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="502"/>
-      <c r="F10" s="504"/>
-      <c r="G10" s="502"/>
-      <c r="H10" s="503"/>
-      <c r="I10" s="504"/>
-      <c r="J10" s="502"/>
-      <c r="K10" s="503"/>
-      <c r="L10" s="504"/>
+      <c r="E10" s="485"/>
+      <c r="F10" s="487"/>
+      <c r="G10" s="485"/>
+      <c r="H10" s="486"/>
+      <c r="I10" s="487"/>
+      <c r="J10" s="485"/>
+      <c r="K10" s="486"/>
+      <c r="L10" s="487"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -25715,14 +25718,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="502"/>
-      <c r="F11" s="504"/>
-      <c r="G11" s="502"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="504"/>
-      <c r="J11" s="502"/>
-      <c r="K11" s="503"/>
-      <c r="L11" s="504"/>
+      <c r="E11" s="485"/>
+      <c r="F11" s="487"/>
+      <c r="G11" s="485"/>
+      <c r="H11" s="486"/>
+      <c r="I11" s="487"/>
+      <c r="J11" s="485"/>
+      <c r="K11" s="486"/>
+      <c r="L11" s="487"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -25825,16 +25828,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="506" t="s">
+      <c r="E17" s="478" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="507"/>
-      <c r="G17" s="507"/>
-      <c r="H17" s="507"/>
-      <c r="I17" s="507"/>
-      <c r="J17" s="507"/>
-      <c r="K17" s="507"/>
-      <c r="L17" s="508"/>
+      <c r="F17" s="479"/>
+      <c r="G17" s="479"/>
+      <c r="H17" s="479"/>
+      <c r="I17" s="479"/>
+      <c r="J17" s="479"/>
+      <c r="K17" s="479"/>
+      <c r="L17" s="480"/>
       <c r="M17" s="39" t="s">
         <v>573</v>
       </c>
@@ -25852,40 +25855,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="420" t="s">
+      <c r="C19" s="422" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="421"/>
-      <c r="E19" s="420" t="s">
+      <c r="D19" s="423"/>
+      <c r="E19" s="422" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="421"/>
-      <c r="G19" s="420" t="s">
+      <c r="F19" s="423"/>
+      <c r="G19" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="422"/>
-      <c r="I19" s="422"/>
-      <c r="J19" s="422"/>
-      <c r="K19" s="422"/>
-      <c r="L19" s="421"/>
+      <c r="H19" s="424"/>
+      <c r="I19" s="424"/>
+      <c r="J19" s="424"/>
+      <c r="K19" s="424"/>
+      <c r="L19" s="423"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="515" t="s">
+      <c r="E21" s="517" t="s">
         <v>1406</v>
       </c>
-      <c r="F21" s="516"/>
+      <c r="F21" s="518"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="517"/>
-      <c r="F22" s="518"/>
+      <c r="E22" s="519"/>
+      <c r="F22" s="520"/>
       <c r="J22" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="517"/>
-      <c r="F23" s="518"/>
+      <c r="E23" s="519"/>
+      <c r="F23" s="520"/>
       <c r="H23" t="s">
         <v>1427</v>
       </c>
@@ -25897,8 +25900,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="519"/>
-      <c r="F24" s="520"/>
+      <c r="E24" s="521"/>
+      <c r="F24" s="522"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -26622,22 +26625,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="476" t="s">
+      <c r="E3" s="491" t="s">
         <v>516</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476" t="s">
+      <c r="F3" s="491"/>
+      <c r="G3" s="491" t="s">
         <v>517</v>
       </c>
-      <c r="H3" s="476"/>
-      <c r="I3" s="476"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="476"/>
-      <c r="L3" s="476"/>
-      <c r="M3" s="476" t="s">
+      <c r="H3" s="491"/>
+      <c r="I3" s="491"/>
+      <c r="J3" s="491"/>
+      <c r="K3" s="491"/>
+      <c r="L3" s="491"/>
+      <c r="M3" s="491" t="s">
         <v>518</v>
       </c>
-      <c r="N3" s="476"/>
+      <c r="N3" s="491"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -26648,7 +26651,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="132"/>
       <c r="D4" s="133"/>
-      <c r="E4" s="477" t="s">
+      <c r="E4" s="496" t="s">
         <v>519</v>
       </c>
       <c r="F4" s="128"/>
@@ -26676,22 +26679,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="135"/>
-      <c r="E5" s="478"/>
-      <c r="F5" s="436" t="s">
+      <c r="E5" s="497"/>
+      <c r="F5" s="438" t="s">
         <v>615</v>
       </c>
-      <c r="G5" s="437"/>
-      <c r="H5" s="438"/>
-      <c r="I5" s="550" t="s">
+      <c r="G5" s="439"/>
+      <c r="H5" s="440"/>
+      <c r="I5" s="523" t="s">
         <v>616</v>
       </c>
-      <c r="J5" s="551"/>
-      <c r="K5" s="551"/>
-      <c r="L5" s="485"/>
-      <c r="M5" s="550" t="s">
+      <c r="J5" s="524"/>
+      <c r="K5" s="524"/>
+      <c r="L5" s="504"/>
+      <c r="M5" s="523" t="s">
         <v>617</v>
       </c>
-      <c r="N5" s="485"/>
+      <c r="N5" s="504"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26702,16 +26705,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="136"/>
       <c r="D6" s="137"/>
-      <c r="E6" s="478"/>
-      <c r="F6" s="439"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="486"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="552"/>
-      <c r="L6" s="487"/>
-      <c r="M6" s="486"/>
-      <c r="N6" s="487"/>
+      <c r="E6" s="497"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="505"/>
+      <c r="J6" s="525"/>
+      <c r="K6" s="525"/>
+      <c r="L6" s="506"/>
+      <c r="M6" s="505"/>
+      <c r="N6" s="506"/>
       <c r="O6" s="5"/>
       <c r="P6" s="37" t="s">
         <v>181</v>
@@ -26728,16 +26731,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="478"/>
-      <c r="F7" s="439"/>
-      <c r="G7" s="440"/>
-      <c r="H7" s="441"/>
-      <c r="I7" s="486"/>
-      <c r="J7" s="552"/>
-      <c r="K7" s="552"/>
-      <c r="L7" s="487"/>
-      <c r="M7" s="486"/>
-      <c r="N7" s="487"/>
+      <c r="E7" s="497"/>
+      <c r="F7" s="441"/>
+      <c r="G7" s="442"/>
+      <c r="H7" s="443"/>
+      <c r="I7" s="505"/>
+      <c r="J7" s="525"/>
+      <c r="K7" s="525"/>
+      <c r="L7" s="506"/>
+      <c r="M7" s="505"/>
+      <c r="N7" s="506"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26756,16 +26759,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="478"/>
-      <c r="F8" s="439"/>
-      <c r="G8" s="440"/>
-      <c r="H8" s="441"/>
-      <c r="I8" s="486"/>
-      <c r="J8" s="552"/>
-      <c r="K8" s="552"/>
-      <c r="L8" s="487"/>
-      <c r="M8" s="486"/>
-      <c r="N8" s="487"/>
+      <c r="E8" s="497"/>
+      <c r="F8" s="441"/>
+      <c r="G8" s="442"/>
+      <c r="H8" s="443"/>
+      <c r="I8" s="505"/>
+      <c r="J8" s="525"/>
+      <c r="K8" s="525"/>
+      <c r="L8" s="506"/>
+      <c r="M8" s="505"/>
+      <c r="N8" s="506"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -26786,16 +26789,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="478"/>
-      <c r="F9" s="439"/>
-      <c r="G9" s="440"/>
-      <c r="H9" s="441"/>
-      <c r="I9" s="486"/>
-      <c r="J9" s="552"/>
-      <c r="K9" s="552"/>
-      <c r="L9" s="487"/>
-      <c r="M9" s="486"/>
-      <c r="N9" s="487"/>
+      <c r="E9" s="497"/>
+      <c r="F9" s="441"/>
+      <c r="G9" s="442"/>
+      <c r="H9" s="443"/>
+      <c r="I9" s="505"/>
+      <c r="J9" s="525"/>
+      <c r="K9" s="525"/>
+      <c r="L9" s="506"/>
+      <c r="M9" s="505"/>
+      <c r="N9" s="506"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -26812,16 +26815,16 @@
         <v>535</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="478"/>
-      <c r="F10" s="439"/>
-      <c r="G10" s="440"/>
-      <c r="H10" s="441"/>
-      <c r="I10" s="486"/>
-      <c r="J10" s="552"/>
-      <c r="K10" s="552"/>
-      <c r="L10" s="487"/>
-      <c r="M10" s="486"/>
-      <c r="N10" s="487"/>
+      <c r="E10" s="497"/>
+      <c r="F10" s="441"/>
+      <c r="G10" s="442"/>
+      <c r="H10" s="443"/>
+      <c r="I10" s="505"/>
+      <c r="J10" s="525"/>
+      <c r="K10" s="525"/>
+      <c r="L10" s="506"/>
+      <c r="M10" s="505"/>
+      <c r="N10" s="506"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -26834,16 +26837,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="478"/>
-      <c r="F11" s="439"/>
-      <c r="G11" s="440"/>
-      <c r="H11" s="441"/>
-      <c r="I11" s="486"/>
-      <c r="J11" s="552"/>
-      <c r="K11" s="552"/>
-      <c r="L11" s="487"/>
-      <c r="M11" s="486"/>
-      <c r="N11" s="487"/>
+      <c r="E11" s="497"/>
+      <c r="F11" s="441"/>
+      <c r="G11" s="442"/>
+      <c r="H11" s="443"/>
+      <c r="I11" s="505"/>
+      <c r="J11" s="525"/>
+      <c r="K11" s="525"/>
+      <c r="L11" s="506"/>
+      <c r="M11" s="505"/>
+      <c r="N11" s="506"/>
       <c r="O11" s="5"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -26854,16 +26857,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="478"/>
-      <c r="F12" s="439"/>
-      <c r="G12" s="440"/>
-      <c r="H12" s="441"/>
-      <c r="I12" s="486"/>
-      <c r="J12" s="552"/>
-      <c r="K12" s="552"/>
-      <c r="L12" s="487"/>
-      <c r="M12" s="486"/>
-      <c r="N12" s="487"/>
+      <c r="E12" s="497"/>
+      <c r="F12" s="441"/>
+      <c r="G12" s="442"/>
+      <c r="H12" s="443"/>
+      <c r="I12" s="505"/>
+      <c r="J12" s="525"/>
+      <c r="K12" s="525"/>
+      <c r="L12" s="506"/>
+      <c r="M12" s="505"/>
+      <c r="N12" s="506"/>
       <c r="O12" s="5"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -26876,16 +26879,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="478"/>
-      <c r="F13" s="439"/>
-      <c r="G13" s="440"/>
-      <c r="H13" s="441"/>
-      <c r="I13" s="486"/>
-      <c r="J13" s="552"/>
-      <c r="K13" s="552"/>
-      <c r="L13" s="487"/>
-      <c r="M13" s="486"/>
-      <c r="N13" s="487"/>
+      <c r="E13" s="497"/>
+      <c r="F13" s="441"/>
+      <c r="G13" s="442"/>
+      <c r="H13" s="443"/>
+      <c r="I13" s="505"/>
+      <c r="J13" s="525"/>
+      <c r="K13" s="525"/>
+      <c r="L13" s="506"/>
+      <c r="M13" s="505"/>
+      <c r="N13" s="506"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -26896,16 +26899,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="478"/>
-      <c r="F14" s="439"/>
-      <c r="G14" s="440"/>
-      <c r="H14" s="441"/>
-      <c r="I14" s="486"/>
-      <c r="J14" s="552"/>
-      <c r="K14" s="552"/>
-      <c r="L14" s="487"/>
-      <c r="M14" s="486"/>
-      <c r="N14" s="487"/>
+      <c r="E14" s="497"/>
+      <c r="F14" s="441"/>
+      <c r="G14" s="442"/>
+      <c r="H14" s="443"/>
+      <c r="I14" s="505"/>
+      <c r="J14" s="525"/>
+      <c r="K14" s="525"/>
+      <c r="L14" s="506"/>
+      <c r="M14" s="505"/>
+      <c r="N14" s="506"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -26916,16 +26919,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="478"/>
-      <c r="F15" s="439"/>
-      <c r="G15" s="440"/>
-      <c r="H15" s="441"/>
-      <c r="I15" s="486"/>
-      <c r="J15" s="552"/>
-      <c r="K15" s="552"/>
-      <c r="L15" s="487"/>
-      <c r="M15" s="486"/>
-      <c r="N15" s="487"/>
+      <c r="E15" s="497"/>
+      <c r="F15" s="441"/>
+      <c r="G15" s="442"/>
+      <c r="H15" s="443"/>
+      <c r="I15" s="505"/>
+      <c r="J15" s="525"/>
+      <c r="K15" s="525"/>
+      <c r="L15" s="506"/>
+      <c r="M15" s="505"/>
+      <c r="N15" s="506"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -26936,16 +26939,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="478"/>
-      <c r="F16" s="439"/>
-      <c r="G16" s="440"/>
-      <c r="H16" s="441"/>
-      <c r="I16" s="486"/>
-      <c r="J16" s="552"/>
-      <c r="K16" s="552"/>
-      <c r="L16" s="487"/>
-      <c r="M16" s="486"/>
-      <c r="N16" s="487"/>
+      <c r="E16" s="497"/>
+      <c r="F16" s="441"/>
+      <c r="G16" s="442"/>
+      <c r="H16" s="443"/>
+      <c r="I16" s="505"/>
+      <c r="J16" s="525"/>
+      <c r="K16" s="525"/>
+      <c r="L16" s="506"/>
+      <c r="M16" s="505"/>
+      <c r="N16" s="506"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -26958,16 +26961,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="478"/>
-      <c r="F17" s="439"/>
-      <c r="G17" s="440"/>
-      <c r="H17" s="441"/>
-      <c r="I17" s="486"/>
-      <c r="J17" s="552"/>
-      <c r="K17" s="552"/>
-      <c r="L17" s="487"/>
-      <c r="M17" s="486"/>
-      <c r="N17" s="487"/>
+      <c r="E17" s="497"/>
+      <c r="F17" s="441"/>
+      <c r="G17" s="442"/>
+      <c r="H17" s="443"/>
+      <c r="I17" s="505"/>
+      <c r="J17" s="525"/>
+      <c r="K17" s="525"/>
+      <c r="L17" s="506"/>
+      <c r="M17" s="505"/>
+      <c r="N17" s="506"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -26978,16 +26981,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="479"/>
-      <c r="F18" s="442"/>
-      <c r="G18" s="443"/>
-      <c r="H18" s="444"/>
-      <c r="I18" s="488"/>
-      <c r="J18" s="553"/>
-      <c r="K18" s="553"/>
-      <c r="L18" s="489"/>
-      <c r="M18" s="488"/>
-      <c r="N18" s="489"/>
+      <c r="E18" s="498"/>
+      <c r="F18" s="444"/>
+      <c r="G18" s="445"/>
+      <c r="H18" s="446"/>
+      <c r="I18" s="507"/>
+      <c r="J18" s="526"/>
+      <c r="K18" s="526"/>
+      <c r="L18" s="508"/>
+      <c r="M18" s="507"/>
+      <c r="N18" s="508"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -27016,26 +27019,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="420" t="s">
+      <c r="C20" s="422" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="421"/>
+      <c r="D20" s="423"/>
       <c r="E20" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="420" t="s">
+      <c r="F20" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="422"/>
-      <c r="H20" s="422"/>
-      <c r="I20" s="422"/>
-      <c r="J20" s="422"/>
-      <c r="K20" s="422"/>
-      <c r="L20" s="421"/>
-      <c r="M20" s="420" t="s">
+      <c r="G20" s="424"/>
+      <c r="H20" s="424"/>
+      <c r="I20" s="424"/>
+      <c r="J20" s="424"/>
+      <c r="K20" s="424"/>
+      <c r="L20" s="423"/>
+      <c r="M20" s="422" t="s">
         <v>526</v>
       </c>
-      <c r="N20" s="421"/>
+      <c r="N20" s="423"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -27063,39 +27066,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="498" t="s">
+      <c r="B24" s="490" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="498"/>
-      <c r="D24" s="497"/>
-      <c r="E24" s="497"/>
-      <c r="F24" s="497"/>
-      <c r="G24" s="497"/>
-      <c r="H24" s="497"/>
-      <c r="I24" s="497"/>
-      <c r="J24" s="497"/>
-      <c r="K24" s="497"/>
-      <c r="M24" s="521" t="s">
+      <c r="C24" s="490"/>
+      <c r="D24" s="489"/>
+      <c r="E24" s="489"/>
+      <c r="F24" s="489"/>
+      <c r="G24" s="489"/>
+      <c r="H24" s="489"/>
+      <c r="I24" s="489"/>
+      <c r="J24" s="489"/>
+      <c r="K24" s="489"/>
+      <c r="M24" s="544" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="521"/>
-      <c r="O24" s="521"/>
+      <c r="N24" s="544"/>
+      <c r="O24" s="544"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="522" t="s">
+      <c r="B25" s="545" t="s">
         <v>928</v>
       </c>
-      <c r="C25" s="464"/>
-      <c r="D25" s="410" t="s">
+      <c r="C25" s="467"/>
+      <c r="D25" s="412" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="410"/>
-      <c r="F25" s="410"/>
-      <c r="G25" s="410"/>
-      <c r="H25" s="410"/>
-      <c r="I25" s="410"/>
-      <c r="J25" s="410"/>
-      <c r="K25" s="411"/>
+      <c r="E25" s="412"/>
+      <c r="F25" s="412"/>
+      <c r="G25" s="412"/>
+      <c r="H25" s="412"/>
+      <c r="I25" s="412"/>
+      <c r="J25" s="412"/>
+      <c r="K25" s="413"/>
       <c r="M25" s="37" t="s">
         <v>181</v>
       </c>
@@ -27107,22 +27110,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="465"/>
-      <c r="C26" s="466"/>
-      <c r="D26" s="463" t="s">
+      <c r="B26" s="468"/>
+      <c r="C26" s="469"/>
+      <c r="D26" s="466" t="s">
         <v>921</v>
       </c>
-      <c r="E26" s="464"/>
-      <c r="F26" s="548" t="s">
+      <c r="E26" s="467"/>
+      <c r="F26" s="539" t="s">
         <v>921</v>
       </c>
-      <c r="G26" s="410"/>
-      <c r="H26" s="411"/>
-      <c r="I26" s="409" t="s">
+      <c r="G26" s="412"/>
+      <c r="H26" s="413"/>
+      <c r="I26" s="411" t="s">
         <v>925</v>
       </c>
-      <c r="J26" s="410"/>
-      <c r="K26" s="411"/>
+      <c r="J26" s="412"/>
+      <c r="K26" s="413"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -27137,22 +27140,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="465"/>
-      <c r="C27" s="466"/>
-      <c r="D27" s="461" t="s">
+      <c r="B27" s="468"/>
+      <c r="C27" s="469"/>
+      <c r="D27" s="459" t="s">
         <v>926</v>
       </c>
-      <c r="E27" s="466"/>
-      <c r="F27" s="465" t="s">
+      <c r="E27" s="469"/>
+      <c r="F27" s="468" t="s">
         <v>922</v>
       </c>
-      <c r="G27" s="461"/>
-      <c r="H27" s="402"/>
-      <c r="I27" s="532" t="s">
+      <c r="G27" s="459"/>
+      <c r="H27" s="404"/>
+      <c r="I27" s="543" t="s">
         <v>926</v>
       </c>
-      <c r="J27" s="461"/>
-      <c r="K27" s="402"/>
+      <c r="J27" s="459"/>
+      <c r="K27" s="404"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -27167,22 +27170,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="465"/>
-      <c r="C28" s="466"/>
-      <c r="D28" s="461" t="s">
+      <c r="B28" s="468"/>
+      <c r="C28" s="469"/>
+      <c r="D28" s="459" t="s">
         <v>923</v>
       </c>
-      <c r="E28" s="466"/>
-      <c r="F28" s="465" t="s">
+      <c r="E28" s="469"/>
+      <c r="F28" s="468" t="s">
         <v>923</v>
       </c>
-      <c r="G28" s="461"/>
-      <c r="H28" s="402"/>
-      <c r="I28" s="532" t="s">
+      <c r="G28" s="459"/>
+      <c r="H28" s="404"/>
+      <c r="I28" s="543" t="s">
         <v>923</v>
       </c>
-      <c r="J28" s="461"/>
-      <c r="K28" s="402"/>
+      <c r="J28" s="459"/>
+      <c r="K28" s="404"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -27191,22 +27194,22 @@
       <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="467"/>
-      <c r="C29" s="468"/>
-      <c r="D29" s="461" t="s">
+      <c r="B29" s="470"/>
+      <c r="C29" s="471"/>
+      <c r="D29" s="459" t="s">
         <v>924</v>
       </c>
-      <c r="E29" s="466"/>
-      <c r="F29" s="549" t="s">
+      <c r="E29" s="469"/>
+      <c r="F29" s="540" t="s">
         <v>924</v>
       </c>
-      <c r="G29" s="534"/>
-      <c r="H29" s="535"/>
-      <c r="I29" s="533" t="s">
+      <c r="G29" s="541"/>
+      <c r="H29" s="542"/>
+      <c r="I29" s="555" t="s">
         <v>924</v>
       </c>
-      <c r="J29" s="534"/>
-      <c r="K29" s="535"/>
+      <c r="J29" s="541"/>
+      <c r="K29" s="542"/>
       <c r="L29" s="23" t="s">
         <v>2</v>
       </c>
@@ -27215,149 +27218,149 @@
       <c r="O29" s="37"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="412" t="s">
+      <c r="B30" s="414" t="s">
         <v>927</v>
       </c>
-      <c r="C30" s="414"/>
-      <c r="D30" s="536" t="s">
+      <c r="C30" s="416"/>
+      <c r="D30" s="527" t="s">
         <v>569</v>
       </c>
-      <c r="E30" s="537"/>
-      <c r="F30" s="541" t="s">
+      <c r="E30" s="528"/>
+      <c r="F30" s="532" t="s">
         <v>570</v>
       </c>
-      <c r="G30" s="542"/>
-      <c r="H30" s="537"/>
-      <c r="I30" s="541" t="s">
+      <c r="G30" s="533"/>
+      <c r="H30" s="528"/>
+      <c r="I30" s="532" t="s">
         <v>571</v>
       </c>
-      <c r="J30" s="542"/>
-      <c r="K30" s="545"/>
+      <c r="J30" s="533"/>
+      <c r="K30" s="536"/>
       <c r="L30" s="5"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="403"/>
-      <c r="C31" s="416"/>
-      <c r="D31" s="538"/>
-      <c r="E31" s="504"/>
-      <c r="F31" s="502"/>
-      <c r="G31" s="503"/>
-      <c r="H31" s="504"/>
-      <c r="I31" s="502"/>
-      <c r="J31" s="503"/>
-      <c r="K31" s="546"/>
+      <c r="B31" s="405"/>
+      <c r="C31" s="418"/>
+      <c r="D31" s="529"/>
+      <c r="E31" s="487"/>
+      <c r="F31" s="485"/>
+      <c r="G31" s="486"/>
+      <c r="H31" s="487"/>
+      <c r="I31" s="485"/>
+      <c r="J31" s="486"/>
+      <c r="K31" s="537"/>
       <c r="L31" s="5"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="403"/>
-      <c r="C32" s="416"/>
-      <c r="D32" s="538"/>
-      <c r="E32" s="504"/>
-      <c r="F32" s="502"/>
-      <c r="G32" s="503"/>
-      <c r="H32" s="504"/>
-      <c r="I32" s="502"/>
-      <c r="J32" s="503"/>
-      <c r="K32" s="546"/>
+      <c r="B32" s="405"/>
+      <c r="C32" s="418"/>
+      <c r="D32" s="529"/>
+      <c r="E32" s="487"/>
+      <c r="F32" s="485"/>
+      <c r="G32" s="486"/>
+      <c r="H32" s="487"/>
+      <c r="I32" s="485"/>
+      <c r="J32" s="486"/>
+      <c r="K32" s="537"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="403"/>
-      <c r="C33" s="416"/>
-      <c r="D33" s="539"/>
-      <c r="E33" s="540"/>
-      <c r="F33" s="543"/>
-      <c r="G33" s="544"/>
-      <c r="H33" s="540"/>
-      <c r="I33" s="543"/>
-      <c r="J33" s="544"/>
-      <c r="K33" s="547"/>
+      <c r="B33" s="405"/>
+      <c r="C33" s="418"/>
+      <c r="D33" s="530"/>
+      <c r="E33" s="531"/>
+      <c r="F33" s="534"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="531"/>
+      <c r="I33" s="534"/>
+      <c r="J33" s="535"/>
+      <c r="K33" s="538"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="403"/>
-      <c r="C34" s="405"/>
-      <c r="D34" s="523" t="s">
+      <c r="B34" s="405"/>
+      <c r="C34" s="407"/>
+      <c r="D34" s="546" t="s">
         <v>914</v>
       </c>
-      <c r="E34" s="524"/>
-      <c r="F34" s="523" t="s">
+      <c r="E34" s="547"/>
+      <c r="F34" s="546" t="s">
         <v>591</v>
       </c>
-      <c r="G34" s="529"/>
-      <c r="H34" s="524"/>
-      <c r="I34" s="523" t="s">
+      <c r="G34" s="552"/>
+      <c r="H34" s="547"/>
+      <c r="I34" s="546" t="s">
         <v>929</v>
       </c>
-      <c r="J34" s="529"/>
-      <c r="K34" s="524"/>
+      <c r="J34" s="552"/>
+      <c r="K34" s="547"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="403"/>
-      <c r="C35" s="405"/>
-      <c r="D35" s="525"/>
-      <c r="E35" s="526"/>
-      <c r="F35" s="525"/>
-      <c r="G35" s="530"/>
-      <c r="H35" s="526"/>
-      <c r="I35" s="525"/>
-      <c r="J35" s="530"/>
-      <c r="K35" s="526"/>
+      <c r="B35" s="405"/>
+      <c r="C35" s="407"/>
+      <c r="D35" s="548"/>
+      <c r="E35" s="549"/>
+      <c r="F35" s="548"/>
+      <c r="G35" s="553"/>
+      <c r="H35" s="549"/>
+      <c r="I35" s="548"/>
+      <c r="J35" s="553"/>
+      <c r="K35" s="549"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="403"/>
-      <c r="C36" s="405"/>
-      <c r="D36" s="525"/>
-      <c r="E36" s="526"/>
-      <c r="F36" s="525"/>
-      <c r="G36" s="530"/>
-      <c r="H36" s="526"/>
-      <c r="I36" s="525"/>
-      <c r="J36" s="530"/>
-      <c r="K36" s="526"/>
+      <c r="B36" s="405"/>
+      <c r="C36" s="407"/>
+      <c r="D36" s="548"/>
+      <c r="E36" s="549"/>
+      <c r="F36" s="548"/>
+      <c r="G36" s="553"/>
+      <c r="H36" s="549"/>
+      <c r="I36" s="548"/>
+      <c r="J36" s="553"/>
+      <c r="K36" s="549"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="403"/>
-      <c r="C37" s="405"/>
-      <c r="D37" s="525"/>
-      <c r="E37" s="526"/>
-      <c r="F37" s="525"/>
-      <c r="G37" s="530"/>
-      <c r="H37" s="526"/>
-      <c r="I37" s="525"/>
-      <c r="J37" s="530"/>
-      <c r="K37" s="526"/>
+      <c r="B37" s="405"/>
+      <c r="C37" s="407"/>
+      <c r="D37" s="548"/>
+      <c r="E37" s="549"/>
+      <c r="F37" s="548"/>
+      <c r="G37" s="553"/>
+      <c r="H37" s="549"/>
+      <c r="I37" s="548"/>
+      <c r="J37" s="553"/>
+      <c r="K37" s="549"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="403"/>
-      <c r="C38" s="405"/>
-      <c r="D38" s="527"/>
-      <c r="E38" s="528"/>
-      <c r="F38" s="527"/>
-      <c r="G38" s="531"/>
-      <c r="H38" s="528"/>
-      <c r="I38" s="527"/>
-      <c r="J38" s="531"/>
-      <c r="K38" s="528"/>
+      <c r="B38" s="405"/>
+      <c r="C38" s="407"/>
+      <c r="D38" s="550"/>
+      <c r="E38" s="551"/>
+      <c r="F38" s="550"/>
+      <c r="G38" s="554"/>
+      <c r="H38" s="551"/>
+      <c r="I38" s="550"/>
+      <c r="J38" s="554"/>
+      <c r="K38" s="551"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="417"/>
-      <c r="C39" s="419"/>
-      <c r="D39" s="506" t="s">
+      <c r="B39" s="419"/>
+      <c r="C39" s="421"/>
+      <c r="D39" s="478" t="s">
         <v>572</v>
       </c>
-      <c r="E39" s="507"/>
-      <c r="F39" s="507"/>
-      <c r="G39" s="507"/>
-      <c r="H39" s="507"/>
-      <c r="I39" s="507"/>
-      <c r="J39" s="507"/>
-      <c r="K39" s="508"/>
+      <c r="E39" s="479"/>
+      <c r="F39" s="479"/>
+      <c r="G39" s="479"/>
+      <c r="H39" s="479"/>
+      <c r="I39" s="479"/>
+      <c r="J39" s="479"/>
+      <c r="K39" s="480"/>
       <c r="L39" s="39" t="s">
         <v>573</v>
       </c>
@@ -27375,35 +27378,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="420" t="s">
+      <c r="B41" s="422" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="421"/>
-      <c r="D41" s="420" t="s">
+      <c r="C41" s="423"/>
+      <c r="D41" s="422" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="421"/>
-      <c r="F41" s="420" t="s">
+      <c r="E41" s="423"/>
+      <c r="F41" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="422"/>
-      <c r="H41" s="422"/>
-      <c r="I41" s="422"/>
-      <c r="J41" s="422"/>
-      <c r="K41" s="421"/>
+      <c r="G41" s="424"/>
+      <c r="H41" s="424"/>
+      <c r="I41" s="424"/>
+      <c r="J41" s="424"/>
+      <c r="K41" s="423"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -27420,17 +27424,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -27704,13 +27707,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="396" t="s">
+      <c r="A5" s="398" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="397"/>
-      <c r="C5" s="397"/>
-      <c r="D5" s="397"/>
-      <c r="E5" s="398"/>
+      <c r="B5" s="399"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="400"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>149</v>
@@ -28508,7 +28511,7 @@
       <c r="K4" s="223"/>
       <c r="L4" s="223"/>
       <c r="M4" s="232"/>
-      <c r="N4" s="403" t="s">
+      <c r="N4" s="405" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -28526,7 +28529,7 @@
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="403"/>
+      <c r="N5" s="405"/>
     </row>
     <row r="6" spans="3:16">
       <c r="C6" s="331">
@@ -28542,7 +28545,7 @@
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="403"/>
+      <c r="N6" s="405"/>
     </row>
     <row r="7" spans="3:16">
       <c r="C7" s="331">
@@ -28558,7 +28561,7 @@
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="403"/>
+      <c r="N7" s="405"/>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" s="331">
@@ -28574,7 +28577,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="403"/>
+      <c r="N8" s="405"/>
     </row>
     <row r="9" spans="3:16">
       <c r="C9" s="331">
@@ -28590,7 +28593,7 @@
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="403"/>
+      <c r="N9" s="405"/>
     </row>
     <row r="10" spans="3:16">
       <c r="C10" s="331">
@@ -28606,7 +28609,7 @@
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="403"/>
+      <c r="N10" s="405"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
       <c r="C11" s="331">
@@ -28622,7 +28625,7 @@
       <c r="K11" s="225"/>
       <c r="L11" s="225"/>
       <c r="M11" s="233"/>
-      <c r="N11" s="403"/>
+      <c r="N11" s="405"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1">
       <c r="C12" s="331">
@@ -28976,7 +28979,7 @@
       </c>
     </row>
     <row r="153" spans="3:14">
-      <c r="C153" s="406" t="s">
+      <c r="C153" s="408" t="s">
         <v>166</v>
       </c>
       <c r="D153">
@@ -29002,7 +29005,7 @@
       </c>
     </row>
     <row r="154" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C154" s="406"/>
+      <c r="C154" s="408"/>
       <c r="D154">
         <v>20</v>
       </c>
@@ -29030,7 +29033,7 @@
       <c r="N154" s="63"/>
     </row>
     <row r="155" spans="3:14">
-      <c r="C155" s="406" t="s">
+      <c r="C155" s="408" t="s">
         <v>167</v>
       </c>
       <c r="D155">
@@ -29048,7 +29051,7 @@
       <c r="N155" s="169"/>
     </row>
     <row r="156" spans="3:14">
-      <c r="C156" s="406"/>
+      <c r="C156" s="408"/>
       <c r="D156">
         <v>40</v>
       </c>
@@ -29064,7 +29067,7 @@
       <c r="N156" s="169"/>
     </row>
     <row r="157" spans="3:14">
-      <c r="C157" s="406"/>
+      <c r="C157" s="408"/>
       <c r="D157">
         <v>50</v>
       </c>
@@ -29080,7 +29083,7 @@
       <c r="N157" s="169"/>
     </row>
     <row r="158" spans="3:14">
-      <c r="C158" s="406"/>
+      <c r="C158" s="408"/>
       <c r="D158">
         <v>60</v>
       </c>
@@ -29098,7 +29101,7 @@
       <c r="N158" s="169"/>
     </row>
     <row r="159" spans="3:14">
-      <c r="C159" s="406"/>
+      <c r="C159" s="408"/>
       <c r="D159">
         <v>70</v>
       </c>
@@ -29114,7 +29117,7 @@
       <c r="N159" s="169"/>
     </row>
     <row r="160" spans="3:14">
-      <c r="C160" s="406"/>
+      <c r="C160" s="408"/>
       <c r="D160">
         <v>80</v>
       </c>
@@ -29130,7 +29133,7 @@
       <c r="N160" s="169"/>
     </row>
     <row r="161" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C161" s="406"/>
+      <c r="C161" s="408"/>
       <c r="D161">
         <v>90</v>
       </c>
@@ -29218,7 +29221,7 @@
       </c>
     </row>
     <row r="166" spans="3:14">
-      <c r="D166" s="404">
+      <c r="D166" s="406">
         <v>1</v>
       </c>
       <c r="E166" s="170"/>
@@ -29233,7 +29236,7 @@
       <c r="N166" s="175"/>
     </row>
     <row r="167" spans="3:14">
-      <c r="D167" s="405"/>
+      <c r="D167" s="407"/>
       <c r="E167" s="171"/>
       <c r="F167" s="167"/>
       <c r="G167" s="168"/>
@@ -29246,7 +29249,7 @@
       <c r="N167" s="169"/>
     </row>
     <row r="168" spans="3:14">
-      <c r="D168" s="405"/>
+      <c r="D168" s="407"/>
       <c r="E168" s="171"/>
       <c r="F168" s="167"/>
       <c r="G168" s="168"/>
@@ -29259,7 +29262,7 @@
       <c r="N168" s="169"/>
     </row>
     <row r="169" spans="3:14">
-      <c r="D169" s="405"/>
+      <c r="D169" s="407"/>
       <c r="E169" s="171" t="s">
         <v>677</v>
       </c>
@@ -29276,7 +29279,7 @@
       <c r="N169" s="169"/>
     </row>
     <row r="170" spans="3:14">
-      <c r="D170" s="405"/>
+      <c r="D170" s="407"/>
       <c r="E170" s="171"/>
       <c r="F170" s="167"/>
       <c r="G170" s="168"/>
@@ -29289,7 +29292,7 @@
       <c r="N170" s="169"/>
     </row>
     <row r="171" spans="3:14">
-      <c r="D171" s="405"/>
+      <c r="D171" s="407"/>
       <c r="E171" s="171"/>
       <c r="F171" s="167"/>
       <c r="G171" s="168"/>
@@ -29302,7 +29305,7 @@
       <c r="N171" s="169"/>
     </row>
     <row r="172" spans="3:14" ht="15.75" thickBot="1">
-      <c r="D172" s="405"/>
+      <c r="D172" s="407"/>
       <c r="E172" s="172"/>
       <c r="F172" s="176"/>
       <c r="G172" s="177"/>
@@ -29425,7 +29428,7 @@
       <c r="K201" s="174"/>
       <c r="L201" s="174"/>
       <c r="M201" s="174"/>
-      <c r="N201" s="400" t="s">
+      <c r="N201" s="402" t="s">
         <v>931</v>
       </c>
     </row>
@@ -29443,7 +29446,7 @@
       <c r="K202" s="177"/>
       <c r="L202" s="177"/>
       <c r="M202" s="177"/>
-      <c r="N202" s="400"/>
+      <c r="N202" s="402"/>
     </row>
     <row r="203" spans="3:14">
       <c r="C203">
@@ -29459,7 +29462,7 @@
       <c r="K203" s="226"/>
       <c r="L203" s="226"/>
       <c r="M203" s="289"/>
-      <c r="N203" s="399" t="s">
+      <c r="N203" s="401" t="s">
         <v>934</v>
       </c>
     </row>
@@ -29477,7 +29480,7 @@
       <c r="K204" s="227"/>
       <c r="L204" s="227"/>
       <c r="M204" s="291"/>
-      <c r="N204" s="399"/>
+      <c r="N204" s="401"/>
     </row>
     <row r="205" spans="3:14">
       <c r="C205">
@@ -29493,7 +29496,7 @@
       <c r="K205" s="227"/>
       <c r="L205" s="227"/>
       <c r="M205" s="291"/>
-      <c r="N205" s="399"/>
+      <c r="N205" s="401"/>
     </row>
     <row r="206" spans="3:14" ht="15.75" thickBot="1">
       <c r="C206">
@@ -29513,7 +29516,7 @@
       <c r="K206" s="228"/>
       <c r="L206" s="228"/>
       <c r="M206" s="293"/>
-      <c r="N206" s="399"/>
+      <c r="N206" s="401"/>
     </row>
     <row r="207" spans="3:14">
       <c r="C207">
@@ -29529,7 +29532,7 @@
       <c r="K207" s="227"/>
       <c r="L207" s="227"/>
       <c r="M207" s="227"/>
-      <c r="N207" s="400"/>
+      <c r="N207" s="402"/>
     </row>
     <row r="208" spans="3:14">
       <c r="C208">
@@ -29545,7 +29548,7 @@
       <c r="K208" s="227"/>
       <c r="L208" s="227"/>
       <c r="M208" s="227"/>
-      <c r="N208" s="400"/>
+      <c r="N208" s="402"/>
     </row>
     <row r="209" spans="3:14" ht="15.75" thickBot="1">
       <c r="C209">
@@ -29561,7 +29564,7 @@
       <c r="K209" s="228"/>
       <c r="L209" s="228"/>
       <c r="M209" s="228"/>
-      <c r="N209" s="400"/>
+      <c r="N209" s="402"/>
     </row>
     <row r="210" spans="3:14" ht="15.75" thickBot="1">
       <c r="C210">
@@ -29648,7 +29651,7 @@
       </c>
     </row>
     <row r="218" spans="3:14">
-      <c r="C218" s="401">
+      <c r="C218" s="403">
         <v>1</v>
       </c>
       <c r="D218" s="222"/>
@@ -29663,7 +29666,7 @@
       <c r="M218" s="232"/>
     </row>
     <row r="219" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C219" s="402"/>
+      <c r="C219" s="404"/>
       <c r="D219" s="224"/>
       <c r="E219" s="225"/>
       <c r="F219" s="225"/>
@@ -29867,8 +29870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29921,14 +29924,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="409" t="s">
+      <c r="K4" s="411" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
-      <c r="N4" s="410"/>
-      <c r="O4" s="410"/>
-      <c r="P4" s="411"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
+      <c r="N4" s="412"/>
+      <c r="O4" s="412"/>
+      <c r="P4" s="413"/>
       <c r="Q4" s="112" t="s">
         <v>280</v>
       </c>
@@ -30057,10 +30060,10 @@
       <c r="L8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="423" t="s">
+      <c r="M8" s="425" t="s">
         <v>209</v>
       </c>
-      <c r="N8" s="424"/>
+      <c r="N8" s="426"/>
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
@@ -30102,8 +30105,8 @@
       <c r="L9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="424"/>
-      <c r="N9" s="424"/>
+      <c r="M9" s="426"/>
+      <c r="N9" s="426"/>
       <c r="O9" s="5" t="s">
         <v>186</v>
       </c>
@@ -30139,8 +30142,8 @@
       <c r="L10" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="M10" s="424"/>
-      <c r="N10" s="424"/>
+      <c r="M10" s="426"/>
+      <c r="N10" s="426"/>
       <c r="O10" s="5"/>
       <c r="P10" s="242" t="s">
         <v>397</v>
@@ -30154,13 +30157,13 @@
       <c r="T10" s="37"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="412" t="s">
+      <c r="A11" s="414" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="413"/>
-      <c r="C11" s="414"/>
-      <c r="D11" s="414"/>
-      <c r="E11" s="415"/>
+      <c r="B11" s="415"/>
+      <c r="C11" s="416"/>
+      <c r="D11" s="416"/>
+      <c r="E11" s="417"/>
       <c r="F11" t="s">
         <v>1576</v>
       </c>
@@ -30169,8 +30172,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="424"/>
-      <c r="N11" s="424"/>
+      <c r="M11" s="426"/>
+      <c r="N11" s="426"/>
       <c r="O11" s="5"/>
       <c r="P11" s="242" t="s">
         <v>398</v>
@@ -30181,11 +30184,11 @@
       <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="403"/>
-      <c r="B12" s="416"/>
-      <c r="C12" s="416"/>
-      <c r="D12" s="416"/>
-      <c r="E12" s="405"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="418"/>
+      <c r="C12" s="418"/>
+      <c r="D12" s="418"/>
+      <c r="E12" s="407"/>
       <c r="F12" t="s">
         <v>958</v>
       </c>
@@ -30194,8 +30197,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="424"/>
-      <c r="N12" s="424"/>
+      <c r="M12" s="426"/>
+      <c r="N12" s="426"/>
       <c r="O12" s="5"/>
       <c r="P12" s="242" t="s">
         <v>1318</v>
@@ -30205,11 +30208,11 @@
       <c r="T12" s="37"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="403"/>
-      <c r="B13" s="416"/>
-      <c r="C13" s="416"/>
-      <c r="D13" s="416"/>
-      <c r="E13" s="405"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="418"/>
+      <c r="C13" s="418"/>
+      <c r="D13" s="418"/>
+      <c r="E13" s="407"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>191</v>
@@ -30217,8 +30220,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="424"/>
-      <c r="N13" s="424"/>
+      <c r="M13" s="426"/>
+      <c r="N13" s="426"/>
       <c r="O13" s="27"/>
       <c r="P13" s="243"/>
       <c r="Q13">
@@ -30229,11 +30232,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="417"/>
-      <c r="B14" s="418"/>
-      <c r="C14" s="418"/>
-      <c r="D14" s="418"/>
-      <c r="E14" s="419"/>
+      <c r="A14" s="419"/>
+      <c r="B14" s="420"/>
+      <c r="C14" s="420"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="421"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -30371,20 +30374,20 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="420" t="s">
+      <c r="I20" s="422" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="421"/>
-      <c r="K20" s="420" t="s">
+      <c r="J20" s="423"/>
+      <c r="K20" s="422" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="421"/>
-      <c r="M20" s="420" t="s">
+      <c r="L20" s="423"/>
+      <c r="M20" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="422"/>
-      <c r="O20" s="422"/>
-      <c r="P20" s="421"/>
+      <c r="N20" s="424"/>
+      <c r="O20" s="424"/>
+      <c r="P20" s="423"/>
       <c r="S20" t="s">
         <v>280</v>
       </c>
@@ -31261,33 +31264,33 @@
         <v>1563</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="425" t="s">
+      <c r="I124" s="427" t="s">
         <v>692</v>
       </c>
-      <c r="J124" s="426" t="s">
+      <c r="J124" s="428" t="s">
         <v>180</v>
       </c>
-      <c r="K124" s="426"/>
-      <c r="L124" s="426"/>
-      <c r="M124" s="426"/>
+      <c r="K124" s="428"/>
+      <c r="L124" s="428"/>
+      <c r="M124" s="428"/>
       <c r="N124" s="6"/>
     </row>
     <row r="125" spans="1:14">
       <c r="H125" s="4"/>
-      <c r="I125" s="403"/>
-      <c r="J125" s="426"/>
-      <c r="K125" s="426"/>
-      <c r="L125" s="426"/>
-      <c r="M125" s="426"/>
+      <c r="I125" s="405"/>
+      <c r="J125" s="428"/>
+      <c r="K125" s="428"/>
+      <c r="L125" s="428"/>
+      <c r="M125" s="428"/>
       <c r="N125" s="6"/>
     </row>
     <row r="126" spans="1:14" ht="15.75" thickBot="1">
       <c r="H126" s="4"/>
-      <c r="I126" s="403"/>
-      <c r="J126" s="426"/>
-      <c r="K126" s="426"/>
-      <c r="L126" s="426"/>
-      <c r="M126" s="426"/>
+      <c r="I126" s="405"/>
+      <c r="J126" s="428"/>
+      <c r="K126" s="428"/>
+      <c r="L126" s="428"/>
+      <c r="M126" s="428"/>
       <c r="N126" s="6"/>
     </row>
     <row r="127" spans="1:14">
@@ -31297,13 +31300,13 @@
       <c r="D127" s="2"/>
       <c r="E127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="403"/>
-      <c r="J127" s="426" t="s">
+      <c r="I127" s="405"/>
+      <c r="J127" s="428" t="s">
         <v>1564</v>
       </c>
-      <c r="K127" s="426"/>
-      <c r="L127" s="426"/>
-      <c r="M127" s="426"/>
+      <c r="K127" s="428"/>
+      <c r="L127" s="428"/>
+      <c r="M127" s="428"/>
       <c r="N127" s="6"/>
     </row>
     <row r="128" spans="1:14">
@@ -31315,11 +31318,11 @@
       <c r="D128" s="5"/>
       <c r="E128" s="6"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="403"/>
-      <c r="J128" s="426"/>
-      <c r="K128" s="426"/>
-      <c r="L128" s="426"/>
-      <c r="M128" s="426"/>
+      <c r="I128" s="405"/>
+      <c r="J128" s="428"/>
+      <c r="K128" s="428"/>
+      <c r="L128" s="428"/>
+      <c r="M128" s="428"/>
       <c r="N128" s="6"/>
     </row>
     <row r="129" spans="1:14">
@@ -31332,11 +31335,11 @@
         <v>164</v>
       </c>
       <c r="H129" s="4"/>
-      <c r="I129" s="403"/>
-      <c r="J129" s="426"/>
-      <c r="K129" s="426"/>
-      <c r="L129" s="426"/>
-      <c r="M129" s="426"/>
+      <c r="I129" s="405"/>
+      <c r="J129" s="428"/>
+      <c r="K129" s="428"/>
+      <c r="L129" s="428"/>
+      <c r="M129" s="428"/>
       <c r="N129" s="6"/>
     </row>
     <row r="130" spans="1:14">
@@ -31355,13 +31358,13 @@
       <c r="H130" s="34">
         <v>80</v>
       </c>
-      <c r="I130" s="403"/>
-      <c r="J130" s="426" t="s">
+      <c r="I130" s="405"/>
+      <c r="J130" s="428" t="s">
         <v>1565</v>
       </c>
-      <c r="K130" s="426"/>
-      <c r="L130" s="426"/>
-      <c r="M130" s="426"/>
+      <c r="K130" s="428"/>
+      <c r="L130" s="428"/>
+      <c r="M130" s="428"/>
       <c r="N130" s="6"/>
     </row>
     <row r="131" spans="1:14">
@@ -31378,11 +31381,11 @@
         <v>1567</v>
       </c>
       <c r="H131" s="4"/>
-      <c r="I131" s="403"/>
-      <c r="J131" s="426"/>
-      <c r="K131" s="426"/>
-      <c r="L131" s="426"/>
-      <c r="M131" s="426"/>
+      <c r="I131" s="405"/>
+      <c r="J131" s="428"/>
+      <c r="K131" s="428"/>
+      <c r="L131" s="428"/>
+      <c r="M131" s="428"/>
       <c r="N131" s="6"/>
     </row>
     <row r="132" spans="1:14">
@@ -31400,11 +31403,11 @@
         <v>404</v>
       </c>
       <c r="H132" s="4"/>
-      <c r="I132" s="403"/>
-      <c r="J132" s="426"/>
-      <c r="K132" s="426"/>
-      <c r="L132" s="426"/>
-      <c r="M132" s="426"/>
+      <c r="I132" s="405"/>
+      <c r="J132" s="428"/>
+      <c r="K132" s="428"/>
+      <c r="L132" s="428"/>
+      <c r="M132" s="428"/>
       <c r="N132" s="6"/>
     </row>
     <row r="133" spans="1:14">
@@ -31417,13 +31420,13 @@
         <v>1580</v>
       </c>
       <c r="H133" s="4"/>
-      <c r="I133" s="403"/>
-      <c r="J133" s="427" t="s">
+      <c r="I133" s="405"/>
+      <c r="J133" s="429" t="s">
         <v>1566</v>
       </c>
-      <c r="K133" s="428"/>
-      <c r="L133" s="428"/>
-      <c r="M133" s="429"/>
+      <c r="K133" s="430"/>
+      <c r="L133" s="430"/>
+      <c r="M133" s="431"/>
       <c r="N133" s="6"/>
     </row>
     <row r="134" spans="1:14">
@@ -31438,11 +31441,11 @@
         <v>1529</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="403"/>
-      <c r="J134" s="430"/>
-      <c r="K134" s="431"/>
-      <c r="L134" s="431"/>
-      <c r="M134" s="432"/>
+      <c r="I134" s="405"/>
+      <c r="J134" s="432"/>
+      <c r="K134" s="433"/>
+      <c r="L134" s="433"/>
+      <c r="M134" s="434"/>
       <c r="N134" s="6"/>
     </row>
     <row r="135" spans="1:14" ht="15.75" thickBot="1">
@@ -31454,29 +31457,29 @@
       <c r="D135" s="10"/>
       <c r="E135" s="9"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="403"/>
-      <c r="J135" s="430"/>
-      <c r="K135" s="431"/>
-      <c r="L135" s="431"/>
-      <c r="M135" s="432"/>
+      <c r="I135" s="405"/>
+      <c r="J135" s="432"/>
+      <c r="K135" s="433"/>
+      <c r="L135" s="433"/>
+      <c r="M135" s="434"/>
       <c r="N135" s="6"/>
     </row>
     <row r="136" spans="1:14">
       <c r="H136" s="4"/>
-      <c r="I136" s="403"/>
-      <c r="J136" s="430"/>
-      <c r="K136" s="431"/>
-      <c r="L136" s="431"/>
-      <c r="M136" s="432"/>
+      <c r="I136" s="405"/>
+      <c r="J136" s="432"/>
+      <c r="K136" s="433"/>
+      <c r="L136" s="433"/>
+      <c r="M136" s="434"/>
       <c r="N136" s="6"/>
     </row>
     <row r="137" spans="1:14">
       <c r="H137" s="4"/>
-      <c r="I137" s="403"/>
-      <c r="J137" s="430"/>
-      <c r="K137" s="431"/>
-      <c r="L137" s="431"/>
-      <c r="M137" s="432"/>
+      <c r="I137" s="405"/>
+      <c r="J137" s="432"/>
+      <c r="K137" s="433"/>
+      <c r="L137" s="433"/>
+      <c r="M137" s="434"/>
       <c r="N137" s="6"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
@@ -31484,11 +31487,11 @@
         <v>1577</v>
       </c>
       <c r="H138" s="4"/>
-      <c r="I138" s="417"/>
-      <c r="J138" s="433"/>
-      <c r="K138" s="434"/>
-      <c r="L138" s="434"/>
-      <c r="M138" s="435"/>
+      <c r="I138" s="419"/>
+      <c r="J138" s="435"/>
+      <c r="K138" s="436"/>
+      <c r="L138" s="436"/>
+      <c r="M138" s="437"/>
       <c r="N138" s="6"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
@@ -32283,7 +32286,7 @@
       <c r="J224" s="4"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
-      <c r="M224" s="407" t="s">
+      <c r="M224" s="409" t="s">
         <v>782</v>
       </c>
       <c r="N224" s="345" t="s">
@@ -32307,7 +32310,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
-      <c r="M225" s="407"/>
+      <c r="M225" s="409"/>
       <c r="N225" s="345" t="s">
         <v>363</v>
       </c>
@@ -32325,7 +32328,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
-      <c r="M226" s="407"/>
+      <c r="M226" s="409"/>
       <c r="N226" s="345"/>
     </row>
     <row r="227" spans="1:14">
@@ -32338,7 +32341,7 @@
       <c r="J227" s="4"/>
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
-      <c r="M227" s="408"/>
+      <c r="M227" s="410"/>
       <c r="N227" s="346"/>
     </row>
     <row r="228" spans="1:14">
@@ -32573,7 +32576,7 @@
       <c r="J244" s="4"/>
       <c r="K244" s="5"/>
       <c r="L244" s="5"/>
-      <c r="M244" s="407" t="s">
+      <c r="M244" s="409" t="s">
         <v>782</v>
       </c>
       <c r="N244" s="345" t="s">
@@ -32597,7 +32600,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
-      <c r="M245" s="407"/>
+      <c r="M245" s="409"/>
       <c r="N245" s="345" t="s">
         <v>363</v>
       </c>
@@ -32615,7 +32618,7 @@
       <c r="J246" s="4"/>
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
-      <c r="M246" s="407"/>
+      <c r="M246" s="409"/>
       <c r="N246" s="345"/>
     </row>
     <row r="247" spans="1:14">
@@ -32628,7 +32631,7 @@
       <c r="J247" s="4"/>
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
-      <c r="M247" s="408"/>
+      <c r="M247" s="410"/>
       <c r="N247" s="346"/>
     </row>
     <row r="248" spans="1:14">
@@ -33217,13 +33220,13 @@
         <v>180</v>
       </c>
       <c r="J3" s="145"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
-      <c r="N3" s="445"/>
-      <c r="O3" s="445"/>
-      <c r="P3" s="445"/>
-      <c r="Q3" s="446"/>
+      <c r="K3" s="447"/>
+      <c r="L3" s="447"/>
+      <c r="M3" s="447"/>
+      <c r="N3" s="447"/>
+      <c r="O3" s="447"/>
+      <c r="P3" s="447"/>
+      <c r="Q3" s="448"/>
       <c r="T3" s="39" t="s">
         <v>178</v>
       </c>
@@ -33491,13 +33494,13 @@
       <c r="U11" s="37"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="436" t="s">
+      <c r="A12" s="438" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="437"/>
-      <c r="C12" s="437"/>
-      <c r="D12" s="437"/>
-      <c r="E12" s="438"/>
+      <c r="B12" s="439"/>
+      <c r="C12" s="439"/>
+      <c r="D12" s="439"/>
+      <c r="E12" s="440"/>
       <c r="F12" t="s">
         <v>694</v>
       </c>
@@ -33520,11 +33523,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="439"/>
-      <c r="B13" s="440"/>
-      <c r="C13" s="440"/>
-      <c r="D13" s="440"/>
-      <c r="E13" s="441"/>
+      <c r="A13" s="441"/>
+      <c r="B13" s="442"/>
+      <c r="C13" s="442"/>
+      <c r="D13" s="442"/>
+      <c r="E13" s="443"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -33545,11 +33548,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="439"/>
-      <c r="B14" s="440"/>
-      <c r="C14" s="440"/>
-      <c r="D14" s="440"/>
-      <c r="E14" s="441"/>
+      <c r="A14" s="441"/>
+      <c r="B14" s="442"/>
+      <c r="C14" s="442"/>
+      <c r="D14" s="442"/>
+      <c r="E14" s="443"/>
       <c r="F14" t="s">
         <v>691</v>
       </c>
@@ -33572,11 +33575,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="442"/>
-      <c r="B15" s="443"/>
-      <c r="C15" s="443"/>
-      <c r="D15" s="443"/>
-      <c r="E15" s="444"/>
+      <c r="A15" s="444"/>
+      <c r="B15" s="445"/>
+      <c r="C15" s="445"/>
+      <c r="D15" s="445"/>
+      <c r="E15" s="446"/>
       <c r="F15" s="23"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -33634,17 +33637,17 @@
       <c r="F17" s="189"/>
       <c r="G17" s="126"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="410" t="s">
+      <c r="I17" s="412" t="s">
         <v>1191</v>
       </c>
-      <c r="J17" s="410"/>
-      <c r="K17" s="410"/>
-      <c r="L17" s="410"/>
-      <c r="M17" s="410"/>
-      <c r="N17" s="410"/>
-      <c r="O17" s="410"/>
-      <c r="P17" s="410"/>
-      <c r="Q17" s="410"/>
+      <c r="J17" s="412"/>
+      <c r="K17" s="412"/>
+      <c r="L17" s="412"/>
+      <c r="M17" s="412"/>
+      <c r="N17" s="412"/>
+      <c r="O17" s="412"/>
+      <c r="P17" s="412"/>
+      <c r="Q17" s="412"/>
       <c r="S17" t="s">
         <v>357</v>
       </c>
@@ -37930,10 +37933,10 @@
       <c r="K232" s="34"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="447" t="s">
+      <c r="O232" s="449" t="s">
         <v>1239</v>
       </c>
-      <c r="P232" s="448"/>
+      <c r="P232" s="450"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="1808">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5828,6 +5828,108 @@
   </si>
   <si>
     <t>pwd=john1!</t>
+  </si>
+  <si>
+    <t>ShoppingCart obj1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;iphone&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;samsung&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;moto&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;sony&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Request1</t>
+  </si>
+  <si>
+    <t>Request2</t>
+  </si>
+  <si>
+    <t>1 per customer… as long as login session is valid</t>
+  </si>
+  <si>
+    <t>Session scope</t>
+  </si>
+  <si>
+    <t>text file</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>record book</t>
+  </si>
+  <si>
+    <t>log book</t>
+  </si>
+  <si>
+    <t>customer 1 jst loggedin</t>
+  </si>
+  <si>
+    <t>customer 2 added moto in the cart</t>
+  </si>
+  <si>
+    <t>customer 1 added iphone to the cart</t>
+  </si>
+  <si>
+    <t>DEBUGGING</t>
+  </si>
+  <si>
+    <t>singleton scope</t>
+  </si>
+  <si>
+    <t>Request Scope</t>
+  </si>
+  <si>
+    <t>prototype scope</t>
+  </si>
+  <si>
+    <t>ProgramA</t>
+  </si>
+  <si>
+    <t>ProgramB</t>
+  </si>
+  <si>
+    <t>public void login(){</t>
+  </si>
+  <si>
+    <t>public void method(){</t>
+  </si>
+  <si>
+    <t>ProgramB pb;</t>
+  </si>
+  <si>
+    <t>at autowired</t>
+  </si>
+  <si>
+    <t>pb.login();</t>
+  </si>
+  <si>
+    <t>JoinPoint</t>
+  </si>
+  <si>
+    <t>loggin</t>
+  </si>
+  <si>
+    <t>secutiry</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>exception handling</t>
+  </si>
+  <si>
+    <t>Point Cut</t>
+  </si>
+  <si>
+    <t>ASPECT</t>
   </si>
 </sst>
 </file>
@@ -6771,7 +6873,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="556">
+  <cellXfs count="557">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -7541,6 +7643,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7561,21 +7675,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7607,6 +7706,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7616,59 +7718,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7727,6 +7778,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7751,17 +7853,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7805,51 +7940,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12750,8 +12853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18831,8 +18934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q237"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F221" sqref="F221"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18867,7 +18970,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="460" t="s">
+      <c r="E6" s="453" t="s">
         <v>404</v>
       </c>
       <c r="F6" s="400"/>
@@ -18891,7 +18994,7 @@
       <c r="A7" s="15" t="s">
         <v>1671</v>
       </c>
-      <c r="D7" s="457">
+      <c r="D7" s="461">
         <v>80</v>
       </c>
       <c r="E7" s="222"/>
@@ -18909,7 +19012,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="457"/>
+      <c r="D8" s="461"/>
       <c r="E8" s="47" t="s">
         <v>406</v>
       </c>
@@ -18944,7 +19047,7 @@
       <c r="B9" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="457"/>
+      <c r="D9" s="461"/>
       <c r="E9" s="224"/>
       <c r="F9" s="233"/>
       <c r="G9" s="136"/>
@@ -18968,7 +19071,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="D10" s="457"/>
+      <c r="D10" s="461"/>
       <c r="E10" s="222"/>
       <c r="F10" s="232"/>
       <c r="G10" s="379"/>
@@ -18992,7 +19095,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="457"/>
+      <c r="D11" s="461"/>
       <c r="E11" s="47" t="s">
         <v>410</v>
       </c>
@@ -19021,7 +19124,7 @@
       <c r="B12" s="206" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="457"/>
+      <c r="D12" s="461"/>
       <c r="E12" s="224"/>
       <c r="F12" s="233"/>
       <c r="G12" s="383"/>
@@ -19042,7 +19145,7 @@
       <c r="B13" t="s">
         <v>1672</v>
       </c>
-      <c r="D13" s="457"/>
+      <c r="D13" s="461"/>
       <c r="E13" s="222"/>
       <c r="F13" s="232"/>
       <c r="G13" s="385"/>
@@ -19058,7 +19161,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="D14" s="457"/>
+      <c r="D14" s="461"/>
       <c r="E14" s="47" t="s">
         <v>415</v>
       </c>
@@ -19085,7 +19188,7 @@
       <c r="B15" t="s">
         <v>1673</v>
       </c>
-      <c r="D15" s="457"/>
+      <c r="D15" s="461"/>
       <c r="E15" s="224"/>
       <c r="F15" s="233"/>
       <c r="G15" s="389"/>
@@ -19104,7 +19207,7 @@
       <c r="B16" t="s">
         <v>1391</v>
       </c>
-      <c r="D16" s="457"/>
+      <c r="D16" s="461"/>
       <c r="E16" s="222"/>
       <c r="F16" s="232"/>
       <c r="G16" s="391"/>
@@ -19124,7 +19227,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="457"/>
+      <c r="D17" s="461"/>
       <c r="E17" s="47" t="s">
         <v>419</v>
       </c>
@@ -19152,7 +19255,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="457"/>
+      <c r="D18" s="461"/>
       <c r="E18" s="224"/>
       <c r="F18" s="233"/>
       <c r="G18" s="394"/>
@@ -19171,20 +19274,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="461" t="s">
+      <c r="E19" s="454" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="462"/>
-      <c r="G19" s="461" t="s">
+      <c r="F19" s="455"/>
+      <c r="G19" s="454" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="462"/>
-      <c r="I19" s="461" t="s">
+      <c r="H19" s="455"/>
+      <c r="I19" s="454" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="463"/>
-      <c r="K19" s="463"/>
-      <c r="L19" s="462"/>
+      <c r="J19" s="456"/>
+      <c r="K19" s="456"/>
+      <c r="L19" s="455"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -19249,12 +19352,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="459"/>
-      <c r="H24" s="459"/>
-      <c r="I24" s="459"/>
-      <c r="J24" s="459"/>
-      <c r="K24" s="459"/>
-      <c r="L24" s="459"/>
+      <c r="G24" s="463"/>
+      <c r="H24" s="463"/>
+      <c r="I24" s="463"/>
+      <c r="J24" s="463"/>
+      <c r="K24" s="463"/>
+      <c r="L24" s="463"/>
       <c r="O24" s="39" t="s">
         <v>178</v>
       </c>
@@ -19673,7 +19776,7 @@
       <c r="H47" s="449" t="s">
         <v>1367</v>
       </c>
-      <c r="I47" s="458"/>
+      <c r="I47" s="462"/>
       <c r="J47" s="450"/>
     </row>
     <row r="48" spans="1:17">
@@ -20280,16 +20383,16 @@
         <v>1062</v>
       </c>
       <c r="F131" s="37"/>
-      <c r="G131" s="455" t="s">
+      <c r="G131" s="459" t="s">
         <v>1055</v>
       </c>
-      <c r="H131" s="455"/>
-      <c r="I131" s="455"/>
-      <c r="J131" s="455"/>
-      <c r="K131" s="455"/>
-      <c r="L131" s="455"/>
-      <c r="M131" s="455"/>
-      <c r="N131" s="455"/>
+      <c r="H131" s="459"/>
+      <c r="I131" s="459"/>
+      <c r="J131" s="459"/>
+      <c r="K131" s="459"/>
+      <c r="L131" s="459"/>
+      <c r="M131" s="459"/>
+      <c r="N131" s="459"/>
       <c r="O131" s="37"/>
     </row>
     <row r="132" spans="2:15">
@@ -20426,29 +20529,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="37"/>
-      <c r="G141" s="456"/>
-      <c r="H141" s="456"/>
-      <c r="I141" s="456"/>
-      <c r="J141" s="456"/>
-      <c r="K141" s="456"/>
-      <c r="L141" s="456"/>
-      <c r="M141" s="456"/>
-      <c r="N141" s="456"/>
-      <c r="O141" s="456"/>
+      <c r="G141" s="460"/>
+      <c r="H141" s="460"/>
+      <c r="I141" s="460"/>
+      <c r="J141" s="460"/>
+      <c r="K141" s="460"/>
+      <c r="L141" s="460"/>
+      <c r="M141" s="460"/>
+      <c r="N141" s="460"/>
+      <c r="O141" s="460"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="456"/>
-      <c r="H142" s="456"/>
-      <c r="I142" s="456"/>
-      <c r="J142" s="456"/>
-      <c r="K142" s="456"/>
-      <c r="L142" s="456"/>
-      <c r="M142" s="456"/>
-      <c r="N142" s="456"/>
-      <c r="O142" s="456"/>
+      <c r="G142" s="460"/>
+      <c r="H142" s="460"/>
+      <c r="I142" s="460"/>
+      <c r="J142" s="460"/>
+      <c r="K142" s="460"/>
+      <c r="L142" s="460"/>
+      <c r="M142" s="460"/>
+      <c r="N142" s="460"/>
+      <c r="O142" s="460"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -20492,7 +20595,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="453" t="s">
+      <c r="D158" s="457" t="s">
         <v>1333</v>
       </c>
       <c r="E158" s="65"/>
@@ -20505,7 +20608,7 @@
       <c r="L158" s="234"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="454"/>
+      <c r="D159" s="458"/>
       <c r="E159" s="309" t="s">
         <v>1331</v>
       </c>
@@ -20527,7 +20630,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="454"/>
+      <c r="D160" s="458"/>
       <c r="E160" s="229"/>
       <c r="F160" s="235"/>
       <c r="G160" s="229"/>
@@ -20538,7 +20641,7 @@
       <c r="L160" s="235"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="454"/>
+      <c r="D161" s="458"/>
       <c r="E161" s="311"/>
       <c r="F161" s="312"/>
       <c r="G161" s="311"/>
@@ -20549,7 +20652,7 @@
       <c r="L161" s="312"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="454"/>
+      <c r="D162" s="458"/>
       <c r="E162" s="313"/>
       <c r="F162" s="314"/>
       <c r="G162" s="313"/>
@@ -20563,7 +20666,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="454"/>
+      <c r="D163" s="458"/>
       <c r="E163" s="315"/>
       <c r="F163" s="316"/>
       <c r="G163" s="315"/>
@@ -20574,7 +20677,7 @@
       <c r="L163" s="316"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="454"/>
+      <c r="D164" s="458"/>
       <c r="E164" s="65"/>
       <c r="F164" s="234"/>
       <c r="G164" s="65"/>
@@ -20585,7 +20688,7 @@
       <c r="L164" s="234"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="454"/>
+      <c r="D165" s="458"/>
       <c r="E165" s="57"/>
       <c r="F165" s="308"/>
       <c r="G165" s="57"/>
@@ -20599,7 +20702,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="454"/>
+      <c r="D166" s="458"/>
       <c r="E166" s="229"/>
       <c r="F166" s="235"/>
       <c r="G166" s="229"/>
@@ -20610,7 +20713,7 @@
       <c r="L166" s="235"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="454"/>
+      <c r="D167" s="458"/>
       <c r="E167" s="65"/>
       <c r="F167" s="234"/>
       <c r="G167" s="58"/>
@@ -20621,7 +20724,7 @@
       <c r="L167" s="308"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="454"/>
+      <c r="D168" s="458"/>
       <c r="E168" s="57"/>
       <c r="F168" s="308"/>
       <c r="G168" s="58"/>
@@ -20635,7 +20738,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="454"/>
+      <c r="D169" s="458"/>
       <c r="E169" s="229"/>
       <c r="F169" s="235"/>
       <c r="G169" s="317"/>
@@ -21030,17 +21133,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -21303,7 +21406,7 @@
       <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="464">
+      <c r="C21" s="474">
         <v>43909</v>
       </c>
       <c r="D21" s="428"/>
@@ -21323,7 +21426,7 @@
       <c r="N21" s="428"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="464"/>
+      <c r="C22" s="474"/>
       <c r="D22" s="428"/>
       <c r="E22" s="428"/>
       <c r="F22" s="428"/>
@@ -21341,7 +21444,7 @@
       <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="464"/>
+      <c r="C23" s="474"/>
       <c r="D23" s="428"/>
       <c r="E23" s="428"/>
       <c r="F23" s="428"/>
@@ -21357,7 +21460,7 @@
       <c r="N23" s="428"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="464"/>
+      <c r="C24" s="474"/>
       <c r="D24" s="428"/>
       <c r="E24" s="428"/>
       <c r="F24" s="428"/>
@@ -21396,16 +21499,16 @@
       <c r="C26" s="113">
         <v>43911</v>
       </c>
-      <c r="D26" s="465"/>
-      <c r="E26" s="466"/>
-      <c r="F26" s="466"/>
-      <c r="G26" s="466"/>
-      <c r="H26" s="467"/>
-      <c r="I26" s="472" t="s">
+      <c r="D26" s="464"/>
+      <c r="E26" s="465"/>
+      <c r="F26" s="465"/>
+      <c r="G26" s="465"/>
+      <c r="H26" s="466"/>
+      <c r="I26" s="471" t="s">
         <v>458</v>
       </c>
-      <c r="J26" s="465"/>
-      <c r="K26" s="467"/>
+      <c r="J26" s="464"/>
+      <c r="K26" s="466"/>
       <c r="L26" s="114" t="s">
         <v>459</v>
       </c>
@@ -21414,14 +21517,14 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="37"/>
-      <c r="D27" s="468"/>
-      <c r="E27" s="459"/>
-      <c r="F27" s="459"/>
-      <c r="G27" s="459"/>
-      <c r="H27" s="469"/>
-      <c r="I27" s="473"/>
-      <c r="J27" s="468"/>
-      <c r="K27" s="469"/>
+      <c r="D27" s="467"/>
+      <c r="E27" s="463"/>
+      <c r="F27" s="463"/>
+      <c r="G27" s="463"/>
+      <c r="H27" s="468"/>
+      <c r="I27" s="472"/>
+      <c r="J27" s="467"/>
+      <c r="K27" s="468"/>
       <c r="L27" s="428" t="s">
         <v>463</v>
       </c>
@@ -21430,14 +21533,14 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="37"/>
-      <c r="D28" s="468"/>
-      <c r="E28" s="459"/>
-      <c r="F28" s="459"/>
-      <c r="G28" s="459"/>
-      <c r="H28" s="469"/>
-      <c r="I28" s="473"/>
-      <c r="J28" s="468"/>
-      <c r="K28" s="469"/>
+      <c r="D28" s="467"/>
+      <c r="E28" s="463"/>
+      <c r="F28" s="463"/>
+      <c r="G28" s="463"/>
+      <c r="H28" s="468"/>
+      <c r="I28" s="472"/>
+      <c r="J28" s="467"/>
+      <c r="K28" s="468"/>
       <c r="L28" s="115" t="s">
         <v>458</v>
       </c>
@@ -21446,14 +21549,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="37"/>
-      <c r="D29" s="470"/>
+      <c r="D29" s="469"/>
       <c r="E29" s="451"/>
       <c r="F29" s="451"/>
       <c r="G29" s="451"/>
-      <c r="H29" s="471"/>
-      <c r="I29" s="474"/>
-      <c r="J29" s="470"/>
-      <c r="K29" s="471"/>
+      <c r="H29" s="470"/>
+      <c r="I29" s="473"/>
+      <c r="J29" s="469"/>
+      <c r="K29" s="470"/>
       <c r="L29" s="116" t="s">
         <v>464</v>
       </c>
@@ -21518,7 +21621,7 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="464">
+      <c r="C34" s="474">
         <v>43909</v>
       </c>
       <c r="D34" s="428"/>
@@ -21536,7 +21639,7 @@
       <c r="N34" s="428"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="464"/>
+      <c r="C35" s="474"/>
       <c r="D35" s="428"/>
       <c r="E35" s="428"/>
       <c r="F35" s="428"/>
@@ -21552,7 +21655,7 @@
       <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="464"/>
+      <c r="C36" s="474"/>
       <c r="D36" s="428"/>
       <c r="E36" s="428"/>
       <c r="F36" s="428"/>
@@ -21568,7 +21671,7 @@
       <c r="N36" s="428"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="464"/>
+      <c r="C37" s="474"/>
       <c r="D37" s="428"/>
       <c r="E37" s="428"/>
       <c r="F37" s="428"/>
@@ -21607,14 +21710,14 @@
       <c r="C39" s="113">
         <v>43911</v>
       </c>
-      <c r="D39" s="465"/>
-      <c r="E39" s="466"/>
-      <c r="F39" s="466"/>
-      <c r="G39" s="466"/>
-      <c r="H39" s="467"/>
-      <c r="I39" s="472"/>
-      <c r="J39" s="465"/>
-      <c r="K39" s="467"/>
+      <c r="D39" s="464"/>
+      <c r="E39" s="465"/>
+      <c r="F39" s="465"/>
+      <c r="G39" s="465"/>
+      <c r="H39" s="466"/>
+      <c r="I39" s="471"/>
+      <c r="J39" s="464"/>
+      <c r="K39" s="466"/>
       <c r="L39" s="114" t="s">
         <v>459</v>
       </c>
@@ -21623,14 +21726,14 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="37"/>
-      <c r="D40" s="468"/>
-      <c r="E40" s="459"/>
-      <c r="F40" s="459"/>
-      <c r="G40" s="459"/>
-      <c r="H40" s="469"/>
-      <c r="I40" s="473"/>
-      <c r="J40" s="468"/>
-      <c r="K40" s="469"/>
+      <c r="D40" s="467"/>
+      <c r="E40" s="463"/>
+      <c r="F40" s="463"/>
+      <c r="G40" s="463"/>
+      <c r="H40" s="468"/>
+      <c r="I40" s="472"/>
+      <c r="J40" s="467"/>
+      <c r="K40" s="468"/>
       <c r="L40" s="428" t="s">
         <v>463</v>
       </c>
@@ -21639,14 +21742,14 @@
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="37"/>
-      <c r="D41" s="468"/>
-      <c r="E41" s="459"/>
-      <c r="F41" s="459"/>
-      <c r="G41" s="459"/>
-      <c r="H41" s="469"/>
-      <c r="I41" s="474"/>
-      <c r="J41" s="468"/>
-      <c r="K41" s="469"/>
+      <c r="D41" s="467"/>
+      <c r="E41" s="463"/>
+      <c r="F41" s="463"/>
+      <c r="G41" s="463"/>
+      <c r="H41" s="468"/>
+      <c r="I41" s="473"/>
+      <c r="J41" s="467"/>
+      <c r="K41" s="468"/>
       <c r="L41" s="115" t="s">
         <v>465</v>
       </c>
@@ -21655,16 +21758,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="37"/>
-      <c r="D42" s="470"/>
+      <c r="D42" s="469"/>
       <c r="E42" s="451"/>
       <c r="F42" s="451"/>
       <c r="G42" s="451"/>
-      <c r="H42" s="471"/>
+      <c r="H42" s="470"/>
       <c r="I42" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J42" s="470"/>
-      <c r="K42" s="471"/>
+      <c r="J42" s="469"/>
+      <c r="K42" s="470"/>
       <c r="L42" s="116" t="s">
         <v>464</v>
       </c>
@@ -21976,17 +22079,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -21994,12 +22092,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22021,29 +22124,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="488" t="s">
+      <c r="B2" s="498" t="s">
         <v>1090</v>
       </c>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
-      <c r="K2" s="488"/>
-      <c r="L2" s="488"/>
-      <c r="M2" s="488"/>
-      <c r="N2" s="488"/>
-      <c r="O2" s="488"/>
-      <c r="P2" s="488"/>
-      <c r="Q2" s="488"/>
-      <c r="R2" s="488"/>
-      <c r="S2" s="488"/>
-      <c r="T2" s="488"/>
-      <c r="U2" s="488"/>
-      <c r="V2" s="488"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="498"/>
+      <c r="F2" s="498"/>
+      <c r="G2" s="498"/>
+      <c r="H2" s="498"/>
+      <c r="I2" s="498"/>
+      <c r="J2" s="498"/>
+      <c r="K2" s="498"/>
+      <c r="L2" s="498"/>
+      <c r="M2" s="498"/>
+      <c r="N2" s="498"/>
+      <c r="O2" s="498"/>
+      <c r="P2" s="498"/>
+      <c r="Q2" s="498"/>
+      <c r="R2" s="498"/>
+      <c r="S2" s="498"/>
+      <c r="T2" s="498"/>
+      <c r="U2" s="498"/>
+      <c r="V2" s="498"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -22076,22 +22179,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="491" t="s">
+      <c r="G5" s="478" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="491"/>
-      <c r="I5" s="491" t="s">
+      <c r="H5" s="478"/>
+      <c r="I5" s="478" t="s">
         <v>517</v>
       </c>
-      <c r="J5" s="491"/>
-      <c r="K5" s="491"/>
-      <c r="L5" s="491"/>
-      <c r="M5" s="491"/>
-      <c r="N5" s="491"/>
-      <c r="O5" s="491" t="s">
+      <c r="J5" s="478"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="478"/>
+      <c r="M5" s="478"/>
+      <c r="N5" s="478"/>
+      <c r="O5" s="478" t="s">
         <v>518</v>
       </c>
-      <c r="P5" s="491"/>
+      <c r="P5" s="478"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -22103,7 +22206,7 @@
       <c r="D6" s="132"/>
       <c r="E6" s="133"/>
       <c r="F6" s="135"/>
-      <c r="G6" s="496" t="s">
+      <c r="G6" s="479" t="s">
         <v>519</v>
       </c>
       <c r="H6" s="108"/>
@@ -22132,26 +22235,26 @@
       </c>
       <c r="E7" s="135"/>
       <c r="F7" s="135"/>
-      <c r="G7" s="497"/>
-      <c r="H7" s="499" t="s">
+      <c r="G7" s="480"/>
+      <c r="H7" s="482" t="s">
         <v>521</v>
       </c>
       <c r="I7" s="427" t="s">
         <v>522</v>
       </c>
-      <c r="J7" s="502"/>
-      <c r="K7" s="503" t="s">
+      <c r="J7" s="485"/>
+      <c r="K7" s="486" t="s">
         <v>523</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="487"/>
       <c r="M7" s="427" t="s">
         <v>524</v>
       </c>
-      <c r="N7" s="502"/>
-      <c r="O7" s="509" t="s">
+      <c r="N7" s="485"/>
+      <c r="O7" s="492" t="s">
         <v>525</v>
       </c>
-      <c r="P7" s="510"/>
+      <c r="P7" s="493"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -22163,16 +22266,16 @@
       <c r="D8" s="136"/>
       <c r="E8" s="137"/>
       <c r="F8" s="135"/>
-      <c r="G8" s="497"/>
-      <c r="H8" s="500"/>
+      <c r="G8" s="480"/>
+      <c r="H8" s="483"/>
       <c r="I8" s="405"/>
       <c r="J8" s="407"/>
-      <c r="K8" s="505"/>
-      <c r="L8" s="506"/>
+      <c r="K8" s="488"/>
+      <c r="L8" s="489"/>
       <c r="M8" s="405"/>
       <c r="N8" s="407"/>
-      <c r="O8" s="511"/>
-      <c r="P8" s="512"/>
+      <c r="O8" s="494"/>
+      <c r="P8" s="495"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="37" t="s">
         <v>181</v>
@@ -22190,16 +22293,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="497"/>
-      <c r="H9" s="500"/>
+      <c r="G9" s="480"/>
+      <c r="H9" s="483"/>
       <c r="I9" s="405"/>
       <c r="J9" s="407"/>
-      <c r="K9" s="505"/>
-      <c r="L9" s="506"/>
+      <c r="K9" s="488"/>
+      <c r="L9" s="489"/>
       <c r="M9" s="405"/>
       <c r="N9" s="407"/>
-      <c r="O9" s="511"/>
-      <c r="P9" s="512"/>
+      <c r="O9" s="494"/>
+      <c r="P9" s="495"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -22219,16 +22322,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="497"/>
-      <c r="H10" s="500"/>
+      <c r="G10" s="480"/>
+      <c r="H10" s="483"/>
       <c r="I10" s="405"/>
       <c r="J10" s="407"/>
-      <c r="K10" s="505"/>
-      <c r="L10" s="506"/>
+      <c r="K10" s="488"/>
+      <c r="L10" s="489"/>
       <c r="M10" s="405"/>
       <c r="N10" s="407"/>
-      <c r="O10" s="511"/>
-      <c r="P10" s="512"/>
+      <c r="O10" s="494"/>
+      <c r="P10" s="495"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -22244,16 +22347,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="497"/>
-      <c r="H11" s="500"/>
+      <c r="G11" s="480"/>
+      <c r="H11" s="483"/>
       <c r="I11" s="405"/>
       <c r="J11" s="407"/>
-      <c r="K11" s="505"/>
-      <c r="L11" s="506"/>
+      <c r="K11" s="488"/>
+      <c r="L11" s="489"/>
       <c r="M11" s="405"/>
       <c r="N11" s="407"/>
-      <c r="O11" s="511"/>
-      <c r="P11" s="512"/>
+      <c r="O11" s="494"/>
+      <c r="P11" s="495"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -22271,16 +22374,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="497"/>
-      <c r="H12" s="500"/>
+      <c r="G12" s="480"/>
+      <c r="H12" s="483"/>
       <c r="I12" s="405"/>
       <c r="J12" s="407"/>
-      <c r="K12" s="505"/>
-      <c r="L12" s="506"/>
+      <c r="K12" s="488"/>
+      <c r="L12" s="489"/>
       <c r="M12" s="405"/>
       <c r="N12" s="407"/>
-      <c r="O12" s="511"/>
-      <c r="P12" s="512"/>
+      <c r="O12" s="494"/>
+      <c r="P12" s="495"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -22294,16 +22397,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="497"/>
-      <c r="H13" s="500"/>
+      <c r="G13" s="480"/>
+      <c r="H13" s="483"/>
       <c r="I13" s="405"/>
       <c r="J13" s="407"/>
-      <c r="K13" s="505"/>
-      <c r="L13" s="506"/>
+      <c r="K13" s="488"/>
+      <c r="L13" s="489"/>
       <c r="M13" s="405"/>
       <c r="N13" s="407"/>
-      <c r="O13" s="511"/>
-      <c r="P13" s="512"/>
+      <c r="O13" s="494"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -22315,16 +22418,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="497"/>
-      <c r="H14" s="500"/>
+      <c r="G14" s="480"/>
+      <c r="H14" s="483"/>
       <c r="I14" s="405"/>
       <c r="J14" s="407"/>
-      <c r="K14" s="505"/>
-      <c r="L14" s="506"/>
+      <c r="K14" s="488"/>
+      <c r="L14" s="489"/>
       <c r="M14" s="405"/>
       <c r="N14" s="407"/>
-      <c r="O14" s="511"/>
-      <c r="P14" s="512"/>
+      <c r="O14" s="494"/>
+      <c r="P14" s="495"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -22338,16 +22441,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="497"/>
-      <c r="H15" s="500"/>
+      <c r="G15" s="480"/>
+      <c r="H15" s="483"/>
       <c r="I15" s="405"/>
       <c r="J15" s="407"/>
-      <c r="K15" s="505"/>
-      <c r="L15" s="506"/>
+      <c r="K15" s="488"/>
+      <c r="L15" s="489"/>
       <c r="M15" s="405"/>
       <c r="N15" s="407"/>
-      <c r="O15" s="511"/>
-      <c r="P15" s="512"/>
+      <c r="O15" s="494"/>
+      <c r="P15" s="495"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -22359,16 +22462,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="497"/>
-      <c r="H16" s="500"/>
+      <c r="G16" s="480"/>
+      <c r="H16" s="483"/>
       <c r="I16" s="405"/>
       <c r="J16" s="407"/>
-      <c r="K16" s="505"/>
-      <c r="L16" s="506"/>
+      <c r="K16" s="488"/>
+      <c r="L16" s="489"/>
       <c r="M16" s="405"/>
       <c r="N16" s="407"/>
-      <c r="O16" s="511"/>
-      <c r="P16" s="512"/>
+      <c r="O16" s="494"/>
+      <c r="P16" s="495"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -22380,16 +22483,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="497"/>
-      <c r="H17" s="500"/>
+      <c r="G17" s="480"/>
+      <c r="H17" s="483"/>
       <c r="I17" s="405"/>
       <c r="J17" s="407"/>
-      <c r="K17" s="505"/>
-      <c r="L17" s="506"/>
+      <c r="K17" s="488"/>
+      <c r="L17" s="489"/>
       <c r="M17" s="405"/>
       <c r="N17" s="407"/>
-      <c r="O17" s="511"/>
-      <c r="P17" s="512"/>
+      <c r="O17" s="494"/>
+      <c r="P17" s="495"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -22401,16 +22504,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="497"/>
-      <c r="H18" s="500"/>
+      <c r="G18" s="480"/>
+      <c r="H18" s="483"/>
       <c r="I18" s="405"/>
       <c r="J18" s="407"/>
-      <c r="K18" s="505"/>
-      <c r="L18" s="506"/>
+      <c r="K18" s="488"/>
+      <c r="L18" s="489"/>
       <c r="M18" s="405"/>
       <c r="N18" s="407"/>
-      <c r="O18" s="511"/>
-      <c r="P18" s="512"/>
+      <c r="O18" s="494"/>
+      <c r="P18" s="495"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -22424,16 +22527,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="497"/>
-      <c r="H19" s="500"/>
+      <c r="G19" s="480"/>
+      <c r="H19" s="483"/>
       <c r="I19" s="405"/>
       <c r="J19" s="407"/>
-      <c r="K19" s="505"/>
-      <c r="L19" s="506"/>
+      <c r="K19" s="488"/>
+      <c r="L19" s="489"/>
       <c r="M19" s="405"/>
       <c r="N19" s="407"/>
-      <c r="O19" s="511"/>
-      <c r="P19" s="512"/>
+      <c r="O19" s="494"/>
+      <c r="P19" s="495"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -22445,16 +22548,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="498"/>
-      <c r="H20" s="501"/>
+      <c r="G20" s="481"/>
+      <c r="H20" s="484"/>
       <c r="I20" s="419"/>
       <c r="J20" s="421"/>
-      <c r="K20" s="507"/>
-      <c r="L20" s="508"/>
+      <c r="K20" s="490"/>
+      <c r="L20" s="491"/>
       <c r="M20" s="419"/>
       <c r="N20" s="421"/>
-      <c r="O20" s="513"/>
-      <c r="P20" s="514"/>
+      <c r="O20" s="496"/>
+      <c r="P20" s="497"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -22535,49 +22638,49 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="488" t="s">
+      <c r="B25" s="498" t="s">
         <v>1089</v>
       </c>
-      <c r="C25" s="488"/>
-      <c r="D25" s="488"/>
-      <c r="E25" s="488"/>
-      <c r="F25" s="488"/>
-      <c r="G25" s="488"/>
-      <c r="H25" s="488"/>
-      <c r="I25" s="488"/>
-      <c r="J25" s="488"/>
-      <c r="K25" s="488"/>
-      <c r="L25" s="488"/>
-      <c r="M25" s="488"/>
-      <c r="N25" s="488"/>
-      <c r="O25" s="488"/>
-      <c r="P25" s="488"/>
-      <c r="Q25" s="488"/>
-      <c r="R25" s="488"/>
-      <c r="S25" s="488"/>
-      <c r="T25" s="488"/>
-      <c r="U25" s="488"/>
-      <c r="V25" s="488"/>
+      <c r="C25" s="498"/>
+      <c r="D25" s="498"/>
+      <c r="E25" s="498"/>
+      <c r="F25" s="498"/>
+      <c r="G25" s="498"/>
+      <c r="H25" s="498"/>
+      <c r="I25" s="498"/>
+      <c r="J25" s="498"/>
+      <c r="K25" s="498"/>
+      <c r="L25" s="498"/>
+      <c r="M25" s="498"/>
+      <c r="N25" s="498"/>
+      <c r="O25" s="498"/>
+      <c r="P25" s="498"/>
+      <c r="Q25" s="498"/>
+      <c r="R25" s="498"/>
+      <c r="S25" s="498"/>
+      <c r="T25" s="498"/>
+      <c r="U25" s="498"/>
+      <c r="V25" s="498"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="489" t="s">
+      <c r="C26" s="499" t="s">
         <v>568</v>
       </c>
-      <c r="D26" s="489"/>
-      <c r="E26" s="489"/>
-      <c r="F26" s="489"/>
-      <c r="G26" s="489"/>
-      <c r="H26" s="489"/>
-      <c r="I26" s="489"/>
-      <c r="J26" s="489"/>
-      <c r="K26" s="489"/>
-      <c r="L26" s="489"/>
-      <c r="M26" s="489"/>
+      <c r="D26" s="499"/>
+      <c r="E26" s="499"/>
+      <c r="F26" s="499"/>
+      <c r="G26" s="499"/>
+      <c r="H26" s="499"/>
+      <c r="I26" s="499"/>
+      <c r="J26" s="499"/>
+      <c r="K26" s="499"/>
+      <c r="L26" s="499"/>
+      <c r="M26" s="499"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="460" t="s">
+      <c r="E27" s="453" t="s">
         <v>177</v>
       </c>
       <c r="F27" s="399"/>
@@ -22620,11 +22723,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="490" t="s">
+      <c r="O29" s="500" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="490"/>
-      <c r="Q29" s="490"/>
+      <c r="P29" s="500"/>
+      <c r="Q29" s="500"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -22669,21 +22772,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="485" t="s">
+      <c r="E32" s="504" t="s">
         <v>1093</v>
       </c>
-      <c r="F32" s="486"/>
-      <c r="G32" s="487"/>
-      <c r="H32" s="485" t="s">
+      <c r="F32" s="505"/>
+      <c r="G32" s="506"/>
+      <c r="H32" s="504" t="s">
         <v>1094</v>
       </c>
-      <c r="I32" s="486"/>
-      <c r="J32" s="487"/>
-      <c r="K32" s="485" t="s">
+      <c r="I32" s="505"/>
+      <c r="J32" s="506"/>
+      <c r="K32" s="504" t="s">
         <v>1095</v>
       </c>
-      <c r="L32" s="486"/>
-      <c r="M32" s="487"/>
+      <c r="L32" s="505"/>
+      <c r="M32" s="506"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -22700,15 +22803,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="485"/>
-      <c r="F33" s="486"/>
-      <c r="G33" s="487"/>
-      <c r="H33" s="485"/>
-      <c r="I33" s="486"/>
-      <c r="J33" s="487"/>
-      <c r="K33" s="485"/>
-      <c r="L33" s="486"/>
-      <c r="M33" s="487"/>
+      <c r="E33" s="504"/>
+      <c r="F33" s="505"/>
+      <c r="G33" s="506"/>
+      <c r="H33" s="504"/>
+      <c r="I33" s="505"/>
+      <c r="J33" s="506"/>
+      <c r="K33" s="504"/>
+      <c r="L33" s="505"/>
+      <c r="M33" s="506"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -22725,15 +22828,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="485"/>
-      <c r="F34" s="486"/>
-      <c r="G34" s="487"/>
-      <c r="H34" s="485"/>
-      <c r="I34" s="486"/>
-      <c r="J34" s="487"/>
-      <c r="K34" s="485"/>
-      <c r="L34" s="486"/>
-      <c r="M34" s="487"/>
+      <c r="E34" s="504"/>
+      <c r="F34" s="505"/>
+      <c r="G34" s="506"/>
+      <c r="H34" s="504"/>
+      <c r="I34" s="505"/>
+      <c r="J34" s="506"/>
+      <c r="K34" s="504"/>
+      <c r="L34" s="505"/>
+      <c r="M34" s="506"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -22744,15 +22847,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="485"/>
-      <c r="F35" s="486"/>
-      <c r="G35" s="487"/>
-      <c r="H35" s="485"/>
-      <c r="I35" s="486"/>
-      <c r="J35" s="487"/>
-      <c r="K35" s="485"/>
-      <c r="L35" s="486"/>
-      <c r="M35" s="487"/>
+      <c r="E35" s="504"/>
+      <c r="F35" s="505"/>
+      <c r="G35" s="506"/>
+      <c r="H35" s="504"/>
+      <c r="I35" s="505"/>
+      <c r="J35" s="506"/>
+      <c r="K35" s="504"/>
+      <c r="L35" s="505"/>
+      <c r="M35" s="506"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -22883,15 +22986,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="478"/>
-      <c r="F42" s="479"/>
-      <c r="G42" s="479"/>
-      <c r="H42" s="479"/>
-      <c r="I42" s="479"/>
-      <c r="J42" s="479"/>
-      <c r="K42" s="479"/>
-      <c r="L42" s="479"/>
-      <c r="M42" s="480"/>
+      <c r="E42" s="508"/>
+      <c r="F42" s="509"/>
+      <c r="G42" s="509"/>
+      <c r="H42" s="509"/>
+      <c r="I42" s="509"/>
+      <c r="J42" s="509"/>
+      <c r="K42" s="509"/>
+      <c r="L42" s="509"/>
+      <c r="M42" s="510"/>
       <c r="N42" s="39" t="s">
         <v>573</v>
       </c>
@@ -22932,51 +23035,51 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="488" t="s">
+      <c r="B47" s="498" t="s">
         <v>1091</v>
       </c>
-      <c r="C47" s="488"/>
-      <c r="D47" s="488"/>
-      <c r="E47" s="488"/>
-      <c r="F47" s="488"/>
-      <c r="G47" s="488"/>
-      <c r="H47" s="488"/>
-      <c r="I47" s="488"/>
-      <c r="J47" s="488"/>
-      <c r="K47" s="488"/>
-      <c r="L47" s="488"/>
-      <c r="M47" s="488"/>
-      <c r="N47" s="488"/>
-      <c r="O47" s="488"/>
-      <c r="P47" s="488"/>
-      <c r="Q47" s="488"/>
-      <c r="R47" s="488"/>
-      <c r="S47" s="488"/>
-      <c r="T47" s="488"/>
-      <c r="U47" s="488"/>
-      <c r="V47" s="488"/>
+      <c r="C47" s="498"/>
+      <c r="D47" s="498"/>
+      <c r="E47" s="498"/>
+      <c r="F47" s="498"/>
+      <c r="G47" s="498"/>
+      <c r="H47" s="498"/>
+      <c r="I47" s="498"/>
+      <c r="J47" s="498"/>
+      <c r="K47" s="498"/>
+      <c r="L47" s="498"/>
+      <c r="M47" s="498"/>
+      <c r="N47" s="498"/>
+      <c r="O47" s="498"/>
+      <c r="P47" s="498"/>
+      <c r="Q47" s="498"/>
+      <c r="R47" s="498"/>
+      <c r="S47" s="498"/>
+      <c r="T47" s="498"/>
+      <c r="U47" s="498"/>
+      <c r="V47" s="498"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="489" t="s">
+      <c r="C48" s="499" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="489"/>
-      <c r="E48" s="489"/>
-      <c r="F48" s="489"/>
-      <c r="G48" s="489"/>
-      <c r="H48" s="489"/>
-      <c r="I48" s="489"/>
-      <c r="J48" s="489"/>
-      <c r="K48" s="489"/>
-      <c r="L48" s="489"/>
-      <c r="M48" s="489"/>
+      <c r="D48" s="499"/>
+      <c r="E48" s="499"/>
+      <c r="F48" s="499"/>
+      <c r="G48" s="499"/>
+      <c r="H48" s="499"/>
+      <c r="I48" s="499"/>
+      <c r="J48" s="499"/>
+      <c r="K48" s="499"/>
+      <c r="L48" s="499"/>
+      <c r="M48" s="499"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="460" t="s">
+      <c r="E49" s="453" t="s">
         <v>177</v>
       </c>
       <c r="F49" s="399"/>
@@ -23004,16 +23107,16 @@
       </c>
       <c r="F50" s="119"/>
       <c r="G50" s="241"/>
-      <c r="H50" s="492" t="s">
+      <c r="H50" s="501" t="s">
         <v>1094</v>
       </c>
-      <c r="I50" s="493"/>
-      <c r="J50" s="494"/>
-      <c r="K50" s="492" t="s">
+      <c r="I50" s="502"/>
+      <c r="J50" s="503"/>
+      <c r="K50" s="501" t="s">
         <v>1095</v>
       </c>
-      <c r="L50" s="493"/>
-      <c r="M50" s="494"/>
+      <c r="L50" s="502"/>
+      <c r="M50" s="503"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="W50" t="s">
@@ -23027,20 +23130,20 @@
         <v>1109</v>
       </c>
       <c r="F51" s="282"/>
-      <c r="G51" s="495" t="s">
+      <c r="G51" s="507" t="s">
         <v>1117</v>
       </c>
-      <c r="H51" s="485"/>
-      <c r="I51" s="486"/>
-      <c r="J51" s="487"/>
-      <c r="K51" s="485"/>
-      <c r="L51" s="486"/>
-      <c r="M51" s="487"/>
-      <c r="O51" s="490" t="s">
+      <c r="H51" s="504"/>
+      <c r="I51" s="505"/>
+      <c r="J51" s="506"/>
+      <c r="K51" s="504"/>
+      <c r="L51" s="505"/>
+      <c r="M51" s="506"/>
+      <c r="O51" s="500" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="490"/>
-      <c r="Q51" s="490"/>
+      <c r="P51" s="500"/>
+      <c r="Q51" s="500"/>
       <c r="S51" s="269"/>
       <c r="T51" s="269"/>
       <c r="W51" s="39" t="s">
@@ -23054,13 +23157,13 @@
         <v>1110</v>
       </c>
       <c r="F52" s="283"/>
-      <c r="G52" s="495"/>
-      <c r="H52" s="485"/>
-      <c r="I52" s="486"/>
-      <c r="J52" s="487"/>
-      <c r="K52" s="485"/>
-      <c r="L52" s="486"/>
-      <c r="M52" s="487"/>
+      <c r="G52" s="507"/>
+      <c r="H52" s="504"/>
+      <c r="I52" s="505"/>
+      <c r="J52" s="506"/>
+      <c r="K52" s="504"/>
+      <c r="L52" s="505"/>
+      <c r="M52" s="506"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
     </row>
@@ -23071,13 +23174,13 @@
         <v>1111</v>
       </c>
       <c r="F53" s="284"/>
-      <c r="G53" s="495"/>
-      <c r="H53" s="485"/>
-      <c r="I53" s="486"/>
-      <c r="J53" s="487"/>
-      <c r="K53" s="485"/>
-      <c r="L53" s="486"/>
-      <c r="M53" s="487"/>
+      <c r="G53" s="507"/>
+      <c r="H53" s="504"/>
+      <c r="I53" s="505"/>
+      <c r="J53" s="506"/>
+      <c r="K53" s="504"/>
+      <c r="L53" s="505"/>
+      <c r="M53" s="506"/>
       <c r="N53" s="5"/>
       <c r="O53" s="37" t="s">
         <v>181</v>
@@ -23116,7 +23219,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="270"/>
       <c r="F54" s="285"/>
-      <c r="G54" s="483" t="s">
+      <c r="G54" s="513" t="s">
         <v>1121</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -23163,11 +23266,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="481" t="s">
+      <c r="E55" s="511" t="s">
         <v>1122</v>
       </c>
-      <c r="F55" s="482"/>
-      <c r="G55" s="484"/>
+      <c r="F55" s="512"/>
+      <c r="G55" s="514"/>
       <c r="H55" s="138" t="s">
         <v>1113</v>
       </c>
@@ -23211,9 +23314,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="481"/>
-      <c r="F56" s="482"/>
-      <c r="G56" s="484"/>
+      <c r="E56" s="511"/>
+      <c r="F56" s="512"/>
+      <c r="G56" s="514"/>
       <c r="H56" s="138" t="s">
         <v>1114</v>
       </c>
@@ -23243,9 +23346,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="481"/>
-      <c r="F57" s="482"/>
-      <c r="G57" s="484"/>
+      <c r="E57" s="511"/>
+      <c r="F57" s="512"/>
+      <c r="G57" s="514"/>
       <c r="H57" s="4" t="s">
         <v>1126</v>
       </c>
@@ -23275,9 +23378,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="481"/>
-      <c r="F58" s="482"/>
-      <c r="G58" s="484"/>
+      <c r="E58" s="511"/>
+      <c r="F58" s="512"/>
+      <c r="G58" s="514"/>
       <c r="H58" s="274" t="s">
         <v>1112</v>
       </c>
@@ -23302,9 +23405,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="481"/>
-      <c r="F59" s="482"/>
-      <c r="G59" s="484"/>
+      <c r="E59" s="511"/>
+      <c r="F59" s="512"/>
+      <c r="G59" s="514"/>
       <c r="H59" s="274" t="s">
         <v>547</v>
       </c>
@@ -23329,9 +23432,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="481"/>
-      <c r="F60" s="482"/>
-      <c r="G60" s="484"/>
+      <c r="E60" s="511"/>
+      <c r="F60" s="512"/>
+      <c r="G60" s="514"/>
       <c r="H60" s="276"/>
       <c r="I60" s="277" t="s">
         <v>1128</v>
@@ -23351,9 +23454,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="481"/>
-      <c r="F61" s="482"/>
-      <c r="G61" s="484"/>
+      <c r="E61" s="511"/>
+      <c r="F61" s="512"/>
+      <c r="G61" s="514"/>
       <c r="H61" s="276"/>
       <c r="I61" s="277" t="s">
         <v>1129</v>
@@ -23373,7 +23476,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="265"/>
       <c r="F62" s="281"/>
-      <c r="G62" s="484"/>
+      <c r="G62" s="514"/>
       <c r="H62" s="278"/>
       <c r="I62" s="280" t="s">
         <v>1130</v>
@@ -23415,15 +23518,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="478"/>
-      <c r="F64" s="479"/>
-      <c r="G64" s="479"/>
-      <c r="H64" s="479"/>
-      <c r="I64" s="479"/>
-      <c r="J64" s="479"/>
-      <c r="K64" s="479"/>
-      <c r="L64" s="479"/>
-      <c r="M64" s="480"/>
+      <c r="E64" s="508"/>
+      <c r="F64" s="509"/>
+      <c r="G64" s="509"/>
+      <c r="H64" s="509"/>
+      <c r="I64" s="509"/>
+      <c r="J64" s="509"/>
+      <c r="K64" s="509"/>
+      <c r="L64" s="509"/>
+      <c r="M64" s="510"/>
       <c r="N64" s="39" t="s">
         <v>573</v>
       </c>
@@ -24302,6 +24405,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -24318,30 +24445,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -25342,12 +25445,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="459" t="s">
+      <c r="B8" s="463" t="s">
         <v>1415</v>
       </c>
-      <c r="C8" s="459"/>
-      <c r="D8" s="459"/>
-      <c r="E8" s="459"/>
+      <c r="C8" s="463"/>
+      <c r="D8" s="463"/>
+      <c r="E8" s="463"/>
       <c r="J8" s="31" t="s">
         <v>552</v>
       </c>
@@ -25513,7 +25616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -25523,23 +25626,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="489" t="s">
+      <c r="C2" s="499" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489"/>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489"/>
-      <c r="J2" s="489"/>
-      <c r="K2" s="489"/>
-      <c r="L2" s="489"/>
+      <c r="D2" s="499"/>
+      <c r="E2" s="499"/>
+      <c r="F2" s="499"/>
+      <c r="G2" s="499"/>
+      <c r="H2" s="499"/>
+      <c r="I2" s="499"/>
+      <c r="J2" s="499"/>
+      <c r="K2" s="499"/>
+      <c r="L2" s="499"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="460" t="s">
+      <c r="E3" s="453" t="s">
         <v>177</v>
       </c>
       <c r="F3" s="399"/>
@@ -25579,11 +25682,11 @@
         <v>587</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="490" t="s">
+      <c r="N5" s="500" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="490"/>
-      <c r="P5" s="490"/>
+      <c r="O5" s="500"/>
+      <c r="P5" s="500"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -25634,20 +25737,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="485" t="s">
+      <c r="E8" s="504" t="s">
         <v>569</v>
       </c>
-      <c r="F8" s="487"/>
-      <c r="G8" s="485" t="s">
+      <c r="F8" s="506"/>
+      <c r="G8" s="504" t="s">
         <v>570</v>
       </c>
-      <c r="H8" s="486"/>
-      <c r="I8" s="487"/>
-      <c r="J8" s="485" t="s">
+      <c r="H8" s="505"/>
+      <c r="I8" s="506"/>
+      <c r="J8" s="504" t="s">
         <v>571</v>
       </c>
-      <c r="K8" s="486"/>
-      <c r="L8" s="487"/>
+      <c r="K8" s="505"/>
+      <c r="L8" s="506"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -25670,14 +25773,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="485"/>
-      <c r="F9" s="487"/>
-      <c r="G9" s="485"/>
-      <c r="H9" s="486"/>
-      <c r="I9" s="487"/>
-      <c r="J9" s="485"/>
-      <c r="K9" s="486"/>
-      <c r="L9" s="487"/>
+      <c r="E9" s="504"/>
+      <c r="F9" s="506"/>
+      <c r="G9" s="504"/>
+      <c r="H9" s="505"/>
+      <c r="I9" s="506"/>
+      <c r="J9" s="504"/>
+      <c r="K9" s="505"/>
+      <c r="L9" s="506"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -25697,14 +25800,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="485"/>
-      <c r="F10" s="487"/>
-      <c r="G10" s="485"/>
-      <c r="H10" s="486"/>
-      <c r="I10" s="487"/>
-      <c r="J10" s="485"/>
-      <c r="K10" s="486"/>
-      <c r="L10" s="487"/>
+      <c r="E10" s="504"/>
+      <c r="F10" s="506"/>
+      <c r="G10" s="504"/>
+      <c r="H10" s="505"/>
+      <c r="I10" s="506"/>
+      <c r="J10" s="504"/>
+      <c r="K10" s="505"/>
+      <c r="L10" s="506"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -25718,14 +25821,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="485"/>
-      <c r="F11" s="487"/>
-      <c r="G11" s="485"/>
-      <c r="H11" s="486"/>
-      <c r="I11" s="487"/>
-      <c r="J11" s="485"/>
-      <c r="K11" s="486"/>
-      <c r="L11" s="487"/>
+      <c r="E11" s="504"/>
+      <c r="F11" s="506"/>
+      <c r="G11" s="504"/>
+      <c r="H11" s="505"/>
+      <c r="I11" s="506"/>
+      <c r="J11" s="504"/>
+      <c r="K11" s="505"/>
+      <c r="L11" s="506"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -25828,16 +25931,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="478" t="s">
+      <c r="E17" s="508" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="479"/>
-      <c r="G17" s="479"/>
-      <c r="H17" s="479"/>
-      <c r="I17" s="479"/>
-      <c r="J17" s="479"/>
-      <c r="K17" s="479"/>
-      <c r="L17" s="480"/>
+      <c r="F17" s="509"/>
+      <c r="G17" s="509"/>
+      <c r="H17" s="509"/>
+      <c r="I17" s="509"/>
+      <c r="J17" s="509"/>
+      <c r="K17" s="509"/>
+      <c r="L17" s="510"/>
       <c r="M17" s="39" t="s">
         <v>573</v>
       </c>
@@ -25929,225 +26032,232 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q23"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:17">
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="H4" s="4"/>
-      <c r="I4" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+    <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:17">
+      <c r="B2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="G2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="L3" s="5" t="s">
+        <v>1781</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="I4" s="4"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+    <row r="5" spans="2:17">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="G5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="L5" s="556" t="s">
+        <v>1782</v>
+      </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H6" s="4"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" t="s">
+        <v>1785</v>
+      </c>
+      <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>598</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>606</v>
-      </c>
-      <c r="G7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="4"/>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1" t="s">
-        <v>601</v>
+        <v>1774</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="O7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>613</v>
-      </c>
-      <c r="H8" s="4"/>
+    <row r="8" spans="2:17">
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="M8" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="N8" s="3"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
+      <c r="P8" s="5" t="s">
+        <v>1790</v>
+      </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17">
-      <c r="H9" s="4"/>
+    <row r="9" spans="2:17" ht="15.75" thickBot="1">
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>600</v>
+        <v>782</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>545</v>
+        <v>330</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="6"/>
+      <c r="O9" t="s">
+        <v>353</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>1783</v>
+      </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H10" s="4"/>
+    <row r="10" spans="2:17">
+      <c r="B10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="6"/>
+      <c r="P10" s="5" t="s">
+        <v>1787</v>
+      </c>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A11" t="s">
-        <v>603</v>
-      </c>
-      <c r="H11" s="4"/>
+    <row r="11" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" t="s">
+        <v>1777</v>
+      </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6" t="s">
+        <v>704</v>
+      </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="P11" s="5" t="s">
+        <v>1788</v>
+      </c>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" t="s">
-        <v>605</v>
-      </c>
+    <row r="12" spans="2:17">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" t="s">
-        <v>483</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>1778</v>
+      </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="6" t="s">
+        <v>1016</v>
+      </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
+      <c r="M12" s="556" t="s">
+        <v>1791</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>1789</v>
+      </c>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" t="s">
-        <v>612</v>
-      </c>
-      <c r="H13" s="4"/>
+    <row r="13" spans="2:17">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="K13" s="6">
-        <v>6</v>
-      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>300</v>
-      </c>
-      <c r="H14" s="4"/>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
@@ -26155,11 +26265,14 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="H15" s="4"/>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -26167,26 +26280,25 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
-        <v>607</v>
-      </c>
-      <c r="H16" s="4"/>
+    <row r="16" spans="2:17">
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="556" t="s">
+        <v>1792</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
+      <c r="O16" s="556" t="s">
+        <v>1793</v>
+      </c>
+      <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H17" s="4"/>
+    <row r="17" spans="3:17">
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -26194,122 +26306,595 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
+    <row r="18" spans="3:17">
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="3:17" ht="15.75" thickBot="1">
+      <c r="I19" s="8"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="H20" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" ht="15.75" thickBot="1">
+      <c r="I21" s="39" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22" s="244" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="M22" s="244" t="s">
+        <v>1795</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="I23" s="39" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J23" s="39"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="I24" s="39" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J24" s="39"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" s="4"/>
+      <c r="D26" s="27" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="M26" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="C27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="I27" s="39" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J27" s="39"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="I28" s="39" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J28" s="39"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="3:17">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="3:17">
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="3:17">
+      <c r="C31" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="M31" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="3:17">
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="3:16" ht="15.75" thickBot="1">
+      <c r="C33" s="8"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="77" spans="8:17" ht="15.75" thickBot="1"/>
+    <row r="78" spans="8:17">
+      <c r="H78" s="1"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="3"/>
+    </row>
+    <row r="79" spans="8:17">
+      <c r="H79" s="4"/>
+      <c r="I79" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80" spans="8:17" ht="15.75" thickBot="1">
+      <c r="H80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="6"/>
+    </row>
+    <row r="81" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H81" s="4"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" t="s">
+        <v>598</v>
+      </c>
+      <c r="C82" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E82" t="s">
+        <v>606</v>
+      </c>
+      <c r="G82" t="s">
+        <v>269</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="N82" s="3"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>613</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O83" s="5"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="L84" s="5"/>
+      <c r="M84" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="O84" s="5"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A86" t="s">
+        <v>603</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" t="s">
+        <v>605</v>
+      </c>
+      <c r="F87" t="s">
+        <v>483</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" t="s">
+        <v>612</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K88" s="6">
+        <v>6</v>
+      </c>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>300</v>
+      </c>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" t="s">
+        <v>607</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" t="s">
         <v>608</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C93" t="s">
         <v>330</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D93" t="s">
         <v>611</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F93" t="s">
         <v>483</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="1" t="s">
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="1" t="s">
+      <c r="K93" s="3"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
+      <c r="N93" s="3"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B94" t="s">
         <v>608</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C94" t="s">
         <v>363</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D94" t="s">
         <v>286</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K94" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="4" t="s">
+      <c r="L94" s="5"/>
+      <c r="M94" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N94" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H22" s="4"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="9"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="8:17" ht="15.75" thickBot="1">
+      <c r="H97" s="4"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" spans="8:17" ht="15.75" thickBot="1">
+      <c r="H98" s="8"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26625,22 +27210,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="491" t="s">
+      <c r="E3" s="478" t="s">
         <v>516</v>
       </c>
-      <c r="F3" s="491"/>
-      <c r="G3" s="491" t="s">
+      <c r="F3" s="478"/>
+      <c r="G3" s="478" t="s">
         <v>517</v>
       </c>
-      <c r="H3" s="491"/>
-      <c r="I3" s="491"/>
-      <c r="J3" s="491"/>
-      <c r="K3" s="491"/>
-      <c r="L3" s="491"/>
-      <c r="M3" s="491" t="s">
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="478"/>
+      <c r="K3" s="478"/>
+      <c r="L3" s="478"/>
+      <c r="M3" s="478" t="s">
         <v>518</v>
       </c>
-      <c r="N3" s="491"/>
+      <c r="N3" s="478"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -26651,7 +27236,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="132"/>
       <c r="D4" s="133"/>
-      <c r="E4" s="496" t="s">
+      <c r="E4" s="479" t="s">
         <v>519</v>
       </c>
       <c r="F4" s="128"/>
@@ -26679,22 +27264,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="135"/>
-      <c r="E5" s="497"/>
+      <c r="E5" s="480"/>
       <c r="F5" s="438" t="s">
         <v>615</v>
       </c>
       <c r="G5" s="439"/>
       <c r="H5" s="440"/>
-      <c r="I5" s="523" t="s">
+      <c r="I5" s="552" t="s">
         <v>616</v>
       </c>
-      <c r="J5" s="524"/>
-      <c r="K5" s="524"/>
-      <c r="L5" s="504"/>
-      <c r="M5" s="523" t="s">
+      <c r="J5" s="553"/>
+      <c r="K5" s="553"/>
+      <c r="L5" s="487"/>
+      <c r="M5" s="552" t="s">
         <v>617</v>
       </c>
-      <c r="N5" s="504"/>
+      <c r="N5" s="487"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26705,16 +27290,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="136"/>
       <c r="D6" s="137"/>
-      <c r="E6" s="497"/>
+      <c r="E6" s="480"/>
       <c r="F6" s="441"/>
       <c r="G6" s="442"/>
       <c r="H6" s="443"/>
-      <c r="I6" s="505"/>
-      <c r="J6" s="525"/>
-      <c r="K6" s="525"/>
-      <c r="L6" s="506"/>
-      <c r="M6" s="505"/>
-      <c r="N6" s="506"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="554"/>
+      <c r="L6" s="489"/>
+      <c r="M6" s="488"/>
+      <c r="N6" s="489"/>
       <c r="O6" s="5"/>
       <c r="P6" s="37" t="s">
         <v>181</v>
@@ -26731,16 +27316,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="497"/>
+      <c r="E7" s="480"/>
       <c r="F7" s="441"/>
       <c r="G7" s="442"/>
       <c r="H7" s="443"/>
-      <c r="I7" s="505"/>
-      <c r="J7" s="525"/>
-      <c r="K7" s="525"/>
-      <c r="L7" s="506"/>
-      <c r="M7" s="505"/>
-      <c r="N7" s="506"/>
+      <c r="I7" s="488"/>
+      <c r="J7" s="554"/>
+      <c r="K7" s="554"/>
+      <c r="L7" s="489"/>
+      <c r="M7" s="488"/>
+      <c r="N7" s="489"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26759,16 +27344,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="497"/>
+      <c r="E8" s="480"/>
       <c r="F8" s="441"/>
       <c r="G8" s="442"/>
       <c r="H8" s="443"/>
-      <c r="I8" s="505"/>
-      <c r="J8" s="525"/>
-      <c r="K8" s="525"/>
-      <c r="L8" s="506"/>
-      <c r="M8" s="505"/>
-      <c r="N8" s="506"/>
+      <c r="I8" s="488"/>
+      <c r="J8" s="554"/>
+      <c r="K8" s="554"/>
+      <c r="L8" s="489"/>
+      <c r="M8" s="488"/>
+      <c r="N8" s="489"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -26789,16 +27374,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="497"/>
+      <c r="E9" s="480"/>
       <c r="F9" s="441"/>
       <c r="G9" s="442"/>
       <c r="H9" s="443"/>
-      <c r="I9" s="505"/>
-      <c r="J9" s="525"/>
-      <c r="K9" s="525"/>
-      <c r="L9" s="506"/>
-      <c r="M9" s="505"/>
-      <c r="N9" s="506"/>
+      <c r="I9" s="488"/>
+      <c r="J9" s="554"/>
+      <c r="K9" s="554"/>
+      <c r="L9" s="489"/>
+      <c r="M9" s="488"/>
+      <c r="N9" s="489"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -26815,16 +27400,16 @@
         <v>535</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="497"/>
+      <c r="E10" s="480"/>
       <c r="F10" s="441"/>
       <c r="G10" s="442"/>
       <c r="H10" s="443"/>
-      <c r="I10" s="505"/>
-      <c r="J10" s="525"/>
-      <c r="K10" s="525"/>
-      <c r="L10" s="506"/>
-      <c r="M10" s="505"/>
-      <c r="N10" s="506"/>
+      <c r="I10" s="488"/>
+      <c r="J10" s="554"/>
+      <c r="K10" s="554"/>
+      <c r="L10" s="489"/>
+      <c r="M10" s="488"/>
+      <c r="N10" s="489"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -26837,16 +27422,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="497"/>
+      <c r="E11" s="480"/>
       <c r="F11" s="441"/>
       <c r="G11" s="442"/>
       <c r="H11" s="443"/>
-      <c r="I11" s="505"/>
-      <c r="J11" s="525"/>
-      <c r="K11" s="525"/>
-      <c r="L11" s="506"/>
-      <c r="M11" s="505"/>
-      <c r="N11" s="506"/>
+      <c r="I11" s="488"/>
+      <c r="J11" s="554"/>
+      <c r="K11" s="554"/>
+      <c r="L11" s="489"/>
+      <c r="M11" s="488"/>
+      <c r="N11" s="489"/>
       <c r="O11" s="5"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -26857,16 +27442,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="497"/>
+      <c r="E12" s="480"/>
       <c r="F12" s="441"/>
       <c r="G12" s="442"/>
       <c r="H12" s="443"/>
-      <c r="I12" s="505"/>
-      <c r="J12" s="525"/>
-      <c r="K12" s="525"/>
-      <c r="L12" s="506"/>
-      <c r="M12" s="505"/>
-      <c r="N12" s="506"/>
+      <c r="I12" s="488"/>
+      <c r="J12" s="554"/>
+      <c r="K12" s="554"/>
+      <c r="L12" s="489"/>
+      <c r="M12" s="488"/>
+      <c r="N12" s="489"/>
       <c r="O12" s="5"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -26879,16 +27464,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="497"/>
+      <c r="E13" s="480"/>
       <c r="F13" s="441"/>
       <c r="G13" s="442"/>
       <c r="H13" s="443"/>
-      <c r="I13" s="505"/>
-      <c r="J13" s="525"/>
-      <c r="K13" s="525"/>
-      <c r="L13" s="506"/>
-      <c r="M13" s="505"/>
-      <c r="N13" s="506"/>
+      <c r="I13" s="488"/>
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="489"/>
+      <c r="M13" s="488"/>
+      <c r="N13" s="489"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -26899,16 +27484,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="497"/>
+      <c r="E14" s="480"/>
       <c r="F14" s="441"/>
       <c r="G14" s="442"/>
       <c r="H14" s="443"/>
-      <c r="I14" s="505"/>
-      <c r="J14" s="525"/>
-      <c r="K14" s="525"/>
-      <c r="L14" s="506"/>
-      <c r="M14" s="505"/>
-      <c r="N14" s="506"/>
+      <c r="I14" s="488"/>
+      <c r="J14" s="554"/>
+      <c r="K14" s="554"/>
+      <c r="L14" s="489"/>
+      <c r="M14" s="488"/>
+      <c r="N14" s="489"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -26919,16 +27504,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="497"/>
+      <c r="E15" s="480"/>
       <c r="F15" s="441"/>
       <c r="G15" s="442"/>
       <c r="H15" s="443"/>
-      <c r="I15" s="505"/>
-      <c r="J15" s="525"/>
-      <c r="K15" s="525"/>
-      <c r="L15" s="506"/>
-      <c r="M15" s="505"/>
-      <c r="N15" s="506"/>
+      <c r="I15" s="488"/>
+      <c r="J15" s="554"/>
+      <c r="K15" s="554"/>
+      <c r="L15" s="489"/>
+      <c r="M15" s="488"/>
+      <c r="N15" s="489"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -26939,16 +27524,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="497"/>
+      <c r="E16" s="480"/>
       <c r="F16" s="441"/>
       <c r="G16" s="442"/>
       <c r="H16" s="443"/>
-      <c r="I16" s="505"/>
-      <c r="J16" s="525"/>
-      <c r="K16" s="525"/>
-      <c r="L16" s="506"/>
-      <c r="M16" s="505"/>
-      <c r="N16" s="506"/>
+      <c r="I16" s="488"/>
+      <c r="J16" s="554"/>
+      <c r="K16" s="554"/>
+      <c r="L16" s="489"/>
+      <c r="M16" s="488"/>
+      <c r="N16" s="489"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -26961,16 +27546,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="497"/>
+      <c r="E17" s="480"/>
       <c r="F17" s="441"/>
       <c r="G17" s="442"/>
       <c r="H17" s="443"/>
-      <c r="I17" s="505"/>
-      <c r="J17" s="525"/>
-      <c r="K17" s="525"/>
-      <c r="L17" s="506"/>
-      <c r="M17" s="505"/>
-      <c r="N17" s="506"/>
+      <c r="I17" s="488"/>
+      <c r="J17" s="554"/>
+      <c r="K17" s="554"/>
+      <c r="L17" s="489"/>
+      <c r="M17" s="488"/>
+      <c r="N17" s="489"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -26981,16 +27566,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="498"/>
+      <c r="E18" s="481"/>
       <c r="F18" s="444"/>
       <c r="G18" s="445"/>
       <c r="H18" s="446"/>
-      <c r="I18" s="507"/>
-      <c r="J18" s="526"/>
-      <c r="K18" s="526"/>
-      <c r="L18" s="508"/>
-      <c r="M18" s="507"/>
-      <c r="N18" s="508"/>
+      <c r="I18" s="490"/>
+      <c r="J18" s="555"/>
+      <c r="K18" s="555"/>
+      <c r="L18" s="491"/>
+      <c r="M18" s="490"/>
+      <c r="N18" s="491"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -27066,29 +27651,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="490" t="s">
+      <c r="B24" s="500" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="490"/>
-      <c r="D24" s="489"/>
-      <c r="E24" s="489"/>
-      <c r="F24" s="489"/>
-      <c r="G24" s="489"/>
-      <c r="H24" s="489"/>
-      <c r="I24" s="489"/>
-      <c r="J24" s="489"/>
-      <c r="K24" s="489"/>
-      <c r="M24" s="544" t="s">
+      <c r="C24" s="500"/>
+      <c r="D24" s="499"/>
+      <c r="E24" s="499"/>
+      <c r="F24" s="499"/>
+      <c r="G24" s="499"/>
+      <c r="H24" s="499"/>
+      <c r="I24" s="499"/>
+      <c r="J24" s="499"/>
+      <c r="K24" s="499"/>
+      <c r="M24" s="523" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="544"/>
-      <c r="O24" s="544"/>
+      <c r="N24" s="523"/>
+      <c r="O24" s="523"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="545" t="s">
+      <c r="B25" s="524" t="s">
         <v>928</v>
       </c>
-      <c r="C25" s="467"/>
+      <c r="C25" s="466"/>
       <c r="D25" s="412" t="s">
         <v>177</v>
       </c>
@@ -27110,13 +27695,13 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="468"/>
-      <c r="C26" s="469"/>
-      <c r="D26" s="466" t="s">
+      <c r="B26" s="467"/>
+      <c r="C26" s="468"/>
+      <c r="D26" s="465" t="s">
         <v>921</v>
       </c>
-      <c r="E26" s="467"/>
-      <c r="F26" s="539" t="s">
+      <c r="E26" s="466"/>
+      <c r="F26" s="550" t="s">
         <v>921</v>
       </c>
       <c r="G26" s="412"/>
@@ -27140,21 +27725,21 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="468"/>
-      <c r="C27" s="469"/>
-      <c r="D27" s="459" t="s">
+      <c r="B27" s="467"/>
+      <c r="C27" s="468"/>
+      <c r="D27" s="463" t="s">
         <v>926</v>
       </c>
-      <c r="E27" s="469"/>
-      <c r="F27" s="468" t="s">
+      <c r="E27" s="468"/>
+      <c r="F27" s="467" t="s">
         <v>922</v>
       </c>
-      <c r="G27" s="459"/>
+      <c r="G27" s="463"/>
       <c r="H27" s="404"/>
-      <c r="I27" s="543" t="s">
+      <c r="I27" s="534" t="s">
         <v>926</v>
       </c>
-      <c r="J27" s="459"/>
+      <c r="J27" s="463"/>
       <c r="K27" s="404"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
@@ -27170,21 +27755,21 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="468"/>
-      <c r="C28" s="469"/>
-      <c r="D28" s="459" t="s">
+      <c r="B28" s="467"/>
+      <c r="C28" s="468"/>
+      <c r="D28" s="463" t="s">
         <v>923</v>
       </c>
-      <c r="E28" s="469"/>
-      <c r="F28" s="468" t="s">
+      <c r="E28" s="468"/>
+      <c r="F28" s="467" t="s">
         <v>923</v>
       </c>
-      <c r="G28" s="459"/>
+      <c r="G28" s="463"/>
       <c r="H28" s="404"/>
-      <c r="I28" s="543" t="s">
+      <c r="I28" s="534" t="s">
         <v>923</v>
       </c>
-      <c r="J28" s="459"/>
+      <c r="J28" s="463"/>
       <c r="K28" s="404"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
@@ -27194,22 +27779,22 @@
       <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="470"/>
-      <c r="C29" s="471"/>
-      <c r="D29" s="459" t="s">
+      <c r="B29" s="469"/>
+      <c r="C29" s="470"/>
+      <c r="D29" s="463" t="s">
         <v>924</v>
       </c>
-      <c r="E29" s="469"/>
-      <c r="F29" s="540" t="s">
+      <c r="E29" s="468"/>
+      <c r="F29" s="551" t="s">
         <v>924</v>
       </c>
-      <c r="G29" s="541"/>
-      <c r="H29" s="542"/>
-      <c r="I29" s="555" t="s">
+      <c r="G29" s="536"/>
+      <c r="H29" s="537"/>
+      <c r="I29" s="535" t="s">
         <v>924</v>
       </c>
-      <c r="J29" s="541"/>
-      <c r="K29" s="542"/>
+      <c r="J29" s="536"/>
+      <c r="K29" s="537"/>
       <c r="L29" s="23" t="s">
         <v>2</v>
       </c>
@@ -27222,20 +27807,20 @@
         <v>927</v>
       </c>
       <c r="C30" s="416"/>
-      <c r="D30" s="527" t="s">
+      <c r="D30" s="538" t="s">
         <v>569</v>
       </c>
-      <c r="E30" s="528"/>
-      <c r="F30" s="532" t="s">
+      <c r="E30" s="539"/>
+      <c r="F30" s="543" t="s">
         <v>570</v>
       </c>
-      <c r="G30" s="533"/>
-      <c r="H30" s="528"/>
-      <c r="I30" s="532" t="s">
+      <c r="G30" s="544"/>
+      <c r="H30" s="539"/>
+      <c r="I30" s="543" t="s">
         <v>571</v>
       </c>
-      <c r="J30" s="533"/>
-      <c r="K30" s="536"/>
+      <c r="J30" s="544"/>
+      <c r="K30" s="547"/>
       <c r="L30" s="5"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
@@ -27244,14 +27829,14 @@
     <row r="31" spans="2:19">
       <c r="B31" s="405"/>
       <c r="C31" s="418"/>
-      <c r="D31" s="529"/>
-      <c r="E31" s="487"/>
-      <c r="F31" s="485"/>
-      <c r="G31" s="486"/>
-      <c r="H31" s="487"/>
-      <c r="I31" s="485"/>
-      <c r="J31" s="486"/>
-      <c r="K31" s="537"/>
+      <c r="D31" s="540"/>
+      <c r="E31" s="506"/>
+      <c r="F31" s="504"/>
+      <c r="G31" s="505"/>
+      <c r="H31" s="506"/>
+      <c r="I31" s="504"/>
+      <c r="J31" s="505"/>
+      <c r="K31" s="548"/>
       <c r="L31" s="5"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
@@ -27260,107 +27845,107 @@
     <row r="32" spans="2:19">
       <c r="B32" s="405"/>
       <c r="C32" s="418"/>
-      <c r="D32" s="529"/>
-      <c r="E32" s="487"/>
-      <c r="F32" s="485"/>
-      <c r="G32" s="486"/>
-      <c r="H32" s="487"/>
-      <c r="I32" s="485"/>
-      <c r="J32" s="486"/>
-      <c r="K32" s="537"/>
+      <c r="D32" s="540"/>
+      <c r="E32" s="506"/>
+      <c r="F32" s="504"/>
+      <c r="G32" s="505"/>
+      <c r="H32" s="506"/>
+      <c r="I32" s="504"/>
+      <c r="J32" s="505"/>
+      <c r="K32" s="548"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="405"/>
       <c r="C33" s="418"/>
-      <c r="D33" s="530"/>
-      <c r="E33" s="531"/>
-      <c r="F33" s="534"/>
-      <c r="G33" s="535"/>
-      <c r="H33" s="531"/>
-      <c r="I33" s="534"/>
-      <c r="J33" s="535"/>
-      <c r="K33" s="538"/>
+      <c r="D33" s="541"/>
+      <c r="E33" s="542"/>
+      <c r="F33" s="545"/>
+      <c r="G33" s="546"/>
+      <c r="H33" s="542"/>
+      <c r="I33" s="545"/>
+      <c r="J33" s="546"/>
+      <c r="K33" s="549"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="405"/>
       <c r="C34" s="407"/>
-      <c r="D34" s="546" t="s">
+      <c r="D34" s="525" t="s">
         <v>914</v>
       </c>
-      <c r="E34" s="547"/>
-      <c r="F34" s="546" t="s">
+      <c r="E34" s="526"/>
+      <c r="F34" s="525" t="s">
         <v>591</v>
       </c>
-      <c r="G34" s="552"/>
-      <c r="H34" s="547"/>
-      <c r="I34" s="546" t="s">
+      <c r="G34" s="531"/>
+      <c r="H34" s="526"/>
+      <c r="I34" s="525" t="s">
         <v>929</v>
       </c>
-      <c r="J34" s="552"/>
-      <c r="K34" s="547"/>
+      <c r="J34" s="531"/>
+      <c r="K34" s="526"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="405"/>
       <c r="C35" s="407"/>
-      <c r="D35" s="548"/>
-      <c r="E35" s="549"/>
-      <c r="F35" s="548"/>
-      <c r="G35" s="553"/>
-      <c r="H35" s="549"/>
-      <c r="I35" s="548"/>
-      <c r="J35" s="553"/>
-      <c r="K35" s="549"/>
+      <c r="D35" s="527"/>
+      <c r="E35" s="528"/>
+      <c r="F35" s="527"/>
+      <c r="G35" s="532"/>
+      <c r="H35" s="528"/>
+      <c r="I35" s="527"/>
+      <c r="J35" s="532"/>
+      <c r="K35" s="528"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="405"/>
       <c r="C36" s="407"/>
-      <c r="D36" s="548"/>
-      <c r="E36" s="549"/>
-      <c r="F36" s="548"/>
-      <c r="G36" s="553"/>
-      <c r="H36" s="549"/>
-      <c r="I36" s="548"/>
-      <c r="J36" s="553"/>
-      <c r="K36" s="549"/>
+      <c r="D36" s="527"/>
+      <c r="E36" s="528"/>
+      <c r="F36" s="527"/>
+      <c r="G36" s="532"/>
+      <c r="H36" s="528"/>
+      <c r="I36" s="527"/>
+      <c r="J36" s="532"/>
+      <c r="K36" s="528"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="405"/>
       <c r="C37" s="407"/>
-      <c r="D37" s="548"/>
-      <c r="E37" s="549"/>
-      <c r="F37" s="548"/>
-      <c r="G37" s="553"/>
-      <c r="H37" s="549"/>
-      <c r="I37" s="548"/>
-      <c r="J37" s="553"/>
-      <c r="K37" s="549"/>
+      <c r="D37" s="527"/>
+      <c r="E37" s="528"/>
+      <c r="F37" s="527"/>
+      <c r="G37" s="532"/>
+      <c r="H37" s="528"/>
+      <c r="I37" s="527"/>
+      <c r="J37" s="532"/>
+      <c r="K37" s="528"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="B38" s="405"/>
       <c r="C38" s="407"/>
-      <c r="D38" s="550"/>
-      <c r="E38" s="551"/>
-      <c r="F38" s="550"/>
-      <c r="G38" s="554"/>
-      <c r="H38" s="551"/>
-      <c r="I38" s="550"/>
-      <c r="J38" s="554"/>
-      <c r="K38" s="551"/>
+      <c r="D38" s="529"/>
+      <c r="E38" s="530"/>
+      <c r="F38" s="529"/>
+      <c r="G38" s="533"/>
+      <c r="H38" s="530"/>
+      <c r="I38" s="529"/>
+      <c r="J38" s="533"/>
+      <c r="K38" s="530"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
       <c r="B39" s="419"/>
       <c r="C39" s="421"/>
-      <c r="D39" s="478" t="s">
+      <c r="D39" s="508" t="s">
         <v>572</v>
       </c>
-      <c r="E39" s="479"/>
-      <c r="F39" s="479"/>
-      <c r="G39" s="479"/>
-      <c r="H39" s="479"/>
-      <c r="I39" s="479"/>
-      <c r="J39" s="479"/>
-      <c r="K39" s="480"/>
+      <c r="E39" s="509"/>
+      <c r="F39" s="509"/>
+      <c r="G39" s="509"/>
+      <c r="H39" s="509"/>
+      <c r="I39" s="509"/>
+      <c r="J39" s="509"/>
+      <c r="K39" s="510"/>
       <c r="L39" s="39" t="s">
         <v>573</v>
       </c>
@@ -27397,17 +27982,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -27424,16 +28008,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
